--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="323">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,13 +697,19 @@
     <t>['38', '71', '77']</t>
   </si>
   <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['35', '90+1', '90+10']</t>
+  </si>
+  <si>
     <t>['18']</t>
   </si>
   <si>
     <t>['38']</t>
-  </si>
-  <si>
-    <t>['30']</t>
   </si>
   <si>
     <t>['51']</t>
@@ -962,6 +968,21 @@
   </si>
   <si>
     <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['30', '63', '80']</t>
+  </si>
+  <si>
+    <t>['55', '90+6']</t>
+  </si>
+  <si>
+    <t>['38', '59']</t>
+  </si>
+  <si>
+    <t>['3', '64']</t>
+  </si>
+  <si>
+    <t>['51', '79']</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK206"/>
+  <dimension ref="A1:BK219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1567,7 +1588,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1654,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT2">
         <v>1.78</v>
@@ -1758,7 +1779,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1848,7 +1869,7 @@
         <v>1.67</v>
       </c>
       <c r="AT3">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2039,7 +2060,7 @@
         <v>2.33</v>
       </c>
       <c r="AT4">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2227,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT5">
         <v>1.22</v>
@@ -2418,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT6">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2609,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT7">
         <v>1.22</v>
@@ -2803,7 +2824,7 @@
         <v>1.25</v>
       </c>
       <c r="AT8">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2994,7 +3015,7 @@
         <v>2.33</v>
       </c>
       <c r="AT9">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3095,7 +3116,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3182,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT10">
         <v>0.89</v>
@@ -3286,7 +3307,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3477,7 +3498,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3758,7 +3779,7 @@
         <v>2</v>
       </c>
       <c r="AT13">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3946,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT14">
         <v>0.29</v>
@@ -4050,7 +4071,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4137,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT15">
         <v>1.63</v>
@@ -4241,7 +4262,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4331,7 +4352,7 @@
         <v>1.78</v>
       </c>
       <c r="AT16">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4522,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="AT17">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4713,7 +4734,7 @@
         <v>1.88</v>
       </c>
       <c r="AT18">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4814,7 +4835,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4901,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT19">
         <v>0.78</v>
@@ -5005,7 +5026,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -5092,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT20">
         <v>1.75</v>
@@ -5283,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT21">
         <v>1</v>
@@ -5387,7 +5408,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5474,10 +5495,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT22">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5578,7 +5599,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5668,7 +5689,7 @@
         <v>2.13</v>
       </c>
       <c r="AT23">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5856,10 +5877,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT24">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -6238,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT26">
         <v>1.22</v>
@@ -6429,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT27">
         <v>0.89</v>
@@ -6623,7 +6644,7 @@
         <v>1.67</v>
       </c>
       <c r="AT28">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU28">
         <v>1.54</v>
@@ -6724,7 +6745,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6814,7 +6835,7 @@
         <v>1.25</v>
       </c>
       <c r="AT29">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU29">
         <v>1.31</v>
@@ -6915,7 +6936,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -7002,10 +7023,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT30">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU30">
         <v>1.9</v>
@@ -7106,7 +7127,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7297,7 +7318,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7384,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT32">
         <v>1.22</v>
@@ -7575,10 +7596,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT33">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU33">
         <v>0.37</v>
@@ -7769,7 +7790,7 @@
         <v>1.25</v>
       </c>
       <c r="AT34">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU34">
         <v>1.26</v>
@@ -7870,7 +7891,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7960,7 +7981,7 @@
         <v>1.44</v>
       </c>
       <c r="AT35">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU35">
         <v>1.69</v>
@@ -8061,7 +8082,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -8252,7 +8273,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8342,7 +8363,7 @@
         <v>1.78</v>
       </c>
       <c r="AT37">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU37">
         <v>0.03</v>
@@ -8443,7 +8464,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8530,10 +8551,10 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT38">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU38">
         <v>1.91</v>
@@ -8721,7 +8742,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT39">
         <v>1.75</v>
@@ -8912,7 +8933,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT40">
         <v>1</v>
@@ -9016,7 +9037,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9103,7 +9124,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT41">
         <v>0.29</v>
@@ -9294,10 +9315,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT42">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU42">
         <v>2.35</v>
@@ -9488,7 +9509,7 @@
         <v>2.13</v>
       </c>
       <c r="AT43">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU43">
         <v>1.52</v>
@@ -9589,7 +9610,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9679,7 +9700,7 @@
         <v>1</v>
       </c>
       <c r="AT44">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU44">
         <v>1.33</v>
@@ -9780,7 +9801,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q45">
         <v>13</v>
@@ -9870,7 +9891,7 @@
         <v>1.88</v>
       </c>
       <c r="AT45">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU45">
         <v>1</v>
@@ -10058,10 +10079,10 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT46">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU46">
         <v>1.13</v>
@@ -10249,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT47">
         <v>0.78</v>
@@ -10440,10 +10461,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT48">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU48">
         <v>2.56</v>
@@ -10544,7 +10565,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10631,7 +10652,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -10735,7 +10756,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11016,7 +11037,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU51">
         <v>1.32</v>
@@ -11207,7 +11228,7 @@
         <v>1.88</v>
       </c>
       <c r="AT52">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU52">
         <v>1.78</v>
@@ -11395,10 +11416,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT53">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU53">
         <v>1.37</v>
@@ -11499,7 +11520,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q54">
         <v>9</v>
@@ -11589,7 +11610,7 @@
         <v>2.13</v>
       </c>
       <c r="AT54">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU54">
         <v>1.59</v>
@@ -11777,10 +11798,10 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT55">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU55">
         <v>2.28</v>
@@ -11881,7 +11902,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11968,10 +11989,10 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT56">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU56">
         <v>1.72</v>
@@ -12159,7 +12180,7 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT57">
         <v>1.63</v>
@@ -12350,7 +12371,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT58">
         <v>0.78</v>
@@ -12454,7 +12475,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12541,10 +12562,10 @@
         <v>0.5</v>
       </c>
       <c r="AS59">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT59">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU59">
         <v>1.93</v>
@@ -12836,7 +12857,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12926,7 +12947,7 @@
         <v>1.44</v>
       </c>
       <c r="AT61">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU61">
         <v>1.4</v>
@@ -13027,7 +13048,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -13114,7 +13135,7 @@
         <v>1.5</v>
       </c>
       <c r="AS62">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT62">
         <v>1.78</v>
@@ -13409,7 +13430,7 @@
         <v>89</v>
       </c>
       <c r="P64" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13499,7 +13520,7 @@
         <v>2.33</v>
       </c>
       <c r="AT64">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU64">
         <v>1.64</v>
@@ -13600,7 +13621,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13690,7 +13711,7 @@
         <v>2</v>
       </c>
       <c r="AT65">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU65">
         <v>1.13</v>
@@ -13791,7 +13812,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13878,7 +13899,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT66">
         <v>0.88</v>
@@ -14069,10 +14090,10 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT67">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU67">
         <v>1.06</v>
@@ -14173,7 +14194,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14364,7 +14385,7 @@
         <v>89</v>
       </c>
       <c r="P69" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14454,7 +14475,7 @@
         <v>2.33</v>
       </c>
       <c r="AT69">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU69">
         <v>1.16</v>
@@ -14555,7 +14576,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14642,7 +14663,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT70">
         <v>1.11</v>
@@ -14937,7 +14958,7 @@
         <v>104</v>
       </c>
       <c r="P72" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15024,7 +15045,7 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT72">
         <v>1.22</v>
@@ -15215,10 +15236,10 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT73">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU73">
         <v>1.66</v>
@@ -15319,7 +15340,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15406,7 +15427,7 @@
         <v>1.33</v>
       </c>
       <c r="AS74">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT74">
         <v>1.75</v>
@@ -15600,7 +15621,7 @@
         <v>1.88</v>
       </c>
       <c r="AT75">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU75">
         <v>2.19</v>
@@ -15701,7 +15722,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15788,7 +15809,7 @@
         <v>0.67</v>
       </c>
       <c r="AS76">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT76">
         <v>0.88</v>
@@ -15892,7 +15913,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15982,7 +16003,7 @@
         <v>2</v>
       </c>
       <c r="AT77">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU77">
         <v>1.3</v>
@@ -16173,7 +16194,7 @@
         <v>1</v>
       </c>
       <c r="AT78">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU78">
         <v>1.48</v>
@@ -16364,7 +16385,7 @@
         <v>1.25</v>
       </c>
       <c r="AT79">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU79">
         <v>1.68</v>
@@ -16552,7 +16573,7 @@
         <v>0</v>
       </c>
       <c r="AS80">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT80">
         <v>0.29</v>
@@ -16656,7 +16677,7 @@
         <v>89</v>
       </c>
       <c r="P81" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -16743,10 +16764,10 @@
         <v>1.67</v>
       </c>
       <c r="AS81">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT81">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU81">
         <v>0</v>
@@ -16937,7 +16958,7 @@
         <v>1.25</v>
       </c>
       <c r="AT82">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU82">
         <v>1.43</v>
@@ -17038,7 +17059,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -17125,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT83">
         <v>1.78</v>
@@ -17229,7 +17250,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17319,7 +17340,7 @@
         <v>1.67</v>
       </c>
       <c r="AT84">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU84">
         <v>1.75</v>
@@ -17510,7 +17531,7 @@
         <v>1.78</v>
       </c>
       <c r="AT85">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU85">
         <v>1.29</v>
@@ -17698,7 +17719,7 @@
         <v>0.33</v>
       </c>
       <c r="AS86">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT86">
         <v>1.22</v>
@@ -17889,7 +17910,7 @@
         <v>0.33</v>
       </c>
       <c r="AS87">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT87">
         <v>1.11</v>
@@ -18184,7 +18205,7 @@
         <v>151</v>
       </c>
       <c r="P89" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q89">
         <v>9</v>
@@ -18271,7 +18292,7 @@
         <v>2</v>
       </c>
       <c r="AS89">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT89">
         <v>1.63</v>
@@ -18375,7 +18396,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18653,10 +18674,10 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT91">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU91">
         <v>1.28</v>
@@ -18757,7 +18778,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18844,10 +18865,10 @@
         <v>0.67</v>
       </c>
       <c r="AS92">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT92">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU92">
         <v>1.36</v>
@@ -18948,7 +18969,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q93">
         <v>10</v>
@@ -19035,10 +19056,10 @@
         <v>1.33</v>
       </c>
       <c r="AS93">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT93">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU93">
         <v>0.95</v>
@@ -19229,7 +19250,7 @@
         <v>1.44</v>
       </c>
       <c r="AT94">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU94">
         <v>1.28</v>
@@ -19330,7 +19351,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19417,10 +19438,10 @@
         <v>0.75</v>
       </c>
       <c r="AS95">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT95">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU95">
         <v>1.36</v>
@@ -19521,7 +19542,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -19712,7 +19733,7 @@
         <v>89</v>
       </c>
       <c r="P97" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19802,7 +19823,7 @@
         <v>1.78</v>
       </c>
       <c r="AT97">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU97">
         <v>1.32</v>
@@ -19993,7 +20014,7 @@
         <v>2.33</v>
       </c>
       <c r="AT98">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU98">
         <v>1.45</v>
@@ -20094,7 +20115,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20181,7 +20202,7 @@
         <v>2.33</v>
       </c>
       <c r="AS99">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT99">
         <v>1.63</v>
@@ -20372,7 +20393,7 @@
         <v>1.75</v>
       </c>
       <c r="AS100">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT100">
         <v>1.78</v>
@@ -20566,7 +20587,7 @@
         <v>1.67</v>
       </c>
       <c r="AT101">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU101">
         <v>1.63</v>
@@ -20667,7 +20688,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20754,7 +20775,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT102">
         <v>0.89</v>
@@ -20858,7 +20879,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20948,7 +20969,7 @@
         <v>2.33</v>
       </c>
       <c r="AT103">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU103">
         <v>1.7</v>
@@ -21049,7 +21070,7 @@
         <v>161</v>
       </c>
       <c r="P104" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21136,7 +21157,7 @@
         <v>0.25</v>
       </c>
       <c r="AS104">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT104">
         <v>1.11</v>
@@ -21240,7 +21261,7 @@
         <v>162</v>
       </c>
       <c r="P105" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21327,7 +21348,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT105">
         <v>1.22</v>
@@ -21431,7 +21452,7 @@
         <v>89</v>
       </c>
       <c r="P106" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21518,10 +21539,10 @@
         <v>1.5</v>
       </c>
       <c r="AS106">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT106">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU106">
         <v>1.29</v>
@@ -21900,7 +21921,7 @@
         <v>0.4</v>
       </c>
       <c r="AS108">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT108">
         <v>1.11</v>
@@ -22091,10 +22112,10 @@
         <v>1.5</v>
       </c>
       <c r="AS109">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT109">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU109">
         <v>1.84</v>
@@ -22282,7 +22303,7 @@
         <v>0.8</v>
       </c>
       <c r="AS110">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT110">
         <v>0.78</v>
@@ -22386,7 +22407,7 @@
         <v>166</v>
       </c>
       <c r="P111" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22473,7 +22494,7 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT111">
         <v>0.89</v>
@@ -22577,7 +22598,7 @@
         <v>167</v>
       </c>
       <c r="P112" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22667,7 +22688,7 @@
         <v>2.33</v>
       </c>
       <c r="AT112">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU112">
         <v>1.65</v>
@@ -22858,7 +22879,7 @@
         <v>2.13</v>
       </c>
       <c r="AT113">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU113">
         <v>1.69</v>
@@ -22959,7 +22980,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -23049,7 +23070,7 @@
         <v>2</v>
       </c>
       <c r="AT114">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU114">
         <v>1.35</v>
@@ -23150,7 +23171,7 @@
         <v>89</v>
       </c>
       <c r="P115" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23237,10 +23258,10 @@
         <v>0.75</v>
       </c>
       <c r="AS115">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT115">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU115">
         <v>1.48</v>
@@ -23341,7 +23362,7 @@
         <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23428,10 +23449,10 @@
         <v>1.6</v>
       </c>
       <c r="AS116">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT116">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU116">
         <v>1.63</v>
@@ -23619,7 +23640,7 @@
         <v>0.75</v>
       </c>
       <c r="AS117">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT117">
         <v>0.88</v>
@@ -23813,7 +23834,7 @@
         <v>1.44</v>
       </c>
       <c r="AT118">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU118">
         <v>1.34</v>
@@ -23914,7 +23935,7 @@
         <v>89</v>
       </c>
       <c r="P119" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24001,7 +24022,7 @@
         <v>1.75</v>
       </c>
       <c r="AS119">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT119">
         <v>1.75</v>
@@ -24105,7 +24126,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24195,7 +24216,7 @@
         <v>2.33</v>
       </c>
       <c r="AT120">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU120">
         <v>1.52</v>
@@ -24487,7 +24508,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24574,10 +24595,10 @@
         <v>1.4</v>
       </c>
       <c r="AS122">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT122">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU122">
         <v>1.33</v>
@@ -24678,7 +24699,7 @@
         <v>172</v>
       </c>
       <c r="P123" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q123">
         <v>9</v>
@@ -24765,7 +24786,7 @@
         <v>1.6</v>
       </c>
       <c r="AS123">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT123">
         <v>1.78</v>
@@ -24869,7 +24890,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -24956,7 +24977,7 @@
         <v>0</v>
       </c>
       <c r="AS124">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT124">
         <v>0.29</v>
@@ -25060,7 +25081,7 @@
         <v>89</v>
       </c>
       <c r="P125" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q125">
         <v>8</v>
@@ -25251,7 +25272,7 @@
         <v>174</v>
       </c>
       <c r="P126" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25338,10 +25359,10 @@
         <v>1.25</v>
       </c>
       <c r="AS126">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT126">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU126">
         <v>2.3</v>
@@ -25532,7 +25553,7 @@
         <v>1.25</v>
       </c>
       <c r="AT127">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU127">
         <v>1.66</v>
@@ -25633,7 +25654,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25911,10 +25932,10 @@
         <v>0.25</v>
       </c>
       <c r="AS129">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT129">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU129">
         <v>1.47</v>
@@ -26015,7 +26036,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26105,7 +26126,7 @@
         <v>1</v>
       </c>
       <c r="AT130">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU130">
         <v>1.62</v>
@@ -26296,7 +26317,7 @@
         <v>1.25</v>
       </c>
       <c r="AT131">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU131">
         <v>1.55</v>
@@ -26397,7 +26418,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q132">
         <v>9</v>
@@ -26487,7 +26508,7 @@
         <v>1.88</v>
       </c>
       <c r="AT132">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU132">
         <v>2.08</v>
@@ -26588,7 +26609,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -26675,7 +26696,7 @@
         <v>0</v>
       </c>
       <c r="AS133">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT133">
         <v>0.29</v>
@@ -26866,7 +26887,7 @@
         <v>0.5</v>
       </c>
       <c r="AS134">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT134">
         <v>1.11</v>
@@ -27057,10 +27078,10 @@
         <v>1.2</v>
       </c>
       <c r="AS135">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT135">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU135">
         <v>1.51</v>
@@ -27248,7 +27269,7 @@
         <v>1.8</v>
       </c>
       <c r="AS136">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT136">
         <v>1.22</v>
@@ -27439,10 +27460,10 @@
         <v>1.17</v>
       </c>
       <c r="AS137">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT137">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU137">
         <v>1.83</v>
@@ -27543,7 +27564,7 @@
         <v>93</v>
       </c>
       <c r="P138" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27633,7 +27654,7 @@
         <v>1.67</v>
       </c>
       <c r="AT138">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU138">
         <v>1.58</v>
@@ -27925,7 +27946,7 @@
         <v>181</v>
       </c>
       <c r="P140" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q140">
         <v>9</v>
@@ -28012,7 +28033,7 @@
         <v>2.6</v>
       </c>
       <c r="AS140">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT140">
         <v>1.63</v>
@@ -28116,7 +28137,7 @@
         <v>94</v>
       </c>
       <c r="P141" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28206,7 +28227,7 @@
         <v>2</v>
       </c>
       <c r="AT141">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU141">
         <v>1.34</v>
@@ -28394,7 +28415,7 @@
         <v>0.8</v>
       </c>
       <c r="AS142">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT142">
         <v>0.88</v>
@@ -28498,7 +28519,7 @@
         <v>183</v>
       </c>
       <c r="P143" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28588,7 +28609,7 @@
         <v>2.13</v>
       </c>
       <c r="AT143">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU143">
         <v>1.65</v>
@@ -28776,7 +28797,7 @@
         <v>1.5</v>
       </c>
       <c r="AS144">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT144">
         <v>1.78</v>
@@ -28880,7 +28901,7 @@
         <v>184</v>
       </c>
       <c r="P145" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q145">
         <v>5</v>
@@ -28970,7 +28991,7 @@
         <v>1.25</v>
       </c>
       <c r="AT145">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU145">
         <v>1.54</v>
@@ -29158,7 +29179,7 @@
         <v>0.83</v>
       </c>
       <c r="AS146">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT146">
         <v>0.89</v>
@@ -29262,7 +29283,7 @@
         <v>186</v>
       </c>
       <c r="P147" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -29349,10 +29370,10 @@
         <v>1.8</v>
       </c>
       <c r="AS147">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT147">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU147">
         <v>1.96</v>
@@ -29543,7 +29564,7 @@
         <v>1</v>
       </c>
       <c r="AT148">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU148">
         <v>1.6</v>
@@ -29644,7 +29665,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q149">
         <v>7</v>
@@ -29734,7 +29755,7 @@
         <v>1.78</v>
       </c>
       <c r="AT149">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU149">
         <v>1.39</v>
@@ -29922,7 +29943,7 @@
         <v>2</v>
       </c>
       <c r="AS150">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT150">
         <v>1.75</v>
@@ -30116,7 +30137,7 @@
         <v>2.33</v>
       </c>
       <c r="AT151">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU151">
         <v>1.69</v>
@@ -30307,7 +30328,7 @@
         <v>2.33</v>
       </c>
       <c r="AT152">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU152">
         <v>1.52</v>
@@ -30408,7 +30429,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -30495,7 +30516,7 @@
         <v>0.67</v>
       </c>
       <c r="AS153">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT153">
         <v>0.78</v>
@@ -30686,7 +30707,7 @@
         <v>0.4</v>
       </c>
       <c r="AS154">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT154">
         <v>1</v>
@@ -30877,10 +30898,10 @@
         <v>1</v>
       </c>
       <c r="AS155">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT155">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU155">
         <v>1.36</v>
@@ -31068,10 +31089,10 @@
         <v>2</v>
       </c>
       <c r="AS156">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT156">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU156">
         <v>1.37</v>
@@ -31172,7 +31193,7 @@
         <v>193</v>
       </c>
       <c r="P157" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31450,10 +31471,10 @@
         <v>1.86</v>
       </c>
       <c r="AS158">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT158">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU158">
         <v>1.93</v>
@@ -31554,7 +31575,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q159">
         <v>1</v>
@@ -31745,7 +31766,7 @@
         <v>196</v>
       </c>
       <c r="P160" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q160">
         <v>14</v>
@@ -31835,7 +31856,7 @@
         <v>1.88</v>
       </c>
       <c r="AT160">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU160">
         <v>2.15</v>
@@ -32023,7 +32044,7 @@
         <v>0.57</v>
       </c>
       <c r="AS161">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT161">
         <v>1.11</v>
@@ -32214,10 +32235,10 @@
         <v>1.83</v>
       </c>
       <c r="AS162">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT162">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU162">
         <v>1.81</v>
@@ -32318,7 +32339,7 @@
         <v>89</v>
       </c>
       <c r="P163" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32405,10 +32426,10 @@
         <v>1.14</v>
       </c>
       <c r="AS163">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT163">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU163">
         <v>1.61</v>
@@ -32509,7 +32530,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q164">
         <v>9</v>
@@ -32599,7 +32620,7 @@
         <v>1.44</v>
       </c>
       <c r="AT164">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU164">
         <v>1.34</v>
@@ -32700,7 +32721,7 @@
         <v>89</v>
       </c>
       <c r="P165" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32787,7 +32808,7 @@
         <v>0.67</v>
       </c>
       <c r="AS165">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT165">
         <v>0.88</v>
@@ -32891,7 +32912,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -32978,10 +32999,10 @@
         <v>0.33</v>
       </c>
       <c r="AS166">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT166">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU166">
         <v>1.42</v>
@@ -33082,7 +33103,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33273,7 +33294,7 @@
         <v>89</v>
       </c>
       <c r="P168" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q168">
         <v>7</v>
@@ -33360,7 +33381,7 @@
         <v>1.14</v>
       </c>
       <c r="AS168">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT168">
         <v>1.22</v>
@@ -33551,7 +33572,7 @@
         <v>1.83</v>
       </c>
       <c r="AS169">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT169">
         <v>1.75</v>
@@ -33655,7 +33676,7 @@
         <v>201</v>
       </c>
       <c r="P170" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -33745,7 +33766,7 @@
         <v>1.78</v>
       </c>
       <c r="AT170">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU170">
         <v>1.41</v>
@@ -33933,10 +33954,10 @@
         <v>1.71</v>
       </c>
       <c r="AS171">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT171">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU171">
         <v>1.25</v>
@@ -34037,7 +34058,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q172">
         <v>13</v>
@@ -34124,7 +34145,7 @@
         <v>0.71</v>
       </c>
       <c r="AS172">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT172">
         <v>0.89</v>
@@ -34318,7 +34339,7 @@
         <v>1</v>
       </c>
       <c r="AT173">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU173">
         <v>1.62</v>
@@ -34509,7 +34530,7 @@
         <v>2.33</v>
       </c>
       <c r="AT174">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU174">
         <v>1.58</v>
@@ -34610,7 +34631,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34992,7 +35013,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -35079,10 +35100,10 @@
         <v>0.17</v>
       </c>
       <c r="AS177">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT177">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU177">
         <v>1.39</v>
@@ -35270,10 +35291,10 @@
         <v>1.57</v>
       </c>
       <c r="AS178">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT178">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU178">
         <v>1.1</v>
@@ -35374,7 +35395,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q179">
         <v>8</v>
@@ -35461,7 +35482,7 @@
         <v>1.71</v>
       </c>
       <c r="AS179">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT179">
         <v>1.78</v>
@@ -35655,7 +35676,7 @@
         <v>2.33</v>
       </c>
       <c r="AT180">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU180">
         <v>1.63</v>
@@ -35756,7 +35777,7 @@
         <v>208</v>
       </c>
       <c r="P181" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q181">
         <v>1</v>
@@ -35846,7 +35867,7 @@
         <v>1.25</v>
       </c>
       <c r="AT181">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU181">
         <v>1.54</v>
@@ -35947,7 +35968,7 @@
         <v>209</v>
       </c>
       <c r="P182" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -36138,7 +36159,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36520,7 +36541,7 @@
         <v>211</v>
       </c>
       <c r="P185" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -36711,7 +36732,7 @@
         <v>212</v>
       </c>
       <c r="P186" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -37093,7 +37114,7 @@
         <v>214</v>
       </c>
       <c r="P188" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37371,7 +37392,7 @@
         <v>1</v>
       </c>
       <c r="AS189">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT189">
         <v>0.89</v>
@@ -37475,7 +37496,7 @@
         <v>89</v>
       </c>
       <c r="P190" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q190">
         <v>9</v>
@@ -38048,7 +38069,7 @@
         <v>218</v>
       </c>
       <c r="P193" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q193">
         <v>6</v>
@@ -38135,10 +38156,10 @@
         <v>1</v>
       </c>
       <c r="AS193">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT193">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU193">
         <v>1.07</v>
@@ -38326,7 +38347,7 @@
         <v>1.38</v>
       </c>
       <c r="AS194">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT194">
         <v>1.22</v>
@@ -38517,10 +38538,10 @@
         <v>1.63</v>
       </c>
       <c r="AS195">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT195">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU195">
         <v>1.44</v>
@@ -38708,10 +38729,10 @@
         <v>1.57</v>
       </c>
       <c r="AS196">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT196">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU196">
         <v>1.4</v>
@@ -38812,7 +38833,7 @@
         <v>89</v>
       </c>
       <c r="P197" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q197">
         <v>8</v>
@@ -38899,10 +38920,10 @@
         <v>1.38</v>
       </c>
       <c r="AS197">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT197">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU197">
         <v>1.99</v>
@@ -39090,10 +39111,10 @@
         <v>0.88</v>
       </c>
       <c r="AS198">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT198">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU198">
         <v>1.37</v>
@@ -39194,7 +39215,7 @@
         <v>222</v>
       </c>
       <c r="P199" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="Q199">
         <v>2</v>
@@ -39281,10 +39302,10 @@
         <v>0.57</v>
       </c>
       <c r="AS199">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT199">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU199">
         <v>1.51</v>
@@ -39385,7 +39406,7 @@
         <v>107</v>
       </c>
       <c r="P200" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q200">
         <v>8</v>
@@ -39472,10 +39493,10 @@
         <v>1.25</v>
       </c>
       <c r="AS200">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT200">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU200">
         <v>1.96</v>
@@ -39663,10 +39684,10 @@
         <v>1.13</v>
       </c>
       <c r="AS201">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT201">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU201">
         <v>1.42</v>
@@ -39854,10 +39875,10 @@
         <v>0.71</v>
       </c>
       <c r="AS202">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT202">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU202">
         <v>1.21</v>
@@ -39958,7 +39979,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40045,10 +40066,10 @@
         <v>1.13</v>
       </c>
       <c r="AS203">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT203">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU203">
         <v>1.28</v>
@@ -40236,10 +40257,10 @@
         <v>1</v>
       </c>
       <c r="AS204">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT204">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU204">
         <v>1.56</v>
@@ -40427,10 +40448,10 @@
         <v>0.86</v>
       </c>
       <c r="AS205">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT205">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU205">
         <v>1.68</v>
@@ -40531,7 +40552,7 @@
         <v>226</v>
       </c>
       <c r="P206" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40618,10 +40639,10 @@
         <v>1.38</v>
       </c>
       <c r="AS206">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT206">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU206">
         <v>1.93</v>
@@ -40673,6 +40694,2489 @@
       </c>
       <c r="BK206">
         <v>18</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>2608350</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>44866.69791666666</v>
+      </c>
+      <c r="F207">
+        <v>19</v>
+      </c>
+      <c r="G207" t="s">
+        <v>84</v>
+      </c>
+      <c r="H207" t="s">
+        <v>79</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>1</v>
+      </c>
+      <c r="O207" t="s">
+        <v>227</v>
+      </c>
+      <c r="P207" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q207">
+        <v>2</v>
+      </c>
+      <c r="R207">
+        <v>7</v>
+      </c>
+      <c r="S207">
+        <v>9</v>
+      </c>
+      <c r="T207">
+        <v>3.05</v>
+      </c>
+      <c r="U207">
+        <v>1.96</v>
+      </c>
+      <c r="V207">
+        <v>3.85</v>
+      </c>
+      <c r="W207">
+        <v>1.46</v>
+      </c>
+      <c r="X207">
+        <v>2.5</v>
+      </c>
+      <c r="Y207">
+        <v>3.2</v>
+      </c>
+      <c r="Z207">
+        <v>1.31</v>
+      </c>
+      <c r="AA207">
+        <v>8.75</v>
+      </c>
+      <c r="AB207">
+        <v>1.06</v>
+      </c>
+      <c r="AC207">
+        <v>2.4</v>
+      </c>
+      <c r="AD207">
+        <v>3.1</v>
+      </c>
+      <c r="AE207">
+        <v>3</v>
+      </c>
+      <c r="AF207">
+        <v>1.08</v>
+      </c>
+      <c r="AG207">
+        <v>8.5</v>
+      </c>
+      <c r="AH207">
+        <v>1.4</v>
+      </c>
+      <c r="AI207">
+        <v>3</v>
+      </c>
+      <c r="AJ207">
+        <v>2.11</v>
+      </c>
+      <c r="AK207">
+        <v>1.65</v>
+      </c>
+      <c r="AL207">
+        <v>1.87</v>
+      </c>
+      <c r="AM207">
+        <v>1.82</v>
+      </c>
+      <c r="AN207">
+        <v>1.37</v>
+      </c>
+      <c r="AO207">
+        <v>1.32</v>
+      </c>
+      <c r="AP207">
+        <v>1.57</v>
+      </c>
+      <c r="AQ207">
+        <v>1.11</v>
+      </c>
+      <c r="AR207">
+        <v>1.5</v>
+      </c>
+      <c r="AS207">
+        <v>1.3</v>
+      </c>
+      <c r="AT207">
+        <v>1.33</v>
+      </c>
+      <c r="AU207">
+        <v>1.52</v>
+      </c>
+      <c r="AV207">
+        <v>1.37</v>
+      </c>
+      <c r="AW207">
+        <v>2.89</v>
+      </c>
+      <c r="AX207">
+        <v>1.83</v>
+      </c>
+      <c r="AY207">
+        <v>7.7</v>
+      </c>
+      <c r="AZ207">
+        <v>2.43</v>
+      </c>
+      <c r="BA207">
+        <v>1.23</v>
+      </c>
+      <c r="BB207">
+        <v>1.46</v>
+      </c>
+      <c r="BC207">
+        <v>1.83</v>
+      </c>
+      <c r="BD207">
+        <v>2.32</v>
+      </c>
+      <c r="BE207">
+        <v>3.14</v>
+      </c>
+      <c r="BF207">
+        <v>4</v>
+      </c>
+      <c r="BG207">
+        <v>4</v>
+      </c>
+      <c r="BH207">
+        <v>5</v>
+      </c>
+      <c r="BI207">
+        <v>10</v>
+      </c>
+      <c r="BJ207">
+        <v>9</v>
+      </c>
+      <c r="BK207">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>2608349</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>44866.69791666666</v>
+      </c>
+      <c r="F208">
+        <v>19</v>
+      </c>
+      <c r="G208" t="s">
+        <v>68</v>
+      </c>
+      <c r="H208" t="s">
+        <v>82</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+      <c r="O208" t="s">
+        <v>89</v>
+      </c>
+      <c r="P208" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q208">
+        <v>6</v>
+      </c>
+      <c r="R208">
+        <v>5</v>
+      </c>
+      <c r="S208">
+        <v>11</v>
+      </c>
+      <c r="T208">
+        <v>2.55</v>
+      </c>
+      <c r="U208">
+        <v>2.15</v>
+      </c>
+      <c r="V208">
+        <v>4.5</v>
+      </c>
+      <c r="W208">
+        <v>1.41</v>
+      </c>
+      <c r="X208">
+        <v>2.7</v>
+      </c>
+      <c r="Y208">
+        <v>2.8</v>
+      </c>
+      <c r="Z208">
+        <v>1.37</v>
+      </c>
+      <c r="AA208">
+        <v>7.25</v>
+      </c>
+      <c r="AB208">
+        <v>1.08</v>
+      </c>
+      <c r="AC208">
+        <v>1.91</v>
+      </c>
+      <c r="AD208">
+        <v>3.3</v>
+      </c>
+      <c r="AE208">
+        <v>4.2</v>
+      </c>
+      <c r="AF208">
+        <v>1.06</v>
+      </c>
+      <c r="AG208">
+        <v>10</v>
+      </c>
+      <c r="AH208">
+        <v>1.33</v>
+      </c>
+      <c r="AI208">
+        <v>3.3</v>
+      </c>
+      <c r="AJ208">
+        <v>1.95</v>
+      </c>
+      <c r="AK208">
+        <v>1.75</v>
+      </c>
+      <c r="AL208">
+        <v>1.9</v>
+      </c>
+      <c r="AM208">
+        <v>1.9</v>
+      </c>
+      <c r="AN208">
+        <v>1.22</v>
+      </c>
+      <c r="AO208">
+        <v>1.25</v>
+      </c>
+      <c r="AP208">
+        <v>1.96</v>
+      </c>
+      <c r="AQ208">
+        <v>1.22</v>
+      </c>
+      <c r="AR208">
+        <v>0.75</v>
+      </c>
+      <c r="AS208">
+        <v>1.2</v>
+      </c>
+      <c r="AT208">
+        <v>0.78</v>
+      </c>
+      <c r="AU208">
+        <v>1.93</v>
+      </c>
+      <c r="AV208">
+        <v>1.1</v>
+      </c>
+      <c r="AW208">
+        <v>3.03</v>
+      </c>
+      <c r="AX208">
+        <v>1.47</v>
+      </c>
+      <c r="AY208">
+        <v>8.5</v>
+      </c>
+      <c r="AZ208">
+        <v>3.45</v>
+      </c>
+      <c r="BA208">
+        <v>1.22</v>
+      </c>
+      <c r="BB208">
+        <v>1.51</v>
+      </c>
+      <c r="BC208">
+        <v>1.76</v>
+      </c>
+      <c r="BD208">
+        <v>2.18</v>
+      </c>
+      <c r="BE208">
+        <v>3.04</v>
+      </c>
+      <c r="BF208">
+        <v>3</v>
+      </c>
+      <c r="BG208">
+        <v>5</v>
+      </c>
+      <c r="BH208">
+        <v>7</v>
+      </c>
+      <c r="BI208">
+        <v>13</v>
+      </c>
+      <c r="BJ208">
+        <v>10</v>
+      </c>
+      <c r="BK208">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>2608348</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>44866.69791666666</v>
+      </c>
+      <c r="F209">
+        <v>19</v>
+      </c>
+      <c r="G209" t="s">
+        <v>73</v>
+      </c>
+      <c r="H209" t="s">
+        <v>74</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>3</v>
+      </c>
+      <c r="N209">
+        <v>4</v>
+      </c>
+      <c r="O209" t="s">
+        <v>178</v>
+      </c>
+      <c r="P209" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q209">
+        <v>7</v>
+      </c>
+      <c r="R209">
+        <v>2</v>
+      </c>
+      <c r="S209">
+        <v>9</v>
+      </c>
+      <c r="T209">
+        <v>3.5</v>
+      </c>
+      <c r="U209">
+        <v>2.05</v>
+      </c>
+      <c r="V209">
+        <v>3.25</v>
+      </c>
+      <c r="W209">
+        <v>1.46</v>
+      </c>
+      <c r="X209">
+        <v>2.55</v>
+      </c>
+      <c r="Y209">
+        <v>3.1</v>
+      </c>
+      <c r="Z209">
+        <v>1.32</v>
+      </c>
+      <c r="AA209">
+        <v>8.5</v>
+      </c>
+      <c r="AB209">
+        <v>1.06</v>
+      </c>
+      <c r="AC209">
+        <v>2.6</v>
+      </c>
+      <c r="AD209">
+        <v>3.1</v>
+      </c>
+      <c r="AE209">
+        <v>2.8</v>
+      </c>
+      <c r="AF209">
+        <v>1.07</v>
+      </c>
+      <c r="AG209">
+        <v>9</v>
+      </c>
+      <c r="AH209">
+        <v>1.4</v>
+      </c>
+      <c r="AI209">
+        <v>3</v>
+      </c>
+      <c r="AJ209">
+        <v>2.1</v>
+      </c>
+      <c r="AK209">
+        <v>1.66</v>
+      </c>
+      <c r="AL209">
+        <v>1.88</v>
+      </c>
+      <c r="AM209">
+        <v>1.9</v>
+      </c>
+      <c r="AN209">
+        <v>1.55</v>
+      </c>
+      <c r="AO209">
+        <v>1.28</v>
+      </c>
+      <c r="AP209">
+        <v>1.45</v>
+      </c>
+      <c r="AQ209">
+        <v>1.33</v>
+      </c>
+      <c r="AR209">
+        <v>0.5</v>
+      </c>
+      <c r="AS209">
+        <v>1.2</v>
+      </c>
+      <c r="AT209">
+        <v>0.78</v>
+      </c>
+      <c r="AU209">
+        <v>1.36</v>
+      </c>
+      <c r="AV209">
+        <v>1.5</v>
+      </c>
+      <c r="AW209">
+        <v>2.86</v>
+      </c>
+      <c r="AX209">
+        <v>2.32</v>
+      </c>
+      <c r="AY209">
+        <v>8</v>
+      </c>
+      <c r="AZ209">
+        <v>1.94</v>
+      </c>
+      <c r="BA209">
+        <v>1.21</v>
+      </c>
+      <c r="BB209">
+        <v>1.44</v>
+      </c>
+      <c r="BC209">
+        <v>1.79</v>
+      </c>
+      <c r="BD209">
+        <v>2.22</v>
+      </c>
+      <c r="BE209">
+        <v>3.05</v>
+      </c>
+      <c r="BF209">
+        <v>5</v>
+      </c>
+      <c r="BG209">
+        <v>4</v>
+      </c>
+      <c r="BH209">
+        <v>9</v>
+      </c>
+      <c r="BI209">
+        <v>6</v>
+      </c>
+      <c r="BJ209">
+        <v>14</v>
+      </c>
+      <c r="BK209">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>2608347</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="2">
+        <v>44866.69791666666</v>
+      </c>
+      <c r="F210">
+        <v>19</v>
+      </c>
+      <c r="G210" t="s">
+        <v>88</v>
+      </c>
+      <c r="H210" t="s">
+        <v>72</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>1</v>
+      </c>
+      <c r="O210" t="s">
+        <v>228</v>
+      </c>
+      <c r="P210" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q210">
+        <v>3</v>
+      </c>
+      <c r="R210">
+        <v>4</v>
+      </c>
+      <c r="S210">
+        <v>7</v>
+      </c>
+      <c r="T210">
+        <v>3.1</v>
+      </c>
+      <c r="U210">
+        <v>2.1</v>
+      </c>
+      <c r="V210">
+        <v>3.6</v>
+      </c>
+      <c r="W210">
+        <v>1.41</v>
+      </c>
+      <c r="X210">
+        <v>2.7</v>
+      </c>
+      <c r="Y210">
+        <v>3</v>
+      </c>
+      <c r="Z210">
+        <v>1.34</v>
+      </c>
+      <c r="AA210">
+        <v>7.85</v>
+      </c>
+      <c r="AB210">
+        <v>1.05</v>
+      </c>
+      <c r="AC210">
+        <v>2.62</v>
+      </c>
+      <c r="AD210">
+        <v>3.1</v>
+      </c>
+      <c r="AE210">
+        <v>2.7</v>
+      </c>
+      <c r="AF210">
+        <v>1.07</v>
+      </c>
+      <c r="AG210">
+        <v>10</v>
+      </c>
+      <c r="AH210">
+        <v>1.36</v>
+      </c>
+      <c r="AI210">
+        <v>3.2</v>
+      </c>
+      <c r="AJ210">
+        <v>2.02</v>
+      </c>
+      <c r="AK210">
+        <v>1.68</v>
+      </c>
+      <c r="AL210">
+        <v>1.83</v>
+      </c>
+      <c r="AM210">
+        <v>1.98</v>
+      </c>
+      <c r="AN210">
+        <v>1.4</v>
+      </c>
+      <c r="AO210">
+        <v>1.28</v>
+      </c>
+      <c r="AP210">
+        <v>1.6</v>
+      </c>
+      <c r="AQ210">
+        <v>1.17</v>
+      </c>
+      <c r="AR210">
+        <v>1.33</v>
+      </c>
+      <c r="AS210">
+        <v>1.43</v>
+      </c>
+      <c r="AT210">
+        <v>1.2</v>
+      </c>
+      <c r="AU210">
+        <v>1.34</v>
+      </c>
+      <c r="AV210">
+        <v>0.98</v>
+      </c>
+      <c r="AW210">
+        <v>2.32</v>
+      </c>
+      <c r="AX210">
+        <v>1.69</v>
+      </c>
+      <c r="AY210">
+        <v>8.5</v>
+      </c>
+      <c r="AZ210">
+        <v>2.76</v>
+      </c>
+      <c r="BA210">
+        <v>1.2</v>
+      </c>
+      <c r="BB210">
+        <v>1.41</v>
+      </c>
+      <c r="BC210">
+        <v>1.78</v>
+      </c>
+      <c r="BD210">
+        <v>2.18</v>
+      </c>
+      <c r="BE210">
+        <v>2.9</v>
+      </c>
+      <c r="BF210">
+        <v>8</v>
+      </c>
+      <c r="BG210">
+        <v>3</v>
+      </c>
+      <c r="BH210">
+        <v>8</v>
+      </c>
+      <c r="BI210">
+        <v>6</v>
+      </c>
+      <c r="BJ210">
+        <v>16</v>
+      </c>
+      <c r="BK210">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>2608351</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>44866.70833333334</v>
+      </c>
+      <c r="F211">
+        <v>19</v>
+      </c>
+      <c r="G211" t="s">
+        <v>87</v>
+      </c>
+      <c r="H211" t="s">
+        <v>71</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>1</v>
+      </c>
+      <c r="O211" t="s">
+        <v>139</v>
+      </c>
+      <c r="P211" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q211">
+        <v>7</v>
+      </c>
+      <c r="R211">
+        <v>2</v>
+      </c>
+      <c r="S211">
+        <v>9</v>
+      </c>
+      <c r="T211">
+        <v>2.3</v>
+      </c>
+      <c r="U211">
+        <v>2.15</v>
+      </c>
+      <c r="V211">
+        <v>4.5</v>
+      </c>
+      <c r="W211">
+        <v>1.37</v>
+      </c>
+      <c r="X211">
+        <v>2.8</v>
+      </c>
+      <c r="Y211">
+        <v>2.65</v>
+      </c>
+      <c r="Z211">
+        <v>1.41</v>
+      </c>
+      <c r="AA211">
+        <v>6.75</v>
+      </c>
+      <c r="AB211">
+        <v>1.09</v>
+      </c>
+      <c r="AC211">
+        <v>1.83</v>
+      </c>
+      <c r="AD211">
+        <v>3.4</v>
+      </c>
+      <c r="AE211">
+        <v>4.33</v>
+      </c>
+      <c r="AF211">
+        <v>1.04</v>
+      </c>
+      <c r="AG211">
+        <v>12</v>
+      </c>
+      <c r="AH211">
+        <v>1.28</v>
+      </c>
+      <c r="AI211">
+        <v>3.75</v>
+      </c>
+      <c r="AJ211">
+        <v>1.84</v>
+      </c>
+      <c r="AK211">
+        <v>1.86</v>
+      </c>
+      <c r="AL211">
+        <v>1.77</v>
+      </c>
+      <c r="AM211">
+        <v>1.9</v>
+      </c>
+      <c r="AN211">
+        <v>1.2</v>
+      </c>
+      <c r="AO211">
+        <v>1.26</v>
+      </c>
+      <c r="AP211">
+        <v>2</v>
+      </c>
+      <c r="AQ211">
+        <v>0.78</v>
+      </c>
+      <c r="AR211">
+        <v>1.33</v>
+      </c>
+      <c r="AS211">
+        <v>1</v>
+      </c>
+      <c r="AT211">
+        <v>1.2</v>
+      </c>
+      <c r="AU211">
+        <v>1.96</v>
+      </c>
+      <c r="AV211">
+        <v>1.24</v>
+      </c>
+      <c r="AW211">
+        <v>3.2</v>
+      </c>
+      <c r="AX211">
+        <v>1.32</v>
+      </c>
+      <c r="AY211">
+        <v>12</v>
+      </c>
+      <c r="AZ211">
+        <v>4.38</v>
+      </c>
+      <c r="BA211">
+        <v>1.2</v>
+      </c>
+      <c r="BB211">
+        <v>1.4</v>
+      </c>
+      <c r="BC211">
+        <v>1.75</v>
+      </c>
+      <c r="BD211">
+        <v>2.14</v>
+      </c>
+      <c r="BE211">
+        <v>2.9</v>
+      </c>
+      <c r="BF211">
+        <v>6</v>
+      </c>
+      <c r="BG211">
+        <v>0</v>
+      </c>
+      <c r="BH211">
+        <v>6</v>
+      </c>
+      <c r="BI211">
+        <v>6</v>
+      </c>
+      <c r="BJ211">
+        <v>12</v>
+      </c>
+      <c r="BK211">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>2608346</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>44866.70833333334</v>
+      </c>
+      <c r="F212">
+        <v>19</v>
+      </c>
+      <c r="G212" t="s">
+        <v>85</v>
+      </c>
+      <c r="H212" t="s">
+        <v>81</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>1</v>
+      </c>
+      <c r="O212" t="s">
+        <v>89</v>
+      </c>
+      <c r="P212" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q212">
+        <v>8</v>
+      </c>
+      <c r="R212">
+        <v>1</v>
+      </c>
+      <c r="S212">
+        <v>9</v>
+      </c>
+      <c r="T212">
+        <v>3.6</v>
+      </c>
+      <c r="U212">
+        <v>2.1</v>
+      </c>
+      <c r="V212">
+        <v>3.1</v>
+      </c>
+      <c r="W212">
+        <v>1.41</v>
+      </c>
+      <c r="X212">
+        <v>2.7</v>
+      </c>
+      <c r="Y212">
+        <v>2.85</v>
+      </c>
+      <c r="Z212">
+        <v>1.37</v>
+      </c>
+      <c r="AA212">
+        <v>7.5</v>
+      </c>
+      <c r="AB212">
+        <v>1.08</v>
+      </c>
+      <c r="AC212">
+        <v>3</v>
+      </c>
+      <c r="AD212">
+        <v>3.1</v>
+      </c>
+      <c r="AE212">
+        <v>2.45</v>
+      </c>
+      <c r="AF212">
+        <v>1.06</v>
+      </c>
+      <c r="AG212">
+        <v>10</v>
+      </c>
+      <c r="AH212">
+        <v>1.33</v>
+      </c>
+      <c r="AI212">
+        <v>3.3</v>
+      </c>
+      <c r="AJ212">
+        <v>1.81</v>
+      </c>
+      <c r="AK212">
+        <v>1.89</v>
+      </c>
+      <c r="AL212">
+        <v>1.8</v>
+      </c>
+      <c r="AM212">
+        <v>2</v>
+      </c>
+      <c r="AN212">
+        <v>1.58</v>
+      </c>
+      <c r="AO212">
+        <v>1.28</v>
+      </c>
+      <c r="AP212">
+        <v>1.42</v>
+      </c>
+      <c r="AQ212">
+        <v>1.56</v>
+      </c>
+      <c r="AR212">
+        <v>1.56</v>
+      </c>
+      <c r="AS212">
+        <v>1.4</v>
+      </c>
+      <c r="AT212">
+        <v>1.7</v>
+      </c>
+      <c r="AU212">
+        <v>1.39</v>
+      </c>
+      <c r="AV212">
+        <v>1.43</v>
+      </c>
+      <c r="AW212">
+        <v>2.82</v>
+      </c>
+      <c r="AX212">
+        <v>2.35</v>
+      </c>
+      <c r="AY212">
+        <v>8</v>
+      </c>
+      <c r="AZ212">
+        <v>1.9</v>
+      </c>
+      <c r="BA212">
+        <v>1.16</v>
+      </c>
+      <c r="BB212">
+        <v>1.29</v>
+      </c>
+      <c r="BC212">
+        <v>1.58</v>
+      </c>
+      <c r="BD212">
+        <v>1.92</v>
+      </c>
+      <c r="BE212">
+        <v>2.38</v>
+      </c>
+      <c r="BF212">
+        <v>3</v>
+      </c>
+      <c r="BG212">
+        <v>4</v>
+      </c>
+      <c r="BH212">
+        <v>14</v>
+      </c>
+      <c r="BI212">
+        <v>1</v>
+      </c>
+      <c r="BJ212">
+        <v>17</v>
+      </c>
+      <c r="BK212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>2608357</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>44867.69791666666</v>
+      </c>
+      <c r="F213">
+        <v>19</v>
+      </c>
+      <c r="G213" t="s">
+        <v>69</v>
+      </c>
+      <c r="H213" t="s">
+        <v>80</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+      <c r="N213">
+        <v>1</v>
+      </c>
+      <c r="O213" t="s">
+        <v>89</v>
+      </c>
+      <c r="P213" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q213">
+        <v>2</v>
+      </c>
+      <c r="R213">
+        <v>7</v>
+      </c>
+      <c r="S213">
+        <v>9</v>
+      </c>
+      <c r="T213">
+        <v>3.4</v>
+      </c>
+      <c r="U213">
+        <v>2.05</v>
+      </c>
+      <c r="V213">
+        <v>3.4</v>
+      </c>
+      <c r="W213">
+        <v>1.44</v>
+      </c>
+      <c r="X213">
+        <v>2.63</v>
+      </c>
+      <c r="Y213">
+        <v>3.4</v>
+      </c>
+      <c r="Z213">
+        <v>1.3</v>
+      </c>
+      <c r="AA213">
+        <v>10</v>
+      </c>
+      <c r="AB213">
+        <v>1.06</v>
+      </c>
+      <c r="AC213">
+        <v>2.7</v>
+      </c>
+      <c r="AD213">
+        <v>3.1</v>
+      </c>
+      <c r="AE213">
+        <v>2.6</v>
+      </c>
+      <c r="AF213">
+        <v>1.06</v>
+      </c>
+      <c r="AG213">
+        <v>9.75</v>
+      </c>
+      <c r="AH213">
+        <v>1.37</v>
+      </c>
+      <c r="AI213">
+        <v>3</v>
+      </c>
+      <c r="AJ213">
+        <v>2.1</v>
+      </c>
+      <c r="AK213">
+        <v>1.65</v>
+      </c>
+      <c r="AL213">
+        <v>1.83</v>
+      </c>
+      <c r="AM213">
+        <v>1.83</v>
+      </c>
+      <c r="AN213">
+        <v>1.48</v>
+      </c>
+      <c r="AO213">
+        <v>1.3</v>
+      </c>
+      <c r="AP213">
+        <v>1.48</v>
+      </c>
+      <c r="AQ213">
+        <v>0.67</v>
+      </c>
+      <c r="AR213">
+        <v>1.22</v>
+      </c>
+      <c r="AS213">
+        <v>0.6</v>
+      </c>
+      <c r="AT213">
+        <v>1.4</v>
+      </c>
+      <c r="AU213">
+        <v>1.33</v>
+      </c>
+      <c r="AV213">
+        <v>1.52</v>
+      </c>
+      <c r="AW213">
+        <v>2.85</v>
+      </c>
+      <c r="AX213">
+        <v>1.7</v>
+      </c>
+      <c r="AY213">
+        <v>7.9</v>
+      </c>
+      <c r="AZ213">
+        <v>2.69</v>
+      </c>
+      <c r="BA213">
+        <v>1.22</v>
+      </c>
+      <c r="BB213">
+        <v>1.44</v>
+      </c>
+      <c r="BC213">
+        <v>1.83</v>
+      </c>
+      <c r="BD213">
+        <v>2.3</v>
+      </c>
+      <c r="BE213">
+        <v>3.08</v>
+      </c>
+      <c r="BF213">
+        <v>3</v>
+      </c>
+      <c r="BG213">
+        <v>6</v>
+      </c>
+      <c r="BH213">
+        <v>9</v>
+      </c>
+      <c r="BI213">
+        <v>8</v>
+      </c>
+      <c r="BJ213">
+        <v>12</v>
+      </c>
+      <c r="BK213">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>2608356</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>44867.69791666666</v>
+      </c>
+      <c r="F214">
+        <v>19</v>
+      </c>
+      <c r="G214" t="s">
+        <v>78</v>
+      </c>
+      <c r="H214" t="s">
+        <v>86</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214" t="s">
+        <v>89</v>
+      </c>
+      <c r="P214" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q214">
+        <v>11</v>
+      </c>
+      <c r="R214">
+        <v>3</v>
+      </c>
+      <c r="S214">
+        <v>14</v>
+      </c>
+      <c r="T214">
+        <v>2.5</v>
+      </c>
+      <c r="U214">
+        <v>2.25</v>
+      </c>
+      <c r="V214">
+        <v>4.33</v>
+      </c>
+      <c r="W214">
+        <v>1.36</v>
+      </c>
+      <c r="X214">
+        <v>3</v>
+      </c>
+      <c r="Y214">
+        <v>2.75</v>
+      </c>
+      <c r="Z214">
+        <v>1.4</v>
+      </c>
+      <c r="AA214">
+        <v>7</v>
+      </c>
+      <c r="AB214">
+        <v>1.1</v>
+      </c>
+      <c r="AC214">
+        <v>1.85</v>
+      </c>
+      <c r="AD214">
+        <v>3.5</v>
+      </c>
+      <c r="AE214">
+        <v>3.75</v>
+      </c>
+      <c r="AF214">
+        <v>1.04</v>
+      </c>
+      <c r="AG214">
+        <v>12</v>
+      </c>
+      <c r="AH214">
+        <v>1.25</v>
+      </c>
+      <c r="AI214">
+        <v>3.85</v>
+      </c>
+      <c r="AJ214">
+        <v>1.8</v>
+      </c>
+      <c r="AK214">
+        <v>1.9</v>
+      </c>
+      <c r="AL214">
+        <v>1.73</v>
+      </c>
+      <c r="AM214">
+        <v>2</v>
+      </c>
+      <c r="AN214">
+        <v>1.24</v>
+      </c>
+      <c r="AO214">
+        <v>1.29</v>
+      </c>
+      <c r="AP214">
+        <v>1.87</v>
+      </c>
+      <c r="AQ214">
+        <v>1.89</v>
+      </c>
+      <c r="AR214">
+        <v>1.44</v>
+      </c>
+      <c r="AS214">
+        <v>1.8</v>
+      </c>
+      <c r="AT214">
+        <v>1.4</v>
+      </c>
+      <c r="AU214">
+        <v>1.9</v>
+      </c>
+      <c r="AV214">
+        <v>1.41</v>
+      </c>
+      <c r="AW214">
+        <v>3.31</v>
+      </c>
+      <c r="AX214">
+        <v>1.45</v>
+      </c>
+      <c r="AY214">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ214">
+        <v>3.54</v>
+      </c>
+      <c r="BA214">
+        <v>1.19</v>
+      </c>
+      <c r="BB214">
+        <v>1.4</v>
+      </c>
+      <c r="BC214">
+        <v>1.74</v>
+      </c>
+      <c r="BD214">
+        <v>2.19</v>
+      </c>
+      <c r="BE214">
+        <v>2.88</v>
+      </c>
+      <c r="BF214">
+        <v>5</v>
+      </c>
+      <c r="BG214">
+        <v>5</v>
+      </c>
+      <c r="BH214">
+        <v>7</v>
+      </c>
+      <c r="BI214">
+        <v>9</v>
+      </c>
+      <c r="BJ214">
+        <v>12</v>
+      </c>
+      <c r="BK214">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>2608355</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>44867.69791666666</v>
+      </c>
+      <c r="F215">
+        <v>19</v>
+      </c>
+      <c r="G215" t="s">
+        <v>65</v>
+      </c>
+      <c r="H215" t="s">
+        <v>75</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>2</v>
+      </c>
+      <c r="N215">
+        <v>2</v>
+      </c>
+      <c r="O215" t="s">
+        <v>89</v>
+      </c>
+      <c r="P215" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q215">
+        <v>5</v>
+      </c>
+      <c r="R215">
+        <v>1</v>
+      </c>
+      <c r="S215">
+        <v>6</v>
+      </c>
+      <c r="T215">
+        <v>3.5</v>
+      </c>
+      <c r="U215">
+        <v>2.05</v>
+      </c>
+      <c r="V215">
+        <v>3.25</v>
+      </c>
+      <c r="W215">
+        <v>1.44</v>
+      </c>
+      <c r="X215">
+        <v>2.63</v>
+      </c>
+      <c r="Y215">
+        <v>3.25</v>
+      </c>
+      <c r="Z215">
+        <v>1.33</v>
+      </c>
+      <c r="AA215">
+        <v>10</v>
+      </c>
+      <c r="AB215">
+        <v>1.06</v>
+      </c>
+      <c r="AC215">
+        <v>2.7</v>
+      </c>
+      <c r="AD215">
+        <v>3.1</v>
+      </c>
+      <c r="AE215">
+        <v>2.55</v>
+      </c>
+      <c r="AF215">
+        <v>1.07</v>
+      </c>
+      <c r="AG215">
+        <v>9.5</v>
+      </c>
+      <c r="AH215">
+        <v>1.38</v>
+      </c>
+      <c r="AI215">
+        <v>3.1</v>
+      </c>
+      <c r="AJ215">
+        <v>2</v>
+      </c>
+      <c r="AK215">
+        <v>1.7</v>
+      </c>
+      <c r="AL215">
+        <v>1.83</v>
+      </c>
+      <c r="AM215">
+        <v>1.83</v>
+      </c>
+      <c r="AN215">
+        <v>1.53</v>
+      </c>
+      <c r="AO215">
+        <v>1.3</v>
+      </c>
+      <c r="AP215">
+        <v>1.47</v>
+      </c>
+      <c r="AQ215">
+        <v>1.44</v>
+      </c>
+      <c r="AR215">
+        <v>1.22</v>
+      </c>
+      <c r="AS215">
+        <v>1.3</v>
+      </c>
+      <c r="AT215">
+        <v>1.4</v>
+      </c>
+      <c r="AU215">
+        <v>1.26</v>
+      </c>
+      <c r="AV215">
+        <v>1.24</v>
+      </c>
+      <c r="AW215">
+        <v>2.5</v>
+      </c>
+      <c r="AX215">
+        <v>1.85</v>
+      </c>
+      <c r="AY215">
+        <v>7.7</v>
+      </c>
+      <c r="AZ215">
+        <v>2.4</v>
+      </c>
+      <c r="BA215">
+        <v>1.22</v>
+      </c>
+      <c r="BB215">
+        <v>1.43</v>
+      </c>
+      <c r="BC215">
+        <v>1.8</v>
+      </c>
+      <c r="BD215">
+        <v>2.26</v>
+      </c>
+      <c r="BE215">
+        <v>3.04</v>
+      </c>
+      <c r="BF215">
+        <v>4</v>
+      </c>
+      <c r="BG215">
+        <v>4</v>
+      </c>
+      <c r="BH215">
+        <v>14</v>
+      </c>
+      <c r="BI215">
+        <v>6</v>
+      </c>
+      <c r="BJ215">
+        <v>18</v>
+      </c>
+      <c r="BK215">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>2608354</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>44867.69791666666</v>
+      </c>
+      <c r="F216">
+        <v>19</v>
+      </c>
+      <c r="G216" t="s">
+        <v>70</v>
+      </c>
+      <c r="H216" t="s">
+        <v>76</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>2</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>3</v>
+      </c>
+      <c r="O216" t="s">
+        <v>93</v>
+      </c>
+      <c r="P216" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q216">
+        <v>8</v>
+      </c>
+      <c r="R216">
+        <v>11</v>
+      </c>
+      <c r="S216">
+        <v>19</v>
+      </c>
+      <c r="T216">
+        <v>3.6</v>
+      </c>
+      <c r="U216">
+        <v>2.05</v>
+      </c>
+      <c r="V216">
+        <v>3.1</v>
+      </c>
+      <c r="W216">
+        <v>1.44</v>
+      </c>
+      <c r="X216">
+        <v>2.63</v>
+      </c>
+      <c r="Y216">
+        <v>3.25</v>
+      </c>
+      <c r="Z216">
+        <v>1.33</v>
+      </c>
+      <c r="AA216">
+        <v>10</v>
+      </c>
+      <c r="AB216">
+        <v>1.06</v>
+      </c>
+      <c r="AC216">
+        <v>2.95</v>
+      </c>
+      <c r="AD216">
+        <v>3.1</v>
+      </c>
+      <c r="AE216">
+        <v>2.35</v>
+      </c>
+      <c r="AF216">
+        <v>1.06</v>
+      </c>
+      <c r="AG216">
+        <v>10</v>
+      </c>
+      <c r="AH216">
+        <v>1.36</v>
+      </c>
+      <c r="AI216">
+        <v>3.05</v>
+      </c>
+      <c r="AJ216">
+        <v>2</v>
+      </c>
+      <c r="AK216">
+        <v>1.7</v>
+      </c>
+      <c r="AL216">
+        <v>1.83</v>
+      </c>
+      <c r="AM216">
+        <v>1.83</v>
+      </c>
+      <c r="AN216">
+        <v>1.55</v>
+      </c>
+      <c r="AO216">
+        <v>1.32</v>
+      </c>
+      <c r="AP216">
+        <v>1.37</v>
+      </c>
+      <c r="AQ216">
+        <v>1.75</v>
+      </c>
+      <c r="AR216">
+        <v>1.11</v>
+      </c>
+      <c r="AS216">
+        <v>1.56</v>
+      </c>
+      <c r="AT216">
+        <v>1.3</v>
+      </c>
+      <c r="AU216">
+        <v>1.63</v>
+      </c>
+      <c r="AV216">
+        <v>1.43</v>
+      </c>
+      <c r="AW216">
+        <v>3.06</v>
+      </c>
+      <c r="AX216">
+        <v>1.9</v>
+      </c>
+      <c r="AY216">
+        <v>7.6</v>
+      </c>
+      <c r="AZ216">
+        <v>2.33</v>
+      </c>
+      <c r="BA216">
+        <v>1.25</v>
+      </c>
+      <c r="BB216">
+        <v>1.49</v>
+      </c>
+      <c r="BC216">
+        <v>1.9</v>
+      </c>
+      <c r="BD216">
+        <v>2.42</v>
+      </c>
+      <c r="BE216">
+        <v>3.28</v>
+      </c>
+      <c r="BF216">
+        <v>4</v>
+      </c>
+      <c r="BG216">
+        <v>6</v>
+      </c>
+      <c r="BH216">
+        <v>8</v>
+      </c>
+      <c r="BI216">
+        <v>14</v>
+      </c>
+      <c r="BJ216">
+        <v>12</v>
+      </c>
+      <c r="BK216">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>2608353</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>44867.69791666666</v>
+      </c>
+      <c r="F217">
+        <v>19</v>
+      </c>
+      <c r="G217" t="s">
+        <v>83</v>
+      </c>
+      <c r="H217" t="s">
+        <v>66</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>2</v>
+      </c>
+      <c r="L217">
+        <v>3</v>
+      </c>
+      <c r="M217">
+        <v>2</v>
+      </c>
+      <c r="N217">
+        <v>5</v>
+      </c>
+      <c r="O217" t="s">
+        <v>229</v>
+      </c>
+      <c r="P217" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q217">
+        <v>7</v>
+      </c>
+      <c r="R217">
+        <v>3</v>
+      </c>
+      <c r="S217">
+        <v>10</v>
+      </c>
+      <c r="T217">
+        <v>2</v>
+      </c>
+      <c r="U217">
+        <v>2.25</v>
+      </c>
+      <c r="V217">
+        <v>5.5</v>
+      </c>
+      <c r="W217">
+        <v>1.35</v>
+      </c>
+      <c r="X217">
+        <v>2.95</v>
+      </c>
+      <c r="Y217">
+        <v>2.6</v>
+      </c>
+      <c r="Z217">
+        <v>1.43</v>
+      </c>
+      <c r="AA217">
+        <v>6.5</v>
+      </c>
+      <c r="AB217">
+        <v>1.1</v>
+      </c>
+      <c r="AC217">
+        <v>1.5</v>
+      </c>
+      <c r="AD217">
+        <v>4.1</v>
+      </c>
+      <c r="AE217">
+        <v>6</v>
+      </c>
+      <c r="AF217">
+        <v>1.04</v>
+      </c>
+      <c r="AG217">
+        <v>13</v>
+      </c>
+      <c r="AH217">
+        <v>1.28</v>
+      </c>
+      <c r="AI217">
+        <v>3.75</v>
+      </c>
+      <c r="AJ217">
+        <v>1.8</v>
+      </c>
+      <c r="AK217">
+        <v>1.9</v>
+      </c>
+      <c r="AL217">
+        <v>1.93</v>
+      </c>
+      <c r="AM217">
+        <v>1.77</v>
+      </c>
+      <c r="AN217">
+        <v>1.13</v>
+      </c>
+      <c r="AO217">
+        <v>1.21</v>
+      </c>
+      <c r="AP217">
+        <v>2.5</v>
+      </c>
+      <c r="AQ217">
+        <v>2.11</v>
+      </c>
+      <c r="AR217">
+        <v>0.88</v>
+      </c>
+      <c r="AS217">
+        <v>2.2</v>
+      </c>
+      <c r="AT217">
+        <v>0.78</v>
+      </c>
+      <c r="AU217">
+        <v>1.7</v>
+      </c>
+      <c r="AV217">
+        <v>0.78</v>
+      </c>
+      <c r="AW217">
+        <v>2.48</v>
+      </c>
+      <c r="AX217">
+        <v>1.27</v>
+      </c>
+      <c r="AY217">
+        <v>10</v>
+      </c>
+      <c r="AZ217">
+        <v>5</v>
+      </c>
+      <c r="BA217">
+        <v>1.18</v>
+      </c>
+      <c r="BB217">
+        <v>1.26</v>
+      </c>
+      <c r="BC217">
+        <v>1.5</v>
+      </c>
+      <c r="BD217">
+        <v>1.88</v>
+      </c>
+      <c r="BE217">
+        <v>2.38</v>
+      </c>
+      <c r="BF217">
+        <v>10</v>
+      </c>
+      <c r="BG217">
+        <v>6</v>
+      </c>
+      <c r="BH217">
+        <v>14</v>
+      </c>
+      <c r="BI217">
+        <v>3</v>
+      </c>
+      <c r="BJ217">
+        <v>24</v>
+      </c>
+      <c r="BK217">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:63">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>2608352</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="2">
+        <v>44867.69791666666</v>
+      </c>
+      <c r="F218">
+        <v>19</v>
+      </c>
+      <c r="G218" t="s">
+        <v>77</v>
+      </c>
+      <c r="H218" t="s">
+        <v>67</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="O218" t="s">
+        <v>89</v>
+      </c>
+      <c r="P218" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q218">
+        <v>2</v>
+      </c>
+      <c r="R218">
+        <v>5</v>
+      </c>
+      <c r="S218">
+        <v>7</v>
+      </c>
+      <c r="T218">
+        <v>3.1</v>
+      </c>
+      <c r="U218">
+        <v>2</v>
+      </c>
+      <c r="V218">
+        <v>3.25</v>
+      </c>
+      <c r="W218">
+        <v>1.44</v>
+      </c>
+      <c r="X218">
+        <v>2.55</v>
+      </c>
+      <c r="Y218">
+        <v>3.1</v>
+      </c>
+      <c r="Z218">
+        <v>1.33</v>
+      </c>
+      <c r="AA218">
+        <v>8.25</v>
+      </c>
+      <c r="AB218">
+        <v>1.06</v>
+      </c>
+      <c r="AC218">
+        <v>2.6</v>
+      </c>
+      <c r="AD218">
+        <v>3.2</v>
+      </c>
+      <c r="AE218">
+        <v>2.6</v>
+      </c>
+      <c r="AF218">
+        <v>1.07</v>
+      </c>
+      <c r="AG218">
+        <v>9</v>
+      </c>
+      <c r="AH218">
+        <v>1.4</v>
+      </c>
+      <c r="AI218">
+        <v>3</v>
+      </c>
+      <c r="AJ218">
+        <v>2.1</v>
+      </c>
+      <c r="AK218">
+        <v>1.65</v>
+      </c>
+      <c r="AL218">
+        <v>1.88</v>
+      </c>
+      <c r="AM218">
+        <v>1.92</v>
+      </c>
+      <c r="AN218">
+        <v>1.47</v>
+      </c>
+      <c r="AO218">
+        <v>1.28</v>
+      </c>
+      <c r="AP218">
+        <v>1.53</v>
+      </c>
+      <c r="AQ218">
+        <v>1.5</v>
+      </c>
+      <c r="AR218">
+        <v>0.63</v>
+      </c>
+      <c r="AS218">
+        <v>1.44</v>
+      </c>
+      <c r="AT218">
+        <v>0.67</v>
+      </c>
+      <c r="AU218">
+        <v>1.38</v>
+      </c>
+      <c r="AV218">
+        <v>1.36</v>
+      </c>
+      <c r="AW218">
+        <v>2.74</v>
+      </c>
+      <c r="AX218">
+        <v>1.87</v>
+      </c>
+      <c r="AY218">
+        <v>7.6</v>
+      </c>
+      <c r="AZ218">
+        <v>2.38</v>
+      </c>
+      <c r="BA218">
+        <v>1.24</v>
+      </c>
+      <c r="BB218">
+        <v>1.48</v>
+      </c>
+      <c r="BC218">
+        <v>1.88</v>
+      </c>
+      <c r="BD218">
+        <v>2.38</v>
+      </c>
+      <c r="BE218">
+        <v>3.2</v>
+      </c>
+      <c r="BF218">
+        <v>2</v>
+      </c>
+      <c r="BG218">
+        <v>4</v>
+      </c>
+      <c r="BH218">
+        <v>4</v>
+      </c>
+      <c r="BI218">
+        <v>7</v>
+      </c>
+      <c r="BJ218">
+        <v>6</v>
+      </c>
+      <c r="BK218">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:63">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>2608363</v>
+      </c>
+      <c r="C219" t="s">
+        <v>63</v>
+      </c>
+      <c r="D219" t="s">
+        <v>64</v>
+      </c>
+      <c r="E219" s="2">
+        <v>44869.70833333334</v>
+      </c>
+      <c r="F219">
+        <v>20</v>
+      </c>
+      <c r="G219" t="s">
+        <v>82</v>
+      </c>
+      <c r="H219" t="s">
+        <v>84</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>2</v>
+      </c>
+      <c r="N219">
+        <v>3</v>
+      </c>
+      <c r="O219" t="s">
+        <v>199</v>
+      </c>
+      <c r="P219" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q219">
+        <v>3</v>
+      </c>
+      <c r="R219">
+        <v>2</v>
+      </c>
+      <c r="S219">
+        <v>5</v>
+      </c>
+      <c r="T219">
+        <v>3.1</v>
+      </c>
+      <c r="U219">
+        <v>2.05</v>
+      </c>
+      <c r="V219">
+        <v>3.6</v>
+      </c>
+      <c r="W219">
+        <v>1.44</v>
+      </c>
+      <c r="X219">
+        <v>2.63</v>
+      </c>
+      <c r="Y219">
+        <v>3.25</v>
+      </c>
+      <c r="Z219">
+        <v>1.33</v>
+      </c>
+      <c r="AA219">
+        <v>9</v>
+      </c>
+      <c r="AB219">
+        <v>1.07</v>
+      </c>
+      <c r="AC219">
+        <v>2.35</v>
+      </c>
+      <c r="AD219">
+        <v>3.15</v>
+      </c>
+      <c r="AE219">
+        <v>2.95</v>
+      </c>
+      <c r="AF219">
+        <v>1.07</v>
+      </c>
+      <c r="AG219">
+        <v>10</v>
+      </c>
+      <c r="AH219">
+        <v>1.36</v>
+      </c>
+      <c r="AI219">
+        <v>3.2</v>
+      </c>
+      <c r="AJ219">
+        <v>2</v>
+      </c>
+      <c r="AK219">
+        <v>1.7</v>
+      </c>
+      <c r="AL219">
+        <v>1.83</v>
+      </c>
+      <c r="AM219">
+        <v>1.83</v>
+      </c>
+      <c r="AN219">
+        <v>1.42</v>
+      </c>
+      <c r="AO219">
+        <v>1.35</v>
+      </c>
+      <c r="AP219">
+        <v>1.56</v>
+      </c>
+      <c r="AQ219">
+        <v>2.11</v>
+      </c>
+      <c r="AR219">
+        <v>1.67</v>
+      </c>
+      <c r="AS219">
+        <v>1.9</v>
+      </c>
+      <c r="AT219">
+        <v>1.8</v>
+      </c>
+      <c r="AU219">
+        <v>1.36</v>
+      </c>
+      <c r="AV219">
+        <v>1.25</v>
+      </c>
+      <c r="AW219">
+        <v>2.61</v>
+      </c>
+      <c r="AX219">
+        <v>1.92</v>
+      </c>
+      <c r="AY219">
+        <v>7.6</v>
+      </c>
+      <c r="AZ219">
+        <v>2.3</v>
+      </c>
+      <c r="BA219">
+        <v>1.27</v>
+      </c>
+      <c r="BB219">
+        <v>1.53</v>
+      </c>
+      <c r="BC219">
+        <v>1.98</v>
+      </c>
+      <c r="BD219">
+        <v>2.53</v>
+      </c>
+      <c r="BE219">
+        <v>3.42</v>
+      </c>
+      <c r="BF219">
+        <v>3</v>
+      </c>
+      <c r="BG219">
+        <v>5</v>
+      </c>
+      <c r="BH219">
+        <v>9</v>
+      </c>
+      <c r="BI219">
+        <v>6</v>
+      </c>
+      <c r="BJ219">
+        <v>12</v>
+      </c>
+      <c r="BK219">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="350">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,6 +706,54 @@
     <t>['35', '90+1', '90+10']</t>
   </si>
   <si>
+    <t>['30', '48', '64', '69', '74']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['44', '84']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['47', '62']</t>
+  </si>
+  <si>
+    <t>['12', '89']</t>
+  </si>
+  <si>
+    <t>['77', '90+5']</t>
+  </si>
+  <si>
+    <t>['3', '13']</t>
+  </si>
+  <si>
+    <t>['15', '87']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['11', '78']</t>
+  </si>
+  <si>
+    <t>['20', '28']</t>
+  </si>
+  <si>
+    <t>['39', '50']</t>
+  </si>
+  <si>
+    <t>['54', '88']</t>
+  </si>
+  <si>
+    <t>['55', '74', '81']</t>
+  </si>
+  <si>
     <t>['18']</t>
   </si>
   <si>
@@ -808,9 +856,6 @@
     <t>['63', '90+3']</t>
   </si>
   <si>
-    <t>['47', '62']</t>
-  </si>
-  <si>
     <t>['22']</t>
   </si>
   <si>
@@ -860,9 +905,6 @@
   </si>
   <si>
     <t>['6', '44']</t>
-  </si>
-  <si>
-    <t>['75']</t>
   </si>
   <si>
     <t>['19', '22']</t>
@@ -961,9 +1003,6 @@
     <t>['11', '23']</t>
   </si>
   <si>
-    <t>['78']</t>
-  </si>
-  <si>
     <t>['53', '80']</t>
   </si>
   <si>
@@ -983,6 +1022,48 @@
   </si>
   <si>
     <t>['51', '79']</t>
+  </si>
+  <si>
+    <t>['17', '45']</t>
+  </si>
+  <si>
+    <t>['13', '67']</t>
+  </si>
+  <si>
+    <t>['17', '50']</t>
+  </si>
+  <si>
+    <t>['8', '16']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['9', '26']</t>
+  </si>
+  <si>
+    <t>['4', '75', '77']</t>
+  </si>
+  <si>
+    <t>['15', '48', '65']</t>
+  </si>
+  <si>
+    <t>['30', '45+2']</t>
+  </si>
+  <si>
+    <t>['25', '49']</t>
+  </si>
+  <si>
+    <t>['32', '90+4']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['64', '90+2']</t>
+  </si>
+  <si>
+    <t>['4', '16', '64', '72']</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK219"/>
+  <dimension ref="A1:BK250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1588,7 +1669,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1675,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT2">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1779,7 +1860,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1866,10 +1947,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT3">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2057,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT4">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2248,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT5">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2439,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT6">
         <v>1.8</v>
@@ -2630,10 +2711,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="AT7">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2821,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3012,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT9">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3203,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT10">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3307,7 +3388,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3394,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT11">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3498,7 +3579,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3585,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT12">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3776,10 +3857,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT13">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3967,10 +4048,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT14">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4071,7 +4152,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4158,10 +4239,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT15">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4262,7 +4343,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4349,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT16">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4540,10 +4621,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AT17">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4731,10 +4812,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AT18">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4835,7 +4916,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4925,7 +5006,7 @@
         <v>1.9</v>
       </c>
       <c r="AT19">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5026,7 +5107,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -5113,10 +5194,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT20">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5304,10 +5385,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT21">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5408,7 +5489,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5495,10 +5576,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT22">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5599,7 +5680,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5686,10 +5767,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.13</v>
+        <v>1.7</v>
       </c>
       <c r="AT23">
-        <v>0.78</v>
+        <v>1.18</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5877,10 +5958,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT24">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -6068,10 +6149,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT25">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU25">
         <v>1.47</v>
@@ -6259,10 +6340,10 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="AT26">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU26">
         <v>0.72</v>
@@ -6450,10 +6531,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT27">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU27">
         <v>1.72</v>
@@ -6641,10 +6722,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT28">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="AU28">
         <v>1.54</v>
@@ -6745,7 +6826,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6832,10 +6913,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT29">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU29">
         <v>1.31</v>
@@ -6936,7 +7017,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -7023,7 +7104,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT30">
         <v>1.8</v>
@@ -7127,7 +7208,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7214,10 +7295,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT31">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU31">
         <v>1.62</v>
@@ -7318,7 +7399,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7405,10 +7486,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT32">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU32">
         <v>1.6</v>
@@ -7596,10 +7677,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT33">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU33">
         <v>0.37</v>
@@ -7787,10 +7868,10 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT34">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AU34">
         <v>1.26</v>
@@ -7891,7 +7972,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7978,10 +8059,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT35">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU35">
         <v>1.69</v>
@@ -8082,7 +8163,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -8169,10 +8250,10 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT36">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU36">
         <v>1.48</v>
@@ -8273,7 +8354,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8360,10 +8441,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT37">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU37">
         <v>0.03</v>
@@ -8464,7 +8545,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8551,10 +8632,10 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT38">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU38">
         <v>1.91</v>
@@ -8742,10 +8823,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT39">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AU39">
         <v>0.63</v>
@@ -8933,10 +9014,10 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT40">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU40">
         <v>1.59</v>
@@ -9037,7 +9118,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9124,10 +9205,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT41">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU41">
         <v>2.37</v>
@@ -9315,10 +9396,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT42">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU42">
         <v>2.35</v>
@@ -9506,10 +9587,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>2.13</v>
+        <v>1.7</v>
       </c>
       <c r="AT43">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU43">
         <v>1.52</v>
@@ -9610,7 +9691,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9697,10 +9778,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AT44">
-        <v>0.78</v>
+        <v>1.18</v>
       </c>
       <c r="AU44">
         <v>1.33</v>
@@ -9801,7 +9882,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="Q45">
         <v>13</v>
@@ -9888,10 +9969,10 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AT45">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU45">
         <v>1</v>
@@ -10082,7 +10163,7 @@
         <v>1.9</v>
       </c>
       <c r="AT46">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU46">
         <v>1.13</v>
@@ -10270,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT47">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>2.26</v>
@@ -10461,10 +10542,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT48">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU48">
         <v>2.56</v>
@@ -10565,7 +10646,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10652,10 +10733,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU49">
         <v>2</v>
@@ -10756,7 +10837,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10843,10 +10924,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT50">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AU50">
         <v>1.11</v>
@@ -11034,10 +11115,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AT51">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU51">
         <v>1.32</v>
@@ -11225,10 +11306,10 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AT52">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU52">
         <v>1.78</v>
@@ -11419,7 +11500,7 @@
         <v>1.9</v>
       </c>
       <c r="AT53">
-        <v>0.78</v>
+        <v>1.18</v>
       </c>
       <c r="AU53">
         <v>1.37</v>
@@ -11520,7 +11601,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="Q54">
         <v>9</v>
@@ -11607,10 +11688,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2.13</v>
+        <v>1.7</v>
       </c>
       <c r="AT54">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU54">
         <v>1.59</v>
@@ -11798,10 +11879,10 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT55">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU55">
         <v>2.28</v>
@@ -11902,7 +11983,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11989,10 +12070,10 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT56">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU56">
         <v>1.72</v>
@@ -12180,10 +12261,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT57">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
       <c r="AU57">
         <v>1.57</v>
@@ -12371,10 +12452,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT58">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU58">
         <v>0.9399999999999999</v>
@@ -12475,7 +12556,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12562,10 +12643,10 @@
         <v>0.5</v>
       </c>
       <c r="AS59">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT59">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU59">
         <v>1.93</v>
@@ -12753,10 +12834,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT60">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU60">
         <v>1.51</v>
@@ -12857,7 +12938,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12944,10 +13025,10 @@
         <v>2</v>
       </c>
       <c r="AS61">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT61">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AU61">
         <v>1.4</v>
@@ -13048,7 +13129,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -13135,10 +13216,10 @@
         <v>1.5</v>
       </c>
       <c r="AS62">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT62">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU62">
         <v>1.58</v>
@@ -13326,10 +13407,10 @@
         <v>0.5</v>
       </c>
       <c r="AS63">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT63">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU63">
         <v>1.47</v>
@@ -13430,7 +13511,7 @@
         <v>89</v>
       </c>
       <c r="P64" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13517,10 +13598,10 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT64">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="AU64">
         <v>1.64</v>
@@ -13621,7 +13702,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13708,10 +13789,10 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT65">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU65">
         <v>1.13</v>
@@ -13812,7 +13893,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13899,10 +13980,10 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT66">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU66">
         <v>0.88</v>
@@ -14090,7 +14171,7 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="AT67">
         <v>1.8</v>
@@ -14194,7 +14275,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14281,10 +14362,10 @@
         <v>0.5</v>
       </c>
       <c r="AS68">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT68">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU68">
         <v>1.27</v>
@@ -14385,7 +14466,7 @@
         <v>89</v>
       </c>
       <c r="P69" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14472,10 +14553,10 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT69">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU69">
         <v>1.16</v>
@@ -14576,7 +14657,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14663,10 +14744,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT70">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU70">
         <v>1.38</v>
@@ -14854,10 +14935,10 @@
         <v>0.67</v>
       </c>
       <c r="AS71">
-        <v>2.13</v>
+        <v>1.7</v>
       </c>
       <c r="AT71">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU71">
         <v>1.72</v>
@@ -14958,7 +15039,7 @@
         <v>104</v>
       </c>
       <c r="P72" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15045,10 +15126,10 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT72">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU72">
         <v>1.43</v>
@@ -15236,10 +15317,10 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT73">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU73">
         <v>1.66</v>
@@ -15340,7 +15421,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15427,10 +15508,10 @@
         <v>1.33</v>
       </c>
       <c r="AS74">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="AT74">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AU74">
         <v>1.45</v>
@@ -15618,10 +15699,10 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AT75">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="AU75">
         <v>2.19</v>
@@ -15722,7 +15803,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15809,10 +15890,10 @@
         <v>0.67</v>
       </c>
       <c r="AS76">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT76">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU76">
         <v>1.63</v>
@@ -15913,7 +15994,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16000,10 +16081,10 @@
         <v>0.33</v>
       </c>
       <c r="AS77">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT77">
-        <v>0.78</v>
+        <v>1.18</v>
       </c>
       <c r="AU77">
         <v>1.3</v>
@@ -16191,10 +16272,10 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AT78">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AU78">
         <v>1.48</v>
@@ -16382,10 +16463,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT79">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU79">
         <v>1.68</v>
@@ -16573,10 +16654,10 @@
         <v>0</v>
       </c>
       <c r="AS80">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT80">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU80">
         <v>1.25</v>
@@ -16677,7 +16758,7 @@
         <v>89</v>
       </c>
       <c r="P81" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -16764,7 +16845,7 @@
         <v>1.67</v>
       </c>
       <c r="AS81">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="AT81">
         <v>1.8</v>
@@ -16955,10 +17036,10 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT82">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU82">
         <v>1.43</v>
@@ -17146,10 +17227,10 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT83">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU83">
         <v>2.15</v>
@@ -17250,7 +17331,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17337,10 +17418,10 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT84">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU84">
         <v>1.75</v>
@@ -17528,10 +17609,10 @@
         <v>1.33</v>
       </c>
       <c r="AS85">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT85">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU85">
         <v>1.29</v>
@@ -17719,10 +17800,10 @@
         <v>0.33</v>
       </c>
       <c r="AS86">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT86">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU86">
         <v>1.98</v>
@@ -17910,10 +17991,10 @@
         <v>0.33</v>
       </c>
       <c r="AS87">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT87">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU87">
         <v>2.31</v>
@@ -18101,10 +18182,10 @@
         <v>0.33</v>
       </c>
       <c r="AS88">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT88">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU88">
         <v>1.61</v>
@@ -18205,7 +18286,7 @@
         <v>151</v>
       </c>
       <c r="P89" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="Q89">
         <v>9</v>
@@ -18292,10 +18373,10 @@
         <v>2</v>
       </c>
       <c r="AS89">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT89">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
       <c r="AU89">
         <v>1.95</v>
@@ -18396,7 +18477,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18483,10 +18564,10 @@
         <v>0.67</v>
       </c>
       <c r="AS90">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT90">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU90">
         <v>1.39</v>
@@ -18677,7 +18758,7 @@
         <v>1.9</v>
       </c>
       <c r="AT91">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU91">
         <v>1.28</v>
@@ -18778,7 +18859,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18865,10 +18946,10 @@
         <v>0.67</v>
       </c>
       <c r="AS92">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT92">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU92">
         <v>1.36</v>
@@ -18969,7 +19050,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="Q93">
         <v>10</v>
@@ -19056,10 +19137,10 @@
         <v>1.33</v>
       </c>
       <c r="AS93">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT93">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU93">
         <v>0.95</v>
@@ -19247,10 +19328,10 @@
         <v>2</v>
       </c>
       <c r="AS94">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT94">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU94">
         <v>1.28</v>
@@ -19351,7 +19432,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19438,10 +19519,10 @@
         <v>0.75</v>
       </c>
       <c r="AS95">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT95">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU95">
         <v>1.36</v>
@@ -19542,7 +19623,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -19629,10 +19710,10 @@
         <v>0.25</v>
       </c>
       <c r="AS96">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT96">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU96">
         <v>1.25</v>
@@ -19733,7 +19814,7 @@
         <v>89</v>
       </c>
       <c r="P97" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19820,10 +19901,10 @@
         <v>1.25</v>
       </c>
       <c r="AS97">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT97">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU97">
         <v>1.32</v>
@@ -20011,10 +20092,10 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT98">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU98">
         <v>1.45</v>
@@ -20115,7 +20196,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20202,10 +20283,10 @@
         <v>2.33</v>
       </c>
       <c r="AS99">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT99">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
       <c r="AU99">
         <v>1.14</v>
@@ -20393,10 +20474,10 @@
         <v>1.75</v>
       </c>
       <c r="AS100">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT100">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU100">
         <v>1.81</v>
@@ -20584,10 +20665,10 @@
         <v>1.75</v>
       </c>
       <c r="AS101">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT101">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU101">
         <v>1.63</v>
@@ -20688,7 +20769,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20775,10 +20856,10 @@
         <v>1.25</v>
       </c>
       <c r="AS102">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT102">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU102">
         <v>2.23</v>
@@ -20879,7 +20960,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20966,10 +21047,10 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT103">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU103">
         <v>1.7</v>
@@ -21070,7 +21151,7 @@
         <v>161</v>
       </c>
       <c r="P104" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21157,10 +21238,10 @@
         <v>0.25</v>
       </c>
       <c r="AS104">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT104">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU104">
         <v>1.89</v>
@@ -21261,7 +21342,7 @@
         <v>162</v>
       </c>
       <c r="P105" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21348,10 +21429,10 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT105">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU105">
         <v>2.31</v>
@@ -21452,7 +21533,7 @@
         <v>89</v>
       </c>
       <c r="P106" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21542,7 +21623,7 @@
         <v>1.9</v>
       </c>
       <c r="AT106">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU106">
         <v>1.29</v>
@@ -21730,10 +21811,10 @@
         <v>0.5</v>
       </c>
       <c r="AS107">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT107">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU107">
         <v>1.31</v>
@@ -21921,10 +22002,10 @@
         <v>0.4</v>
       </c>
       <c r="AS108">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT108">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU108">
         <v>1.37</v>
@@ -22112,10 +22193,10 @@
         <v>1.5</v>
       </c>
       <c r="AS109">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT109">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU109">
         <v>1.84</v>
@@ -22303,10 +22384,10 @@
         <v>0.8</v>
       </c>
       <c r="AS110">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT110">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU110">
         <v>1.31</v>
@@ -22407,7 +22488,7 @@
         <v>166</v>
       </c>
       <c r="P111" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22494,10 +22575,10 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT111">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU111">
         <v>1.84</v>
@@ -22598,7 +22679,7 @@
         <v>167</v>
       </c>
       <c r="P112" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22685,10 +22766,10 @@
         <v>1.4</v>
       </c>
       <c r="AS112">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT112">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU112">
         <v>1.65</v>
@@ -22876,10 +22957,10 @@
         <v>1.2</v>
       </c>
       <c r="AS113">
-        <v>2.13</v>
+        <v>1.7</v>
       </c>
       <c r="AT113">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU113">
         <v>1.69</v>
@@ -22980,7 +23061,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -23067,10 +23148,10 @@
         <v>1.8</v>
       </c>
       <c r="AS114">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT114">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU114">
         <v>1.35</v>
@@ -23171,7 +23252,7 @@
         <v>89</v>
       </c>
       <c r="P115" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23258,10 +23339,10 @@
         <v>0.75</v>
       </c>
       <c r="AS115">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT115">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="AU115">
         <v>1.48</v>
@@ -23362,7 +23443,7 @@
         <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23449,10 +23530,10 @@
         <v>1.6</v>
       </c>
       <c r="AS116">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT116">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU116">
         <v>1.63</v>
@@ -23640,10 +23721,10 @@
         <v>0.75</v>
       </c>
       <c r="AS117">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT117">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU117">
         <v>2.07</v>
@@ -23831,10 +23912,10 @@
         <v>0.67</v>
       </c>
       <c r="AS118">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT118">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU118">
         <v>1.34</v>
@@ -23935,7 +24016,7 @@
         <v>89</v>
       </c>
       <c r="P119" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24022,10 +24103,10 @@
         <v>1.75</v>
       </c>
       <c r="AS119">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT119">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AU119">
         <v>1.42</v>
@@ -24126,7 +24207,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24213,10 +24294,10 @@
         <v>0.25</v>
       </c>
       <c r="AS120">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT120">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU120">
         <v>1.52</v>
@@ -24404,10 +24485,10 @@
         <v>1.5</v>
       </c>
       <c r="AS121">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT121">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU121">
         <v>1.46</v>
@@ -24508,7 +24589,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24595,10 +24676,10 @@
         <v>1.4</v>
       </c>
       <c r="AS122">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT122">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU122">
         <v>1.33</v>
@@ -24699,7 +24780,7 @@
         <v>172</v>
       </c>
       <c r="P123" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="Q123">
         <v>9</v>
@@ -24786,10 +24867,10 @@
         <v>1.6</v>
       </c>
       <c r="AS123">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="AT123">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU123">
         <v>1.51</v>
@@ -24890,7 +24971,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -24980,7 +25061,7 @@
         <v>1.9</v>
       </c>
       <c r="AT124">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU124">
         <v>1.19</v>
@@ -25081,7 +25162,7 @@
         <v>89</v>
       </c>
       <c r="P125" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="Q125">
         <v>8</v>
@@ -25168,10 +25249,10 @@
         <v>2.5</v>
       </c>
       <c r="AS125">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT125">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
       <c r="AU125">
         <v>1.59</v>
@@ -25272,7 +25353,7 @@
         <v>174</v>
       </c>
       <c r="P126" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25359,10 +25440,10 @@
         <v>1.25</v>
       </c>
       <c r="AS126">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT126">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AU126">
         <v>2.3</v>
@@ -25550,7 +25631,7 @@
         <v>2</v>
       </c>
       <c r="AS127">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT127">
         <v>1.8</v>
@@ -25654,7 +25735,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25741,10 +25822,10 @@
         <v>1.4</v>
       </c>
       <c r="AS128">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AT128">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU128">
         <v>2.16</v>
@@ -25932,10 +26013,10 @@
         <v>0.25</v>
       </c>
       <c r="AS129">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="AT129">
-        <v>0.78</v>
+        <v>1.18</v>
       </c>
       <c r="AU129">
         <v>1.47</v>
@@ -26036,7 +26117,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26123,10 +26204,10 @@
         <v>0.8</v>
       </c>
       <c r="AS130">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AT130">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU130">
         <v>1.62</v>
@@ -26314,10 +26395,10 @@
         <v>1.17</v>
       </c>
       <c r="AS131">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT131">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU131">
         <v>1.55</v>
@@ -26418,7 +26499,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="Q132">
         <v>9</v>
@@ -26505,10 +26586,10 @@
         <v>1.67</v>
       </c>
       <c r="AS132">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AT132">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU132">
         <v>2.08</v>
@@ -26609,7 +26690,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -26696,10 +26777,10 @@
         <v>0</v>
       </c>
       <c r="AS133">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT133">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU133">
         <v>1.79</v>
@@ -26887,10 +26968,10 @@
         <v>0.5</v>
       </c>
       <c r="AS134">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT134">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU134">
         <v>1.35</v>
@@ -27078,10 +27159,10 @@
         <v>1.2</v>
       </c>
       <c r="AS135">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="AT135">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU135">
         <v>1.51</v>
@@ -27272,7 +27353,7 @@
         <v>1.9</v>
       </c>
       <c r="AT136">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU136">
         <v>1.24</v>
@@ -27460,10 +27541,10 @@
         <v>1.17</v>
       </c>
       <c r="AS137">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT137">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU137">
         <v>1.83</v>
@@ -27564,7 +27645,7 @@
         <v>93</v>
       </c>
       <c r="P138" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27651,10 +27732,10 @@
         <v>0.2</v>
       </c>
       <c r="AS138">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT138">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU138">
         <v>1.58</v>
@@ -27842,10 +27923,10 @@
         <v>1.33</v>
       </c>
       <c r="AS139">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT139">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU139">
         <v>1.27</v>
@@ -27946,7 +28027,7 @@
         <v>181</v>
       </c>
       <c r="P140" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="Q140">
         <v>9</v>
@@ -28033,10 +28114,10 @@
         <v>2.6</v>
       </c>
       <c r="AS140">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT140">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
       <c r="AU140">
         <v>1.39</v>
@@ -28137,7 +28218,7 @@
         <v>94</v>
       </c>
       <c r="P141" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28224,10 +28305,10 @@
         <v>1.6</v>
       </c>
       <c r="AS141">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT141">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AU141">
         <v>1.34</v>
@@ -28415,10 +28496,10 @@
         <v>0.8</v>
       </c>
       <c r="AS142">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT142">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU142">
         <v>1.69</v>
@@ -28606,10 +28687,10 @@
         <v>1.2</v>
       </c>
       <c r="AS143">
-        <v>2.13</v>
+        <v>1.7</v>
       </c>
       <c r="AT143">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="AU143">
         <v>1.65</v>
@@ -28797,10 +28878,10 @@
         <v>1.5</v>
       </c>
       <c r="AS144">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="AT144">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU144">
         <v>1.35</v>
@@ -28901,7 +28982,7 @@
         <v>184</v>
       </c>
       <c r="P145" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="Q145">
         <v>5</v>
@@ -28988,10 +29069,10 @@
         <v>1.17</v>
       </c>
       <c r="AS145">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT145">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU145">
         <v>1.54</v>
@@ -29179,10 +29260,10 @@
         <v>0.83</v>
       </c>
       <c r="AS146">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT146">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU146">
         <v>1.38</v>
@@ -29283,7 +29364,7 @@
         <v>186</v>
       </c>
       <c r="P147" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -29370,7 +29451,7 @@
         <v>1.8</v>
       </c>
       <c r="AS147">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT147">
         <v>1.8</v>
@@ -29561,10 +29642,10 @@
         <v>1.83</v>
       </c>
       <c r="AS148">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AT148">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU148">
         <v>1.6</v>
@@ -29665,7 +29746,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="Q149">
         <v>7</v>
@@ -29752,10 +29833,10 @@
         <v>1.67</v>
       </c>
       <c r="AS149">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT149">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU149">
         <v>1.39</v>
@@ -29943,10 +30024,10 @@
         <v>2</v>
       </c>
       <c r="AS150">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT150">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AU150">
         <v>2.18</v>
@@ -30134,10 +30215,10 @@
         <v>0.2</v>
       </c>
       <c r="AS151">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT151">
-        <v>0.78</v>
+        <v>1.18</v>
       </c>
       <c r="AU151">
         <v>1.69</v>
@@ -30325,10 +30406,10 @@
         <v>0.75</v>
       </c>
       <c r="AS152">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT152">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU152">
         <v>1.52</v>
@@ -30429,7 +30510,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -30516,10 +30597,10 @@
         <v>0.67</v>
       </c>
       <c r="AS153">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT153">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU153">
         <v>1.37</v>
@@ -30707,10 +30788,10 @@
         <v>0.4</v>
       </c>
       <c r="AS154">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT154">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU154">
         <v>1.27</v>
@@ -30898,10 +30979,10 @@
         <v>1</v>
       </c>
       <c r="AS155">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT155">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU155">
         <v>1.36</v>
@@ -31089,7 +31170,7 @@
         <v>2</v>
       </c>
       <c r="AS156">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT156">
         <v>1.8</v>
@@ -31193,7 +31274,7 @@
         <v>193</v>
       </c>
       <c r="P157" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31280,10 +31361,10 @@
         <v>0.2</v>
       </c>
       <c r="AS157">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT157">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU157">
         <v>1.52</v>
@@ -31471,10 +31552,10 @@
         <v>1.86</v>
       </c>
       <c r="AS158">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT158">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU158">
         <v>1.93</v>
@@ -31575,7 +31656,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="Q159">
         <v>1</v>
@@ -31662,10 +31743,10 @@
         <v>2.17</v>
       </c>
       <c r="AS159">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT159">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
       <c r="AU159">
         <v>1.59</v>
@@ -31766,7 +31847,7 @@
         <v>196</v>
       </c>
       <c r="P160" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="Q160">
         <v>14</v>
@@ -31853,10 +31934,10 @@
         <v>1.14</v>
       </c>
       <c r="AS160">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AT160">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU160">
         <v>2.15</v>
@@ -32044,10 +32125,10 @@
         <v>0.57</v>
       </c>
       <c r="AS161">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="AT161">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU161">
         <v>1.57</v>
@@ -32235,10 +32316,10 @@
         <v>1.83</v>
       </c>
       <c r="AS162">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT162">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AU162">
         <v>1.81</v>
@@ -32339,7 +32420,7 @@
         <v>89</v>
       </c>
       <c r="P163" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32426,10 +32507,10 @@
         <v>1.14</v>
       </c>
       <c r="AS163">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT163">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU163">
         <v>1.61</v>
@@ -32530,7 +32611,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="Q164">
         <v>9</v>
@@ -32617,10 +32698,10 @@
         <v>0.86</v>
       </c>
       <c r="AS164">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT164">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU164">
         <v>1.34</v>
@@ -32721,7 +32802,7 @@
         <v>89</v>
       </c>
       <c r="P165" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32811,7 +32892,7 @@
         <v>1.9</v>
       </c>
       <c r="AT165">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU165">
         <v>1.25</v>
@@ -32912,7 +32993,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -32999,10 +33080,10 @@
         <v>0.33</v>
       </c>
       <c r="AS166">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT166">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU166">
         <v>1.42</v>
@@ -33103,7 +33184,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33190,10 +33271,10 @@
         <v>1.67</v>
       </c>
       <c r="AS167">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT167">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU167">
         <v>1.32</v>
@@ -33294,7 +33375,7 @@
         <v>89</v>
       </c>
       <c r="P168" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="Q168">
         <v>7</v>
@@ -33381,10 +33462,10 @@
         <v>1.14</v>
       </c>
       <c r="AS168">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT168">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU168">
         <v>1.43</v>
@@ -33572,10 +33653,10 @@
         <v>1.83</v>
       </c>
       <c r="AS169">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT169">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AU169">
         <v>2.01</v>
@@ -33676,7 +33757,7 @@
         <v>201</v>
       </c>
       <c r="P170" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -33763,10 +33844,10 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT170">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="AU170">
         <v>1.41</v>
@@ -33954,7 +34035,7 @@
         <v>1.71</v>
       </c>
       <c r="AS171">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT171">
         <v>1.8</v>
@@ -34058,7 +34139,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="Q172">
         <v>13</v>
@@ -34145,10 +34226,10 @@
         <v>0.71</v>
       </c>
       <c r="AS172">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT172">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU172">
         <v>2.08</v>
@@ -34336,10 +34417,10 @@
         <v>0.6</v>
       </c>
       <c r="AS173">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AT173">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU173">
         <v>1.62</v>
@@ -34527,10 +34608,10 @@
         <v>1.43</v>
       </c>
       <c r="AS174">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT174">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU174">
         <v>1.58</v>
@@ -34631,7 +34712,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34718,10 +34799,10 @@
         <v>0.33</v>
       </c>
       <c r="AS175">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT175">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU175">
         <v>1.63</v>
@@ -34909,10 +34990,10 @@
         <v>1</v>
       </c>
       <c r="AS176">
-        <v>2.13</v>
+        <v>1.7</v>
       </c>
       <c r="AT176">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU176">
         <v>1.62</v>
@@ -35013,7 +35094,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -35100,10 +35181,10 @@
         <v>0.17</v>
       </c>
       <c r="AS177">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT177">
-        <v>0.78</v>
+        <v>1.18</v>
       </c>
       <c r="AU177">
         <v>1.39</v>
@@ -35291,10 +35372,10 @@
         <v>1.57</v>
       </c>
       <c r="AS178">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="AT178">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU178">
         <v>1.1</v>
@@ -35395,7 +35476,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="Q179">
         <v>8</v>
@@ -35482,10 +35563,10 @@
         <v>1.71</v>
       </c>
       <c r="AS179">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT179">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU179">
         <v>1.43</v>
@@ -35673,10 +35754,10 @@
         <v>1</v>
       </c>
       <c r="AS180">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT180">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU180">
         <v>1.63</v>
@@ -35777,7 +35858,7 @@
         <v>208</v>
       </c>
       <c r="P181" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="Q181">
         <v>1</v>
@@ -35864,7 +35945,7 @@
         <v>1.88</v>
       </c>
       <c r="AS181">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT181">
         <v>1.8</v>
@@ -35968,7 +36049,7 @@
         <v>209</v>
       </c>
       <c r="P182" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -36055,10 +36136,10 @@
         <v>0.71</v>
       </c>
       <c r="AS182">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT182">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU182">
         <v>1.51</v>
@@ -36159,7 +36240,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36246,10 +36327,10 @@
         <v>1</v>
       </c>
       <c r="AS183">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT183">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU183">
         <v>1.61</v>
@@ -36437,10 +36518,10 @@
         <v>0.17</v>
       </c>
       <c r="AS184">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT184">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU184">
         <v>1.44</v>
@@ -36541,7 +36622,7 @@
         <v>211</v>
       </c>
       <c r="P185" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -36628,10 +36709,10 @@
         <v>1.43</v>
       </c>
       <c r="AS185">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AT185">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU185">
         <v>2.2</v>
@@ -36732,7 +36813,7 @@
         <v>212</v>
       </c>
       <c r="P186" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -36819,10 +36900,10 @@
         <v>1.63</v>
       </c>
       <c r="AS186">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT186">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU186">
         <v>1.55</v>
@@ -37010,10 +37091,10 @@
         <v>1.38</v>
       </c>
       <c r="AS187">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT187">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU187">
         <v>1.52</v>
@@ -37114,7 +37195,7 @@
         <v>214</v>
       </c>
       <c r="P188" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37201,10 +37282,10 @@
         <v>1.86</v>
       </c>
       <c r="AS188">
-        <v>2.13</v>
+        <v>1.7</v>
       </c>
       <c r="AT188">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
       <c r="AU188">
         <v>1.74</v>
@@ -37395,7 +37476,7 @@
         <v>1.9</v>
       </c>
       <c r="AT189">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU189">
         <v>1.33</v>
@@ -37496,7 +37577,7 @@
         <v>89</v>
       </c>
       <c r="P190" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="Q190">
         <v>9</v>
@@ -37583,10 +37664,10 @@
         <v>0.88</v>
       </c>
       <c r="AS190">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AT190">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU190">
         <v>1.86</v>
@@ -37774,10 +37855,10 @@
         <v>0.88</v>
       </c>
       <c r="AS191">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT191">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU191">
         <v>1.46</v>
@@ -37965,10 +38046,10 @@
         <v>2</v>
       </c>
       <c r="AS192">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT192">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AU192">
         <v>1.41</v>
@@ -38069,7 +38150,7 @@
         <v>218</v>
       </c>
       <c r="P193" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="Q193">
         <v>6</v>
@@ -38156,10 +38237,10 @@
         <v>1</v>
       </c>
       <c r="AS193">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="AT193">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU193">
         <v>1.07</v>
@@ -38347,10 +38428,10 @@
         <v>1.38</v>
       </c>
       <c r="AS194">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT194">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU194">
         <v>1.77</v>
@@ -38538,10 +38619,10 @@
         <v>1.63</v>
       </c>
       <c r="AS195">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT195">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU195">
         <v>1.44</v>
@@ -38729,10 +38810,10 @@
         <v>1.57</v>
       </c>
       <c r="AS196">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT196">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AU196">
         <v>1.4</v>
@@ -38833,7 +38914,7 @@
         <v>89</v>
       </c>
       <c r="P197" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="Q197">
         <v>8</v>
@@ -38920,10 +39001,10 @@
         <v>1.38</v>
       </c>
       <c r="AS197">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT197">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU197">
         <v>1.99</v>
@@ -39111,10 +39192,10 @@
         <v>0.88</v>
       </c>
       <c r="AS198">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT198">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU198">
         <v>1.37</v>
@@ -39302,10 +39383,10 @@
         <v>0.57</v>
       </c>
       <c r="AS199">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT199">
-        <v>0.78</v>
+        <v>1.18</v>
       </c>
       <c r="AU199">
         <v>1.51</v>
@@ -39406,7 +39487,7 @@
         <v>107</v>
       </c>
       <c r="P200" t="s">
-        <v>315</v>
+        <v>240</v>
       </c>
       <c r="Q200">
         <v>8</v>
@@ -39493,10 +39574,10 @@
         <v>1.25</v>
       </c>
       <c r="AS200">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT200">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU200">
         <v>1.96</v>
@@ -39684,10 +39765,10 @@
         <v>1.13</v>
       </c>
       <c r="AS201">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT201">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU201">
         <v>1.42</v>
@@ -39875,10 +39956,10 @@
         <v>0.71</v>
       </c>
       <c r="AS202">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT202">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU202">
         <v>1.21</v>
@@ -39979,7 +40060,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40066,10 +40147,10 @@
         <v>1.13</v>
       </c>
       <c r="AS203">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="AT203">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU203">
         <v>1.28</v>
@@ -40257,10 +40338,10 @@
         <v>1</v>
       </c>
       <c r="AS204">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="AT204">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU204">
         <v>1.56</v>
@@ -40448,10 +40529,10 @@
         <v>0.86</v>
       </c>
       <c r="AS205">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT205">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="AU205">
         <v>1.68</v>
@@ -40552,7 +40633,7 @@
         <v>226</v>
       </c>
       <c r="P206" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40639,10 +40720,10 @@
         <v>1.38</v>
       </c>
       <c r="AS206">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT206">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU206">
         <v>1.93</v>
@@ -40830,10 +40911,10 @@
         <v>1.5</v>
       </c>
       <c r="AS207">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT207">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AU207">
         <v>1.52</v>
@@ -41021,10 +41102,10 @@
         <v>0.75</v>
       </c>
       <c r="AS208">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT208">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="AU208">
         <v>1.93</v>
@@ -41125,7 +41206,7 @@
         <v>178</v>
       </c>
       <c r="P209" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="Q209">
         <v>7</v>
@@ -41212,10 +41293,10 @@
         <v>0.5</v>
       </c>
       <c r="AS209">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT209">
-        <v>0.78</v>
+        <v>1.18</v>
       </c>
       <c r="AU209">
         <v>1.36</v>
@@ -41403,10 +41484,10 @@
         <v>1.33</v>
       </c>
       <c r="AS210">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="AT210">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU210">
         <v>1.34</v>
@@ -41594,10 +41675,10 @@
         <v>1.33</v>
       </c>
       <c r="AS211">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT211">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU211">
         <v>1.96</v>
@@ -41785,10 +41866,10 @@
         <v>1.56</v>
       </c>
       <c r="AS212">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT212">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU212">
         <v>1.39</v>
@@ -41976,10 +42057,10 @@
         <v>1.22</v>
       </c>
       <c r="AS213">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT213">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU213">
         <v>1.33</v>
@@ -42167,10 +42248,10 @@
         <v>1.44</v>
       </c>
       <c r="AS214">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT214">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU214">
         <v>1.9</v>
@@ -42271,7 +42352,7 @@
         <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -42358,10 +42439,10 @@
         <v>1.22</v>
       </c>
       <c r="AS215">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT215">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU215">
         <v>1.26</v>
@@ -42462,7 +42543,7 @@
         <v>93</v>
       </c>
       <c r="P216" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -42549,10 +42630,10 @@
         <v>1.11</v>
       </c>
       <c r="AS216">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="AT216">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU216">
         <v>1.63</v>
@@ -42653,7 +42734,7 @@
         <v>229</v>
       </c>
       <c r="P217" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="Q217">
         <v>7</v>
@@ -42740,10 +42821,10 @@
         <v>0.88</v>
       </c>
       <c r="AS217">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT217">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU217">
         <v>1.7</v>
@@ -42931,10 +43012,10 @@
         <v>0.63</v>
       </c>
       <c r="AS218">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT218">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU218">
         <v>1.38</v>
@@ -43035,7 +43116,7 @@
         <v>199</v>
       </c>
       <c r="P219" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43177,6 +43258,5927 @@
       </c>
       <c r="BK219">
         <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:63">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>2608365</v>
+      </c>
+      <c r="C220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" t="s">
+        <v>64</v>
+      </c>
+      <c r="E220" s="2">
+        <v>44870.39583333334</v>
+      </c>
+      <c r="F220">
+        <v>20</v>
+      </c>
+      <c r="G220" t="s">
+        <v>81</v>
+      </c>
+      <c r="H220" t="s">
+        <v>83</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>2</v>
+      </c>
+      <c r="K220">
+        <v>3</v>
+      </c>
+      <c r="L220">
+        <v>5</v>
+      </c>
+      <c r="M220">
+        <v>2</v>
+      </c>
+      <c r="N220">
+        <v>7</v>
+      </c>
+      <c r="O220" t="s">
+        <v>230</v>
+      </c>
+      <c r="P220" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q220">
+        <v>10</v>
+      </c>
+      <c r="R220">
+        <v>6</v>
+      </c>
+      <c r="S220">
+        <v>16</v>
+      </c>
+      <c r="T220">
+        <v>3.2</v>
+      </c>
+      <c r="U220">
+        <v>2.1</v>
+      </c>
+      <c r="V220">
+        <v>3.4</v>
+      </c>
+      <c r="W220">
+        <v>1.4</v>
+      </c>
+      <c r="X220">
+        <v>2.75</v>
+      </c>
+      <c r="Y220">
+        <v>3</v>
+      </c>
+      <c r="Z220">
+        <v>1.36</v>
+      </c>
+      <c r="AA220">
+        <v>8</v>
+      </c>
+      <c r="AB220">
+        <v>1.08</v>
+      </c>
+      <c r="AC220">
+        <v>2.33</v>
+      </c>
+      <c r="AD220">
+        <v>3.1</v>
+      </c>
+      <c r="AE220">
+        <v>2.9</v>
+      </c>
+      <c r="AF220">
+        <v>1.06</v>
+      </c>
+      <c r="AG220">
+        <v>10</v>
+      </c>
+      <c r="AH220">
+        <v>1.33</v>
+      </c>
+      <c r="AI220">
+        <v>3.3</v>
+      </c>
+      <c r="AJ220">
+        <v>2.03</v>
+      </c>
+      <c r="AK220">
+        <v>1.83</v>
+      </c>
+      <c r="AL220">
+        <v>1.73</v>
+      </c>
+      <c r="AM220">
+        <v>2</v>
+      </c>
+      <c r="AN220">
+        <v>1.42</v>
+      </c>
+      <c r="AO220">
+        <v>1.28</v>
+      </c>
+      <c r="AP220">
+        <v>1.58</v>
+      </c>
+      <c r="AQ220">
+        <v>1.88</v>
+      </c>
+      <c r="AR220">
+        <v>1.78</v>
+      </c>
+      <c r="AS220">
+        <v>1.8</v>
+      </c>
+      <c r="AT220">
+        <v>1.6</v>
+      </c>
+      <c r="AU220">
+        <v>2.22</v>
+      </c>
+      <c r="AV220">
+        <v>1.44</v>
+      </c>
+      <c r="AW220">
+        <v>3.66</v>
+      </c>
+      <c r="AX220">
+        <v>1.64</v>
+      </c>
+      <c r="AY220">
+        <v>6</v>
+      </c>
+      <c r="AZ220">
+        <v>2.6</v>
+      </c>
+      <c r="BA220">
+        <v>1.18</v>
+      </c>
+      <c r="BB220">
+        <v>1.27</v>
+      </c>
+      <c r="BC220">
+        <v>1.5</v>
+      </c>
+      <c r="BD220">
+        <v>1.98</v>
+      </c>
+      <c r="BE220">
+        <v>2.45</v>
+      </c>
+      <c r="BF220">
+        <v>11</v>
+      </c>
+      <c r="BG220">
+        <v>6</v>
+      </c>
+      <c r="BH220">
+        <v>11</v>
+      </c>
+      <c r="BI220">
+        <v>7</v>
+      </c>
+      <c r="BJ220">
+        <v>22</v>
+      </c>
+      <c r="BK220">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:63">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>2608366</v>
+      </c>
+      <c r="C221" t="s">
+        <v>63</v>
+      </c>
+      <c r="D221" t="s">
+        <v>64</v>
+      </c>
+      <c r="E221" s="2">
+        <v>44870.5</v>
+      </c>
+      <c r="F221">
+        <v>20</v>
+      </c>
+      <c r="G221" t="s">
+        <v>80</v>
+      </c>
+      <c r="H221" t="s">
+        <v>77</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>2</v>
+      </c>
+      <c r="N221">
+        <v>3</v>
+      </c>
+      <c r="O221" t="s">
+        <v>231</v>
+      </c>
+      <c r="P221" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q221">
+        <v>4</v>
+      </c>
+      <c r="R221">
+        <v>3</v>
+      </c>
+      <c r="S221">
+        <v>7</v>
+      </c>
+      <c r="T221">
+        <v>2.75</v>
+      </c>
+      <c r="U221">
+        <v>2.05</v>
+      </c>
+      <c r="V221">
+        <v>4.33</v>
+      </c>
+      <c r="W221">
+        <v>1.44</v>
+      </c>
+      <c r="X221">
+        <v>2.63</v>
+      </c>
+      <c r="Y221">
+        <v>3.25</v>
+      </c>
+      <c r="Z221">
+        <v>1.33</v>
+      </c>
+      <c r="AA221">
+        <v>10</v>
+      </c>
+      <c r="AB221">
+        <v>1.06</v>
+      </c>
+      <c r="AC221">
+        <v>1.94</v>
+      </c>
+      <c r="AD221">
+        <v>3.25</v>
+      </c>
+      <c r="AE221">
+        <v>3.6</v>
+      </c>
+      <c r="AF221">
+        <v>1.07</v>
+      </c>
+      <c r="AG221">
+        <v>9.5</v>
+      </c>
+      <c r="AH221">
+        <v>1.4</v>
+      </c>
+      <c r="AI221">
+        <v>3</v>
+      </c>
+      <c r="AJ221">
+        <v>2</v>
+      </c>
+      <c r="AK221">
+        <v>1.7</v>
+      </c>
+      <c r="AL221">
+        <v>1.91</v>
+      </c>
+      <c r="AM221">
+        <v>1.8</v>
+      </c>
+      <c r="AN221">
+        <v>1.31</v>
+      </c>
+      <c r="AO221">
+        <v>1.3</v>
+      </c>
+      <c r="AP221">
+        <v>1.68</v>
+      </c>
+      <c r="AQ221">
+        <v>1</v>
+      </c>
+      <c r="AR221">
+        <v>1.22</v>
+      </c>
+      <c r="AS221">
+        <v>1.1</v>
+      </c>
+      <c r="AT221">
+        <v>1.4</v>
+      </c>
+      <c r="AU221">
+        <v>1.81</v>
+      </c>
+      <c r="AV221">
+        <v>1.23</v>
+      </c>
+      <c r="AW221">
+        <v>3.04</v>
+      </c>
+      <c r="AX221">
+        <v>1.47</v>
+      </c>
+      <c r="AY221">
+        <v>6.25</v>
+      </c>
+      <c r="AZ221">
+        <v>3.15</v>
+      </c>
+      <c r="BA221">
+        <v>1.2</v>
+      </c>
+      <c r="BB221">
+        <v>1.39</v>
+      </c>
+      <c r="BC221">
+        <v>1.7</v>
+      </c>
+      <c r="BD221">
+        <v>2.2</v>
+      </c>
+      <c r="BE221">
+        <v>2.95</v>
+      </c>
+      <c r="BF221">
+        <v>9</v>
+      </c>
+      <c r="BG221">
+        <v>4</v>
+      </c>
+      <c r="BH221">
+        <v>4</v>
+      </c>
+      <c r="BI221">
+        <v>5</v>
+      </c>
+      <c r="BJ221">
+        <v>13</v>
+      </c>
+      <c r="BK221">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>2608369</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="2">
+        <v>44870.5</v>
+      </c>
+      <c r="F222">
+        <v>20</v>
+      </c>
+      <c r="G222" t="s">
+        <v>76</v>
+      </c>
+      <c r="H222" t="s">
+        <v>88</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+      <c r="N222">
+        <v>1</v>
+      </c>
+      <c r="O222" t="s">
+        <v>89</v>
+      </c>
+      <c r="P222" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q222">
+        <v>10</v>
+      </c>
+      <c r="R222">
+        <v>5</v>
+      </c>
+      <c r="S222">
+        <v>15</v>
+      </c>
+      <c r="T222">
+        <v>2.5</v>
+      </c>
+      <c r="U222">
+        <v>2.2</v>
+      </c>
+      <c r="V222">
+        <v>4.5</v>
+      </c>
+      <c r="W222">
+        <v>1.4</v>
+      </c>
+      <c r="X222">
+        <v>2.75</v>
+      </c>
+      <c r="Y222">
+        <v>3</v>
+      </c>
+      <c r="Z222">
+        <v>1.36</v>
+      </c>
+      <c r="AA222">
+        <v>8</v>
+      </c>
+      <c r="AB222">
+        <v>1.08</v>
+      </c>
+      <c r="AC222">
+        <v>1.84</v>
+      </c>
+      <c r="AD222">
+        <v>3.35</v>
+      </c>
+      <c r="AE222">
+        <v>3.85</v>
+      </c>
+      <c r="AF222">
+        <v>1.06</v>
+      </c>
+      <c r="AG222">
+        <v>10</v>
+      </c>
+      <c r="AH222">
+        <v>1.33</v>
+      </c>
+      <c r="AI222">
+        <v>3.4</v>
+      </c>
+      <c r="AJ222">
+        <v>2.03</v>
+      </c>
+      <c r="AK222">
+        <v>1.83</v>
+      </c>
+      <c r="AL222">
+        <v>1.83</v>
+      </c>
+      <c r="AM222">
+        <v>1.83</v>
+      </c>
+      <c r="AN222">
+        <v>1.23</v>
+      </c>
+      <c r="AO222">
+        <v>1.29</v>
+      </c>
+      <c r="AP222">
+        <v>1.87</v>
+      </c>
+      <c r="AQ222">
+        <v>2</v>
+      </c>
+      <c r="AR222">
+        <v>1.11</v>
+      </c>
+      <c r="AS222">
+        <v>1.9</v>
+      </c>
+      <c r="AT222">
+        <v>1.3</v>
+      </c>
+      <c r="AU222">
+        <v>1.48</v>
+      </c>
+      <c r="AV222">
+        <v>1.41</v>
+      </c>
+      <c r="AW222">
+        <v>2.89</v>
+      </c>
+      <c r="AX222">
+        <v>1.42</v>
+      </c>
+      <c r="AY222">
+        <v>6.5</v>
+      </c>
+      <c r="AZ222">
+        <v>3.35</v>
+      </c>
+      <c r="BA222">
+        <v>1.18</v>
+      </c>
+      <c r="BB222">
+        <v>1.35</v>
+      </c>
+      <c r="BC222">
+        <v>1.63</v>
+      </c>
+      <c r="BD222">
+        <v>2.1</v>
+      </c>
+      <c r="BE222">
+        <v>2.8</v>
+      </c>
+      <c r="BF222">
+        <v>4</v>
+      </c>
+      <c r="BG222">
+        <v>4</v>
+      </c>
+      <c r="BH222">
+        <v>9</v>
+      </c>
+      <c r="BI222">
+        <v>9</v>
+      </c>
+      <c r="BJ222">
+        <v>13</v>
+      </c>
+      <c r="BK222">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>2608364</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="2">
+        <v>44870.5</v>
+      </c>
+      <c r="F223">
+        <v>20</v>
+      </c>
+      <c r="G223" t="s">
+        <v>66</v>
+      </c>
+      <c r="H223" t="s">
+        <v>78</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+      <c r="M223">
+        <v>2</v>
+      </c>
+      <c r="N223">
+        <v>3</v>
+      </c>
+      <c r="O223" t="s">
+        <v>92</v>
+      </c>
+      <c r="P223" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q223">
+        <v>2</v>
+      </c>
+      <c r="R223">
+        <v>9</v>
+      </c>
+      <c r="S223">
+        <v>11</v>
+      </c>
+      <c r="T223">
+        <v>4</v>
+      </c>
+      <c r="U223">
+        <v>2.05</v>
+      </c>
+      <c r="V223">
+        <v>2.88</v>
+      </c>
+      <c r="W223">
+        <v>1.44</v>
+      </c>
+      <c r="X223">
+        <v>2.63</v>
+      </c>
+      <c r="Y223">
+        <v>3.25</v>
+      </c>
+      <c r="Z223">
+        <v>1.33</v>
+      </c>
+      <c r="AA223">
+        <v>9</v>
+      </c>
+      <c r="AB223">
+        <v>1.07</v>
+      </c>
+      <c r="AC223">
+        <v>3.25</v>
+      </c>
+      <c r="AD223">
+        <v>3.2</v>
+      </c>
+      <c r="AE223">
+        <v>2.08</v>
+      </c>
+      <c r="AF223">
+        <v>1.06</v>
+      </c>
+      <c r="AG223">
+        <v>10</v>
+      </c>
+      <c r="AH223">
+        <v>1.36</v>
+      </c>
+      <c r="AI223">
+        <v>3.2</v>
+      </c>
+      <c r="AJ223">
+        <v>2</v>
+      </c>
+      <c r="AK223">
+        <v>1.7</v>
+      </c>
+      <c r="AL223">
+        <v>1.83</v>
+      </c>
+      <c r="AM223">
+        <v>1.83</v>
+      </c>
+      <c r="AN223">
+        <v>1.7</v>
+      </c>
+      <c r="AO223">
+        <v>1.32</v>
+      </c>
+      <c r="AP223">
+        <v>1.33</v>
+      </c>
+      <c r="AQ223">
+        <v>1.67</v>
+      </c>
+      <c r="AR223">
+        <v>1.22</v>
+      </c>
+      <c r="AS223">
+        <v>1.5</v>
+      </c>
+      <c r="AT223">
+        <v>1.4</v>
+      </c>
+      <c r="AU223">
+        <v>1.51</v>
+      </c>
+      <c r="AV223">
+        <v>1.41</v>
+      </c>
+      <c r="AW223">
+        <v>2.92</v>
+      </c>
+      <c r="AX223">
+        <v>3.05</v>
+      </c>
+      <c r="AY223">
+        <v>6.5</v>
+      </c>
+      <c r="AZ223">
+        <v>1.47</v>
+      </c>
+      <c r="BA223">
+        <v>1.18</v>
+      </c>
+      <c r="BB223">
+        <v>1.27</v>
+      </c>
+      <c r="BC223">
+        <v>1.5</v>
+      </c>
+      <c r="BD223">
+        <v>2</v>
+      </c>
+      <c r="BE223">
+        <v>2.45</v>
+      </c>
+      <c r="BF223">
+        <v>4</v>
+      </c>
+      <c r="BG223">
+        <v>4</v>
+      </c>
+      <c r="BH223">
+        <v>5</v>
+      </c>
+      <c r="BI223">
+        <v>8</v>
+      </c>
+      <c r="BJ223">
+        <v>9</v>
+      </c>
+      <c r="BK223">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>2608362</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2">
+        <v>44870.5</v>
+      </c>
+      <c r="F224">
+        <v>20</v>
+      </c>
+      <c r="G224" t="s">
+        <v>86</v>
+      </c>
+      <c r="H224" t="s">
+        <v>87</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+      <c r="N224">
+        <v>1</v>
+      </c>
+      <c r="O224" t="s">
+        <v>89</v>
+      </c>
+      <c r="P224" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q224">
+        <v>8</v>
+      </c>
+      <c r="R224">
+        <v>5</v>
+      </c>
+      <c r="S224">
+        <v>13</v>
+      </c>
+      <c r="T224">
+        <v>3.1</v>
+      </c>
+      <c r="U224">
+        <v>2.1</v>
+      </c>
+      <c r="V224">
+        <v>3.5</v>
+      </c>
+      <c r="W224">
+        <v>1.4</v>
+      </c>
+      <c r="X224">
+        <v>2.75</v>
+      </c>
+      <c r="Y224">
+        <v>3</v>
+      </c>
+      <c r="Z224">
+        <v>1.36</v>
+      </c>
+      <c r="AA224">
+        <v>8</v>
+      </c>
+      <c r="AB224">
+        <v>1.08</v>
+      </c>
+      <c r="AC224">
+        <v>2.37</v>
+      </c>
+      <c r="AD224">
+        <v>3.2</v>
+      </c>
+      <c r="AE224">
+        <v>2.75</v>
+      </c>
+      <c r="AF224">
+        <v>1.06</v>
+      </c>
+      <c r="AG224">
+        <v>10</v>
+      </c>
+      <c r="AH224">
+        <v>1.33</v>
+      </c>
+      <c r="AI224">
+        <v>3.3</v>
+      </c>
+      <c r="AJ224">
+        <v>2.03</v>
+      </c>
+      <c r="AK224">
+        <v>1.83</v>
+      </c>
+      <c r="AL224">
+        <v>1.8</v>
+      </c>
+      <c r="AM224">
+        <v>1.91</v>
+      </c>
+      <c r="AN224">
+        <v>1.44</v>
+      </c>
+      <c r="AO224">
+        <v>1.33</v>
+      </c>
+      <c r="AP224">
+        <v>1.55</v>
+      </c>
+      <c r="AQ224">
+        <v>2.13</v>
+      </c>
+      <c r="AR224">
+        <v>0.88</v>
+      </c>
+      <c r="AS224">
+        <v>1.7</v>
+      </c>
+      <c r="AT224">
+        <v>1.11</v>
+      </c>
+      <c r="AU224">
+        <v>1.69</v>
+      </c>
+      <c r="AV224">
+        <v>1.43</v>
+      </c>
+      <c r="AW224">
+        <v>3.12</v>
+      </c>
+      <c r="AX224">
+        <v>2.05</v>
+      </c>
+      <c r="AY224">
+        <v>5.75</v>
+      </c>
+      <c r="AZ224">
+        <v>2.05</v>
+      </c>
+      <c r="BA224">
+        <v>1.22</v>
+      </c>
+      <c r="BB224">
+        <v>1.43</v>
+      </c>
+      <c r="BC224">
+        <v>1.83</v>
+      </c>
+      <c r="BD224">
+        <v>2.3</v>
+      </c>
+      <c r="BE224">
+        <v>3.2</v>
+      </c>
+      <c r="BF224">
+        <v>3</v>
+      </c>
+      <c r="BG224">
+        <v>4</v>
+      </c>
+      <c r="BH224">
+        <v>8</v>
+      </c>
+      <c r="BI224">
+        <v>7</v>
+      </c>
+      <c r="BJ224">
+        <v>11</v>
+      </c>
+      <c r="BK224">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>2608367</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="2">
+        <v>44870.5</v>
+      </c>
+      <c r="F225">
+        <v>20</v>
+      </c>
+      <c r="G225" t="s">
+        <v>75</v>
+      </c>
+      <c r="H225" t="s">
+        <v>70</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225">
+        <v>1</v>
+      </c>
+      <c r="O225" t="s">
+        <v>89</v>
+      </c>
+      <c r="P225" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q225">
+        <v>6</v>
+      </c>
+      <c r="R225">
+        <v>4</v>
+      </c>
+      <c r="S225">
+        <v>10</v>
+      </c>
+      <c r="T225">
+        <v>3</v>
+      </c>
+      <c r="U225">
+        <v>2</v>
+      </c>
+      <c r="V225">
+        <v>4</v>
+      </c>
+      <c r="W225">
+        <v>1.5</v>
+      </c>
+      <c r="X225">
+        <v>2.5</v>
+      </c>
+      <c r="Y225">
+        <v>3.4</v>
+      </c>
+      <c r="Z225">
+        <v>1.3</v>
+      </c>
+      <c r="AA225">
+        <v>10</v>
+      </c>
+      <c r="AB225">
+        <v>1.06</v>
+      </c>
+      <c r="AC225">
+        <v>2.17</v>
+      </c>
+      <c r="AD225">
+        <v>3.1</v>
+      </c>
+      <c r="AE225">
+        <v>3.15</v>
+      </c>
+      <c r="AF225">
+        <v>1.08</v>
+      </c>
+      <c r="AG225">
+        <v>9</v>
+      </c>
+      <c r="AH225">
+        <v>1.42</v>
+      </c>
+      <c r="AI225">
+        <v>2.9</v>
+      </c>
+      <c r="AJ225">
+        <v>2.15</v>
+      </c>
+      <c r="AK225">
+        <v>1.62</v>
+      </c>
+      <c r="AL225">
+        <v>1.91</v>
+      </c>
+      <c r="AM225">
+        <v>1.8</v>
+      </c>
+      <c r="AN225">
+        <v>1.35</v>
+      </c>
+      <c r="AO225">
+        <v>1.3</v>
+      </c>
+      <c r="AP225">
+        <v>1.68</v>
+      </c>
+      <c r="AQ225">
+        <v>1.25</v>
+      </c>
+      <c r="AR225">
+        <v>0.78</v>
+      </c>
+      <c r="AS225">
+        <v>1.11</v>
+      </c>
+      <c r="AT225">
+        <v>1</v>
+      </c>
+      <c r="AU225">
+        <v>1.53</v>
+      </c>
+      <c r="AV225">
+        <v>0.95</v>
+      </c>
+      <c r="AW225">
+        <v>2.48</v>
+      </c>
+      <c r="AX225">
+        <v>1.62</v>
+      </c>
+      <c r="AY225">
+        <v>6</v>
+      </c>
+      <c r="AZ225">
+        <v>2.7</v>
+      </c>
+      <c r="BA225">
+        <v>1.28</v>
+      </c>
+      <c r="BB225">
+        <v>1.61</v>
+      </c>
+      <c r="BC225">
+        <v>1.85</v>
+      </c>
+      <c r="BD225">
+        <v>2.48</v>
+      </c>
+      <c r="BE225">
+        <v>3.48</v>
+      </c>
+      <c r="BF225">
+        <v>2</v>
+      </c>
+      <c r="BG225">
+        <v>4</v>
+      </c>
+      <c r="BH225">
+        <v>10</v>
+      </c>
+      <c r="BI225">
+        <v>9</v>
+      </c>
+      <c r="BJ225">
+        <v>12</v>
+      </c>
+      <c r="BK225">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:63">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>2608361</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" s="2">
+        <v>44870.5</v>
+      </c>
+      <c r="F226">
+        <v>20</v>
+      </c>
+      <c r="G226" t="s">
+        <v>67</v>
+      </c>
+      <c r="H226" t="s">
+        <v>73</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226" t="s">
+        <v>89</v>
+      </c>
+      <c r="P226" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q226">
+        <v>10</v>
+      </c>
+      <c r="R226">
+        <v>2</v>
+      </c>
+      <c r="S226">
+        <v>12</v>
+      </c>
+      <c r="T226">
+        <v>2.5</v>
+      </c>
+      <c r="U226">
+        <v>2.2</v>
+      </c>
+      <c r="V226">
+        <v>4.75</v>
+      </c>
+      <c r="W226">
+        <v>1.4</v>
+      </c>
+      <c r="X226">
+        <v>2.75</v>
+      </c>
+      <c r="Y226">
+        <v>3</v>
+      </c>
+      <c r="Z226">
+        <v>1.36</v>
+      </c>
+      <c r="AA226">
+        <v>8</v>
+      </c>
+      <c r="AB226">
+        <v>1.08</v>
+      </c>
+      <c r="AC226">
+        <v>1.8</v>
+      </c>
+      <c r="AD226">
+        <v>3.35</v>
+      </c>
+      <c r="AE226">
+        <v>4.1</v>
+      </c>
+      <c r="AF226">
+        <v>1.06</v>
+      </c>
+      <c r="AG226">
+        <v>10</v>
+      </c>
+      <c r="AH226">
+        <v>1.35</v>
+      </c>
+      <c r="AI226">
+        <v>3.25</v>
+      </c>
+      <c r="AJ226">
+        <v>2.03</v>
+      </c>
+      <c r="AK226">
+        <v>1.83</v>
+      </c>
+      <c r="AL226">
+        <v>1.83</v>
+      </c>
+      <c r="AM226">
+        <v>1.83</v>
+      </c>
+      <c r="AN226">
+        <v>1.22</v>
+      </c>
+      <c r="AO226">
+        <v>1.25</v>
+      </c>
+      <c r="AP226">
+        <v>2</v>
+      </c>
+      <c r="AQ226">
+        <v>2.33</v>
+      </c>
+      <c r="AR226">
+        <v>1</v>
+      </c>
+      <c r="AS226">
+        <v>2.2</v>
+      </c>
+      <c r="AT226">
+        <v>1.2</v>
+      </c>
+      <c r="AU226">
+        <v>1.65</v>
+      </c>
+      <c r="AV226">
+        <v>1.17</v>
+      </c>
+      <c r="AW226">
+        <v>2.82</v>
+      </c>
+      <c r="AX226">
+        <v>1.42</v>
+      </c>
+      <c r="AY226">
+        <v>6.25</v>
+      </c>
+      <c r="AZ226">
+        <v>3.4</v>
+      </c>
+      <c r="BA226">
+        <v>1.24</v>
+      </c>
+      <c r="BB226">
+        <v>1.46</v>
+      </c>
+      <c r="BC226">
+        <v>1.85</v>
+      </c>
+      <c r="BD226">
+        <v>2.4</v>
+      </c>
+      <c r="BE226">
+        <v>3.3</v>
+      </c>
+      <c r="BF226">
+        <v>8</v>
+      </c>
+      <c r="BG226">
+        <v>2</v>
+      </c>
+      <c r="BH226">
+        <v>16</v>
+      </c>
+      <c r="BI226">
+        <v>3</v>
+      </c>
+      <c r="BJ226">
+        <v>24</v>
+      </c>
+      <c r="BK226">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:63">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>2608368</v>
+      </c>
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2">
+        <v>44870.5</v>
+      </c>
+      <c r="F227">
+        <v>20</v>
+      </c>
+      <c r="G227" t="s">
+        <v>79</v>
+      </c>
+      <c r="H227" t="s">
+        <v>69</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>2</v>
+      </c>
+      <c r="K227">
+        <v>3</v>
+      </c>
+      <c r="L227">
+        <v>2</v>
+      </c>
+      <c r="M227">
+        <v>2</v>
+      </c>
+      <c r="N227">
+        <v>4</v>
+      </c>
+      <c r="O227" t="s">
+        <v>232</v>
+      </c>
+      <c r="P227" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q227">
+        <v>6</v>
+      </c>
+      <c r="R227">
+        <v>3</v>
+      </c>
+      <c r="S227">
+        <v>9</v>
+      </c>
+      <c r="T227">
+        <v>2.6</v>
+      </c>
+      <c r="U227">
+        <v>2.1</v>
+      </c>
+      <c r="V227">
+        <v>4.5</v>
+      </c>
+      <c r="W227">
+        <v>1.44</v>
+      </c>
+      <c r="X227">
+        <v>2.63</v>
+      </c>
+      <c r="Y227">
+        <v>3</v>
+      </c>
+      <c r="Z227">
+        <v>1.36</v>
+      </c>
+      <c r="AA227">
+        <v>9</v>
+      </c>
+      <c r="AB227">
+        <v>1.07</v>
+      </c>
+      <c r="AC227">
+        <v>1.94</v>
+      </c>
+      <c r="AD227">
+        <v>3.15</v>
+      </c>
+      <c r="AE227">
+        <v>3.7</v>
+      </c>
+      <c r="AF227">
+        <v>1.06</v>
+      </c>
+      <c r="AG227">
+        <v>10</v>
+      </c>
+      <c r="AH227">
+        <v>1.36</v>
+      </c>
+      <c r="AI227">
+        <v>3.2</v>
+      </c>
+      <c r="AJ227">
+        <v>1.95</v>
+      </c>
+      <c r="AK227">
+        <v>1.75</v>
+      </c>
+      <c r="AL227">
+        <v>1.83</v>
+      </c>
+      <c r="AM227">
+        <v>1.83</v>
+      </c>
+      <c r="AN227">
+        <v>1.26</v>
+      </c>
+      <c r="AO227">
+        <v>1.26</v>
+      </c>
+      <c r="AP227">
+        <v>1.9</v>
+      </c>
+      <c r="AQ227">
+        <v>1.78</v>
+      </c>
+      <c r="AR227">
+        <v>1.63</v>
+      </c>
+      <c r="AS227">
+        <v>1.7</v>
+      </c>
+      <c r="AT227">
+        <v>1.4</v>
+      </c>
+      <c r="AU227">
+        <v>1.5</v>
+      </c>
+      <c r="AV227">
+        <v>1.25</v>
+      </c>
+      <c r="AW227">
+        <v>2.75</v>
+      </c>
+      <c r="AX227">
+        <v>1.45</v>
+      </c>
+      <c r="AY227">
+        <v>6.25</v>
+      </c>
+      <c r="AZ227">
+        <v>3.25</v>
+      </c>
+      <c r="BA227">
+        <v>1.29</v>
+      </c>
+      <c r="BB227">
+        <v>1.65</v>
+      </c>
+      <c r="BC227">
+        <v>2</v>
+      </c>
+      <c r="BD227">
+        <v>2.59</v>
+      </c>
+      <c r="BE227">
+        <v>3.56</v>
+      </c>
+      <c r="BF227">
+        <v>3</v>
+      </c>
+      <c r="BG227">
+        <v>5</v>
+      </c>
+      <c r="BH227">
+        <v>13</v>
+      </c>
+      <c r="BI227">
+        <v>1</v>
+      </c>
+      <c r="BJ227">
+        <v>16</v>
+      </c>
+      <c r="BK227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:63">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>2608360</v>
+      </c>
+      <c r="C228" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" t="s">
+        <v>64</v>
+      </c>
+      <c r="E228" s="2">
+        <v>44870.5</v>
+      </c>
+      <c r="F228">
+        <v>20</v>
+      </c>
+      <c r="G228" t="s">
+        <v>74</v>
+      </c>
+      <c r="H228" t="s">
+        <v>85</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228" t="s">
+        <v>233</v>
+      </c>
+      <c r="P228" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q228">
+        <v>8</v>
+      </c>
+      <c r="R228">
+        <v>1</v>
+      </c>
+      <c r="S228">
+        <v>9</v>
+      </c>
+      <c r="T228">
+        <v>2.5</v>
+      </c>
+      <c r="U228">
+        <v>2.2</v>
+      </c>
+      <c r="V228">
+        <v>4.5</v>
+      </c>
+      <c r="W228">
+        <v>1.4</v>
+      </c>
+      <c r="X228">
+        <v>2.75</v>
+      </c>
+      <c r="Y228">
+        <v>3</v>
+      </c>
+      <c r="Z228">
+        <v>1.36</v>
+      </c>
+      <c r="AA228">
+        <v>8</v>
+      </c>
+      <c r="AB228">
+        <v>1.08</v>
+      </c>
+      <c r="AC228">
+        <v>1.75</v>
+      </c>
+      <c r="AD228">
+        <v>3.35</v>
+      </c>
+      <c r="AE228">
+        <v>4.3</v>
+      </c>
+      <c r="AF228">
+        <v>1.06</v>
+      </c>
+      <c r="AG228">
+        <v>10</v>
+      </c>
+      <c r="AH228">
+        <v>1.33</v>
+      </c>
+      <c r="AI228">
+        <v>3.3</v>
+      </c>
+      <c r="AJ228">
+        <v>2.03</v>
+      </c>
+      <c r="AK228">
+        <v>1.83</v>
+      </c>
+      <c r="AL228">
+        <v>1.83</v>
+      </c>
+      <c r="AM228">
+        <v>1.83</v>
+      </c>
+      <c r="AN228">
+        <v>1.25</v>
+      </c>
+      <c r="AO228">
+        <v>1.3</v>
+      </c>
+      <c r="AP228">
+        <v>1.93</v>
+      </c>
+      <c r="AQ228">
+        <v>1.44</v>
+      </c>
+      <c r="AR228">
+        <v>0.89</v>
+      </c>
+      <c r="AS228">
+        <v>1.4</v>
+      </c>
+      <c r="AT228">
+        <v>0.9</v>
+      </c>
+      <c r="AU228">
+        <v>1.43</v>
+      </c>
+      <c r="AV228">
+        <v>1.18</v>
+      </c>
+      <c r="AW228">
+        <v>2.61</v>
+      </c>
+      <c r="AX228">
+        <v>1.33</v>
+      </c>
+      <c r="AY228">
+        <v>6.75</v>
+      </c>
+      <c r="AZ228">
+        <v>3.95</v>
+      </c>
+      <c r="BA228">
+        <v>1.18</v>
+      </c>
+      <c r="BB228">
+        <v>1.31</v>
+      </c>
+      <c r="BC228">
+        <v>1.55</v>
+      </c>
+      <c r="BD228">
+        <v>1.95</v>
+      </c>
+      <c r="BE228">
+        <v>2.6</v>
+      </c>
+      <c r="BF228">
+        <v>9</v>
+      </c>
+      <c r="BG228">
+        <v>3</v>
+      </c>
+      <c r="BH228">
+        <v>15</v>
+      </c>
+      <c r="BI228">
+        <v>5</v>
+      </c>
+      <c r="BJ228">
+        <v>24</v>
+      </c>
+      <c r="BK228">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:63">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>2608358</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>64</v>
+      </c>
+      <c r="E229" s="2">
+        <v>44870.5</v>
+      </c>
+      <c r="F229">
+        <v>20</v>
+      </c>
+      <c r="G229" t="s">
+        <v>72</v>
+      </c>
+      <c r="H229" t="s">
+        <v>65</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>1</v>
+      </c>
+      <c r="O229" t="s">
+        <v>234</v>
+      </c>
+      <c r="P229" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q229">
+        <v>5</v>
+      </c>
+      <c r="R229">
+        <v>4</v>
+      </c>
+      <c r="S229">
+        <v>9</v>
+      </c>
+      <c r="T229">
+        <v>2.4</v>
+      </c>
+      <c r="U229">
+        <v>2.2</v>
+      </c>
+      <c r="V229">
+        <v>4.75</v>
+      </c>
+      <c r="W229">
+        <v>1.4</v>
+      </c>
+      <c r="X229">
+        <v>2.75</v>
+      </c>
+      <c r="Y229">
+        <v>3</v>
+      </c>
+      <c r="Z229">
+        <v>1.36</v>
+      </c>
+      <c r="AA229">
+        <v>8</v>
+      </c>
+      <c r="AB229">
+        <v>1.08</v>
+      </c>
+      <c r="AC229">
+        <v>1.8</v>
+      </c>
+      <c r="AD229">
+        <v>3.35</v>
+      </c>
+      <c r="AE229">
+        <v>4.1</v>
+      </c>
+      <c r="AF229">
+        <v>1.05</v>
+      </c>
+      <c r="AG229">
+        <v>11</v>
+      </c>
+      <c r="AH229">
+        <v>1.3</v>
+      </c>
+      <c r="AI229">
+        <v>3.6</v>
+      </c>
+      <c r="AJ229">
+        <v>2</v>
+      </c>
+      <c r="AK229">
+        <v>1.85</v>
+      </c>
+      <c r="AL229">
+        <v>1.83</v>
+      </c>
+      <c r="AM229">
+        <v>1.83</v>
+      </c>
+      <c r="AN229">
+        <v>1.22</v>
+      </c>
+      <c r="AO229">
+        <v>1.29</v>
+      </c>
+      <c r="AP229">
+        <v>2.02</v>
+      </c>
+      <c r="AQ229">
+        <v>2.33</v>
+      </c>
+      <c r="AR229">
+        <v>0.29</v>
+      </c>
+      <c r="AS229">
+        <v>2.4</v>
+      </c>
+      <c r="AT229">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU229">
+        <v>1.46</v>
+      </c>
+      <c r="AV229">
+        <v>1.12</v>
+      </c>
+      <c r="AW229">
+        <v>2.58</v>
+      </c>
+      <c r="AX229">
+        <v>1.51</v>
+      </c>
+      <c r="AY229">
+        <v>6</v>
+      </c>
+      <c r="AZ229">
+        <v>3</v>
+      </c>
+      <c r="BA229">
+        <v>1.26</v>
+      </c>
+      <c r="BB229">
+        <v>1.49</v>
+      </c>
+      <c r="BC229">
+        <v>1.98</v>
+      </c>
+      <c r="BD229">
+        <v>2.5</v>
+      </c>
+      <c r="BE229">
+        <v>3.5</v>
+      </c>
+      <c r="BF229">
+        <v>5</v>
+      </c>
+      <c r="BG229">
+        <v>4</v>
+      </c>
+      <c r="BH229">
+        <v>7</v>
+      </c>
+      <c r="BI229">
+        <v>6</v>
+      </c>
+      <c r="BJ229">
+        <v>12</v>
+      </c>
+      <c r="BK229">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:63">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>2608359</v>
+      </c>
+      <c r="C230" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" t="s">
+        <v>64</v>
+      </c>
+      <c r="E230" s="2">
+        <v>44870.5</v>
+      </c>
+      <c r="F230">
+        <v>20</v>
+      </c>
+      <c r="G230" t="s">
+        <v>71</v>
+      </c>
+      <c r="H230" t="s">
+        <v>68</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>1</v>
+      </c>
+      <c r="N230">
+        <v>1</v>
+      </c>
+      <c r="O230" t="s">
+        <v>89</v>
+      </c>
+      <c r="P230" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q230">
+        <v>9</v>
+      </c>
+      <c r="R230">
+        <v>11</v>
+      </c>
+      <c r="S230">
+        <v>20</v>
+      </c>
+      <c r="T230">
+        <v>3.5</v>
+      </c>
+      <c r="U230">
+        <v>2.1</v>
+      </c>
+      <c r="V230">
+        <v>3.1</v>
+      </c>
+      <c r="W230">
+        <v>1.44</v>
+      </c>
+      <c r="X230">
+        <v>2.63</v>
+      </c>
+      <c r="Y230">
+        <v>3</v>
+      </c>
+      <c r="Z230">
+        <v>1.36</v>
+      </c>
+      <c r="AA230">
+        <v>9</v>
+      </c>
+      <c r="AB230">
+        <v>1.07</v>
+      </c>
+      <c r="AC230">
+        <v>2.9</v>
+      </c>
+      <c r="AD230">
+        <v>3.15</v>
+      </c>
+      <c r="AE230">
+        <v>2.28</v>
+      </c>
+      <c r="AF230">
+        <v>1.07</v>
+      </c>
+      <c r="AG230">
+        <v>10</v>
+      </c>
+      <c r="AH230">
+        <v>1.36</v>
+      </c>
+      <c r="AI230">
+        <v>3.2</v>
+      </c>
+      <c r="AJ230">
+        <v>2.1</v>
+      </c>
+      <c r="AK230">
+        <v>1.78</v>
+      </c>
+      <c r="AL230">
+        <v>1.8</v>
+      </c>
+      <c r="AM230">
+        <v>1.91</v>
+      </c>
+      <c r="AN230">
+        <v>1.53</v>
+      </c>
+      <c r="AO230">
+        <v>1.28</v>
+      </c>
+      <c r="AP230">
+        <v>1.45</v>
+      </c>
+      <c r="AQ230">
+        <v>1.25</v>
+      </c>
+      <c r="AR230">
+        <v>1.75</v>
+      </c>
+      <c r="AS230">
+        <v>1</v>
+      </c>
+      <c r="AT230">
+        <v>1.7</v>
+      </c>
+      <c r="AU230">
+        <v>1.53</v>
+      </c>
+      <c r="AV230">
+        <v>1.27</v>
+      </c>
+      <c r="AW230">
+        <v>2.8</v>
+      </c>
+      <c r="AX230">
+        <v>2.05</v>
+      </c>
+      <c r="AY230">
+        <v>5.5</v>
+      </c>
+      <c r="AZ230">
+        <v>2.05</v>
+      </c>
+      <c r="BA230">
+        <v>1.24</v>
+      </c>
+      <c r="BB230">
+        <v>1.46</v>
+      </c>
+      <c r="BC230">
+        <v>1.85</v>
+      </c>
+      <c r="BD230">
+        <v>2.4</v>
+      </c>
+      <c r="BE230">
+        <v>3.3</v>
+      </c>
+      <c r="BF230">
+        <v>6</v>
+      </c>
+      <c r="BG230">
+        <v>5</v>
+      </c>
+      <c r="BH230">
+        <v>11</v>
+      </c>
+      <c r="BI230">
+        <v>7</v>
+      </c>
+      <c r="BJ230">
+        <v>17</v>
+      </c>
+      <c r="BK230">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:63">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>2608233</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>64</v>
+      </c>
+      <c r="E231" s="2">
+        <v>44873.69791666666</v>
+      </c>
+      <c r="F231">
+        <v>9</v>
+      </c>
+      <c r="G231" t="s">
+        <v>81</v>
+      </c>
+      <c r="H231" t="s">
+        <v>66</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+      <c r="N231">
+        <v>1</v>
+      </c>
+      <c r="O231" t="s">
+        <v>89</v>
+      </c>
+      <c r="P231" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q231">
+        <v>12</v>
+      </c>
+      <c r="R231">
+        <v>1</v>
+      </c>
+      <c r="S231">
+        <v>13</v>
+      </c>
+      <c r="T231">
+        <v>2.05</v>
+      </c>
+      <c r="U231">
+        <v>2.3</v>
+      </c>
+      <c r="V231">
+        <v>6.5</v>
+      </c>
+      <c r="W231">
+        <v>1.37</v>
+      </c>
+      <c r="X231">
+        <v>2.85</v>
+      </c>
+      <c r="Y231">
+        <v>2.75</v>
+      </c>
+      <c r="Z231">
+        <v>1.39</v>
+      </c>
+      <c r="AA231">
+        <v>6.9</v>
+      </c>
+      <c r="AB231">
+        <v>1.07</v>
+      </c>
+      <c r="AC231">
+        <v>1.48</v>
+      </c>
+      <c r="AD231">
+        <v>4.53</v>
+      </c>
+      <c r="AE231">
+        <v>6.76</v>
+      </c>
+      <c r="AF231">
+        <v>1.05</v>
+      </c>
+      <c r="AG231">
+        <v>11</v>
+      </c>
+      <c r="AH231">
+        <v>1.3</v>
+      </c>
+      <c r="AI231">
+        <v>3.6</v>
+      </c>
+      <c r="AJ231">
+        <v>1.84</v>
+      </c>
+      <c r="AK231">
+        <v>1.87</v>
+      </c>
+      <c r="AL231">
+        <v>2.05</v>
+      </c>
+      <c r="AM231">
+        <v>1.75</v>
+      </c>
+      <c r="AN231">
+        <v>1.1</v>
+      </c>
+      <c r="AO231">
+        <v>1.19</v>
+      </c>
+      <c r="AP231">
+        <v>2.65</v>
+      </c>
+      <c r="AQ231">
+        <v>2</v>
+      </c>
+      <c r="AR231">
+        <v>0.78</v>
+      </c>
+      <c r="AS231">
+        <v>1.8</v>
+      </c>
+      <c r="AT231">
+        <v>1</v>
+      </c>
+      <c r="AU231">
+        <v>2.26</v>
+      </c>
+      <c r="AV231">
+        <v>0.83</v>
+      </c>
+      <c r="AW231">
+        <v>3.09</v>
+      </c>
+      <c r="AX231">
+        <v>1.25</v>
+      </c>
+      <c r="AY231">
+        <v>7.5</v>
+      </c>
+      <c r="AZ231">
+        <v>4.65</v>
+      </c>
+      <c r="BA231">
+        <v>1.19</v>
+      </c>
+      <c r="BB231">
+        <v>1.4</v>
+      </c>
+      <c r="BC231">
+        <v>1.67</v>
+      </c>
+      <c r="BD231">
+        <v>2.05</v>
+      </c>
+      <c r="BE231">
+        <v>2.6</v>
+      </c>
+      <c r="BF231">
+        <v>6</v>
+      </c>
+      <c r="BG231">
+        <v>3</v>
+      </c>
+      <c r="BH231">
+        <v>9</v>
+      </c>
+      <c r="BI231">
+        <v>2</v>
+      </c>
+      <c r="BJ231">
+        <v>15</v>
+      </c>
+      <c r="BK231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>2608232</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>44873.69791666666</v>
+      </c>
+      <c r="F232">
+        <v>9</v>
+      </c>
+      <c r="G232" t="s">
+        <v>86</v>
+      </c>
+      <c r="H232" t="s">
+        <v>65</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232">
+        <v>2</v>
+      </c>
+      <c r="K232">
+        <v>3</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="M232">
+        <v>2</v>
+      </c>
+      <c r="N232">
+        <v>3</v>
+      </c>
+      <c r="O232" t="s">
+        <v>147</v>
+      </c>
+      <c r="P232" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q232">
+        <v>14</v>
+      </c>
+      <c r="R232">
+        <v>4</v>
+      </c>
+      <c r="S232">
+        <v>18</v>
+      </c>
+      <c r="T232">
+        <v>2.4</v>
+      </c>
+      <c r="U232">
+        <v>2.2</v>
+      </c>
+      <c r="V232">
+        <v>4.75</v>
+      </c>
+      <c r="W232">
+        <v>1.36</v>
+      </c>
+      <c r="X232">
+        <v>2.9</v>
+      </c>
+      <c r="Y232">
+        <v>2.7</v>
+      </c>
+      <c r="Z232">
+        <v>1.41</v>
+      </c>
+      <c r="AA232">
+        <v>6.8</v>
+      </c>
+      <c r="AB232">
+        <v>1.08</v>
+      </c>
+      <c r="AC232">
+        <v>1.78</v>
+      </c>
+      <c r="AD232">
+        <v>3.78</v>
+      </c>
+      <c r="AE232">
+        <v>4.95</v>
+      </c>
+      <c r="AF232">
+        <v>1.05</v>
+      </c>
+      <c r="AG232">
+        <v>11</v>
+      </c>
+      <c r="AH232">
+        <v>1.28</v>
+      </c>
+      <c r="AI232">
+        <v>3.75</v>
+      </c>
+      <c r="AJ232">
+        <v>2</v>
+      </c>
+      <c r="AK232">
+        <v>1.88</v>
+      </c>
+      <c r="AL232">
+        <v>1.78</v>
+      </c>
+      <c r="AM232">
+        <v>2.05</v>
+      </c>
+      <c r="AN232">
+        <v>1.2</v>
+      </c>
+      <c r="AO232">
+        <v>1.25</v>
+      </c>
+      <c r="AP232">
+        <v>2</v>
+      </c>
+      <c r="AQ232">
+        <v>1.89</v>
+      </c>
+      <c r="AR232">
+        <v>0.25</v>
+      </c>
+      <c r="AS232">
+        <v>1.7</v>
+      </c>
+      <c r="AT232">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU232">
+        <v>1.64</v>
+      </c>
+      <c r="AV232">
+        <v>1.14</v>
+      </c>
+      <c r="AW232">
+        <v>2.78</v>
+      </c>
+      <c r="AX232">
+        <v>1.54</v>
+      </c>
+      <c r="AY232">
+        <v>7.5</v>
+      </c>
+      <c r="AZ232">
+        <v>3.1</v>
+      </c>
+      <c r="BA232">
+        <v>1.22</v>
+      </c>
+      <c r="BB232">
+        <v>1.48</v>
+      </c>
+      <c r="BC232">
+        <v>1.73</v>
+      </c>
+      <c r="BD232">
+        <v>2.1</v>
+      </c>
+      <c r="BE232">
+        <v>2.7</v>
+      </c>
+      <c r="BF232">
+        <v>7</v>
+      </c>
+      <c r="BG232">
+        <v>7</v>
+      </c>
+      <c r="BH232">
+        <v>29</v>
+      </c>
+      <c r="BI232">
+        <v>5</v>
+      </c>
+      <c r="BJ232">
+        <v>36</v>
+      </c>
+      <c r="BK232">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="1:63">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>2608230</v>
+      </c>
+      <c r="C233" t="s">
+        <v>63</v>
+      </c>
+      <c r="D233" t="s">
+        <v>64</v>
+      </c>
+      <c r="E233" s="2">
+        <v>44873.69791666666</v>
+      </c>
+      <c r="F233">
+        <v>9</v>
+      </c>
+      <c r="G233" t="s">
+        <v>70</v>
+      </c>
+      <c r="H233" t="s">
+        <v>73</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233">
+        <v>1</v>
+      </c>
+      <c r="L233">
+        <v>2</v>
+      </c>
+      <c r="M233">
+        <v>3</v>
+      </c>
+      <c r="N233">
+        <v>5</v>
+      </c>
+      <c r="O233" t="s">
+        <v>235</v>
+      </c>
+      <c r="P233" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q233">
+        <v>4</v>
+      </c>
+      <c r="R233">
+        <v>2</v>
+      </c>
+      <c r="S233">
+        <v>6</v>
+      </c>
+      <c r="T233">
+        <v>2.7</v>
+      </c>
+      <c r="U233">
+        <v>2.05</v>
+      </c>
+      <c r="V233">
+        <v>4.5</v>
+      </c>
+      <c r="W233">
+        <v>1.47</v>
+      </c>
+      <c r="X233">
+        <v>2.5</v>
+      </c>
+      <c r="Y233">
+        <v>3.35</v>
+      </c>
+      <c r="Z233">
+        <v>1.29</v>
+      </c>
+      <c r="AA233">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB233">
+        <v>1.03</v>
+      </c>
+      <c r="AC233">
+        <v>2.04</v>
+      </c>
+      <c r="AD233">
+        <v>3.55</v>
+      </c>
+      <c r="AE233">
+        <v>3.73</v>
+      </c>
+      <c r="AF233">
+        <v>1.08</v>
+      </c>
+      <c r="AG233">
+        <v>8.5</v>
+      </c>
+      <c r="AH233">
+        <v>1.44</v>
+      </c>
+      <c r="AI233">
+        <v>2.85</v>
+      </c>
+      <c r="AJ233">
+        <v>2.09</v>
+      </c>
+      <c r="AK233">
+        <v>1.66</v>
+      </c>
+      <c r="AL233">
+        <v>2.05</v>
+      </c>
+      <c r="AM233">
+        <v>1.75</v>
+      </c>
+      <c r="AN233">
+        <v>1.25</v>
+      </c>
+      <c r="AO233">
+        <v>1.28</v>
+      </c>
+      <c r="AP233">
+        <v>1.85</v>
+      </c>
+      <c r="AQ233">
+        <v>1.56</v>
+      </c>
+      <c r="AR233">
+        <v>1</v>
+      </c>
+      <c r="AS233">
+        <v>1.27</v>
+      </c>
+      <c r="AT233">
+        <v>1.2</v>
+      </c>
+      <c r="AU233">
+        <v>1.59</v>
+      </c>
+      <c r="AV233">
+        <v>1.11</v>
+      </c>
+      <c r="AW233">
+        <v>2.7</v>
+      </c>
+      <c r="AX233">
+        <v>1.61</v>
+      </c>
+      <c r="AY233">
+        <v>7.5</v>
+      </c>
+      <c r="AZ233">
+        <v>2.9</v>
+      </c>
+      <c r="BA233">
+        <v>1.27</v>
+      </c>
+      <c r="BB233">
+        <v>1.57</v>
+      </c>
+      <c r="BC233">
+        <v>1.95</v>
+      </c>
+      <c r="BD233">
+        <v>2.4</v>
+      </c>
+      <c r="BE233">
+        <v>3.28</v>
+      </c>
+      <c r="BF233">
+        <v>3</v>
+      </c>
+      <c r="BG233">
+        <v>4</v>
+      </c>
+      <c r="BH233">
+        <v>10</v>
+      </c>
+      <c r="BI233">
+        <v>6</v>
+      </c>
+      <c r="BJ233">
+        <v>13</v>
+      </c>
+      <c r="BK233">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:63">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>2608227</v>
+      </c>
+      <c r="C234" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" t="s">
+        <v>64</v>
+      </c>
+      <c r="E234" s="2">
+        <v>44873.69791666666</v>
+      </c>
+      <c r="F234">
+        <v>9</v>
+      </c>
+      <c r="G234" t="s">
+        <v>71</v>
+      </c>
+      <c r="H234" t="s">
+        <v>74</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>3</v>
+      </c>
+      <c r="N234">
+        <v>3</v>
+      </c>
+      <c r="O234" t="s">
+        <v>89</v>
+      </c>
+      <c r="P234" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q234">
+        <v>2</v>
+      </c>
+      <c r="R234">
+        <v>7</v>
+      </c>
+      <c r="S234">
+        <v>9</v>
+      </c>
+      <c r="T234">
+        <v>3.75</v>
+      </c>
+      <c r="U234">
+        <v>2.15</v>
+      </c>
+      <c r="V234">
+        <v>2.9</v>
+      </c>
+      <c r="W234">
+        <v>1.39</v>
+      </c>
+      <c r="X234">
+        <v>2.8</v>
+      </c>
+      <c r="Y234">
+        <v>2.9</v>
+      </c>
+      <c r="Z234">
+        <v>1.37</v>
+      </c>
+      <c r="AA234">
+        <v>7.35</v>
+      </c>
+      <c r="AB234">
+        <v>1.06</v>
+      </c>
+      <c r="AC234">
+        <v>3.28</v>
+      </c>
+      <c r="AD234">
+        <v>3.43</v>
+      </c>
+      <c r="AE234">
+        <v>2.26</v>
+      </c>
+      <c r="AF234">
+        <v>1.05</v>
+      </c>
+      <c r="AG234">
+        <v>11</v>
+      </c>
+      <c r="AH234">
+        <v>1.33</v>
+      </c>
+      <c r="AI234">
+        <v>3.4</v>
+      </c>
+      <c r="AJ234">
+        <v>1.99</v>
+      </c>
+      <c r="AK234">
+        <v>1.88</v>
+      </c>
+      <c r="AL234">
+        <v>1.78</v>
+      </c>
+      <c r="AM234">
+        <v>2</v>
+      </c>
+      <c r="AN234">
+        <v>1.7</v>
+      </c>
+      <c r="AO234">
+        <v>1.28</v>
+      </c>
+      <c r="AP234">
+        <v>1.35</v>
+      </c>
+      <c r="AQ234">
+        <v>1.11</v>
+      </c>
+      <c r="AR234">
+        <v>0.78</v>
+      </c>
+      <c r="AS234">
+        <v>1</v>
+      </c>
+      <c r="AT234">
+        <v>1.18</v>
+      </c>
+      <c r="AU234">
+        <v>1.57</v>
+      </c>
+      <c r="AV234">
+        <v>1.46</v>
+      </c>
+      <c r="AW234">
+        <v>3.03</v>
+      </c>
+      <c r="AX234">
+        <v>2.4</v>
+      </c>
+      <c r="AY234">
+        <v>5.75</v>
+      </c>
+      <c r="AZ234">
+        <v>1.74</v>
+      </c>
+      <c r="BA234">
+        <v>1.23</v>
+      </c>
+      <c r="BB234">
+        <v>1.48</v>
+      </c>
+      <c r="BC234">
+        <v>1.8</v>
+      </c>
+      <c r="BD234">
+        <v>2.2</v>
+      </c>
+      <c r="BE234">
+        <v>3.08</v>
+      </c>
+      <c r="BF234">
+        <v>2</v>
+      </c>
+      <c r="BG234">
+        <v>6</v>
+      </c>
+      <c r="BH234">
+        <v>5</v>
+      </c>
+      <c r="BI234">
+        <v>14</v>
+      </c>
+      <c r="BJ234">
+        <v>7</v>
+      </c>
+      <c r="BK234">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="1:63">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>2608226</v>
+      </c>
+      <c r="C235" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" s="2">
+        <v>44873.69791666666</v>
+      </c>
+      <c r="F235">
+        <v>9</v>
+      </c>
+      <c r="G235" t="s">
+        <v>77</v>
+      </c>
+      <c r="H235" t="s">
+        <v>79</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>2</v>
+      </c>
+      <c r="K235">
+        <v>3</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="M235">
+        <v>2</v>
+      </c>
+      <c r="N235">
+        <v>4</v>
+      </c>
+      <c r="O235" t="s">
+        <v>236</v>
+      </c>
+      <c r="P235" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q235">
+        <v>12</v>
+      </c>
+      <c r="R235">
+        <v>1</v>
+      </c>
+      <c r="S235">
+        <v>13</v>
+      </c>
+      <c r="T235">
+        <v>3.6</v>
+      </c>
+      <c r="U235">
+        <v>2.05</v>
+      </c>
+      <c r="V235">
+        <v>3.2</v>
+      </c>
+      <c r="W235">
+        <v>1.43</v>
+      </c>
+      <c r="X235">
+        <v>2.65</v>
+      </c>
+      <c r="Y235">
+        <v>3</v>
+      </c>
+      <c r="Z235">
+        <v>1.34</v>
+      </c>
+      <c r="AA235">
+        <v>7.85</v>
+      </c>
+      <c r="AB235">
+        <v>1.05</v>
+      </c>
+      <c r="AC235">
+        <v>2.44</v>
+      </c>
+      <c r="AD235">
+        <v>3.32</v>
+      </c>
+      <c r="AE235">
+        <v>3.05</v>
+      </c>
+      <c r="AF235">
+        <v>1.07</v>
+      </c>
+      <c r="AG235">
+        <v>9.5</v>
+      </c>
+      <c r="AH235">
+        <v>1.38</v>
+      </c>
+      <c r="AI235">
+        <v>3.1</v>
+      </c>
+      <c r="AJ235">
+        <v>2.09</v>
+      </c>
+      <c r="AK235">
+        <v>1.66</v>
+      </c>
+      <c r="AL235">
+        <v>1.85</v>
+      </c>
+      <c r="AM235">
+        <v>1.95</v>
+      </c>
+      <c r="AN235">
+        <v>1.55</v>
+      </c>
+      <c r="AO235">
+        <v>1.3</v>
+      </c>
+      <c r="AP235">
+        <v>1.44</v>
+      </c>
+      <c r="AQ235">
+        <v>1.44</v>
+      </c>
+      <c r="AR235">
+        <v>1.33</v>
+      </c>
+      <c r="AS235">
+        <v>1.27</v>
+      </c>
+      <c r="AT235">
+        <v>1.27</v>
+      </c>
+      <c r="AU235">
+        <v>1.31</v>
+      </c>
+      <c r="AV235">
+        <v>1.4</v>
+      </c>
+      <c r="AW235">
+        <v>2.71</v>
+      </c>
+      <c r="AX235">
+        <v>2.1</v>
+      </c>
+      <c r="AY235">
+        <v>5.5</v>
+      </c>
+      <c r="AZ235">
+        <v>2</v>
+      </c>
+      <c r="BA235">
+        <v>1.29</v>
+      </c>
+      <c r="BB235">
+        <v>1.57</v>
+      </c>
+      <c r="BC235">
+        <v>1.98</v>
+      </c>
+      <c r="BD235">
+        <v>2.4</v>
+      </c>
+      <c r="BE235">
+        <v>3.48</v>
+      </c>
+      <c r="BF235">
+        <v>3</v>
+      </c>
+      <c r="BG235">
+        <v>3</v>
+      </c>
+      <c r="BH235">
+        <v>10</v>
+      </c>
+      <c r="BI235">
+        <v>5</v>
+      </c>
+      <c r="BJ235">
+        <v>13</v>
+      </c>
+      <c r="BK235">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:63">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>2608169</v>
+      </c>
+      <c r="C236" t="s">
+        <v>63</v>
+      </c>
+      <c r="D236" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" s="2">
+        <v>44873.69791666666</v>
+      </c>
+      <c r="F236">
+        <v>4</v>
+      </c>
+      <c r="G236" t="s">
+        <v>88</v>
+      </c>
+      <c r="H236" t="s">
+        <v>69</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>2</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>2</v>
+      </c>
+      <c r="O236" t="s">
+        <v>237</v>
+      </c>
+      <c r="P236" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q236">
+        <v>6</v>
+      </c>
+      <c r="R236">
+        <v>4</v>
+      </c>
+      <c r="S236">
+        <v>10</v>
+      </c>
+      <c r="T236">
+        <v>2.55</v>
+      </c>
+      <c r="U236">
+        <v>2.15</v>
+      </c>
+      <c r="V236">
+        <v>4.5</v>
+      </c>
+      <c r="W236">
+        <v>1.4</v>
+      </c>
+      <c r="X236">
+        <v>2.75</v>
+      </c>
+      <c r="Y236">
+        <v>2.95</v>
+      </c>
+      <c r="Z236">
+        <v>1.36</v>
+      </c>
+      <c r="AA236">
+        <v>7.35</v>
+      </c>
+      <c r="AB236">
+        <v>1.06</v>
+      </c>
+      <c r="AC236">
+        <v>2.12</v>
+      </c>
+      <c r="AD236">
+        <v>3.55</v>
+      </c>
+      <c r="AE236">
+        <v>3.5</v>
+      </c>
+      <c r="AF236">
+        <v>1.06</v>
+      </c>
+      <c r="AG236">
+        <v>10</v>
+      </c>
+      <c r="AH236">
+        <v>1.35</v>
+      </c>
+      <c r="AI236">
+        <v>3.25</v>
+      </c>
+      <c r="AJ236">
+        <v>2.03</v>
+      </c>
+      <c r="AK236">
+        <v>1.7</v>
+      </c>
+      <c r="AL236">
+        <v>1.88</v>
+      </c>
+      <c r="AM236">
+        <v>1.9</v>
+      </c>
+      <c r="AN236">
+        <v>1.22</v>
+      </c>
+      <c r="AO236">
+        <v>1.26</v>
+      </c>
+      <c r="AP236">
+        <v>1.96</v>
+      </c>
+      <c r="AQ236">
+        <v>1.43</v>
+      </c>
+      <c r="AR236">
+        <v>1.56</v>
+      </c>
+      <c r="AS236">
+        <v>1.78</v>
+      </c>
+      <c r="AT236">
+        <v>1.4</v>
+      </c>
+      <c r="AU236">
+        <v>1.42</v>
+      </c>
+      <c r="AV236">
+        <v>1.21</v>
+      </c>
+      <c r="AW236">
+        <v>2.63</v>
+      </c>
+      <c r="AX236">
+        <v>1.64</v>
+      </c>
+      <c r="AY236">
+        <v>8.5</v>
+      </c>
+      <c r="AZ236">
+        <v>2.76</v>
+      </c>
+      <c r="BA236">
+        <v>1.21</v>
+      </c>
+      <c r="BB236">
+        <v>1.4</v>
+      </c>
+      <c r="BC236">
+        <v>1.7</v>
+      </c>
+      <c r="BD236">
+        <v>2.17</v>
+      </c>
+      <c r="BE236">
+        <v>2.85</v>
+      </c>
+      <c r="BF236">
+        <v>3</v>
+      </c>
+      <c r="BG236">
+        <v>0</v>
+      </c>
+      <c r="BH236">
+        <v>12</v>
+      </c>
+      <c r="BI236">
+        <v>7</v>
+      </c>
+      <c r="BJ236">
+        <v>15</v>
+      </c>
+      <c r="BK236">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:63">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>2608234</v>
+      </c>
+      <c r="C237" t="s">
+        <v>63</v>
+      </c>
+      <c r="D237" t="s">
+        <v>64</v>
+      </c>
+      <c r="E237" s="2">
+        <v>44873.69791666666</v>
+      </c>
+      <c r="F237">
+        <v>9</v>
+      </c>
+      <c r="G237" t="s">
+        <v>80</v>
+      </c>
+      <c r="H237" t="s">
+        <v>68</v>
+      </c>
+      <c r="I237">
+        <v>2</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>2</v>
+      </c>
+      <c r="L237">
+        <v>2</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>2</v>
+      </c>
+      <c r="O237" t="s">
+        <v>238</v>
+      </c>
+      <c r="P237" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q237">
+        <v>5</v>
+      </c>
+      <c r="R237">
+        <v>13</v>
+      </c>
+      <c r="S237">
+        <v>18</v>
+      </c>
+      <c r="T237">
+        <v>3.1</v>
+      </c>
+      <c r="U237">
+        <v>2.05</v>
+      </c>
+      <c r="V237">
+        <v>3.75</v>
+      </c>
+      <c r="W237">
+        <v>1.44</v>
+      </c>
+      <c r="X237">
+        <v>2.6</v>
+      </c>
+      <c r="Y237">
+        <v>3.15</v>
+      </c>
+      <c r="Z237">
+        <v>1.32</v>
+      </c>
+      <c r="AA237">
+        <v>8.35</v>
+      </c>
+      <c r="AB237">
+        <v>1.05</v>
+      </c>
+      <c r="AC237">
+        <v>2.26</v>
+      </c>
+      <c r="AD237">
+        <v>3.22</v>
+      </c>
+      <c r="AE237">
+        <v>3.5</v>
+      </c>
+      <c r="AF237">
+        <v>1.07</v>
+      </c>
+      <c r="AG237">
+        <v>9</v>
+      </c>
+      <c r="AH237">
+        <v>1.4</v>
+      </c>
+      <c r="AI237">
+        <v>3</v>
+      </c>
+      <c r="AJ237">
+        <v>2.09</v>
+      </c>
+      <c r="AK237">
+        <v>1.66</v>
+      </c>
+      <c r="AL237">
+        <v>1.88</v>
+      </c>
+      <c r="AM237">
+        <v>1.9</v>
+      </c>
+      <c r="AN237">
+        <v>1.36</v>
+      </c>
+      <c r="AO237">
+        <v>1.3</v>
+      </c>
+      <c r="AP237">
+        <v>1.65</v>
+      </c>
+      <c r="AQ237">
+        <v>0.89</v>
+      </c>
+      <c r="AR237">
+        <v>1.89</v>
+      </c>
+      <c r="AS237">
+        <v>1.1</v>
+      </c>
+      <c r="AT237">
+        <v>1.7</v>
+      </c>
+      <c r="AU237">
+        <v>1.8</v>
+      </c>
+      <c r="AV237">
+        <v>1.29</v>
+      </c>
+      <c r="AW237">
+        <v>3.09</v>
+      </c>
+      <c r="AX237">
+        <v>1.62</v>
+      </c>
+      <c r="AY237">
+        <v>5.75</v>
+      </c>
+      <c r="AZ237">
+        <v>2.7</v>
+      </c>
+      <c r="BA237">
+        <v>1.25</v>
+      </c>
+      <c r="BB237">
+        <v>1.55</v>
+      </c>
+      <c r="BC237">
+        <v>1.93</v>
+      </c>
+      <c r="BD237">
+        <v>2.38</v>
+      </c>
+      <c r="BE237">
+        <v>3.2</v>
+      </c>
+      <c r="BF237">
+        <v>4</v>
+      </c>
+      <c r="BG237">
+        <v>4</v>
+      </c>
+      <c r="BH237">
+        <v>6</v>
+      </c>
+      <c r="BI237">
+        <v>12</v>
+      </c>
+      <c r="BJ237">
+        <v>10</v>
+      </c>
+      <c r="BK237">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:63">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>2608236</v>
+      </c>
+      <c r="C238" t="s">
+        <v>63</v>
+      </c>
+      <c r="D238" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" s="2">
+        <v>44873.70833333334</v>
+      </c>
+      <c r="F238">
+        <v>9</v>
+      </c>
+      <c r="G238" t="s">
+        <v>76</v>
+      </c>
+      <c r="H238" t="s">
+        <v>82</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <v>2</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>2</v>
+      </c>
+      <c r="O238" t="s">
+        <v>239</v>
+      </c>
+      <c r="P238" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q238">
+        <v>7</v>
+      </c>
+      <c r="R238">
+        <v>3</v>
+      </c>
+      <c r="S238">
+        <v>10</v>
+      </c>
+      <c r="T238">
+        <v>2.35</v>
+      </c>
+      <c r="U238">
+        <v>2.15</v>
+      </c>
+      <c r="V238">
+        <v>5.5</v>
+      </c>
+      <c r="W238">
+        <v>1.44</v>
+      </c>
+      <c r="X238">
+        <v>2.6</v>
+      </c>
+      <c r="Y238">
+        <v>3.15</v>
+      </c>
+      <c r="Z238">
+        <v>1.32</v>
+      </c>
+      <c r="AA238">
+        <v>8.35</v>
+      </c>
+      <c r="AB238">
+        <v>1.05</v>
+      </c>
+      <c r="AC238">
+        <v>1.77</v>
+      </c>
+      <c r="AD238">
+        <v>3.73</v>
+      </c>
+      <c r="AE238">
+        <v>4.77</v>
+      </c>
+      <c r="AF238">
+        <v>1.07</v>
+      </c>
+      <c r="AG238">
+        <v>9</v>
+      </c>
+      <c r="AH238">
+        <v>1.4</v>
+      </c>
+      <c r="AI238">
+        <v>3</v>
+      </c>
+      <c r="AJ238">
+        <v>2</v>
+      </c>
+      <c r="AK238">
+        <v>1.88</v>
+      </c>
+      <c r="AL238">
+        <v>2.1</v>
+      </c>
+      <c r="AM238">
+        <v>1.72</v>
+      </c>
+      <c r="AN238">
+        <v>1.16</v>
+      </c>
+      <c r="AO238">
+        <v>1.25</v>
+      </c>
+      <c r="AP238">
+        <v>2.2</v>
+      </c>
+      <c r="AQ238">
+        <v>1.78</v>
+      </c>
+      <c r="AR238">
+        <v>0.78</v>
+      </c>
+      <c r="AS238">
+        <v>1.9</v>
+      </c>
+      <c r="AT238">
+        <v>0.91</v>
+      </c>
+      <c r="AU238">
+        <v>1.5</v>
+      </c>
+      <c r="AV238">
+        <v>1.18</v>
+      </c>
+      <c r="AW238">
+        <v>2.68</v>
+      </c>
+      <c r="AX238">
+        <v>1.41</v>
+      </c>
+      <c r="AY238">
+        <v>8</v>
+      </c>
+      <c r="AZ238">
+        <v>3.75</v>
+      </c>
+      <c r="BA238">
+        <v>1.27</v>
+      </c>
+      <c r="BB238">
+        <v>1.55</v>
+      </c>
+      <c r="BC238">
+        <v>1.93</v>
+      </c>
+      <c r="BD238">
+        <v>2.38</v>
+      </c>
+      <c r="BE238">
+        <v>3.28</v>
+      </c>
+      <c r="BF238">
+        <v>6</v>
+      </c>
+      <c r="BG238">
+        <v>2</v>
+      </c>
+      <c r="BH238">
+        <v>11</v>
+      </c>
+      <c r="BI238">
+        <v>5</v>
+      </c>
+      <c r="BJ238">
+        <v>17</v>
+      </c>
+      <c r="BK238">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:63">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>2608370</v>
+      </c>
+      <c r="C239" t="s">
+        <v>63</v>
+      </c>
+      <c r="D239" t="s">
+        <v>64</v>
+      </c>
+      <c r="E239" s="2">
+        <v>44876.70833333334</v>
+      </c>
+      <c r="F239">
+        <v>21</v>
+      </c>
+      <c r="G239" t="s">
+        <v>77</v>
+      </c>
+      <c r="H239" t="s">
+        <v>75</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>2</v>
+      </c>
+      <c r="N239">
+        <v>3</v>
+      </c>
+      <c r="O239" t="s">
+        <v>240</v>
+      </c>
+      <c r="P239" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q239">
+        <v>7</v>
+      </c>
+      <c r="R239">
+        <v>3</v>
+      </c>
+      <c r="S239">
+        <v>10</v>
+      </c>
+      <c r="T239">
+        <v>2.98</v>
+      </c>
+      <c r="U239">
+        <v>2.04</v>
+      </c>
+      <c r="V239">
+        <v>3.92</v>
+      </c>
+      <c r="W239">
+        <v>1.47</v>
+      </c>
+      <c r="X239">
+        <v>2.6</v>
+      </c>
+      <c r="Y239">
+        <v>3.2</v>
+      </c>
+      <c r="Z239">
+        <v>1.33</v>
+      </c>
+      <c r="AA239">
+        <v>8.5</v>
+      </c>
+      <c r="AB239">
+        <v>1.06</v>
+      </c>
+      <c r="AC239">
+        <v>2.28</v>
+      </c>
+      <c r="AD239">
+        <v>3.3</v>
+      </c>
+      <c r="AE239">
+        <v>2.9</v>
+      </c>
+      <c r="AF239">
+        <v>1.08</v>
+      </c>
+      <c r="AG239">
+        <v>9.25</v>
+      </c>
+      <c r="AH239">
+        <v>1.39</v>
+      </c>
+      <c r="AI239">
+        <v>3.02</v>
+      </c>
+      <c r="AJ239">
+        <v>2.23</v>
+      </c>
+      <c r="AK239">
+        <v>1.58</v>
+      </c>
+      <c r="AL239">
+        <v>1.9</v>
+      </c>
+      <c r="AM239">
+        <v>1.86</v>
+      </c>
+      <c r="AN239">
+        <v>1.36</v>
+      </c>
+      <c r="AO239">
+        <v>1.34</v>
+      </c>
+      <c r="AP239">
+        <v>1.61</v>
+      </c>
+      <c r="AQ239">
+        <v>1.4</v>
+      </c>
+      <c r="AR239">
+        <v>1.4</v>
+      </c>
+      <c r="AS239">
+        <v>1.27</v>
+      </c>
+      <c r="AT239">
+        <v>1.55</v>
+      </c>
+      <c r="AU239">
+        <v>1.31</v>
+      </c>
+      <c r="AV239">
+        <v>1.23</v>
+      </c>
+      <c r="AW239">
+        <v>2.54</v>
+      </c>
+      <c r="AX239">
+        <v>1.82</v>
+      </c>
+      <c r="AY239">
+        <v>7.8</v>
+      </c>
+      <c r="AZ239">
+        <v>2.44</v>
+      </c>
+      <c r="BA239">
+        <v>1.2</v>
+      </c>
+      <c r="BB239">
+        <v>1.4</v>
+      </c>
+      <c r="BC239">
+        <v>1.74</v>
+      </c>
+      <c r="BD239">
+        <v>2.18</v>
+      </c>
+      <c r="BE239">
+        <v>2.88</v>
+      </c>
+      <c r="BF239">
+        <v>7</v>
+      </c>
+      <c r="BG239">
+        <v>5</v>
+      </c>
+      <c r="BH239">
+        <v>15</v>
+      </c>
+      <c r="BI239">
+        <v>2</v>
+      </c>
+      <c r="BJ239">
+        <v>22</v>
+      </c>
+      <c r="BK239">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:63">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>2608376</v>
+      </c>
+      <c r="C240" t="s">
+        <v>63</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F240">
+        <v>21</v>
+      </c>
+      <c r="G240" t="s">
+        <v>73</v>
+      </c>
+      <c r="H240" t="s">
+        <v>82</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240">
+        <v>2</v>
+      </c>
+      <c r="L240">
+        <v>1</v>
+      </c>
+      <c r="M240">
+        <v>2</v>
+      </c>
+      <c r="N240">
+        <v>3</v>
+      </c>
+      <c r="O240" t="s">
+        <v>93</v>
+      </c>
+      <c r="P240" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q240">
+        <v>4</v>
+      </c>
+      <c r="R240">
+        <v>6</v>
+      </c>
+      <c r="S240">
+        <v>10</v>
+      </c>
+      <c r="T240">
+        <v>2.86</v>
+      </c>
+      <c r="U240">
+        <v>2.16</v>
+      </c>
+      <c r="V240">
+        <v>3.74</v>
+      </c>
+      <c r="W240">
+        <v>1.39</v>
+      </c>
+      <c r="X240">
+        <v>2.9</v>
+      </c>
+      <c r="Y240">
+        <v>2.78</v>
+      </c>
+      <c r="Z240">
+        <v>1.42</v>
+      </c>
+      <c r="AA240">
+        <v>7</v>
+      </c>
+      <c r="AB240">
+        <v>1.09</v>
+      </c>
+      <c r="AC240">
+        <v>2.28</v>
+      </c>
+      <c r="AD240">
+        <v>3.48</v>
+      </c>
+      <c r="AE240">
+        <v>3.06</v>
+      </c>
+      <c r="AF240">
+        <v>1.06</v>
+      </c>
+      <c r="AG240">
+        <v>11.5</v>
+      </c>
+      <c r="AH240">
+        <v>1.3</v>
+      </c>
+      <c r="AI240">
+        <v>3.58</v>
+      </c>
+      <c r="AJ240">
+        <v>1.9</v>
+      </c>
+      <c r="AK240">
+        <v>1.9</v>
+      </c>
+      <c r="AL240">
+        <v>1.72</v>
+      </c>
+      <c r="AM240">
+        <v>2.07</v>
+      </c>
+      <c r="AN240">
+        <v>1.38</v>
+      </c>
+      <c r="AO240">
+        <v>1.33</v>
+      </c>
+      <c r="AP240">
+        <v>1.6</v>
+      </c>
+      <c r="AQ240">
+        <v>1.2</v>
+      </c>
+      <c r="AR240">
+        <v>0.7</v>
+      </c>
+      <c r="AS240">
+        <v>1.09</v>
+      </c>
+      <c r="AT240">
+        <v>0.91</v>
+      </c>
+      <c r="AU240">
+        <v>1.38</v>
+      </c>
+      <c r="AV240">
+        <v>1.15</v>
+      </c>
+      <c r="AW240">
+        <v>2.53</v>
+      </c>
+      <c r="AX240">
+        <v>1.73</v>
+      </c>
+      <c r="AY240">
+        <v>8</v>
+      </c>
+      <c r="AZ240">
+        <v>2.38</v>
+      </c>
+      <c r="BA240">
+        <v>1.28</v>
+      </c>
+      <c r="BB240">
+        <v>1.55</v>
+      </c>
+      <c r="BC240">
+        <v>2</v>
+      </c>
+      <c r="BD240">
+        <v>2.59</v>
+      </c>
+      <c r="BE240">
+        <v>3.48</v>
+      </c>
+      <c r="BF240">
+        <v>5</v>
+      </c>
+      <c r="BG240">
+        <v>6</v>
+      </c>
+      <c r="BH240">
+        <v>7</v>
+      </c>
+      <c r="BI240">
+        <v>5</v>
+      </c>
+      <c r="BJ240">
+        <v>12</v>
+      </c>
+      <c r="BK240">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:63">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>2608371</v>
+      </c>
+      <c r="C241" t="s">
+        <v>63</v>
+      </c>
+      <c r="D241" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F241">
+        <v>21</v>
+      </c>
+      <c r="G241" t="s">
+        <v>85</v>
+      </c>
+      <c r="H241" t="s">
+        <v>76</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241" t="s">
+        <v>89</v>
+      </c>
+      <c r="P241" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q241">
+        <v>4</v>
+      </c>
+      <c r="R241">
+        <v>3</v>
+      </c>
+      <c r="S241">
+        <v>7</v>
+      </c>
+      <c r="T241">
+        <v>3.8</v>
+      </c>
+      <c r="U241">
+        <v>2.07</v>
+      </c>
+      <c r="V241">
+        <v>2.99</v>
+      </c>
+      <c r="W241">
+        <v>1.43</v>
+      </c>
+      <c r="X241">
+        <v>2.74</v>
+      </c>
+      <c r="Y241">
+        <v>2.9</v>
+      </c>
+      <c r="Z241">
+        <v>1.39</v>
+      </c>
+      <c r="AA241">
+        <v>7.5</v>
+      </c>
+      <c r="AB241">
+        <v>1.08</v>
+      </c>
+      <c r="AC241">
+        <v>3.03</v>
+      </c>
+      <c r="AD241">
+        <v>3.38</v>
+      </c>
+      <c r="AE241">
+        <v>2.34</v>
+      </c>
+      <c r="AF241">
+        <v>1.07</v>
+      </c>
+      <c r="AG241">
+        <v>10.25</v>
+      </c>
+      <c r="AH241">
+        <v>1.35</v>
+      </c>
+      <c r="AI241">
+        <v>3.22</v>
+      </c>
+      <c r="AJ241">
+        <v>1.87</v>
+      </c>
+      <c r="AK241">
+        <v>1.93</v>
+      </c>
+      <c r="AL241">
+        <v>1.78</v>
+      </c>
+      <c r="AM241">
+        <v>1.99</v>
+      </c>
+      <c r="AN241">
+        <v>1.59</v>
+      </c>
+      <c r="AO241">
+        <v>1.33</v>
+      </c>
+      <c r="AP241">
+        <v>1.39</v>
+      </c>
+      <c r="AQ241">
+        <v>1.4</v>
+      </c>
+      <c r="AR241">
+        <v>1.3</v>
+      </c>
+      <c r="AS241">
+        <v>1.36</v>
+      </c>
+      <c r="AT241">
+        <v>1.27</v>
+      </c>
+      <c r="AU241">
+        <v>1.42</v>
+      </c>
+      <c r="AV241">
+        <v>1.47</v>
+      </c>
+      <c r="AW241">
+        <v>2.89</v>
+      </c>
+      <c r="AX241">
+        <v>2.23</v>
+      </c>
+      <c r="AY241">
+        <v>7.9</v>
+      </c>
+      <c r="AZ241">
+        <v>1.95</v>
+      </c>
+      <c r="BA241">
+        <v>1.18</v>
+      </c>
+      <c r="BB241">
+        <v>1.33</v>
+      </c>
+      <c r="BC241">
+        <v>1.64</v>
+      </c>
+      <c r="BD241">
+        <v>2.07</v>
+      </c>
+      <c r="BE241">
+        <v>2.73</v>
+      </c>
+      <c r="BF241">
+        <v>3</v>
+      </c>
+      <c r="BG241">
+        <v>0</v>
+      </c>
+      <c r="BH241">
+        <v>7</v>
+      </c>
+      <c r="BI241">
+        <v>3</v>
+      </c>
+      <c r="BJ241">
+        <v>10</v>
+      </c>
+      <c r="BK241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:63">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>2608373</v>
+      </c>
+      <c r="C242" t="s">
+        <v>63</v>
+      </c>
+      <c r="D242" t="s">
+        <v>64</v>
+      </c>
+      <c r="E242" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F242">
+        <v>21</v>
+      </c>
+      <c r="G242" t="s">
+        <v>70</v>
+      </c>
+      <c r="H242" t="s">
+        <v>81</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
+        <v>1</v>
+      </c>
+      <c r="N242">
+        <v>1</v>
+      </c>
+      <c r="O242" t="s">
+        <v>89</v>
+      </c>
+      <c r="P242" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q242">
+        <v>5</v>
+      </c>
+      <c r="R242">
+        <v>4</v>
+      </c>
+      <c r="S242">
+        <v>9</v>
+      </c>
+      <c r="T242">
+        <v>3.98</v>
+      </c>
+      <c r="U242">
+        <v>2.05</v>
+      </c>
+      <c r="V242">
+        <v>2.93</v>
+      </c>
+      <c r="W242">
+        <v>1.45</v>
+      </c>
+      <c r="X242">
+        <v>2.69</v>
+      </c>
+      <c r="Y242">
+        <v>2.99</v>
+      </c>
+      <c r="Z242">
+        <v>1.37</v>
+      </c>
+      <c r="AA242">
+        <v>7.8</v>
+      </c>
+      <c r="AB242">
+        <v>1.07</v>
+      </c>
+      <c r="AC242">
+        <v>3.15</v>
+      </c>
+      <c r="AD242">
+        <v>3.24</v>
+      </c>
+      <c r="AE242">
+        <v>2.34</v>
+      </c>
+      <c r="AF242">
+        <v>1.06</v>
+      </c>
+      <c r="AG242">
+        <v>10.75</v>
+      </c>
+      <c r="AH242">
+        <v>1.32</v>
+      </c>
+      <c r="AI242">
+        <v>3.38</v>
+      </c>
+      <c r="AJ242">
+        <v>2.07</v>
+      </c>
+      <c r="AK242">
+        <v>1.75</v>
+      </c>
+      <c r="AL242">
+        <v>1.81</v>
+      </c>
+      <c r="AM242">
+        <v>1.95</v>
+      </c>
+      <c r="AN242">
+        <v>1.64</v>
+      </c>
+      <c r="AO242">
+        <v>1.33</v>
+      </c>
+      <c r="AP242">
+        <v>1.35</v>
+      </c>
+      <c r="AQ242">
+        <v>1.4</v>
+      </c>
+      <c r="AR242">
+        <v>1.7</v>
+      </c>
+      <c r="AS242">
+        <v>1.27</v>
+      </c>
+      <c r="AT242">
+        <v>1.82</v>
+      </c>
+      <c r="AU242">
+        <v>1.57</v>
+      </c>
+      <c r="AV242">
+        <v>1.37</v>
+      </c>
+      <c r="AW242">
+        <v>2.94</v>
+      </c>
+      <c r="AX242">
+        <v>2.22</v>
+      </c>
+      <c r="AY242">
+        <v>7.6</v>
+      </c>
+      <c r="AZ242">
+        <v>1.98</v>
+      </c>
+      <c r="BA242">
+        <v>1.26</v>
+      </c>
+      <c r="BB242">
+        <v>1.5</v>
+      </c>
+      <c r="BC242">
+        <v>1.93</v>
+      </c>
+      <c r="BD242">
+        <v>2.45</v>
+      </c>
+      <c r="BE242">
+        <v>3.34</v>
+      </c>
+      <c r="BF242">
+        <v>3</v>
+      </c>
+      <c r="BG242">
+        <v>2</v>
+      </c>
+      <c r="BH242">
+        <v>10</v>
+      </c>
+      <c r="BI242">
+        <v>9</v>
+      </c>
+      <c r="BJ242">
+        <v>13</v>
+      </c>
+      <c r="BK242">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:63">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>2608374</v>
+      </c>
+      <c r="C243" t="s">
+        <v>63</v>
+      </c>
+      <c r="D243" t="s">
+        <v>64</v>
+      </c>
+      <c r="E243" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F243">
+        <v>21</v>
+      </c>
+      <c r="G243" t="s">
+        <v>88</v>
+      </c>
+      <c r="H243" t="s">
+        <v>86</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <v>2</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>2</v>
+      </c>
+      <c r="O243" t="s">
+        <v>241</v>
+      </c>
+      <c r="P243" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q243">
+        <v>2</v>
+      </c>
+      <c r="R243">
+        <v>5</v>
+      </c>
+      <c r="S243">
+        <v>7</v>
+      </c>
+      <c r="T243">
+        <v>3.1</v>
+      </c>
+      <c r="U243">
+        <v>2.02</v>
+      </c>
+      <c r="V243">
+        <v>3.8</v>
+      </c>
+      <c r="W243">
+        <v>1.47</v>
+      </c>
+      <c r="X243">
+        <v>2.6</v>
+      </c>
+      <c r="Y243">
+        <v>3.1</v>
+      </c>
+      <c r="Z243">
+        <v>1.35</v>
+      </c>
+      <c r="AA243">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB243">
+        <v>1.06</v>
+      </c>
+      <c r="AC243">
+        <v>2.43</v>
+      </c>
+      <c r="AD243">
+        <v>3.18</v>
+      </c>
+      <c r="AE243">
+        <v>3.06</v>
+      </c>
+      <c r="AF243">
+        <v>1.07</v>
+      </c>
+      <c r="AG243">
+        <v>9.5</v>
+      </c>
+      <c r="AH243">
+        <v>1.37</v>
+      </c>
+      <c r="AI243">
+        <v>3.12</v>
+      </c>
+      <c r="AJ243">
+        <v>2.15</v>
+      </c>
+      <c r="AK243">
+        <v>1.7</v>
+      </c>
+      <c r="AL243">
+        <v>1.86</v>
+      </c>
+      <c r="AM243">
+        <v>1.9</v>
+      </c>
+      <c r="AN243">
+        <v>1.4</v>
+      </c>
+      <c r="AO243">
+        <v>1.35</v>
+      </c>
+      <c r="AP243">
+        <v>1.55</v>
+      </c>
+      <c r="AQ243">
+        <v>1.63</v>
+      </c>
+      <c r="AR243">
+        <v>1.4</v>
+      </c>
+      <c r="AS243">
+        <v>1.78</v>
+      </c>
+      <c r="AT243">
+        <v>1.27</v>
+      </c>
+      <c r="AU243">
+        <v>1.44</v>
+      </c>
+      <c r="AV243">
+        <v>1.42</v>
+      </c>
+      <c r="AW243">
+        <v>2.86</v>
+      </c>
+      <c r="AX243">
+        <v>1.65</v>
+      </c>
+      <c r="AY243">
+        <v>8.5</v>
+      </c>
+      <c r="AZ243">
+        <v>2.5</v>
+      </c>
+      <c r="BA243">
+        <v>1.22</v>
+      </c>
+      <c r="BB243">
+        <v>1.44</v>
+      </c>
+      <c r="BC243">
+        <v>1.8</v>
+      </c>
+      <c r="BD243">
+        <v>2.26</v>
+      </c>
+      <c r="BE243">
+        <v>3.04</v>
+      </c>
+      <c r="BF243">
+        <v>7</v>
+      </c>
+      <c r="BG243">
+        <v>0</v>
+      </c>
+      <c r="BH243">
+        <v>7</v>
+      </c>
+      <c r="BI243">
+        <v>11</v>
+      </c>
+      <c r="BJ243">
+        <v>14</v>
+      </c>
+      <c r="BK243">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="1:63">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>2608375</v>
+      </c>
+      <c r="C244" t="s">
+        <v>63</v>
+      </c>
+      <c r="D244" t="s">
+        <v>64</v>
+      </c>
+      <c r="E244" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F244">
+        <v>21</v>
+      </c>
+      <c r="G244" t="s">
+        <v>65</v>
+      </c>
+      <c r="H244" t="s">
+        <v>79</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+      <c r="O244" t="s">
+        <v>89</v>
+      </c>
+      <c r="P244" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q244">
+        <v>2</v>
+      </c>
+      <c r="R244">
+        <v>11</v>
+      </c>
+      <c r="S244">
+        <v>13</v>
+      </c>
+      <c r="T244">
+        <v>3.52</v>
+      </c>
+      <c r="U244">
+        <v>2.05</v>
+      </c>
+      <c r="V244">
+        <v>3.18</v>
+      </c>
+      <c r="W244">
+        <v>1.46</v>
+      </c>
+      <c r="X244">
+        <v>2.64</v>
+      </c>
+      <c r="Y244">
+        <v>3.14</v>
+      </c>
+      <c r="Z244">
+        <v>1.34</v>
+      </c>
+      <c r="AA244">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB244">
+        <v>1.06</v>
+      </c>
+      <c r="AC244">
+        <v>2.78</v>
+      </c>
+      <c r="AD244">
+        <v>3.32</v>
+      </c>
+      <c r="AE244">
+        <v>2.54</v>
+      </c>
+      <c r="AF244">
+        <v>1.08</v>
+      </c>
+      <c r="AG244">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH244">
+        <v>1.39</v>
+      </c>
+      <c r="AI244">
+        <v>3.05</v>
+      </c>
+      <c r="AJ244">
+        <v>2.07</v>
+      </c>
+      <c r="AK244">
+        <v>1.75</v>
+      </c>
+      <c r="AL244">
+        <v>1.88</v>
+      </c>
+      <c r="AM244">
+        <v>1.88</v>
+      </c>
+      <c r="AN244">
+        <v>1.52</v>
+      </c>
+      <c r="AO244">
+        <v>1.35</v>
+      </c>
+      <c r="AP244">
+        <v>1.43</v>
+      </c>
+      <c r="AQ244">
+        <v>1.3</v>
+      </c>
+      <c r="AR244">
+        <v>1.3</v>
+      </c>
+      <c r="AS244">
+        <v>1.27</v>
+      </c>
+      <c r="AT244">
+        <v>1.27</v>
+      </c>
+      <c r="AU244">
+        <v>1.32</v>
+      </c>
+      <c r="AV244">
+        <v>1.36</v>
+      </c>
+      <c r="AW244">
+        <v>2.68</v>
+      </c>
+      <c r="AX244">
+        <v>1.99</v>
+      </c>
+      <c r="AY244">
+        <v>7.6</v>
+      </c>
+      <c r="AZ244">
+        <v>2.21</v>
+      </c>
+      <c r="BA244">
+        <v>1.28</v>
+      </c>
+      <c r="BB244">
+        <v>1.55</v>
+      </c>
+      <c r="BC244">
+        <v>2</v>
+      </c>
+      <c r="BD244">
+        <v>2.59</v>
+      </c>
+      <c r="BE244">
+        <v>3.48</v>
+      </c>
+      <c r="BF244">
+        <v>5</v>
+      </c>
+      <c r="BG244">
+        <v>8</v>
+      </c>
+      <c r="BH244">
+        <v>4</v>
+      </c>
+      <c r="BI244">
+        <v>11</v>
+      </c>
+      <c r="BJ244">
+        <v>9</v>
+      </c>
+      <c r="BK244">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="245" spans="1:63">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>2608377</v>
+      </c>
+      <c r="C245" t="s">
+        <v>63</v>
+      </c>
+      <c r="D245" t="s">
+        <v>64</v>
+      </c>
+      <c r="E245" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F245">
+        <v>21</v>
+      </c>
+      <c r="G245" t="s">
+        <v>68</v>
+      </c>
+      <c r="H245" t="s">
+        <v>66</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
+      </c>
+      <c r="K245">
+        <v>1</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245">
+        <v>1</v>
+      </c>
+      <c r="N245">
+        <v>2</v>
+      </c>
+      <c r="O245" t="s">
+        <v>172</v>
+      </c>
+      <c r="P245" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q245">
+        <v>12</v>
+      </c>
+      <c r="R245">
+        <v>4</v>
+      </c>
+      <c r="S245">
+        <v>16</v>
+      </c>
+      <c r="T245">
+        <v>2.33</v>
+      </c>
+      <c r="U245">
+        <v>2.19</v>
+      </c>
+      <c r="V245">
+        <v>5.15</v>
+      </c>
+      <c r="W245">
+        <v>1.4</v>
+      </c>
+      <c r="X245">
+        <v>2.86</v>
+      </c>
+      <c r="Y245">
+        <v>2.86</v>
+      </c>
+      <c r="Z245">
+        <v>1.4</v>
+      </c>
+      <c r="AA245">
+        <v>7.2</v>
+      </c>
+      <c r="AB245">
+        <v>1.08</v>
+      </c>
+      <c r="AC245">
+        <v>1.68</v>
+      </c>
+      <c r="AD245">
+        <v>3.92</v>
+      </c>
+      <c r="AE245">
+        <v>4.96</v>
+      </c>
+      <c r="AF245">
+        <v>1.06</v>
+      </c>
+      <c r="AG245">
+        <v>11.25</v>
+      </c>
+      <c r="AH245">
+        <v>1.31</v>
+      </c>
+      <c r="AI245">
+        <v>3.5</v>
+      </c>
+      <c r="AJ245">
+        <v>1.9</v>
+      </c>
+      <c r="AK245">
+        <v>1.9</v>
+      </c>
+      <c r="AL245">
+        <v>1.88</v>
+      </c>
+      <c r="AM245">
+        <v>1.88</v>
+      </c>
+      <c r="AN245">
+        <v>1.21</v>
+      </c>
+      <c r="AO245">
+        <v>1.29</v>
+      </c>
+      <c r="AP245">
+        <v>2</v>
+      </c>
+      <c r="AQ245">
+        <v>1.2</v>
+      </c>
+      <c r="AR245">
+        <v>1</v>
+      </c>
+      <c r="AS245">
+        <v>1.18</v>
+      </c>
+      <c r="AT245">
+        <v>1</v>
+      </c>
+      <c r="AU245">
+        <v>1.88</v>
+      </c>
+      <c r="AV245">
+        <v>0.82</v>
+      </c>
+      <c r="AW245">
+        <v>2.7</v>
+      </c>
+      <c r="AX245">
+        <v>1.49</v>
+      </c>
+      <c r="AY245">
+        <v>8.6</v>
+      </c>
+      <c r="AZ245">
+        <v>3.4</v>
+      </c>
+      <c r="BA245">
+        <v>1.18</v>
+      </c>
+      <c r="BB245">
+        <v>1.33</v>
+      </c>
+      <c r="BC245">
+        <v>1.64</v>
+      </c>
+      <c r="BD245">
+        <v>2.07</v>
+      </c>
+      <c r="BE245">
+        <v>2.73</v>
+      </c>
+      <c r="BF245">
+        <v>9</v>
+      </c>
+      <c r="BG245">
+        <v>3</v>
+      </c>
+      <c r="BH245">
+        <v>10</v>
+      </c>
+      <c r="BI245">
+        <v>6</v>
+      </c>
+      <c r="BJ245">
+        <v>19</v>
+      </c>
+      <c r="BK245">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:63">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>2608378</v>
+      </c>
+      <c r="C246" t="s">
+        <v>63</v>
+      </c>
+      <c r="D246" t="s">
+        <v>64</v>
+      </c>
+      <c r="E246" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F246">
+        <v>21</v>
+      </c>
+      <c r="G246" t="s">
+        <v>78</v>
+      </c>
+      <c r="H246" t="s">
+        <v>74</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>1</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246">
+        <v>2</v>
+      </c>
+      <c r="N246">
+        <v>3</v>
+      </c>
+      <c r="O246" t="s">
+        <v>182</v>
+      </c>
+      <c r="P246" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q246">
+        <v>3</v>
+      </c>
+      <c r="R246">
+        <v>4</v>
+      </c>
+      <c r="S246">
+        <v>7</v>
+      </c>
+      <c r="T246">
+        <v>2.63</v>
+      </c>
+      <c r="U246">
+        <v>2.15</v>
+      </c>
+      <c r="V246">
+        <v>4.26</v>
+      </c>
+      <c r="W246">
+        <v>1.4</v>
+      </c>
+      <c r="X246">
+        <v>2.86</v>
+      </c>
+      <c r="Y246">
+        <v>2.86</v>
+      </c>
+      <c r="Z246">
+        <v>1.4</v>
+      </c>
+      <c r="AA246">
+        <v>7.3</v>
+      </c>
+      <c r="AB246">
+        <v>1.08</v>
+      </c>
+      <c r="AC246">
+        <v>2.01</v>
+      </c>
+      <c r="AD246">
+        <v>3.5</v>
+      </c>
+      <c r="AE246">
+        <v>3.68</v>
+      </c>
+      <c r="AF246">
+        <v>1.06</v>
+      </c>
+      <c r="AG246">
+        <v>11.25</v>
+      </c>
+      <c r="AH246">
+        <v>1.31</v>
+      </c>
+      <c r="AI246">
+        <v>3.48</v>
+      </c>
+      <c r="AJ246">
+        <v>1.98</v>
+      </c>
+      <c r="AK246">
+        <v>1.83</v>
+      </c>
+      <c r="AL246">
+        <v>1.79</v>
+      </c>
+      <c r="AM246">
+        <v>1.98</v>
+      </c>
+      <c r="AN246">
+        <v>1.31</v>
+      </c>
+      <c r="AO246">
+        <v>1.32</v>
+      </c>
+      <c r="AP246">
+        <v>1.74</v>
+      </c>
+      <c r="AQ246">
+        <v>1.8</v>
+      </c>
+      <c r="AR246">
+        <v>1</v>
+      </c>
+      <c r="AS246">
+        <v>1.64</v>
+      </c>
+      <c r="AT246">
+        <v>1.18</v>
+      </c>
+      <c r="AU246">
+        <v>1.86</v>
+      </c>
+      <c r="AV246">
+        <v>1.52</v>
+      </c>
+      <c r="AW246">
+        <v>3.38</v>
+      </c>
+      <c r="AX246">
+        <v>1.92</v>
+      </c>
+      <c r="AY246">
+        <v>7.7</v>
+      </c>
+      <c r="AZ246">
+        <v>2.33</v>
+      </c>
+      <c r="BA246">
+        <v>1.19</v>
+      </c>
+      <c r="BB246">
+        <v>1.39</v>
+      </c>
+      <c r="BC246">
+        <v>1.72</v>
+      </c>
+      <c r="BD246">
+        <v>2.15</v>
+      </c>
+      <c r="BE246">
+        <v>2.84</v>
+      </c>
+      <c r="BF246">
+        <v>7</v>
+      </c>
+      <c r="BG246">
+        <v>4</v>
+      </c>
+      <c r="BH246">
+        <v>7</v>
+      </c>
+      <c r="BI246">
+        <v>8</v>
+      </c>
+      <c r="BJ246">
+        <v>14</v>
+      </c>
+      <c r="BK246">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" spans="1:63">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>2608379</v>
+      </c>
+      <c r="C247" t="s">
+        <v>63</v>
+      </c>
+      <c r="D247" t="s">
+        <v>64</v>
+      </c>
+      <c r="E247" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F247">
+        <v>21</v>
+      </c>
+      <c r="G247" t="s">
+        <v>84</v>
+      </c>
+      <c r="H247" t="s">
+        <v>67</v>
+      </c>
+      <c r="I247">
+        <v>2</v>
+      </c>
+      <c r="J247">
+        <v>2</v>
+      </c>
+      <c r="K247">
+        <v>4</v>
+      </c>
+      <c r="L247">
+        <v>2</v>
+      </c>
+      <c r="M247">
+        <v>4</v>
+      </c>
+      <c r="N247">
+        <v>6</v>
+      </c>
+      <c r="O247" t="s">
+        <v>242</v>
+      </c>
+      <c r="P247" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q247">
+        <v>2</v>
+      </c>
+      <c r="R247">
+        <v>2</v>
+      </c>
+      <c r="S247">
+        <v>4</v>
+      </c>
+      <c r="T247">
+        <v>3.25</v>
+      </c>
+      <c r="U247">
+        <v>1.98</v>
+      </c>
+      <c r="V247">
+        <v>3.75</v>
+      </c>
+      <c r="W247">
+        <v>1.51</v>
+      </c>
+      <c r="X247">
+        <v>2.4</v>
+      </c>
+      <c r="Y247">
+        <v>3.5</v>
+      </c>
+      <c r="Z247">
+        <v>1.26</v>
+      </c>
+      <c r="AA247">
+        <v>9.75</v>
+      </c>
+      <c r="AB247">
+        <v>1.03</v>
+      </c>
+      <c r="AC247">
+        <v>2.41</v>
+      </c>
+      <c r="AD247">
+        <v>3.56</v>
+      </c>
+      <c r="AE247">
+        <v>2.8</v>
+      </c>
+      <c r="AF247">
+        <v>1.09</v>
+      </c>
+      <c r="AG247">
+        <v>8</v>
+      </c>
+      <c r="AH247">
+        <v>1.48</v>
+      </c>
+      <c r="AI247">
+        <v>2.7</v>
+      </c>
+      <c r="AJ247">
+        <v>2.3</v>
+      </c>
+      <c r="AK247">
+        <v>1.57</v>
+      </c>
+      <c r="AL247">
+        <v>2.05</v>
+      </c>
+      <c r="AM247">
+        <v>1.75</v>
+      </c>
+      <c r="AN247">
+        <v>1.38</v>
+      </c>
+      <c r="AO247">
+        <v>1.32</v>
+      </c>
+      <c r="AP247">
+        <v>1.58</v>
+      </c>
+      <c r="AQ247">
+        <v>1.3</v>
+      </c>
+      <c r="AR247">
+        <v>0.67</v>
+      </c>
+      <c r="AS247">
+        <v>1.18</v>
+      </c>
+      <c r="AT247">
+        <v>0.9</v>
+      </c>
+      <c r="AU247">
+        <v>1.48</v>
+      </c>
+      <c r="AV247">
+        <v>1.35</v>
+      </c>
+      <c r="AW247">
+        <v>2.83</v>
+      </c>
+      <c r="AX247">
+        <v>1.85</v>
+      </c>
+      <c r="AY247">
+        <v>8</v>
+      </c>
+      <c r="AZ247">
+        <v>2.28</v>
+      </c>
+      <c r="BA247">
+        <v>1.22</v>
+      </c>
+      <c r="BB247">
+        <v>1.43</v>
+      </c>
+      <c r="BC247">
+        <v>1.8</v>
+      </c>
+      <c r="BD247">
+        <v>2.3</v>
+      </c>
+      <c r="BE247">
+        <v>3.2</v>
+      </c>
+      <c r="BF247">
+        <v>5</v>
+      </c>
+      <c r="BG247">
+        <v>5</v>
+      </c>
+      <c r="BH247">
+        <v>13</v>
+      </c>
+      <c r="BI247">
+        <v>1</v>
+      </c>
+      <c r="BJ247">
+        <v>18</v>
+      </c>
+      <c r="BK247">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:63">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>2608380</v>
+      </c>
+      <c r="C248" t="s">
+        <v>63</v>
+      </c>
+      <c r="D248" t="s">
+        <v>64</v>
+      </c>
+      <c r="E248" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F248">
+        <v>21</v>
+      </c>
+      <c r="G248" t="s">
+        <v>87</v>
+      </c>
+      <c r="H248" t="s">
+        <v>80</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>1</v>
+      </c>
+      <c r="L248">
+        <v>2</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>2</v>
+      </c>
+      <c r="O248" t="s">
+        <v>243</v>
+      </c>
+      <c r="P248" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q248">
+        <v>8</v>
+      </c>
+      <c r="R248">
+        <v>6</v>
+      </c>
+      <c r="S248">
+        <v>14</v>
+      </c>
+      <c r="T248">
+        <v>2.49</v>
+      </c>
+      <c r="U248">
+        <v>2.19</v>
+      </c>
+      <c r="V248">
+        <v>4.52</v>
+      </c>
+      <c r="W248">
+        <v>1.39</v>
+      </c>
+      <c r="X248">
+        <v>2.9</v>
+      </c>
+      <c r="Y248">
+        <v>2.78</v>
+      </c>
+      <c r="Z248">
+        <v>1.42</v>
+      </c>
+      <c r="AA248">
+        <v>7.1</v>
+      </c>
+      <c r="AB248">
+        <v>1.08</v>
+      </c>
+      <c r="AC248">
+        <v>1.96</v>
+      </c>
+      <c r="AD248">
+        <v>3.58</v>
+      </c>
+      <c r="AE248">
+        <v>3.8</v>
+      </c>
+      <c r="AF248">
+        <v>1.05</v>
+      </c>
+      <c r="AG248">
+        <v>11.75</v>
+      </c>
+      <c r="AH248">
+        <v>1.29</v>
+      </c>
+      <c r="AI248">
+        <v>3.65</v>
+      </c>
+      <c r="AJ248">
+        <v>1.97</v>
+      </c>
+      <c r="AK248">
+        <v>1.83</v>
+      </c>
+      <c r="AL248">
+        <v>1.79</v>
+      </c>
+      <c r="AM248">
+        <v>1.98</v>
+      </c>
+      <c r="AN248">
+        <v>1.26</v>
+      </c>
+      <c r="AO248">
+        <v>1.31</v>
+      </c>
+      <c r="AP248">
+        <v>1.85</v>
+      </c>
+      <c r="AQ248">
+        <v>1</v>
+      </c>
+      <c r="AR248">
+        <v>1.4</v>
+      </c>
+      <c r="AS248">
+        <v>1.18</v>
+      </c>
+      <c r="AT248">
+        <v>1.27</v>
+      </c>
+      <c r="AU248">
+        <v>1.93</v>
+      </c>
+      <c r="AV248">
+        <v>1.53</v>
+      </c>
+      <c r="AW248">
+        <v>3.46</v>
+      </c>
+      <c r="AX248">
+        <v>1.32</v>
+      </c>
+      <c r="AY248">
+        <v>9.6</v>
+      </c>
+      <c r="AZ248">
+        <v>4.56</v>
+      </c>
+      <c r="BA248">
+        <v>1.18</v>
+      </c>
+      <c r="BB248">
+        <v>1.32</v>
+      </c>
+      <c r="BC248">
+        <v>1.6</v>
+      </c>
+      <c r="BD248">
+        <v>2.02</v>
+      </c>
+      <c r="BE248">
+        <v>2.62</v>
+      </c>
+      <c r="BF248">
+        <v>4</v>
+      </c>
+      <c r="BG248">
+        <v>4</v>
+      </c>
+      <c r="BH248">
+        <v>13</v>
+      </c>
+      <c r="BI248">
+        <v>10</v>
+      </c>
+      <c r="BJ248">
+        <v>17</v>
+      </c>
+      <c r="BK248">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:63">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>2608381</v>
+      </c>
+      <c r="C249" t="s">
+        <v>63</v>
+      </c>
+      <c r="D249" t="s">
+        <v>64</v>
+      </c>
+      <c r="E249" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F249">
+        <v>21</v>
+      </c>
+      <c r="G249" t="s">
+        <v>69</v>
+      </c>
+      <c r="H249" t="s">
+        <v>71</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
+      </c>
+      <c r="L249">
+        <v>2</v>
+      </c>
+      <c r="M249">
+        <v>1</v>
+      </c>
+      <c r="N249">
+        <v>3</v>
+      </c>
+      <c r="O249" t="s">
+        <v>244</v>
+      </c>
+      <c r="P249" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q249">
+        <v>8</v>
+      </c>
+      <c r="R249">
+        <v>3</v>
+      </c>
+      <c r="S249">
+        <v>11</v>
+      </c>
+      <c r="T249">
+        <v>2.94</v>
+      </c>
+      <c r="U249">
+        <v>2.12</v>
+      </c>
+      <c r="V249">
+        <v>3.74</v>
+      </c>
+      <c r="W249">
+        <v>1.41</v>
+      </c>
+      <c r="X249">
+        <v>2.82</v>
+      </c>
+      <c r="Y249">
+        <v>2.9</v>
+      </c>
+      <c r="Z249">
+        <v>1.39</v>
+      </c>
+      <c r="AA249">
+        <v>7.5</v>
+      </c>
+      <c r="AB249">
+        <v>1.08</v>
+      </c>
+      <c r="AC249">
+        <v>2.34</v>
+      </c>
+      <c r="AD249">
+        <v>3.42</v>
+      </c>
+      <c r="AE249">
+        <v>3.01</v>
+      </c>
+      <c r="AF249">
+        <v>1.06</v>
+      </c>
+      <c r="AG249">
+        <v>10.75</v>
+      </c>
+      <c r="AH249">
+        <v>1.33</v>
+      </c>
+      <c r="AI249">
+        <v>3.38</v>
+      </c>
+      <c r="AJ249">
+        <v>2</v>
+      </c>
+      <c r="AK249">
+        <v>1.81</v>
+      </c>
+      <c r="AL249">
+        <v>1.78</v>
+      </c>
+      <c r="AM249">
+        <v>1.99</v>
+      </c>
+      <c r="AN249">
+        <v>1.41</v>
+      </c>
+      <c r="AO249">
+        <v>1.33</v>
+      </c>
+      <c r="AP249">
+        <v>1.57</v>
+      </c>
+      <c r="AQ249">
+        <v>0.6</v>
+      </c>
+      <c r="AR249">
+        <v>1.2</v>
+      </c>
+      <c r="AS249">
+        <v>0.82</v>
+      </c>
+      <c r="AT249">
+        <v>1.09</v>
+      </c>
+      <c r="AU249">
+        <v>1.33</v>
+      </c>
+      <c r="AV249">
+        <v>1.18</v>
+      </c>
+      <c r="AW249">
+        <v>2.51</v>
+      </c>
+      <c r="AX249">
+        <v>1.67</v>
+      </c>
+      <c r="AY249">
+        <v>7.7</v>
+      </c>
+      <c r="AZ249">
+        <v>2.84</v>
+      </c>
+      <c r="BA249">
+        <v>1.33</v>
+      </c>
+      <c r="BB249">
+        <v>1.64</v>
+      </c>
+      <c r="BC249">
+        <v>2.12</v>
+      </c>
+      <c r="BD249">
+        <v>2.81</v>
+      </c>
+      <c r="BE249">
+        <v>3.94</v>
+      </c>
+      <c r="BF249">
+        <v>4</v>
+      </c>
+      <c r="BG249">
+        <v>2</v>
+      </c>
+      <c r="BH249">
+        <v>16</v>
+      </c>
+      <c r="BI249">
+        <v>3</v>
+      </c>
+      <c r="BJ249">
+        <v>20</v>
+      </c>
+      <c r="BK249">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:63">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>2608372</v>
+      </c>
+      <c r="C250" t="s">
+        <v>63</v>
+      </c>
+      <c r="D250" t="s">
+        <v>64</v>
+      </c>
+      <c r="E250" s="2">
+        <v>44878.39583333334</v>
+      </c>
+      <c r="F250">
+        <v>21</v>
+      </c>
+      <c r="G250" t="s">
+        <v>83</v>
+      </c>
+      <c r="H250" t="s">
+        <v>72</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>3</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>3</v>
+      </c>
+      <c r="O250" t="s">
+        <v>245</v>
+      </c>
+      <c r="P250" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q250">
+        <v>7</v>
+      </c>
+      <c r="R250">
+        <v>3</v>
+      </c>
+      <c r="S250">
+        <v>10</v>
+      </c>
+      <c r="T250">
+        <v>2.3</v>
+      </c>
+      <c r="U250">
+        <v>2.2</v>
+      </c>
+      <c r="V250">
+        <v>5</v>
+      </c>
+      <c r="W250">
+        <v>1.4</v>
+      </c>
+      <c r="X250">
+        <v>2.75</v>
+      </c>
+      <c r="Y250">
+        <v>2.75</v>
+      </c>
+      <c r="Z250">
+        <v>1.4</v>
+      </c>
+      <c r="AA250">
+        <v>8</v>
+      </c>
+      <c r="AB250">
+        <v>1.08</v>
+      </c>
+      <c r="AC250">
+        <v>1.8</v>
+      </c>
+      <c r="AD250">
+        <v>3.5</v>
+      </c>
+      <c r="AE250">
+        <v>4.5</v>
+      </c>
+      <c r="AF250">
+        <v>1.05</v>
+      </c>
+      <c r="AG250">
+        <v>11</v>
+      </c>
+      <c r="AH250">
+        <v>1.3</v>
+      </c>
+      <c r="AI250">
+        <v>3.6</v>
+      </c>
+      <c r="AJ250">
+        <v>1.95</v>
+      </c>
+      <c r="AK250">
+        <v>1.9</v>
+      </c>
+      <c r="AL250">
+        <v>1.83</v>
+      </c>
+      <c r="AM250">
+        <v>1.83</v>
+      </c>
+      <c r="AN250">
+        <v>1.18</v>
+      </c>
+      <c r="AO250">
+        <v>1.27</v>
+      </c>
+      <c r="AP250">
+        <v>2.05</v>
+      </c>
+      <c r="AQ250">
+        <v>2.2</v>
+      </c>
+      <c r="AR250">
+        <v>1.2</v>
+      </c>
+      <c r="AS250">
+        <v>2.27</v>
+      </c>
+      <c r="AT250">
+        <v>1.09</v>
+      </c>
+      <c r="AU250">
+        <v>1.81</v>
+      </c>
+      <c r="AV250">
+        <v>0.99</v>
+      </c>
+      <c r="AW250">
+        <v>2.8</v>
+      </c>
+      <c r="AX250">
+        <v>1.51</v>
+      </c>
+      <c r="AY250">
+        <v>8.5</v>
+      </c>
+      <c r="AZ250">
+        <v>3.07</v>
+      </c>
+      <c r="BA250">
+        <v>1.18</v>
+      </c>
+      <c r="BB250">
+        <v>1.31</v>
+      </c>
+      <c r="BC250">
+        <v>1.55</v>
+      </c>
+      <c r="BD250">
+        <v>1.95</v>
+      </c>
+      <c r="BE250">
+        <v>2.6</v>
+      </c>
+      <c r="BF250">
+        <v>8</v>
+      </c>
+      <c r="BG250">
+        <v>0</v>
+      </c>
+      <c r="BH250">
+        <v>7</v>
+      </c>
+      <c r="BI250">
+        <v>3</v>
+      </c>
+      <c r="BJ250">
+        <v>15</v>
+      </c>
+      <c r="BK250">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK250"/>
+  <dimension ref="A1:BK251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT12" t="n">
         <v>1.3</v>
@@ -4151,7 +4151,7 @@
         <v>1.8</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT29" t="n">
         <v>1.27</v>
@@ -8008,7 +8008,7 @@
         <v>1.7</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU37" t="n">
         <v>0.03</v>
@@ -10241,7 +10241,7 @@
         <v>1.64</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU48" t="n">
         <v>2.56</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT60" t="n">
         <v>1.4</v>
@@ -15316,7 +15316,7 @@
         <v>2.27</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU73" t="n">
         <v>1.66</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT79" t="n">
         <v>1</v>
@@ -24857,7 +24857,7 @@
         <v>2.4</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU120" t="n">
         <v>1.52</v>
@@ -26275,7 +26275,7 @@
         <v>2</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT127" t="n">
         <v>1.8</v>
@@ -27087,7 +27087,7 @@
         <v>1.17</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT131" t="n">
         <v>1.09</v>
@@ -28511,7 +28511,7 @@
         <v>1.5</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU138" t="n">
         <v>1.58</v>
@@ -32771,7 +32771,7 @@
         <v>2.17</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT159" t="n">
         <v>1.4</v>
@@ -34195,7 +34195,7 @@
         <v>1.36</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU166" t="n">
         <v>1.42</v>
@@ -38252,7 +38252,7 @@
         <v>1.63</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT186" t="n">
         <v>1.6</v>
@@ -41503,7 +41503,7 @@
         <v>1.27</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU202" t="n">
         <v>1.21</v>
@@ -44751,7 +44751,7 @@
         <v>1.27</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU218" t="n">
         <v>1.38</v>
@@ -46169,7 +46169,7 @@
         <v>0.78</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT225" t="n">
         <v>1</v>
@@ -50638,7 +50638,7 @@
         <v>1.18</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU247" t="n">
         <v>1.48</v>
@@ -51299,6 +51299,209 @@
       </c>
       <c r="BK250" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2608235</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>44898.39583333334</v>
+      </c>
+      <c r="F251" t="n">
+        <v>9</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>3</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>3</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['53', '58', '90+3']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>1</v>
+      </c>
+      <c r="R251" t="n">
+        <v>8</v>
+      </c>
+      <c r="S251" t="n">
+        <v>9</v>
+      </c>
+      <c r="T251" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U251" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V251" t="n">
+        <v>4</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X251" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK251"/>
+  <dimension ref="A1:BK260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT3" t="n">
         <v>1.27</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT4" t="n">
         <v>1.27</v>
@@ -1512,7 +1512,7 @@
         <v>1.18</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>0.82</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.27</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT9" t="n">
         <v>1.27</v>
@@ -2527,7 +2527,7 @@
         <v>1.09</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT11" t="n">
         <v>1.11</v>
@@ -2933,7 +2933,7 @@
         <v>1.3</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.27</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.64</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT16" t="n">
         <v>1.09</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT17" t="n">
         <v>1.09</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT18" t="n">
         <v>0.82</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -4557,7 +4557,7 @@
         <v>2.27</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>1.27</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU26" t="n">
         <v>0.72</v>
@@ -5978,7 +5978,7 @@
         <v>0.82</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU27" t="n">
         <v>1.72</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT28" t="n">
         <v>0.91</v>
@@ -6587,7 +6587,7 @@
         <v>1.18</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU30" t="n">
         <v>1.9</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU31" t="n">
         <v>1.62</v>
@@ -6993,7 +6993,7 @@
         <v>1.09</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU32" t="n">
         <v>1.6</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT35" t="n">
         <v>1.82</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT36" t="n">
         <v>1.11</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT37" t="n">
         <v>0.82</v>
@@ -8414,7 +8414,7 @@
         <v>1.36</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU39" t="n">
         <v>0.63</v>
@@ -8820,7 +8820,7 @@
         <v>1.64</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU41" t="n">
         <v>2.37</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT44" t="n">
         <v>1.18</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT45" t="n">
         <v>1.55</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT46" t="n">
         <v>1.09</v>
@@ -10644,10 +10644,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU50" t="n">
         <v>1.11</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT51" t="n">
         <v>1.55</v>
@@ -11050,7 +11050,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT52" t="n">
         <v>1.09</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT53" t="n">
         <v>1.18</v>
@@ -12068,7 +12068,7 @@
         <v>1.27</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU57" t="n">
         <v>1.57</v>
@@ -12677,7 +12677,7 @@
         <v>1.3</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU60" t="n">
         <v>1.51</v>
@@ -12877,7 +12877,7 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT61" t="n">
         <v>1.27</v>
@@ -13283,10 +13283,10 @@
         <v>0.5</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU63" t="n">
         <v>1.47</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT64" t="n">
         <v>0.91</v>
@@ -14098,7 +14098,7 @@
         <v>1.27</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU67" t="n">
         <v>1.06</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU68" t="n">
         <v>1.27</v>
@@ -14501,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT69" t="n">
         <v>1.27</v>
@@ -14707,7 +14707,7 @@
         <v>1.09</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU70" t="n">
         <v>1.38</v>
@@ -15113,7 +15113,7 @@
         <v>1.27</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU72" t="n">
         <v>1.43</v>
@@ -15519,7 +15519,7 @@
         <v>1.27</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU74" t="n">
         <v>1.45</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT75" t="n">
         <v>0.91</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT78" t="n">
         <v>1.27</v>
@@ -16737,7 +16737,7 @@
         <v>1.36</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.25</v>
@@ -16940,7 +16940,7 @@
         <v>1.78</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU81" t="n">
         <v>0</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT84" t="n">
         <v>1.27</v>
@@ -17749,7 +17749,7 @@
         <v>1.33</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT85" t="n">
         <v>1.27</v>
@@ -17955,7 +17955,7 @@
         <v>1.18</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU86" t="n">
         <v>1.98</v>
@@ -18158,7 +18158,7 @@
         <v>1.64</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU87" t="n">
         <v>2.31</v>
@@ -18358,7 +18358,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT88" t="n">
         <v>1</v>
@@ -18564,7 +18564,7 @@
         <v>1.18</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU89" t="n">
         <v>1.95</v>
@@ -18764,10 +18764,10 @@
         <v>0.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU90" t="n">
         <v>1.39</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT91" t="n">
         <v>1.27</v>
@@ -19576,7 +19576,7 @@
         <v>2</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT94" t="n">
         <v>1.55</v>
@@ -19982,7 +19982,7 @@
         <v>0.25</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT96" t="n">
         <v>1</v>
@@ -20185,7 +20185,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT97" t="n">
         <v>1.82</v>
@@ -20388,7 +20388,7 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT98" t="n">
         <v>1.27</v>
@@ -20594,7 +20594,7 @@
         <v>1.27</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU99" t="n">
         <v>1.14</v>
@@ -20997,7 +20997,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT101" t="n">
         <v>1.09</v>
@@ -21203,7 +21203,7 @@
         <v>1.64</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU102" t="n">
         <v>2.23</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT103" t="n">
         <v>1.27</v>
@@ -21609,7 +21609,7 @@
         <v>1.18</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU104" t="n">
         <v>1.89</v>
@@ -21812,7 +21812,7 @@
         <v>1.18</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU105" t="n">
         <v>2.31</v>
@@ -22012,7 +22012,7 @@
         <v>1.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT106" t="n">
         <v>1.55</v>
@@ -22215,7 +22215,7 @@
         <v>0.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT107" t="n">
         <v>1.2</v>
@@ -22421,7 +22421,7 @@
         <v>1.27</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU108" t="n">
         <v>1.37</v>
@@ -23030,7 +23030,7 @@
         <v>2.27</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU111" t="n">
         <v>1.84</v>
@@ -23230,7 +23230,7 @@
         <v>1.4</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT112" t="n">
         <v>1.09</v>
@@ -24448,7 +24448,7 @@
         <v>0.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT118" t="n">
         <v>1</v>
@@ -24654,7 +24654,7 @@
         <v>1.09</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU119" t="n">
         <v>1.42</v>
@@ -24854,7 +24854,7 @@
         <v>0.25</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT120" t="n">
         <v>0.82</v>
@@ -25060,7 +25060,7 @@
         <v>1</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU121" t="n">
         <v>1.46</v>
@@ -25666,10 +25666,10 @@
         <v>0</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU124" t="n">
         <v>1.19</v>
@@ -25869,10 +25869,10 @@
         <v>2.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU125" t="n">
         <v>1.59</v>
@@ -26278,7 +26278,7 @@
         <v>1.3</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU127" t="n">
         <v>1.66</v>
@@ -26478,10 +26478,10 @@
         <v>1.4</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU128" t="n">
         <v>2.16</v>
@@ -26884,7 +26884,7 @@
         <v>0.8</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT130" t="n">
         <v>1.27</v>
@@ -27290,7 +27290,7 @@
         <v>1.67</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT132" t="n">
         <v>1.27</v>
@@ -27496,7 +27496,7 @@
         <v>1.18</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU133" t="n">
         <v>1.79</v>
@@ -27699,7 +27699,7 @@
         <v>1.36</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU134" t="n">
         <v>1.35</v>
@@ -28102,10 +28102,10 @@
         <v>1.8</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU136" t="n">
         <v>1.24</v>
@@ -28508,7 +28508,7 @@
         <v>0.2</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT138" t="n">
         <v>0.82</v>
@@ -28711,10 +28711,10 @@
         <v>1.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU139" t="n">
         <v>1.27</v>
@@ -28917,7 +28917,7 @@
         <v>1.09</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU140" t="n">
         <v>1.39</v>
@@ -30135,7 +30135,7 @@
         <v>1.27</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU146" t="n">
         <v>1.38</v>
@@ -30338,7 +30338,7 @@
         <v>1.64</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU147" t="n">
         <v>1.96</v>
@@ -30538,7 +30538,7 @@
         <v>1.83</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT148" t="n">
         <v>1.82</v>
@@ -30741,7 +30741,7 @@
         <v>1.67</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT149" t="n">
         <v>1.55</v>
@@ -30947,7 +30947,7 @@
         <v>1.18</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU150" t="n">
         <v>2.18</v>
@@ -31147,7 +31147,7 @@
         <v>0.2</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT151" t="n">
         <v>1.18</v>
@@ -31350,7 +31350,7 @@
         <v>0.75</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT152" t="n">
         <v>1</v>
@@ -32165,7 +32165,7 @@
         <v>1.36</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU156" t="n">
         <v>1.37</v>
@@ -32365,10 +32365,10 @@
         <v>0.2</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU157" t="n">
         <v>1.52</v>
@@ -32774,7 +32774,7 @@
         <v>1.3</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU159" t="n">
         <v>1.59</v>
@@ -32974,7 +32974,7 @@
         <v>1.14</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT160" t="n">
         <v>1.09</v>
@@ -33180,7 +33180,7 @@
         <v>1.27</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU161" t="n">
         <v>1.57</v>
@@ -33786,7 +33786,7 @@
         <v>0.86</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT164" t="n">
         <v>1.09</v>
@@ -33989,7 +33989,7 @@
         <v>0.67</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT165" t="n">
         <v>1.11</v>
@@ -34398,7 +34398,7 @@
         <v>1.9</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU167" t="n">
         <v>1.32</v>
@@ -34601,7 +34601,7 @@
         <v>1.09</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU168" t="n">
         <v>1.43</v>
@@ -34804,7 +34804,7 @@
         <v>1.64</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU169" t="n">
         <v>2.01</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT170" t="n">
         <v>0.91</v>
@@ -35210,7 +35210,7 @@
         <v>1.27</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU171" t="n">
         <v>1.25</v>
@@ -35413,7 +35413,7 @@
         <v>1.18</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU172" t="n">
         <v>2.08</v>
@@ -35613,7 +35613,7 @@
         <v>0.6</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT173" t="n">
         <v>1</v>
@@ -35816,7 +35816,7 @@
         <v>1.43</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT174" t="n">
         <v>1.55</v>
@@ -37034,7 +37034,7 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT180" t="n">
         <v>1.27</v>
@@ -37240,7 +37240,7 @@
         <v>1</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU181" t="n">
         <v>1.54</v>
@@ -37440,7 +37440,7 @@
         <v>0.71</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT182" t="n">
         <v>1.2</v>
@@ -37643,7 +37643,7 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT183" t="n">
         <v>1.11</v>
@@ -37846,10 +37846,10 @@
         <v>0.17</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU184" t="n">
         <v>1.44</v>
@@ -38049,10 +38049,10 @@
         <v>1.43</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU185" t="n">
         <v>2.2</v>
@@ -38455,10 +38455,10 @@
         <v>1.38</v>
       </c>
       <c r="AS187" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU187" t="n">
         <v>1.52</v>
@@ -38661,7 +38661,7 @@
         <v>1.7</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU188" t="n">
         <v>1.74</v>
@@ -38861,10 +38861,10 @@
         <v>1</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU189" t="n">
         <v>1.33</v>
@@ -39064,10 +39064,10 @@
         <v>0.88</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU190" t="n">
         <v>1.86</v>
@@ -39267,7 +39267,7 @@
         <v>0.88</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT191" t="n">
         <v>1</v>
@@ -39473,7 +39473,7 @@
         <v>1.9</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU192" t="n">
         <v>1.41</v>
@@ -39879,7 +39879,7 @@
         <v>2.27</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU194" t="n">
         <v>1.77</v>
@@ -44951,10 +44951,10 @@
         <v>1.67</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU219" t="n">
         <v>1.36</v>
@@ -45154,7 +45154,7 @@
         <v>1.78</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT220" t="n">
         <v>1.6</v>
@@ -45357,10 +45357,10 @@
         <v>1.22</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU221" t="n">
         <v>1.81</v>
@@ -45563,7 +45563,7 @@
         <v>1.9</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU222" t="n">
         <v>1.48</v>
@@ -45763,10 +45763,10 @@
         <v>1.22</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU223" t="n">
         <v>1.51</v>
@@ -46372,7 +46372,7 @@
         <v>1</v>
       </c>
       <c r="AS226" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT226" t="n">
         <v>1.2</v>
@@ -46575,10 +46575,10 @@
         <v>1.63</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU227" t="n">
         <v>1.5</v>
@@ -46778,10 +46778,10 @@
         <v>0.89</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU228" t="n">
         <v>1.43</v>
@@ -46981,10 +46981,10 @@
         <v>0.29</v>
       </c>
       <c r="AS229" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU229" t="n">
         <v>1.46</v>
@@ -47187,7 +47187,7 @@
         <v>1</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU230" t="n">
         <v>1.53</v>
@@ -47387,7 +47387,7 @@
         <v>0.78</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT231" t="n">
         <v>1</v>
@@ -47593,7 +47593,7 @@
         <v>1.7</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU232" t="n">
         <v>1.64</v>
@@ -48405,7 +48405,7 @@
         <v>1.78</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU236" t="n">
         <v>1.42</v>
@@ -48605,10 +48605,10 @@
         <v>1.89</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU237" t="n">
         <v>1.8</v>
@@ -51502,6 +51502,1833 @@
       </c>
       <c r="BK251" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2608382</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>44905.375</v>
+      </c>
+      <c r="F252" t="n">
+        <v>22</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Blackburn Rovers</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Preston North End</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1</v>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="n">
+        <v>4</v>
+      </c>
+      <c r="N252" t="n">
+        <v>5</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>['17', '47', '63', '65']</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>2</v>
+      </c>
+      <c r="R252" t="n">
+        <v>2</v>
+      </c>
+      <c r="S252" t="n">
+        <v>4</v>
+      </c>
+      <c r="T252" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V252" t="n">
+        <v>4</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X252" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2608388</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>44905.39583333334</v>
+      </c>
+      <c r="F253" t="n">
+        <v>22</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Rotherham United</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>1</v>
+      </c>
+      <c r="J253" t="n">
+        <v>2</v>
+      </c>
+      <c r="K253" t="n">
+        <v>3</v>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="n">
+        <v>3</v>
+      </c>
+      <c r="N253" t="n">
+        <v>4</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['14', '30', '73']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>7</v>
+      </c>
+      <c r="R253" t="n">
+        <v>9</v>
+      </c>
+      <c r="S253" t="n">
+        <v>16</v>
+      </c>
+      <c r="T253" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V253" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X253" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2608387</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>44905.45833333334</v>
+      </c>
+      <c r="F254" t="n">
+        <v>22</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Coventry City</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>1</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>4</v>
+      </c>
+      <c r="R254" t="n">
+        <v>4</v>
+      </c>
+      <c r="S254" t="n">
+        <v>8</v>
+      </c>
+      <c r="T254" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U254" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V254" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X254" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2608390</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>44905.5</v>
+      </c>
+      <c r="F255" t="n">
+        <v>22</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Stoke City</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Cardiff City</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>2</v>
+      </c>
+      <c r="J255" t="n">
+        <v>1</v>
+      </c>
+      <c r="K255" t="n">
+        <v>3</v>
+      </c>
+      <c r="L255" t="n">
+        <v>2</v>
+      </c>
+      <c r="M255" t="n">
+        <v>2</v>
+      </c>
+      <c r="N255" t="n">
+        <v>4</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>['11', '18']</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>['6', '58']</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>6</v>
+      </c>
+      <c r="R255" t="n">
+        <v>5</v>
+      </c>
+      <c r="S255" t="n">
+        <v>11</v>
+      </c>
+      <c r="T255" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U255" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V255" t="n">
+        <v>4</v>
+      </c>
+      <c r="W255" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X255" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF255" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG255" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH255" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ255" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2608389</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>44905.5</v>
+      </c>
+      <c r="F256" t="n">
+        <v>22</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Sheffield United</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Huddersfield Town</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>1</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>1</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q256" t="n">
+        <v>10</v>
+      </c>
+      <c r="R256" t="n">
+        <v>1</v>
+      </c>
+      <c r="S256" t="n">
+        <v>11</v>
+      </c>
+      <c r="T256" t="n">
+        <v>2</v>
+      </c>
+      <c r="U256" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V256" t="n">
+        <v>6</v>
+      </c>
+      <c r="W256" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X256" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC256" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF256" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG256" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH256" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ256" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2608392</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>44905.5</v>
+      </c>
+      <c r="F257" t="n">
+        <v>22</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Swansea City</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Norwich City</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>1</v>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="n">
+        <v>1</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="Q257" t="n">
+        <v>7</v>
+      </c>
+      <c r="R257" t="n">
+        <v>4</v>
+      </c>
+      <c r="S257" t="n">
+        <v>11</v>
+      </c>
+      <c r="T257" t="n">
+        <v>3</v>
+      </c>
+      <c r="U257" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V257" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W257" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X257" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ257" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA257" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC257" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD257" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE257" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF257" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG257" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH257" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ257" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK257" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2608384</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>44905.5</v>
+      </c>
+      <c r="F258" t="n">
+        <v>22</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Luton Town</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>1</v>
+      </c>
+      <c r="J258" t="n">
+        <v>1</v>
+      </c>
+      <c r="K258" t="n">
+        <v>2</v>
+      </c>
+      <c r="L258" t="n">
+        <v>2</v>
+      </c>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="n">
+        <v>3</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>['38', '90+1']</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q258" t="n">
+        <v>3</v>
+      </c>
+      <c r="R258" t="n">
+        <v>2</v>
+      </c>
+      <c r="S258" t="n">
+        <v>5</v>
+      </c>
+      <c r="T258" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U258" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V258" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W258" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X258" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA258" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB258" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC258" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD258" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF258" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG258" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH258" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI258" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ258" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK258" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2608383</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>44905.5</v>
+      </c>
+      <c r="F259" t="n">
+        <v>22</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Birmingham City</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q259" t="n">
+        <v>2</v>
+      </c>
+      <c r="R259" t="n">
+        <v>6</v>
+      </c>
+      <c r="S259" t="n">
+        <v>8</v>
+      </c>
+      <c r="T259" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U259" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V259" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W259" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X259" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ259" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA259" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB259" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC259" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD259" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE259" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG259" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH259" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI259" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ259" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK259" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2608385</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>44905.5</v>
+      </c>
+      <c r="F260" t="n">
+        <v>22</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Wigan Athletic</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>1</v>
+      </c>
+      <c r="J260" t="n">
+        <v>1</v>
+      </c>
+      <c r="K260" t="n">
+        <v>2</v>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="n">
+        <v>2</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q260" t="n">
+        <v>4</v>
+      </c>
+      <c r="R260" t="n">
+        <v>3</v>
+      </c>
+      <c r="S260" t="n">
+        <v>7</v>
+      </c>
+      <c r="T260" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U260" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V260" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W260" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X260" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC260" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD260" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF260" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG260" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH260" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ260" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK260" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK260"/>
+  <dimension ref="A1:BK263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.27</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.55</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT12" t="n">
         <v>1.18</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT13" t="n">
         <v>1.82</v>
@@ -4760,7 +4760,7 @@
         <v>1.18</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT23" t="n">
         <v>1.18</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU25" t="n">
         <v>1.47</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT29" t="n">
         <v>1.27</v>
@@ -7805,7 +7805,7 @@
         <v>2.18</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU36" t="n">
         <v>1.48</v>
@@ -8617,7 +8617,7 @@
         <v>2.27</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU40" t="n">
         <v>1.59</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT43" t="n">
         <v>1.09</v>
@@ -10444,7 +10444,7 @@
         <v>1.18</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU49" t="n">
         <v>2</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT54" t="n">
         <v>1</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT60" t="n">
         <v>1.55</v>
@@ -13083,7 +13083,7 @@
         <v>0.82</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU62" t="n">
         <v>1.58</v>
@@ -13689,7 +13689,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT65" t="n">
         <v>1.27</v>
@@ -13895,7 +13895,7 @@
         <v>1.27</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU66" t="n">
         <v>0.88</v>
@@ -14907,10 +14907,10 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU71" t="n">
         <v>1.72</v>
@@ -15925,7 +15925,7 @@
         <v>0.82</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU76" t="n">
         <v>1.63</v>
@@ -16125,7 +16125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT77" t="n">
         <v>1.18</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT79" t="n">
         <v>1</v>
@@ -17346,7 +17346,7 @@
         <v>1.18</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU83" t="n">
         <v>2.15</v>
@@ -20797,7 +20797,7 @@
         <v>1.18</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU100" t="n">
         <v>1.81</v>
@@ -22218,7 +22218,7 @@
         <v>1.55</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU107" t="n">
         <v>1.31</v>
@@ -23433,7 +23433,7 @@
         <v>1.2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT113" t="n">
         <v>1.27</v>
@@ -23636,7 +23636,7 @@
         <v>1.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT114" t="n">
         <v>1.55</v>
@@ -24248,7 +24248,7 @@
         <v>1.64</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU117" t="n">
         <v>2.07</v>
@@ -25466,7 +25466,7 @@
         <v>1.27</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU123" t="n">
         <v>1.51</v>
@@ -26275,7 +26275,7 @@
         <v>2</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT127" t="n">
         <v>1.91</v>
@@ -27087,7 +27087,7 @@
         <v>1.17</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT131" t="n">
         <v>1.09</v>
@@ -29117,7 +29117,7 @@
         <v>1.6</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT141" t="n">
         <v>1.27</v>
@@ -29323,7 +29323,7 @@
         <v>1.18</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU142" t="n">
         <v>1.69</v>
@@ -29523,7 +29523,7 @@
         <v>1.2</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT143" t="n">
         <v>0.91</v>
@@ -29729,7 +29729,7 @@
         <v>1.78</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU144" t="n">
         <v>1.35</v>
@@ -31759,7 +31759,7 @@
         <v>1.27</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU154" t="n">
         <v>1.27</v>
@@ -32771,7 +32771,7 @@
         <v>2.17</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT159" t="n">
         <v>1.36</v>
@@ -33992,7 +33992,7 @@
         <v>2</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU165" t="n">
         <v>1.25</v>
@@ -34395,7 +34395,7 @@
         <v>1.67</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT167" t="n">
         <v>1.55</v>
@@ -36022,7 +36022,7 @@
         <v>1</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU175" t="n">
         <v>1.63</v>
@@ -36222,7 +36222,7 @@
         <v>1</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT176" t="n">
         <v>1</v>
@@ -36834,7 +36834,7 @@
         <v>1.27</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU179" t="n">
         <v>1.43</v>
@@ -37443,7 +37443,7 @@
         <v>1.36</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU182" t="n">
         <v>1.51</v>
@@ -37646,7 +37646,7 @@
         <v>2.09</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU183" t="n">
         <v>1.61</v>
@@ -38252,10 +38252,10 @@
         <v>1.63</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU186" t="n">
         <v>1.55</v>
@@ -38658,7 +38658,7 @@
         <v>1.86</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT188" t="n">
         <v>1.36</v>
@@ -39470,7 +39470,7 @@
         <v>2</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT192" t="n">
         <v>1.55</v>
@@ -45157,7 +45157,7 @@
         <v>1.91</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU220" t="n">
         <v>2.22</v>
@@ -45560,7 +45560,7 @@
         <v>1.11</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT222" t="n">
         <v>1.18</v>
@@ -45966,10 +45966,10 @@
         <v>0.88</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU224" t="n">
         <v>1.69</v>
@@ -46169,7 +46169,7 @@
         <v>0.78</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT225" t="n">
         <v>1</v>
@@ -46375,7 +46375,7 @@
         <v>2.09</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU226" t="n">
         <v>1.65</v>
@@ -47590,7 +47590,7 @@
         <v>0.25</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT232" t="n">
         <v>0.5</v>
@@ -47796,7 +47796,7 @@
         <v>1.27</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU233" t="n">
         <v>1.59</v>
@@ -48808,7 +48808,7 @@
         <v>0.78</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT238" t="n">
         <v>0.91</v>
@@ -51447,7 +51447,7 @@
         <v>0.9</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT251" t="n">
         <v>0.82</v>
@@ -53329,6 +53329,615 @@
       </c>
       <c r="BK260" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2608386</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>44906.41666666666</v>
+      </c>
+      <c r="F261" t="n">
+        <v>22</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Queens Park Rangers</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>2</v>
+      </c>
+      <c r="K261" t="n">
+        <v>2</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>3</v>
+      </c>
+      <c r="N261" t="n">
+        <v>3</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>['19', '45+2', '71']</t>
+        </is>
+      </c>
+      <c r="Q261" t="n">
+        <v>2</v>
+      </c>
+      <c r="R261" t="n">
+        <v>5</v>
+      </c>
+      <c r="S261" t="n">
+        <v>7</v>
+      </c>
+      <c r="T261" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U261" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V261" t="n">
+        <v>3</v>
+      </c>
+      <c r="W261" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X261" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC261" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD261" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF261" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG261" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH261" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ261" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK261" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2608393</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>44906.5</v>
+      </c>
+      <c r="F262" t="n">
+        <v>22</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Hull City</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q262" t="n">
+        <v>7</v>
+      </c>
+      <c r="R262" t="n">
+        <v>5</v>
+      </c>
+      <c r="S262" t="n">
+        <v>12</v>
+      </c>
+      <c r="T262" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U262" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V262" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W262" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X262" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2608391</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>44907.70833333334</v>
+      </c>
+      <c r="F263" t="n">
+        <v>22</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>West Bromwich Albion</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>1</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="n">
+        <v>2</v>
+      </c>
+      <c r="N263" t="n">
+        <v>3</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>['70', '82']</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
+        <v>5</v>
+      </c>
+      <c r="R263" t="n">
+        <v>5</v>
+      </c>
+      <c r="S263" t="n">
+        <v>10</v>
+      </c>
+      <c r="T263" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U263" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V263" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X263" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG263" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH263" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK263" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK263"/>
+  <dimension ref="A1:BK275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT2" t="n">
         <v>1.73</v>
@@ -1106,7 +1106,7 @@
         <v>1.36</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>2.09</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT6" t="n">
         <v>1.91</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT7" t="n">
         <v>1.55</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2.18</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT10" t="n">
         <v>1.09</v>
@@ -2730,7 +2730,7 @@
         <v>1.55</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.82</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT14" t="n">
         <v>0.5</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT15" t="n">
         <v>1.36</v>
@@ -3745,7 +3745,7 @@
         <v>1.55</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.09</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT20" t="n">
         <v>1.55</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT21" t="n">
         <v>1.18</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>1.55</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT26" t="n">
         <v>1.36</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT27" t="n">
         <v>1.09</v>
@@ -6181,7 +6181,7 @@
         <v>1.36</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU28" t="n">
         <v>1.54</v>
@@ -6384,7 +6384,7 @@
         <v>1.18</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU29" t="n">
         <v>1.31</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT32" t="n">
         <v>1.55</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU33" t="n">
         <v>0.37</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU34" t="n">
         <v>1.26</v>
@@ -7602,7 +7602,7 @@
         <v>1.55</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU35" t="n">
         <v>1.69</v>
@@ -7805,7 +7805,7 @@
         <v>2.18</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU36" t="n">
         <v>1.48</v>
@@ -8208,10 +8208,10 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU38" t="n">
         <v>1.91</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT39" t="n">
         <v>1.55</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT40" t="n">
         <v>1.18</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
         <v>0.5</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT42" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU42" t="n">
         <v>2.35</v>
@@ -9226,7 +9226,7 @@
         <v>1.55</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU43" t="n">
         <v>1.52</v>
@@ -9429,7 +9429,7 @@
         <v>1.09</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU44" t="n">
         <v>1.33</v>
@@ -9632,7 +9632,7 @@
         <v>1.91</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU45" t="n">
         <v>1</v>
@@ -9835,7 +9835,7 @@
         <v>2</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU46" t="n">
         <v>1.13</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT47" t="n">
         <v>1</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT48" t="n">
         <v>0.82</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT49" t="n">
         <v>1.18</v>
@@ -10850,7 +10850,7 @@
         <v>1.09</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU51" t="n">
         <v>1.32</v>
@@ -11053,7 +11053,7 @@
         <v>1.91</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU52" t="n">
         <v>1.78</v>
@@ -11256,7 +11256,7 @@
         <v>2</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU53" t="n">
         <v>1.37</v>
@@ -11459,7 +11459,7 @@
         <v>1.55</v>
       </c>
       <c r="AT54" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU54" t="n">
         <v>1.59</v>
@@ -11659,10 +11659,10 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU55" t="n">
         <v>2.28</v>
@@ -11862,10 +11862,10 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU56" t="n">
         <v>1.72</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT57" t="n">
         <v>1.36</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -12474,7 +12474,7 @@
         <v>1.18</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU59" t="n">
         <v>1.93</v>
@@ -12880,7 +12880,7 @@
         <v>1.55</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU61" t="n">
         <v>1.4</v>
@@ -13080,7 +13080,7 @@
         <v>1.5</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT62" t="n">
         <v>1.73</v>
@@ -13489,7 +13489,7 @@
         <v>2.09</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU64" t="n">
         <v>1.64</v>
@@ -13692,7 +13692,7 @@
         <v>1.82</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU65" t="n">
         <v>1.13</v>
@@ -13892,10 +13892,10 @@
         <v>0.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU66" t="n">
         <v>0.88</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT67" t="n">
         <v>1.91</v>
@@ -14504,7 +14504,7 @@
         <v>2.18</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU69" t="n">
         <v>1.16</v>
@@ -14704,7 +14704,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT70" t="n">
         <v>1.18</v>
@@ -15110,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT72" t="n">
         <v>1.55</v>
@@ -15313,7 +15313,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT73" t="n">
         <v>0.82</v>
@@ -15516,7 +15516,7 @@
         <v>1.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT74" t="n">
         <v>1.55</v>
@@ -15722,7 +15722,7 @@
         <v>1.91</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU75" t="n">
         <v>2.19</v>
@@ -15922,10 +15922,10 @@
         <v>0.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU76" t="n">
         <v>1.63</v>
@@ -16128,7 +16128,7 @@
         <v>1.82</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU77" t="n">
         <v>1.3</v>
@@ -16331,7 +16331,7 @@
         <v>1.09</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU78" t="n">
         <v>1.48</v>
@@ -16534,7 +16534,7 @@
         <v>1.18</v>
       </c>
       <c r="AT79" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU79" t="n">
         <v>1.68</v>
@@ -16734,7 +16734,7 @@
         <v>0</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT80" t="n">
         <v>0.5</v>
@@ -16937,7 +16937,7 @@
         <v>1.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AT81" t="n">
         <v>1.91</v>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU82" t="n">
         <v>1.43</v>
@@ -17343,7 +17343,7 @@
         <v>2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT83" t="n">
         <v>1.73</v>
@@ -17549,7 +17549,7 @@
         <v>1.36</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU84" t="n">
         <v>1.75</v>
@@ -17752,7 +17752,7 @@
         <v>1.55</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU85" t="n">
         <v>1.29</v>
@@ -17952,7 +17952,7 @@
         <v>0.33</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT86" t="n">
         <v>1.36</v>
@@ -18155,7 +18155,7 @@
         <v>0.33</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT87" t="n">
         <v>1.18</v>
@@ -18970,7 +18970,7 @@
         <v>2</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU91" t="n">
         <v>1.28</v>
@@ -19170,10 +19170,10 @@
         <v>0.67</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU92" t="n">
         <v>1.36</v>
@@ -19373,10 +19373,10 @@
         <v>1.33</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU93" t="n">
         <v>0.95</v>
@@ -19579,7 +19579,7 @@
         <v>1.55</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU94" t="n">
         <v>1.28</v>
@@ -19779,10 +19779,10 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU95" t="n">
         <v>1.36</v>
@@ -20188,7 +20188,7 @@
         <v>1.55</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU97" t="n">
         <v>1.32</v>
@@ -20391,7 +20391,7 @@
         <v>2.18</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU98" t="n">
         <v>1.45</v>
@@ -20591,7 +20591,7 @@
         <v>2.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT99" t="n">
         <v>1.36</v>
@@ -20794,7 +20794,7 @@
         <v>1.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT100" t="n">
         <v>1.73</v>
@@ -21000,7 +21000,7 @@
         <v>1.36</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU101" t="n">
         <v>1.63</v>
@@ -21200,7 +21200,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT102" t="n">
         <v>1.09</v>
@@ -21406,7 +21406,7 @@
         <v>2.09</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU103" t="n">
         <v>1.7</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT105" t="n">
         <v>1.36</v>
@@ -22015,7 +22015,7 @@
         <v>2</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU106" t="n">
         <v>1.29</v>
@@ -22418,7 +22418,7 @@
         <v>0.4</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT108" t="n">
         <v>1.18</v>
@@ -22624,7 +22624,7 @@
         <v>1.18</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU109" t="n">
         <v>1.84</v>
@@ -22824,7 +22824,7 @@
         <v>0.8</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT110" t="n">
         <v>1</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT111" t="n">
         <v>1.09</v>
@@ -23233,7 +23233,7 @@
         <v>2.09</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU112" t="n">
         <v>1.65</v>
@@ -23436,7 +23436,7 @@
         <v>1.55</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU113" t="n">
         <v>1.69</v>
@@ -23639,7 +23639,7 @@
         <v>1.82</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU114" t="n">
         <v>1.35</v>
@@ -23839,10 +23839,10 @@
         <v>0.75</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU115" t="n">
         <v>1.48</v>
@@ -24042,10 +24042,10 @@
         <v>1.6</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU116" t="n">
         <v>1.63</v>
@@ -24245,10 +24245,10 @@
         <v>0.75</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU117" t="n">
         <v>2.07</v>
@@ -24451,7 +24451,7 @@
         <v>1.55</v>
       </c>
       <c r="AT118" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU118" t="n">
         <v>1.34</v>
@@ -24651,7 +24651,7 @@
         <v>1.75</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT119" t="n">
         <v>1.55</v>
@@ -25260,10 +25260,10 @@
         <v>1.4</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU122" t="n">
         <v>1.33</v>
@@ -25463,7 +25463,7 @@
         <v>1.6</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT123" t="n">
         <v>1.73</v>
@@ -26072,10 +26072,10 @@
         <v>1.25</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU126" t="n">
         <v>2.3</v>
@@ -26681,10 +26681,10 @@
         <v>0.25</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU129" t="n">
         <v>1.47</v>
@@ -26887,7 +26887,7 @@
         <v>1.09</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU130" t="n">
         <v>1.62</v>
@@ -27090,7 +27090,7 @@
         <v>1.18</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU131" t="n">
         <v>1.55</v>
@@ -27293,7 +27293,7 @@
         <v>1.91</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU132" t="n">
         <v>2.08</v>
@@ -27696,7 +27696,7 @@
         <v>0.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT134" t="n">
         <v>1.18</v>
@@ -27899,10 +27899,10 @@
         <v>1.2</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU135" t="n">
         <v>1.51</v>
@@ -28305,10 +28305,10 @@
         <v>1.17</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU137" t="n">
         <v>1.83</v>
@@ -28914,7 +28914,7 @@
         <v>2.6</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT140" t="n">
         <v>1.36</v>
@@ -29120,7 +29120,7 @@
         <v>1.82</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU141" t="n">
         <v>1.34</v>
@@ -29320,10 +29320,10 @@
         <v>0.8</v>
       </c>
       <c r="AS142" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT142" t="n">
         <v>1.18</v>
-      </c>
-      <c r="AT142" t="n">
-        <v>1.3</v>
       </c>
       <c r="AU142" t="n">
         <v>1.69</v>
@@ -29526,7 +29526,7 @@
         <v>1.55</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU143" t="n">
         <v>1.65</v>
@@ -29726,7 +29726,7 @@
         <v>1.5</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AT144" t="n">
         <v>1.73</v>
@@ -29932,7 +29932,7 @@
         <v>1</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU145" t="n">
         <v>1.54</v>
@@ -30132,7 +30132,7 @@
         <v>0.83</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT146" t="n">
         <v>1.09</v>
@@ -30335,7 +30335,7 @@
         <v>1.8</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT147" t="n">
         <v>1.91</v>
@@ -30541,7 +30541,7 @@
         <v>1.09</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU148" t="n">
         <v>1.6</v>
@@ -30744,7 +30744,7 @@
         <v>1.55</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU149" t="n">
         <v>1.39</v>
@@ -30944,7 +30944,7 @@
         <v>2</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT150" t="n">
         <v>1.55</v>
@@ -31150,7 +31150,7 @@
         <v>2.09</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU151" t="n">
         <v>1.69</v>
@@ -31353,7 +31353,7 @@
         <v>2.18</v>
       </c>
       <c r="AT152" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU152" t="n">
         <v>1.52</v>
@@ -31553,7 +31553,7 @@
         <v>0.67</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT153" t="n">
         <v>1</v>
@@ -31756,7 +31756,7 @@
         <v>0.4</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT154" t="n">
         <v>1.18</v>
@@ -31959,10 +31959,10 @@
         <v>1</v>
       </c>
       <c r="AS155" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU155" t="n">
         <v>1.36</v>
@@ -32162,7 +32162,7 @@
         <v>2</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT156" t="n">
         <v>1.91</v>
@@ -32571,7 +32571,7 @@
         <v>1.18</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU158" t="n">
         <v>1.93</v>
@@ -32977,7 +32977,7 @@
         <v>1.91</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU160" t="n">
         <v>2.15</v>
@@ -33177,7 +33177,7 @@
         <v>0.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT161" t="n">
         <v>1.18</v>
@@ -33380,10 +33380,10 @@
         <v>1.83</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU162" t="n">
         <v>1.81</v>
@@ -33583,10 +33583,10 @@
         <v>1.14</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU163" t="n">
         <v>1.61</v>
@@ -33789,7 +33789,7 @@
         <v>1.55</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU164" t="n">
         <v>1.34</v>
@@ -33992,7 +33992,7 @@
         <v>2</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU165" t="n">
         <v>1.25</v>
@@ -34192,7 +34192,7 @@
         <v>0.33</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT166" t="n">
         <v>0.82</v>
@@ -34598,7 +34598,7 @@
         <v>1.14</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT168" t="n">
         <v>1.36</v>
@@ -34801,7 +34801,7 @@
         <v>1.83</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT169" t="n">
         <v>1.55</v>
@@ -35007,7 +35007,7 @@
         <v>1.55</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU170" t="n">
         <v>1.41</v>
@@ -35207,7 +35207,7 @@
         <v>1.71</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT171" t="n">
         <v>1.91</v>
@@ -35410,7 +35410,7 @@
         <v>0.71</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT172" t="n">
         <v>1.09</v>
@@ -35616,7 +35616,7 @@
         <v>1.09</v>
       </c>
       <c r="AT173" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU173" t="n">
         <v>1.62</v>
@@ -35819,7 +35819,7 @@
         <v>2.18</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU174" t="n">
         <v>1.58</v>
@@ -36425,10 +36425,10 @@
         <v>0.17</v>
       </c>
       <c r="AS177" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU177" t="n">
         <v>1.39</v>
@@ -36628,10 +36628,10 @@
         <v>1.57</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU178" t="n">
         <v>1.1</v>
@@ -36831,7 +36831,7 @@
         <v>1.71</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT179" t="n">
         <v>1.73</v>
@@ -37037,7 +37037,7 @@
         <v>2.09</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU180" t="n">
         <v>1.63</v>
@@ -37646,7 +37646,7 @@
         <v>2.09</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU183" t="n">
         <v>1.61</v>
@@ -39673,10 +39673,10 @@
         <v>1</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AT193" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU193" t="n">
         <v>1.07</v>
@@ -39876,7 +39876,7 @@
         <v>1.38</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT194" t="n">
         <v>1.55</v>
@@ -40079,10 +40079,10 @@
         <v>1.63</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU195" t="n">
         <v>1.44</v>
@@ -40282,10 +40282,10 @@
         <v>1.57</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU196" t="n">
         <v>1.4</v>
@@ -40485,10 +40485,10 @@
         <v>1.38</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU197" t="n">
         <v>1.99</v>
@@ -40688,10 +40688,10 @@
         <v>0.88</v>
       </c>
       <c r="AS198" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU198" t="n">
         <v>1.37</v>
@@ -40891,10 +40891,10 @@
         <v>0.57</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU199" t="n">
         <v>1.51</v>
@@ -41097,7 +41097,7 @@
         <v>1.18</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU200" t="n">
         <v>1.96</v>
@@ -41297,10 +41297,10 @@
         <v>1.13</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU201" t="n">
         <v>1.42</v>
@@ -41500,7 +41500,7 @@
         <v>0.71</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT202" t="n">
         <v>0.82</v>
@@ -41703,10 +41703,10 @@
         <v>1.13</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU203" t="n">
         <v>1.28</v>
@@ -41906,10 +41906,10 @@
         <v>1</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT204" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU204" t="n">
         <v>1.56</v>
@@ -42109,10 +42109,10 @@
         <v>0.86</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU205" t="n">
         <v>1.68</v>
@@ -42312,10 +42312,10 @@
         <v>1.38</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU206" t="n">
         <v>1.93</v>
@@ -42515,10 +42515,10 @@
         <v>1.5</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU207" t="n">
         <v>1.52</v>
@@ -42721,7 +42721,7 @@
         <v>1.18</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU208" t="n">
         <v>1.93</v>
@@ -42921,10 +42921,10 @@
         <v>0.5</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU209" t="n">
         <v>1.36</v>
@@ -43124,10 +43124,10 @@
         <v>1.33</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU210" t="n">
         <v>1.34</v>
@@ -43327,10 +43327,10 @@
         <v>1.33</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU211" t="n">
         <v>1.96</v>
@@ -43530,10 +43530,10 @@
         <v>1.56</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU212" t="n">
         <v>1.39</v>
@@ -43733,10 +43733,10 @@
         <v>1.22</v>
       </c>
       <c r="AS213" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU213" t="n">
         <v>1.33</v>
@@ -43936,10 +43936,10 @@
         <v>1.44</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU214" t="n">
         <v>1.9</v>
@@ -44139,10 +44139,10 @@
         <v>1.22</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU215" t="n">
         <v>1.26</v>
@@ -44342,10 +44342,10 @@
         <v>1.11</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU216" t="n">
         <v>1.63</v>
@@ -44545,10 +44545,10 @@
         <v>0.88</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT217" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU217" t="n">
         <v>1.7</v>
@@ -44748,7 +44748,7 @@
         <v>0.63</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT218" t="n">
         <v>0.82</v>
@@ -45969,7 +45969,7 @@
         <v>1.55</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU224" t="n">
         <v>1.69</v>
@@ -47390,7 +47390,7 @@
         <v>1.91</v>
       </c>
       <c r="AT231" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU231" t="n">
         <v>2.26</v>
@@ -47793,7 +47793,7 @@
         <v>1</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT233" t="n">
         <v>1.18</v>
@@ -47999,7 +47999,7 @@
         <v>1</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU234" t="n">
         <v>1.57</v>
@@ -48199,10 +48199,10 @@
         <v>1.33</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU235" t="n">
         <v>1.31</v>
@@ -48402,7 +48402,7 @@
         <v>1.56</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AT236" t="n">
         <v>1.36</v>
@@ -48811,7 +48811,7 @@
         <v>1.82</v>
       </c>
       <c r="AT238" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU238" t="n">
         <v>1.5</v>
@@ -49011,10 +49011,10 @@
         <v>1.4</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU239" t="n">
         <v>1.31</v>
@@ -49214,10 +49214,10 @@
         <v>0.7</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU240" t="n">
         <v>1.38</v>
@@ -49417,10 +49417,10 @@
         <v>1.3</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU241" t="n">
         <v>1.42</v>
@@ -49620,10 +49620,10 @@
         <v>1.7</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU242" t="n">
         <v>1.57</v>
@@ -49823,10 +49823,10 @@
         <v>1.4</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU243" t="n">
         <v>1.44</v>
@@ -50026,10 +50026,10 @@
         <v>1.3</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU244" t="n">
         <v>1.32</v>
@@ -50232,7 +50232,7 @@
         <v>1.18</v>
       </c>
       <c r="AT245" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU245" t="n">
         <v>1.88</v>
@@ -50432,10 +50432,10 @@
         <v>1</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU246" t="n">
         <v>1.86</v>
@@ -50635,7 +50635,7 @@
         <v>0.67</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT247" t="n">
         <v>0.82</v>
@@ -50838,10 +50838,10 @@
         <v>1.4</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU248" t="n">
         <v>1.93</v>
@@ -51041,10 +51041,10 @@
         <v>1.2</v>
       </c>
       <c r="AS249" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU249" t="n">
         <v>1.33</v>
@@ -51244,10 +51244,10 @@
         <v>1.2</v>
       </c>
       <c r="AS250" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU250" t="n">
         <v>1.81</v>
@@ -53886,7 +53886,7 @@
         <v>1.18</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU263" t="n">
         <v>1.5</v>
@@ -53938,6 +53938,2442 @@
       </c>
       <c r="BK263" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2608394</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>44911.70833333334</v>
+      </c>
+      <c r="F264" t="n">
+        <v>23</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Birmingham City</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>3</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>3</v>
+      </c>
+      <c r="L264" t="n">
+        <v>3</v>
+      </c>
+      <c r="M264" t="n">
+        <v>2</v>
+      </c>
+      <c r="N264" t="n">
+        <v>5</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>['2', '23', '36']</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>['83', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R264" t="n">
+        <v>7</v>
+      </c>
+      <c r="S264" t="n">
+        <v>7</v>
+      </c>
+      <c r="T264" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U264" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V264" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X264" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK264" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2608404</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>44912.5</v>
+      </c>
+      <c r="F265" t="n">
+        <v>23</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>West Bromwich Albion</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Rotherham United</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>1</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="n">
+        <v>3</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>3</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>['20', '57', '70']</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>6</v>
+      </c>
+      <c r="R265" t="n">
+        <v>3</v>
+      </c>
+      <c r="S265" t="n">
+        <v>9</v>
+      </c>
+      <c r="T265" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U265" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V265" t="n">
+        <v>7</v>
+      </c>
+      <c r="W265" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X265" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2608399</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>44912.5</v>
+      </c>
+      <c r="F266" t="n">
+        <v>23</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Huddersfield Town</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>2</v>
+      </c>
+      <c r="N266" t="n">
+        <v>2</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>['54', '86']</t>
+        </is>
+      </c>
+      <c r="Q266" t="n">
+        <v>7</v>
+      </c>
+      <c r="R266" t="n">
+        <v>11</v>
+      </c>
+      <c r="S266" t="n">
+        <v>18</v>
+      </c>
+      <c r="T266" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U266" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V266" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W266" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X266" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK266" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2608403</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>44912.5</v>
+      </c>
+      <c r="F267" t="n">
+        <v>23</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Preston North End</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Queens Park Rangers</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+      <c r="N267" t="n">
+        <v>1</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q267" t="n">
+        <v>4</v>
+      </c>
+      <c r="R267" t="n">
+        <v>4</v>
+      </c>
+      <c r="S267" t="n">
+        <v>8</v>
+      </c>
+      <c r="T267" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U267" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V267" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W267" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X267" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE267" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF267" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG267" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH267" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ267" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK267" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>2608395</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>44912.5</v>
+      </c>
+      <c r="F268" t="n">
+        <v>23</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Stoke City</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>1</v>
+      </c>
+      <c r="J268" t="n">
+        <v>1</v>
+      </c>
+      <c r="K268" t="n">
+        <v>2</v>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="n">
+        <v>2</v>
+      </c>
+      <c r="N268" t="n">
+        <v>3</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>['45+2', '57']</t>
+        </is>
+      </c>
+      <c r="Q268" t="n">
+        <v>3</v>
+      </c>
+      <c r="R268" t="n">
+        <v>3</v>
+      </c>
+      <c r="S268" t="n">
+        <v>6</v>
+      </c>
+      <c r="T268" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U268" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V268" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X268" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE268" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF268" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG268" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH268" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ268" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK268" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2608396</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>44912.5</v>
+      </c>
+      <c r="F269" t="n">
+        <v>23</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>3</v>
+      </c>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="n">
+        <v>4</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>['60', '67', '72']</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q269" t="n">
+        <v>4</v>
+      </c>
+      <c r="R269" t="n">
+        <v>1</v>
+      </c>
+      <c r="S269" t="n">
+        <v>5</v>
+      </c>
+      <c r="T269" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U269" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V269" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W269" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X269" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL269" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AR269" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW269" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX269" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY269" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ269" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BA269" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB269" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC269" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD269" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE269" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF269" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG269" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH269" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI269" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ269" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK269" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2608397</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>44912.5</v>
+      </c>
+      <c r="F270" t="n">
+        <v>23</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Cardiff City</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>1</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+      <c r="N270" t="n">
+        <v>2</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q270" t="n">
+        <v>4</v>
+      </c>
+      <c r="R270" t="n">
+        <v>6</v>
+      </c>
+      <c r="S270" t="n">
+        <v>10</v>
+      </c>
+      <c r="T270" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U270" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V270" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W270" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X270" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC270" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD270" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE270" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF270" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG270" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI270" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ270" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK270" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2608398</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>44912.5</v>
+      </c>
+      <c r="F271" t="n">
+        <v>23</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Coventry City</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Swansea City</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="n">
+        <v>3</v>
+      </c>
+      <c r="M271" t="n">
+        <v>3</v>
+      </c>
+      <c r="N271" t="n">
+        <v>6</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>['29', '47', '54']</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>['68', '76', '84']</t>
+        </is>
+      </c>
+      <c r="Q271" t="n">
+        <v>5</v>
+      </c>
+      <c r="R271" t="n">
+        <v>3</v>
+      </c>
+      <c r="S271" t="n">
+        <v>8</v>
+      </c>
+      <c r="T271" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U271" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V271" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W271" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X271" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD271" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE271" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF271" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG271" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH271" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI271" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ271" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK271" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2608400</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>44912.5</v>
+      </c>
+      <c r="F272" t="n">
+        <v>23</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Hull City</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="n">
+        <v>2</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>7</v>
+      </c>
+      <c r="R272" t="n">
+        <v>4</v>
+      </c>
+      <c r="S272" t="n">
+        <v>11</v>
+      </c>
+      <c r="T272" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V272" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X272" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2608402</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>44912.60416666666</v>
+      </c>
+      <c r="F273" t="n">
+        <v>23</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Norwich City</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Blackburn Rovers</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>1</v>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>2</v>
+      </c>
+      <c r="N273" t="n">
+        <v>2</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>['4', '86']</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>6</v>
+      </c>
+      <c r="R273" t="n">
+        <v>2</v>
+      </c>
+      <c r="S273" t="n">
+        <v>8</v>
+      </c>
+      <c r="T273" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V273" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X273" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2608405</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>44914.70833333334</v>
+      </c>
+      <c r="F274" t="n">
+        <v>23</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Wigan Athletic</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Sheffield United</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>1</v>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="n">
+        <v>2</v>
+      </c>
+      <c r="N274" t="n">
+        <v>3</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>['8', '56']</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>8</v>
+      </c>
+      <c r="R274" t="n">
+        <v>4</v>
+      </c>
+      <c r="S274" t="n">
+        <v>12</v>
+      </c>
+      <c r="T274" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V274" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X274" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2608231</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>44916.69791666666</v>
+      </c>
+      <c r="F275" t="n">
+        <v>9</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Coventry City</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>West Bromwich Albion</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N275" t="n">
+        <v>1</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>10</v>
+      </c>
+      <c r="R275" t="n">
+        <v>2</v>
+      </c>
+      <c r="S275" t="n">
+        <v>12</v>
+      </c>
+      <c r="T275" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U275" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V275" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X275" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK275"/>
+  <dimension ref="A1:BK285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT3" t="n">
         <v>1.25</v>
@@ -1309,7 +1309,7 @@
         <v>2.09</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT5" t="n">
         <v>1.36</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2.18</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT13" t="n">
         <v>1.92</v>
@@ -3339,7 +3339,7 @@
         <v>1.42</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.5</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.55</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT21" t="n">
         <v>1.18</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT22" t="n">
         <v>1.5</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT25" t="n">
         <v>1.73</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT26" t="n">
         <v>1.36</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT28" t="n">
         <v>0.83</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU29" t="n">
         <v>1.31</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT30" t="n">
         <v>1.91</v>
@@ -6790,7 +6790,7 @@
         <v>2.09</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU31" t="n">
         <v>1.62</v>
@@ -6993,7 +6993,7 @@
         <v>1.08</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU32" t="n">
         <v>1.6</v>
@@ -7196,7 +7196,7 @@
         <v>1.17</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU33" t="n">
         <v>0.37</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT35" t="n">
         <v>1.92</v>
@@ -7805,7 +7805,7 @@
         <v>2.18</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU36" t="n">
         <v>1.48</v>
@@ -8008,7 +8008,7 @@
         <v>1.55</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>0.03</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT39" t="n">
         <v>1.55</v>
@@ -8820,7 +8820,7 @@
         <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU41" t="n">
         <v>2.37</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT42" t="n">
         <v>0.92</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT45" t="n">
         <v>1.5</v>
@@ -9835,7 +9835,7 @@
         <v>2</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU46" t="n">
         <v>1.13</v>
@@ -10241,7 +10241,7 @@
         <v>1.5</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>2.56</v>
@@ -11050,10 +11050,10 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU52" t="n">
         <v>1.78</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT55" t="n">
         <v>1.42</v>
@@ -12068,7 +12068,7 @@
         <v>1.42</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU57" t="n">
         <v>1.57</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT59" t="n">
         <v>1.92</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU60" t="n">
         <v>1.51</v>
@@ -12877,7 +12877,7 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT61" t="n">
         <v>1.25</v>
@@ -13283,7 +13283,7 @@
         <v>0.5</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT63" t="n">
         <v>1.36</v>
@@ -13689,10 +13689,10 @@
         <v>0.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU65" t="n">
         <v>1.13</v>
@@ -13895,7 +13895,7 @@
         <v>1.17</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU66" t="n">
         <v>0.88</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT67" t="n">
         <v>1.91</v>
@@ -14504,7 +14504,7 @@
         <v>2.18</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU69" t="n">
         <v>1.16</v>
@@ -14707,7 +14707,7 @@
         <v>1.08</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU70" t="n">
         <v>1.38</v>
@@ -15113,7 +15113,7 @@
         <v>1.42</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU72" t="n">
         <v>1.43</v>
@@ -15316,7 +15316,7 @@
         <v>2.33</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU73" t="n">
         <v>1.66</v>
@@ -15516,7 +15516,7 @@
         <v>1.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT74" t="n">
         <v>1.55</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT75" t="n">
         <v>0.83</v>
@@ -15925,7 +15925,7 @@
         <v>0.75</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU76" t="n">
         <v>1.63</v>
@@ -16125,7 +16125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT77" t="n">
         <v>1.08</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT79" t="n">
         <v>0.92</v>
@@ -16734,10 +16734,10 @@
         <v>0</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU80" t="n">
         <v>1.25</v>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU82" t="n">
         <v>1.43</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT84" t="n">
         <v>1.42</v>
@@ -17752,7 +17752,7 @@
         <v>1.55</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU85" t="n">
         <v>1.29</v>
@@ -17952,7 +17952,7 @@
         <v>0.33</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT86" t="n">
         <v>1.36</v>
@@ -18158,7 +18158,7 @@
         <v>1.5</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU87" t="n">
         <v>2.31</v>
@@ -18561,10 +18561,10 @@
         <v>2</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU89" t="n">
         <v>1.95</v>
@@ -18970,7 +18970,7 @@
         <v>2</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU91" t="n">
         <v>1.28</v>
@@ -19576,7 +19576,7 @@
         <v>2</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT94" t="n">
         <v>1.5</v>
@@ -19782,7 +19782,7 @@
         <v>1.08</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU95" t="n">
         <v>1.36</v>
@@ -19982,7 +19982,7 @@
         <v>0.25</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT96" t="n">
         <v>1</v>
@@ -20594,7 +20594,7 @@
         <v>1.17</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU99" t="n">
         <v>1.14</v>
@@ -20794,7 +20794,7 @@
         <v>1.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT100" t="n">
         <v>1.73</v>
@@ -20997,7 +20997,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT101" t="n">
         <v>1.08</v>
@@ -21406,7 +21406,7 @@
         <v>2.09</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU103" t="n">
         <v>1.7</v>
@@ -21606,10 +21606,10 @@
         <v>0.25</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU104" t="n">
         <v>1.89</v>
@@ -22421,7 +22421,7 @@
         <v>1.42</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU108" t="n">
         <v>1.37</v>
@@ -22621,10 +22621,10 @@
         <v>1.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU109" t="n">
         <v>1.84</v>
@@ -23436,7 +23436,7 @@
         <v>1.55</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU113" t="n">
         <v>1.69</v>
@@ -23636,7 +23636,7 @@
         <v>1.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT114" t="n">
         <v>1.5</v>
@@ -24042,7 +24042,7 @@
         <v>1.6</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT116" t="n">
         <v>1.92</v>
@@ -24248,7 +24248,7 @@
         <v>1.5</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU117" t="n">
         <v>2.07</v>
@@ -24448,7 +24448,7 @@
         <v>0.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT118" t="n">
         <v>0.92</v>
@@ -24857,7 +24857,7 @@
         <v>2.18</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU120" t="n">
         <v>1.52</v>
@@ -25060,7 +25060,7 @@
         <v>1</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU121" t="n">
         <v>1.46</v>
@@ -25260,10 +25260,10 @@
         <v>1.4</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU122" t="n">
         <v>1.33</v>
@@ -25463,7 +25463,7 @@
         <v>1.6</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT123" t="n">
         <v>1.73</v>
@@ -25669,7 +25669,7 @@
         <v>2</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU124" t="n">
         <v>1.19</v>
@@ -25869,10 +25869,10 @@
         <v>2.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU125" t="n">
         <v>1.59</v>
@@ -26275,7 +26275,7 @@
         <v>2</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT127" t="n">
         <v>1.91</v>
@@ -26478,7 +26478,7 @@
         <v>1.4</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT128" t="n">
         <v>1.36</v>
@@ -27087,7 +27087,7 @@
         <v>1.17</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT131" t="n">
         <v>1.08</v>
@@ -27290,10 +27290,10 @@
         <v>1.67</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU132" t="n">
         <v>2.08</v>
@@ -27493,10 +27493,10 @@
         <v>0</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU133" t="n">
         <v>1.79</v>
@@ -27696,10 +27696,10 @@
         <v>0.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU134" t="n">
         <v>1.35</v>
@@ -27899,10 +27899,10 @@
         <v>1.2</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU135" t="n">
         <v>1.51</v>
@@ -28105,7 +28105,7 @@
         <v>2</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU136" t="n">
         <v>1.24</v>
@@ -28308,7 +28308,7 @@
         <v>2.33</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU137" t="n">
         <v>1.83</v>
@@ -28508,10 +28508,10 @@
         <v>0.2</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU138" t="n">
         <v>1.58</v>
@@ -28711,7 +28711,7 @@
         <v>1.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT139" t="n">
         <v>1.36</v>
@@ -28917,7 +28917,7 @@
         <v>1.08</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU140" t="n">
         <v>1.39</v>
@@ -29117,7 +29117,7 @@
         <v>1.6</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT141" t="n">
         <v>1.25</v>
@@ -29320,10 +29320,10 @@
         <v>0.8</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU142" t="n">
         <v>1.69</v>
@@ -31962,7 +31962,7 @@
         <v>0.75</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU155" t="n">
         <v>1.36</v>
@@ -32162,7 +32162,7 @@
         <v>2</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT156" t="n">
         <v>1.91</v>
@@ -32365,10 +32365,10 @@
         <v>0.2</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU157" t="n">
         <v>1.52</v>
@@ -32568,10 +32568,10 @@
         <v>1.86</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU158" t="n">
         <v>1.93</v>
@@ -32771,10 +32771,10 @@
         <v>2.17</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU159" t="n">
         <v>1.59</v>
@@ -32974,7 +32974,7 @@
         <v>1.14</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT160" t="n">
         <v>1.08</v>
@@ -33177,10 +33177,10 @@
         <v>0.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU161" t="n">
         <v>1.57</v>
@@ -33583,10 +33583,10 @@
         <v>1.14</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU163" t="n">
         <v>1.61</v>
@@ -33786,10 +33786,10 @@
         <v>0.86</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU164" t="n">
         <v>1.34</v>
@@ -33992,7 +33992,7 @@
         <v>2</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU165" t="n">
         <v>1.25</v>
@@ -34192,10 +34192,10 @@
         <v>0.33</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU166" t="n">
         <v>1.42</v>
@@ -34395,10 +34395,10 @@
         <v>1.67</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU167" t="n">
         <v>1.32</v>
@@ -37440,7 +37440,7 @@
         <v>0.71</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT182" t="n">
         <v>1.18</v>
@@ -37646,7 +37646,7 @@
         <v>2.09</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU183" t="n">
         <v>1.61</v>
@@ -37846,10 +37846,10 @@
         <v>0.17</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU184" t="n">
         <v>1.44</v>
@@ -38049,10 +38049,10 @@
         <v>1.43</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU185" t="n">
         <v>2.2</v>
@@ -38252,7 +38252,7 @@
         <v>1.63</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT186" t="n">
         <v>1.73</v>
@@ -38661,7 +38661,7 @@
         <v>1.55</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU188" t="n">
         <v>1.74</v>
@@ -39067,7 +39067,7 @@
         <v>1.09</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU190" t="n">
         <v>1.86</v>
@@ -39470,7 +39470,7 @@
         <v>2</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT192" t="n">
         <v>1.55</v>
@@ -39879,7 +39879,7 @@
         <v>2.33</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU194" t="n">
         <v>1.77</v>
@@ -40082,7 +40082,7 @@
         <v>1.42</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU195" t="n">
         <v>1.44</v>
@@ -40282,7 +40282,7 @@
         <v>1.57</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT196" t="n">
         <v>1.25</v>
@@ -40891,7 +40891,7 @@
         <v>0.57</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT199" t="n">
         <v>1.08</v>
@@ -41094,7 +41094,7 @@
         <v>1.25</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT200" t="n">
         <v>1.5</v>
@@ -41300,7 +41300,7 @@
         <v>1.08</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU201" t="n">
         <v>1.42</v>
@@ -41503,7 +41503,7 @@
         <v>1.17</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU202" t="n">
         <v>1.21</v>
@@ -41906,7 +41906,7 @@
         <v>1</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT204" t="n">
         <v>0.92</v>
@@ -42315,7 +42315,7 @@
         <v>1.5</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU206" t="n">
         <v>1.93</v>
@@ -42515,7 +42515,7 @@
         <v>1.5</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT207" t="n">
         <v>1.25</v>
@@ -42718,7 +42718,7 @@
         <v>0.75</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT208" t="n">
         <v>0.83</v>
@@ -43127,7 +43127,7 @@
         <v>1.82</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU210" t="n">
         <v>1.34</v>
@@ -43530,7 +43530,7 @@
         <v>1.56</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT212" t="n">
         <v>1.92</v>
@@ -43736,7 +43736,7 @@
         <v>0.75</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU213" t="n">
         <v>1.33</v>
@@ -43939,7 +43939,7 @@
         <v>1.5</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU214" t="n">
         <v>1.9</v>
@@ -44342,7 +44342,7 @@
         <v>1.11</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT216" t="n">
         <v>1.42</v>
@@ -44751,7 +44751,7 @@
         <v>1.42</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU218" t="n">
         <v>1.38</v>
@@ -45154,7 +45154,7 @@
         <v>1.78</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT220" t="n">
         <v>1.73</v>
@@ -45560,10 +45560,10 @@
         <v>1.11</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU222" t="n">
         <v>1.48</v>
@@ -45763,10 +45763,10 @@
         <v>1.22</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU223" t="n">
         <v>1.51</v>
@@ -45969,7 +45969,7 @@
         <v>1.55</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU224" t="n">
         <v>1.69</v>
@@ -46169,7 +46169,7 @@
         <v>0.78</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT225" t="n">
         <v>1</v>
@@ -46578,7 +46578,7 @@
         <v>1.55</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU227" t="n">
         <v>1.5</v>
@@ -46778,7 +46778,7 @@
         <v>0.89</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT228" t="n">
         <v>1.09</v>
@@ -46984,7 +46984,7 @@
         <v>2.18</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU229" t="n">
         <v>1.46</v>
@@ -47387,7 +47387,7 @@
         <v>0.78</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT231" t="n">
         <v>0.92</v>
@@ -47593,7 +47593,7 @@
         <v>1.55</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU232" t="n">
         <v>1.64</v>
@@ -47793,7 +47793,7 @@
         <v>1</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT233" t="n">
         <v>1.18</v>
@@ -48405,7 +48405,7 @@
         <v>1.82</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU236" t="n">
         <v>1.42</v>
@@ -48808,7 +48808,7 @@
         <v>0.78</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT238" t="n">
         <v>0.83</v>
@@ -49417,7 +49417,7 @@
         <v>1.3</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT241" t="n">
         <v>1.42</v>
@@ -49620,7 +49620,7 @@
         <v>1.7</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT242" t="n">
         <v>1.92</v>
@@ -49826,7 +49826,7 @@
         <v>1.82</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU243" t="n">
         <v>1.44</v>
@@ -50229,7 +50229,7 @@
         <v>1</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT245" t="n">
         <v>0.92</v>
@@ -50635,10 +50635,10 @@
         <v>0.67</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU247" t="n">
         <v>1.48</v>
@@ -50841,7 +50841,7 @@
         <v>1.33</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU248" t="n">
         <v>1.93</v>
@@ -51247,7 +51247,7 @@
         <v>2.33</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU250" t="n">
         <v>1.81</v>
@@ -51447,10 +51447,10 @@
         <v>0.9</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT251" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU251" t="n">
         <v>1.51</v>
@@ -51853,7 +51853,7 @@
         <v>0.9</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT253" t="n">
         <v>1.09</v>
@@ -52059,7 +52059,7 @@
         <v>2</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU254" t="n">
         <v>1.36</v>
@@ -52462,10 +52462,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU256" t="n">
         <v>2.22</v>
@@ -52668,7 +52668,7 @@
         <v>1.55</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU257" t="n">
         <v>1.52</v>
@@ -52868,7 +52868,7 @@
         <v>1.7</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT258" t="n">
         <v>1.55</v>
@@ -53277,7 +53277,7 @@
         <v>2.09</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU260" t="n">
         <v>1.76</v>
@@ -53680,7 +53680,7 @@
         <v>1.2</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT262" t="n">
         <v>1.18</v>
@@ -53883,10 +53883,10 @@
         <v>1.11</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU263" t="n">
         <v>1.5</v>
@@ -54695,10 +54695,10 @@
         <v>1.27</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU267" t="n">
         <v>1.51</v>
@@ -54898,10 +54898,10 @@
         <v>1.27</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU268" t="n">
         <v>1.4</v>
@@ -55304,7 +55304,7 @@
         <v>1.09</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT270" t="n">
         <v>1.08</v>
@@ -55916,7 +55916,7 @@
         <v>1.5</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU273" t="n">
         <v>1.85</v>
@@ -56322,7 +56322,7 @@
         <v>1.82</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU275" t="n">
         <v>1.53</v>
@@ -56374,6 +56374,2036 @@
       </c>
       <c r="BK275" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>2608417</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>44921.375</v>
+      </c>
+      <c r="F276" t="n">
+        <v>24</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>1</v>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>2</v>
+      </c>
+      <c r="N276" t="n">
+        <v>2</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>['22', '83']</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>4</v>
+      </c>
+      <c r="R276" t="n">
+        <v>9</v>
+      </c>
+      <c r="S276" t="n">
+        <v>13</v>
+      </c>
+      <c r="T276" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V276" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X276" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2608416</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>44921.39583333334</v>
+      </c>
+      <c r="F277" t="n">
+        <v>24</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Blackburn Rovers</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>1</v>
+      </c>
+      <c r="J277" t="n">
+        <v>1</v>
+      </c>
+      <c r="K277" t="n">
+        <v>2</v>
+      </c>
+      <c r="L277" t="n">
+        <v>2</v>
+      </c>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="N277" t="n">
+        <v>3</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>['22', '90+1']</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>7</v>
+      </c>
+      <c r="R277" t="n">
+        <v>3</v>
+      </c>
+      <c r="S277" t="n">
+        <v>10</v>
+      </c>
+      <c r="T277" t="n">
+        <v>3</v>
+      </c>
+      <c r="U277" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V277" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X277" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2608415</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F278" t="n">
+        <v>24</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Sheffield United</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Coventry City</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="n">
+        <v>3</v>
+      </c>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="N278" t="n">
+        <v>4</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>['35', '52', '71']</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>2</v>
+      </c>
+      <c r="R278" t="n">
+        <v>7</v>
+      </c>
+      <c r="S278" t="n">
+        <v>9</v>
+      </c>
+      <c r="T278" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U278" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V278" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X278" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK278" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2608414</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F279" t="n">
+        <v>24</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Rotherham United</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Stoke City</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>1</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="n">
+        <v>2</v>
+      </c>
+      <c r="M279" t="n">
+        <v>2</v>
+      </c>
+      <c r="N279" t="n">
+        <v>4</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>['45', '71']</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>['61', '80']</t>
+        </is>
+      </c>
+      <c r="Q279" t="n">
+        <v>3</v>
+      </c>
+      <c r="R279" t="n">
+        <v>3</v>
+      </c>
+      <c r="S279" t="n">
+        <v>6</v>
+      </c>
+      <c r="T279" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U279" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V279" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X279" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>2608411</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F280" t="n">
+        <v>24</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Wigan Athletic</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>1</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="n">
+        <v>4</v>
+      </c>
+      <c r="M280" t="n">
+        <v>1</v>
+      </c>
+      <c r="N280" t="n">
+        <v>5</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>['26', '49', '59', '90+3']</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q280" t="n">
+        <v>8</v>
+      </c>
+      <c r="R280" t="n">
+        <v>10</v>
+      </c>
+      <c r="S280" t="n">
+        <v>18</v>
+      </c>
+      <c r="T280" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U280" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V280" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W280" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X280" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD280" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE280" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF280" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG280" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH280" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ280" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK280" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>2608412</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F281" t="n">
+        <v>24</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Preston North End</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Huddersfield Town</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>1</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="n">
+        <v>2</v>
+      </c>
+      <c r="N281" t="n">
+        <v>3</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>['75', '85']</t>
+        </is>
+      </c>
+      <c r="Q281" t="n">
+        <v>2</v>
+      </c>
+      <c r="R281" t="n">
+        <v>3</v>
+      </c>
+      <c r="S281" t="n">
+        <v>5</v>
+      </c>
+      <c r="T281" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U281" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V281" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W281" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X281" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL281" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX281" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ281" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA281" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC281" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD281" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE281" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF281" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG281" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH281" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI281" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ281" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK281" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>2608409</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F282" t="n">
+        <v>24</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Hull City</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>1</v>
+      </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
+      <c r="N282" t="n">
+        <v>2</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q282" t="n">
+        <v>11</v>
+      </c>
+      <c r="R282" t="n">
+        <v>8</v>
+      </c>
+      <c r="S282" t="n">
+        <v>19</v>
+      </c>
+      <c r="T282" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U282" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V282" t="n">
+        <v>4</v>
+      </c>
+      <c r="W282" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X282" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ282" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL282" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW282" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX282" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ282" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BA282" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB282" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC282" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD282" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE282" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF282" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG282" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH282" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI282" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ282" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK282" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>2608406</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F283" t="n">
+        <v>24</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>West Bromwich Albion</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>1</v>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="n">
+        <v>2</v>
+      </c>
+      <c r="N283" t="n">
+        <v>2</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>['9', '75']</t>
+        </is>
+      </c>
+      <c r="Q283" t="n">
+        <v>8</v>
+      </c>
+      <c r="R283" t="n">
+        <v>6</v>
+      </c>
+      <c r="S283" t="n">
+        <v>14</v>
+      </c>
+      <c r="T283" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U283" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V283" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W283" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X283" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ283" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BA283" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB283" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC283" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD283" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE283" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BF283" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG283" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH283" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI283" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ283" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK283" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>2608408</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>44921.59375</v>
+      </c>
+      <c r="F284" t="n">
+        <v>24</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Cardiff City</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Queens Park Rangers</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>0</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q284" t="n">
+        <v>1</v>
+      </c>
+      <c r="R284" t="n">
+        <v>6</v>
+      </c>
+      <c r="S284" t="n">
+        <v>7</v>
+      </c>
+      <c r="T284" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U284" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V284" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W284" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X284" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC284" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD284" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE284" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF284" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG284" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH284" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI284" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ284" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK284" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>2608410</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>44921.69791666666</v>
+      </c>
+      <c r="F285" t="n">
+        <v>24</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Luton Town</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Norwich City</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>2</v>
+      </c>
+      <c r="M285" t="n">
+        <v>1</v>
+      </c>
+      <c r="N285" t="n">
+        <v>3</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>['61', '89']</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q285" t="n">
+        <v>6</v>
+      </c>
+      <c r="R285" t="n">
+        <v>4</v>
+      </c>
+      <c r="S285" t="n">
+        <v>10</v>
+      </c>
+      <c r="T285" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U285" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V285" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W285" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X285" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI285" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL285" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ285" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA285" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB285" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC285" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD285" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE285" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF285" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG285" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH285" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI285" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ285" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK285" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK285"/>
+  <dimension ref="A1:BK287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.33</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT20" t="n">
         <v>1.55</v>
@@ -5775,7 +5775,7 @@
         <v>1.23</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU26" t="n">
         <v>0.72</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU34" t="n">
         <v>1.26</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT40" t="n">
         <v>1.18</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT46" t="n">
         <v>1.15</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT53" t="n">
         <v>1.08</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT56" t="n">
         <v>1.08</v>
@@ -12880,7 +12880,7 @@
         <v>1.67</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU61" t="n">
         <v>1.4</v>
@@ -13286,7 +13286,7 @@
         <v>1.33</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU63" t="n">
         <v>1.47</v>
@@ -15313,7 +15313,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT73" t="n">
         <v>1</v>
@@ -16331,7 +16331,7 @@
         <v>1.09</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU78" t="n">
         <v>1.48</v>
@@ -17955,7 +17955,7 @@
         <v>1</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU86" t="n">
         <v>1.98</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT91" t="n">
         <v>1.38</v>
@@ -21812,7 +21812,7 @@
         <v>1.33</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU105" t="n">
         <v>2.31</v>
@@ -22012,7 +22012,7 @@
         <v>1.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT106" t="n">
         <v>1.5</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT111" t="n">
         <v>1.09</v>
@@ -25666,7 +25666,7 @@
         <v>0</v>
       </c>
       <c r="AS124" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT124" t="n">
         <v>0.73</v>
@@ -26075,7 +26075,7 @@
         <v>1.33</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU126" t="n">
         <v>2.3</v>
@@ -26481,7 +26481,7 @@
         <v>2</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU128" t="n">
         <v>2.16</v>
@@ -28102,7 +28102,7 @@
         <v>1.8</v>
       </c>
       <c r="AS136" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT136" t="n">
         <v>1.42</v>
@@ -28305,7 +28305,7 @@
         <v>1.17</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT137" t="n">
         <v>1.38</v>
@@ -28714,7 +28714,7 @@
         <v>1.67</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU139" t="n">
         <v>1.27</v>
@@ -29120,7 +29120,7 @@
         <v>1.67</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU141" t="n">
         <v>1.34</v>
@@ -33380,10 +33380,10 @@
         <v>1.83</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU162" t="n">
         <v>1.81</v>
@@ -33989,7 +33989,7 @@
         <v>0.67</v>
       </c>
       <c r="AS165" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT165" t="n">
         <v>1.33</v>
@@ -34601,7 +34601,7 @@
         <v>1.08</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU168" t="n">
         <v>1.43</v>
@@ -38458,7 +38458,7 @@
         <v>2.18</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU187" t="n">
         <v>1.52</v>
@@ -38861,7 +38861,7 @@
         <v>1</v>
       </c>
       <c r="AS189" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT189" t="n">
         <v>1.09</v>
@@ -39876,7 +39876,7 @@
         <v>1.38</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT194" t="n">
         <v>1.42</v>
@@ -40285,7 +40285,7 @@
         <v>1.15</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU196" t="n">
         <v>1.4</v>
@@ -42109,7 +42109,7 @@
         <v>0.86</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT205" t="n">
         <v>0.83</v>
@@ -42518,7 +42518,7 @@
         <v>1</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU207" t="n">
         <v>1.52</v>
@@ -44545,7 +44545,7 @@
         <v>0.88</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT217" t="n">
         <v>0.92</v>
@@ -44951,7 +44951,7 @@
         <v>1.67</v>
       </c>
       <c r="AS219" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT219" t="n">
         <v>1.91</v>
@@ -45360,7 +45360,7 @@
         <v>1.09</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU221" t="n">
         <v>1.81</v>
@@ -48202,7 +48202,7 @@
         <v>1.42</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU235" t="n">
         <v>1.31</v>
@@ -50029,7 +50029,7 @@
         <v>1.17</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU244" t="n">
         <v>1.32</v>
@@ -51244,7 +51244,7 @@
         <v>1.2</v>
       </c>
       <c r="AS250" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT250" t="n">
         <v>1.15</v>
@@ -52056,7 +52056,7 @@
         <v>1.3</v>
       </c>
       <c r="AS254" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT254" t="n">
         <v>1.08</v>
@@ -53074,7 +53074,7 @@
         <v>1</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU259" t="n">
         <v>1.5</v>
@@ -55101,7 +55101,7 @@
         <v>1.18</v>
       </c>
       <c r="AS269" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT269" t="n">
         <v>1.08</v>
@@ -55510,7 +55510,7 @@
         <v>1.82</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU271" t="n">
         <v>1.47</v>
@@ -58404,6 +58404,412 @@
       </c>
       <c r="BK285" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>2608413</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>44922.59375</v>
+      </c>
+      <c r="F286" t="n">
+        <v>24</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Swansea City</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>1</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="n">
+        <v>2</v>
+      </c>
+      <c r="M286" t="n">
+        <v>1</v>
+      </c>
+      <c r="N286" t="n">
+        <v>3</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>['27', '53']</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q286" t="n">
+        <v>3</v>
+      </c>
+      <c r="R286" t="n">
+        <v>4</v>
+      </c>
+      <c r="S286" t="n">
+        <v>7</v>
+      </c>
+      <c r="T286" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U286" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V286" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W286" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X286" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI286" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ286" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL286" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP286" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ286" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA286" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC286" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD286" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE286" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF286" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG286" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH286" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI286" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ286" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK286" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>2608407</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>44922.70833333334</v>
+      </c>
+      <c r="F287" t="n">
+        <v>24</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Birmingham City</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>2</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>2</v>
+      </c>
+      <c r="L287" t="n">
+        <v>3</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>3</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>['1', '44', '90+3']</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q287" t="n">
+        <v>1</v>
+      </c>
+      <c r="R287" t="n">
+        <v>1</v>
+      </c>
+      <c r="S287" t="n">
+        <v>2</v>
+      </c>
+      <c r="T287" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U287" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V287" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W287" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X287" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD287" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE287" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF287" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG287" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH287" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ287" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK287" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK287"/>
+  <dimension ref="A1:BK288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4557,7 +4557,7 @@
         <v>2.38</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT23" t="n">
         <v>1.08</v>
@@ -8414,7 +8414,7 @@
         <v>1.15</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU39" t="n">
         <v>0.63</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT43" t="n">
         <v>1.08</v>
@@ -10647,7 +10647,7 @@
         <v>1.55</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU50" t="n">
         <v>1.11</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT54" t="n">
         <v>0.92</v>
@@ -14907,7 +14907,7 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT71" t="n">
         <v>1.18</v>
@@ -15519,7 +15519,7 @@
         <v>1.23</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU74" t="n">
         <v>1.45</v>
@@ -23433,7 +23433,7 @@
         <v>1.2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT113" t="n">
         <v>1.38</v>
@@ -24654,7 +24654,7 @@
         <v>1.08</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU119" t="n">
         <v>1.42</v>
@@ -29523,7 +29523,7 @@
         <v>1.2</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT143" t="n">
         <v>0.83</v>
@@ -30947,7 +30947,7 @@
         <v>1.33</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU150" t="n">
         <v>2.18</v>
@@ -34804,7 +34804,7 @@
         <v>1.5</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU169" t="n">
         <v>2.01</v>
@@ -36222,7 +36222,7 @@
         <v>1</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT176" t="n">
         <v>1</v>
@@ -38658,7 +38658,7 @@
         <v>1.86</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT188" t="n">
         <v>1.25</v>
@@ -39473,7 +39473,7 @@
         <v>1.67</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU192" t="n">
         <v>1.41</v>
@@ -45966,7 +45966,7 @@
         <v>0.88</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT224" t="n">
         <v>1.33</v>
@@ -47187,7 +47187,7 @@
         <v>1</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU230" t="n">
         <v>1.53</v>
@@ -47590,7 +47590,7 @@
         <v>0.25</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT232" t="n">
         <v>0.73</v>
@@ -48608,7 +48608,7 @@
         <v>1.09</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU237" t="n">
         <v>1.8</v>
@@ -52871,7 +52871,7 @@
         <v>1.67</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU258" t="n">
         <v>1.56</v>
@@ -53477,7 +53477,7 @@
         <v>1.6</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT261" t="n">
         <v>1.73</v>
@@ -58810,6 +58810,209 @@
       </c>
       <c r="BK287" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>2608425</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>44924.625</v>
+      </c>
+      <c r="F288" t="n">
+        <v>25</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Queens Park Rangers</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Luton Town</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="n">
+        <v>1</v>
+      </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M288" t="n">
+        <v>3</v>
+      </c>
+      <c r="N288" t="n">
+        <v>3</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>['10', '47', '81']</t>
+        </is>
+      </c>
+      <c r="Q288" t="n">
+        <v>6</v>
+      </c>
+      <c r="R288" t="n">
+        <v>0</v>
+      </c>
+      <c r="S288" t="n">
+        <v>6</v>
+      </c>
+      <c r="T288" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U288" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V288" t="n">
+        <v>4</v>
+      </c>
+      <c r="W288" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X288" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK288" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL288" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM288" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN288" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO288" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP288" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ288" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR288" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS288" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT288" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU288" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW288" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX288" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ288" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA288" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC288" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD288" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE288" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF288" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG288" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH288" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI288" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ288" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK288" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK295"/>
+  <dimension ref="A1:BK299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.31</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0.92</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT14" t="n">
         <v>0.73</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT15" t="n">
         <v>1.25</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT16" t="n">
         <v>1.15</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
         <v>1.08</v>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1.46</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>1.67</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU25" t="n">
         <v>1.47</v>
@@ -6181,7 +6181,7 @@
         <v>1.33</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU28" t="n">
         <v>1.54</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8208,10 +8208,10 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU38" t="n">
         <v>1.91</v>
@@ -8617,7 +8617,7 @@
         <v>2.38</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU40" t="n">
         <v>1.59</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT41" t="n">
         <v>0.73</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT44" t="n">
         <v>1.23</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT48" t="n">
         <v>1</v>
@@ -10444,7 +10444,7 @@
         <v>1.46</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU49" t="n">
         <v>2</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT50" t="n">
         <v>1.67</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT51" t="n">
         <v>1.62</v>
@@ -11662,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU55" t="n">
         <v>2.28</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT57" t="n">
         <v>1.25</v>
@@ -13083,7 +13083,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU62" t="n">
         <v>1.58</v>
@@ -13489,7 +13489,7 @@
         <v>2</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU64" t="n">
         <v>1.64</v>
@@ -14910,7 +14910,7 @@
         <v>1.42</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU71" t="n">
         <v>1.72</v>
@@ -15110,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT72" t="n">
         <v>1.42</v>
@@ -15722,7 +15722,7 @@
         <v>2</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU75" t="n">
         <v>2.19</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT78" t="n">
         <v>1.15</v>
@@ -17346,7 +17346,7 @@
         <v>1.46</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU83" t="n">
         <v>2.15</v>
@@ -17549,7 +17549,7 @@
         <v>1.33</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU84" t="n">
         <v>1.75</v>
@@ -17749,7 +17749,7 @@
         <v>1.33</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT85" t="n">
         <v>1.38</v>
@@ -18155,7 +18155,7 @@
         <v>0.33</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT87" t="n">
         <v>1.08</v>
@@ -20185,7 +20185,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT97" t="n">
         <v>2</v>
@@ -20391,7 +20391,7 @@
         <v>2</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU98" t="n">
         <v>1.45</v>
@@ -20797,7 +20797,7 @@
         <v>1</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU100" t="n">
         <v>1.81</v>
@@ -21200,7 +21200,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT102" t="n">
         <v>1.08</v>
@@ -22215,10 +22215,10 @@
         <v>0.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU107" t="n">
         <v>1.31</v>
@@ -22418,7 +22418,7 @@
         <v>0.4</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT108" t="n">
         <v>1.08</v>
@@ -23842,7 +23842,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU115" t="n">
         <v>1.48</v>
@@ -24245,7 +24245,7 @@
         <v>0.75</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT117" t="n">
         <v>1.33</v>
@@ -25466,7 +25466,7 @@
         <v>1.23</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU123" t="n">
         <v>1.51</v>
@@ -26884,10 +26884,10 @@
         <v>0.8</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU130" t="n">
         <v>1.62</v>
@@ -29526,7 +29526,7 @@
         <v>1.42</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU143" t="n">
         <v>1.65</v>
@@ -29729,7 +29729,7 @@
         <v>1.75</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU144" t="n">
         <v>1.35</v>
@@ -29932,7 +29932,7 @@
         <v>0.92</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU145" t="n">
         <v>1.54</v>
@@ -30132,7 +30132,7 @@
         <v>0.83</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT146" t="n">
         <v>1.08</v>
@@ -30335,7 +30335,7 @@
         <v>1.8</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT147" t="n">
         <v>1.75</v>
@@ -30538,7 +30538,7 @@
         <v>1.83</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT148" t="n">
         <v>2</v>
@@ -30741,7 +30741,7 @@
         <v>1.67</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT149" t="n">
         <v>1.62</v>
@@ -31759,7 +31759,7 @@
         <v>1.31</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU154" t="n">
         <v>1.27</v>
@@ -34801,7 +34801,7 @@
         <v>1.83</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT169" t="n">
         <v>1.67</v>
@@ -35004,10 +35004,10 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU170" t="n">
         <v>1.41</v>
@@ -35613,7 +35613,7 @@
         <v>0.6</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT173" t="n">
         <v>0.85</v>
@@ -36022,7 +36022,7 @@
         <v>0.92</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU175" t="n">
         <v>1.63</v>
@@ -36831,10 +36831,10 @@
         <v>1.71</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU179" t="n">
         <v>1.43</v>
@@ -37037,7 +37037,7 @@
         <v>2</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU180" t="n">
         <v>1.63</v>
@@ -37443,7 +37443,7 @@
         <v>1.33</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU182" t="n">
         <v>1.51</v>
@@ -38255,7 +38255,7 @@
         <v>1.33</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU186" t="n">
         <v>1.55</v>
@@ -39064,7 +39064,7 @@
         <v>0.88</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT190" t="n">
         <v>1.08</v>
@@ -39267,7 +39267,7 @@
         <v>0.88</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT191" t="n">
         <v>1</v>
@@ -40079,7 +40079,7 @@
         <v>1.63</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT195" t="n">
         <v>1.38</v>
@@ -40691,7 +40691,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU198" t="n">
         <v>1.37</v>
@@ -42112,7 +42112,7 @@
         <v>2.38</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU205" t="n">
         <v>1.68</v>
@@ -42312,7 +42312,7 @@
         <v>1.38</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT206" t="n">
         <v>1.38</v>
@@ -42721,7 +42721,7 @@
         <v>1.33</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU208" t="n">
         <v>1.93</v>
@@ -43936,7 +43936,7 @@
         <v>1.44</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT214" t="n">
         <v>1.38</v>
@@ -44345,7 +44345,7 @@
         <v>1.23</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU216" t="n">
         <v>1.63</v>
@@ -44748,7 +44748,7 @@
         <v>0.63</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT218" t="n">
         <v>1</v>
@@ -45157,7 +45157,7 @@
         <v>2</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU220" t="n">
         <v>2.22</v>
@@ -45357,7 +45357,7 @@
         <v>1.22</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT221" t="n">
         <v>1.25</v>
@@ -46375,7 +46375,7 @@
         <v>2</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU226" t="n">
         <v>1.65</v>
@@ -46575,7 +46575,7 @@
         <v>1.63</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT227" t="n">
         <v>1.25</v>
@@ -47796,7 +47796,7 @@
         <v>1.23</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU233" t="n">
         <v>1.59</v>
@@ -48199,7 +48199,7 @@
         <v>1.33</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT235" t="n">
         <v>1.15</v>
@@ -48605,7 +48605,7 @@
         <v>1.89</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT237" t="n">
         <v>1.67</v>
@@ -48811,7 +48811,7 @@
         <v>1.67</v>
       </c>
       <c r="AT238" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU238" t="n">
         <v>1.5</v>
@@ -49011,7 +49011,7 @@
         <v>1.4</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT239" t="n">
         <v>1.62</v>
@@ -49217,7 +49217,7 @@
         <v>1.08</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU240" t="n">
         <v>1.38</v>
@@ -49420,7 +49420,7 @@
         <v>1.15</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU241" t="n">
         <v>1.42</v>
@@ -50432,7 +50432,7 @@
         <v>1</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT246" t="n">
         <v>1.23</v>
@@ -52259,7 +52259,7 @@
         <v>1</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT255" t="n">
         <v>1</v>
@@ -52665,7 +52665,7 @@
         <v>1.4</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT257" t="n">
         <v>1.42</v>
@@ -53480,7 +53480,7 @@
         <v>1.42</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU261" t="n">
         <v>1.81</v>
@@ -53683,7 +53683,7 @@
         <v>1.67</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU262" t="n">
         <v>1.53</v>
@@ -54086,10 +54086,10 @@
         <v>0.91</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU264" t="n">
         <v>1.4</v>
@@ -54495,7 +54495,7 @@
         <v>1.31</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU266" t="n">
         <v>1.29</v>
@@ -55913,7 +55913,7 @@
         <v>1.09</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT273" t="n">
         <v>1.15</v>
@@ -60434,6 +60434,818 @@
       </c>
       <c r="BK295" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>2608424</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>44925.69791666666</v>
+      </c>
+      <c r="F296" t="n">
+        <v>25</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Norwich City</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="n">
+        <v>1</v>
+      </c>
+      <c r="N296" t="n">
+        <v>2</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q296" t="n">
+        <v>7</v>
+      </c>
+      <c r="R296" t="n">
+        <v>7</v>
+      </c>
+      <c r="S296" t="n">
+        <v>14</v>
+      </c>
+      <c r="T296" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U296" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V296" t="n">
+        <v>5</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X296" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP296" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ296" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR296" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS296" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT296" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU296" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW296" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX296" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ296" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BA296" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB296" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC296" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD296" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE296" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF296" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG296" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH296" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI296" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ296" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK296" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>2608418</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>44925.69791666666</v>
+      </c>
+      <c r="F297" t="n">
+        <v>25</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Birmingham City</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Hull City</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M297" t="n">
+        <v>1</v>
+      </c>
+      <c r="N297" t="n">
+        <v>1</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q297" t="n">
+        <v>4</v>
+      </c>
+      <c r="R297" t="n">
+        <v>7</v>
+      </c>
+      <c r="S297" t="n">
+        <v>11</v>
+      </c>
+      <c r="T297" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U297" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V297" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X297" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BA297" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD297" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE297" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF297" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG297" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH297" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI297" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ297" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK297" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="n">
+        <v>2608426</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>44925.69791666666</v>
+      </c>
+      <c r="F298" t="n">
+        <v>25</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Swansea City</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>1</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="n">
+        <v>4</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N298" t="n">
+        <v>4</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>['39', '74', '78', '87']</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q298" t="n">
+        <v>4</v>
+      </c>
+      <c r="R298" t="n">
+        <v>2</v>
+      </c>
+      <c r="S298" t="n">
+        <v>6</v>
+      </c>
+      <c r="T298" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U298" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V298" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W298" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X298" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE298" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ298" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK298" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL298" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM298" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN298" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP298" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ298" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR298" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS298" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT298" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU298" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW298" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX298" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY298" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ298" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA298" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB298" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC298" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD298" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE298" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF298" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG298" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH298" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI298" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ298" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK298" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="n">
+        <v>2608428</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="n">
+        <v>44925.69791666666</v>
+      </c>
+      <c r="F299" t="n">
+        <v>25</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Stoke City</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>1</v>
+      </c>
+      <c r="N299" t="n">
+        <v>1</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q299" t="n">
+        <v>3</v>
+      </c>
+      <c r="R299" t="n">
+        <v>5</v>
+      </c>
+      <c r="S299" t="n">
+        <v>8</v>
+      </c>
+      <c r="T299" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U299" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V299" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W299" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X299" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD299" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE299" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF299" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG299" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH299" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI299" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ299" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK299" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL299" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM299" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN299" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO299" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP299" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ299" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR299" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS299" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT299" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU299" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV299" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW299" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX299" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY299" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ299" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA299" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB299" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC299" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD299" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE299" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF299" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG299" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH299" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI299" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ299" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK299" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK299"/>
+  <dimension ref="A1:BK304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT2" t="n">
         <v>1.83</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT4" t="n">
         <v>1.38</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT9" t="n">
         <v>1.38</v>
@@ -4354,7 +4354,7 @@
         <v>2.08</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2.38</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.15</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT31" t="n">
         <v>1.08</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT33" t="n">
         <v>1.38</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT36" t="n">
         <v>1.33</v>
@@ -8414,7 +8414,7 @@
         <v>1.15</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU39" t="n">
         <v>0.63</v>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU42" t="n">
         <v>2.35</v>
@@ -9632,7 +9632,7 @@
         <v>2</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU45" t="n">
         <v>1</v>
@@ -10038,7 +10038,7 @@
         <v>1.46</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU47" t="n">
         <v>2.26</v>
@@ -10647,7 +10647,7 @@
         <v>1.67</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU50" t="n">
         <v>1.11</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU51" t="n">
         <v>1.32</v>
@@ -11459,7 +11459,7 @@
         <v>1.42</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU54" t="n">
         <v>1.59</v>
@@ -12271,7 +12271,7 @@
         <v>1.15</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU58" t="n">
         <v>0.9399999999999999</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT64" t="n">
         <v>0.85</v>
@@ -13892,7 +13892,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT66" t="n">
         <v>1.33</v>
@@ -14501,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT69" t="n">
         <v>1.38</v>
@@ -15519,7 +15519,7 @@
         <v>1.23</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU74" t="n">
         <v>1.45</v>
@@ -16534,7 +16534,7 @@
         <v>1.33</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU79" t="n">
         <v>1.68</v>
@@ -16937,7 +16937,7 @@
         <v>1.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT81" t="n">
         <v>1.75</v>
@@ -18358,10 +18358,10 @@
         <v>0.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT88" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU88" t="n">
         <v>1.61</v>
@@ -18764,7 +18764,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT90" t="n">
         <v>1.08</v>
@@ -19373,7 +19373,7 @@
         <v>1.33</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT93" t="n">
         <v>1.08</v>
@@ -19579,7 +19579,7 @@
         <v>1.67</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU94" t="n">
         <v>1.28</v>
@@ -19985,7 +19985,7 @@
         <v>1.67</v>
       </c>
       <c r="AT96" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU96" t="n">
         <v>1.25</v>
@@ -20388,7 +20388,7 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT98" t="n">
         <v>1.31</v>
@@ -20591,7 +20591,7 @@
         <v>2.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT99" t="n">
         <v>1.25</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT103" t="n">
         <v>1.38</v>
@@ -22015,7 +22015,7 @@
         <v>2.08</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU106" t="n">
         <v>1.29</v>
@@ -22824,10 +22824,10 @@
         <v>0.8</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT110" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU110" t="n">
         <v>1.31</v>
@@ -23230,7 +23230,7 @@
         <v>1.4</v>
       </c>
       <c r="AS112" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT112" t="n">
         <v>1.08</v>
@@ -23639,7 +23639,7 @@
         <v>1.67</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU114" t="n">
         <v>1.35</v>
@@ -24451,7 +24451,7 @@
         <v>1.67</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU118" t="n">
         <v>1.34</v>
@@ -24654,7 +24654,7 @@
         <v>1.08</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU119" t="n">
         <v>1.42</v>
@@ -24854,7 +24854,7 @@
         <v>0.25</v>
       </c>
       <c r="AS120" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT120" t="n">
         <v>1</v>
@@ -26681,7 +26681,7 @@
         <v>0.25</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT129" t="n">
         <v>1.23</v>
@@ -29726,7 +29726,7 @@
         <v>1.5</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT144" t="n">
         <v>1.83</v>
@@ -30744,7 +30744,7 @@
         <v>1.67</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU149" t="n">
         <v>1.39</v>
@@ -30947,7 +30947,7 @@
         <v>1.46</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU150" t="n">
         <v>2.18</v>
@@ -31147,7 +31147,7 @@
         <v>0.2</v>
       </c>
       <c r="AS151" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT151" t="n">
         <v>1.23</v>
@@ -31350,10 +31350,10 @@
         <v>0.75</v>
       </c>
       <c r="AS152" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU152" t="n">
         <v>1.52</v>
@@ -31556,7 +31556,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT153" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU153" t="n">
         <v>1.37</v>
@@ -31756,7 +31756,7 @@
         <v>0.4</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT154" t="n">
         <v>1.33</v>
@@ -34804,7 +34804,7 @@
         <v>1.46</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU169" t="n">
         <v>2.01</v>
@@ -35207,7 +35207,7 @@
         <v>1.71</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT171" t="n">
         <v>1.75</v>
@@ -35616,7 +35616,7 @@
         <v>1</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU173" t="n">
         <v>1.62</v>
@@ -35816,10 +35816,10 @@
         <v>1.43</v>
       </c>
       <c r="AS174" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU174" t="n">
         <v>1.58</v>
@@ -36225,7 +36225,7 @@
         <v>1.42</v>
       </c>
       <c r="AT176" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU176" t="n">
         <v>1.62</v>
@@ -36628,7 +36628,7 @@
         <v>1.57</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT178" t="n">
         <v>2</v>
@@ -37034,7 +37034,7 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT180" t="n">
         <v>1.31</v>
@@ -37643,7 +37643,7 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT183" t="n">
         <v>1.33</v>
@@ -38455,7 +38455,7 @@
         <v>1.38</v>
       </c>
       <c r="AS187" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT187" t="n">
         <v>1.25</v>
@@ -39270,7 +39270,7 @@
         <v>1.67</v>
       </c>
       <c r="AT191" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU191" t="n">
         <v>1.46</v>
@@ -39473,7 +39473,7 @@
         <v>1.67</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU192" t="n">
         <v>1.41</v>
@@ -39673,10 +39673,10 @@
         <v>1</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU193" t="n">
         <v>1.07</v>
@@ -41097,7 +41097,7 @@
         <v>1.33</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU200" t="n">
         <v>1.96</v>
@@ -41500,7 +41500,7 @@
         <v>0.71</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT202" t="n">
         <v>1</v>
@@ -41703,7 +41703,7 @@
         <v>1.13</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT203" t="n">
         <v>1.08</v>
@@ -41909,7 +41909,7 @@
         <v>1.23</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU204" t="n">
         <v>1.56</v>
@@ -43124,7 +43124,7 @@
         <v>1.33</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT210" t="n">
         <v>1.15</v>
@@ -44139,10 +44139,10 @@
         <v>1.22</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU215" t="n">
         <v>1.26</v>
@@ -44548,7 +44548,7 @@
         <v>2.38</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU217" t="n">
         <v>1.7</v>
@@ -46172,7 +46172,7 @@
         <v>1.33</v>
       </c>
       <c r="AT225" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU225" t="n">
         <v>1.53</v>
@@ -46372,7 +46372,7 @@
         <v>1</v>
       </c>
       <c r="AS226" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT226" t="n">
         <v>1.33</v>
@@ -46981,7 +46981,7 @@
         <v>0.29</v>
       </c>
       <c r="AS229" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT229" t="n">
         <v>0.73</v>
@@ -47187,7 +47187,7 @@
         <v>0.92</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU230" t="n">
         <v>1.53</v>
@@ -47390,7 +47390,7 @@
         <v>2</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU231" t="n">
         <v>2.26</v>
@@ -48402,7 +48402,7 @@
         <v>1.56</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT236" t="n">
         <v>1.25</v>
@@ -48608,7 +48608,7 @@
         <v>1</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU237" t="n">
         <v>1.8</v>
@@ -49014,7 +49014,7 @@
         <v>1.31</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU239" t="n">
         <v>1.31</v>
@@ -49823,7 +49823,7 @@
         <v>1.4</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT243" t="n">
         <v>1.38</v>
@@ -50026,7 +50026,7 @@
         <v>1.3</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT244" t="n">
         <v>1.15</v>
@@ -50232,7 +50232,7 @@
         <v>1.33</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU245" t="n">
         <v>1.88</v>
@@ -51650,7 +51650,7 @@
         <v>1.8</v>
       </c>
       <c r="AS252" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT252" t="n">
         <v>1.75</v>
@@ -52262,7 +52262,7 @@
         <v>1</v>
       </c>
       <c r="AT255" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU255" t="n">
         <v>1.73</v>
@@ -52871,7 +52871,7 @@
         <v>1.67</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU258" t="n">
         <v>1.56</v>
@@ -53274,7 +53274,7 @@
         <v>1.4</v>
       </c>
       <c r="AS260" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT260" t="n">
         <v>1.25</v>
@@ -54292,7 +54292,7 @@
         <v>1.46</v>
       </c>
       <c r="AT265" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU265" t="n">
         <v>1.91</v>
@@ -54492,7 +54492,7 @@
         <v>1.27</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT266" t="n">
         <v>1.31</v>
@@ -55507,7 +55507,7 @@
         <v>1.27</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT271" t="n">
         <v>1.15</v>
@@ -55713,7 +55713,7 @@
         <v>1.08</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU272" t="n">
         <v>1.39</v>
@@ -56319,7 +56319,7 @@
         <v>1.3</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT275" t="n">
         <v>1.33</v>
@@ -58961,7 +58961,7 @@
         <v>1.42</v>
       </c>
       <c r="AT288" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU288" t="n">
         <v>1.74</v>
@@ -59161,7 +59161,7 @@
         <v>1.09</v>
       </c>
       <c r="AS289" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT289" t="n">
         <v>1.08</v>
@@ -59367,7 +59367,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT290" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU290" t="n">
         <v>1.38</v>
@@ -59567,10 +59567,10 @@
         <v>0.92</v>
       </c>
       <c r="AS291" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT291" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU291" t="n">
         <v>1.32</v>
@@ -59770,10 +59770,10 @@
         <v>1</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT292" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU292" t="n">
         <v>1.58</v>
@@ -59973,7 +59973,7 @@
         <v>1.08</v>
       </c>
       <c r="AS293" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT293" t="n">
         <v>1.23</v>
@@ -61246,6 +61246,1021 @@
       </c>
       <c r="BK299" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="n">
+        <v>2608431</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="n">
+        <v>44927.375</v>
+      </c>
+      <c r="F300" t="n">
+        <v>26</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Blackburn Rovers</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Cardiff City</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N300" t="n">
+        <v>1</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q300" t="n">
+        <v>3</v>
+      </c>
+      <c r="R300" t="n">
+        <v>9</v>
+      </c>
+      <c r="S300" t="n">
+        <v>12</v>
+      </c>
+      <c r="T300" t="n">
+        <v>3</v>
+      </c>
+      <c r="U300" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V300" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W300" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X300" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH300" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI300" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ300" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK300" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL300" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM300" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN300" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO300" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP300" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ300" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR300" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS300" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT300" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU300" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW300" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX300" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY300" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ300" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA300" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB300" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC300" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD300" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE300" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF300" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG300" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH300" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI300" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ300" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK300" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="n">
+        <v>2608433</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E301" s="2" t="n">
+        <v>44927.5</v>
+      </c>
+      <c r="F301" t="n">
+        <v>26</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Coventry City</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>1</v>
+      </c>
+      <c r="J301" t="n">
+        <v>1</v>
+      </c>
+      <c r="K301" t="n">
+        <v>2</v>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="n">
+        <v>1</v>
+      </c>
+      <c r="N301" t="n">
+        <v>2</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q301" t="n">
+        <v>6</v>
+      </c>
+      <c r="R301" t="n">
+        <v>11</v>
+      </c>
+      <c r="S301" t="n">
+        <v>17</v>
+      </c>
+      <c r="T301" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U301" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V301" t="n">
+        <v>4</v>
+      </c>
+      <c r="W301" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X301" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG301" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH301" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI301" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ301" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK301" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL301" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM301" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN301" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO301" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP301" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ301" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR301" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS301" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT301" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU301" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV301" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW301" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX301" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY301" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ301" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BA301" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB301" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC301" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD301" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE301" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF301" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG301" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH301" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI301" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ301" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK301" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="n">
+        <v>2608435</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E302" s="2" t="n">
+        <v>44927.5</v>
+      </c>
+      <c r="F302" t="n">
+        <v>26</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Rotherham United</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>1</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="n">
+        <v>3</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N302" t="n">
+        <v>3</v>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>['4', '66', '81']</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q302" t="n">
+        <v>10</v>
+      </c>
+      <c r="R302" t="n">
+        <v>1</v>
+      </c>
+      <c r="S302" t="n">
+        <v>11</v>
+      </c>
+      <c r="T302" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U302" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V302" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W302" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X302" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC302" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD302" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE302" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF302" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG302" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH302" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI302" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ302" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK302" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL302" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM302" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN302" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO302" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP302" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ302" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR302" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS302" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT302" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU302" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV302" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AW302" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX302" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY302" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ302" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA302" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB302" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC302" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD302" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE302" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF302" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG302" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH302" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI302" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ302" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK302" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="n">
+        <v>2608434</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E303" s="2" t="n">
+        <v>44927.5</v>
+      </c>
+      <c r="F303" t="n">
+        <v>26</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Huddersfield Town</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Luton Town</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>1</v>
+      </c>
+      <c r="J303" t="n">
+        <v>1</v>
+      </c>
+      <c r="K303" t="n">
+        <v>2</v>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="n">
+        <v>2</v>
+      </c>
+      <c r="N303" t="n">
+        <v>3</v>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>['43', '84']</t>
+        </is>
+      </c>
+      <c r="Q303" t="n">
+        <v>1</v>
+      </c>
+      <c r="R303" t="n">
+        <v>1</v>
+      </c>
+      <c r="S303" t="n">
+        <v>2</v>
+      </c>
+      <c r="T303" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U303" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V303" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W303" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X303" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB303" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC303" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD303" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE303" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF303" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG303" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH303" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI303" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ303" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK303" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL303" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM303" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN303" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO303" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP303" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ303" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR303" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS303" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT303" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AU303" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV303" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW303" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX303" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY303" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ303" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA303" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB303" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC303" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD303" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE303" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF303" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG303" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH303" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI303" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ303" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK303" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="n">
+        <v>2608432</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E304" s="2" t="n">
+        <v>44927.5</v>
+      </c>
+      <c r="F304" t="n">
+        <v>26</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>1</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="n">
+        <v>1</v>
+      </c>
+      <c r="N304" t="n">
+        <v>2</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q304" t="n">
+        <v>1</v>
+      </c>
+      <c r="R304" t="n">
+        <v>5</v>
+      </c>
+      <c r="S304" t="n">
+        <v>6</v>
+      </c>
+      <c r="T304" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U304" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V304" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W304" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X304" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD304" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE304" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF304" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG304" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH304" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI304" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ304" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK304" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL304" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM304" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN304" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO304" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP304" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ304" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR304" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS304" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT304" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU304" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV304" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW304" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX304" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY304" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ304" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA304" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB304" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC304" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD304" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE304" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF304" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG304" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH304" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI304" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ304" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK304" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK304"/>
+  <dimension ref="A1:BK311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.21</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0.92</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.67</v>
       </c>
       <c r="AT13" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT14" t="n">
         <v>0.73</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT15" t="n">
         <v>1.25</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT16" t="n">
         <v>1.15</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT17" t="n">
         <v>1.08</v>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>1.67</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU25" t="n">
         <v>1.47</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT27" t="n">
         <v>1.08</v>
@@ -6181,7 +6181,7 @@
         <v>1.33</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU28" t="n">
         <v>1.54</v>
@@ -6587,7 +6587,7 @@
         <v>1.33</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU30" t="n">
         <v>1.9</v>
@@ -7602,7 +7602,7 @@
         <v>1.67</v>
       </c>
       <c r="AT35" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU35" t="n">
         <v>1.69</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8208,10 +8208,10 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU38" t="n">
         <v>1.91</v>
@@ -8617,7 +8617,7 @@
         <v>2.38</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU40" t="n">
         <v>1.59</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT41" t="n">
         <v>0.73</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT43" t="n">
         <v>1.08</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU44" t="n">
         <v>1.33</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT47" t="n">
         <v>0.92</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT48" t="n">
         <v>1</v>
@@ -10441,10 +10441,10 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT49" t="n">
         <v>1.46</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>1.33</v>
       </c>
       <c r="AU49" t="n">
         <v>2</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT50" t="n">
         <v>1.77</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT51" t="n">
         <v>1.57</v>
@@ -11256,7 +11256,7 @@
         <v>2.08</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU53" t="n">
         <v>1.37</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT54" t="n">
         <v>0.79</v>
@@ -11662,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU55" t="n">
         <v>2.28</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT57" t="n">
         <v>1.25</v>
@@ -12474,7 +12474,7 @@
         <v>1.33</v>
       </c>
       <c r="AT59" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU59" t="n">
         <v>1.93</v>
@@ -13080,10 +13080,10 @@
         <v>1.5</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU62" t="n">
         <v>1.58</v>
@@ -13489,7 +13489,7 @@
         <v>2.08</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU64" t="n">
         <v>1.64</v>
@@ -14098,7 +14098,7 @@
         <v>1.23</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU67" t="n">
         <v>1.06</v>
@@ -14907,10 +14907,10 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU71" t="n">
         <v>1.72</v>
@@ -15110,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT72" t="n">
         <v>1.42</v>
@@ -15722,7 +15722,7 @@
         <v>2</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU75" t="n">
         <v>2.19</v>
@@ -15922,7 +15922,7 @@
         <v>0.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT76" t="n">
         <v>1.33</v>
@@ -16128,7 +16128,7 @@
         <v>1.67</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU77" t="n">
         <v>1.3</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT78" t="n">
         <v>1.15</v>
@@ -16940,7 +16940,7 @@
         <v>1.69</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU81" t="n">
         <v>0</v>
@@ -17343,10 +17343,10 @@
         <v>2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU83" t="n">
         <v>2.15</v>
@@ -17549,7 +17549,7 @@
         <v>1.33</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU84" t="n">
         <v>1.75</v>
@@ -17749,7 +17749,7 @@
         <v>1.33</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT85" t="n">
         <v>1.38</v>
@@ -18155,7 +18155,7 @@
         <v>0.33</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT87" t="n">
         <v>1.08</v>
@@ -19173,7 +19173,7 @@
         <v>1.08</v>
       </c>
       <c r="AT92" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU92" t="n">
         <v>1.36</v>
@@ -20185,10 +20185,10 @@
         <v>1.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT97" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU97" t="n">
         <v>1.32</v>
@@ -20391,7 +20391,7 @@
         <v>2.08</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU98" t="n">
         <v>1.45</v>
@@ -20797,7 +20797,7 @@
         <v>1</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU100" t="n">
         <v>1.81</v>
@@ -21200,7 +21200,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT102" t="n">
         <v>1.08</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT105" t="n">
         <v>1.25</v>
@@ -22215,10 +22215,10 @@
         <v>0.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU107" t="n">
         <v>1.31</v>
@@ -22418,7 +22418,7 @@
         <v>0.4</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT108" t="n">
         <v>1.08</v>
@@ -23433,7 +23433,7 @@
         <v>1.2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT113" t="n">
         <v>1.38</v>
@@ -23839,10 +23839,10 @@
         <v>0.75</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU115" t="n">
         <v>1.48</v>
@@ -24045,7 +24045,7 @@
         <v>1</v>
       </c>
       <c r="AT116" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU116" t="n">
         <v>1.63</v>
@@ -24245,7 +24245,7 @@
         <v>0.75</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT117" t="n">
         <v>1.33</v>
@@ -25466,7 +25466,7 @@
         <v>1.23</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU123" t="n">
         <v>1.51</v>
@@ -26072,7 +26072,7 @@
         <v>1.25</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT126" t="n">
         <v>1.15</v>
@@ -26278,7 +26278,7 @@
         <v>1.33</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU127" t="n">
         <v>1.66</v>
@@ -26684,7 +26684,7 @@
         <v>1.69</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU129" t="n">
         <v>1.47</v>
@@ -26884,10 +26884,10 @@
         <v>0.8</v>
       </c>
       <c r="AS130" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU130" t="n">
         <v>1.62</v>
@@ -29523,10 +29523,10 @@
         <v>1.2</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU143" t="n">
         <v>1.65</v>
@@ -29729,7 +29729,7 @@
         <v>1.69</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU144" t="n">
         <v>1.35</v>
@@ -29932,7 +29932,7 @@
         <v>0.92</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU145" t="n">
         <v>1.54</v>
@@ -30132,7 +30132,7 @@
         <v>0.83</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT146" t="n">
         <v>1.08</v>
@@ -30335,10 +30335,10 @@
         <v>1.8</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU147" t="n">
         <v>1.96</v>
@@ -30538,10 +30538,10 @@
         <v>1.83</v>
       </c>
       <c r="AS148" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT148" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU148" t="n">
         <v>1.6</v>
@@ -30741,7 +30741,7 @@
         <v>1.67</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT149" t="n">
         <v>1.57</v>
@@ -30944,7 +30944,7 @@
         <v>2</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT150" t="n">
         <v>1.77</v>
@@ -31150,7 +31150,7 @@
         <v>2.08</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU151" t="n">
         <v>1.69</v>
@@ -31553,7 +31553,7 @@
         <v>0.67</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT153" t="n">
         <v>0.92</v>
@@ -31759,7 +31759,7 @@
         <v>1.21</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU154" t="n">
         <v>1.27</v>
@@ -31959,7 +31959,7 @@
         <v>1</v>
       </c>
       <c r="AS155" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT155" t="n">
         <v>1.15</v>
@@ -32165,7 +32165,7 @@
         <v>1.15</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU156" t="n">
         <v>1.37</v>
@@ -34801,7 +34801,7 @@
         <v>1.83</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT169" t="n">
         <v>1.77</v>
@@ -35004,10 +35004,10 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU170" t="n">
         <v>1.41</v>
@@ -35210,7 +35210,7 @@
         <v>1.21</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU171" t="n">
         <v>1.25</v>
@@ -35410,7 +35410,7 @@
         <v>0.71</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT172" t="n">
         <v>1.08</v>
@@ -35613,7 +35613,7 @@
         <v>0.6</v>
       </c>
       <c r="AS173" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT173" t="n">
         <v>0.79</v>
@@ -36022,7 +36022,7 @@
         <v>0.92</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU175" t="n">
         <v>1.63</v>
@@ -36222,7 +36222,7 @@
         <v>1</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT176" t="n">
         <v>0.92</v>
@@ -36425,10 +36425,10 @@
         <v>0.17</v>
       </c>
       <c r="AS177" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU177" t="n">
         <v>1.39</v>
@@ -36631,7 +36631,7 @@
         <v>1.69</v>
       </c>
       <c r="AT178" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU178" t="n">
         <v>1.1</v>
@@ -36831,10 +36831,10 @@
         <v>1.71</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU179" t="n">
         <v>1.43</v>
@@ -37037,7 +37037,7 @@
         <v>2.08</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU180" t="n">
         <v>1.63</v>
@@ -37240,7 +37240,7 @@
         <v>0.92</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU181" t="n">
         <v>1.54</v>
@@ -37443,7 +37443,7 @@
         <v>1.33</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU182" t="n">
         <v>1.51</v>
@@ -38255,7 +38255,7 @@
         <v>1.33</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU186" t="n">
         <v>1.55</v>
@@ -38658,7 +38658,7 @@
         <v>1.86</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT188" t="n">
         <v>1.25</v>
@@ -39064,7 +39064,7 @@
         <v>0.88</v>
       </c>
       <c r="AS190" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT190" t="n">
         <v>1.08</v>
@@ -39267,7 +39267,7 @@
         <v>0.88</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT191" t="n">
         <v>0.92</v>
@@ -40079,7 +40079,7 @@
         <v>1.63</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT195" t="n">
         <v>1.38</v>
@@ -40485,10 +40485,10 @@
         <v>1.38</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT197" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU197" t="n">
         <v>1.99</v>
@@ -40688,10 +40688,10 @@
         <v>0.88</v>
       </c>
       <c r="AS198" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU198" t="n">
         <v>1.37</v>
@@ -40894,7 +40894,7 @@
         <v>1</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU199" t="n">
         <v>1.51</v>
@@ -42112,7 +42112,7 @@
         <v>2.38</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU205" t="n">
         <v>1.68</v>
@@ -42312,7 +42312,7 @@
         <v>1.38</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT206" t="n">
         <v>1.38</v>
@@ -42721,7 +42721,7 @@
         <v>1.33</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU208" t="n">
         <v>1.93</v>
@@ -42924,7 +42924,7 @@
         <v>1.08</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU209" t="n">
         <v>1.36</v>
@@ -43327,7 +43327,7 @@
         <v>1.33</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT211" t="n">
         <v>1.08</v>
@@ -43533,7 +43533,7 @@
         <v>1.15</v>
       </c>
       <c r="AT212" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU212" t="n">
         <v>1.39</v>
@@ -43733,7 +43733,7 @@
         <v>1.22</v>
       </c>
       <c r="AS213" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT213" t="n">
         <v>1.38</v>
@@ -43936,7 +43936,7 @@
         <v>1.44</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT214" t="n">
         <v>1.38</v>
@@ -44345,7 +44345,7 @@
         <v>1.23</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU216" t="n">
         <v>1.63</v>
@@ -44748,7 +44748,7 @@
         <v>0.63</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT218" t="n">
         <v>1</v>
@@ -44954,7 +44954,7 @@
         <v>2.08</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU219" t="n">
         <v>1.36</v>
@@ -45157,7 +45157,7 @@
         <v>2</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU220" t="n">
         <v>2.22</v>
@@ -45357,7 +45357,7 @@
         <v>1.22</v>
       </c>
       <c r="AS221" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT221" t="n">
         <v>1.25</v>
@@ -45966,7 +45966,7 @@
         <v>0.88</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT224" t="n">
         <v>1.33</v>
@@ -46375,7 +46375,7 @@
         <v>2.08</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU226" t="n">
         <v>1.65</v>
@@ -46575,7 +46575,7 @@
         <v>1.63</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT227" t="n">
         <v>1.25</v>
@@ -47590,7 +47590,7 @@
         <v>0.25</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT232" t="n">
         <v>0.73</v>
@@ -47796,7 +47796,7 @@
         <v>1.23</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU233" t="n">
         <v>1.59</v>
@@ -47999,7 +47999,7 @@
         <v>0.92</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU234" t="n">
         <v>1.57</v>
@@ -48199,7 +48199,7 @@
         <v>1.33</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT235" t="n">
         <v>1.15</v>
@@ -48605,7 +48605,7 @@
         <v>1.89</v>
       </c>
       <c r="AS237" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT237" t="n">
         <v>1.77</v>
@@ -48811,7 +48811,7 @@
         <v>1.67</v>
       </c>
       <c r="AT238" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU238" t="n">
         <v>1.5</v>
@@ -49011,7 +49011,7 @@
         <v>1.4</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT239" t="n">
         <v>1.57</v>
@@ -49217,7 +49217,7 @@
         <v>1.08</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU240" t="n">
         <v>1.38</v>
@@ -49420,7 +49420,7 @@
         <v>1.15</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU241" t="n">
         <v>1.42</v>
@@ -49623,7 +49623,7 @@
         <v>1.23</v>
       </c>
       <c r="AT242" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU242" t="n">
         <v>1.57</v>
@@ -50432,10 +50432,10 @@
         <v>1</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU246" t="n">
         <v>1.86</v>
@@ -50838,7 +50838,7 @@
         <v>1.4</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT248" t="n">
         <v>1.38</v>
@@ -51041,7 +51041,7 @@
         <v>1.2</v>
       </c>
       <c r="AS249" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT249" t="n">
         <v>1.08</v>
@@ -51653,7 +51653,7 @@
         <v>2.08</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU252" t="n">
         <v>1.46</v>
@@ -52259,7 +52259,7 @@
         <v>1</v>
       </c>
       <c r="AS255" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT255" t="n">
         <v>0.92</v>
@@ -52665,7 +52665,7 @@
         <v>1.4</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT257" t="n">
         <v>1.42</v>
@@ -53477,10 +53477,10 @@
         <v>1.6</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU261" t="n">
         <v>1.81</v>
@@ -53683,7 +53683,7 @@
         <v>1.67</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU262" t="n">
         <v>1.53</v>
@@ -54086,10 +54086,10 @@
         <v>0.91</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU264" t="n">
         <v>1.4</v>
@@ -54289,7 +54289,7 @@
         <v>1</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT265" t="n">
         <v>0.79</v>
@@ -54495,7 +54495,7 @@
         <v>1.21</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU266" t="n">
         <v>1.29</v>
@@ -55104,7 +55104,7 @@
         <v>2.38</v>
       </c>
       <c r="AT269" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU269" t="n">
         <v>1.81</v>
@@ -55913,7 +55913,7 @@
         <v>1.09</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT273" t="n">
         <v>1.15</v>
@@ -56116,10 +56116,10 @@
         <v>1.82</v>
       </c>
       <c r="AS274" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT274" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU274" t="n">
         <v>1.38</v>
@@ -58958,7 +58958,7 @@
         <v>1.55</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT288" t="n">
         <v>1.77</v>
@@ -59364,7 +59364,7 @@
         <v>1.5</v>
       </c>
       <c r="AS290" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT290" t="n">
         <v>1.57</v>
@@ -59976,7 +59976,7 @@
         <v>2.08</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU293" t="n">
         <v>1.43</v>
@@ -60176,10 +60176,10 @@
         <v>1.91</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT294" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU294" t="n">
         <v>1.92</v>
@@ -60382,7 +60382,7 @@
         <v>0.92</v>
       </c>
       <c r="AT295" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU295" t="n">
         <v>1.45</v>
@@ -60582,10 +60582,10 @@
         <v>0.83</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT296" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU296" t="n">
         <v>1.86</v>
@@ -60785,10 +60785,10 @@
         <v>1.18</v>
       </c>
       <c r="AS297" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT297" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU297" t="n">
         <v>1.38</v>
@@ -60988,10 +60988,10 @@
         <v>1.42</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT298" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU298" t="n">
         <v>1.59</v>
@@ -61191,10 +61191,10 @@
         <v>1.73</v>
       </c>
       <c r="AS299" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU299" t="n">
         <v>1.7</v>
@@ -62261,6 +62261,1427 @@
       </c>
       <c r="BK304" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="n">
+        <v>2608430</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E305" s="2" t="n">
+        <v>44928.5</v>
+      </c>
+      <c r="F305" t="n">
+        <v>26</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Birmingham City</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="n">
+        <v>3</v>
+      </c>
+      <c r="N305" t="n">
+        <v>4</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>['57', '59', '85']</t>
+        </is>
+      </c>
+      <c r="Q305" t="n">
+        <v>9</v>
+      </c>
+      <c r="R305" t="n">
+        <v>8</v>
+      </c>
+      <c r="S305" t="n">
+        <v>17</v>
+      </c>
+      <c r="T305" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U305" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V305" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W305" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X305" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ305" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK305" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL305" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM305" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN305" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO305" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP305" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ305" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR305" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS305" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT305" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU305" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV305" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW305" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX305" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY305" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ305" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA305" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB305" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC305" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD305" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE305" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF305" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG305" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH305" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI305" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ305" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK305" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="n">
+        <v>2608440</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E306" s="2" t="n">
+        <v>44928.5</v>
+      </c>
+      <c r="F306" t="n">
+        <v>26</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>West Bromwich Albion</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N306" t="n">
+        <v>1</v>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q306" t="n">
+        <v>6</v>
+      </c>
+      <c r="R306" t="n">
+        <v>3</v>
+      </c>
+      <c r="S306" t="n">
+        <v>9</v>
+      </c>
+      <c r="T306" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U306" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V306" t="n">
+        <v>5</v>
+      </c>
+      <c r="W306" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X306" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG306" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH306" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI306" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AJ306" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK306" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL306" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM306" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN306" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO306" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP306" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ306" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR306" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS306" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT306" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU306" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV306" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW306" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX306" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AY306" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ306" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA306" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB306" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC306" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD306" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE306" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF306" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG306" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH306" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI306" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ306" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK306" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="n">
+        <v>2608436</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="n">
+        <v>44928.5</v>
+      </c>
+      <c r="F307" t="n">
+        <v>26</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Norwich City</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>1</v>
+      </c>
+      <c r="N307" t="n">
+        <v>1</v>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q307" t="n">
+        <v>8</v>
+      </c>
+      <c r="R307" t="n">
+        <v>3</v>
+      </c>
+      <c r="S307" t="n">
+        <v>11</v>
+      </c>
+      <c r="T307" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U307" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V307" t="n">
+        <v>4</v>
+      </c>
+      <c r="W307" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X307" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI307" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ307" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK307" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL307" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM307" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN307" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO307" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP307" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ307" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR307" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS307" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT307" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU307" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV307" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW307" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX307" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY307" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ307" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA307" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB307" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC307" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD307" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE307" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF307" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG307" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH307" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI307" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ307" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK307" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="n">
+        <v>2608441</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E308" s="2" t="n">
+        <v>44928.5</v>
+      </c>
+      <c r="F308" t="n">
+        <v>26</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>Wigan Athletic</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Hull City</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" t="n">
+        <v>1</v>
+      </c>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="n">
+        <v>4</v>
+      </c>
+      <c r="N308" t="n">
+        <v>5</v>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>['15', '78', '85', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q308" t="n">
+        <v>7</v>
+      </c>
+      <c r="R308" t="n">
+        <v>5</v>
+      </c>
+      <c r="S308" t="n">
+        <v>12</v>
+      </c>
+      <c r="T308" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U308" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V308" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W308" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X308" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AD308" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE308" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AF308" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG308" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH308" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI308" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AJ308" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK308" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL308" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM308" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN308" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO308" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP308" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ308" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR308" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS308" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AT308" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU308" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV308" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW308" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX308" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY308" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ308" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA308" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB308" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC308" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD308" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE308" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF308" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG308" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH308" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI308" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ308" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK308" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="n">
+        <v>2608439</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E309" s="2" t="n">
+        <v>44928.5</v>
+      </c>
+      <c r="F309" t="n">
+        <v>26</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>Swansea City</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="I309" t="n">
+        <v>1</v>
+      </c>
+      <c r="J309" t="n">
+        <v>2</v>
+      </c>
+      <c r="K309" t="n">
+        <v>3</v>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="n">
+        <v>2</v>
+      </c>
+      <c r="N309" t="n">
+        <v>3</v>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>['12', '22']</t>
+        </is>
+      </c>
+      <c r="Q309" t="n">
+        <v>4</v>
+      </c>
+      <c r="R309" t="n">
+        <v>5</v>
+      </c>
+      <c r="S309" t="n">
+        <v>9</v>
+      </c>
+      <c r="T309" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U309" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V309" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W309" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X309" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC309" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD309" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE309" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AF309" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG309" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH309" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI309" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AJ309" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK309" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL309" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM309" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN309" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO309" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP309" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ309" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR309" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS309" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT309" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AU309" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV309" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW309" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX309" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY309" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ309" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA309" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB309" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC309" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD309" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE309" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF309" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG309" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH309" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI309" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ309" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK309" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="n">
+        <v>2608438</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E310" s="2" t="n">
+        <v>44928.51041666666</v>
+      </c>
+      <c r="F310" t="n">
+        <v>26</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Stoke City</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Preston North End</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" t="n">
+        <v>1</v>
+      </c>
+      <c r="N310" t="n">
+        <v>1</v>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q310" t="n">
+        <v>4</v>
+      </c>
+      <c r="R310" t="n">
+        <v>7</v>
+      </c>
+      <c r="S310" t="n">
+        <v>11</v>
+      </c>
+      <c r="T310" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U310" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V310" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W310" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X310" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC310" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD310" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AF310" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG310" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH310" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI310" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ310" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK310" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL310" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM310" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN310" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO310" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP310" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ310" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR310" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS310" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT310" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AU310" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV310" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW310" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX310" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY310" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ310" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA310" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB310" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC310" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD310" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE310" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF310" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG310" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH310" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI310" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ310" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK310" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="n">
+        <v>2608437</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E311" s="2" t="n">
+        <v>44928.70833333334</v>
+      </c>
+      <c r="F311" t="n">
+        <v>26</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Queens Park Rangers</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Sheffield United</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>1</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="n">
+        <v>1</v>
+      </c>
+      <c r="N311" t="n">
+        <v>2</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="Q311" t="n">
+        <v>8</v>
+      </c>
+      <c r="R311" t="n">
+        <v>6</v>
+      </c>
+      <c r="S311" t="n">
+        <v>14</v>
+      </c>
+      <c r="T311" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U311" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V311" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W311" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X311" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG311" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH311" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI311" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AJ311" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK311" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL311" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM311" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN311" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO311" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP311" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ311" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR311" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS311" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT311" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AU311" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV311" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW311" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX311" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY311" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ311" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA311" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB311" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC311" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD311" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE311" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF311" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG311" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH311" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI311" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ311" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK311" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -63746,13 +63746,13 @@
         </is>
       </c>
       <c r="Q312" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R312" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S312" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T312" t="n">
         <v>3.75</v>
@@ -63869,22 +63869,22 @@
         <v>2.7</v>
       </c>
       <c r="BF312" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG312" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH312" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI312" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ312" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BK312" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313">
@@ -63949,13 +63949,13 @@
         </is>
       </c>
       <c r="Q313" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R313" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S313" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T313" t="n">
         <v>3.1</v>
@@ -64072,22 +64072,22 @@
         <v>2.7</v>
       </c>
       <c r="BF313" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG313" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH313" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI313" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BJ313" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BK313" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="314">
@@ -64152,13 +64152,13 @@
         </is>
       </c>
       <c r="Q314" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R314" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S314" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T314" t="n">
         <v>2.3</v>
@@ -64275,22 +64275,22 @@
         <v>2.4</v>
       </c>
       <c r="BF314" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG314" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH314" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI314" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ314" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK314" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315">
@@ -64355,13 +64355,13 @@
         </is>
       </c>
       <c r="Q315" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R315" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S315" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T315" t="n">
         <v>3.4</v>
@@ -64478,22 +64478,22 @@
         <v>3.3</v>
       </c>
       <c r="BF315" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG315" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH315" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI315" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BJ315" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK315" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="316">
@@ -64558,13 +64558,13 @@
         </is>
       </c>
       <c r="Q316" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R316" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S316" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T316" t="n">
         <v>3.6</v>
@@ -64681,22 +64681,22 @@
         <v>3.3</v>
       </c>
       <c r="BF316" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG316" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BH316" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI316" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BJ316" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK316" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="317">
@@ -64761,13 +64761,13 @@
         </is>
       </c>
       <c r="Q317" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R317" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S317" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T317" t="n">
         <v>2.6</v>
@@ -64884,22 +64884,22 @@
         <v>3.3</v>
       </c>
       <c r="BF317" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG317" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH317" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI317" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ317" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK317" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318">
@@ -64964,13 +64964,13 @@
         </is>
       </c>
       <c r="Q318" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R318" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S318" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T318" t="n">
         <v>2.38</v>
@@ -65087,22 +65087,22 @@
         <v>2.7</v>
       </c>
       <c r="BF318" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG318" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH318" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI318" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ318" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK318" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319">
@@ -65167,13 +65167,13 @@
         </is>
       </c>
       <c r="Q319" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R319" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S319" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T319" t="n">
         <v>2.63</v>
@@ -65290,22 +65290,22 @@
         <v>3.2</v>
       </c>
       <c r="BF319" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG319" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH319" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI319" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ319" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK319" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320">
@@ -65370,13 +65370,13 @@
         </is>
       </c>
       <c r="Q320" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R320" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S320" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T320" t="n">
         <v>2.63</v>
@@ -65493,22 +65493,22 @@
         <v>3.5</v>
       </c>
       <c r="BF320" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG320" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH320" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI320" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ320" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK320" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="321">
@@ -65573,13 +65573,13 @@
         </is>
       </c>
       <c r="Q321" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R321" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S321" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T321" t="n">
         <v>2.25</v>
@@ -65696,22 +65696,22 @@
         <v>2.25</v>
       </c>
       <c r="BF321" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG321" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH321" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI321" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BJ321" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK321" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="322">
@@ -65776,13 +65776,13 @@
         </is>
       </c>
       <c r="Q322" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R322" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S322" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T322" t="n">
         <v>3</v>
@@ -65899,22 +65899,22 @@
         <v>2.63</v>
       </c>
       <c r="BF322" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG322" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH322" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI322" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BJ322" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK322" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="323">
@@ -65979,13 +65979,13 @@
         </is>
       </c>
       <c r="Q323" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R323" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S323" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T323" t="n">
         <v>3.6</v>
@@ -66102,22 +66102,22 @@
         <v>2.6</v>
       </c>
       <c r="BF323" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG323" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH323" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI323" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BJ323" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK323" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -56787,7 +56787,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>2608415</v>
+        <v>2608406</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -56807,59 +56807,59 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Sheffield United</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Coventry City</t>
+          <t>West Bromwich Albion</t>
         </is>
       </c>
       <c r="I278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K278" t="n">
         <v>1</v>
       </c>
       <c r="L278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N278" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>['35', '52', '71']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P278" t="inlineStr">
         <is>
-          <t>['75']</t>
+          <t>['9', '75']</t>
         </is>
       </c>
       <c r="Q278" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R278" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S278" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T278" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U278" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V278" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="W278" t="n">
         <v>1.4</v>
@@ -56880,25 +56880,25 @@
         <v>1.08</v>
       </c>
       <c r="AC278" t="n">
-        <v>1.66</v>
+        <v>2.92</v>
       </c>
       <c r="AD278" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AE278" t="n">
-        <v>4.8</v>
+        <v>2.25</v>
       </c>
       <c r="AF278" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG278" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH278" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AI278" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AJ278" t="n">
         <v>2.05</v>
@@ -56907,64 +56907,64 @@
         <v>1.82</v>
       </c>
       <c r="AL278" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="AM278" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AN278" t="n">
-        <v>1.15</v>
+        <v>1.63</v>
       </c>
       <c r="AO278" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AP278" t="n">
-        <v>2.2</v>
+        <v>1.38</v>
       </c>
       <c r="AQ278" t="n">
-        <v>1.91</v>
+        <v>1.25</v>
       </c>
       <c r="AR278" t="n">
         <v>1.18</v>
       </c>
       <c r="AS278" t="n">
-        <v>2.08</v>
+        <v>1.29</v>
       </c>
       <c r="AT278" t="n">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="AU278" t="n">
-        <v>2.21</v>
+        <v>1.43</v>
       </c>
       <c r="AV278" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="AW278" t="n">
-        <v>3.66</v>
+        <v>2.8</v>
       </c>
       <c r="AX278" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB278" t="n">
         <v>1.37</v>
       </c>
-      <c r="AY278" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AZ278" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="BA278" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="BB278" t="n">
-        <v>1.26</v>
-      </c>
       <c r="BC278" t="n">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="BD278" t="n">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="BE278" t="n">
-        <v>2.37</v>
+        <v>2.87</v>
       </c>
       <c r="BF278" t="n">
         <v>4</v>
@@ -56973,16 +56973,16 @@
         <v>5</v>
       </c>
       <c r="BH278" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI278" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ278" t="n">
         <v>7</v>
       </c>
-      <c r="BJ278" t="n">
-        <v>9</v>
-      </c>
       <c r="BK278" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="279">
@@ -56990,7 +56990,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>2608414</v>
+        <v>2608409</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -57010,59 +57010,59 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>Rotherham United</t>
+          <t>Hull City</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Stoke City</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K279" t="n">
         <v>1</v>
       </c>
       <c r="L279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N279" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>['45', '71']</t>
+          <t>['77']</t>
         </is>
       </c>
       <c r="P279" t="inlineStr">
         <is>
-          <t>['61', '80']</t>
+          <t>['28']</t>
         </is>
       </c>
       <c r="Q279" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R279" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S279" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="T279" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="U279" t="n">
         <v>2.05</v>
       </c>
       <c r="V279" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="W279" t="n">
         <v>1.44</v>
@@ -57077,19 +57077,19 @@
         <v>1.33</v>
       </c>
       <c r="AA279" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB279" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC279" t="n">
-        <v>2.94</v>
+        <v>2.19</v>
       </c>
       <c r="AD279" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AE279" t="n">
-        <v>2.28</v>
+        <v>3.1</v>
       </c>
       <c r="AF279" t="n">
         <v>1.07</v>
@@ -57098,16 +57098,16 @@
         <v>9.5</v>
       </c>
       <c r="AH279" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AI279" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AJ279" t="n">
-        <v>1.97</v>
+        <v>2.15</v>
       </c>
       <c r="AK279" t="n">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="AL279" t="n">
         <v>1.83</v>
@@ -57116,76 +57116,76 @@
         <v>1.83</v>
       </c>
       <c r="AN279" t="n">
-        <v>1.58</v>
+        <v>1.31</v>
       </c>
       <c r="AO279" t="n">
         <v>1.31</v>
       </c>
       <c r="AP279" t="n">
-        <v>1.36</v>
+        <v>1.66</v>
       </c>
       <c r="AQ279" t="n">
-        <v>1.36</v>
+        <v>1.08</v>
       </c>
       <c r="AR279" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU279" t="n">
         <v>1.42</v>
       </c>
-      <c r="AS279" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AT279" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AU279" t="n">
-        <v>1.52</v>
-      </c>
       <c r="AV279" t="n">
-        <v>1.49</v>
+        <v>1.12</v>
       </c>
       <c r="AW279" t="n">
-        <v>3.01</v>
+        <v>2.54</v>
       </c>
       <c r="AX279" t="n">
-        <v>2.05</v>
+        <v>1.64</v>
       </c>
       <c r="AY279" t="n">
         <v>8</v>
       </c>
       <c r="AZ279" t="n">
-        <v>1.95</v>
+        <v>2.67</v>
       </c>
       <c r="BA279" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="BB279" t="n">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="BC279" t="n">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="BD279" t="n">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="BE279" t="n">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="BF279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG279" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BH279" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="BI279" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BJ279" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BK279" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="280">
@@ -57193,7 +57193,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>2608412</v>
+        <v>2608411</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -57213,12 +57213,12 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Preston North End</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Huddersfield Town</t>
+          <t>Wigan Athletic</t>
         </is>
       </c>
       <c r="I280" t="n">
@@ -57231,86 +57231,86 @@
         <v>1</v>
       </c>
       <c r="L280" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N280" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>['34']</t>
+          <t>['26', '49', '59', '90+3']</t>
         </is>
       </c>
       <c r="P280" t="inlineStr">
         <is>
-          <t>['75', '85']</t>
+          <t>['61']</t>
         </is>
       </c>
       <c r="Q280" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R280" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S280" t="n">
+        <v>18</v>
+      </c>
+      <c r="T280" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U280" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V280" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W280" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X280" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE280" t="n">
         <v>5</v>
       </c>
-      <c r="T280" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U280" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V280" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="W280" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X280" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y280" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z280" t="n">
+      <c r="AF280" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH280" t="n">
         <v>1.33</v>
       </c>
-      <c r="AA280" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB280" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC280" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AD280" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AE280" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AF280" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG280" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH280" t="n">
-        <v>1.4</v>
-      </c>
       <c r="AI280" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AJ280" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AK280" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="AL280" t="n">
         <v>1.91</v>
@@ -57319,76 +57319,76 @@
         <v>1.8</v>
       </c>
       <c r="AN280" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AO280" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="AP280" t="n">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="AQ280" t="n">
-        <v>1.08</v>
+        <v>1.55</v>
       </c>
       <c r="AR280" t="n">
-        <v>0.5</v>
+        <v>1.36</v>
       </c>
       <c r="AS280" t="n">
-        <v>0.93</v>
+        <v>1.77</v>
       </c>
       <c r="AT280" t="n">
-        <v>0.75</v>
+        <v>1.23</v>
       </c>
       <c r="AU280" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="AV280" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AW280" t="n">
-        <v>2.62</v>
+        <v>2.71</v>
       </c>
       <c r="AX280" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="AY280" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD280" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE280" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF280" t="n">
         <v>9</v>
-      </c>
-      <c r="AZ280" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BA280" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BB280" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="BC280" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="BD280" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="BE280" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BF280" t="n">
-        <v>3</v>
       </c>
       <c r="BG280" t="n">
         <v>4</v>
       </c>
       <c r="BH280" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI280" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BJ280" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BK280" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="281">
@@ -57396,7 +57396,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>2608411</v>
+        <v>2608412</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -57416,12 +57416,12 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Preston North End</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Wigan Athletic</t>
+          <t>Huddersfield Town</t>
         </is>
       </c>
       <c r="I281" t="n">
@@ -57434,86 +57434,86 @@
         <v>1</v>
       </c>
       <c r="L281" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N281" t="n">
+        <v>3</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>['75', '85']</t>
+        </is>
+      </c>
+      <c r="Q281" t="n">
+        <v>2</v>
+      </c>
+      <c r="R281" t="n">
+        <v>3</v>
+      </c>
+      <c r="S281" t="n">
         <v>5</v>
       </c>
-      <c r="O281" t="inlineStr">
-        <is>
-          <t>['26', '49', '59', '90+3']</t>
-        </is>
-      </c>
-      <c r="P281" t="inlineStr">
-        <is>
-          <t>['61']</t>
-        </is>
-      </c>
-      <c r="Q281" t="n">
-        <v>8</v>
-      </c>
-      <c r="R281" t="n">
-        <v>10</v>
-      </c>
-      <c r="S281" t="n">
-        <v>18</v>
-      </c>
       <c r="T281" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U281" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V281" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="W281" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X281" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH281" t="n">
         <v>1.4</v>
       </c>
-      <c r="X281" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y281" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z281" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA281" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB281" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC281" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AD281" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AE281" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF281" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG281" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH281" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AI281" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AJ281" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AK281" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AL281" t="n">
         <v>1.91</v>
@@ -57522,76 +57522,76 @@
         <v>1.8</v>
       </c>
       <c r="AN281" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="AO281" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AP281" t="n">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ281" t="n">
-        <v>1.55</v>
+        <v>1.08</v>
       </c>
       <c r="AR281" t="n">
-        <v>1.36</v>
+        <v>0.5</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.23</v>
+        <v>0.75</v>
       </c>
       <c r="AU281" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="AV281" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AW281" t="n">
-        <v>2.71</v>
+        <v>2.62</v>
       </c>
       <c r="AX281" t="n">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="AY281" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AZ281" t="n">
-        <v>4.06</v>
+        <v>3.3</v>
       </c>
       <c r="BA281" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="BB281" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="BC281" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="BD281" t="n">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="BE281" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="BF281" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BG281" t="n">
         <v>4</v>
       </c>
       <c r="BH281" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI281" t="n">
         <v>8</v>
       </c>
-      <c r="BI281" t="n">
-        <v>13</v>
-      </c>
       <c r="BJ281" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BK281" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282">
@@ -57599,7 +57599,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>2608406</v>
+        <v>2608414</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -57619,182 +57619,182 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Rotherham United</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>West Bromwich Albion</t>
+          <t>Stoke City</t>
         </is>
       </c>
       <c r="I282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K282" t="n">
         <v>1</v>
       </c>
       <c r="L282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M282" t="n">
         <v>2</v>
       </c>
       <c r="N282" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['45', '71']</t>
         </is>
       </c>
       <c r="P282" t="inlineStr">
         <is>
-          <t>['9', '75']</t>
+          <t>['61', '80']</t>
         </is>
       </c>
       <c r="Q282" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R282" t="n">
+        <v>3</v>
+      </c>
+      <c r="S282" t="n">
         <v>6</v>
       </c>
-      <c r="S282" t="n">
-        <v>14</v>
-      </c>
       <c r="T282" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U282" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V282" t="n">
         <v>3.1</v>
       </c>
       <c r="W282" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X282" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y282" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Z282" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH282" t="n">
         <v>1.36</v>
       </c>
-      <c r="AA282" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB282" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC282" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AD282" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE282" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AF282" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG282" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH282" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AI282" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AJ282" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL282" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW282" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX282" t="n">
         <v>2.05</v>
-      </c>
-      <c r="AK282" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AL282" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AM282" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN282" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AO282" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP282" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AQ282" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AR282" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AS282" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AT282" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AU282" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AV282" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AW282" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AX282" t="n">
-        <v>2.54</v>
       </c>
       <c r="AY282" t="n">
         <v>8</v>
       </c>
       <c r="AZ282" t="n">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="BA282" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="BB282" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="BC282" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="BD282" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="BE282" t="n">
-        <v>2.87</v>
+        <v>2.45</v>
       </c>
       <c r="BF282" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG282" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH282" t="n">
         <v>3</v>
       </c>
       <c r="BI282" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BJ282" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BK282" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283">
@@ -57802,7 +57802,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>2608409</v>
+        <v>2608415</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -57822,182 +57822,182 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>Hull City</t>
+          <t>Sheffield United</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K283" t="n">
         <v>1</v>
       </c>
       <c r="L283" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
       <c r="N283" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>['77']</t>
+          <t>['35', '52', '71']</t>
         </is>
       </c>
       <c r="P283" t="inlineStr">
         <is>
-          <t>['28']</t>
+          <t>['75']</t>
         </is>
       </c>
       <c r="Q283" t="n">
+        <v>2</v>
+      </c>
+      <c r="R283" t="n">
+        <v>7</v>
+      </c>
+      <c r="S283" t="n">
+        <v>9</v>
+      </c>
+      <c r="T283" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U283" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V283" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W283" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X283" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG283" t="n">
         <v>11</v>
       </c>
-      <c r="R283" t="n">
-        <v>8</v>
-      </c>
-      <c r="S283" t="n">
-        <v>19</v>
-      </c>
-      <c r="T283" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="U283" t="n">
+      <c r="AH283" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ283" t="n">
         <v>2.05</v>
       </c>
-      <c r="V283" t="n">
+      <c r="AK283" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ283" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA283" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB283" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC283" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD283" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE283" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BF283" t="n">
         <v>4</v>
-      </c>
-      <c r="W283" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X283" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y283" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z283" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA283" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB283" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC283" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AD283" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AE283" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AF283" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG283" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH283" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AI283" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ283" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AK283" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AL283" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM283" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN283" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AO283" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AP283" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AQ283" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AR283" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AS283" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AT283" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU283" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AV283" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AW283" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AX283" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AY283" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ283" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="BA283" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BB283" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BC283" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="BD283" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BE283" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BF283" t="n">
-        <v>2</v>
       </c>
       <c r="BG283" t="n">
         <v>5</v>
       </c>
       <c r="BH283" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="BI283" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BJ283" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="BK283" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284">
@@ -59020,7 +59020,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>2608422</v>
+        <v>2608423</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -59040,35 +59040,35 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Huddersfield Town</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Rotherham United</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J289" t="n">
         <v>0</v>
       </c>
       <c r="K289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M289" t="n">
         <v>0</v>
       </c>
       <c r="N289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>['31', '56']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P289" t="inlineStr">
@@ -59077,115 +59077,115 @@
         </is>
       </c>
       <c r="Q289" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R289" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S289" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T289" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="U289" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V289" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="W289" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X289" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y289" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z289" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA289" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB289" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC289" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AD289" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="AE289" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="AF289" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI289" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ289" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK289" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL289" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM289" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN289" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO289" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP289" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ289" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR289" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS289" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT289" t="n">
         <v>1.08</v>
       </c>
-      <c r="AG289" t="n">
+      <c r="AU289" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW289" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX289" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY289" t="n">
         <v>8.5</v>
       </c>
-      <c r="AH289" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AI289" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AJ289" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AK289" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AL289" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM289" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN289" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AO289" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP289" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AQ289" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AR289" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AS289" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AT289" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AU289" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AV289" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AW289" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AX289" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AY289" t="n">
-        <v>8</v>
-      </c>
       <c r="AZ289" t="n">
-        <v>2.67</v>
+        <v>3.16</v>
       </c>
       <c r="BA289" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="BB289" t="n">
         <v>1.48</v>
@@ -59200,22 +59200,22 @@
         <v>2.7</v>
       </c>
       <c r="BF289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BG289" t="n">
         <v>3</v>
       </c>
       <c r="BH289" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI289" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ289" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK289" t="n">
         <v>7</v>
-      </c>
-      <c r="BI289" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ289" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK289" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="290">
@@ -59223,7 +59223,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>2608427</v>
+        <v>2608422</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -59243,71 +59243,71 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Wigan Athletic</t>
+          <t>Huddersfield Town</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Rotherham United</t>
         </is>
       </c>
       <c r="I290" t="n">
         <v>1</v>
       </c>
       <c r="J290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M290" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N290" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>['42']</t>
+          <t>['31', '56']</t>
         </is>
       </c>
       <c r="P290" t="inlineStr">
         <is>
-          <t>['19', '66', '85', '89']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R290" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S290" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T290" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="U290" t="n">
         <v>2.05</v>
       </c>
       <c r="V290" t="n">
+        <v>4</v>
+      </c>
+      <c r="W290" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X290" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y290" t="n">
         <v>3.4</v>
       </c>
-      <c r="W290" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X290" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y290" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Z290" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA290" t="n">
         <v>10</v>
@@ -59316,31 +59316,31 @@
         <v>1.06</v>
       </c>
       <c r="AC290" t="n">
-        <v>2.65</v>
+        <v>2.2</v>
       </c>
       <c r="AD290" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AE290" t="n">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="AF290" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG290" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH290" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AI290" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AJ290" t="n">
-        <v>2.01</v>
+        <v>2.16</v>
       </c>
       <c r="AK290" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="AL290" t="n">
         <v>1.83</v>
@@ -59349,76 +59349,76 @@
         <v>1.83</v>
       </c>
       <c r="AN290" t="n">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="AO290" t="n">
         <v>1.3</v>
       </c>
       <c r="AP290" t="n">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="AQ290" t="n">
-        <v>0.75</v>
+        <v>1.17</v>
       </c>
       <c r="AR290" t="n">
-        <v>1.5</v>
+        <v>0.92</v>
       </c>
       <c r="AS290" t="n">
-        <v>0.64</v>
+        <v>1.21</v>
       </c>
       <c r="AT290" t="n">
-        <v>1.57</v>
+        <v>0.79</v>
       </c>
       <c r="AU290" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AV290" t="n">
-        <v>1.17</v>
+        <v>0.82</v>
       </c>
       <c r="AW290" t="n">
-        <v>2.55</v>
+        <v>2.14</v>
       </c>
       <c r="AX290" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="AY290" t="n">
         <v>8</v>
       </c>
       <c r="AZ290" t="n">
-        <v>2.42</v>
+        <v>2.67</v>
       </c>
       <c r="BA290" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="BB290" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="BC290" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="BD290" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="BE290" t="n">
-        <v>3.28</v>
+        <v>2.7</v>
       </c>
       <c r="BF290" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG290" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH290" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI290" t="n">
         <v>5</v>
       </c>
-      <c r="BH290" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI290" t="n">
-        <v>7</v>
-      </c>
       <c r="BJ290" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BK290" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291">
@@ -59426,7 +59426,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>2608423</v>
+        <v>2608421</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -59446,12 +59446,12 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Cardiff City</t>
         </is>
       </c>
       <c r="I291" t="n">
@@ -59483,19 +59483,19 @@
         </is>
       </c>
       <c r="Q291" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R291" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S291" t="n">
         <v>7</v>
       </c>
       <c r="T291" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="U291" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V291" t="n">
         <v>4.5</v>
@@ -59513,19 +59513,19 @@
         <v>1.33</v>
       </c>
       <c r="AA291" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB291" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC291" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AD291" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE291" t="n">
         <v>3.55</v>
-      </c>
-      <c r="AE291" t="n">
-        <v>3.8</v>
       </c>
       <c r="AF291" t="n">
         <v>1.07</v>
@@ -59534,16 +59534,16 @@
         <v>9.5</v>
       </c>
       <c r="AH291" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AI291" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AJ291" t="n">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="AK291" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AL291" t="n">
         <v>1.91</v>
@@ -59552,61 +59552,61 @@
         <v>1.8</v>
       </c>
       <c r="AN291" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AO291" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AP291" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ291" t="n">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AR291" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AS291" t="n">
-        <v>2.08</v>
+        <v>1.69</v>
       </c>
       <c r="AT291" t="n">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="AU291" t="n">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="AV291" t="n">
-        <v>1.17</v>
+        <v>1.03</v>
       </c>
       <c r="AW291" t="n">
-        <v>2.91</v>
+        <v>2.61</v>
       </c>
       <c r="AX291" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="AY291" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ291" t="n">
-        <v>3.16</v>
+        <v>2.8</v>
       </c>
       <c r="BA291" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="BB291" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BC291" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="BD291" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="BE291" t="n">
-        <v>2.7</v>
+        <v>3.08</v>
       </c>
       <c r="BF291" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BG291" t="n">
         <v>3</v>
@@ -59618,7 +59618,7 @@
         <v>4</v>
       </c>
       <c r="BJ291" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BK291" t="n">
         <v>7</v>
@@ -59629,7 +59629,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>2608421</v>
+        <v>2608427</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -59649,59 +59649,59 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>Coventry City</t>
+          <t>Wigan Athletic</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Cardiff City</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M292" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N292" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['42']</t>
         </is>
       </c>
       <c r="P292" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['19', '66', '85', '89']</t>
         </is>
       </c>
       <c r="Q292" t="n">
+        <v>1</v>
+      </c>
+      <c r="R292" t="n">
+        <v>4</v>
+      </c>
+      <c r="S292" t="n">
         <v>5</v>
       </c>
-      <c r="R292" t="n">
-        <v>2</v>
-      </c>
-      <c r="S292" t="n">
-        <v>7</v>
-      </c>
       <c r="T292" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="U292" t="n">
         <v>2.05</v>
       </c>
       <c r="V292" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="W292" t="n">
         <v>1.44</v>
@@ -59722,19 +59722,19 @@
         <v>1.06</v>
       </c>
       <c r="AC292" t="n">
-        <v>2.15</v>
+        <v>2.65</v>
       </c>
       <c r="AD292" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="AE292" t="n">
-        <v>3.55</v>
+        <v>2.8</v>
       </c>
       <c r="AF292" t="n">
         <v>1.07</v>
       </c>
       <c r="AG292" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH292" t="n">
         <v>1.4</v>
@@ -59749,82 +59749,82 @@
         <v>1.66</v>
       </c>
       <c r="AL292" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AM292" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AN292" t="n">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="AO292" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AP292" t="n">
-        <v>1.83</v>
+        <v>1.45</v>
       </c>
       <c r="AQ292" t="n">
-        <v>1.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR292" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.69</v>
+        <v>0.64</v>
       </c>
       <c r="AT292" t="n">
-        <v>0.92</v>
+        <v>1.57</v>
       </c>
       <c r="AU292" t="n">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="AV292" t="n">
-        <v>1.03</v>
+        <v>1.17</v>
       </c>
       <c r="AW292" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="AX292" t="n">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="AY292" t="n">
         <v>8</v>
       </c>
       <c r="AZ292" t="n">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="BA292" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="BB292" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="BC292" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BD292" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="BE292" t="n">
-        <v>3.08</v>
+        <v>3.28</v>
       </c>
       <c r="BF292" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BG292" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH292" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BI292" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BJ292" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="BK292" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293">
@@ -60441,7 +60441,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>2608418</v>
+        <v>2608428</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -60461,12 +60461,12 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Birmingham City</t>
+          <t>Stoke City</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Hull City</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="I296" t="n">
@@ -60494,149 +60494,149 @@
       </c>
       <c r="P296" t="inlineStr">
         <is>
-          <t>['77']</t>
+          <t>['61']</t>
         </is>
       </c>
       <c r="Q296" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R296" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S296" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T296" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U296" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V296" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X296" t="n">
         <v>2.75</v>
       </c>
-      <c r="U296" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V296" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W296" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X296" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Y296" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Z296" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AA296" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB296" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AC296" t="n">
-        <v>2</v>
+        <v>2.95</v>
       </c>
       <c r="AD296" t="n">
         <v>3.3</v>
       </c>
       <c r="AE296" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="AF296" t="n">
         <v>1.05</v>
       </c>
       <c r="AG296" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AH296" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AI296" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AJ296" t="n">
-        <v>2.19</v>
+        <v>2.08</v>
       </c>
       <c r="AK296" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="AL296" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="AM296" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AN296" t="n">
-        <v>1.17</v>
+        <v>1.63</v>
       </c>
       <c r="AO296" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AP296" t="n">
-        <v>1.8</v>
+        <v>1.34</v>
       </c>
       <c r="AQ296" t="n">
-        <v>1.42</v>
+        <v>1.09</v>
       </c>
       <c r="AR296" t="n">
-        <v>1.18</v>
+        <v>1.73</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.21</v>
+        <v>0.92</v>
       </c>
       <c r="AT296" t="n">
-        <v>1.46</v>
+        <v>1.92</v>
       </c>
       <c r="AU296" t="n">
-        <v>1.38</v>
+        <v>1.7</v>
       </c>
       <c r="AV296" t="n">
-        <v>1.12</v>
+        <v>1.44</v>
       </c>
       <c r="AW296" t="n">
-        <v>2.5</v>
+        <v>3.14</v>
       </c>
       <c r="AX296" t="n">
-        <v>1.64</v>
+        <v>2.05</v>
       </c>
       <c r="AY296" t="n">
         <v>8</v>
       </c>
       <c r="AZ296" t="n">
-        <v>2.67</v>
+        <v>1.95</v>
       </c>
       <c r="BA296" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="BB296" t="n">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="BC296" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="BD296" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="BE296" t="n">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="BF296" t="n">
         <v>4</v>
       </c>
       <c r="BG296" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH296" t="n">
         <v>5</v>
       </c>
       <c r="BI296" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BJ296" t="n">
         <v>9</v>
       </c>
       <c r="BK296" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297">
@@ -61050,7 +61050,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>2608428</v>
+        <v>2608418</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -61070,12 +61070,12 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Stoke City</t>
+          <t>Birmingham City</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Hull City</t>
         </is>
       </c>
       <c r="I299" t="n">
@@ -61103,149 +61103,149 @@
       </c>
       <c r="P299" t="inlineStr">
         <is>
-          <t>['61']</t>
+          <t>['77']</t>
         </is>
       </c>
       <c r="Q299" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R299" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S299" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T299" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U299" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V299" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="W299" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X299" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y299" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Z299" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA299" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AB299" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AC299" t="n">
-        <v>2.95</v>
+        <v>2</v>
       </c>
       <c r="AD299" t="n">
         <v>3.3</v>
       </c>
       <c r="AE299" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="AF299" t="n">
         <v>1.05</v>
       </c>
       <c r="AG299" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AH299" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI299" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ299" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK299" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL299" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM299" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN299" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO299" t="n">
         <v>1.32</v>
       </c>
-      <c r="AI299" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AJ299" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AK299" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AL299" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AM299" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN299" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AO299" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AP299" t="n">
-        <v>1.34</v>
+        <v>1.8</v>
       </c>
       <c r="AQ299" t="n">
-        <v>1.09</v>
+        <v>1.42</v>
       </c>
       <c r="AR299" t="n">
-        <v>1.73</v>
+        <v>1.18</v>
       </c>
       <c r="AS299" t="n">
-        <v>0.92</v>
+        <v>1.21</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.92</v>
+        <v>1.46</v>
       </c>
       <c r="AU299" t="n">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="AV299" t="n">
-        <v>1.44</v>
+        <v>1.12</v>
       </c>
       <c r="AW299" t="n">
-        <v>3.14</v>
+        <v>2.5</v>
       </c>
       <c r="AX299" t="n">
-        <v>2.05</v>
+        <v>1.64</v>
       </c>
       <c r="AY299" t="n">
         <v>8</v>
       </c>
       <c r="AZ299" t="n">
-        <v>1.95</v>
+        <v>2.67</v>
       </c>
       <c r="BA299" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="BB299" t="n">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="BC299" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="BD299" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="BE299" t="n">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="BF299" t="n">
         <v>4</v>
       </c>
       <c r="BG299" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH299" t="n">
         <v>5</v>
       </c>
       <c r="BI299" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BJ299" t="n">
         <v>9</v>
       </c>
       <c r="BK299" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300">
@@ -61456,7 +61456,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>2608434</v>
+        <v>2608432</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -61476,50 +61476,50 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Huddersfield Town</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Luton Town</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I301" t="n">
         <v>1</v>
       </c>
       <c r="J301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
       <c r="M301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>['25']</t>
+          <t>['21']</t>
         </is>
       </c>
       <c r="P301" t="inlineStr">
         <is>
-          <t>['43', '84']</t>
+          <t>['66']</t>
         </is>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
       </c>
       <c r="R301" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S301" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T301" t="n">
         <v>3.5</v>
@@ -61570,10 +61570,10 @@
         <v>3</v>
       </c>
       <c r="AJ301" t="n">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="AK301" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="AL301" t="n">
         <v>1.83</v>
@@ -61585,43 +61585,43 @@
         <v>1.55</v>
       </c>
       <c r="AO301" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AP301" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ301" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR301" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS301" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT301" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU301" t="n">
         <v>1.45</v>
       </c>
-      <c r="AQ301" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AR301" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AS301" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AT301" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AU301" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AV301" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AW301" t="n">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="AX301" t="n">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="AY301" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AZ301" t="n">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="BA301" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="BB301" t="n">
         <v>1.48</v>
@@ -61636,22 +61636,22 @@
         <v>2.7</v>
       </c>
       <c r="BF301" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG301" t="n">
         <v>6</v>
       </c>
       <c r="BH301" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI301" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BJ301" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BK301" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="302">
@@ -61659,7 +61659,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>2608432</v>
+        <v>2608434</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -61679,50 +61679,50 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Huddersfield Town</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Luton Town</t>
         </is>
       </c>
       <c r="I302" t="n">
         <v>1</v>
       </c>
       <c r="J302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
       <c r="M302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N302" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>['21']</t>
+          <t>['25']</t>
         </is>
       </c>
       <c r="P302" t="inlineStr">
         <is>
-          <t>['66']</t>
+          <t>['43', '84']</t>
         </is>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
       </c>
       <c r="R302" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S302" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T302" t="n">
         <v>3.5</v>
@@ -61773,10 +61773,10 @@
         <v>3</v>
       </c>
       <c r="AJ302" t="n">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="AK302" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AL302" t="n">
         <v>1.83</v>
@@ -61788,43 +61788,43 @@
         <v>1.55</v>
       </c>
       <c r="AO302" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP302" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ302" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR302" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS302" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT302" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AU302" t="n">
         <v>1.3</v>
       </c>
-      <c r="AP302" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AQ302" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AR302" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AS302" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AT302" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AU302" t="n">
-        <v>1.45</v>
-      </c>
       <c r="AV302" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AW302" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="AX302" t="n">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="AY302" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AZ302" t="n">
-        <v>1.95</v>
+        <v>1.64</v>
       </c>
       <c r="BA302" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="BB302" t="n">
         <v>1.48</v>
@@ -61839,22 +61839,22 @@
         <v>2.7</v>
       </c>
       <c r="BF302" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG302" t="n">
         <v>6</v>
       </c>
       <c r="BH302" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI302" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BJ302" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BK302" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303">
@@ -62268,7 +62268,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>2608440</v>
+        <v>2608436</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -62288,12 +62288,12 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>West Bromwich Albion</t>
+          <t>Norwich City</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I305" t="n">
@@ -62306,86 +62306,86 @@
         <v>0</v>
       </c>
       <c r="L305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N305" t="n">
         <v>1</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>['60']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P305" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['86']</t>
         </is>
       </c>
       <c r="Q305" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R305" t="n">
         <v>3</v>
       </c>
       <c r="S305" t="n">
+        <v>11</v>
+      </c>
+      <c r="T305" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U305" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V305" t="n">
+        <v>4</v>
+      </c>
+      <c r="W305" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X305" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA305" t="n">
         <v>9</v>
       </c>
-      <c r="T305" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U305" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V305" t="n">
-        <v>5</v>
-      </c>
-      <c r="W305" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X305" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y305" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z305" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA305" t="n">
-        <v>8</v>
-      </c>
       <c r="AB305" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AC305" t="n">
-        <v>1.61</v>
+        <v>2.02</v>
       </c>
       <c r="AD305" t="n">
-        <v>4.14</v>
+        <v>3.6</v>
       </c>
       <c r="AE305" t="n">
-        <v>6</v>
+        <v>3.91</v>
       </c>
       <c r="AF305" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AG305" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH305" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AI305" t="n">
-        <v>3.62</v>
+        <v>3.3</v>
       </c>
       <c r="AJ305" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="AK305" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="AL305" t="n">
         <v>1.83</v>
@@ -62394,76 +62394,76 @@
         <v>1.83</v>
       </c>
       <c r="AN305" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AO305" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AP305" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="AQ305" t="n">
         <v>1.46</v>
       </c>
       <c r="AR305" t="n">
-        <v>0.85</v>
+        <v>1.31</v>
       </c>
       <c r="AS305" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="AT305" t="n">
-        <v>0.79</v>
+        <v>1.43</v>
       </c>
       <c r="AU305" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="AV305" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AW305" t="n">
-        <v>3.2</v>
+        <v>3.18</v>
       </c>
       <c r="AX305" t="n">
-        <v>1.22</v>
+        <v>1.72</v>
       </c>
       <c r="AY305" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AZ305" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="BA305" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BB305" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="BC305" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="BD305" t="n">
         <v>2.1</v>
       </c>
       <c r="BE305" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="BF305" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BG305" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH305" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI305" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ305" t="n">
         <v>14</v>
       </c>
-      <c r="BI305" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ305" t="n">
-        <v>19</v>
-      </c>
       <c r="BK305" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306">
@@ -62471,7 +62471,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>2608441</v>
+        <v>2608439</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -62491,65 +62491,65 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Wigan Athletic</t>
+          <t>Swansea City</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Hull City</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="I306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K306" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
       <c r="M306" t="n">
+        <v>2</v>
+      </c>
+      <c r="N306" t="n">
+        <v>3</v>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>['12', '22']</t>
+        </is>
+      </c>
+      <c r="Q306" t="n">
         <v>4</v>
-      </c>
-      <c r="N306" t="n">
-        <v>5</v>
-      </c>
-      <c r="O306" t="inlineStr">
-        <is>
-          <t>['63']</t>
-        </is>
-      </c>
-      <c r="P306" t="inlineStr">
-        <is>
-          <t>['15', '78', '85', '90+1']</t>
-        </is>
-      </c>
-      <c r="Q306" t="n">
-        <v>7</v>
       </c>
       <c r="R306" t="n">
         <v>5</v>
       </c>
       <c r="S306" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T306" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="U306" t="n">
         <v>2.1</v>
       </c>
       <c r="V306" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="W306" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X306" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y306" t="n">
         <v>3</v>
@@ -62558,37 +62558,37 @@
         <v>1.36</v>
       </c>
       <c r="AA306" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB306" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AC306" t="n">
-        <v>2.41</v>
+        <v>3.25</v>
       </c>
       <c r="AD306" t="n">
-        <v>3.25</v>
+        <v>3.42</v>
       </c>
       <c r="AE306" t="n">
-        <v>3.29</v>
+        <v>2.34</v>
       </c>
       <c r="AF306" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AG306" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH306" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AI306" t="n">
-        <v>3.14</v>
+        <v>3.26</v>
       </c>
       <c r="AJ306" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="AK306" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AL306" t="n">
         <v>1.8</v>
@@ -62597,76 +62597,76 @@
         <v>1.91</v>
       </c>
       <c r="AN306" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO306" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP306" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ306" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR306" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS306" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT306" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AU306" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV306" t="n">
         <v>1.4</v>
       </c>
-      <c r="AO306" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP306" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AQ306" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AR306" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS306" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AT306" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AU306" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AV306" t="n">
-        <v>1.16</v>
-      </c>
       <c r="AW306" t="n">
-        <v>2.5</v>
+        <v>3.01</v>
       </c>
       <c r="AX306" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="AY306" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ306" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA306" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB306" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC306" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD306" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE306" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF306" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG306" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH306" t="n">
         <v>7</v>
-      </c>
-      <c r="AZ306" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="BA306" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="BB306" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BC306" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD306" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BE306" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="BF306" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG306" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH306" t="n">
-        <v>3</v>
       </c>
       <c r="BI306" t="n">
         <v>5</v>
       </c>
       <c r="BJ306" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BK306" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307">
@@ -62674,7 +62674,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>2608439</v>
+        <v>2608440</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -62694,71 +62694,71 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Swansea City</t>
+          <t>West Bromwich Albion</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
       <c r="M307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N307" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>['27']</t>
+          <t>['60']</t>
         </is>
       </c>
       <c r="P307" t="inlineStr">
         <is>
-          <t>['12', '22']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q307" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R307" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S307" t="n">
         <v>9</v>
       </c>
       <c r="T307" t="n">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="U307" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V307" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="W307" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X307" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z307" t="n">
         <v>1.4</v>
-      </c>
-      <c r="X307" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y307" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z307" t="n">
-        <v>1.36</v>
       </c>
       <c r="AA307" t="n">
         <v>8</v>
@@ -62767,76 +62767,76 @@
         <v>1.08</v>
       </c>
       <c r="AC307" t="n">
-        <v>3.25</v>
+        <v>1.61</v>
       </c>
       <c r="AD307" t="n">
-        <v>3.42</v>
+        <v>4.14</v>
       </c>
       <c r="AE307" t="n">
-        <v>2.34</v>
+        <v>6</v>
       </c>
       <c r="AF307" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AG307" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH307" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AI307" t="n">
-        <v>3.26</v>
+        <v>3.62</v>
       </c>
       <c r="AJ307" t="n">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="AK307" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="AL307" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AM307" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AN307" t="n">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="AO307" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AP307" t="n">
-        <v>1.36</v>
+        <v>2.05</v>
       </c>
       <c r="AQ307" t="n">
-        <v>1.67</v>
+        <v>1.46</v>
       </c>
       <c r="AR307" t="n">
-        <v>1.83</v>
+        <v>0.85</v>
       </c>
       <c r="AS307" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AT307" t="n">
-        <v>1.92</v>
+        <v>0.79</v>
       </c>
       <c r="AU307" t="n">
-        <v>1.61</v>
+        <v>1.93</v>
       </c>
       <c r="AV307" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AW307" t="n">
-        <v>3.01</v>
+        <v>3.2</v>
       </c>
       <c r="AX307" t="n">
-        <v>1.73</v>
+        <v>1.22</v>
       </c>
       <c r="AY307" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AZ307" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="BA307" t="n">
         <v>1.2</v>
@@ -62854,22 +62854,22 @@
         <v>2.7</v>
       </c>
       <c r="BF307" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG307" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH307" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BI307" t="n">
         <v>5</v>
       </c>
       <c r="BJ307" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BK307" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308">
@@ -62877,7 +62877,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>2608436</v>
+        <v>2608441</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -62897,59 +62897,59 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Norwich City</t>
+          <t>Wigan Athletic</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Hull City</t>
         </is>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
       <c r="J308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M308" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N308" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['63']</t>
         </is>
       </c>
       <c r="P308" t="inlineStr">
         <is>
-          <t>['86']</t>
+          <t>['15', '78', '85', '90+1']</t>
         </is>
       </c>
       <c r="Q308" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R308" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S308" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T308" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="U308" t="n">
         <v>2.1</v>
       </c>
       <c r="V308" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="W308" t="n">
         <v>1.44</v>
@@ -62970,109 +62970,109 @@
         <v>1.07</v>
       </c>
       <c r="AC308" t="n">
-        <v>2.02</v>
+        <v>2.41</v>
       </c>
       <c r="AD308" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AE308" t="n">
-        <v>3.91</v>
+        <v>3.29</v>
       </c>
       <c r="AF308" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AG308" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH308" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI308" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AJ308" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK308" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL308" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM308" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN308" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO308" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP308" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ308" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR308" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS308" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AT308" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU308" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV308" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW308" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX308" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY308" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ308" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA308" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB308" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC308" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD308" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE308" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF308" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG308" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH308" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI308" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ308" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK308" t="n">
         <v>10</v>
-      </c>
-      <c r="AH308" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI308" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AJ308" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AK308" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AL308" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM308" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN308" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AO308" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP308" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AQ308" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AR308" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AS308" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AT308" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AU308" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AV308" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AW308" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AX308" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AY308" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ308" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BA308" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BB308" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BC308" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BD308" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BE308" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="BF308" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG308" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH308" t="n">
-        <v>12</v>
-      </c>
-      <c r="BI308" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ308" t="n">
-        <v>14</v>
-      </c>
-      <c r="BK308" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="309">
@@ -63892,7 +63892,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>2608452</v>
+        <v>2608453</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -63912,12 +63912,12 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Swansea City</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I313" t="n">
@@ -63930,41 +63930,41 @@
         <v>0</v>
       </c>
       <c r="L313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N313" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>['65']</t>
+          <t>['72', '87']</t>
         </is>
       </c>
       <c r="P313" t="inlineStr">
         <is>
-          <t>['50', '70', '78']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R313" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S313" t="n">
         <v>5</v>
       </c>
       <c r="T313" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="U313" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V313" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="W313" t="n">
         <v>1.4</v>
@@ -63973,10 +63973,10 @@
         <v>2.75</v>
       </c>
       <c r="Y313" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Z313" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AA313" t="n">
         <v>8</v>
@@ -63985,25 +63985,25 @@
         <v>1.08</v>
       </c>
       <c r="AC313" t="n">
-        <v>2.23</v>
+        <v>1.66</v>
       </c>
       <c r="AD313" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="AE313" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="AF313" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AG313" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AH313" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AI313" t="n">
-        <v>3.26</v>
+        <v>3.4</v>
       </c>
       <c r="AJ313" t="n">
         <v>1.88</v>
@@ -64012,52 +64012,52 @@
         <v>1.79</v>
       </c>
       <c r="AL313" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AM313" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AN313" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AO313" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AP313" t="n">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="AQ313" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AR313" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.23</v>
+        <v>1.77</v>
       </c>
       <c r="AT313" t="n">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AU313" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AV313" t="n">
-        <v>1.47</v>
+        <v>1.16</v>
       </c>
       <c r="AW313" t="n">
-        <v>2.96</v>
+        <v>2.66</v>
       </c>
       <c r="AX313" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="AY313" t="n">
         <v>7</v>
       </c>
       <c r="AZ313" t="n">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="BA313" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="BB313" t="n">
         <v>1.48</v>
@@ -64072,22 +64072,22 @@
         <v>2.7</v>
       </c>
       <c r="BF313" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG313" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH313" t="n">
         <v>5</v>
       </c>
       <c r="BI313" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BJ313" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK313" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314">
@@ -64095,7 +64095,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>2608451</v>
+        <v>2608452</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -64115,59 +64115,59 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>Sheffield United</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Stoke City</t>
+          <t>Swansea City</t>
         </is>
       </c>
       <c r="I314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L314" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M314" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N314" t="n">
         <v>4</v>
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>['9', '33', '90']</t>
+          <t>['65']</t>
         </is>
       </c>
       <c r="P314" t="inlineStr">
         <is>
-          <t>['45+1']</t>
+          <t>['50', '70', '78']</t>
         </is>
       </c>
       <c r="Q314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R314" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S314" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T314" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="U314" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V314" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="W314" t="n">
         <v>1.4</v>
@@ -64176,10 +64176,10 @@
         <v>2.75</v>
       </c>
       <c r="Y314" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Z314" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AA314" t="n">
         <v>8</v>
@@ -64188,109 +64188,109 @@
         <v>1.08</v>
       </c>
       <c r="AC314" t="n">
-        <v>1.8</v>
+        <v>2.23</v>
       </c>
       <c r="AD314" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="AE314" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="AF314" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AG314" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH314" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AI314" t="n">
-        <v>3.4</v>
+        <v>3.26</v>
       </c>
       <c r="AJ314" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AK314" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AL314" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AM314" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AN314" t="n">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="AO314" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AP314" t="n">
-        <v>2.2</v>
+        <v>1.53</v>
       </c>
       <c r="AQ314" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR314" t="n">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="AS314" t="n">
-        <v>2.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT314" t="n">
         <v>1.29</v>
       </c>
       <c r="AU314" t="n">
-        <v>2.12</v>
+        <v>1.49</v>
       </c>
       <c r="AV314" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AW314" t="n">
-        <v>3.62</v>
+        <v>2.96</v>
       </c>
       <c r="AX314" t="n">
-        <v>1.3</v>
+        <v>1.89</v>
       </c>
       <c r="AY314" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ314" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="BA314" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="BB314" t="n">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="BC314" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="BD314" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BE314" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="BF314" t="n">
         <v>4</v>
       </c>
       <c r="BG314" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH314" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI314" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BJ314" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BK314" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="315">
@@ -64298,7 +64298,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>2608449</v>
+        <v>2608451</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -64318,104 +64318,104 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Sheffield United</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Queens Park Rangers</t>
+          <t>Stoke City</t>
         </is>
       </c>
       <c r="I315" t="n">
         <v>2</v>
       </c>
       <c r="J315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K315" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L315" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N315" t="n">
         <v>4</v>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>['28', '42']</t>
+          <t>['9', '33', '90']</t>
         </is>
       </c>
       <c r="P315" t="inlineStr">
         <is>
-          <t>['66', '80']</t>
+          <t>['45+1']</t>
         </is>
       </c>
       <c r="Q315" t="n">
+        <v>2</v>
+      </c>
+      <c r="R315" t="n">
+        <v>6</v>
+      </c>
+      <c r="S315" t="n">
+        <v>8</v>
+      </c>
+      <c r="T315" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U315" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V315" t="n">
         <v>5</v>
       </c>
-      <c r="R315" t="n">
-        <v>7</v>
-      </c>
-      <c r="S315" t="n">
-        <v>12</v>
-      </c>
-      <c r="T315" t="n">
+      <c r="W315" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X315" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI315" t="n">
         <v>3.4</v>
       </c>
-      <c r="U315" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V315" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W315" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X315" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y315" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z315" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA315" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB315" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC315" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AD315" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AE315" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AF315" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG315" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH315" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AI315" t="n">
-        <v>2.98</v>
-      </c>
       <c r="AJ315" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="AK315" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="AL315" t="n">
         <v>1.83</v>
@@ -64424,76 +64424,76 @@
         <v>1.83</v>
       </c>
       <c r="AN315" t="n">
-        <v>1.48</v>
+        <v>1.17</v>
       </c>
       <c r="AO315" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AP315" t="n">
-        <v>1.52</v>
+        <v>2.2</v>
       </c>
       <c r="AQ315" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AR315" t="n">
         <v>1.38</v>
       </c>
       <c r="AS315" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT315" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AU315" t="n">
-        <v>1.31</v>
+        <v>2.12</v>
       </c>
       <c r="AV315" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AW315" t="n">
-        <v>2.72</v>
+        <v>3.62</v>
       </c>
       <c r="AX315" t="n">
-        <v>2.08</v>
+        <v>1.3</v>
       </c>
       <c r="AY315" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ315" t="n">
-        <v>2.08</v>
+        <v>4.4</v>
       </c>
       <c r="BA315" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="BB315" t="n">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="BC315" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="BD315" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="BE315" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="BF315" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG315" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH315" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BI315" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="BJ315" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BK315" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316">
@@ -64907,7 +64907,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>2608453</v>
+        <v>2608449</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -64927,104 +64927,104 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Queens Park Rangers</t>
         </is>
       </c>
       <c r="I318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J318" t="n">
         <v>0</v>
       </c>
       <c r="K318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L318" t="n">
         <v>2</v>
       </c>
       <c r="M318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N318" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>['72', '87']</t>
+          <t>['28', '42']</t>
         </is>
       </c>
       <c r="P318" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['66', '80']</t>
         </is>
       </c>
       <c r="Q318" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R318" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S318" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T318" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="U318" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="V318" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="W318" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X318" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y318" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Z318" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AA318" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB318" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC318" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AD318" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE318" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF318" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG318" t="n">
         <v>8</v>
       </c>
-      <c r="AB318" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC318" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AD318" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE318" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AF318" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG318" t="n">
-        <v>11</v>
-      </c>
       <c r="AH318" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AI318" t="n">
-        <v>3.4</v>
+        <v>2.98</v>
       </c>
       <c r="AJ318" t="n">
-        <v>1.88</v>
+        <v>2.15</v>
       </c>
       <c r="AK318" t="n">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="AL318" t="n">
         <v>1.83</v>
@@ -65033,76 +65033,76 @@
         <v>1.83</v>
       </c>
       <c r="AN318" t="n">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="AO318" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AP318" t="n">
-        <v>2.1</v>
+        <v>1.52</v>
       </c>
       <c r="AQ318" t="n">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="AR318" t="n">
-        <v>1.08</v>
+        <v>1.38</v>
       </c>
       <c r="AS318" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AT318" t="n">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="AU318" t="n">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AV318" t="n">
-        <v>1.16</v>
+        <v>1.41</v>
       </c>
       <c r="AW318" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="AX318" t="n">
-        <v>1.81</v>
+        <v>2.08</v>
       </c>
       <c r="AY318" t="n">
         <v>7</v>
       </c>
       <c r="AZ318" t="n">
-        <v>2.43</v>
+        <v>2.08</v>
       </c>
       <c r="BA318" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="BB318" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="BC318" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BD318" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="BE318" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="BF318" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG318" t="n">
         <v>5</v>
       </c>
-      <c r="BG318" t="n">
-        <v>3</v>
-      </c>
       <c r="BH318" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI318" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BJ318" t="n">
         <v>10</v>
       </c>
       <c r="BK318" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="319">

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -64501,7 +64501,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>2608448</v>
+        <v>2608449</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -64521,59 +64521,59 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>Preston North End</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Norwich City</t>
+          <t>Queens Park Rangers</t>
         </is>
       </c>
       <c r="I316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M316" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N316" t="n">
         <v>4</v>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['28', '42']</t>
         </is>
       </c>
       <c r="P316" t="inlineStr">
         <is>
-          <t>['13', '16', '28', '69']</t>
+          <t>['66', '80']</t>
         </is>
       </c>
       <c r="Q316" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R316" t="n">
         <v>7</v>
       </c>
       <c r="S316" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T316" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="U316" t="n">
         <v>2.05</v>
       </c>
       <c r="V316" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="W316" t="n">
         <v>1.44</v>
@@ -64594,31 +64594,31 @@
         <v>1.06</v>
       </c>
       <c r="AC316" t="n">
-        <v>2.9</v>
+        <v>2.42</v>
       </c>
       <c r="AD316" t="n">
         <v>3.15</v>
       </c>
       <c r="AE316" t="n">
-        <v>2.28</v>
+        <v>2.7</v>
       </c>
       <c r="AF316" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG316" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AH316" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AI316" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="AJ316" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AK316" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AL316" t="n">
         <v>1.83</v>
@@ -64627,49 +64627,49 @@
         <v>1.83</v>
       </c>
       <c r="AN316" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AO316" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AP316" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="AQ316" t="n">
-        <v>1</v>
+        <v>2.08</v>
       </c>
       <c r="AR316" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AS316" t="n">
-        <v>0.93</v>
+        <v>2</v>
       </c>
       <c r="AT316" t="n">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="AU316" t="n">
-        <v>1.48</v>
+        <v>1.31</v>
       </c>
       <c r="AV316" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AW316" t="n">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="AX316" t="n">
-        <v>2.6</v>
+        <v>2.08</v>
       </c>
       <c r="AY316" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AZ316" t="n">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="BA316" t="n">
         <v>1.24</v>
       </c>
       <c r="BB316" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="BC316" t="n">
         <v>1.85</v>
@@ -64684,19 +64684,19 @@
         <v>3</v>
       </c>
       <c r="BG316" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BH316" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI316" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BJ316" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK316" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="317">
@@ -64907,7 +64907,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>2608449</v>
+        <v>2608448</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -64927,59 +64927,59 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Preston North End</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Queens Park Rangers</t>
+          <t>Norwich City</t>
         </is>
       </c>
       <c r="I318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J318" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K318" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M318" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N318" t="n">
         <v>4</v>
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>['28', '42']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P318" t="inlineStr">
         <is>
-          <t>['66', '80']</t>
+          <t>['13', '16', '28', '69']</t>
         </is>
       </c>
       <c r="Q318" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R318" t="n">
         <v>7</v>
       </c>
       <c r="S318" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T318" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="U318" t="n">
         <v>2.05</v>
       </c>
       <c r="V318" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="W318" t="n">
         <v>1.44</v>
@@ -65000,31 +65000,31 @@
         <v>1.06</v>
       </c>
       <c r="AC318" t="n">
-        <v>2.42</v>
+        <v>2.9</v>
       </c>
       <c r="AD318" t="n">
         <v>3.15</v>
       </c>
       <c r="AE318" t="n">
-        <v>2.7</v>
+        <v>2.28</v>
       </c>
       <c r="AF318" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG318" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AH318" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AI318" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="AJ318" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AK318" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AL318" t="n">
         <v>1.83</v>
@@ -65033,49 +65033,49 @@
         <v>1.83</v>
       </c>
       <c r="AN318" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO318" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP318" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ318" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR318" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS318" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT318" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU318" t="n">
         <v>1.48</v>
       </c>
-      <c r="AO318" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP318" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AQ318" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AR318" t="n">
+      <c r="AV318" t="n">
         <v>1.38</v>
       </c>
-      <c r="AS318" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT318" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AU318" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AV318" t="n">
-        <v>1.41</v>
-      </c>
       <c r="AW318" t="n">
-        <v>2.72</v>
+        <v>2.86</v>
       </c>
       <c r="AX318" t="n">
-        <v>2.08</v>
+        <v>2.6</v>
       </c>
       <c r="AY318" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AZ318" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="BA318" t="n">
         <v>1.24</v>
       </c>
       <c r="BB318" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="BC318" t="n">
         <v>1.85</v>
@@ -65090,19 +65090,19 @@
         <v>3</v>
       </c>
       <c r="BG318" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH318" t="n">
         <v>5</v>
       </c>
-      <c r="BH318" t="n">
-        <v>7</v>
-      </c>
       <c r="BI318" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BJ318" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BK318" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="319">

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK323"/>
+  <dimension ref="A1:BK325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>1.77</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT18" t="n">
         <v>0.92</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT20" t="n">
         <v>1.77</v>
@@ -4760,7 +4760,7 @@
         <v>0.93</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>2.08</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU36" t="n">
         <v>1.48</v>
@@ -8614,10 +8614,10 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU40" t="n">
         <v>1.59</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT45" t="n">
         <v>1.57</v>
@@ -10444,7 +10444,7 @@
         <v>1.57</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU49" t="n">
         <v>2</v>
@@ -11050,7 +11050,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT52" t="n">
         <v>1.07</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -13895,7 +13895,7 @@
         <v>1.21</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU66" t="n">
         <v>0.88</v>
@@ -14910,7 +14910,7 @@
         <v>1.38</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU71" t="n">
         <v>1.72</v>
@@ -15313,7 +15313,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT73" t="n">
         <v>0.92</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT75" t="n">
         <v>0.79</v>
@@ -15925,7 +15925,7 @@
         <v>0.64</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU76" t="n">
         <v>1.63</v>
@@ -22218,7 +22218,7 @@
         <v>1.54</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU107" t="n">
         <v>1.31</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT111" t="n">
         <v>1.08</v>
@@ -24248,7 +24248,7 @@
         <v>1.36</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU117" t="n">
         <v>2.07</v>
@@ -26478,7 +26478,7 @@
         <v>1.4</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT128" t="n">
         <v>1.15</v>
@@ -27290,7 +27290,7 @@
         <v>1.67</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT132" t="n">
         <v>1.36</v>
@@ -28305,7 +28305,7 @@
         <v>1.17</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT137" t="n">
         <v>1.29</v>
@@ -29323,7 +29323,7 @@
         <v>0.93</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU142" t="n">
         <v>1.69</v>
@@ -31759,7 +31759,7 @@
         <v>1.21</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU154" t="n">
         <v>1.27</v>
@@ -32974,7 +32974,7 @@
         <v>1.14</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT160" t="n">
         <v>1</v>
@@ -33380,7 +33380,7 @@
         <v>1.83</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT162" t="n">
         <v>1.29</v>
@@ -33992,7 +33992,7 @@
         <v>2</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU165" t="n">
         <v>1.25</v>
@@ -36022,7 +36022,7 @@
         <v>0.92</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU175" t="n">
         <v>1.63</v>
@@ -37443,7 +37443,7 @@
         <v>1.46</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU182" t="n">
         <v>1.51</v>
@@ -37646,7 +37646,7 @@
         <v>2.08</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU183" t="n">
         <v>1.61</v>
@@ -39064,7 +39064,7 @@
         <v>1.43</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT190" t="n">
         <v>1.54</v>
@@ -39876,7 +39876,7 @@
         <v>1.38</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT194" t="n">
         <v>1.54</v>
@@ -42109,7 +42109,7 @@
         <v>0.86</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT205" t="n">
         <v>0.79</v>
@@ -44545,7 +44545,7 @@
         <v>0.88</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT217" t="n">
         <v>0.79</v>
@@ -45154,7 +45154,7 @@
         <v>1.78</v>
       </c>
       <c r="AS220" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT220" t="n">
         <v>1.92</v>
@@ -45969,7 +45969,7 @@
         <v>1.38</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU224" t="n">
         <v>1.69</v>
@@ -46375,7 +46375,7 @@
         <v>2.08</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU226" t="n">
         <v>1.65</v>
@@ -47387,7 +47387,7 @@
         <v>0.78</v>
       </c>
       <c r="AS231" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT231" t="n">
         <v>0.79</v>
@@ -47796,7 +47796,7 @@
         <v>1.21</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU233" t="n">
         <v>1.59</v>
@@ -51244,7 +51244,7 @@
         <v>1.2</v>
       </c>
       <c r="AS250" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT250" t="n">
         <v>1.07</v>
@@ -52665,7 +52665,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS257" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT257" t="n">
         <v>0.75</v>
@@ -53683,7 +53683,7 @@
         <v>1.77</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU262" t="n">
         <v>1.53</v>
@@ -53886,7 +53886,7 @@
         <v>1.23</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU263" t="n">
         <v>1.5</v>
@@ -55710,7 +55710,7 @@
         <v>1.18</v>
       </c>
       <c r="AS272" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT272" t="n">
         <v>1.36</v>
@@ -56322,7 +56322,7 @@
         <v>1.69</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU275" t="n">
         <v>1.53</v>
@@ -56787,7 +56787,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>2608406</v>
+        <v>2608415</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -56807,59 +56807,59 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Sheffield United</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>West Bromwich Albion</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="I278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K278" t="n">
         <v>1</v>
       </c>
       <c r="L278" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N278" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['35', '52', '71']</t>
         </is>
       </c>
       <c r="P278" t="inlineStr">
         <is>
-          <t>['9', '75']</t>
+          <t>['75']</t>
         </is>
       </c>
       <c r="Q278" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R278" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S278" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T278" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U278" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V278" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="W278" t="n">
         <v>1.4</v>
@@ -56880,25 +56880,25 @@
         <v>1.08</v>
       </c>
       <c r="AC278" t="n">
-        <v>2.92</v>
+        <v>1.66</v>
       </c>
       <c r="AD278" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI278" t="n">
         <v>3.4</v>
-      </c>
-      <c r="AE278" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AF278" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG278" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH278" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI278" t="n">
-        <v>3.3</v>
       </c>
       <c r="AJ278" t="n">
         <v>2.05</v>
@@ -56907,64 +56907,64 @@
         <v>1.82</v>
       </c>
       <c r="AL278" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="AM278" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AN278" t="n">
-        <v>1.63</v>
+        <v>1.15</v>
       </c>
       <c r="AO278" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AP278" t="n">
-        <v>1.38</v>
+        <v>2.2</v>
       </c>
       <c r="AQ278" t="n">
-        <v>1.25</v>
+        <v>1.91</v>
       </c>
       <c r="AR278" t="n">
         <v>1.18</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.29</v>
+        <v>2.14</v>
       </c>
       <c r="AT278" t="n">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="AU278" t="n">
-        <v>1.43</v>
+        <v>2.21</v>
       </c>
       <c r="AV278" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AX278" t="n">
         <v>1.37</v>
       </c>
-      <c r="AW278" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AX278" t="n">
-        <v>2.54</v>
-      </c>
       <c r="AY278" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AZ278" t="n">
-        <v>1.69</v>
+        <v>3.6</v>
       </c>
       <c r="BA278" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="BB278" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="BC278" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="BD278" t="n">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="BE278" t="n">
-        <v>2.87</v>
+        <v>2.37</v>
       </c>
       <c r="BF278" t="n">
         <v>4</v>
@@ -56973,16 +56973,16 @@
         <v>5</v>
       </c>
       <c r="BH278" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI278" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BJ278" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BK278" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279">
@@ -56990,7 +56990,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>2608409</v>
+        <v>2608414</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -57010,59 +57010,59 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>Hull City</t>
+          <t>Rotherham United</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Stoke City</t>
         </is>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K279" t="n">
         <v>1</v>
       </c>
       <c r="L279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N279" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>['77']</t>
+          <t>['45', '71']</t>
         </is>
       </c>
       <c r="P279" t="inlineStr">
         <is>
-          <t>['28']</t>
+          <t>['61', '80']</t>
         </is>
       </c>
       <c r="Q279" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="R279" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S279" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="T279" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="U279" t="n">
         <v>2.05</v>
       </c>
       <c r="V279" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="W279" t="n">
         <v>1.44</v>
@@ -57077,19 +57077,19 @@
         <v>1.33</v>
       </c>
       <c r="AA279" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB279" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC279" t="n">
-        <v>2.19</v>
+        <v>2.94</v>
       </c>
       <c r="AD279" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AE279" t="n">
-        <v>3.1</v>
+        <v>2.28</v>
       </c>
       <c r="AF279" t="n">
         <v>1.07</v>
@@ -57098,16 +57098,16 @@
         <v>9.5</v>
       </c>
       <c r="AH279" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AI279" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AJ279" t="n">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="AK279" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="AL279" t="n">
         <v>1.83</v>
@@ -57116,76 +57116,76 @@
         <v>1.83</v>
       </c>
       <c r="AN279" t="n">
-        <v>1.31</v>
+        <v>1.58</v>
       </c>
       <c r="AO279" t="n">
         <v>1.31</v>
       </c>
       <c r="AP279" t="n">
-        <v>1.66</v>
+        <v>1.36</v>
       </c>
       <c r="AQ279" t="n">
-        <v>1.08</v>
+        <v>1.36</v>
       </c>
       <c r="AR279" t="n">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.07</v>
+        <v>1.46</v>
       </c>
       <c r="AT279" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU279" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="AV279" t="n">
-        <v>1.12</v>
+        <v>1.49</v>
       </c>
       <c r="AW279" t="n">
-        <v>2.54</v>
+        <v>3.01</v>
       </c>
       <c r="AX279" t="n">
-        <v>1.64</v>
+        <v>2.05</v>
       </c>
       <c r="AY279" t="n">
         <v>8</v>
       </c>
       <c r="AZ279" t="n">
-        <v>2.67</v>
+        <v>1.95</v>
       </c>
       <c r="BA279" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="BB279" t="n">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="BC279" t="n">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="BD279" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="BE279" t="n">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="BF279" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG279" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH279" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK279" t="n">
         <v>14</v>
-      </c>
-      <c r="BI279" t="n">
-        <v>11</v>
-      </c>
-      <c r="BJ279" t="n">
-        <v>16</v>
-      </c>
-      <c r="BK279" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="280">
@@ -57193,7 +57193,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>2608411</v>
+        <v>2608412</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -57213,12 +57213,12 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Preston North End</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Wigan Athletic</t>
+          <t>Huddersfield Town</t>
         </is>
       </c>
       <c r="I280" t="n">
@@ -57231,86 +57231,86 @@
         <v>1</v>
       </c>
       <c r="L280" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N280" t="n">
+        <v>3</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>['75', '85']</t>
+        </is>
+      </c>
+      <c r="Q280" t="n">
+        <v>2</v>
+      </c>
+      <c r="R280" t="n">
+        <v>3</v>
+      </c>
+      <c r="S280" t="n">
         <v>5</v>
       </c>
-      <c r="O280" t="inlineStr">
-        <is>
-          <t>['26', '49', '59', '90+3']</t>
-        </is>
-      </c>
-      <c r="P280" t="inlineStr">
-        <is>
-          <t>['61']</t>
-        </is>
-      </c>
-      <c r="Q280" t="n">
-        <v>8</v>
-      </c>
-      <c r="R280" t="n">
-        <v>10</v>
-      </c>
-      <c r="S280" t="n">
-        <v>18</v>
-      </c>
       <c r="T280" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U280" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V280" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="W280" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X280" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH280" t="n">
         <v>1.4</v>
       </c>
-      <c r="X280" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y280" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z280" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA280" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB280" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC280" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AD280" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AE280" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF280" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG280" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH280" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AI280" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AJ280" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AK280" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AL280" t="n">
         <v>1.91</v>
@@ -57319,76 +57319,76 @@
         <v>1.8</v>
       </c>
       <c r="AN280" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="AO280" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AP280" t="n">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ280" t="n">
-        <v>1.55</v>
+        <v>1.08</v>
       </c>
       <c r="AR280" t="n">
-        <v>1.36</v>
+        <v>0.5</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT280" t="n">
-        <v>1.23</v>
+        <v>0.75</v>
       </c>
       <c r="AU280" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="AV280" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AW280" t="n">
-        <v>2.71</v>
+        <v>2.62</v>
       </c>
       <c r="AX280" t="n">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="AY280" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AZ280" t="n">
-        <v>4.06</v>
+        <v>3.3</v>
       </c>
       <c r="BA280" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="BB280" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="BC280" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="BD280" t="n">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="BE280" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="BF280" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BG280" t="n">
         <v>4</v>
       </c>
       <c r="BH280" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI280" t="n">
         <v>8</v>
       </c>
-      <c r="BI280" t="n">
-        <v>13</v>
-      </c>
       <c r="BJ280" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BK280" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281">
@@ -57396,7 +57396,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>2608412</v>
+        <v>2608411</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -57416,12 +57416,12 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Preston North End</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Huddersfield Town</t>
+          <t>Wigan Athletic</t>
         </is>
       </c>
       <c r="I281" t="n">
@@ -57434,86 +57434,86 @@
         <v>1</v>
       </c>
       <c r="L281" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N281" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>['34']</t>
+          <t>['26', '49', '59', '90+3']</t>
         </is>
       </c>
       <c r="P281" t="inlineStr">
         <is>
-          <t>['75', '85']</t>
+          <t>['61']</t>
         </is>
       </c>
       <c r="Q281" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R281" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S281" t="n">
+        <v>18</v>
+      </c>
+      <c r="T281" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U281" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V281" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W281" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X281" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE281" t="n">
         <v>5</v>
       </c>
-      <c r="T281" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U281" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V281" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="W281" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X281" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y281" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z281" t="n">
+      <c r="AF281" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH281" t="n">
         <v>1.33</v>
       </c>
-      <c r="AA281" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB281" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC281" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AD281" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AE281" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AF281" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG281" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH281" t="n">
-        <v>1.4</v>
-      </c>
       <c r="AI281" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AJ281" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AK281" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="AL281" t="n">
         <v>1.91</v>
@@ -57522,76 +57522,76 @@
         <v>1.8</v>
       </c>
       <c r="AN281" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AO281" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="AP281" t="n">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="AQ281" t="n">
-        <v>1.08</v>
+        <v>1.55</v>
       </c>
       <c r="AR281" t="n">
-        <v>0.5</v>
+        <v>1.36</v>
       </c>
       <c r="AS281" t="n">
-        <v>0.93</v>
+        <v>1.77</v>
       </c>
       <c r="AT281" t="n">
-        <v>0.75</v>
+        <v>1.23</v>
       </c>
       <c r="AU281" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="AV281" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AW281" t="n">
-        <v>2.62</v>
+        <v>2.71</v>
       </c>
       <c r="AX281" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="AY281" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ281" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="BA281" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC281" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD281" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE281" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF281" t="n">
         <v>9</v>
-      </c>
-      <c r="AZ281" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BA281" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BB281" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="BC281" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="BD281" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="BE281" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BF281" t="n">
-        <v>3</v>
       </c>
       <c r="BG281" t="n">
         <v>4</v>
       </c>
       <c r="BH281" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI281" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BJ281" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BK281" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="282">
@@ -57599,7 +57599,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>2608414</v>
+        <v>2608406</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -57619,182 +57619,182 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Rotherham United</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Stoke City</t>
+          <t>West Bromwich Albion</t>
         </is>
       </c>
       <c r="I282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K282" t="n">
         <v>1</v>
       </c>
       <c r="L282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M282" t="n">
         <v>2</v>
       </c>
       <c r="N282" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>['45', '71']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P282" t="inlineStr">
         <is>
-          <t>['61', '80']</t>
+          <t>['9', '75']</t>
         </is>
       </c>
       <c r="Q282" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R282" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S282" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="T282" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U282" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V282" t="n">
         <v>3.1</v>
       </c>
       <c r="W282" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X282" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y282" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Z282" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH282" t="n">
         <v>1.33</v>
       </c>
-      <c r="AA282" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB282" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC282" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AD282" t="n">
+      <c r="AI282" t="n">
         <v>3.3</v>
       </c>
-      <c r="AE282" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AF282" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG282" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH282" t="n">
+      <c r="AJ282" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL282" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT282" t="n">
         <v>1.36</v>
       </c>
-      <c r="AI282" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AJ282" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AK282" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AL282" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM282" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN282" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AO282" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AP282" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AQ282" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AR282" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AS282" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AT282" t="n">
-        <v>1.29</v>
-      </c>
       <c r="AU282" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="AV282" t="n">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="AW282" t="n">
-        <v>3.01</v>
+        <v>2.8</v>
       </c>
       <c r="AX282" t="n">
-        <v>2.05</v>
+        <v>2.54</v>
       </c>
       <c r="AY282" t="n">
         <v>8</v>
       </c>
       <c r="AZ282" t="n">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="BA282" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BB282" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="BC282" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="BD282" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="BE282" t="n">
-        <v>2.45</v>
+        <v>2.87</v>
       </c>
       <c r="BF282" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG282" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH282" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI282" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ282" t="n">
         <v>7</v>
       </c>
-      <c r="BH282" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI282" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ282" t="n">
-        <v>6</v>
-      </c>
       <c r="BK282" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="283">
@@ -57802,7 +57802,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>2608415</v>
+        <v>2608409</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -57822,182 +57822,182 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>Sheffield United</t>
+          <t>Hull City</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Coventry City</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K283" t="n">
         <v>1</v>
       </c>
       <c r="L283" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
       <c r="N283" t="n">
+        <v>2</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q283" t="n">
+        <v>11</v>
+      </c>
+      <c r="R283" t="n">
+        <v>8</v>
+      </c>
+      <c r="S283" t="n">
+        <v>19</v>
+      </c>
+      <c r="T283" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U283" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V283" t="n">
         <v>4</v>
       </c>
-      <c r="O283" t="inlineStr">
-        <is>
-          <t>['35', '52', '71']</t>
-        </is>
-      </c>
-      <c r="P283" t="inlineStr">
-        <is>
-          <t>['75']</t>
-        </is>
-      </c>
-      <c r="Q283" t="n">
-        <v>2</v>
-      </c>
-      <c r="R283" t="n">
-        <v>7</v>
-      </c>
-      <c r="S283" t="n">
+      <c r="W283" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X283" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA283" t="n">
         <v>9</v>
       </c>
-      <c r="T283" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U283" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V283" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W283" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X283" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y283" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z283" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA283" t="n">
+      <c r="AB283" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY283" t="n">
         <v>8</v>
       </c>
-      <c r="AB283" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC283" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AD283" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AE283" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AF283" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG283" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH283" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI283" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AJ283" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AK283" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AL283" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM283" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN283" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AO283" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AP283" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AQ283" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AR283" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AS283" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AT283" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU283" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AV283" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AW283" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="AX283" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AY283" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AZ283" t="n">
-        <v>3.6</v>
+        <v>2.67</v>
       </c>
       <c r="BA283" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="BB283" t="n">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="BC283" t="n">
-        <v>1.47</v>
+        <v>1.77</v>
       </c>
       <c r="BD283" t="n">
-        <v>1.82</v>
+        <v>2.3</v>
       </c>
       <c r="BE283" t="n">
-        <v>2.37</v>
+        <v>3.2</v>
       </c>
       <c r="BF283" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG283" t="n">
         <v>5</v>
       </c>
       <c r="BH283" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BI283" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BJ283" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BK283" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="284">
@@ -58755,7 +58755,7 @@
         <v>1.36</v>
       </c>
       <c r="AS287" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT287" t="n">
         <v>1.15</v>
@@ -59020,7 +59020,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>2608423</v>
+        <v>2608422</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -59040,152 +59040,152 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Huddersfield Town</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Rotherham United</t>
         </is>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J289" t="n">
         <v>0</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M289" t="n">
         <v>0</v>
       </c>
       <c r="N289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O289" t="inlineStr">
         <is>
+          <t>['31', '56']</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P289" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R289" t="n">
+        <v>2</v>
+      </c>
+      <c r="S289" t="n">
+        <v>2</v>
+      </c>
+      <c r="T289" t="n">
+        <v>3</v>
+      </c>
+      <c r="U289" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V289" t="n">
         <v>4</v>
       </c>
-      <c r="S289" t="n">
-        <v>7</v>
-      </c>
-      <c r="T289" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U289" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V289" t="n">
-        <v>4.5</v>
-      </c>
       <c r="W289" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X289" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y289" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Z289" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA289" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB289" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC289" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AD289" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="AE289" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="AF289" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG289" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH289" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AI289" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AJ289" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="AK289" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AL289" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AM289" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AN289" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AO289" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AP289" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AQ289" t="n">
-        <v>2.09</v>
+        <v>1.17</v>
       </c>
       <c r="AR289" t="n">
-        <v>1.09</v>
+        <v>0.92</v>
       </c>
       <c r="AS289" t="n">
-        <v>2.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT289" t="n">
-        <v>1.08</v>
+        <v>0.79</v>
       </c>
       <c r="AU289" t="n">
-        <v>1.74</v>
+        <v>1.32</v>
       </c>
       <c r="AV289" t="n">
-        <v>1.17</v>
+        <v>0.82</v>
       </c>
       <c r="AW289" t="n">
-        <v>2.91</v>
+        <v>2.14</v>
       </c>
       <c r="AX289" t="n">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="AY289" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ289" t="n">
-        <v>3.16</v>
+        <v>2.67</v>
       </c>
       <c r="BA289" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="BB289" t="n">
         <v>1.48</v>
@@ -59200,22 +59200,22 @@
         <v>2.7</v>
       </c>
       <c r="BF289" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG289" t="n">
         <v>3</v>
       </c>
       <c r="BH289" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BI289" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ289" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK289" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290">
@@ -59223,7 +59223,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>2608422</v>
+        <v>2608427</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -59243,71 +59243,71 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Huddersfield Town</t>
+          <t>Wigan Athletic</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Rotherham United</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I290" t="n">
         <v>1</v>
       </c>
       <c r="J290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M290" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N290" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>['31', '56']</t>
+          <t>['42']</t>
         </is>
       </c>
       <c r="P290" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['19', '66', '85', '89']</t>
         </is>
       </c>
       <c r="Q290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R290" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S290" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T290" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="U290" t="n">
         <v>2.05</v>
       </c>
       <c r="V290" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="W290" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X290" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y290" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z290" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA290" t="n">
         <v>10</v>
@@ -59316,31 +59316,31 @@
         <v>1.06</v>
       </c>
       <c r="AC290" t="n">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="AD290" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AE290" t="n">
-        <v>3.45</v>
+        <v>2.8</v>
       </c>
       <c r="AF290" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG290" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH290" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AI290" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AJ290" t="n">
-        <v>2.16</v>
+        <v>2.01</v>
       </c>
       <c r="AK290" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="AL290" t="n">
         <v>1.83</v>
@@ -59349,76 +59349,76 @@
         <v>1.83</v>
       </c>
       <c r="AN290" t="n">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="AO290" t="n">
         <v>1.3</v>
       </c>
       <c r="AP290" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="AQ290" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV290" t="n">
         <v>1.17</v>
       </c>
-      <c r="AR290" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AS290" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AT290" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AU290" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AV290" t="n">
-        <v>0.82</v>
-      </c>
       <c r="AW290" t="n">
-        <v>2.14</v>
+        <v>2.55</v>
       </c>
       <c r="AX290" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AY290" t="n">
         <v>8</v>
       </c>
       <c r="AZ290" t="n">
-        <v>2.67</v>
+        <v>2.42</v>
       </c>
       <c r="BA290" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="BB290" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="BC290" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BD290" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="BE290" t="n">
-        <v>2.7</v>
+        <v>3.28</v>
       </c>
       <c r="BF290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG290" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH290" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI290" t="n">
         <v>7</v>
       </c>
-      <c r="BI290" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ290" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BK290" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291">
@@ -59426,7 +59426,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>2608421</v>
+        <v>2608423</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -59446,12 +59446,12 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>Coventry City</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Cardiff City</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I291" t="n">
@@ -59483,19 +59483,19 @@
         </is>
       </c>
       <c r="Q291" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R291" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S291" t="n">
         <v>7</v>
       </c>
       <c r="T291" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="U291" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V291" t="n">
         <v>4.5</v>
@@ -59513,19 +59513,19 @@
         <v>1.33</v>
       </c>
       <c r="AA291" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB291" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC291" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AD291" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AE291" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="AF291" t="n">
         <v>1.07</v>
@@ -59534,16 +59534,16 @@
         <v>9.5</v>
       </c>
       <c r="AH291" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AI291" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AJ291" t="n">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="AK291" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AL291" t="n">
         <v>1.91</v>
@@ -59552,61 +59552,61 @@
         <v>1.8</v>
       </c>
       <c r="AN291" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AO291" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AP291" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AQ291" t="n">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="AR291" t="n">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AS291" t="n">
-        <v>1.69</v>
+        <v>2.08</v>
       </c>
       <c r="AT291" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU291" t="n">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="AV291" t="n">
-        <v>1.03</v>
+        <v>1.17</v>
       </c>
       <c r="AW291" t="n">
-        <v>2.61</v>
+        <v>2.91</v>
       </c>
       <c r="AX291" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="AY291" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ291" t="n">
-        <v>2.8</v>
+        <v>3.16</v>
       </c>
       <c r="BA291" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="BB291" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BC291" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BD291" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="BE291" t="n">
-        <v>3.08</v>
+        <v>2.7</v>
       </c>
       <c r="BF291" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BG291" t="n">
         <v>3</v>
@@ -59618,7 +59618,7 @@
         <v>4</v>
       </c>
       <c r="BJ291" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BK291" t="n">
         <v>7</v>
@@ -59629,7 +59629,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>2608427</v>
+        <v>2608421</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -59649,59 +59649,59 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>Wigan Athletic</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Cardiff City</t>
         </is>
       </c>
       <c r="I292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M292" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N292" t="n">
+        <v>0</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q292" t="n">
         <v>5</v>
       </c>
-      <c r="O292" t="inlineStr">
-        <is>
-          <t>['42']</t>
-        </is>
-      </c>
-      <c r="P292" t="inlineStr">
-        <is>
-          <t>['19', '66', '85', '89']</t>
-        </is>
-      </c>
-      <c r="Q292" t="n">
-        <v>1</v>
-      </c>
       <c r="R292" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S292" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T292" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U292" t="n">
         <v>2.05</v>
       </c>
       <c r="V292" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="W292" t="n">
         <v>1.44</v>
@@ -59722,19 +59722,19 @@
         <v>1.06</v>
       </c>
       <c r="AC292" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="AD292" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="AE292" t="n">
-        <v>2.8</v>
+        <v>3.55</v>
       </c>
       <c r="AF292" t="n">
         <v>1.07</v>
       </c>
       <c r="AG292" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH292" t="n">
         <v>1.4</v>
@@ -59749,82 +59749,82 @@
         <v>1.66</v>
       </c>
       <c r="AL292" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP292" t="n">
         <v>1.83</v>
       </c>
-      <c r="AM292" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN292" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AO292" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP292" t="n">
-        <v>1.45</v>
-      </c>
       <c r="AQ292" t="n">
-        <v>0.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR292" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AS292" t="n">
-        <v>0.64</v>
+        <v>1.69</v>
       </c>
       <c r="AT292" t="n">
-        <v>1.57</v>
+        <v>0.92</v>
       </c>
       <c r="AU292" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="AV292" t="n">
-        <v>1.17</v>
+        <v>1.03</v>
       </c>
       <c r="AW292" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="AX292" t="n">
-        <v>1.75</v>
+        <v>1.59</v>
       </c>
       <c r="AY292" t="n">
         <v>8</v>
       </c>
       <c r="AZ292" t="n">
-        <v>2.42</v>
+        <v>2.8</v>
       </c>
       <c r="BA292" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="BB292" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="BC292" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BD292" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="BE292" t="n">
-        <v>3.28</v>
+        <v>3.08</v>
       </c>
       <c r="BF292" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG292" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH292" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BI292" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ292" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK292" t="n">
         <v>7</v>
-      </c>
-      <c r="BJ292" t="n">
-        <v>7</v>
-      </c>
-      <c r="BK292" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="293">
@@ -60441,7 +60441,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>2608428</v>
+        <v>2608418</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -60461,12 +60461,12 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Stoke City</t>
+          <t>Birmingham City</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Hull City</t>
         </is>
       </c>
       <c r="I296" t="n">
@@ -60494,149 +60494,149 @@
       </c>
       <c r="P296" t="inlineStr">
         <is>
-          <t>['61']</t>
+          <t>['77']</t>
         </is>
       </c>
       <c r="Q296" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R296" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S296" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T296" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U296" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V296" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="W296" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X296" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y296" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Z296" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA296" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AB296" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AC296" t="n">
-        <v>2.95</v>
+        <v>2</v>
       </c>
       <c r="AD296" t="n">
         <v>3.3</v>
       </c>
       <c r="AE296" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="AF296" t="n">
         <v>1.05</v>
       </c>
       <c r="AG296" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AH296" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO296" t="n">
         <v>1.32</v>
       </c>
-      <c r="AI296" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AJ296" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AK296" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AL296" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AM296" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN296" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AO296" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AP296" t="n">
-        <v>1.34</v>
+        <v>1.8</v>
       </c>
       <c r="AQ296" t="n">
-        <v>1.09</v>
+        <v>1.42</v>
       </c>
       <c r="AR296" t="n">
-        <v>1.73</v>
+        <v>1.18</v>
       </c>
       <c r="AS296" t="n">
-        <v>0.92</v>
+        <v>1.21</v>
       </c>
       <c r="AT296" t="n">
-        <v>1.92</v>
+        <v>1.36</v>
       </c>
       <c r="AU296" t="n">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="AV296" t="n">
-        <v>1.44</v>
+        <v>1.12</v>
       </c>
       <c r="AW296" t="n">
-        <v>3.14</v>
+        <v>2.5</v>
       </c>
       <c r="AX296" t="n">
-        <v>2.05</v>
+        <v>1.64</v>
       </c>
       <c r="AY296" t="n">
         <v>8</v>
       </c>
       <c r="AZ296" t="n">
-        <v>1.95</v>
+        <v>2.67</v>
       </c>
       <c r="BA296" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="BB296" t="n">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="BC296" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="BD296" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="BE296" t="n">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="BF296" t="n">
         <v>4</v>
       </c>
       <c r="BG296" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH296" t="n">
         <v>5</v>
       </c>
       <c r="BI296" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BJ296" t="n">
         <v>9</v>
       </c>
       <c r="BK296" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="297">
@@ -61050,7 +61050,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>2608418</v>
+        <v>2608428</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -61070,12 +61070,12 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Birmingham City</t>
+          <t>Stoke City</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Hull City</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="I299" t="n">
@@ -61103,149 +61103,149 @@
       </c>
       <c r="P299" t="inlineStr">
         <is>
-          <t>['77']</t>
+          <t>['61']</t>
         </is>
       </c>
       <c r="Q299" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R299" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S299" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T299" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U299" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V299" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W299" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X299" t="n">
         <v>2.75</v>
       </c>
-      <c r="U299" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V299" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W299" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X299" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Y299" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Z299" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AA299" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB299" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AC299" t="n">
-        <v>2</v>
+        <v>2.95</v>
       </c>
       <c r="AD299" t="n">
         <v>3.3</v>
       </c>
       <c r="AE299" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="AF299" t="n">
         <v>1.05</v>
       </c>
       <c r="AG299" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AH299" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AI299" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AJ299" t="n">
-        <v>2.19</v>
+        <v>2.08</v>
       </c>
       <c r="AK299" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="AL299" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="AM299" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AN299" t="n">
-        <v>1.17</v>
+        <v>1.63</v>
       </c>
       <c r="AO299" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AP299" t="n">
-        <v>1.8</v>
+        <v>1.34</v>
       </c>
       <c r="AQ299" t="n">
-        <v>1.42</v>
+        <v>1.09</v>
       </c>
       <c r="AR299" t="n">
-        <v>1.18</v>
+        <v>1.73</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.21</v>
+        <v>0.92</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.46</v>
+        <v>1.92</v>
       </c>
       <c r="AU299" t="n">
-        <v>1.38</v>
+        <v>1.7</v>
       </c>
       <c r="AV299" t="n">
-        <v>1.12</v>
+        <v>1.44</v>
       </c>
       <c r="AW299" t="n">
-        <v>2.5</v>
+        <v>3.14</v>
       </c>
       <c r="AX299" t="n">
-        <v>1.64</v>
+        <v>2.05</v>
       </c>
       <c r="AY299" t="n">
         <v>8</v>
       </c>
       <c r="AZ299" t="n">
-        <v>2.67</v>
+        <v>1.95</v>
       </c>
       <c r="BA299" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="BB299" t="n">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="BC299" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="BD299" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="BE299" t="n">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="BF299" t="n">
         <v>4</v>
       </c>
       <c r="BG299" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH299" t="n">
         <v>5</v>
       </c>
       <c r="BI299" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BJ299" t="n">
         <v>9</v>
       </c>
       <c r="BK299" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300">
@@ -61456,7 +61456,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>2608432</v>
+        <v>2608434</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -61476,50 +61476,50 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Huddersfield Town</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Luton Town</t>
         </is>
       </c>
       <c r="I301" t="n">
         <v>1</v>
       </c>
       <c r="J301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
       <c r="M301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N301" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>['21']</t>
+          <t>['25']</t>
         </is>
       </c>
       <c r="P301" t="inlineStr">
         <is>
-          <t>['66']</t>
+          <t>['43', '84']</t>
         </is>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
       </c>
       <c r="R301" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S301" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T301" t="n">
         <v>3.5</v>
@@ -61570,10 +61570,10 @@
         <v>3</v>
       </c>
       <c r="AJ301" t="n">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="AK301" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AL301" t="n">
         <v>1.83</v>
@@ -61585,43 +61585,43 @@
         <v>1.55</v>
       </c>
       <c r="AO301" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP301" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ301" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR301" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS301" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT301" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AU301" t="n">
         <v>1.3</v>
       </c>
-      <c r="AP301" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AQ301" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AR301" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AS301" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AT301" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AU301" t="n">
-        <v>1.45</v>
-      </c>
       <c r="AV301" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AW301" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="AX301" t="n">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="AY301" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AZ301" t="n">
-        <v>1.95</v>
+        <v>1.64</v>
       </c>
       <c r="BA301" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="BB301" t="n">
         <v>1.48</v>
@@ -61636,22 +61636,22 @@
         <v>2.7</v>
       </c>
       <c r="BF301" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG301" t="n">
         <v>6</v>
       </c>
       <c r="BH301" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI301" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BJ301" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BK301" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="302">
@@ -61659,7 +61659,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>2608434</v>
+        <v>2608432</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -61679,50 +61679,50 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Huddersfield Town</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Luton Town</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I302" t="n">
         <v>1</v>
       </c>
       <c r="J302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
       <c r="M302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>['25']</t>
+          <t>['21']</t>
         </is>
       </c>
       <c r="P302" t="inlineStr">
         <is>
-          <t>['43', '84']</t>
+          <t>['66']</t>
         </is>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
       </c>
       <c r="R302" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S302" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T302" t="n">
         <v>3.5</v>
@@ -61773,10 +61773,10 @@
         <v>3</v>
       </c>
       <c r="AJ302" t="n">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="AK302" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="AL302" t="n">
         <v>1.83</v>
@@ -61788,43 +61788,43 @@
         <v>1.55</v>
       </c>
       <c r="AO302" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AP302" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ302" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR302" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS302" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT302" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU302" t="n">
         <v>1.45</v>
       </c>
-      <c r="AQ302" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AR302" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AS302" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AT302" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AU302" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AV302" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AW302" t="n">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="AX302" t="n">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="AY302" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AZ302" t="n">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="BA302" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="BB302" t="n">
         <v>1.48</v>
@@ -61839,22 +61839,22 @@
         <v>2.7</v>
       </c>
       <c r="BF302" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG302" t="n">
         <v>6</v>
       </c>
       <c r="BH302" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI302" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BJ302" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BK302" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="303">
@@ -62268,7 +62268,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>2608436</v>
+        <v>2608440</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -62288,12 +62288,12 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Norwich City</t>
+          <t>West Bromwich Albion</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I305" t="n">
@@ -62306,86 +62306,86 @@
         <v>0</v>
       </c>
       <c r="L305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N305" t="n">
         <v>1</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P305" t="inlineStr">
-        <is>
-          <t>['86']</t>
-        </is>
-      </c>
       <c r="Q305" t="n">
+        <v>6</v>
+      </c>
+      <c r="R305" t="n">
+        <v>3</v>
+      </c>
+      <c r="S305" t="n">
+        <v>9</v>
+      </c>
+      <c r="T305" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U305" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V305" t="n">
+        <v>5</v>
+      </c>
+      <c r="W305" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X305" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA305" t="n">
         <v>8</v>
       </c>
-      <c r="R305" t="n">
-        <v>3</v>
-      </c>
-      <c r="S305" t="n">
-        <v>11</v>
-      </c>
-      <c r="T305" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U305" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V305" t="n">
-        <v>4</v>
-      </c>
-      <c r="W305" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X305" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y305" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z305" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA305" t="n">
-        <v>9</v>
-      </c>
       <c r="AB305" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AC305" t="n">
-        <v>2.02</v>
+        <v>1.61</v>
       </c>
       <c r="AD305" t="n">
-        <v>3.6</v>
+        <v>4.14</v>
       </c>
       <c r="AE305" t="n">
-        <v>3.91</v>
+        <v>6</v>
       </c>
       <c r="AF305" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="AG305" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH305" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AI305" t="n">
-        <v>3.3</v>
+        <v>3.62</v>
       </c>
       <c r="AJ305" t="n">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="AK305" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="AL305" t="n">
         <v>1.83</v>
@@ -62394,76 +62394,76 @@
         <v>1.83</v>
       </c>
       <c r="AN305" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AO305" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AP305" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="AQ305" t="n">
         <v>1.46</v>
       </c>
       <c r="AR305" t="n">
-        <v>1.31</v>
+        <v>0.85</v>
       </c>
       <c r="AS305" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="AT305" t="n">
-        <v>1.43</v>
+        <v>0.79</v>
       </c>
       <c r="AU305" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AV305" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="AW305" t="n">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="AX305" t="n">
-        <v>1.72</v>
+        <v>1.22</v>
       </c>
       <c r="AY305" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AZ305" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="BA305" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BB305" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="BC305" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="BD305" t="n">
         <v>2.1</v>
       </c>
       <c r="BE305" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="BF305" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG305" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH305" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BI305" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BJ305" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BK305" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="306">
@@ -62471,7 +62471,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>2608439</v>
+        <v>2608441</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -62491,65 +62491,65 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Swansea City</t>
+          <t>Wigan Athletic</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Hull City</t>
         </is>
       </c>
       <c r="I306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K306" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
       <c r="M306" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N306" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>['27']</t>
+          <t>['63']</t>
         </is>
       </c>
       <c r="P306" t="inlineStr">
         <is>
-          <t>['12', '22']</t>
+          <t>['15', '78', '85', '90+1']</t>
         </is>
       </c>
       <c r="Q306" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R306" t="n">
         <v>5</v>
       </c>
       <c r="S306" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T306" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="U306" t="n">
         <v>2.1</v>
       </c>
       <c r="V306" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="W306" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X306" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y306" t="n">
         <v>3</v>
@@ -62558,37 +62558,37 @@
         <v>1.36</v>
       </c>
       <c r="AA306" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB306" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AC306" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AD306" t="n">
         <v>3.25</v>
       </c>
-      <c r="AD306" t="n">
-        <v>3.42</v>
-      </c>
       <c r="AE306" t="n">
-        <v>2.34</v>
+        <v>3.29</v>
       </c>
       <c r="AF306" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AG306" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AH306" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AI306" t="n">
-        <v>3.26</v>
+        <v>3.14</v>
       </c>
       <c r="AJ306" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="AK306" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AL306" t="n">
         <v>1.8</v>
@@ -62597,76 +62597,76 @@
         <v>1.91</v>
       </c>
       <c r="AN306" t="n">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
       <c r="AO306" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AP306" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ306" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR306" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS306" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AT306" t="n">
         <v>1.36</v>
       </c>
-      <c r="AQ306" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AR306" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AS306" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AT306" t="n">
-        <v>1.92</v>
-      </c>
       <c r="AU306" t="n">
-        <v>1.61</v>
+        <v>1.34</v>
       </c>
       <c r="AV306" t="n">
-        <v>1.4</v>
+        <v>1.16</v>
       </c>
       <c r="AW306" t="n">
-        <v>3.01</v>
+        <v>2.5</v>
       </c>
       <c r="AX306" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="AY306" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AZ306" t="n">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="BA306" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="BB306" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="BC306" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="BD306" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="BE306" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="BF306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG306" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH306" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BI306" t="n">
         <v>5</v>
       </c>
       <c r="BJ306" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK306" t="n">
         <v>10</v>
-      </c>
-      <c r="BK306" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="307">
@@ -62674,7 +62674,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>2608440</v>
+        <v>2608439</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -62694,71 +62694,71 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>West Bromwich Albion</t>
+          <t>Swansea City</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="I307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K307" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
       <c r="M307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N307" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>['60']</t>
+          <t>['27']</t>
         </is>
       </c>
       <c r="P307" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12', '22']</t>
         </is>
       </c>
       <c r="Q307" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R307" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S307" t="n">
         <v>9</v>
       </c>
       <c r="T307" t="n">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="U307" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V307" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="W307" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X307" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z307" t="n">
         <v>1.36</v>
-      </c>
-      <c r="X307" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y307" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z307" t="n">
-        <v>1.4</v>
       </c>
       <c r="AA307" t="n">
         <v>8</v>
@@ -62767,76 +62767,76 @@
         <v>1.08</v>
       </c>
       <c r="AC307" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI307" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AJ307" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK307" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL307" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM307" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN307" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO307" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP307" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ307" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR307" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS307" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT307" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AU307" t="n">
         <v>1.61</v>
       </c>
-      <c r="AD307" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="AE307" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF307" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG307" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH307" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI307" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="AJ307" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AK307" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AL307" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM307" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN307" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO307" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP307" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AQ307" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AR307" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AS307" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AT307" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AU307" t="n">
-        <v>1.93</v>
-      </c>
       <c r="AV307" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AW307" t="n">
-        <v>3.2</v>
+        <v>3.01</v>
       </c>
       <c r="AX307" t="n">
-        <v>1.22</v>
+        <v>1.73</v>
       </c>
       <c r="AY307" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AZ307" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="BA307" t="n">
         <v>1.2</v>
@@ -62854,22 +62854,22 @@
         <v>2.7</v>
       </c>
       <c r="BF307" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG307" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH307" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BI307" t="n">
         <v>5</v>
       </c>
       <c r="BJ307" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="BK307" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308">
@@ -62877,7 +62877,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>2608441</v>
+        <v>2608430</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -62897,59 +62897,59 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Wigan Athletic</t>
+          <t>Birmingham City</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Hull City</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
       <c r="J308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
       <c r="M308" t="n">
+        <v>3</v>
+      </c>
+      <c r="N308" t="n">
         <v>4</v>
       </c>
-      <c r="N308" t="n">
-        <v>5</v>
-      </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>['63']</t>
+          <t>['74']</t>
         </is>
       </c>
       <c r="P308" t="inlineStr">
         <is>
-          <t>['15', '78', '85', '90+1']</t>
+          <t>['57', '59', '85']</t>
         </is>
       </c>
       <c r="Q308" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R308" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S308" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="T308" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="U308" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V308" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W308" t="n">
         <v>1.44</v>
@@ -62958,121 +62958,121 @@
         <v>2.63</v>
       </c>
       <c r="Y308" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Z308" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AD308" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AE308" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF308" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG308" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH308" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI308" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ308" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK308" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL308" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM308" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN308" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO308" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP308" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ308" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR308" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS308" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT308" t="n">
         <v>1.36</v>
       </c>
-      <c r="AA308" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB308" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC308" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AD308" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE308" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AF308" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG308" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AH308" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI308" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AJ308" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AK308" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AL308" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM308" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AN308" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AO308" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP308" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AQ308" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AR308" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS308" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AT308" t="n">
+      <c r="AU308" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV308" t="n">
         <v>1.46</v>
       </c>
-      <c r="AU308" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AV308" t="n">
-        <v>1.16</v>
-      </c>
       <c r="AW308" t="n">
-        <v>2.5</v>
+        <v>2.84</v>
       </c>
       <c r="AX308" t="n">
-        <v>1.82</v>
+        <v>2.3</v>
       </c>
       <c r="AY308" t="n">
         <v>7</v>
       </c>
       <c r="AZ308" t="n">
-        <v>2.43</v>
+        <v>1.89</v>
       </c>
       <c r="BA308" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="BB308" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="BC308" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="BD308" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="BE308" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="BF308" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG308" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BH308" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BI308" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BJ308" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BK308" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="309">
@@ -63080,7 +63080,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>2608430</v>
+        <v>2608436</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -63100,12 +63100,12 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>Birmingham City</t>
+          <t>Norwich City</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I309" t="n">
@@ -63118,41 +63118,41 @@
         <v>0</v>
       </c>
       <c r="L309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M309" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N309" t="n">
+        <v>1</v>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q309" t="n">
+        <v>8</v>
+      </c>
+      <c r="R309" t="n">
+        <v>3</v>
+      </c>
+      <c r="S309" t="n">
+        <v>11</v>
+      </c>
+      <c r="T309" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U309" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V309" t="n">
         <v>4</v>
-      </c>
-      <c r="O309" t="inlineStr">
-        <is>
-          <t>['74']</t>
-        </is>
-      </c>
-      <c r="P309" t="inlineStr">
-        <is>
-          <t>['57', '59', '85']</t>
-        </is>
-      </c>
-      <c r="Q309" t="n">
-        <v>9</v>
-      </c>
-      <c r="R309" t="n">
-        <v>8</v>
-      </c>
-      <c r="S309" t="n">
-        <v>17</v>
-      </c>
-      <c r="T309" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U309" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V309" t="n">
-        <v>3.4</v>
       </c>
       <c r="W309" t="n">
         <v>1.44</v>
@@ -63161,43 +63161,43 @@
         <v>2.63</v>
       </c>
       <c r="Y309" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Z309" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC309" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD309" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE309" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AF309" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG309" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH309" t="n">
         <v>1.33</v>
       </c>
-      <c r="AA309" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB309" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC309" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AD309" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AE309" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AF309" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG309" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH309" t="n">
-        <v>1.4</v>
-      </c>
       <c r="AI309" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AJ309" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="AK309" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AL309" t="n">
         <v>1.83</v>
@@ -63206,76 +63206,76 @@
         <v>1.83</v>
       </c>
       <c r="AN309" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AO309" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AP309" t="n">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="AQ309" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR309" t="n">
         <v>1.31</v>
       </c>
-      <c r="AR309" t="n">
-        <v>1.23</v>
-      </c>
       <c r="AS309" t="n">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="AT309" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AU309" t="n">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="AV309" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="AW309" t="n">
-        <v>2.84</v>
+        <v>3.18</v>
       </c>
       <c r="AX309" t="n">
-        <v>2.3</v>
+        <v>1.72</v>
       </c>
       <c r="AY309" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AZ309" t="n">
-        <v>1.89</v>
+        <v>2.6</v>
       </c>
       <c r="BA309" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="BB309" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="BC309" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BD309" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="BE309" t="n">
-        <v>3.05</v>
+        <v>2.63</v>
       </c>
       <c r="BF309" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG309" t="n">
         <v>4</v>
       </c>
-      <c r="BG309" t="n">
-        <v>8</v>
-      </c>
       <c r="BH309" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BI309" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BJ309" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BK309" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="310">
@@ -64439,7 +64439,7 @@
         <v>1.38</v>
       </c>
       <c r="AS315" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT315" t="n">
         <v>1.29</v>
@@ -64704,7 +64704,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>2608447</v>
+        <v>2608448</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -64724,59 +64724,59 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Preston North End</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Norwich City</t>
         </is>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
       <c r="J317" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K317" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M317" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N317" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>['54']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P317" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13', '16', '28', '69']</t>
         </is>
       </c>
       <c r="Q317" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R317" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S317" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T317" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="U317" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V317" t="n">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="W317" t="n">
         <v>1.44</v>
@@ -64791,31 +64791,31 @@
         <v>1.33</v>
       </c>
       <c r="AA317" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB317" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC317" t="n">
-        <v>1.84</v>
+        <v>2.9</v>
       </c>
       <c r="AD317" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="AE317" t="n">
-        <v>3.85</v>
+        <v>2.28</v>
       </c>
       <c r="AF317" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG317" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AH317" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AI317" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="AJ317" t="n">
         <v>2.1</v>
@@ -64824,55 +64824,55 @@
         <v>1.67</v>
       </c>
       <c r="AL317" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AM317" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AN317" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="AO317" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AP317" t="n">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="AQ317" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AR317" t="n">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AS317" t="n">
-        <v>1.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT317" t="n">
-        <v>0.92</v>
+        <v>1.54</v>
       </c>
       <c r="AU317" t="n">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="AV317" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AW317" t="n">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="AX317" t="n">
-        <v>1.49</v>
+        <v>2.6</v>
       </c>
       <c r="AY317" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ317" t="n">
-        <v>3.3</v>
+        <v>1.74</v>
       </c>
       <c r="BA317" t="n">
         <v>1.24</v>
       </c>
       <c r="BB317" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="BC317" t="n">
         <v>1.85</v>
@@ -64884,22 +64884,22 @@
         <v>3.3</v>
       </c>
       <c r="BF317" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG317" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH317" t="n">
         <v>5</v>
       </c>
-      <c r="BG317" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH317" t="n">
-        <v>3</v>
-      </c>
       <c r="BI317" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BJ317" t="n">
         <v>8</v>
       </c>
       <c r="BK317" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="318">
@@ -64907,7 +64907,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>2608448</v>
+        <v>2608447</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -64927,59 +64927,59 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>Preston North End</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Norwich City</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
       <c r="J318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M318" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N318" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O318" t="inlineStr">
         <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P318" t="inlineStr">
-        <is>
-          <t>['13', '16', '28', '69']</t>
-        </is>
-      </c>
       <c r="Q318" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R318" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S318" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T318" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="U318" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V318" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="W318" t="n">
         <v>1.44</v>
@@ -64994,31 +64994,31 @@
         <v>1.33</v>
       </c>
       <c r="AA318" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB318" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC318" t="n">
-        <v>2.9</v>
+        <v>1.84</v>
       </c>
       <c r="AD318" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="AE318" t="n">
-        <v>2.28</v>
+        <v>3.85</v>
       </c>
       <c r="AF318" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG318" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AH318" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AI318" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="AJ318" t="n">
         <v>2.1</v>
@@ -65027,55 +65027,55 @@
         <v>1.67</v>
       </c>
       <c r="AL318" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AM318" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AN318" t="n">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="AO318" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AP318" t="n">
-        <v>1.42</v>
+        <v>1.9</v>
       </c>
       <c r="AQ318" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR318" t="n">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AS318" t="n">
-        <v>0.93</v>
+        <v>1.77</v>
       </c>
       <c r="AT318" t="n">
-        <v>1.54</v>
+        <v>0.92</v>
       </c>
       <c r="AU318" t="n">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="AV318" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AW318" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="AX318" t="n">
-        <v>2.6</v>
+        <v>1.49</v>
       </c>
       <c r="AY318" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ318" t="n">
-        <v>1.74</v>
+        <v>3.3</v>
       </c>
       <c r="BA318" t="n">
         <v>1.24</v>
       </c>
       <c r="BB318" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="BC318" t="n">
         <v>1.85</v>
@@ -65087,22 +65087,22 @@
         <v>3.3</v>
       </c>
       <c r="BF318" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG318" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BH318" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI318" t="n">
         <v>5</v>
-      </c>
-      <c r="BI318" t="n">
-        <v>13</v>
       </c>
       <c r="BJ318" t="n">
         <v>8</v>
       </c>
       <c r="BK318" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="319">
@@ -65657,7 +65657,7 @@
         <v>1.08</v>
       </c>
       <c r="AS321" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT321" t="n">
         <v>1</v>
@@ -66066,7 +66066,7 @@
         <v>1.23</v>
       </c>
       <c r="AT323" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU323" t="n">
         <v>1.88</v>
@@ -66118,6 +66118,412 @@
       </c>
       <c r="BK323" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" t="n">
+        <v>2608461</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E324" s="2" t="n">
+        <v>44946.69791666666</v>
+      </c>
+      <c r="F324" t="n">
+        <v>28</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>Sheffield United</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Hull City</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>1</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N324" t="n">
+        <v>1</v>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q324" t="n">
+        <v>4</v>
+      </c>
+      <c r="R324" t="n">
+        <v>2</v>
+      </c>
+      <c r="S324" t="n">
+        <v>6</v>
+      </c>
+      <c r="T324" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U324" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V324" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W324" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X324" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y324" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z324" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA324" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB324" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC324" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD324" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AE324" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="AF324" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG324" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH324" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI324" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ324" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK324" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL324" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM324" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN324" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO324" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP324" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ324" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR324" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS324" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT324" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU324" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV324" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW324" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX324" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY324" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ324" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA324" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB324" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC324" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD324" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE324" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF324" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG324" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH324" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI324" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ324" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK324" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" t="n">
+        <v>2608457</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E325" s="2" t="n">
+        <v>44946.70833333334</v>
+      </c>
+      <c r="F325" t="n">
+        <v>28</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>West Bromwich Albion</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>0</v>
+      </c>
+      <c r="J325" t="n">
+        <v>1</v>
+      </c>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="n">
+        <v>2</v>
+      </c>
+      <c r="M325" t="n">
+        <v>1</v>
+      </c>
+      <c r="N325" t="n">
+        <v>3</v>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>['75', '87']</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q325" t="n">
+        <v>16</v>
+      </c>
+      <c r="R325" t="n">
+        <v>5</v>
+      </c>
+      <c r="S325" t="n">
+        <v>21</v>
+      </c>
+      <c r="T325" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U325" t="n">
+        <v>2</v>
+      </c>
+      <c r="V325" t="n">
+        <v>4</v>
+      </c>
+      <c r="W325" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X325" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y325" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z325" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA325" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB325" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC325" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD325" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE325" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF325" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG325" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH325" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI325" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ325" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK325" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL325" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM325" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN325" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO325" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP325" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ325" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR325" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS325" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AT325" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU325" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV325" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW325" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX325" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY325" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ325" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA325" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB325" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC325" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD325" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE325" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF325" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG325" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH325" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI325" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ325" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK325" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK325"/>
+  <dimension ref="A1:BK334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.46</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0.92</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT13" t="n">
         <v>1.93</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT14" t="n">
         <v>0.75</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT17" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>2.14</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2.47</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT22" t="n">
         <v>1.57</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT25" t="n">
         <v>1.92</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT26" t="n">
         <v>1.15</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT27" t="n">
         <v>1.08</v>
@@ -6181,7 +6181,7 @@
         <v>1.46</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU28" t="n">
         <v>1.54</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT29" t="n">
         <v>1.36</v>
@@ -6587,7 +6587,7 @@
         <v>1.23</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU30" t="n">
         <v>1.9</v>
@@ -6993,7 +6993,7 @@
         <v>1.07</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU32" t="n">
         <v>1.6</v>
@@ -7399,7 +7399,7 @@
         <v>0.92</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU34" t="n">
         <v>1.26</v>
@@ -8008,7 +8008,7 @@
         <v>1.54</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU37" t="n">
         <v>0.03</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT38" t="n">
         <v>1.43</v>
@@ -8411,10 +8411,10 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU39" t="n">
         <v>0.63</v>
@@ -9023,7 +9023,7 @@
         <v>0.93</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU42" t="n">
         <v>2.35</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT43" t="n">
         <v>1</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU44" t="n">
         <v>1.33</v>
@@ -10241,7 +10241,7 @@
         <v>1.36</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU48" t="n">
         <v>2.56</v>
@@ -10647,7 +10647,7 @@
         <v>1.54</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU50" t="n">
         <v>1.11</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT51" t="n">
         <v>1.57</v>
@@ -11256,7 +11256,7 @@
         <v>2</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU53" t="n">
         <v>1.37</v>
@@ -11456,10 +11456,10 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU54" t="n">
         <v>1.59</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT57" t="n">
         <v>1.23</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT58" t="n">
         <v>0.92</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU60" t="n">
         <v>1.51</v>
@@ -12880,7 +12880,7 @@
         <v>1.77</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU61" t="n">
         <v>1.4</v>
@@ -13080,7 +13080,7 @@
         <v>1.5</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT62" t="n">
         <v>1.92</v>
@@ -13489,7 +13489,7 @@
         <v>2.08</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU64" t="n">
         <v>1.64</v>
@@ -13689,7 +13689,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT65" t="n">
         <v>1.36</v>
@@ -14095,10 +14095,10 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU67" t="n">
         <v>1.06</v>
@@ -14907,7 +14907,7 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT71" t="n">
         <v>1.36</v>
@@ -15110,10 +15110,10 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU72" t="n">
         <v>1.43</v>
@@ -15316,7 +15316,7 @@
         <v>2.47</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU73" t="n">
         <v>1.66</v>
@@ -15516,10 +15516,10 @@
         <v>1.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU74" t="n">
         <v>1.45</v>
@@ -15722,7 +15722,7 @@
         <v>2.14</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU75" t="n">
         <v>2.19</v>
@@ -15922,7 +15922,7 @@
         <v>0.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT76" t="n">
         <v>1.36</v>
@@ -16125,10 +16125,10 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU77" t="n">
         <v>1.3</v>
@@ -16328,10 +16328,10 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU78" t="n">
         <v>1.48</v>
@@ -16531,10 +16531,10 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU79" t="n">
         <v>1.68</v>
@@ -16734,7 +16734,7 @@
         <v>0</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT80" t="n">
         <v>0.75</v>
@@ -16937,10 +16937,10 @@
         <v>1.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU81" t="n">
         <v>0</v>
@@ -22418,7 +22418,7 @@
         <v>0.4</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT108" t="n">
         <v>1</v>
@@ -23433,7 +23433,7 @@
         <v>1.2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT113" t="n">
         <v>1.29</v>
@@ -23636,7 +23636,7 @@
         <v>1.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT114" t="n">
         <v>1.57</v>
@@ -23839,10 +23839,10 @@
         <v>0.75</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU115" t="n">
         <v>1.48</v>
@@ -24451,7 +24451,7 @@
         <v>1.77</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU118" t="n">
         <v>1.34</v>
@@ -24654,7 +24654,7 @@
         <v>1.07</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU119" t="n">
         <v>1.42</v>
@@ -24857,7 +24857,7 @@
         <v>2.08</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU120" t="n">
         <v>1.52</v>
@@ -25060,7 +25060,7 @@
         <v>0.92</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU121" t="n">
         <v>1.46</v>
@@ -25260,7 +25260,7 @@
         <v>1.4</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT122" t="n">
         <v>1.36</v>
@@ -25463,10 +25463,10 @@
         <v>0.25</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU123" t="n">
         <v>1.47</v>
@@ -26075,7 +26075,7 @@
         <v>1.57</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU126" t="n">
         <v>2.3</v>
@@ -26275,10 +26275,10 @@
         <v>2</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU127" t="n">
         <v>1.66</v>
@@ -26681,7 +26681,7 @@
         <v>1.6</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT129" t="n">
         <v>1.92</v>
@@ -26884,7 +26884,7 @@
         <v>0.8</v>
       </c>
       <c r="AS130" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT130" t="n">
         <v>1.43</v>
@@ -27087,7 +27087,7 @@
         <v>1.17</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT131" t="n">
         <v>1</v>
@@ -27696,7 +27696,7 @@
         <v>0.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT134" t="n">
         <v>1</v>
@@ -27899,7 +27899,7 @@
         <v>1.2</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT135" t="n">
         <v>1.07</v>
@@ -28105,7 +28105,7 @@
         <v>2</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU136" t="n">
         <v>1.24</v>
@@ -28511,7 +28511,7 @@
         <v>1.46</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU138" t="n">
         <v>1.58</v>
@@ -29117,10 +29117,10 @@
         <v>1.6</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU141" t="n">
         <v>1.34</v>
@@ -29523,10 +29523,10 @@
         <v>1.2</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU143" t="n">
         <v>1.65</v>
@@ -29726,7 +29726,7 @@
         <v>1.5</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT144" t="n">
         <v>1.92</v>
@@ -30132,7 +30132,7 @@
         <v>0.83</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT146" t="n">
         <v>1.08</v>
@@ -30338,7 +30338,7 @@
         <v>1.36</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU147" t="n">
         <v>1.96</v>
@@ -30538,7 +30538,7 @@
         <v>1.83</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT148" t="n">
         <v>1.93</v>
@@ -30947,7 +30947,7 @@
         <v>1.57</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU150" t="n">
         <v>2.18</v>
@@ -31150,7 +31150,7 @@
         <v>2.08</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU151" t="n">
         <v>1.69</v>
@@ -31353,7 +31353,7 @@
         <v>2.08</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU152" t="n">
         <v>1.52</v>
@@ -31553,7 +31553,7 @@
         <v>0.67</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT153" t="n">
         <v>0.92</v>
@@ -31959,7 +31959,7 @@
         <v>1</v>
       </c>
       <c r="AS155" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT155" t="n">
         <v>1.07</v>
@@ -32162,10 +32162,10 @@
         <v>2</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU156" t="n">
         <v>1.37</v>
@@ -32771,7 +32771,7 @@
         <v>2.17</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT159" t="n">
         <v>1.23</v>
@@ -33177,7 +33177,7 @@
         <v>0.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT161" t="n">
         <v>1</v>
@@ -33383,7 +33383,7 @@
         <v>2.47</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU162" t="n">
         <v>1.81</v>
@@ -34192,10 +34192,10 @@
         <v>0.33</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU166" t="n">
         <v>1.42</v>
@@ -34395,10 +34395,10 @@
         <v>1.67</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU167" t="n">
         <v>1.32</v>
@@ -34804,7 +34804,7 @@
         <v>1.36</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU169" t="n">
         <v>2.01</v>
@@ -35007,7 +35007,7 @@
         <v>1.54</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU170" t="n">
         <v>1.41</v>
@@ -35210,7 +35210,7 @@
         <v>1.21</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU171" t="n">
         <v>1.25</v>
@@ -35613,10 +35613,10 @@
         <v>0.6</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU173" t="n">
         <v>1.62</v>
@@ -36222,7 +36222,7 @@
         <v>1</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT176" t="n">
         <v>0.92</v>
@@ -36425,10 +36425,10 @@
         <v>0.17</v>
       </c>
       <c r="AS177" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU177" t="n">
         <v>1.39</v>
@@ -36628,7 +36628,7 @@
         <v>1.57</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT178" t="n">
         <v>1.93</v>
@@ -36831,7 +36831,7 @@
         <v>1.71</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT179" t="n">
         <v>1.92</v>
@@ -37240,7 +37240,7 @@
         <v>0.92</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU181" t="n">
         <v>1.54</v>
@@ -38049,7 +38049,7 @@
         <v>0.88</v>
       </c>
       <c r="AS185" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT185" t="n">
         <v>1</v>
@@ -38252,7 +38252,7 @@
         <v>1.63</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT186" t="n">
         <v>1.92</v>
@@ -38658,7 +38658,7 @@
         <v>1.86</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT188" t="n">
         <v>1.23</v>
@@ -39067,7 +39067,7 @@
         <v>2.14</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU190" t="n">
         <v>2.2</v>
@@ -39470,10 +39470,10 @@
         <v>2</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU192" t="n">
         <v>1.41</v>
@@ -39673,10 +39673,10 @@
         <v>1</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU193" t="n">
         <v>1.07</v>
@@ -39879,7 +39879,7 @@
         <v>2.47</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU194" t="n">
         <v>1.77</v>
@@ -40079,7 +40079,7 @@
         <v>1.63</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT195" t="n">
         <v>1.36</v>
@@ -40282,10 +40282,10 @@
         <v>1.57</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU196" t="n">
         <v>1.4</v>
@@ -40688,7 +40688,7 @@
         <v>0.88</v>
       </c>
       <c r="AS198" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT198" t="n">
         <v>1.43</v>
@@ -40894,7 +40894,7 @@
         <v>0.93</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU199" t="n">
         <v>1.51</v>
@@ -41503,7 +41503,7 @@
         <v>1.21</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU202" t="n">
         <v>1.21</v>
@@ -41703,7 +41703,7 @@
         <v>1.13</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT203" t="n">
         <v>1</v>
@@ -41906,10 +41906,10 @@
         <v>1</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU204" t="n">
         <v>1.56</v>
@@ -42112,7 +42112,7 @@
         <v>2.47</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU205" t="n">
         <v>1.68</v>
@@ -42518,7 +42518,7 @@
         <v>0.93</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU207" t="n">
         <v>1.52</v>
@@ -42721,7 +42721,7 @@
         <v>1.23</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU208" t="n">
         <v>1.93</v>
@@ -42924,7 +42924,7 @@
         <v>1.07</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU209" t="n">
         <v>1.36</v>
@@ -43124,7 +43124,7 @@
         <v>1.33</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT210" t="n">
         <v>1.07</v>
@@ -43530,7 +43530,7 @@
         <v>1.56</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT212" t="n">
         <v>1.93</v>
@@ -43733,7 +43733,7 @@
         <v>1.22</v>
       </c>
       <c r="AS213" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT213" t="n">
         <v>1.29</v>
@@ -44342,7 +44342,7 @@
         <v>1.11</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT216" t="n">
         <v>1.43</v>
@@ -44548,7 +44548,7 @@
         <v>2.47</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU217" t="n">
         <v>1.7</v>
@@ -44748,10 +44748,10 @@
         <v>0.63</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU218" t="n">
         <v>1.38</v>
@@ -44954,7 +44954,7 @@
         <v>2</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU219" t="n">
         <v>1.36</v>
@@ -45357,7 +45357,7 @@
         <v>1.22</v>
       </c>
       <c r="AS221" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT221" t="n">
         <v>1.15</v>
@@ -45560,7 +45560,7 @@
         <v>1.11</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT222" t="n">
         <v>1</v>
@@ -45766,7 +45766,7 @@
         <v>1.46</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU223" t="n">
         <v>1.51</v>
@@ -45966,7 +45966,7 @@
         <v>0.88</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT224" t="n">
         <v>1.36</v>
@@ -46169,7 +46169,7 @@
         <v>0.78</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT225" t="n">
         <v>0.92</v>
@@ -47187,7 +47187,7 @@
         <v>0.92</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU230" t="n">
         <v>1.53</v>
@@ -47390,7 +47390,7 @@
         <v>2.14</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU231" t="n">
         <v>2.26</v>
@@ -47590,7 +47590,7 @@
         <v>0.25</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT232" t="n">
         <v>0.75</v>
@@ -47793,7 +47793,7 @@
         <v>1</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT233" t="n">
         <v>1.36</v>
@@ -47999,7 +47999,7 @@
         <v>0.92</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU234" t="n">
         <v>1.57</v>
@@ -48199,10 +48199,10 @@
         <v>1.33</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU235" t="n">
         <v>1.31</v>
@@ -48402,7 +48402,7 @@
         <v>1.56</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT236" t="n">
         <v>1.23</v>
@@ -48605,10 +48605,10 @@
         <v>1.89</v>
       </c>
       <c r="AS237" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU237" t="n">
         <v>1.8</v>
@@ -48808,10 +48808,10 @@
         <v>0.78</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT238" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU238" t="n">
         <v>1.5</v>
@@ -49011,7 +49011,7 @@
         <v>1.4</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT239" t="n">
         <v>1.57</v>
@@ -49214,7 +49214,7 @@
         <v>1.2</v>
       </c>
       <c r="AS240" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT240" t="n">
         <v>1</v>
@@ -49623,7 +49623,7 @@
         <v>0.93</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU242" t="n">
         <v>1.48</v>
@@ -49826,7 +49826,7 @@
         <v>1.36</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU243" t="n">
         <v>1.86</v>
@@ -50029,7 +50029,7 @@
         <v>1.23</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU244" t="n">
         <v>1.88</v>
@@ -50232,7 +50232,7 @@
         <v>1.21</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU245" t="n">
         <v>1.32</v>
@@ -50435,7 +50435,7 @@
         <v>1.07</v>
       </c>
       <c r="AT246" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU246" t="n">
         <v>1.38</v>
@@ -50635,7 +50635,7 @@
         <v>1.7</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT247" t="n">
         <v>1.93</v>
@@ -50838,7 +50838,7 @@
         <v>1.3</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT248" t="n">
         <v>1.43</v>
@@ -51041,7 +51041,7 @@
         <v>1.4</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT249" t="n">
         <v>1.36</v>
@@ -51447,10 +51447,10 @@
         <v>0.9</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT251" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU251" t="n">
         <v>1.51</v>
@@ -51653,7 +51653,7 @@
         <v>2.08</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU252" t="n">
         <v>1.46</v>
@@ -52262,7 +52262,7 @@
         <v>1.54</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU255" t="n">
         <v>1.52</v>
@@ -52462,7 +52462,7 @@
         <v>1</v>
       </c>
       <c r="AS256" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT256" t="n">
         <v>0.92</v>
@@ -52871,7 +52871,7 @@
         <v>1.77</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU258" t="n">
         <v>1.56</v>
@@ -53477,7 +53477,7 @@
         <v>1.6</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT261" t="n">
         <v>1.92</v>
@@ -53680,7 +53680,7 @@
         <v>1.2</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT262" t="n">
         <v>1.36</v>
@@ -53883,7 +53883,7 @@
         <v>1.11</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT263" t="n">
         <v>1.36</v>
@@ -54086,10 +54086,10 @@
         <v>0.91</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU264" t="n">
         <v>1.4</v>
@@ -54289,10 +54289,10 @@
         <v>1.27</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU265" t="n">
         <v>1.47</v>
@@ -54695,7 +54695,7 @@
         <v>1.09</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT267" t="n">
         <v>1</v>
@@ -55101,7 +55101,7 @@
         <v>1.27</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT269" t="n">
         <v>1.29</v>
@@ -55307,7 +55307,7 @@
         <v>1.57</v>
       </c>
       <c r="AT270" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU270" t="n">
         <v>1.91</v>
@@ -55713,7 +55713,7 @@
         <v>2.47</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU272" t="n">
         <v>1.81</v>
@@ -56116,7 +56116,7 @@
         <v>1.82</v>
       </c>
       <c r="AS274" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT274" t="n">
         <v>1.93</v>
@@ -56319,7 +56319,7 @@
         <v>1.3</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT275" t="n">
         <v>1.36</v>
@@ -56522,10 +56522,10 @@
         <v>0.82</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT276" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU276" t="n">
         <v>1.55</v>
@@ -56725,7 +56725,7 @@
         <v>1.25</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT277" t="n">
         <v>1.07</v>
@@ -57740,7 +57740,7 @@
         <v>1.18</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT282" t="n">
         <v>1.36</v>
@@ -58146,7 +58146,7 @@
         <v>1.42</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT284" t="n">
         <v>1.36</v>
@@ -58352,7 +58352,7 @@
         <v>1.23</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU285" t="n">
         <v>1.92</v>
@@ -58555,7 +58555,7 @@
         <v>2</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU286" t="n">
         <v>1.33</v>
@@ -58958,10 +58958,10 @@
         <v>1.55</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT288" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU288" t="n">
         <v>1.74</v>
@@ -59164,7 +59164,7 @@
         <v>1.21</v>
       </c>
       <c r="AT289" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU289" t="n">
         <v>1.32</v>
@@ -59364,7 +59364,7 @@
         <v>1.5</v>
       </c>
       <c r="AS290" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT290" t="n">
         <v>1.57</v>
@@ -59770,7 +59770,7 @@
         <v>1</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT292" t="n">
         <v>0.92</v>
@@ -59976,7 +59976,7 @@
         <v>2.08</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU293" t="n">
         <v>1.43</v>
@@ -60179,7 +60179,7 @@
         <v>1.57</v>
       </c>
       <c r="AT294" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU294" t="n">
         <v>1.92</v>
@@ -60582,7 +60582,7 @@
         <v>1.18</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT296" t="n">
         <v>1.36</v>
@@ -60788,7 +60788,7 @@
         <v>1.36</v>
       </c>
       <c r="AT297" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU297" t="n">
         <v>1.86</v>
@@ -61191,7 +61191,7 @@
         <v>1.73</v>
       </c>
       <c r="AS299" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT299" t="n">
         <v>1.92</v>
@@ -61600,7 +61600,7 @@
         <v>1.21</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU301" t="n">
         <v>1.3</v>
@@ -62003,7 +62003,7 @@
         <v>1.08</v>
       </c>
       <c r="AS303" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT303" t="n">
         <v>1.08</v>
@@ -62209,7 +62209,7 @@
         <v>2.08</v>
       </c>
       <c r="AT304" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU304" t="n">
         <v>1.68</v>
@@ -62412,7 +62412,7 @@
         <v>1.57</v>
       </c>
       <c r="AT305" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU305" t="n">
         <v>1.93</v>
@@ -62612,7 +62612,7 @@
         <v>1.33</v>
       </c>
       <c r="AS306" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT306" t="n">
         <v>1.36</v>
@@ -63018,10 +63018,10 @@
         <v>1.23</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT308" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU308" t="n">
         <v>1.38</v>
@@ -63424,10 +63424,10 @@
         <v>1.75</v>
       </c>
       <c r="AS310" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT310" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU310" t="n">
         <v>1.65</v>
@@ -63627,7 +63627,7 @@
         <v>2</v>
       </c>
       <c r="AS311" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT311" t="n">
         <v>1.93</v>
@@ -64033,7 +64033,7 @@
         <v>1.08</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT313" t="n">
         <v>1</v>
@@ -64236,10 +64236,10 @@
         <v>1.15</v>
       </c>
       <c r="AS314" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT314" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU314" t="n">
         <v>1.49</v>
@@ -64848,7 +64848,7 @@
         <v>0.93</v>
       </c>
       <c r="AT317" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU317" t="n">
         <v>1.48</v>
@@ -65051,7 +65051,7 @@
         <v>1.77</v>
       </c>
       <c r="AT318" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU318" t="n">
         <v>1.61</v>
@@ -65454,7 +65454,7 @@
         <v>1.25</v>
       </c>
       <c r="AS320" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT320" t="n">
         <v>1.23</v>
@@ -65860,7 +65860,7 @@
         <v>1.25</v>
       </c>
       <c r="AS322" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT322" t="n">
         <v>1.15</v>
@@ -66524,6 +66524,1833 @@
       </c>
       <c r="BK325" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" t="n">
+        <v>2608459</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E326" s="2" t="n">
+        <v>44947.39583333334</v>
+      </c>
+      <c r="F326" t="n">
+        <v>28</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Coventry City</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Norwich City</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>2</v>
+      </c>
+      <c r="J326" t="n">
+        <v>3</v>
+      </c>
+      <c r="K326" t="n">
+        <v>5</v>
+      </c>
+      <c r="L326" t="n">
+        <v>2</v>
+      </c>
+      <c r="M326" t="n">
+        <v>4</v>
+      </c>
+      <c r="N326" t="n">
+        <v>6</v>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>['20', '26']</t>
+        </is>
+      </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>['6', '10', '18', '65']</t>
+        </is>
+      </c>
+      <c r="Q326" t="n">
+        <v>4</v>
+      </c>
+      <c r="R326" t="n">
+        <v>6</v>
+      </c>
+      <c r="S326" t="n">
+        <v>10</v>
+      </c>
+      <c r="T326" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U326" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V326" t="n">
+        <v>3</v>
+      </c>
+      <c r="W326" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X326" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Y326" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Z326" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA326" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB326" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC326" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD326" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE326" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AF326" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG326" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH326" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI326" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ326" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK326" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL326" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM326" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN326" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO326" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP326" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ326" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR326" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS326" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT326" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU326" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV326" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW326" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX326" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY326" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ326" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BA326" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB326" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC326" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD326" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE326" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF326" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG326" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH326" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI326" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ326" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK326" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="n">
+        <v>2608465</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E327" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F327" t="n">
+        <v>28</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Wigan Athletic</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Luton Town</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" t="n">
+        <v>1</v>
+      </c>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M327" t="n">
+        <v>2</v>
+      </c>
+      <c r="N327" t="n">
+        <v>2</v>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>['11', '53']</t>
+        </is>
+      </c>
+      <c r="Q327" t="n">
+        <v>3</v>
+      </c>
+      <c r="R327" t="n">
+        <v>1</v>
+      </c>
+      <c r="S327" t="n">
+        <v>4</v>
+      </c>
+      <c r="T327" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U327" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V327" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W327" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X327" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z327" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA327" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AB327" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC327" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AD327" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE327" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF327" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG327" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH327" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI327" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ327" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK327" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL327" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM327" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN327" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO327" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP327" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ327" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR327" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS327" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT327" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AU327" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV327" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW327" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX327" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY327" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ327" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA327" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB327" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC327" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD327" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE327" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF327" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG327" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH327" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI327" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ327" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK327" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" t="n">
+        <v>2608464</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E328" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F328" t="n">
+        <v>28</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Rotherham United</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>0</v>
+      </c>
+      <c r="J328" t="n">
+        <v>1</v>
+      </c>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="n">
+        <v>1</v>
+      </c>
+      <c r="N328" t="n">
+        <v>2</v>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q328" t="n">
+        <v>9</v>
+      </c>
+      <c r="R328" t="n">
+        <v>3</v>
+      </c>
+      <c r="S328" t="n">
+        <v>12</v>
+      </c>
+      <c r="T328" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U328" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V328" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W328" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X328" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z328" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA328" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB328" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC328" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AD328" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE328" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AF328" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG328" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH328" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI328" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ328" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK328" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL328" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM328" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN328" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO328" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP328" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ328" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AR328" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS328" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT328" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU328" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV328" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AW328" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX328" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY328" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ328" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA328" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB328" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC328" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD328" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE328" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF328" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG328" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH328" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI328" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ328" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK328" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="n">
+        <v>2608462</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E329" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F329" t="n">
+        <v>28</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Stoke City</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>1</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="n">
+        <v>4</v>
+      </c>
+      <c r="M329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N329" t="n">
+        <v>4</v>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>['11', '57', '80', '83']</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q329" t="n">
+        <v>6</v>
+      </c>
+      <c r="R329" t="n">
+        <v>2</v>
+      </c>
+      <c r="S329" t="n">
+        <v>8</v>
+      </c>
+      <c r="T329" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U329" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V329" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W329" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X329" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z329" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA329" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AB329" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC329" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD329" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE329" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF329" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG329" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH329" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI329" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ329" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK329" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL329" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AM329" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN329" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO329" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP329" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AQ329" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR329" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS329" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT329" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU329" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV329" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW329" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX329" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY329" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ329" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA329" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB329" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC329" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD329" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE329" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF329" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG329" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH329" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI329" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ329" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK329" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="n">
+        <v>2608460</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E330" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F330" t="n">
+        <v>28</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Queens Park Rangers</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Swansea City</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>1</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="n">
+        <v>1</v>
+      </c>
+      <c r="N330" t="n">
+        <v>2</v>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q330" t="n">
+        <v>5</v>
+      </c>
+      <c r="R330" t="n">
+        <v>8</v>
+      </c>
+      <c r="S330" t="n">
+        <v>13</v>
+      </c>
+      <c r="T330" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U330" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V330" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W330" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X330" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA330" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AB330" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC330" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD330" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE330" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AF330" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG330" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH330" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI330" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ330" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK330" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL330" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM330" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN330" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO330" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP330" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ330" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR330" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS330" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT330" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU330" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV330" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW330" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX330" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY330" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ330" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA330" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB330" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC330" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD330" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE330" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF330" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG330" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH330" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI330" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ330" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK330" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2608456</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E331" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F331" t="n">
+        <v>28</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Blackburn Rovers</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="n">
+        <v>1</v>
+      </c>
+      <c r="N331" t="n">
+        <v>2</v>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q331" t="n">
+        <v>5</v>
+      </c>
+      <c r="R331" t="n">
+        <v>3</v>
+      </c>
+      <c r="S331" t="n">
+        <v>8</v>
+      </c>
+      <c r="T331" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U331" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V331" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W331" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X331" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA331" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AB331" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC331" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD331" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE331" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AF331" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG331" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH331" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI331" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ331" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK331" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL331" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM331" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN331" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO331" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP331" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ331" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR331" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS331" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT331" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU331" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV331" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW331" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX331" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY331" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ331" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA331" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB331" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC331" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD331" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE331" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF331" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG331" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH331" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI331" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ331" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK331" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="n">
+        <v>2608454</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E332" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F332" t="n">
+        <v>28</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>Birmingham City</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Preston North End</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" t="n">
+        <v>2</v>
+      </c>
+      <c r="K332" t="n">
+        <v>2</v>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="n">
+        <v>2</v>
+      </c>
+      <c r="N332" t="n">
+        <v>3</v>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>['10', '15']</t>
+        </is>
+      </c>
+      <c r="Q332" t="n">
+        <v>5</v>
+      </c>
+      <c r="R332" t="n">
+        <v>3</v>
+      </c>
+      <c r="S332" t="n">
+        <v>8</v>
+      </c>
+      <c r="T332" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U332" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V332" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W332" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X332" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB332" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC332" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD332" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AE332" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF332" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG332" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH332" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI332" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ332" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK332" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL332" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM332" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN332" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO332" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP332" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ332" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR332" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS332" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT332" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AU332" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV332" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW332" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX332" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY332" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ332" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA332" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB332" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC332" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD332" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE332" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF332" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG332" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH332" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI332" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ332" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK332" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="n">
+        <v>2608458</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E333" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F333" t="n">
+        <v>28</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Cardiff City</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" t="n">
+        <v>1</v>
+      </c>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M333" t="n">
+        <v>1</v>
+      </c>
+      <c r="N333" t="n">
+        <v>1</v>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q333" t="n">
+        <v>7</v>
+      </c>
+      <c r="R333" t="n">
+        <v>4</v>
+      </c>
+      <c r="S333" t="n">
+        <v>11</v>
+      </c>
+      <c r="T333" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U333" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V333" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W333" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X333" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB333" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC333" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AD333" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE333" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AF333" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG333" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH333" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI333" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ333" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK333" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL333" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM333" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN333" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO333" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP333" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ333" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR333" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS333" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT333" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU333" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV333" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW333" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX333" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY333" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ333" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA333" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB333" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC333" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD333" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE333" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF333" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG333" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH333" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI333" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ333" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK333" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2608463</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E334" s="2" t="n">
+        <v>44948.375</v>
+      </c>
+      <c r="F334" t="n">
+        <v>28</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>0</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L334" t="n">
+        <v>2</v>
+      </c>
+      <c r="M334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N334" t="n">
+        <v>2</v>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>['51', '81']</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q334" t="n">
+        <v>4</v>
+      </c>
+      <c r="R334" t="n">
+        <v>8</v>
+      </c>
+      <c r="S334" t="n">
+        <v>12</v>
+      </c>
+      <c r="T334" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U334" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V334" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W334" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X334" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA334" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB334" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC334" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AD334" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE334" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AF334" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG334" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH334" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI334" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ334" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK334" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL334" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM334" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN334" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO334" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP334" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ334" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR334" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS334" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT334" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU334" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV334" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW334" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX334" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY334" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ334" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BA334" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB334" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC334" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD334" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE334" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF334" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG334" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH334" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI334" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ334" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK334" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -66734,7 +66734,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>2608456</v>
+        <v>2608464</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -66754,22 +66754,22 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Blackburn Rovers</t>
+          <t>Rotherham United</t>
         </is>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
       <c r="J327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L327" t="n">
         <v>1</v>
@@ -66782,154 +66782,154 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>['68']</t>
+          <t>['53']</t>
         </is>
       </c>
       <c r="P327" t="inlineStr">
         <is>
-          <t>['54']</t>
+          <t>['20']</t>
         </is>
       </c>
       <c r="Q327" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R327" t="n">
         <v>3</v>
       </c>
       <c r="S327" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T327" t="n">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="U327" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="V327" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="W327" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="X327" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="Y327" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Z327" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AA327" t="n">
-        <v>7.35</v>
+        <v>6.9</v>
       </c>
       <c r="AB327" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC327" t="n">
-        <v>2.13</v>
+        <v>1.52</v>
       </c>
       <c r="AD327" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="AE327" t="n">
-        <v>2.92</v>
+        <v>5.05</v>
       </c>
       <c r="AF327" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AG327" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH327" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AI327" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AJ327" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AK327" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AL327" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="AM327" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AN327" t="n">
-        <v>1.35</v>
+        <v>1.13</v>
       </c>
       <c r="AO327" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AP327" t="n">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="AQ327" t="n">
-        <v>1.29</v>
+        <v>1.77</v>
       </c>
       <c r="AR327" t="n">
-        <v>1.07</v>
+        <v>0.79</v>
       </c>
       <c r="AS327" t="n">
-        <v>1.27</v>
+        <v>1.71</v>
       </c>
       <c r="AT327" t="n">
-        <v>1.07</v>
+        <v>0.8</v>
       </c>
       <c r="AU327" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="AV327" t="n">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="AW327" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="AX327" t="n">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="AY327" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AZ327" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="BA327" t="n">
         <v>1.18</v>
       </c>
       <c r="BB327" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="BC327" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="BD327" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BE327" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="BF327" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG327" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH327" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BI327" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BJ327" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK327" t="n">
         <v>12</v>
-      </c>
-      <c r="BK327" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="328">
@@ -66937,7 +66937,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>2608458</v>
+        <v>2608456</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -66957,182 +66957,182 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>Cardiff City</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Blackburn Rovers</t>
         </is>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
       <c r="J328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
       <c r="N328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['68']</t>
         </is>
       </c>
       <c r="P328" t="inlineStr">
         <is>
-          <t>['26']</t>
+          <t>['54']</t>
         </is>
       </c>
       <c r="Q328" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R328" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S328" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T328" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U328" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V328" t="n">
         <v>3.75</v>
       </c>
-      <c r="U328" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V328" t="n">
-        <v>3.25</v>
-      </c>
       <c r="W328" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="X328" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Y328" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z328" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA328" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AB328" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC328" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD328" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE328" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AF328" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG328" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH328" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI328" t="n">
         <v>3.4</v>
       </c>
-      <c r="Z328" t="n">
+      <c r="AJ328" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK328" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL328" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM328" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN328" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO328" t="n">
         <v>1.28</v>
       </c>
-      <c r="AA328" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AB328" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC328" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AD328" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE328" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AF328" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG328" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH328" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AI328" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AJ328" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AK328" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AL328" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM328" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AN328" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AO328" t="n">
-        <v>1.32</v>
-      </c>
       <c r="AP328" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AQ328" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AR328" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AS328" t="n">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="AT328" t="n">
         <v>1.07</v>
       </c>
       <c r="AU328" t="n">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="AV328" t="n">
-        <v>1.45</v>
+        <v>0.97</v>
       </c>
       <c r="AW328" t="n">
-        <v>3.01</v>
+        <v>2.38</v>
       </c>
       <c r="AX328" t="n">
-        <v>2.18</v>
+        <v>1.58</v>
       </c>
       <c r="AY328" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ328" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA328" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB328" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC328" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD328" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE328" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF328" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG328" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH328" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI328" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ328" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK328" t="n">
         <v>7</v>
-      </c>
-      <c r="AZ328" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BA328" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BB328" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="BC328" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BD328" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BE328" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BF328" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG328" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH328" t="n">
-        <v>19</v>
-      </c>
-      <c r="BI328" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ328" t="n">
-        <v>23</v>
-      </c>
-      <c r="BK328" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="329">
@@ -67140,7 +67140,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>2608460</v>
+        <v>2608458</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -67160,179 +67160,179 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>Queens Park Rangers</t>
+          <t>Cardiff City</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Swansea City</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K329" t="n">
         <v>1</v>
       </c>
       <c r="L329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
       <c r="N329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>['27']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P329" t="inlineStr">
         <is>
-          <t>['81']</t>
+          <t>['26']</t>
         </is>
       </c>
       <c r="Q329" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R329" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S329" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T329" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="U329" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="V329" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="W329" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="X329" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="Y329" t="n">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="Z329" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AA329" t="n">
-        <v>7.85</v>
+        <v>9.75</v>
       </c>
       <c r="AB329" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AC329" t="n">
-        <v>2.45</v>
+        <v>2.78</v>
       </c>
       <c r="AD329" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AE329" t="n">
-        <v>2.48</v>
+        <v>2.33</v>
       </c>
       <c r="AF329" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AG329" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AH329" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="AI329" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AJ329" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="AK329" t="n">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="AL329" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AM329" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AN329" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AO329" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AP329" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ329" t="n">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="AR329" t="n">
-        <v>1.29</v>
+        <v>0.92</v>
       </c>
       <c r="AS329" t="n">
-        <v>1.36</v>
+        <v>1.13</v>
       </c>
       <c r="AT329" t="n">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="AU329" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="AV329" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AW329" t="n">
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
       <c r="AX329" t="n">
-        <v>1.89</v>
+        <v>2.18</v>
       </c>
       <c r="AY329" t="n">
         <v>7</v>
       </c>
       <c r="AZ329" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA329" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB329" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC329" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD329" t="n">
         <v>2.3</v>
       </c>
-      <c r="BA329" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BB329" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BC329" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BD329" t="n">
-        <v>2.25</v>
-      </c>
       <c r="BE329" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BF329" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG329" t="n">
         <v>7</v>
       </c>
-      <c r="BG329" t="n">
-        <v>3</v>
-      </c>
       <c r="BH329" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BI329" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BJ329" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BK329" t="n">
         <v>16</v>
@@ -67343,7 +67343,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>2608462</v>
+        <v>2608460</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -67363,12 +67363,12 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>Stoke City</t>
+          <t>Queens Park Rangers</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Swansea City</t>
         </is>
       </c>
       <c r="I330" t="n">
@@ -67381,53 +67381,53 @@
         <v>1</v>
       </c>
       <c r="L330" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N330" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>['11', '57', '80', '83']</t>
+          <t>['27']</t>
         </is>
       </c>
       <c r="P330" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['81']</t>
         </is>
       </c>
       <c r="Q330" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R330" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S330" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T330" t="n">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="U330" t="n">
         <v>2.1</v>
       </c>
       <c r="V330" t="n">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="W330" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X330" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="Y330" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Z330" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AA330" t="n">
         <v>7.85</v>
@@ -67436,91 +67436,91 @@
         <v>1.05</v>
       </c>
       <c r="AC330" t="n">
-        <v>1.84</v>
+        <v>2.45</v>
       </c>
       <c r="AD330" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AE330" t="n">
-        <v>3.75</v>
+        <v>2.48</v>
       </c>
       <c r="AF330" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AG330" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH330" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI330" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ330" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK330" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL330" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM330" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN330" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO330" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP330" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ330" t="n">
         <v>1.38</v>
       </c>
-      <c r="AI330" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ330" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AK330" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AL330" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AM330" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN330" t="n">
+      <c r="AR330" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS330" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT330" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU330" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV330" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW330" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX330" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY330" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ330" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA330" t="n">
         <v>1.22</v>
       </c>
-      <c r="AO330" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AP330" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AQ330" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AR330" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AS330" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AT330" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AU330" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AV330" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AW330" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AX330" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AY330" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ330" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="BA330" t="n">
-        <v>1.24</v>
-      </c>
       <c r="BB330" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="BC330" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BD330" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="BE330" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BF330" t="n">
         <v>7</v>
@@ -67529,16 +67529,16 @@
         <v>3</v>
       </c>
       <c r="BH330" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BI330" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BJ330" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BK330" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="331">
@@ -67546,7 +67546,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>2608464</v>
+        <v>2608462</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -67566,182 +67566,182 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Stoke City</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Rotherham United</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K331" t="n">
         <v>1</v>
       </c>
       <c r="L331" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N331" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>['53']</t>
+          <t>['11', '57', '80', '83']</t>
         </is>
       </c>
       <c r="P331" t="inlineStr">
         <is>
-          <t>['20']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q331" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S331" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T331" t="n">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="U331" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="V331" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="W331" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="X331" t="n">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="Y331" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Z331" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AA331" t="n">
-        <v>6.9</v>
+        <v>7.85</v>
       </c>
       <c r="AB331" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC331" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD331" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE331" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF331" t="n">
         <v>1.07</v>
       </c>
-      <c r="AC331" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AD331" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AE331" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="AF331" t="n">
-        <v>1.04</v>
-      </c>
       <c r="AG331" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AH331" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AI331" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AJ331" t="n">
-        <v>1.87</v>
+        <v>2.18</v>
       </c>
       <c r="AK331" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL331" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AM331" t="n">
         <v>1.83</v>
       </c>
-      <c r="AL331" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM331" t="n">
-        <v>1.85</v>
-      </c>
       <c r="AN331" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AO331" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AP331" t="n">
-        <v>2.45</v>
+        <v>1.96</v>
       </c>
       <c r="AQ331" t="n">
-        <v>1.77</v>
+        <v>0.92</v>
       </c>
       <c r="AR331" t="n">
         <v>0.79</v>
       </c>
       <c r="AS331" t="n">
-        <v>1.71</v>
+        <v>1.07</v>
       </c>
       <c r="AT331" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU331" t="n">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="AV331" t="n">
-        <v>0.83</v>
+        <v>1.27</v>
       </c>
       <c r="AW331" t="n">
-        <v>2.32</v>
+        <v>2.93</v>
       </c>
       <c r="AX331" t="n">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="AY331" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AZ331" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="BA331" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="BB331" t="n">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="BC331" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="BD331" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="BE331" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="BF331" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG331" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH331" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI331" t="n">
         <v>5</v>
       </c>
-      <c r="BH331" t="n">
-        <v>13</v>
-      </c>
-      <c r="BI331" t="n">
-        <v>7</v>
-      </c>
       <c r="BJ331" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BK331" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="332">

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK334"/>
+  <dimension ref="A1:BK337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,7 +2324,7 @@
         <v>2.08</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT10" t="n">
         <v>1.08</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT11" t="n">
         <v>1.36</v>
@@ -3339,7 +3339,7 @@
         <v>1.13</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1.57</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>1.36</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU29" t="n">
         <v>1.31</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT32" t="n">
         <v>1.64</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT35" t="n">
         <v>1.93</v>
@@ -8211,7 +8211,7 @@
         <v>1.13</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU38" t="n">
         <v>1.91</v>
@@ -8820,7 +8820,7 @@
         <v>1.36</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU41" t="n">
         <v>2.37</v>
@@ -11662,7 +11662,7 @@
         <v>0.93</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU55" t="n">
         <v>2.28</v>
@@ -12877,7 +12877,7 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT61" t="n">
         <v>1.27</v>
@@ -13692,7 +13692,7 @@
         <v>1.71</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU65" t="n">
         <v>1.13</v>
@@ -14704,7 +14704,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT70" t="n">
         <v>1</v>
@@ -16737,7 +16737,7 @@
         <v>1.27</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU80" t="n">
         <v>1.25</v>
@@ -16937,7 +16937,7 @@
         <v>1.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT81" t="n">
         <v>1.93</v>
@@ -17549,7 +17549,7 @@
         <v>1.46</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU84" t="n">
         <v>1.75</v>
@@ -17752,7 +17752,7 @@
         <v>1.54</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU85" t="n">
         <v>1.29</v>
@@ -19170,7 +19170,7 @@
         <v>0.67</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT92" t="n">
         <v>1.93</v>
@@ -19576,7 +19576,7 @@
         <v>2</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT94" t="n">
         <v>1.57</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT95" t="n">
         <v>1.29</v>
@@ -19982,7 +19982,7 @@
         <v>0.25</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT96" t="n">
         <v>0.92</v>
@@ -20391,7 +20391,7 @@
         <v>2.08</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU98" t="n">
         <v>1.45</v>
@@ -21406,7 +21406,7 @@
         <v>2.08</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU103" t="n">
         <v>1.7</v>
@@ -24448,7 +24448,7 @@
         <v>0.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT118" t="n">
         <v>0.8</v>
@@ -24651,7 +24651,7 @@
         <v>1.75</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT119" t="n">
         <v>1.86</v>
@@ -25263,7 +25263,7 @@
         <v>1.27</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU122" t="n">
         <v>1.33</v>
@@ -25463,7 +25463,7 @@
         <v>0.25</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT123" t="n">
         <v>1.27</v>
@@ -25669,7 +25669,7 @@
         <v>2</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU124" t="n">
         <v>1.19</v>
@@ -26887,7 +26887,7 @@
         <v>1.07</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU130" t="n">
         <v>1.62</v>
@@ -27293,7 +27293,7 @@
         <v>2.14</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU132" t="n">
         <v>2.08</v>
@@ -27496,7 +27496,7 @@
         <v>1.23</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU133" t="n">
         <v>1.79</v>
@@ -28711,7 +28711,7 @@
         <v>1.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT139" t="n">
         <v>1.15</v>
@@ -28914,7 +28914,7 @@
         <v>2.6</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT140" t="n">
         <v>1.23</v>
@@ -29726,7 +29726,7 @@
         <v>1.5</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT144" t="n">
         <v>1.92</v>
@@ -29932,7 +29932,7 @@
         <v>0.92</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU145" t="n">
         <v>1.54</v>
@@ -32368,7 +32368,7 @@
         <v>1.46</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU157" t="n">
         <v>1.52</v>
@@ -32571,7 +32571,7 @@
         <v>1.23</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU158" t="n">
         <v>1.93</v>
@@ -33786,7 +33786,7 @@
         <v>0.86</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT164" t="n">
         <v>1.07</v>
@@ -34598,7 +34598,7 @@
         <v>1.14</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT168" t="n">
         <v>1.15</v>
@@ -36628,7 +36628,7 @@
         <v>1.57</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT178" t="n">
         <v>1.93</v>
@@ -37037,7 +37037,7 @@
         <v>2.08</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU180" t="n">
         <v>1.63</v>
@@ -37846,10 +37846,10 @@
         <v>0.17</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU184" t="n">
         <v>1.44</v>
@@ -39673,7 +39673,7 @@
         <v>1</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT193" t="n">
         <v>0.8</v>
@@ -40082,7 +40082,7 @@
         <v>1.13</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU195" t="n">
         <v>1.44</v>
@@ -40691,7 +40691,7 @@
         <v>0.6</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU198" t="n">
         <v>1.37</v>
@@ -41297,7 +41297,7 @@
         <v>1.13</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT201" t="n">
         <v>1.07</v>
@@ -41703,7 +41703,7 @@
         <v>1.13</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT203" t="n">
         <v>1</v>
@@ -42921,7 +42921,7 @@
         <v>0.5</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT209" t="n">
         <v>1.27</v>
@@ -43124,7 +43124,7 @@
         <v>1.33</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT210" t="n">
         <v>1.07</v>
@@ -43939,7 +43939,7 @@
         <v>1.36</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU214" t="n">
         <v>1.9</v>
@@ -44345,7 +44345,7 @@
         <v>1.13</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU216" t="n">
         <v>1.63</v>
@@ -46778,7 +46778,7 @@
         <v>0.89</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT228" t="n">
         <v>1.08</v>
@@ -46984,7 +46984,7 @@
         <v>2.08</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU229" t="n">
         <v>1.46</v>
@@ -47593,7 +47593,7 @@
         <v>1.36</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU232" t="n">
         <v>1.64</v>
@@ -48402,7 +48402,7 @@
         <v>1.56</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT236" t="n">
         <v>1.23</v>
@@ -50432,7 +50432,7 @@
         <v>0.7</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT246" t="n">
         <v>0.73</v>
@@ -50841,7 +50841,7 @@
         <v>1.27</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU248" t="n">
         <v>1.42</v>
@@ -51041,10 +51041,10 @@
         <v>1.4</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU249" t="n">
         <v>1.44</v>
@@ -52668,7 +52668,7 @@
         <v>2.14</v>
       </c>
       <c r="AT257" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU257" t="n">
         <v>2.22</v>
@@ -52868,7 +52868,7 @@
         <v>1.7</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT258" t="n">
         <v>1.86</v>
@@ -54289,7 +54289,7 @@
         <v>1.27</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT265" t="n">
         <v>1.27</v>
@@ -54495,7 +54495,7 @@
         <v>1.21</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU266" t="n">
         <v>1.29</v>
@@ -54898,7 +54898,7 @@
         <v>1.55</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT268" t="n">
         <v>1.57</v>
@@ -55510,7 +55510,7 @@
         <v>0.93</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU271" t="n">
         <v>1.51</v>
@@ -56319,7 +56319,7 @@
         <v>1.3</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT275" t="n">
         <v>1.36</v>
@@ -57334,7 +57334,7 @@
         <v>1.08</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT280" t="n">
         <v>1</v>
@@ -57537,7 +57537,7 @@
         <v>1.36</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT281" t="n">
         <v>1.23</v>
@@ -57743,7 +57743,7 @@
         <v>0.93</v>
       </c>
       <c r="AT282" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU282" t="n">
         <v>1.49</v>
@@ -58149,7 +58149,7 @@
         <v>1.13</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU284" t="n">
         <v>1.63</v>
@@ -59567,7 +59567,7 @@
         <v>1</v>
       </c>
       <c r="AS291" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT291" t="n">
         <v>0.92</v>
@@ -60585,7 +60585,7 @@
         <v>1.54</v>
       </c>
       <c r="AT296" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU296" t="n">
         <v>1.59</v>
@@ -61800,7 +61800,7 @@
         <v>1.08</v>
       </c>
       <c r="AS302" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT302" t="n">
         <v>1.08</v>
@@ -62818,7 +62818,7 @@
         <v>1.36</v>
       </c>
       <c r="AT307" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU307" t="n">
         <v>1.83</v>
@@ -64239,7 +64239,7 @@
         <v>2</v>
       </c>
       <c r="AT314" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU314" t="n">
         <v>1.31</v>
@@ -64642,7 +64642,7 @@
         <v>1</v>
       </c>
       <c r="AS316" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT316" t="n">
         <v>1.07</v>
@@ -65048,10 +65048,10 @@
         <v>0.73</v>
       </c>
       <c r="AS318" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AT318" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU318" t="n">
         <v>1.43</v>
@@ -66672,7 +66672,7 @@
         <v>1.54</v>
       </c>
       <c r="AS326" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT326" t="n">
         <v>1.64</v>
@@ -68351,6 +68351,615 @@
       </c>
       <c r="BK334" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="n">
+        <v>2608181</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E335" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F335" t="n">
+        <v>5</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Coventry City</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Huddersfield Town</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>0</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L335" t="n">
+        <v>2</v>
+      </c>
+      <c r="M335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N335" t="n">
+        <v>2</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>['53', '71']</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q335" t="n">
+        <v>6</v>
+      </c>
+      <c r="R335" t="n">
+        <v>3</v>
+      </c>
+      <c r="S335" t="n">
+        <v>9</v>
+      </c>
+      <c r="T335" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U335" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V335" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W335" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X335" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AB335" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC335" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD335" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE335" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF335" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG335" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH335" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI335" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ335" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK335" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL335" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM335" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN335" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO335" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP335" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ335" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR335" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS335" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT335" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU335" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV335" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW335" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX335" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY335" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ335" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BA335" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB335" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC335" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD335" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE335" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF335" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG335" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH335" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI335" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ335" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK335" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="n">
+        <v>2608468</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E336" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F336" t="n">
+        <v>29</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Hull City</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Queens Park Rangers</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>1</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="n">
+        <v>3</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N336" t="n">
+        <v>3</v>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>['10', '62', '64']</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q336" t="n">
+        <v>4</v>
+      </c>
+      <c r="R336" t="n">
+        <v>5</v>
+      </c>
+      <c r="S336" t="n">
+        <v>9</v>
+      </c>
+      <c r="T336" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U336" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V336" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W336" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X336" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA336" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AB336" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC336" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD336" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE336" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AF336" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG336" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH336" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI336" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ336" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK336" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL336" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM336" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN336" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO336" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP336" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ336" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR336" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS336" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT336" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU336" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV336" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW336" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX336" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY336" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ336" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA336" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB336" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC336" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD336" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE336" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF336" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG336" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH336" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI336" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ336" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK336" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="n">
+        <v>2608470</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E337" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F337" t="n">
+        <v>29</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>2</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" t="n">
+        <v>2</v>
+      </c>
+      <c r="L337" t="n">
+        <v>2</v>
+      </c>
+      <c r="M337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N337" t="n">
+        <v>2</v>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>['36', '45+3']</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q337" t="n">
+        <v>9</v>
+      </c>
+      <c r="R337" t="n">
+        <v>5</v>
+      </c>
+      <c r="S337" t="n">
+        <v>14</v>
+      </c>
+      <c r="T337" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U337" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V337" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W337" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X337" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA337" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AB337" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC337" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD337" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE337" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF337" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG337" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH337" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI337" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ337" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK337" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL337" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM337" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN337" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO337" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP337" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ337" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AR337" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS337" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT337" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU337" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV337" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW337" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX337" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY337" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ337" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA337" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB337" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC337" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD337" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE337" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF337" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG337" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH337" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI337" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ337" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK337" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK337"/>
+  <dimension ref="A1:BK338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT5" t="n">
         <v>1.15</v>
@@ -4354,7 +4354,7 @@
         <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT30" t="n">
         <v>1.93</v>
@@ -10038,7 +10038,7 @@
         <v>1.57</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU47" t="n">
         <v>2.26</v>
@@ -12271,7 +12271,7 @@
         <v>1.27</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU58" t="n">
         <v>0.9399999999999999</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT59" t="n">
         <v>1.93</v>
@@ -18361,7 +18361,7 @@
         <v>2.08</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU88" t="n">
         <v>1.61</v>
@@ -18561,7 +18561,7 @@
         <v>2</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT89" t="n">
         <v>1.23</v>
@@ -19985,7 +19985,7 @@
         <v>1.86</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU96" t="n">
         <v>1.25</v>
@@ -21606,7 +21606,7 @@
         <v>0.25</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT104" t="n">
         <v>1</v>
@@ -22621,7 +22621,7 @@
         <v>1.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT109" t="n">
         <v>1.07</v>
@@ -22827,7 +22827,7 @@
         <v>1.21</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU110" t="n">
         <v>1.31</v>
@@ -27493,7 +27493,7 @@
         <v>0</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT133" t="n">
         <v>0.6899999999999999</v>
@@ -31556,7 +31556,7 @@
         <v>0.6</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU153" t="n">
         <v>1.37</v>
@@ -32568,7 +32568,7 @@
         <v>1.86</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT158" t="n">
         <v>1.27</v>
@@ -36225,7 +36225,7 @@
         <v>1.36</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU176" t="n">
         <v>1.62</v>
@@ -39270,7 +39270,7 @@
         <v>1.54</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU191" t="n">
         <v>1.46</v>
@@ -41094,7 +41094,7 @@
         <v>1.25</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT200" t="n">
         <v>1.57</v>
@@ -42718,7 +42718,7 @@
         <v>0.75</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT208" t="n">
         <v>0.73</v>
@@ -46172,7 +46172,7 @@
         <v>1.36</v>
       </c>
       <c r="AT225" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU225" t="n">
         <v>1.53</v>
@@ -50026,7 +50026,7 @@
         <v>1</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT244" t="n">
         <v>0.8</v>
@@ -52465,7 +52465,7 @@
         <v>1.07</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU256" t="n">
         <v>1.73</v>
@@ -58349,7 +58349,7 @@
         <v>1.55</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT285" t="n">
         <v>1.64</v>
@@ -59570,7 +59570,7 @@
         <v>1.67</v>
       </c>
       <c r="AT291" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU291" t="n">
         <v>1.58</v>
@@ -61397,7 +61397,7 @@
         <v>2.08</v>
       </c>
       <c r="AT300" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU300" t="n">
         <v>1.4</v>
@@ -64845,7 +64845,7 @@
         <v>1.33</v>
       </c>
       <c r="AS317" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT317" t="n">
         <v>1.36</v>
@@ -68959,6 +68959,209 @@
         <v>15</v>
       </c>
       <c r="BK337" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="n">
+        <v>2608469</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E338" s="2" t="n">
+        <v>44957.69791666666</v>
+      </c>
+      <c r="F338" t="n">
+        <v>29</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Luton Town</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Cardiff City</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>0</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N338" t="n">
+        <v>1</v>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q338" t="n">
+        <v>13</v>
+      </c>
+      <c r="R338" t="n">
+        <v>2</v>
+      </c>
+      <c r="S338" t="n">
+        <v>15</v>
+      </c>
+      <c r="T338" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U338" t="n">
+        <v>2</v>
+      </c>
+      <c r="V338" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W338" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X338" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA338" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB338" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC338" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD338" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE338" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF338" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG338" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH338" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI338" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ338" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK338" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL338" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM338" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN338" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO338" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP338" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ338" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR338" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS338" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT338" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU338" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV338" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW338" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX338" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY338" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ338" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA338" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB338" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC338" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD338" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE338" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF338" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG338" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH338" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI338" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ338" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK338" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -66734,7 +66734,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>2608464</v>
+        <v>2608456</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -66754,22 +66754,22 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Rotherham United</t>
+          <t>Blackburn Rovers</t>
         </is>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
       <c r="J327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L327" t="n">
         <v>1</v>
@@ -66782,154 +66782,154 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>['53']</t>
+          <t>['68']</t>
         </is>
       </c>
       <c r="P327" t="inlineStr">
         <is>
-          <t>['20']</t>
+          <t>['54']</t>
         </is>
       </c>
       <c r="Q327" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R327" t="n">
         <v>3</v>
       </c>
       <c r="S327" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T327" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U327" t="n">
         <v>2.15</v>
       </c>
-      <c r="U327" t="n">
-        <v>2.3</v>
-      </c>
       <c r="V327" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="W327" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="X327" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="Y327" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Z327" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AA327" t="n">
-        <v>6.9</v>
+        <v>7.35</v>
       </c>
       <c r="AB327" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC327" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD327" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE327" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AF327" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG327" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH327" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI327" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ327" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK327" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL327" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM327" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN327" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO327" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP327" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ327" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR327" t="n">
         <v>1.07</v>
       </c>
-      <c r="AC327" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AD327" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AE327" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="AF327" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG327" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH327" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI327" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AJ327" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AK327" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AL327" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM327" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AN327" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AO327" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AP327" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AQ327" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AR327" t="n">
-        <v>0.79</v>
-      </c>
       <c r="AS327" t="n">
-        <v>1.71</v>
+        <v>1.27</v>
       </c>
       <c r="AT327" t="n">
-        <v>0.8</v>
+        <v>1.07</v>
       </c>
       <c r="AU327" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AV327" t="n">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="AW327" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="AX327" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="AY327" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AZ327" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="BA327" t="n">
         <v>1.18</v>
       </c>
       <c r="BB327" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="BC327" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="BD327" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BE327" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="BF327" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG327" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH327" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BI327" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ327" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK327" t="n">
         <v>7</v>
-      </c>
-      <c r="BJ327" t="n">
-        <v>19</v>
-      </c>
-      <c r="BK327" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="328">
@@ -66937,7 +66937,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>2608456</v>
+        <v>2608458</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -66957,182 +66957,182 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Cardiff City</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Blackburn Rovers</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
       <c r="J328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
       <c r="N328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>['68']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P328" t="inlineStr">
         <is>
-          <t>['54']</t>
+          <t>['26']</t>
         </is>
       </c>
       <c r="Q328" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R328" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S328" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T328" t="n">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="U328" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="V328" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="W328" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="X328" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y328" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Z328" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="AA328" t="n">
-        <v>7.35</v>
+        <v>9.75</v>
       </c>
       <c r="AB328" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AC328" t="n">
-        <v>2.13</v>
+        <v>2.78</v>
       </c>
       <c r="AD328" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="AE328" t="n">
-        <v>2.92</v>
+        <v>2.33</v>
       </c>
       <c r="AF328" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AG328" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AH328" t="n">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AI328" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="AJ328" t="n">
-        <v>1.92</v>
+        <v>2.3</v>
       </c>
       <c r="AK328" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL328" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM328" t="n">
         <v>1.78</v>
       </c>
-      <c r="AL328" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AM328" t="n">
-        <v>2</v>
-      </c>
       <c r="AN328" t="n">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="AO328" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AP328" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AQ328" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AR328" t="n">
-        <v>1.07</v>
+        <v>0.92</v>
       </c>
       <c r="AS328" t="n">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="AT328" t="n">
         <v>1.07</v>
       </c>
       <c r="AU328" t="n">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="AV328" t="n">
-        <v>0.97</v>
+        <v>1.45</v>
       </c>
       <c r="AW328" t="n">
-        <v>2.38</v>
+        <v>3.01</v>
       </c>
       <c r="AX328" t="n">
-        <v>1.58</v>
+        <v>2.18</v>
       </c>
       <c r="AY328" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AZ328" t="n">
-        <v>2.9</v>
+        <v>1.98</v>
       </c>
       <c r="BA328" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="BB328" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="BC328" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="BD328" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="BE328" t="n">
-        <v>2.63</v>
+        <v>3.3</v>
       </c>
       <c r="BF328" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG328" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH328" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI328" t="n">
         <v>9</v>
       </c>
-      <c r="BI328" t="n">
-        <v>4</v>
-      </c>
       <c r="BJ328" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="BK328" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="329">
@@ -67140,7 +67140,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>2608458</v>
+        <v>2608460</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -67160,179 +67160,179 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>Cardiff City</t>
+          <t>Queens Park Rangers</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Swansea City</t>
         </is>
       </c>
       <c r="I329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K329" t="n">
         <v>1</v>
       </c>
       <c r="L329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
       <c r="N329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['27']</t>
         </is>
       </c>
       <c r="P329" t="inlineStr">
         <is>
-          <t>['26']</t>
+          <t>['81']</t>
         </is>
       </c>
       <c r="Q329" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R329" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S329" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T329" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="U329" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="V329" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W329" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X329" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z329" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA329" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AB329" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC329" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD329" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE329" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AF329" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG329" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH329" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI329" t="n">
         <v>3.25</v>
       </c>
-      <c r="W329" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="X329" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Y329" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z329" t="n">
+      <c r="AJ329" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK329" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL329" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM329" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN329" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO329" t="n">
         <v>1.28</v>
       </c>
-      <c r="AA329" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AB329" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC329" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AD329" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE329" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AF329" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG329" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH329" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AI329" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AJ329" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AK329" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AL329" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM329" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AN329" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AO329" t="n">
-        <v>1.32</v>
-      </c>
       <c r="AP329" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ329" t="n">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AR329" t="n">
-        <v>0.92</v>
+        <v>1.29</v>
       </c>
       <c r="AS329" t="n">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="AT329" t="n">
-        <v>1.07</v>
+        <v>1.27</v>
       </c>
       <c r="AU329" t="n">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="AV329" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AW329" t="n">
-        <v>3.01</v>
+        <v>3.21</v>
       </c>
       <c r="AX329" t="n">
-        <v>2.18</v>
+        <v>1.89</v>
       </c>
       <c r="AY329" t="n">
         <v>7</v>
       </c>
       <c r="AZ329" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="BA329" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="BB329" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="BC329" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BD329" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="BE329" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BF329" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG329" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH329" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="BI329" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BJ329" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="BK329" t="n">
         <v>16</v>
@@ -67343,7 +67343,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>2608460</v>
+        <v>2608462</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -67363,12 +67363,12 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>Queens Park Rangers</t>
+          <t>Stoke City</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Swansea City</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I330" t="n">
@@ -67381,53 +67381,53 @@
         <v>1</v>
       </c>
       <c r="L330" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N330" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>['27']</t>
+          <t>['11', '57', '80', '83']</t>
         </is>
       </c>
       <c r="P330" t="inlineStr">
         <is>
-          <t>['81']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q330" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R330" t="n">
+        <v>2</v>
+      </c>
+      <c r="S330" t="n">
         <v>8</v>
       </c>
-      <c r="S330" t="n">
-        <v>13</v>
-      </c>
       <c r="T330" t="n">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="U330" t="n">
         <v>2.1</v>
       </c>
       <c r="V330" t="n">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="W330" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X330" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="Y330" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Z330" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AA330" t="n">
         <v>7.85</v>
@@ -67436,91 +67436,91 @@
         <v>1.05</v>
       </c>
       <c r="AC330" t="n">
-        <v>2.45</v>
+        <v>1.84</v>
       </c>
       <c r="AD330" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE330" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF330" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG330" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH330" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI330" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ330" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK330" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL330" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AM330" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN330" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO330" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP330" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AQ330" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR330" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS330" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT330" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU330" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV330" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW330" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX330" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY330" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ330" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA330" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB330" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC330" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD330" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE330" t="n">
         <v>3.3</v>
-      </c>
-      <c r="AE330" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AF330" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG330" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH330" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AI330" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AJ330" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AK330" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AL330" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM330" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN330" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AO330" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP330" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ330" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AR330" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AS330" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AT330" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AU330" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AV330" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AW330" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="AX330" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AY330" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ330" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BA330" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BB330" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BC330" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BD330" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BE330" t="n">
-        <v>3.2</v>
       </c>
       <c r="BF330" t="n">
         <v>7</v>
@@ -67529,16 +67529,16 @@
         <v>3</v>
       </c>
       <c r="BH330" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BI330" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BJ330" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BK330" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="331">
@@ -67546,7 +67546,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>2608462</v>
+        <v>2608454</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -67566,149 +67566,149 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>Stoke City</t>
+          <t>Birmingham City</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Preston North End</t>
         </is>
       </c>
       <c r="I331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L331" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N331" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>['11', '57', '80', '83']</t>
+          <t>['83']</t>
         </is>
       </c>
       <c r="P331" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['10', '15']</t>
         </is>
       </c>
       <c r="Q331" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R331" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S331" t="n">
         <v>8</v>
       </c>
       <c r="T331" t="n">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="U331" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="V331" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="W331" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="X331" t="n">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="Y331" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Z331" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="AA331" t="n">
-        <v>7.85</v>
+        <v>9.75</v>
       </c>
       <c r="AB331" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AC331" t="n">
-        <v>1.84</v>
+        <v>2.28</v>
       </c>
       <c r="AD331" t="n">
-        <v>3.35</v>
+        <v>3.11</v>
       </c>
       <c r="AE331" t="n">
-        <v>3.75</v>
+        <v>2.85</v>
       </c>
       <c r="AF331" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AG331" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH331" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AI331" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="AJ331" t="n">
-        <v>2.18</v>
+        <v>2.23</v>
       </c>
       <c r="AK331" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AL331" t="n">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="AM331" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AN331" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AO331" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP331" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ331" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR331" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS331" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT331" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AU331" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV331" t="n">
         <v>1.26</v>
       </c>
-      <c r="AP331" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AQ331" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AR331" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AS331" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AT331" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AU331" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AV331" t="n">
-        <v>1.27</v>
-      </c>
       <c r="AW331" t="n">
-        <v>2.93</v>
+        <v>2.63</v>
       </c>
       <c r="AX331" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="AY331" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ331" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="BA331" t="n">
         <v>1.24</v>
@@ -67726,22 +67726,22 @@
         <v>3.3</v>
       </c>
       <c r="BF331" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG331" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH331" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI331" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ331" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BK331" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="332">
@@ -67749,7 +67749,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>2608465</v>
+        <v>2608464</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -67769,12 +67769,12 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>Wigan Athletic</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Luton Town</t>
+          <t>Rotherham United</t>
         </is>
       </c>
       <c r="I332" t="n">
@@ -67787,164 +67787,164 @@
         <v>1</v>
       </c>
       <c r="L332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N332" t="n">
         <v>2</v>
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['53']</t>
         </is>
       </c>
       <c r="P332" t="inlineStr">
         <is>
-          <t>['11', '53']</t>
+          <t>['20']</t>
         </is>
       </c>
       <c r="Q332" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R332" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S332" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T332" t="n">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="U332" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="V332" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="W332" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="X332" t="n">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="Y332" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z332" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB332" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC332" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AD332" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE332" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AF332" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG332" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH332" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI332" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ332" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK332" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL332" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM332" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN332" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO332" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP332" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ332" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AR332" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS332" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT332" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU332" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV332" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AW332" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX332" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY332" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ332" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA332" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB332" t="n">
         <v>1.31</v>
       </c>
-      <c r="AA332" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="AB332" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC332" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AD332" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE332" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AF332" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG332" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH332" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI332" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ332" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AK332" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AL332" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AM332" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AN332" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AO332" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP332" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AQ332" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AR332" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AS332" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AT332" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AU332" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AV332" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AW332" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AX332" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AY332" t="n">
+      <c r="BC332" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD332" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE332" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF332" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG332" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH332" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI332" t="n">
         <v>7</v>
       </c>
-      <c r="AZ332" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BA332" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BB332" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="BC332" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BD332" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BE332" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="BF332" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG332" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH332" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI332" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ332" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BK332" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="333">
@@ -67952,7 +67952,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>2608454</v>
+        <v>2608465</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -67972,152 +67972,152 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>Birmingham City</t>
+          <t>Wigan Athletic</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Preston North End</t>
+          <t>Luton Town</t>
         </is>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
       <c r="J333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M333" t="n">
         <v>2</v>
       </c>
       <c r="N333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>['83']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P333" t="inlineStr">
         <is>
-          <t>['10', '15']</t>
+          <t>['11', '53']</t>
         </is>
       </c>
       <c r="Q333" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R333" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S333" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T333" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U333" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V333" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W333" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X333" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y333" t="n">
         <v>3.2</v>
       </c>
-      <c r="U333" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V333" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W333" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X333" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Y333" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Z333" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AA333" t="n">
-        <v>9.75</v>
+        <v>8.35</v>
       </c>
       <c r="AB333" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AC333" t="n">
-        <v>2.28</v>
+        <v>2.58</v>
       </c>
       <c r="AD333" t="n">
-        <v>3.11</v>
+        <v>3.2</v>
       </c>
       <c r="AE333" t="n">
-        <v>2.85</v>
+        <v>2.43</v>
       </c>
       <c r="AF333" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AG333" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AH333" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="AI333" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AJ333" t="n">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="AK333" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="AL333" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="AM333" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AN333" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="AO333" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AP333" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ333" t="n">
-        <v>1.21</v>
+        <v>0.64</v>
       </c>
       <c r="AR333" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="AS333" t="n">
-        <v>1.13</v>
+        <v>0.6</v>
       </c>
       <c r="AT333" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AU333" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AV333" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AW333" t="n">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="AX333" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="AY333" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AZ333" t="n">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="BA333" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="BB333" t="n">
         <v>1.55</v>
@@ -68129,19 +68129,19 @@
         <v>2.3</v>
       </c>
       <c r="BE333" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BF333" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG333" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH333" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI333" t="n">
         <v>6</v>
-      </c>
-      <c r="BI333" t="n">
-        <v>4</v>
       </c>
       <c r="BJ333" t="n">
         <v>11</v>
@@ -68358,7 +68358,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>2608181</v>
+        <v>2608470</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -68374,54 +68374,54 @@
         <v>44954.5</v>
       </c>
       <c r="F335" t="n">
+        <v>29</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>2</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" t="n">
+        <v>2</v>
+      </c>
+      <c r="L335" t="n">
+        <v>2</v>
+      </c>
+      <c r="M335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N335" t="n">
+        <v>2</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>['36', '45+3']</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q335" t="n">
+        <v>9</v>
+      </c>
+      <c r="R335" t="n">
         <v>5</v>
       </c>
-      <c r="G335" t="inlineStr">
-        <is>
-          <t>Coventry City</t>
-        </is>
-      </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>Huddersfield Town</t>
-        </is>
-      </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
-      <c r="J335" t="n">
-        <v>0</v>
-      </c>
-      <c r="K335" t="n">
-        <v>0</v>
-      </c>
-      <c r="L335" t="n">
-        <v>2</v>
-      </c>
-      <c r="M335" t="n">
-        <v>0</v>
-      </c>
-      <c r="N335" t="n">
-        <v>2</v>
-      </c>
-      <c r="O335" t="inlineStr">
-        <is>
-          <t>['53', '71']</t>
-        </is>
-      </c>
-      <c r="P335" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q335" t="n">
-        <v>6</v>
-      </c>
-      <c r="R335" t="n">
-        <v>3</v>
-      </c>
       <c r="S335" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T335" t="n">
         <v>2.6</v>
@@ -68433,10 +68433,10 @@
         <v>4.5</v>
       </c>
       <c r="W335" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X335" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="Y335" t="n">
         <v>3</v>
@@ -68451,109 +68451,109 @@
         <v>1.05</v>
       </c>
       <c r="AC335" t="n">
-        <v>1.72</v>
+        <v>2.05</v>
       </c>
       <c r="AD335" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AE335" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="AF335" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AG335" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH335" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AI335" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AJ335" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="AK335" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AL335" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM335" t="n">
         <v>1.9</v>
       </c>
-      <c r="AM335" t="n">
-        <v>1.88</v>
-      </c>
       <c r="AN335" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AO335" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AP335" t="n">
         <v>1.9</v>
       </c>
       <c r="AQ335" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AR335" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS335" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT335" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU335" t="n">
         <v>1.57</v>
       </c>
-      <c r="AR335" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AS335" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AT335" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AU335" t="n">
-        <v>1.61</v>
-      </c>
       <c r="AV335" t="n">
-        <v>1.15</v>
+        <v>1.36</v>
       </c>
       <c r="AW335" t="n">
-        <v>2.76</v>
+        <v>2.93</v>
       </c>
       <c r="AX335" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AY335" t="n">
         <v>9</v>
       </c>
       <c r="AZ335" t="n">
-        <v>3.56</v>
+        <v>3.3</v>
       </c>
       <c r="BA335" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="BB335" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BC335" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BD335" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="BE335" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="BF335" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG335" t="n">
         <v>5</v>
       </c>
       <c r="BH335" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI335" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BJ335" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BK335" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="336">
@@ -68561,7 +68561,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>2608468</v>
+        <v>2608181</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -68577,39 +68577,39 @@
         <v>44954.5</v>
       </c>
       <c r="F336" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>Hull City</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Queens Park Rangers</t>
+          <t>Huddersfield Town</t>
         </is>
       </c>
       <c r="I336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J336" t="n">
         <v>0</v>
       </c>
       <c r="K336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M336" t="n">
         <v>0</v>
       </c>
       <c r="N336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>['10', '62', '64']</t>
+          <t>['53', '71']</t>
         </is>
       </c>
       <c r="P336" t="inlineStr">
@@ -68618,28 +68618,28 @@
         </is>
       </c>
       <c r="Q336" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R336" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S336" t="n">
         <v>9</v>
       </c>
       <c r="T336" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="U336" t="n">
         <v>2.1</v>
       </c>
       <c r="V336" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="W336" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X336" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="Y336" t="n">
         <v>3</v>
@@ -68654,19 +68654,19 @@
         <v>1.05</v>
       </c>
       <c r="AC336" t="n">
-        <v>2.6</v>
+        <v>1.72</v>
       </c>
       <c r="AD336" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="AE336" t="n">
-        <v>2.52</v>
+        <v>4.3</v>
       </c>
       <c r="AF336" t="n">
         <v>1.07</v>
       </c>
       <c r="AG336" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH336" t="n">
         <v>1.36</v>
@@ -68675,88 +68675,88 @@
         <v>3.2</v>
       </c>
       <c r="AJ336" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="AK336" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AL336" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AM336" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="AN336" t="n">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AO336" t="n">
         <v>1.28</v>
       </c>
       <c r="AP336" t="n">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="AQ336" t="n">
-        <v>1.07</v>
+        <v>1.57</v>
       </c>
       <c r="AR336" t="n">
-        <v>1.36</v>
+        <v>0.75</v>
       </c>
       <c r="AS336" t="n">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AT336" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU336" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV336" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW336" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX336" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY336" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ336" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BA336" t="n">
         <v>1.27</v>
       </c>
-      <c r="AU336" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AV336" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AW336" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AX336" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AY336" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ336" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BA336" t="n">
-        <v>1.2</v>
-      </c>
       <c r="BB336" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BC336" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="BD336" t="n">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="BE336" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="BF336" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG336" t="n">
         <v>5</v>
       </c>
-      <c r="BG336" t="n">
-        <v>3</v>
-      </c>
       <c r="BH336" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ336" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BK336" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="337">
@@ -68764,7 +68764,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>2608470</v>
+        <v>2608468</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -68784,35 +68784,35 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Hull City</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Queens Park Rangers</t>
         </is>
       </c>
       <c r="I337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J337" t="n">
         <v>0</v>
       </c>
       <c r="K337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L337" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M337" t="n">
         <v>0</v>
       </c>
       <c r="N337" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>['36', '45+3']</t>
+          <t>['10', '62', '64']</t>
         </is>
       </c>
       <c r="P337" t="inlineStr">
@@ -68821,22 +68821,22 @@
         </is>
       </c>
       <c r="Q337" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R337" t="n">
         <v>5</v>
       </c>
       <c r="S337" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T337" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="U337" t="n">
         <v>2.1</v>
       </c>
       <c r="V337" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="W337" t="n">
         <v>1.41</v>
@@ -68857,25 +68857,25 @@
         <v>1.05</v>
       </c>
       <c r="AC337" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="AD337" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE337" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AF337" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG337" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH337" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI337" t="n">
         <v>3.2</v>
-      </c>
-      <c r="AE337" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AF337" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG337" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH337" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AI337" t="n">
-        <v>3.4</v>
       </c>
       <c r="AJ337" t="n">
         <v>2.08</v>
@@ -68887,49 +68887,49 @@
         <v>1.8</v>
       </c>
       <c r="AM337" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="AN337" t="n">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="AO337" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AP337" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="AQ337" t="n">
-        <v>1.77</v>
+        <v>1.07</v>
       </c>
       <c r="AR337" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AS337" t="n">
-        <v>1.86</v>
+        <v>1.2</v>
       </c>
       <c r="AT337" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AU337" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="AV337" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AW337" t="n">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="AX337" t="n">
-        <v>1.45</v>
+        <v>1.83</v>
       </c>
       <c r="AY337" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ337" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="BA337" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="BB337" t="n">
         <v>1.48</v>
@@ -68944,22 +68944,22 @@
         <v>2.7</v>
       </c>
       <c r="BF337" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG337" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH337" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI337" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ337" t="n">
         <v>8</v>
       </c>
-      <c r="BI337" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ337" t="n">
-        <v>15</v>
-      </c>
       <c r="BK337" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="338">

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -69836,13 +69836,13 @@
         </is>
       </c>
       <c r="Q342" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R342" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S342" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="T342" t="n">
         <v>2.45</v>
@@ -69959,22 +69959,22 @@
         <v>3.34</v>
       </c>
       <c r="BF342" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG342" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH342" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI342" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ342" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BK342" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="343">
@@ -70039,13 +70039,13 @@
         </is>
       </c>
       <c r="Q343" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R343" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S343" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T343" t="n">
         <v>3.4</v>
@@ -70162,22 +70162,22 @@
         <v>2.93</v>
       </c>
       <c r="BF343" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG343" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH343" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI343" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ343" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BK343" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="344">
@@ -70242,13 +70242,13 @@
         </is>
       </c>
       <c r="Q344" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R344" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S344" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T344" t="n">
         <v>2.95</v>
@@ -70365,22 +70365,22 @@
         <v>2.84</v>
       </c>
       <c r="BF344" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG344" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH344" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BI344" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ344" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BK344" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="345">
@@ -70445,13 +70445,13 @@
         </is>
       </c>
       <c r="Q345" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R345" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S345" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T345" t="n">
         <v>2.85</v>
@@ -70568,22 +70568,22 @@
         <v>3.08</v>
       </c>
       <c r="BF345" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG345" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH345" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BI345" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ345" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BK345" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="346">
@@ -70648,13 +70648,13 @@
         </is>
       </c>
       <c r="Q346" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R346" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S346" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="T346" t="n">
         <v>2.1</v>
@@ -70771,22 +70771,22 @@
         <v>2.84</v>
       </c>
       <c r="BF346" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG346" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH346" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI346" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BJ346" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK346" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="347">
@@ -70851,13 +70851,13 @@
         </is>
       </c>
       <c r="Q347" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R347" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S347" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T347" t="n">
         <v>2.75</v>
@@ -70974,22 +70974,22 @@
         <v>2.77</v>
       </c>
       <c r="BF347" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG347" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH347" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI347" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ347" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK347" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348">
@@ -71054,13 +71054,13 @@
         </is>
       </c>
       <c r="Q348" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R348" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S348" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T348" t="n">
         <v>3.6</v>
@@ -71177,22 +71177,22 @@
         <v>3.28</v>
       </c>
       <c r="BF348" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG348" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH348" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI348" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BJ348" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BK348" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="349">
@@ -71257,13 +71257,13 @@
         </is>
       </c>
       <c r="Q349" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R349" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S349" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T349" t="n">
         <v>2.85</v>
@@ -71380,22 +71380,22 @@
         <v>2.93</v>
       </c>
       <c r="BF349" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG349" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH349" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI349" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BJ349" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK349" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK349"/>
+  <dimension ref="A1:BK350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
         <v>1.25</v>
@@ -3542,7 +3542,7 @@
         <v>1.27</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT36" t="n">
         <v>1.36</v>
@@ -12068,7 +12068,7 @@
         <v>1.13</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU57" t="n">
         <v>1.57</v>
@@ -14501,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT69" t="n">
         <v>1.2</v>
@@ -18564,7 +18564,7 @@
         <v>1.47</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU89" t="n">
         <v>1.95</v>
@@ -18764,7 +18764,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT90" t="n">
         <v>1.21</v>
@@ -20388,7 +20388,7 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT98" t="n">
         <v>1.31</v>
@@ -20594,7 +20594,7 @@
         <v>1.2</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU99" t="n">
         <v>1.14</v>
@@ -24854,7 +24854,7 @@
         <v>0.25</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT120" t="n">
         <v>1.07</v>
@@ -25872,7 +25872,7 @@
         <v>1.43</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU125" t="n">
         <v>1.59</v>
@@ -28917,7 +28917,7 @@
         <v>1.31</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU140" t="n">
         <v>1.39</v>
@@ -31350,7 +31350,7 @@
         <v>0.75</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT152" t="n">
         <v>0.8</v>
@@ -32774,7 +32774,7 @@
         <v>1.36</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU159" t="n">
         <v>1.59</v>
@@ -35816,7 +35816,7 @@
         <v>1.43</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT174" t="n">
         <v>1.53</v>
@@ -38455,7 +38455,7 @@
         <v>1.38</v>
       </c>
       <c r="AS187" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT187" t="n">
         <v>1.29</v>
@@ -38661,7 +38661,7 @@
         <v>1.36</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU188" t="n">
         <v>1.74</v>
@@ -46578,7 +46578,7 @@
         <v>1.43</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU227" t="n">
         <v>1.5</v>
@@ -46981,7 +46981,7 @@
         <v>0.29</v>
       </c>
       <c r="AS229" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT229" t="n">
         <v>0.6899999999999999</v>
@@ -48405,7 +48405,7 @@
         <v>1.67</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU236" t="n">
         <v>1.42</v>
@@ -51650,7 +51650,7 @@
         <v>1.8</v>
       </c>
       <c r="AS252" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT252" t="n">
         <v>1.93</v>
@@ -53074,7 +53074,7 @@
         <v>2</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU259" t="n">
         <v>1.76</v>
@@ -57337,7 +57337,7 @@
         <v>1.93</v>
       </c>
       <c r="AT280" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU280" t="n">
         <v>1.57</v>
@@ -59973,7 +59973,7 @@
         <v>1.08</v>
       </c>
       <c r="AS293" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT293" t="n">
         <v>1.27</v>
@@ -61394,7 +61394,7 @@
         <v>1</v>
       </c>
       <c r="AS300" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT300" t="n">
         <v>0.8</v>
@@ -65254,7 +65254,7 @@
         <v>1.13</v>
       </c>
       <c r="AT319" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU319" t="n">
         <v>1.58</v>
@@ -71396,6 +71396,209 @@
       </c>
       <c r="BK349" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2608478</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E350" s="2" t="n">
+        <v>44963.70833333334</v>
+      </c>
+      <c r="F350" t="n">
+        <v>30</v>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>Blackburn Rovers</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Wigan Athletic</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>0</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N350" t="n">
+        <v>0</v>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q350" t="n">
+        <v>7</v>
+      </c>
+      <c r="R350" t="n">
+        <v>7</v>
+      </c>
+      <c r="S350" t="n">
+        <v>14</v>
+      </c>
+      <c r="T350" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U350" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V350" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W350" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X350" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y350" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z350" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA350" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB350" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC350" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD350" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE350" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF350" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG350" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH350" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI350" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ350" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK350" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL350" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM350" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN350" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO350" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP350" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ350" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR350" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS350" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT350" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU350" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV350" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW350" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX350" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY350" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ350" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BA350" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB350" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC350" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BD350" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BE350" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF350" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG350" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH350" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI350" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ350" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK350" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="448">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -928,6 +928,21 @@
     <t>['52', '90']</t>
   </si>
   <si>
+    <t>['13', '73', '90+4']</t>
+  </si>
+  <si>
+    <t>['21', '73']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
     <t>['18']</t>
   </si>
   <si>
@@ -941,9 +956,6 @@
   </si>
   <si>
     <t>['39', '57', '84']</t>
-  </si>
-  <si>
-    <t>['5']</t>
   </si>
   <si>
     <t>['4', '53', '72']</t>
@@ -965,9 +977,6 @@
   </si>
   <si>
     <t>['90+3', '90+5']</t>
-  </si>
-  <si>
-    <t>['81']</t>
   </si>
   <si>
     <t>['38', '63']</t>
@@ -1007,9 +1016,6 @@
   </si>
   <si>
     <t>['22']</t>
-  </si>
-  <si>
-    <t>['73']</t>
   </si>
   <si>
     <t>['80', '88']</t>
@@ -1346,6 +1352,12 @@
   </si>
   <si>
     <t>['37']</t>
+  </si>
+  <si>
+    <t>['25', '48', '74']</t>
+  </si>
+  <si>
+    <t>['89']</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK369"/>
+  <dimension ref="A1:BK375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1951,7 +1963,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -2142,7 +2154,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -3670,7 +3682,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -4333,7 +4345,7 @@
         <v>1.18</v>
       </c>
       <c r="AT14">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4434,7 +4446,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4524,7 +4536,7 @@
         <v>1.38</v>
       </c>
       <c r="AT15">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4625,7 +4637,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4712,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT16">
         <v>1.06</v>
@@ -4903,10 +4915,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT17">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5094,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT18">
         <v>1.13</v>
@@ -5389,7 +5401,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -5479,7 +5491,7 @@
         <v>2.41</v>
       </c>
       <c r="AT20">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5667,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT21">
         <v>1.25</v>
@@ -5771,7 +5783,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5858,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT22">
         <v>1.63</v>
@@ -5962,7 +5974,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -6052,7 +6064,7 @@
         <v>1.19</v>
       </c>
       <c r="AT23">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6240,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT24">
         <v>1.29</v>
@@ -7108,7 +7120,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7299,7 +7311,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -7490,7 +7502,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7681,7 +7693,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -8254,7 +8266,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8636,7 +8648,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8723,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT37">
         <v>1.13</v>
@@ -9105,10 +9117,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT39">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU39">
         <v>0.63</v>
@@ -9400,7 +9412,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9490,7 +9502,7 @@
         <v>1.38</v>
       </c>
       <c r="AT41">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU41">
         <v>2.37</v>
@@ -9678,7 +9690,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT42">
         <v>0.76</v>
@@ -9872,7 +9884,7 @@
         <v>1.19</v>
       </c>
       <c r="AT43">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU43">
         <v>1.52</v>
@@ -9973,7 +9985,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10060,10 +10072,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT44">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU44">
         <v>1.33</v>
@@ -10251,7 +10263,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT45">
         <v>1.63</v>
@@ -10633,7 +10645,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT47">
         <v>0.9399999999999999</v>
@@ -10928,7 +10940,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -11015,7 +11027,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT49">
         <v>1.25</v>
@@ -11119,7 +11131,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11206,10 +11218,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT50">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU50">
         <v>1.11</v>
@@ -11397,7 +11409,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT51">
         <v>1.63</v>
@@ -11588,7 +11600,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT52">
         <v>1.06</v>
@@ -11782,7 +11794,7 @@
         <v>2</v>
       </c>
       <c r="AT53">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU53">
         <v>1.37</v>
@@ -12161,7 +12173,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT55">
         <v>1.29</v>
@@ -12265,7 +12277,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -12355,7 +12367,7 @@
         <v>2.41</v>
       </c>
       <c r="AT56">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU56">
         <v>1.72</v>
@@ -12546,7 +12558,7 @@
         <v>1.18</v>
       </c>
       <c r="AT57">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU57">
         <v>1.57</v>
@@ -12734,7 +12746,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT58">
         <v>0.9399999999999999</v>
@@ -13220,7 +13232,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -13411,7 +13423,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -13793,7 +13805,7 @@
         <v>89</v>
       </c>
       <c r="P64" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13984,7 +13996,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -14175,7 +14187,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -14557,7 +14569,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14939,7 +14951,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15321,7 +15333,7 @@
         <v>104</v>
       </c>
       <c r="P72" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15793,7 +15805,7 @@
         <v>1.06</v>
       </c>
       <c r="AT74">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU74">
         <v>1.45</v>
@@ -15981,7 +15993,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT75">
         <v>0.6899999999999999</v>
@@ -16085,7 +16097,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16366,7 +16378,7 @@
         <v>1.67</v>
       </c>
       <c r="AT77">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU77">
         <v>1.3</v>
@@ -16554,7 +16566,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT78">
         <v>1.19</v>
@@ -16936,10 +16948,10 @@
         <v>0</v>
       </c>
       <c r="AS80">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT80">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU80">
         <v>1.25</v>
@@ -17040,7 +17052,7 @@
         <v>89</v>
       </c>
       <c r="P81" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -17509,7 +17521,7 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT83">
         <v>2</v>
@@ -17891,7 +17903,7 @@
         <v>1.33</v>
       </c>
       <c r="AS85">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT85">
         <v>1.25</v>
@@ -18082,7 +18094,7 @@
         <v>0.33</v>
       </c>
       <c r="AS86">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT86">
         <v>1.29</v>
@@ -18568,7 +18580,7 @@
         <v>151</v>
       </c>
       <c r="P89" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q89">
         <v>9</v>
@@ -18658,7 +18670,7 @@
         <v>1.47</v>
       </c>
       <c r="AT89">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU89">
         <v>1.95</v>
@@ -18759,7 +18771,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -19141,7 +19153,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -19332,7 +19344,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q93">
         <v>10</v>
@@ -19422,7 +19434,7 @@
         <v>1.2</v>
       </c>
       <c r="AT93">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU93">
         <v>0.95</v>
@@ -19714,7 +19726,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19905,7 +19917,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -20096,7 +20108,7 @@
         <v>89</v>
       </c>
       <c r="P97" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -20183,7 +20195,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT97">
         <v>1.87</v>
@@ -20478,7 +20490,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20568,7 +20580,7 @@
         <v>1.2</v>
       </c>
       <c r="AT99">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU99">
         <v>1.14</v>
@@ -20756,7 +20768,7 @@
         <v>1.75</v>
       </c>
       <c r="AS100">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT100">
         <v>2</v>
@@ -20950,7 +20962,7 @@
         <v>1.43</v>
       </c>
       <c r="AT101">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU101">
         <v>1.63</v>
@@ -21051,7 +21063,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -21242,7 +21254,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -21433,7 +21445,7 @@
         <v>161</v>
       </c>
       <c r="P104" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21624,7 +21636,7 @@
         <v>162</v>
       </c>
       <c r="P105" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21711,7 +21723,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT105">
         <v>1.29</v>
@@ -21815,7 +21827,7 @@
         <v>89</v>
       </c>
       <c r="P106" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22093,7 +22105,7 @@
         <v>0.5</v>
       </c>
       <c r="AS107">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT107">
         <v>1.25</v>
@@ -23051,7 +23063,7 @@
         <v>2</v>
       </c>
       <c r="AT112">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU112">
         <v>1.65</v>
@@ -23343,7 +23355,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -23725,7 +23737,7 @@
         <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23812,7 +23824,7 @@
         <v>1.6</v>
       </c>
       <c r="AS116">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT116">
         <v>1.87</v>
@@ -24298,7 +24310,7 @@
         <v>89</v>
       </c>
       <c r="P119" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24388,7 +24400,7 @@
         <v>1.31</v>
       </c>
       <c r="AT119">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU119">
         <v>1.42</v>
@@ -24871,7 +24883,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24958,7 +24970,7 @@
         <v>1.4</v>
       </c>
       <c r="AS122">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT122">
         <v>1.25</v>
@@ -25152,7 +25164,7 @@
         <v>1.71</v>
       </c>
       <c r="AT123">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU123">
         <v>1.47</v>
@@ -25253,7 +25265,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25343,7 +25355,7 @@
         <v>2</v>
       </c>
       <c r="AT124">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU124">
         <v>1.19</v>
@@ -25444,7 +25456,7 @@
         <v>89</v>
       </c>
       <c r="P125" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q125">
         <v>8</v>
@@ -25534,7 +25546,7 @@
         <v>1.43</v>
       </c>
       <c r="AT125">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU125">
         <v>1.59</v>
@@ -25635,7 +25647,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25722,7 +25734,7 @@
         <v>1.25</v>
       </c>
       <c r="AS126">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT126">
         <v>1.19</v>
@@ -26017,7 +26029,7 @@
         <v>174</v>
       </c>
       <c r="P128" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -26104,7 +26116,7 @@
         <v>1.4</v>
       </c>
       <c r="AS128">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT128">
         <v>1.29</v>
@@ -26399,7 +26411,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26486,7 +26498,7 @@
         <v>0.8</v>
       </c>
       <c r="AS130">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT130">
         <v>1.29</v>
@@ -26680,7 +26692,7 @@
         <v>1.47</v>
       </c>
       <c r="AT131">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU131">
         <v>1.55</v>
@@ -26781,7 +26793,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q132">
         <v>9</v>
@@ -26868,7 +26880,7 @@
         <v>1.67</v>
       </c>
       <c r="AS132">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT132">
         <v>1.25</v>
@@ -26972,7 +26984,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -27062,7 +27074,7 @@
         <v>1.47</v>
       </c>
       <c r="AT133">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU133">
         <v>1.79</v>
@@ -27250,7 +27262,7 @@
         <v>0.5</v>
       </c>
       <c r="AS134">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT134">
         <v>0.93</v>
@@ -28309,7 +28321,7 @@
         <v>181</v>
       </c>
       <c r="P140" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q140">
         <v>9</v>
@@ -28399,7 +28411,7 @@
         <v>1.31</v>
       </c>
       <c r="AT140">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU140">
         <v>1.39</v>
@@ -28500,7 +28512,7 @@
         <v>94</v>
       </c>
       <c r="P141" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28778,7 +28790,7 @@
         <v>0.8</v>
       </c>
       <c r="AS142">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT142">
         <v>1.27</v>
@@ -29264,7 +29276,7 @@
         <v>184</v>
       </c>
       <c r="P145" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q145">
         <v>5</v>
@@ -29646,7 +29658,7 @@
         <v>186</v>
       </c>
       <c r="P147" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -29924,7 +29936,7 @@
         <v>1.83</v>
       </c>
       <c r="AS148">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT148">
         <v>1.87</v>
@@ -30028,7 +30040,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q149">
         <v>7</v>
@@ -30115,7 +30127,7 @@
         <v>1.67</v>
       </c>
       <c r="AS149">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT149">
         <v>1.63</v>
@@ -30306,10 +30318,10 @@
         <v>2</v>
       </c>
       <c r="AS150">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT150">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU150">
         <v>2.18</v>
@@ -30500,7 +30512,7 @@
         <v>2</v>
       </c>
       <c r="AT151">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU151">
         <v>1.69</v>
@@ -30792,7 +30804,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -31452,7 +31464,7 @@
         <v>2</v>
       </c>
       <c r="AS156">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT156">
         <v>1.8</v>
@@ -31556,7 +31568,7 @@
         <v>193</v>
       </c>
       <c r="P157" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31646,7 +31658,7 @@
         <v>1.43</v>
       </c>
       <c r="AT157">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU157">
         <v>1.52</v>
@@ -31938,7 +31950,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q159">
         <v>1</v>
@@ -32028,7 +32040,7 @@
         <v>1.47</v>
       </c>
       <c r="AT159">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU159">
         <v>1.59</v>
@@ -32129,7 +32141,7 @@
         <v>196</v>
       </c>
       <c r="P160" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q160">
         <v>14</v>
@@ -32216,10 +32228,10 @@
         <v>1.14</v>
       </c>
       <c r="AS160">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT160">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU160">
         <v>2.15</v>
@@ -32702,7 +32714,7 @@
         <v>89</v>
       </c>
       <c r="P163" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32789,7 +32801,7 @@
         <v>1.14</v>
       </c>
       <c r="AS163">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT163">
         <v>1.2</v>
@@ -32893,7 +32905,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q164">
         <v>9</v>
@@ -33084,7 +33096,7 @@
         <v>89</v>
       </c>
       <c r="P165" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33275,7 +33287,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -33362,7 +33374,7 @@
         <v>0.33</v>
       </c>
       <c r="AS166">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT166">
         <v>1.13</v>
@@ -33466,7 +33478,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33657,7 +33669,7 @@
         <v>89</v>
       </c>
       <c r="P168" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q168">
         <v>7</v>
@@ -33938,7 +33950,7 @@
         <v>1.38</v>
       </c>
       <c r="AT169">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU169">
         <v>2.01</v>
@@ -34039,7 +34051,7 @@
         <v>201</v>
       </c>
       <c r="P170" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34126,7 +34138,7 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT170">
         <v>0.6899999999999999</v>
@@ -34421,7 +34433,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q172">
         <v>13</v>
@@ -34508,7 +34520,7 @@
         <v>0.71</v>
       </c>
       <c r="AS172">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT172">
         <v>1.21</v>
@@ -34699,7 +34711,7 @@
         <v>0.6</v>
       </c>
       <c r="AS173">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT173">
         <v>0.76</v>
@@ -34994,7 +35006,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -35376,7 +35388,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -35466,7 +35478,7 @@
         <v>0.75</v>
       </c>
       <c r="AT177">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU177">
         <v>1.39</v>
@@ -36140,7 +36152,7 @@
         <v>208</v>
       </c>
       <c r="P181" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q181">
         <v>1</v>
@@ -36331,7 +36343,7 @@
         <v>209</v>
       </c>
       <c r="P182" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -36522,7 +36534,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36803,7 +36815,7 @@
         <v>1.93</v>
       </c>
       <c r="AT184">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU184">
         <v>1.44</v>
@@ -36904,7 +36916,7 @@
         <v>89</v>
       </c>
       <c r="P185" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q185">
         <v>9</v>
@@ -36991,7 +37003,7 @@
         <v>0.88</v>
       </c>
       <c r="AS185">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT185">
         <v>0.93</v>
@@ -37095,7 +37107,7 @@
         <v>211</v>
       </c>
       <c r="P186" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -37477,7 +37489,7 @@
         <v>213</v>
       </c>
       <c r="P188" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37567,7 +37579,7 @@
         <v>1.19</v>
       </c>
       <c r="AT188">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU188">
         <v>1.74</v>
@@ -37859,7 +37871,7 @@
         <v>215</v>
       </c>
       <c r="P190" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37946,7 +37958,7 @@
         <v>1.43</v>
       </c>
       <c r="AS190">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT190">
         <v>1.53</v>
@@ -38137,7 +38149,7 @@
         <v>0.88</v>
       </c>
       <c r="AS191">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT191">
         <v>0.9399999999999999</v>
@@ -38331,7 +38343,7 @@
         <v>1.67</v>
       </c>
       <c r="AT192">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU192">
         <v>1.41</v>
@@ -38432,7 +38444,7 @@
         <v>218</v>
       </c>
       <c r="P193" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q193">
         <v>6</v>
@@ -39092,7 +39104,7 @@
         <v>1.57</v>
       </c>
       <c r="AS196">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT196">
         <v>1.19</v>
@@ -39196,7 +39208,7 @@
         <v>89</v>
       </c>
       <c r="P197" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q197">
         <v>8</v>
@@ -39283,7 +39295,7 @@
         <v>1.38</v>
       </c>
       <c r="AS197">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT197">
         <v>1.87</v>
@@ -39665,10 +39677,10 @@
         <v>0.57</v>
       </c>
       <c r="AS199">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT199">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU199">
         <v>1.51</v>
@@ -40342,7 +40354,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40432,7 +40444,7 @@
         <v>1.71</v>
       </c>
       <c r="AT203">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU203">
         <v>1.28</v>
@@ -40915,7 +40927,7 @@
         <v>226</v>
       </c>
       <c r="P206" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -41193,7 +41205,7 @@
         <v>1.5</v>
       </c>
       <c r="AS207">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT207">
         <v>1.19</v>
@@ -41488,7 +41500,7 @@
         <v>178</v>
       </c>
       <c r="P209" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q209">
         <v>7</v>
@@ -41578,7 +41590,7 @@
         <v>1.31</v>
       </c>
       <c r="AT209">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU209">
         <v>1.36</v>
@@ -41957,10 +41969,10 @@
         <v>1.33</v>
       </c>
       <c r="AS211">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT211">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU211">
         <v>1.96</v>
@@ -42148,7 +42160,7 @@
         <v>1.56</v>
       </c>
       <c r="AS212">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT212">
         <v>1.87</v>
@@ -42634,7 +42646,7 @@
         <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -42825,7 +42837,7 @@
         <v>93</v>
       </c>
       <c r="P216" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -43016,7 +43028,7 @@
         <v>229</v>
       </c>
       <c r="P217" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q217">
         <v>7</v>
@@ -43398,7 +43410,7 @@
         <v>199</v>
       </c>
       <c r="P219" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43589,7 +43601,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q220">
         <v>10</v>
@@ -43676,7 +43688,7 @@
         <v>1.78</v>
       </c>
       <c r="AS220">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT220">
         <v>2</v>
@@ -43780,7 +43792,7 @@
         <v>231</v>
       </c>
       <c r="P221" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q221">
         <v>4</v>
@@ -43867,7 +43879,7 @@
         <v>1.22</v>
       </c>
       <c r="AS221">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT221">
         <v>1.29</v>
@@ -44162,7 +44174,7 @@
         <v>92</v>
       </c>
       <c r="P223" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q223">
         <v>2</v>
@@ -44926,7 +44938,7 @@
         <v>232</v>
       </c>
       <c r="P227" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q227">
         <v>6</v>
@@ -45013,10 +45025,10 @@
         <v>1.63</v>
       </c>
       <c r="AS227">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT227">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU227">
         <v>1.5</v>
@@ -45398,7 +45410,7 @@
         <v>2</v>
       </c>
       <c r="AT229">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU229">
         <v>1.46</v>
@@ -45589,7 +45601,7 @@
         <v>0.93</v>
       </c>
       <c r="AT230">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU230">
         <v>1.53</v>
@@ -45690,7 +45702,7 @@
         <v>89</v>
       </c>
       <c r="P231" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q231">
         <v>12</v>
@@ -45777,7 +45789,7 @@
         <v>0.78</v>
       </c>
       <c r="AS231">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT231">
         <v>0.76</v>
@@ -45881,7 +45893,7 @@
         <v>147</v>
       </c>
       <c r="P232" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q232">
         <v>14</v>
@@ -45971,7 +45983,7 @@
         <v>1.19</v>
       </c>
       <c r="AT232">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU232">
         <v>1.64</v>
@@ -46072,7 +46084,7 @@
         <v>235</v>
       </c>
       <c r="P233" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q233">
         <v>4</v>
@@ -46263,7 +46275,7 @@
         <v>89</v>
       </c>
       <c r="P234" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q234">
         <v>2</v>
@@ -46353,7 +46365,7 @@
         <v>0.93</v>
       </c>
       <c r="AT234">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU234">
         <v>1.57</v>
@@ -46454,7 +46466,7 @@
         <v>236</v>
       </c>
       <c r="P235" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q235">
         <v>12</v>
@@ -46735,7 +46747,7 @@
         <v>1.71</v>
       </c>
       <c r="AT236">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU236">
         <v>1.42</v>
@@ -46923,10 +46935,10 @@
         <v>1.89</v>
       </c>
       <c r="AS237">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT237">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU237">
         <v>1.8</v>
@@ -47218,7 +47230,7 @@
         <v>240</v>
       </c>
       <c r="P239" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q239">
         <v>7</v>
@@ -47499,7 +47511,7 @@
         <v>0.75</v>
       </c>
       <c r="AT240">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU240">
         <v>1.33</v>
@@ -47687,7 +47699,7 @@
         <v>1.4</v>
       </c>
       <c r="AS241">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT241">
         <v>1.2</v>
@@ -47791,7 +47803,7 @@
         <v>243</v>
       </c>
       <c r="P242" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q242">
         <v>2</v>
@@ -47878,7 +47890,7 @@
         <v>0.67</v>
       </c>
       <c r="AS242">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT242">
         <v>1.13</v>
@@ -47982,7 +47994,7 @@
         <v>182</v>
       </c>
       <c r="P243" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q243">
         <v>3</v>
@@ -48072,7 +48084,7 @@
         <v>1.38</v>
       </c>
       <c r="AT243">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU243">
         <v>1.86</v>
@@ -48173,7 +48185,7 @@
         <v>175</v>
       </c>
       <c r="P244" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q244">
         <v>12</v>
@@ -48555,7 +48567,7 @@
         <v>93</v>
       </c>
       <c r="P246" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q246">
         <v>4</v>
@@ -49024,7 +49036,7 @@
         <v>1.3</v>
       </c>
       <c r="AS248">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT248">
         <v>1.29</v>
@@ -49701,7 +49713,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q252">
         <v>2</v>
@@ -49892,7 +49904,7 @@
         <v>154</v>
       </c>
       <c r="P253" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q253">
         <v>7</v>
@@ -50274,7 +50286,7 @@
         <v>89</v>
       </c>
       <c r="P255" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q255">
         <v>7</v>
@@ -50361,7 +50373,7 @@
         <v>1.4</v>
       </c>
       <c r="AS255">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT255">
         <v>1.53</v>
@@ -50465,7 +50477,7 @@
         <v>249</v>
       </c>
       <c r="P256" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -50552,7 +50564,7 @@
         <v>1</v>
       </c>
       <c r="AS256">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT256">
         <v>0.9399999999999999</v>
@@ -50743,10 +50755,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS257">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT257">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU257">
         <v>2.22</v>
@@ -50937,7 +50949,7 @@
         <v>1.93</v>
       </c>
       <c r="AT258">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU258">
         <v>1.56</v>
@@ -51128,7 +51140,7 @@
         <v>2</v>
       </c>
       <c r="AT259">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU259">
         <v>1.76</v>
@@ -51420,7 +51432,7 @@
         <v>89</v>
       </c>
       <c r="P261" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q261">
         <v>2</v>
@@ -51802,7 +51814,7 @@
         <v>118</v>
       </c>
       <c r="P263" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q263">
         <v>5</v>
@@ -51993,7 +52005,7 @@
         <v>251</v>
       </c>
       <c r="P264" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q264">
         <v>0</v>
@@ -52184,7 +52196,7 @@
         <v>252</v>
       </c>
       <c r="P265" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q265">
         <v>5</v>
@@ -52375,7 +52387,7 @@
         <v>89</v>
       </c>
       <c r="P266" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q266">
         <v>7</v>
@@ -52656,7 +52668,7 @@
         <v>1.06</v>
       </c>
       <c r="AT267">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU267">
         <v>1.55</v>
@@ -52948,7 +52960,7 @@
         <v>254</v>
       </c>
       <c r="P269" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q269">
         <v>3</v>
@@ -53035,7 +53047,7 @@
         <v>1.27</v>
       </c>
       <c r="AS269">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT269">
         <v>1.2</v>
@@ -53226,7 +53238,7 @@
         <v>1</v>
       </c>
       <c r="AS270">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT270">
         <v>0.76</v>
@@ -53330,7 +53342,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q271">
         <v>4</v>
@@ -53417,7 +53429,7 @@
         <v>1.27</v>
       </c>
       <c r="AS271">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT271">
         <v>1.25</v>
@@ -53611,7 +53623,7 @@
         <v>2.41</v>
       </c>
       <c r="AT272">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU272">
         <v>1.81</v>
@@ -53712,7 +53724,7 @@
         <v>89</v>
       </c>
       <c r="P273" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q273">
         <v>6</v>
@@ -53903,7 +53915,7 @@
         <v>224</v>
       </c>
       <c r="P274" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q274">
         <v>8</v>
@@ -54285,7 +54297,7 @@
         <v>89</v>
       </c>
       <c r="P276" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q276">
         <v>4</v>
@@ -54476,7 +54488,7 @@
         <v>258</v>
       </c>
       <c r="P277" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q277">
         <v>7</v>
@@ -54667,7 +54679,7 @@
         <v>89</v>
       </c>
       <c r="P278" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q278">
         <v>8</v>
@@ -54754,7 +54766,7 @@
         <v>1.18</v>
       </c>
       <c r="AS278">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT278">
         <v>1.27</v>
@@ -54948,7 +54960,7 @@
         <v>1.31</v>
       </c>
       <c r="AT279">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU279">
         <v>1.42</v>
@@ -55139,7 +55151,7 @@
         <v>1.93</v>
       </c>
       <c r="AT280">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU280">
         <v>1.57</v>
@@ -55240,7 +55252,7 @@
         <v>94</v>
       </c>
       <c r="P281" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q281">
         <v>2</v>
@@ -55327,10 +55339,10 @@
         <v>0.5</v>
       </c>
       <c r="AS281">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT281">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU281">
         <v>1.49</v>
@@ -55431,7 +55443,7 @@
         <v>261</v>
       </c>
       <c r="P282" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q282">
         <v>3</v>
@@ -55709,7 +55721,7 @@
         <v>1.18</v>
       </c>
       <c r="AS283">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT283">
         <v>0.93</v>
@@ -56004,7 +56016,7 @@
         <v>263</v>
       </c>
       <c r="P285" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q285">
         <v>6</v>
@@ -56577,7 +56589,7 @@
         <v>89</v>
       </c>
       <c r="P288" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q288">
         <v>6</v>
@@ -56667,7 +56679,7 @@
         <v>1.19</v>
       </c>
       <c r="AT288">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU288">
         <v>1.74</v>
@@ -57341,7 +57353,7 @@
         <v>267</v>
       </c>
       <c r="P292" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q292">
         <v>1</v>
@@ -57532,7 +57544,7 @@
         <v>141</v>
       </c>
       <c r="P293" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q293">
         <v>1</v>
@@ -57622,7 +57634,7 @@
         <v>2</v>
       </c>
       <c r="AT293">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU293">
         <v>1.43</v>
@@ -57810,7 +57822,7 @@
         <v>1.91</v>
       </c>
       <c r="AS294">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT294">
         <v>1.8</v>
@@ -57914,7 +57926,7 @@
         <v>247</v>
       </c>
       <c r="P295" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q295">
         <v>5</v>
@@ -58192,7 +58204,7 @@
         <v>1.73</v>
       </c>
       <c r="AS296">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT296">
         <v>2</v>
@@ -58574,7 +58586,7 @@
         <v>1.42</v>
       </c>
       <c r="AS298">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT298">
         <v>1.29</v>
@@ -59060,7 +59072,7 @@
         <v>148</v>
       </c>
       <c r="P301" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q301">
         <v>1</v>
@@ -59442,7 +59454,7 @@
         <v>154</v>
       </c>
       <c r="P303" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q303">
         <v>1</v>
@@ -59532,7 +59544,7 @@
         <v>1.2</v>
       </c>
       <c r="AT303">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU303">
         <v>1.3</v>
@@ -59824,7 +59836,7 @@
         <v>89</v>
       </c>
       <c r="P305" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q305">
         <v>8</v>
@@ -60015,7 +60027,7 @@
         <v>273</v>
       </c>
       <c r="P306" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q306">
         <v>4</v>
@@ -60102,7 +60114,7 @@
         <v>1.83</v>
       </c>
       <c r="AS306">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT306">
         <v>2</v>
@@ -60293,7 +60305,7 @@
         <v>0.85</v>
       </c>
       <c r="AS307">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT307">
         <v>0.6899999999999999</v>
@@ -60397,7 +60409,7 @@
         <v>274</v>
       </c>
       <c r="P308" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q308">
         <v>7</v>
@@ -60588,7 +60600,7 @@
         <v>275</v>
       </c>
       <c r="P309" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q309">
         <v>9</v>
@@ -60678,7 +60690,7 @@
         <v>1.18</v>
       </c>
       <c r="AT309">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU309">
         <v>1.38</v>
@@ -60866,7 +60878,7 @@
         <v>1.75</v>
       </c>
       <c r="AS310">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT310">
         <v>1.8</v>
@@ -60970,7 +60982,7 @@
         <v>276</v>
       </c>
       <c r="P311" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q311">
         <v>8</v>
@@ -61352,7 +61364,7 @@
         <v>89</v>
       </c>
       <c r="P313" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q313">
         <v>4</v>
@@ -61439,7 +61451,7 @@
         <v>1.42</v>
       </c>
       <c r="AS313">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT313">
         <v>1.53</v>
@@ -61633,7 +61645,7 @@
         <v>1.67</v>
       </c>
       <c r="AT314">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU314">
         <v>1.5</v>
@@ -61734,7 +61746,7 @@
         <v>224</v>
       </c>
       <c r="P315" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q315">
         <v>1</v>
@@ -62012,7 +62024,7 @@
         <v>1.38</v>
       </c>
       <c r="AS316">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT316">
         <v>1.2</v>
@@ -62498,7 +62510,7 @@
         <v>219</v>
       </c>
       <c r="P319" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q319">
         <v>3</v>
@@ -62588,7 +62600,7 @@
         <v>1.06</v>
       </c>
       <c r="AT319">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU319">
         <v>1.58</v>
@@ -62779,7 +62791,7 @@
         <v>1.31</v>
       </c>
       <c r="AT320">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU320">
         <v>1.43</v>
@@ -63071,7 +63083,7 @@
         <v>281</v>
       </c>
       <c r="P322" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q322">
         <v>5</v>
@@ -63158,7 +63170,7 @@
         <v>1.25</v>
       </c>
       <c r="AS322">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT322">
         <v>1.29</v>
@@ -63262,7 +63274,7 @@
         <v>282</v>
       </c>
       <c r="P323" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q323">
         <v>2</v>
@@ -63540,7 +63552,7 @@
         <v>1.46</v>
       </c>
       <c r="AS324">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT324">
         <v>1.25</v>
@@ -63835,7 +63847,7 @@
         <v>285</v>
       </c>
       <c r="P326" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q326">
         <v>4</v>
@@ -64026,7 +64038,7 @@
         <v>89</v>
       </c>
       <c r="P327" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q327">
         <v>7</v>
@@ -64217,7 +64229,7 @@
         <v>273</v>
       </c>
       <c r="P328" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="Q328">
         <v>5</v>
@@ -64495,7 +64507,7 @@
         <v>0.79</v>
       </c>
       <c r="AS329">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT329">
         <v>0.6899999999999999</v>
@@ -64599,7 +64611,7 @@
         <v>269</v>
       </c>
       <c r="P330" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q330">
         <v>9</v>
@@ -64790,7 +64802,7 @@
         <v>177</v>
       </c>
       <c r="P331" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q331">
         <v>5</v>
@@ -64981,7 +64993,7 @@
         <v>89</v>
       </c>
       <c r="P332" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q332">
         <v>3</v>
@@ -65071,7 +65083,7 @@
         <v>0.75</v>
       </c>
       <c r="AT332">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU332">
         <v>1.3</v>
@@ -65259,7 +65271,7 @@
         <v>1.07</v>
       </c>
       <c r="AS333">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT333">
         <v>1.06</v>
@@ -65453,7 +65465,7 @@
         <v>1.47</v>
       </c>
       <c r="AT334">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU334">
         <v>1.46</v>
@@ -66026,7 +66038,7 @@
         <v>1.71</v>
       </c>
       <c r="AT337">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU337">
         <v>1.61</v>
@@ -66405,7 +66417,7 @@
         <v>1</v>
       </c>
       <c r="AS339">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT339">
         <v>0.93</v>
@@ -66700,7 +66712,7 @@
         <v>89</v>
       </c>
       <c r="P341" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q341">
         <v>5</v>
@@ -66891,7 +66903,7 @@
         <v>292</v>
       </c>
       <c r="P342" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q342">
         <v>1</v>
@@ -66978,7 +66990,7 @@
         <v>1.15</v>
       </c>
       <c r="AS342">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT342">
         <v>1.29</v>
@@ -67082,7 +67094,7 @@
         <v>293</v>
       </c>
       <c r="P343" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q343">
         <v>4</v>
@@ -67273,7 +67285,7 @@
         <v>171</v>
       </c>
       <c r="P344" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q344">
         <v>5</v>
@@ -67360,7 +67372,7 @@
         <v>1.08</v>
       </c>
       <c r="AS344">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT344">
         <v>1.21</v>
@@ -67464,7 +67476,7 @@
         <v>294</v>
       </c>
       <c r="P345" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="Q345">
         <v>5</v>
@@ -67745,7 +67757,7 @@
         <v>1.93</v>
       </c>
       <c r="AT346">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU346">
         <v>1.59</v>
@@ -68037,7 +68049,7 @@
         <v>151</v>
       </c>
       <c r="P348" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q348">
         <v>8</v>
@@ -68509,7 +68521,7 @@
         <v>2</v>
       </c>
       <c r="AT350">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU350">
         <v>1.41</v>
@@ -68610,7 +68622,7 @@
         <v>296</v>
       </c>
       <c r="P351" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q351">
         <v>3</v>
@@ -68700,7 +68712,7 @@
         <v>0.93</v>
       </c>
       <c r="AT351">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU351">
         <v>1.43</v>
@@ -69374,7 +69386,7 @@
         <v>154</v>
       </c>
       <c r="P355" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q355">
         <v>7</v>
@@ -69464,7 +69476,7 @@
         <v>1.06</v>
       </c>
       <c r="AT355">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AU355">
         <v>1.6</v>
@@ -69565,7 +69577,7 @@
         <v>219</v>
       </c>
       <c r="P356" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q356">
         <v>4</v>
@@ -69843,7 +69855,7 @@
         <v>1.27</v>
       </c>
       <c r="AS357">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT357">
         <v>1.19</v>
@@ -70034,7 +70046,7 @@
         <v>1.36</v>
       </c>
       <c r="AS358">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT358">
         <v>1.25</v>
@@ -70419,7 +70431,7 @@
         <v>0.75</v>
       </c>
       <c r="AT360">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU360">
         <v>1.3</v>
@@ -70607,7 +70619,7 @@
         <v>1.64</v>
       </c>
       <c r="AS361">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT361">
         <v>1.53</v>
@@ -70902,7 +70914,7 @@
         <v>198</v>
       </c>
       <c r="P363" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q363">
         <v>5</v>
@@ -70992,7 +71004,7 @@
         <v>1.71</v>
       </c>
       <c r="AT363">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU363">
         <v>1.6</v>
@@ -71093,7 +71105,7 @@
         <v>89</v>
       </c>
       <c r="P364" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q364">
         <v>2</v>
@@ -71284,7 +71296,7 @@
         <v>301</v>
       </c>
       <c r="P365" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q365">
         <v>5</v>
@@ -71666,7 +71678,7 @@
         <v>89</v>
       </c>
       <c r="P367" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q367">
         <v>5</v>
@@ -71857,7 +71869,7 @@
         <v>302</v>
       </c>
       <c r="P368" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q368">
         <v>5</v>
@@ -72048,7 +72060,7 @@
         <v>303</v>
       </c>
       <c r="P369" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q369">
         <v>4</v>
@@ -72190,6 +72202,1152 @@
       </c>
       <c r="BK369">
         <v>14</v>
+      </c>
+    </row>
+    <row r="370" spans="1:63">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>2608512</v>
+      </c>
+      <c r="C370" t="s">
+        <v>63</v>
+      </c>
+      <c r="D370" t="s">
+        <v>64</v>
+      </c>
+      <c r="E370" s="2">
+        <v>44972.69791666666</v>
+      </c>
+      <c r="F370">
+        <v>32</v>
+      </c>
+      <c r="G370" t="s">
+        <v>80</v>
+      </c>
+      <c r="H370" t="s">
+        <v>65</v>
+      </c>
+      <c r="I370">
+        <v>1</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370">
+        <v>1</v>
+      </c>
+      <c r="L370">
+        <v>3</v>
+      </c>
+      <c r="M370">
+        <v>0</v>
+      </c>
+      <c r="N370">
+        <v>3</v>
+      </c>
+      <c r="O370" t="s">
+        <v>304</v>
+      </c>
+      <c r="P370" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q370">
+        <v>12</v>
+      </c>
+      <c r="R370">
+        <v>3</v>
+      </c>
+      <c r="S370">
+        <v>15</v>
+      </c>
+      <c r="T370">
+        <v>2.45</v>
+      </c>
+      <c r="U370">
+        <v>1.95</v>
+      </c>
+      <c r="V370">
+        <v>4.8</v>
+      </c>
+      <c r="W370">
+        <v>1.47</v>
+      </c>
+      <c r="X370">
+        <v>2.45</v>
+      </c>
+      <c r="Y370">
+        <v>3.2</v>
+      </c>
+      <c r="Z370">
+        <v>1.3</v>
+      </c>
+      <c r="AA370">
+        <v>7.5</v>
+      </c>
+      <c r="AB370">
+        <v>1.06</v>
+      </c>
+      <c r="AC370">
+        <v>1.8</v>
+      </c>
+      <c r="AD370">
+        <v>3.6</v>
+      </c>
+      <c r="AE370">
+        <v>4.2</v>
+      </c>
+      <c r="AF370">
+        <v>1.04</v>
+      </c>
+      <c r="AG370">
+        <v>8</v>
+      </c>
+      <c r="AH370">
+        <v>1.35</v>
+      </c>
+      <c r="AI370">
+        <v>2.9</v>
+      </c>
+      <c r="AJ370">
+        <v>2.05</v>
+      </c>
+      <c r="AK370">
+        <v>1.61</v>
+      </c>
+      <c r="AL370">
+        <v>1.95</v>
+      </c>
+      <c r="AM370">
+        <v>1.75</v>
+      </c>
+      <c r="AN370">
+        <v>1.1</v>
+      </c>
+      <c r="AO370">
+        <v>1.32</v>
+      </c>
+      <c r="AP370">
+        <v>2</v>
+      </c>
+      <c r="AQ370">
+        <v>1.07</v>
+      </c>
+      <c r="AR370">
+        <v>0.67</v>
+      </c>
+      <c r="AS370">
+        <v>1.19</v>
+      </c>
+      <c r="AT370">
+        <v>0.63</v>
+      </c>
+      <c r="AU370">
+        <v>1.62</v>
+      </c>
+      <c r="AV370">
+        <v>1.12</v>
+      </c>
+      <c r="AW370">
+        <v>2.74</v>
+      </c>
+      <c r="AX370">
+        <v>1.51</v>
+      </c>
+      <c r="AY370">
+        <v>8.5</v>
+      </c>
+      <c r="AZ370">
+        <v>3.07</v>
+      </c>
+      <c r="BA370">
+        <v>1.2</v>
+      </c>
+      <c r="BB370">
+        <v>1.48</v>
+      </c>
+      <c r="BC370">
+        <v>1.73</v>
+      </c>
+      <c r="BD370">
+        <v>2.1</v>
+      </c>
+      <c r="BE370">
+        <v>2.7</v>
+      </c>
+      <c r="BF370">
+        <v>7</v>
+      </c>
+      <c r="BG370">
+        <v>2</v>
+      </c>
+      <c r="BH370">
+        <v>8</v>
+      </c>
+      <c r="BI370">
+        <v>3</v>
+      </c>
+      <c r="BJ370">
+        <v>15</v>
+      </c>
+      <c r="BK370">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:63">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>2608511</v>
+      </c>
+      <c r="C371" t="s">
+        <v>63</v>
+      </c>
+      <c r="D371" t="s">
+        <v>64</v>
+      </c>
+      <c r="E371" s="2">
+        <v>44972.69791666666</v>
+      </c>
+      <c r="F371">
+        <v>32</v>
+      </c>
+      <c r="G371" t="s">
+        <v>79</v>
+      </c>
+      <c r="H371" t="s">
+        <v>71</v>
+      </c>
+      <c r="I371">
+        <v>1</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>1</v>
+      </c>
+      <c r="L371">
+        <v>2</v>
+      </c>
+      <c r="M371">
+        <v>1</v>
+      </c>
+      <c r="N371">
+        <v>3</v>
+      </c>
+      <c r="O371" t="s">
+        <v>305</v>
+      </c>
+      <c r="P371" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q371">
+        <v>6</v>
+      </c>
+      <c r="R371">
+        <v>2</v>
+      </c>
+      <c r="S371">
+        <v>8</v>
+      </c>
+      <c r="T371">
+        <v>2.2</v>
+      </c>
+      <c r="U371">
+        <v>2.3</v>
+      </c>
+      <c r="V371">
+        <v>5.5</v>
+      </c>
+      <c r="W371">
+        <v>1.36</v>
+      </c>
+      <c r="X371">
+        <v>3</v>
+      </c>
+      <c r="Y371">
+        <v>2.63</v>
+      </c>
+      <c r="Z371">
+        <v>1.44</v>
+      </c>
+      <c r="AA371">
+        <v>7</v>
+      </c>
+      <c r="AB371">
+        <v>1.1</v>
+      </c>
+      <c r="AC371">
+        <v>1.67</v>
+      </c>
+      <c r="AD371">
+        <v>3.7</v>
+      </c>
+      <c r="AE371">
+        <v>5</v>
+      </c>
+      <c r="AF371">
+        <v>1.01</v>
+      </c>
+      <c r="AG371">
+        <v>11</v>
+      </c>
+      <c r="AH371">
+        <v>1.22</v>
+      </c>
+      <c r="AI371">
+        <v>3.7</v>
+      </c>
+      <c r="AJ371">
+        <v>1.95</v>
+      </c>
+      <c r="AK371">
+        <v>1.7</v>
+      </c>
+      <c r="AL371">
+        <v>1.83</v>
+      </c>
+      <c r="AM371">
+        <v>1.83</v>
+      </c>
+      <c r="AN371">
+        <v>1.17</v>
+      </c>
+      <c r="AO371">
+        <v>1.25</v>
+      </c>
+      <c r="AP371">
+        <v>1.95</v>
+      </c>
+      <c r="AQ371">
+        <v>1.43</v>
+      </c>
+      <c r="AR371">
+        <v>0.93</v>
+      </c>
+      <c r="AS371">
+        <v>1.53</v>
+      </c>
+      <c r="AT371">
+        <v>0.88</v>
+      </c>
+      <c r="AU371">
+        <v>1.59</v>
+      </c>
+      <c r="AV371">
+        <v>1.16</v>
+      </c>
+      <c r="AW371">
+        <v>2.75</v>
+      </c>
+      <c r="AX371">
+        <v>1.51</v>
+      </c>
+      <c r="AY371">
+        <v>8.5</v>
+      </c>
+      <c r="AZ371">
+        <v>3.16</v>
+      </c>
+      <c r="BA371">
+        <v>1.25</v>
+      </c>
+      <c r="BB371">
+        <v>1.55</v>
+      </c>
+      <c r="BC371">
+        <v>1.9</v>
+      </c>
+      <c r="BD371">
+        <v>2.3</v>
+      </c>
+      <c r="BE371">
+        <v>3.25</v>
+      </c>
+      <c r="BF371">
+        <v>8</v>
+      </c>
+      <c r="BG371">
+        <v>4</v>
+      </c>
+      <c r="BH371">
+        <v>12</v>
+      </c>
+      <c r="BI371">
+        <v>4</v>
+      </c>
+      <c r="BJ371">
+        <v>20</v>
+      </c>
+      <c r="BK371">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:63">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>2608508</v>
+      </c>
+      <c r="C372" t="s">
+        <v>63</v>
+      </c>
+      <c r="D372" t="s">
+        <v>64</v>
+      </c>
+      <c r="E372" s="2">
+        <v>44972.69791666666</v>
+      </c>
+      <c r="F372">
+        <v>32</v>
+      </c>
+      <c r="G372" t="s">
+        <v>85</v>
+      </c>
+      <c r="H372" t="s">
+        <v>69</v>
+      </c>
+      <c r="I372">
+        <v>1</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>1</v>
+      </c>
+      <c r="L372">
+        <v>1</v>
+      </c>
+      <c r="M372">
+        <v>1</v>
+      </c>
+      <c r="N372">
+        <v>2</v>
+      </c>
+      <c r="O372" t="s">
+        <v>253</v>
+      </c>
+      <c r="P372" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q372">
+        <v>3</v>
+      </c>
+      <c r="R372">
+        <v>11</v>
+      </c>
+      <c r="S372">
+        <v>14</v>
+      </c>
+      <c r="T372">
+        <v>2.5</v>
+      </c>
+      <c r="U372">
+        <v>2.05</v>
+      </c>
+      <c r="V372">
+        <v>4.2</v>
+      </c>
+      <c r="W372">
+        <v>1.4</v>
+      </c>
+      <c r="X372">
+        <v>2.75</v>
+      </c>
+      <c r="Y372">
+        <v>2.95</v>
+      </c>
+      <c r="Z372">
+        <v>1.36</v>
+      </c>
+      <c r="AA372">
+        <v>7.35</v>
+      </c>
+      <c r="AB372">
+        <v>1.06</v>
+      </c>
+      <c r="AC372">
+        <v>1.85</v>
+      </c>
+      <c r="AD372">
+        <v>3.4</v>
+      </c>
+      <c r="AE372">
+        <v>4.2</v>
+      </c>
+      <c r="AF372">
+        <v>1.06</v>
+      </c>
+      <c r="AG372">
+        <v>10</v>
+      </c>
+      <c r="AH372">
+        <v>1.33</v>
+      </c>
+      <c r="AI372">
+        <v>3.4</v>
+      </c>
+      <c r="AJ372">
+        <v>1.91</v>
+      </c>
+      <c r="AK372">
+        <v>1.75</v>
+      </c>
+      <c r="AL372">
+        <v>1.83</v>
+      </c>
+      <c r="AM372">
+        <v>1.98</v>
+      </c>
+      <c r="AN372">
+        <v>1.26</v>
+      </c>
+      <c r="AO372">
+        <v>1.28</v>
+      </c>
+      <c r="AP372">
+        <v>1.85</v>
+      </c>
+      <c r="AQ372">
+        <v>1.38</v>
+      </c>
+      <c r="AR372">
+        <v>1.21</v>
+      </c>
+      <c r="AS372">
+        <v>1.35</v>
+      </c>
+      <c r="AT372">
+        <v>1.2</v>
+      </c>
+      <c r="AU372">
+        <v>1.39</v>
+      </c>
+      <c r="AV372">
+        <v>1.21</v>
+      </c>
+      <c r="AW372">
+        <v>2.6</v>
+      </c>
+      <c r="AX372">
+        <v>1.69</v>
+      </c>
+      <c r="AY372">
+        <v>8</v>
+      </c>
+      <c r="AZ372">
+        <v>2.54</v>
+      </c>
+      <c r="BA372">
+        <v>1.2</v>
+      </c>
+      <c r="BB372">
+        <v>1.48</v>
+      </c>
+      <c r="BC372">
+        <v>1.73</v>
+      </c>
+      <c r="BD372">
+        <v>2.1</v>
+      </c>
+      <c r="BE372">
+        <v>2.7</v>
+      </c>
+      <c r="BF372">
+        <v>2</v>
+      </c>
+      <c r="BG372">
+        <v>3</v>
+      </c>
+      <c r="BH372">
+        <v>4</v>
+      </c>
+      <c r="BI372">
+        <v>8</v>
+      </c>
+      <c r="BJ372">
+        <v>6</v>
+      </c>
+      <c r="BK372">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="373" spans="1:63">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>2608509</v>
+      </c>
+      <c r="C373" t="s">
+        <v>63</v>
+      </c>
+      <c r="D373" t="s">
+        <v>64</v>
+      </c>
+      <c r="E373" s="2">
+        <v>44972.69791666666</v>
+      </c>
+      <c r="F373">
+        <v>32</v>
+      </c>
+      <c r="G373" t="s">
+        <v>84</v>
+      </c>
+      <c r="H373" t="s">
+        <v>68</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>0</v>
+      </c>
+      <c r="L373">
+        <v>1</v>
+      </c>
+      <c r="M373">
+        <v>1</v>
+      </c>
+      <c r="N373">
+        <v>2</v>
+      </c>
+      <c r="O373" t="s">
+        <v>306</v>
+      </c>
+      <c r="P373" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q373">
+        <v>2</v>
+      </c>
+      <c r="R373">
+        <v>10</v>
+      </c>
+      <c r="S373">
+        <v>12</v>
+      </c>
+      <c r="T373">
+        <v>3.3</v>
+      </c>
+      <c r="U373">
+        <v>1.93</v>
+      </c>
+      <c r="V373">
+        <v>3.25</v>
+      </c>
+      <c r="W373">
+        <v>1.5</v>
+      </c>
+      <c r="X373">
+        <v>2.4</v>
+      </c>
+      <c r="Y373">
+        <v>3.3</v>
+      </c>
+      <c r="Z373">
+        <v>1.29</v>
+      </c>
+      <c r="AA373">
+        <v>9.25</v>
+      </c>
+      <c r="AB373">
+        <v>1.05</v>
+      </c>
+      <c r="AC373">
+        <v>2.6</v>
+      </c>
+      <c r="AD373">
+        <v>3.1</v>
+      </c>
+      <c r="AE373">
+        <v>2.75</v>
+      </c>
+      <c r="AF373">
+        <v>1.09</v>
+      </c>
+      <c r="AG373">
+        <v>8</v>
+      </c>
+      <c r="AH373">
+        <v>1.45</v>
+      </c>
+      <c r="AI373">
+        <v>2.8</v>
+      </c>
+      <c r="AJ373">
+        <v>2.2</v>
+      </c>
+      <c r="AK373">
+        <v>1.53</v>
+      </c>
+      <c r="AL373">
+        <v>1.95</v>
+      </c>
+      <c r="AM373">
+        <v>1.73</v>
+      </c>
+      <c r="AN373">
+        <v>1.46</v>
+      </c>
+      <c r="AO373">
+        <v>1.34</v>
+      </c>
+      <c r="AP373">
+        <v>1.43</v>
+      </c>
+      <c r="AQ373">
+        <v>0.87</v>
+      </c>
+      <c r="AR373">
+        <v>1.8</v>
+      </c>
+      <c r="AS373">
+        <v>0.88</v>
+      </c>
+      <c r="AT373">
+        <v>1.75</v>
+      </c>
+      <c r="AU373">
+        <v>1.48</v>
+      </c>
+      <c r="AV373">
+        <v>1.28</v>
+      </c>
+      <c r="AW373">
+        <v>2.76</v>
+      </c>
+      <c r="AX373">
+        <v>2.05</v>
+      </c>
+      <c r="AY373">
+        <v>8</v>
+      </c>
+      <c r="AZ373">
+        <v>2</v>
+      </c>
+      <c r="BA373">
+        <v>1.25</v>
+      </c>
+      <c r="BB373">
+        <v>1.55</v>
+      </c>
+      <c r="BC373">
+        <v>1.85</v>
+      </c>
+      <c r="BD373">
+        <v>2.3</v>
+      </c>
+      <c r="BE373">
+        <v>3.25</v>
+      </c>
+      <c r="BF373">
+        <v>3</v>
+      </c>
+      <c r="BG373">
+        <v>4</v>
+      </c>
+      <c r="BH373">
+        <v>5</v>
+      </c>
+      <c r="BI373">
+        <v>16</v>
+      </c>
+      <c r="BJ373">
+        <v>8</v>
+      </c>
+      <c r="BK373">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="374" spans="1:63">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>2608510</v>
+      </c>
+      <c r="C374" t="s">
+        <v>63</v>
+      </c>
+      <c r="D374" t="s">
+        <v>64</v>
+      </c>
+      <c r="E374" s="2">
+        <v>44972.70833333334</v>
+      </c>
+      <c r="F374">
+        <v>32</v>
+      </c>
+      <c r="G374" t="s">
+        <v>81</v>
+      </c>
+      <c r="H374" t="s">
+        <v>74</v>
+      </c>
+      <c r="I374">
+        <v>1</v>
+      </c>
+      <c r="J374">
+        <v>1</v>
+      </c>
+      <c r="K374">
+        <v>2</v>
+      </c>
+      <c r="L374">
+        <v>1</v>
+      </c>
+      <c r="M374">
+        <v>3</v>
+      </c>
+      <c r="N374">
+        <v>4</v>
+      </c>
+      <c r="O374" t="s">
+        <v>307</v>
+      </c>
+      <c r="P374" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q374">
+        <v>6</v>
+      </c>
+      <c r="R374">
+        <v>6</v>
+      </c>
+      <c r="S374">
+        <v>12</v>
+      </c>
+      <c r="T374">
+        <v>2.75</v>
+      </c>
+      <c r="U374">
+        <v>2.1</v>
+      </c>
+      <c r="V374">
+        <v>4.33</v>
+      </c>
+      <c r="W374">
+        <v>1.44</v>
+      </c>
+      <c r="X374">
+        <v>2.63</v>
+      </c>
+      <c r="Y374">
+        <v>3.25</v>
+      </c>
+      <c r="Z374">
+        <v>1.33</v>
+      </c>
+      <c r="AA374">
+        <v>9</v>
+      </c>
+      <c r="AB374">
+        <v>1.07</v>
+      </c>
+      <c r="AC374">
+        <v>2.2</v>
+      </c>
+      <c r="AD374">
+        <v>3.2</v>
+      </c>
+      <c r="AE374">
+        <v>3.25</v>
+      </c>
+      <c r="AF374">
+        <v>1.05</v>
+      </c>
+      <c r="AG374">
+        <v>12</v>
+      </c>
+      <c r="AH374">
+        <v>1.31</v>
+      </c>
+      <c r="AI374">
+        <v>3.3</v>
+      </c>
+      <c r="AJ374">
+        <v>2.15</v>
+      </c>
+      <c r="AK374">
+        <v>1.61</v>
+      </c>
+      <c r="AL374">
+        <v>1.83</v>
+      </c>
+      <c r="AM374">
+        <v>1.83</v>
+      </c>
+      <c r="AN374">
+        <v>1.28</v>
+      </c>
+      <c r="AO374">
+        <v>1.28</v>
+      </c>
+      <c r="AP374">
+        <v>1.78</v>
+      </c>
+      <c r="AQ374">
+        <v>2.2</v>
+      </c>
+      <c r="AR374">
+        <v>1.38</v>
+      </c>
+      <c r="AS374">
+        <v>2.06</v>
+      </c>
+      <c r="AT374">
+        <v>1.47</v>
+      </c>
+      <c r="AU374">
+        <v>2.03</v>
+      </c>
+      <c r="AV374">
+        <v>1.49</v>
+      </c>
+      <c r="AW374">
+        <v>3.52</v>
+      </c>
+      <c r="AX374">
+        <v>1.85</v>
+      </c>
+      <c r="AY374">
+        <v>8</v>
+      </c>
+      <c r="AZ374">
+        <v>2.28</v>
+      </c>
+      <c r="BA374">
+        <v>1.18</v>
+      </c>
+      <c r="BB374">
+        <v>1.43</v>
+      </c>
+      <c r="BC374">
+        <v>1.7</v>
+      </c>
+      <c r="BD374">
+        <v>2.1</v>
+      </c>
+      <c r="BE374">
+        <v>2.63</v>
+      </c>
+      <c r="BF374">
+        <v>11</v>
+      </c>
+      <c r="BG374">
+        <v>6</v>
+      </c>
+      <c r="BH374">
+        <v>8</v>
+      </c>
+      <c r="BI374">
+        <v>13</v>
+      </c>
+      <c r="BJ374">
+        <v>19</v>
+      </c>
+      <c r="BK374">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="375" spans="1:63">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>2608513</v>
+      </c>
+      <c r="C375" t="s">
+        <v>63</v>
+      </c>
+      <c r="D375" t="s">
+        <v>64</v>
+      </c>
+      <c r="E375" s="2">
+        <v>44972.70833333334</v>
+      </c>
+      <c r="F375">
+        <v>32</v>
+      </c>
+      <c r="G375" t="s">
+        <v>87</v>
+      </c>
+      <c r="H375" t="s">
+        <v>72</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>0</v>
+      </c>
+      <c r="L375">
+        <v>1</v>
+      </c>
+      <c r="M375">
+        <v>1</v>
+      </c>
+      <c r="N375">
+        <v>2</v>
+      </c>
+      <c r="O375" t="s">
+        <v>308</v>
+      </c>
+      <c r="P375" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q375">
+        <v>12</v>
+      </c>
+      <c r="R375">
+        <v>5</v>
+      </c>
+      <c r="S375">
+        <v>17</v>
+      </c>
+      <c r="T375">
+        <v>2.3</v>
+      </c>
+      <c r="U375">
+        <v>2.2</v>
+      </c>
+      <c r="V375">
+        <v>5.5</v>
+      </c>
+      <c r="W375">
+        <v>1.44</v>
+      </c>
+      <c r="X375">
+        <v>2.63</v>
+      </c>
+      <c r="Y375">
+        <v>3</v>
+      </c>
+      <c r="Z375">
+        <v>1.36</v>
+      </c>
+      <c r="AA375">
+        <v>9</v>
+      </c>
+      <c r="AB375">
+        <v>1.07</v>
+      </c>
+      <c r="AC375">
+        <v>1.8</v>
+      </c>
+      <c r="AD375">
+        <v>3.5</v>
+      </c>
+      <c r="AE375">
+        <v>4.4</v>
+      </c>
+      <c r="AF375">
+        <v>1.02</v>
+      </c>
+      <c r="AG375">
+        <v>9.5</v>
+      </c>
+      <c r="AH375">
+        <v>1.28</v>
+      </c>
+      <c r="AI375">
+        <v>3.3</v>
+      </c>
+      <c r="AJ375">
+        <v>1.95</v>
+      </c>
+      <c r="AK375">
+        <v>1.75</v>
+      </c>
+      <c r="AL375">
+        <v>2</v>
+      </c>
+      <c r="AM375">
+        <v>1.73</v>
+      </c>
+      <c r="AN375">
+        <v>1.08</v>
+      </c>
+      <c r="AO375">
+        <v>1.3</v>
+      </c>
+      <c r="AP375">
+        <v>2.15</v>
+      </c>
+      <c r="AQ375">
+        <v>1.67</v>
+      </c>
+      <c r="AR375">
+        <v>1.06</v>
+      </c>
+      <c r="AS375">
+        <v>1.63</v>
+      </c>
+      <c r="AT375">
+        <v>1.06</v>
+      </c>
+      <c r="AU375">
+        <v>1.92</v>
+      </c>
+      <c r="AV375">
+        <v>0.97</v>
+      </c>
+      <c r="AW375">
+        <v>2.89</v>
+      </c>
+      <c r="AX375">
+        <v>1.26</v>
+      </c>
+      <c r="AY375">
+        <v>10</v>
+      </c>
+      <c r="AZ375">
+        <v>4.64</v>
+      </c>
+      <c r="BA375">
+        <v>1.18</v>
+      </c>
+      <c r="BB375">
+        <v>1.34</v>
+      </c>
+      <c r="BC375">
+        <v>1.65</v>
+      </c>
+      <c r="BD375">
+        <v>2</v>
+      </c>
+      <c r="BE375">
+        <v>2.5</v>
+      </c>
+      <c r="BF375">
+        <v>5</v>
+      </c>
+      <c r="BG375">
+        <v>5</v>
+      </c>
+      <c r="BH375">
+        <v>8</v>
+      </c>
+      <c r="BI375">
+        <v>6</v>
+      </c>
+      <c r="BJ375">
+        <v>13</v>
+      </c>
+      <c r="BK375">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="448">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1719,7 +1719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK375"/>
+  <dimension ref="A1:BK376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT7">
         <v>1.53</v>
@@ -3199,7 +3199,7 @@
         <v>0.93</v>
       </c>
       <c r="AT8">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -6634,7 +6634,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT26">
         <v>1.29</v>
@@ -7019,7 +7019,7 @@
         <v>1.43</v>
       </c>
       <c r="AT28">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU28">
         <v>1.54</v>
@@ -13895,7 +13895,7 @@
         <v>2</v>
       </c>
       <c r="AT64">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU64">
         <v>1.64</v>
@@ -14465,7 +14465,7 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT67">
         <v>1.8</v>
@@ -15802,7 +15802,7 @@
         <v>1.33</v>
       </c>
       <c r="AS74">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT74">
         <v>1.75</v>
@@ -15996,7 +15996,7 @@
         <v>2.06</v>
       </c>
       <c r="AT75">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU75">
         <v>2.19</v>
@@ -23636,7 +23636,7 @@
         <v>0.75</v>
       </c>
       <c r="AT115">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU115">
         <v>1.48</v>
@@ -26307,7 +26307,7 @@
         <v>1.6</v>
       </c>
       <c r="AS129">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT129">
         <v>2</v>
@@ -27453,7 +27453,7 @@
         <v>1.2</v>
       </c>
       <c r="AS135">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT135">
         <v>1.06</v>
@@ -28984,7 +28984,7 @@
         <v>1.19</v>
       </c>
       <c r="AT143">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU143">
         <v>1.65</v>
@@ -32419,7 +32419,7 @@
         <v>0.57</v>
       </c>
       <c r="AS161">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT161">
         <v>0.93</v>
@@ -34141,7 +34141,7 @@
         <v>1.53</v>
       </c>
       <c r="AT170">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU170">
         <v>1.41</v>
@@ -40632,7 +40632,7 @@
         <v>1</v>
       </c>
       <c r="AS204">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT204">
         <v>0.76</v>
@@ -40826,7 +40826,7 @@
         <v>2.41</v>
       </c>
       <c r="AT205">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU205">
         <v>1.68</v>
@@ -41399,7 +41399,7 @@
         <v>1.47</v>
       </c>
       <c r="AT208">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU208">
         <v>1.93</v>
@@ -42924,7 +42924,7 @@
         <v>1.11</v>
       </c>
       <c r="AS216">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT216">
         <v>1.29</v>
@@ -46171,7 +46171,7 @@
         <v>1</v>
       </c>
       <c r="AS233">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT233">
         <v>1.25</v>
@@ -47129,7 +47129,7 @@
         <v>1.67</v>
       </c>
       <c r="AT238">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU238">
         <v>1.5</v>
@@ -48657,7 +48657,7 @@
         <v>1.31</v>
       </c>
       <c r="AT246">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU246">
         <v>1.38</v>
@@ -48845,7 +48845,7 @@
         <v>1.7</v>
       </c>
       <c r="AS247">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT247">
         <v>1.87</v>
@@ -52095,7 +52095,7 @@
         <v>1.18</v>
       </c>
       <c r="AT264">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU264">
         <v>1.4</v>
@@ -52665,7 +52665,7 @@
         <v>1.09</v>
       </c>
       <c r="AS267">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT267">
         <v>0.88</v>
@@ -55912,7 +55912,7 @@
         <v>1.42</v>
       </c>
       <c r="AS284">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT284">
         <v>1.25</v>
@@ -58398,7 +58398,7 @@
         <v>1.38</v>
       </c>
       <c r="AT297">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU297">
         <v>1.86</v>
@@ -60308,7 +60308,7 @@
         <v>1.63</v>
       </c>
       <c r="AT307">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU307">
         <v>1.93</v>
@@ -62597,7 +62597,7 @@
         <v>1.25</v>
       </c>
       <c r="AS319">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT319">
         <v>1.2</v>
@@ -64125,7 +64125,7 @@
         <v>0.92</v>
       </c>
       <c r="AS327">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT327">
         <v>1.13</v>
@@ -64510,7 +64510,7 @@
         <v>1.19</v>
       </c>
       <c r="AT329">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU329">
         <v>1.66</v>
@@ -69094,7 +69094,7 @@
         <v>1.47</v>
       </c>
       <c r="AT353">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU353">
         <v>1.5</v>
@@ -69473,7 +69473,7 @@
         <v>1.27</v>
       </c>
       <c r="AS355">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT355">
         <v>1.47</v>
@@ -73348,6 +73348,197 @@
       </c>
       <c r="BK375">
         <v>11</v>
+      </c>
+    </row>
+    <row r="376" spans="1:63">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>2608516</v>
+      </c>
+      <c r="C376" t="s">
+        <v>63</v>
+      </c>
+      <c r="D376" t="s">
+        <v>64</v>
+      </c>
+      <c r="E376" s="2">
+        <v>44974.70833333334</v>
+      </c>
+      <c r="F376">
+        <v>33</v>
+      </c>
+      <c r="G376" t="s">
+        <v>70</v>
+      </c>
+      <c r="H376" t="s">
+        <v>82</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>0</v>
+      </c>
+      <c r="L376">
+        <v>1</v>
+      </c>
+      <c r="M376">
+        <v>0</v>
+      </c>
+      <c r="N376">
+        <v>1</v>
+      </c>
+      <c r="O376" t="s">
+        <v>143</v>
+      </c>
+      <c r="P376" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q376">
+        <v>8</v>
+      </c>
+      <c r="R376">
+        <v>3</v>
+      </c>
+      <c r="S376">
+        <v>11</v>
+      </c>
+      <c r="T376">
+        <v>2.88</v>
+      </c>
+      <c r="U376">
+        <v>2</v>
+      </c>
+      <c r="V376">
+        <v>4.33</v>
+      </c>
+      <c r="W376">
+        <v>1.5</v>
+      </c>
+      <c r="X376">
+        <v>2.5</v>
+      </c>
+      <c r="Y376">
+        <v>3.4</v>
+      </c>
+      <c r="Z376">
+        <v>1.3</v>
+      </c>
+      <c r="AA376">
+        <v>10</v>
+      </c>
+      <c r="AB376">
+        <v>1.06</v>
+      </c>
+      <c r="AC376">
+        <v>2.24</v>
+      </c>
+      <c r="AD376">
+        <v>3.28</v>
+      </c>
+      <c r="AE376">
+        <v>3.34</v>
+      </c>
+      <c r="AF376">
+        <v>1.08</v>
+      </c>
+      <c r="AG376">
+        <v>8.5</v>
+      </c>
+      <c r="AH376">
+        <v>1.42</v>
+      </c>
+      <c r="AI376">
+        <v>2.9</v>
+      </c>
+      <c r="AJ376">
+        <v>2.2</v>
+      </c>
+      <c r="AK376">
+        <v>1.6</v>
+      </c>
+      <c r="AL376">
+        <v>2</v>
+      </c>
+      <c r="AM376">
+        <v>1.73</v>
+      </c>
+      <c r="AN376">
+        <v>1.33</v>
+      </c>
+      <c r="AO376">
+        <v>1.3</v>
+      </c>
+      <c r="AP376">
+        <v>1.68</v>
+      </c>
+      <c r="AQ376">
+        <v>1.06</v>
+      </c>
+      <c r="AR376">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS376">
+        <v>1.18</v>
+      </c>
+      <c r="AT376">
+        <v>0.65</v>
+      </c>
+      <c r="AU376">
+        <v>1.61</v>
+      </c>
+      <c r="AV376">
+        <v>1.24</v>
+      </c>
+      <c r="AW376">
+        <v>2.85</v>
+      </c>
+      <c r="AX376">
+        <v>1.82</v>
+      </c>
+      <c r="AY376">
+        <v>8</v>
+      </c>
+      <c r="AZ376">
+        <v>2.33</v>
+      </c>
+      <c r="BA376">
+        <v>1.25</v>
+      </c>
+      <c r="BB376">
+        <v>1.55</v>
+      </c>
+      <c r="BC376">
+        <v>1.9</v>
+      </c>
+      <c r="BD376">
+        <v>2.3</v>
+      </c>
+      <c r="BE376">
+        <v>3.28</v>
+      </c>
+      <c r="BF376">
+        <v>6</v>
+      </c>
+      <c r="BG376">
+        <v>0</v>
+      </c>
+      <c r="BH376">
+        <v>9</v>
+      </c>
+      <c r="BI376">
+        <v>5</v>
+      </c>
+      <c r="BJ376">
+        <v>15</v>
+      </c>
+      <c r="BK376">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="457">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -958,6 +958,12 @@
     <t>['23', '66', '78']</t>
   </si>
   <si>
+    <t>['27', '36', '90+4']</t>
+  </si>
+  <si>
+    <t>['19', '56']</t>
+  </si>
+  <si>
     <t>['18']</t>
   </si>
   <si>
@@ -1377,6 +1383,9 @@
   <si>
     <t>['56', '71']</t>
   </si>
+  <si>
+    <t>['15', '19', '90+3']</t>
+  </si>
 </sst>
 </file>
 
@@ -1737,7 +1746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK387"/>
+  <dimension ref="A1:BK392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1981,7 +1990,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -2071,7 +2080,7 @@
         <v>1.31</v>
       </c>
       <c r="AT2">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2172,7 +2181,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2259,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT3">
         <v>1.12</v>
@@ -2450,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT4">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2644,7 +2653,7 @@
         <v>1.38</v>
       </c>
       <c r="AT5">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -3405,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT9">
         <v>1.18</v>
@@ -3700,7 +3709,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -4464,7 +4473,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4551,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT15">
         <v>1.2</v>
@@ -4655,7 +4664,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4742,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT16">
         <v>1.06</v>
@@ -4936,7 +4945,7 @@
         <v>1.19</v>
       </c>
       <c r="AT17">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5801,7 +5810,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5891,7 +5900,7 @@
         <v>1.35</v>
       </c>
       <c r="AT22">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5992,7 +6001,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -6464,7 +6473,7 @@
         <v>1.75</v>
       </c>
       <c r="AT25">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU25">
         <v>1.47</v>
@@ -6655,7 +6664,7 @@
         <v>1.18</v>
       </c>
       <c r="AT26">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU26">
         <v>0.72</v>
@@ -7034,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT28">
         <v>0.65</v>
@@ -7138,7 +7147,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7329,7 +7338,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -7520,7 +7529,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7607,7 +7616,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT31">
         <v>1.07</v>
@@ -7711,7 +7720,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7992,7 +8001,7 @@
         <v>1.31</v>
       </c>
       <c r="AT33">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU33">
         <v>0.37</v>
@@ -8284,7 +8293,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8562,7 +8571,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT36">
         <v>1.19</v>
@@ -8666,7 +8675,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8753,7 +8762,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT37">
         <v>1.13</v>
@@ -9517,7 +9526,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT41">
         <v>0.63</v>
@@ -9902,7 +9911,7 @@
         <v>1.19</v>
       </c>
       <c r="AT43">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU43">
         <v>1.52</v>
@@ -10003,7 +10012,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10284,7 +10293,7 @@
         <v>2.06</v>
       </c>
       <c r="AT45">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU45">
         <v>1</v>
@@ -10854,7 +10863,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT48">
         <v>1.13</v>
@@ -10958,7 +10967,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -11149,7 +11158,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11236,7 +11245,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT50">
         <v>1.75</v>
@@ -11430,7 +11439,7 @@
         <v>1.19</v>
       </c>
       <c r="AT51">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU51">
         <v>1.32</v>
@@ -12295,7 +12304,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -12385,7 +12394,7 @@
         <v>2.41</v>
       </c>
       <c r="AT56">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU56">
         <v>1.72</v>
@@ -13250,7 +13259,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -13441,7 +13450,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -13531,7 +13540,7 @@
         <v>0.76</v>
       </c>
       <c r="AT62">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU62">
         <v>1.58</v>
@@ -13719,10 +13728,10 @@
         <v>0.5</v>
       </c>
       <c r="AS63">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT63">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU63">
         <v>1.47</v>
@@ -13823,7 +13832,7 @@
         <v>89</v>
       </c>
       <c r="P64" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13910,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT64">
         <v>0.65</v>
@@ -14014,7 +14023,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -14205,7 +14214,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -14587,7 +14596,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14865,10 +14874,10 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT69">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU69">
         <v>1.16</v>
@@ -14969,7 +14978,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15351,7 +15360,7 @@
         <v>104</v>
       </c>
       <c r="P72" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -16115,7 +16124,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17542,7 +17551,7 @@
         <v>1.63</v>
       </c>
       <c r="AT83">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU83">
         <v>2.15</v>
@@ -17730,7 +17739,7 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT84">
         <v>1.29</v>
@@ -17921,7 +17930,7 @@
         <v>1.33</v>
       </c>
       <c r="AS85">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT85">
         <v>1.18</v>
@@ -18115,7 +18124,7 @@
         <v>0.88</v>
       </c>
       <c r="AT86">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU86">
         <v>1.98</v>
@@ -18303,7 +18312,7 @@
         <v>0.33</v>
       </c>
       <c r="AS87">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT87">
         <v>1.07</v>
@@ -18494,7 +18503,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT88">
         <v>0.9399999999999999</v>
@@ -18598,7 +18607,7 @@
         <v>151</v>
       </c>
       <c r="P89" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q89">
         <v>9</v>
@@ -18789,7 +18798,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18876,7 +18885,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT90">
         <v>1.2</v>
@@ -19070,7 +19079,7 @@
         <v>2</v>
       </c>
       <c r="AT91">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU91">
         <v>1.28</v>
@@ -19171,7 +19180,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -19362,7 +19371,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q93">
         <v>10</v>
@@ -19452,7 +19461,7 @@
         <v>1.31</v>
       </c>
       <c r="AT93">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU93">
         <v>0.95</v>
@@ -19643,7 +19652,7 @@
         <v>2</v>
       </c>
       <c r="AT94">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU94">
         <v>1.28</v>
@@ -19744,7 +19753,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19834,7 +19843,7 @@
         <v>1.29</v>
       </c>
       <c r="AT95">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU95">
         <v>1.36</v>
@@ -19935,7 +19944,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -20126,7 +20135,7 @@
         <v>89</v>
       </c>
       <c r="P97" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -20213,7 +20222,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT97">
         <v>1.75</v>
@@ -20404,7 +20413,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT98">
         <v>1.29</v>
@@ -20508,7 +20517,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20789,7 +20798,7 @@
         <v>0.88</v>
       </c>
       <c r="AT100">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU100">
         <v>1.81</v>
@@ -20977,10 +20986,10 @@
         <v>1.75</v>
       </c>
       <c r="AS101">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT101">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU101">
         <v>1.63</v>
@@ -21081,7 +21090,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -21168,7 +21177,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT102">
         <v>1.2</v>
@@ -21272,7 +21281,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -21359,7 +21368,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT103">
         <v>1.18</v>
@@ -21463,7 +21472,7 @@
         <v>161</v>
       </c>
       <c r="P104" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21654,7 +21663,7 @@
         <v>162</v>
       </c>
       <c r="P105" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21744,7 +21753,7 @@
         <v>1.63</v>
       </c>
       <c r="AT105">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU105">
         <v>2.31</v>
@@ -21845,7 +21854,7 @@
         <v>89</v>
       </c>
       <c r="P106" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21935,7 +21944,7 @@
         <v>2</v>
       </c>
       <c r="AT106">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU106">
         <v>1.29</v>
@@ -22123,7 +22132,7 @@
         <v>0.5</v>
       </c>
       <c r="AS107">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT107">
         <v>1.25</v>
@@ -23078,10 +23087,10 @@
         <v>1.4</v>
       </c>
       <c r="AS112">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT112">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU112">
         <v>1.65</v>
@@ -23272,7 +23281,7 @@
         <v>1.19</v>
       </c>
       <c r="AT113">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU113">
         <v>1.69</v>
@@ -23373,7 +23382,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -23463,7 +23472,7 @@
         <v>1.75</v>
       </c>
       <c r="AT114">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU114">
         <v>1.35</v>
@@ -23755,7 +23764,7 @@
         <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -24033,7 +24042,7 @@
         <v>0.75</v>
       </c>
       <c r="AS117">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT117">
         <v>1.19</v>
@@ -24328,7 +24337,7 @@
         <v>89</v>
       </c>
       <c r="P119" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24606,7 +24615,7 @@
         <v>0.25</v>
       </c>
       <c r="AS120">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT120">
         <v>1.13</v>
@@ -24901,7 +24910,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -25283,7 +25292,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25474,7 +25483,7 @@
         <v>89</v>
       </c>
       <c r="P125" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q125">
         <v>8</v>
@@ -25561,7 +25570,7 @@
         <v>2.5</v>
       </c>
       <c r="AS125">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT125">
         <v>1.2</v>
@@ -25665,7 +25674,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -26047,7 +26056,7 @@
         <v>174</v>
       </c>
       <c r="P128" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -26137,7 +26146,7 @@
         <v>2.06</v>
       </c>
       <c r="AT128">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU128">
         <v>2.16</v>
@@ -26328,7 +26337,7 @@
         <v>1.18</v>
       </c>
       <c r="AT129">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU129">
         <v>1.51</v>
@@ -26429,7 +26438,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26710,7 +26719,7 @@
         <v>1.44</v>
       </c>
       <c r="AT131">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU131">
         <v>1.55</v>
@@ -26811,7 +26820,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q132">
         <v>9</v>
@@ -27002,7 +27011,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -27856,7 +27865,7 @@
         <v>2.41</v>
       </c>
       <c r="AT137">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU137">
         <v>1.83</v>
@@ -28044,7 +28053,7 @@
         <v>0.2</v>
       </c>
       <c r="AS138">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT138">
         <v>1.13</v>
@@ -28238,7 +28247,7 @@
         <v>2</v>
       </c>
       <c r="AT139">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU139">
         <v>1.27</v>
@@ -28339,7 +28348,7 @@
         <v>181</v>
       </c>
       <c r="P140" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q140">
         <v>9</v>
@@ -28530,7 +28539,7 @@
         <v>94</v>
       </c>
       <c r="P141" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -29193,7 +29202,7 @@
         <v>1.71</v>
       </c>
       <c r="AT144">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU144">
         <v>1.35</v>
@@ -29294,7 +29303,7 @@
         <v>184</v>
       </c>
       <c r="P145" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q145">
         <v>5</v>
@@ -29676,7 +29685,7 @@
         <v>186</v>
       </c>
       <c r="P147" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -29763,7 +29772,7 @@
         <v>1.8</v>
       </c>
       <c r="AS147">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT147">
         <v>1.75</v>
@@ -30058,7 +30067,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q149">
         <v>7</v>
@@ -30145,10 +30154,10 @@
         <v>1.67</v>
       </c>
       <c r="AS149">
+        <v>1.44</v>
+      </c>
+      <c r="AT149">
         <v>1.53</v>
-      </c>
-      <c r="AT149">
-        <v>1.63</v>
       </c>
       <c r="AU149">
         <v>1.39</v>
@@ -30527,7 +30536,7 @@
         <v>0.2</v>
       </c>
       <c r="AS151">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT151">
         <v>1.47</v>
@@ -30718,7 +30727,7 @@
         <v>0.75</v>
       </c>
       <c r="AS152">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT152">
         <v>0.76</v>
@@ -30822,7 +30831,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -31586,7 +31595,7 @@
         <v>193</v>
       </c>
       <c r="P157" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31673,7 +31682,7 @@
         <v>0.2</v>
       </c>
       <c r="AS157">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT157">
         <v>0.63</v>
@@ -31968,7 +31977,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q159">
         <v>1</v>
@@ -32159,7 +32168,7 @@
         <v>196</v>
       </c>
       <c r="P160" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q160">
         <v>14</v>
@@ -32249,7 +32258,7 @@
         <v>2.06</v>
       </c>
       <c r="AT160">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU160">
         <v>2.15</v>
@@ -32732,7 +32741,7 @@
         <v>89</v>
       </c>
       <c r="P163" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32822,7 +32831,7 @@
         <v>0.88</v>
       </c>
       <c r="AT163">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU163">
         <v>1.61</v>
@@ -32923,7 +32932,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q164">
         <v>9</v>
@@ -33114,7 +33123,7 @@
         <v>89</v>
       </c>
       <c r="P165" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33305,7 +33314,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -33496,7 +33505,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33687,7 +33696,7 @@
         <v>89</v>
       </c>
       <c r="P168" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q168">
         <v>7</v>
@@ -33777,7 +33786,7 @@
         <v>1.29</v>
       </c>
       <c r="AT168">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU168">
         <v>1.43</v>
@@ -33965,7 +33974,7 @@
         <v>1.83</v>
       </c>
       <c r="AS169">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT169">
         <v>1.75</v>
@@ -34069,7 +34078,7 @@
         <v>201</v>
       </c>
       <c r="P170" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34156,7 +34165,7 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT170">
         <v>0.65</v>
@@ -34451,7 +34460,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q172">
         <v>13</v>
@@ -34920,10 +34929,10 @@
         <v>1.43</v>
       </c>
       <c r="AS174">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT174">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU174">
         <v>1.58</v>
@@ -35024,7 +35033,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -35406,7 +35415,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -35878,7 +35887,7 @@
         <v>1.18</v>
       </c>
       <c r="AT179">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU179">
         <v>1.43</v>
@@ -36066,7 +36075,7 @@
         <v>1</v>
       </c>
       <c r="AS180">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT180">
         <v>1.29</v>
@@ -36170,7 +36179,7 @@
         <v>208</v>
       </c>
       <c r="P181" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q181">
         <v>1</v>
@@ -36361,7 +36370,7 @@
         <v>209</v>
       </c>
       <c r="P182" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -36448,7 +36457,7 @@
         <v>0.71</v>
       </c>
       <c r="AS182">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT182">
         <v>1.25</v>
@@ -36552,7 +36561,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36639,7 +36648,7 @@
         <v>1</v>
       </c>
       <c r="AS183">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT183">
         <v>1.19</v>
@@ -36934,7 +36943,7 @@
         <v>89</v>
       </c>
       <c r="P185" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q185">
         <v>9</v>
@@ -37125,7 +37134,7 @@
         <v>211</v>
       </c>
       <c r="P186" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -37215,7 +37224,7 @@
         <v>1.44</v>
       </c>
       <c r="AT186">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU186">
         <v>1.55</v>
@@ -37403,10 +37412,10 @@
         <v>1.38</v>
       </c>
       <c r="AS187">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT187">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU187">
         <v>1.52</v>
@@ -37507,7 +37516,7 @@
         <v>213</v>
       </c>
       <c r="P188" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37889,7 +37898,7 @@
         <v>215</v>
       </c>
       <c r="P190" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -38167,7 +38176,7 @@
         <v>0.88</v>
       </c>
       <c r="AS191">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT191">
         <v>0.9399999999999999</v>
@@ -38462,7 +38471,7 @@
         <v>218</v>
       </c>
       <c r="P193" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q193">
         <v>6</v>
@@ -39226,7 +39235,7 @@
         <v>89</v>
       </c>
       <c r="P197" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q197">
         <v>8</v>
@@ -39889,7 +39898,7 @@
         <v>1.38</v>
       </c>
       <c r="AT200">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU200">
         <v>1.96</v>
@@ -40372,7 +40381,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40462,7 +40471,7 @@
         <v>1.71</v>
       </c>
       <c r="AT203">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU203">
         <v>1.28</v>
@@ -40945,7 +40954,7 @@
         <v>226</v>
       </c>
       <c r="P206" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -41032,10 +41041,10 @@
         <v>1.38</v>
       </c>
       <c r="AS206">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT206">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU206">
         <v>1.93</v>
@@ -41518,7 +41527,7 @@
         <v>178</v>
       </c>
       <c r="P209" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q209">
         <v>7</v>
@@ -41990,7 +41999,7 @@
         <v>1.63</v>
       </c>
       <c r="AT211">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU211">
         <v>1.96</v>
@@ -42372,7 +42381,7 @@
         <v>0.76</v>
       </c>
       <c r="AT213">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU213">
         <v>1.33</v>
@@ -42560,7 +42569,7 @@
         <v>1.44</v>
       </c>
       <c r="AS214">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT214">
         <v>1.18</v>
@@ -42664,7 +42673,7 @@
         <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -42754,7 +42763,7 @@
         <v>1.31</v>
       </c>
       <c r="AT215">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU215">
         <v>1.26</v>
@@ -42855,7 +42864,7 @@
         <v>93</v>
       </c>
       <c r="P216" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -43046,7 +43055,7 @@
         <v>229</v>
       </c>
       <c r="P217" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q217">
         <v>7</v>
@@ -43428,7 +43437,7 @@
         <v>199</v>
       </c>
       <c r="P219" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43619,7 +43628,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q220">
         <v>10</v>
@@ -43709,7 +43718,7 @@
         <v>2.06</v>
       </c>
       <c r="AT220">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU220">
         <v>2.22</v>
@@ -43810,7 +43819,7 @@
         <v>231</v>
       </c>
       <c r="P221" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q221">
         <v>4</v>
@@ -43900,7 +43909,7 @@
         <v>1.19</v>
       </c>
       <c r="AT221">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU221">
         <v>1.81</v>
@@ -44192,7 +44201,7 @@
         <v>92</v>
       </c>
       <c r="P223" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q223">
         <v>2</v>
@@ -44279,7 +44288,7 @@
         <v>1.22</v>
       </c>
       <c r="AS223">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT223">
         <v>1.5</v>
@@ -44852,7 +44861,7 @@
         <v>1</v>
       </c>
       <c r="AS226">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT226">
         <v>1.25</v>
@@ -44956,7 +44965,7 @@
         <v>232</v>
       </c>
       <c r="P227" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q227">
         <v>6</v>
@@ -45043,7 +45052,7 @@
         <v>1.63</v>
       </c>
       <c r="AS227">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT227">
         <v>1.2</v>
@@ -45425,7 +45434,7 @@
         <v>0.29</v>
       </c>
       <c r="AS229">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT229">
         <v>0.63</v>
@@ -45720,7 +45729,7 @@
         <v>89</v>
       </c>
       <c r="P231" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q231">
         <v>12</v>
@@ -45911,7 +45920,7 @@
         <v>147</v>
       </c>
       <c r="P232" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q232">
         <v>14</v>
@@ -46102,7 +46111,7 @@
         <v>235</v>
       </c>
       <c r="P233" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q233">
         <v>4</v>
@@ -46293,7 +46302,7 @@
         <v>89</v>
       </c>
       <c r="P234" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q234">
         <v>2</v>
@@ -46484,7 +46493,7 @@
         <v>236</v>
       </c>
       <c r="P235" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q235">
         <v>12</v>
@@ -47338,7 +47347,7 @@
         <v>1.18</v>
       </c>
       <c r="AT239">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU239">
         <v>1.31</v>
@@ -47529,7 +47538,7 @@
         <v>0.76</v>
       </c>
       <c r="AT240">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU240">
         <v>1.33</v>
@@ -47720,7 +47729,7 @@
         <v>1.63</v>
       </c>
       <c r="AT241">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU241">
         <v>1.93</v>
@@ -47821,7 +47830,7 @@
         <v>243</v>
       </c>
       <c r="P242" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q242">
         <v>2</v>
@@ -48012,7 +48021,7 @@
         <v>182</v>
       </c>
       <c r="P243" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q243">
         <v>3</v>
@@ -48099,7 +48108,7 @@
         <v>1</v>
       </c>
       <c r="AS243">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT243">
         <v>1.47</v>
@@ -48203,7 +48212,7 @@
         <v>175</v>
       </c>
       <c r="P244" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q244">
         <v>12</v>
@@ -48585,7 +48594,7 @@
         <v>93</v>
       </c>
       <c r="P246" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q246">
         <v>4</v>
@@ -49731,7 +49740,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q252">
         <v>2</v>
@@ -49818,7 +49827,7 @@
         <v>1.8</v>
       </c>
       <c r="AS252">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT252">
         <v>1.75</v>
@@ -49922,7 +49931,7 @@
         <v>154</v>
       </c>
       <c r="P253" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q253">
         <v>7</v>
@@ -50009,7 +50018,7 @@
         <v>0.9</v>
       </c>
       <c r="AS253">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT253">
         <v>1.2</v>
@@ -50304,7 +50313,7 @@
         <v>89</v>
       </c>
       <c r="P255" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q255">
         <v>7</v>
@@ -50391,7 +50400,7 @@
         <v>1.4</v>
       </c>
       <c r="AS255">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT255">
         <v>1.5</v>
@@ -50495,7 +50504,7 @@
         <v>249</v>
       </c>
       <c r="P256" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -51155,7 +51164,7 @@
         <v>1.4</v>
       </c>
       <c r="AS259">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT259">
         <v>1.2</v>
@@ -51349,7 +51358,7 @@
         <v>1.06</v>
       </c>
       <c r="AT260">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU260">
         <v>1.5</v>
@@ -51450,7 +51459,7 @@
         <v>89</v>
       </c>
       <c r="P261" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q261">
         <v>2</v>
@@ -51540,7 +51549,7 @@
         <v>1.19</v>
       </c>
       <c r="AT261">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU261">
         <v>1.81</v>
@@ -51832,7 +51841,7 @@
         <v>118</v>
       </c>
       <c r="P263" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q263">
         <v>5</v>
@@ -52023,7 +52032,7 @@
         <v>251</v>
       </c>
       <c r="P264" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q264">
         <v>0</v>
@@ -52214,7 +52223,7 @@
         <v>252</v>
       </c>
       <c r="P265" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q265">
         <v>5</v>
@@ -52405,7 +52414,7 @@
         <v>89</v>
       </c>
       <c r="P266" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q266">
         <v>7</v>
@@ -52686,7 +52695,7 @@
         <v>1.18</v>
       </c>
       <c r="AT267">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU267">
         <v>1.55</v>
@@ -52877,7 +52886,7 @@
         <v>1.29</v>
       </c>
       <c r="AT268">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU268">
         <v>1.39</v>
@@ -52978,7 +52987,7 @@
         <v>254</v>
       </c>
       <c r="P269" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q269">
         <v>3</v>
@@ -53068,7 +53077,7 @@
         <v>1.35</v>
       </c>
       <c r="AT269">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU269">
         <v>1.4</v>
@@ -53360,7 +53369,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q271">
         <v>4</v>
@@ -53742,7 +53751,7 @@
         <v>89</v>
       </c>
       <c r="P273" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q273">
         <v>6</v>
@@ -53829,7 +53838,7 @@
         <v>1.09</v>
       </c>
       <c r="AS273">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT273">
         <v>1.06</v>
@@ -53933,7 +53942,7 @@
         <v>224</v>
       </c>
       <c r="P274" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q274">
         <v>8</v>
@@ -54315,7 +54324,7 @@
         <v>89</v>
       </c>
       <c r="P276" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q276">
         <v>4</v>
@@ -54506,7 +54515,7 @@
         <v>258</v>
       </c>
       <c r="P277" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q277">
         <v>7</v>
@@ -54697,7 +54706,7 @@
         <v>89</v>
       </c>
       <c r="P278" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q278">
         <v>8</v>
@@ -54978,7 +54987,7 @@
         <v>1.29</v>
       </c>
       <c r="AT279">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU279">
         <v>1.42</v>
@@ -55270,7 +55279,7 @@
         <v>94</v>
       </c>
       <c r="P281" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q281">
         <v>2</v>
@@ -55461,7 +55470,7 @@
         <v>261</v>
       </c>
       <c r="P282" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q282">
         <v>3</v>
@@ -55548,10 +55557,10 @@
         <v>1.42</v>
       </c>
       <c r="AS282">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT282">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU282">
         <v>1.52</v>
@@ -56034,7 +56043,7 @@
         <v>263</v>
       </c>
       <c r="P285" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q285">
         <v>6</v>
@@ -56506,7 +56515,7 @@
         <v>2.41</v>
       </c>
       <c r="AT287">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU287">
         <v>1.8</v>
@@ -56607,7 +56616,7 @@
         <v>89</v>
       </c>
       <c r="P288" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q288">
         <v>6</v>
@@ -56885,7 +56894,7 @@
         <v>1.09</v>
       </c>
       <c r="AS289">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT289">
         <v>1.2</v>
@@ -57371,7 +57380,7 @@
         <v>267</v>
       </c>
       <c r="P292" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q292">
         <v>1</v>
@@ -57461,7 +57470,7 @@
         <v>0.76</v>
       </c>
       <c r="AT292">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU292">
         <v>1.38</v>
@@ -57562,7 +57571,7 @@
         <v>141</v>
       </c>
       <c r="P293" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q293">
         <v>1</v>
@@ -57649,7 +57658,7 @@
         <v>1.08</v>
       </c>
       <c r="AS293">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT293">
         <v>1.47</v>
@@ -57944,7 +57953,7 @@
         <v>247</v>
       </c>
       <c r="P295" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q295">
         <v>5</v>
@@ -58225,7 +58234,7 @@
         <v>1.19</v>
       </c>
       <c r="AT296">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU296">
         <v>1.7</v>
@@ -58413,7 +58422,7 @@
         <v>0.83</v>
       </c>
       <c r="AS297">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT297">
         <v>0.65</v>
@@ -58604,7 +58613,7 @@
         <v>1.42</v>
       </c>
       <c r="AS298">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT298">
         <v>1.29</v>
@@ -58986,7 +58995,7 @@
         <v>1</v>
       </c>
       <c r="AS300">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT300">
         <v>0.9399999999999999</v>
@@ -59090,7 +59099,7 @@
         <v>148</v>
       </c>
       <c r="P301" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q301">
         <v>1</v>
@@ -59180,7 +59189,7 @@
         <v>1.06</v>
       </c>
       <c r="AT301">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU301">
         <v>1.45</v>
@@ -59368,7 +59377,7 @@
         <v>0.85</v>
       </c>
       <c r="AS302">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT302">
         <v>0.76</v>
@@ -59472,7 +59481,7 @@
         <v>154</v>
       </c>
       <c r="P303" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q303">
         <v>1</v>
@@ -59854,7 +59863,7 @@
         <v>89</v>
       </c>
       <c r="P305" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q305">
         <v>8</v>
@@ -59941,7 +59950,7 @@
         <v>1.31</v>
       </c>
       <c r="AS305">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT305">
         <v>1.29</v>
@@ -60045,7 +60054,7 @@
         <v>273</v>
       </c>
       <c r="P306" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q306">
         <v>4</v>
@@ -60132,10 +60141,10 @@
         <v>1.83</v>
       </c>
       <c r="AS306">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT306">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU306">
         <v>1.61</v>
@@ -60427,7 +60436,7 @@
         <v>274</v>
       </c>
       <c r="P308" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q308">
         <v>7</v>
@@ -60618,7 +60627,7 @@
         <v>275</v>
       </c>
       <c r="P309" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q309">
         <v>9</v>
@@ -61000,7 +61009,7 @@
         <v>276</v>
       </c>
       <c r="P311" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q311">
         <v>8</v>
@@ -61278,7 +61287,7 @@
         <v>1.15</v>
       </c>
       <c r="AS312">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT312">
         <v>1.06</v>
@@ -61382,7 +61391,7 @@
         <v>89</v>
       </c>
       <c r="P313" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q313">
         <v>4</v>
@@ -61663,7 +61672,7 @@
         <v>1.75</v>
       </c>
       <c r="AT314">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU314">
         <v>1.5</v>
@@ -61764,7 +61773,7 @@
         <v>224</v>
       </c>
       <c r="P315" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q315">
         <v>1</v>
@@ -62045,7 +62054,7 @@
         <v>2.06</v>
       </c>
       <c r="AT316">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU316">
         <v>2.12</v>
@@ -62528,7 +62537,7 @@
         <v>219</v>
       </c>
       <c r="P319" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q319">
         <v>3</v>
@@ -63101,7 +63110,7 @@
         <v>281</v>
       </c>
       <c r="P322" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q322">
         <v>5</v>
@@ -63191,7 +63200,7 @@
         <v>1.35</v>
       </c>
       <c r="AT322">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU322">
         <v>1.39</v>
@@ -63292,7 +63301,7 @@
         <v>282</v>
       </c>
       <c r="P323" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q323">
         <v>2</v>
@@ -63865,7 +63874,7 @@
         <v>285</v>
       </c>
       <c r="P326" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q326">
         <v>4</v>
@@ -64056,7 +64065,7 @@
         <v>89</v>
       </c>
       <c r="P327" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q327">
         <v>7</v>
@@ -64629,7 +64638,7 @@
         <v>269</v>
       </c>
       <c r="P330" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q330">
         <v>9</v>
@@ -64820,7 +64829,7 @@
         <v>177</v>
       </c>
       <c r="P331" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q331">
         <v>5</v>
@@ -65011,7 +65020,7 @@
         <v>89</v>
       </c>
       <c r="P332" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q332">
         <v>3</v>
@@ -66626,7 +66635,7 @@
         <v>1.93</v>
       </c>
       <c r="AS340">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT340">
         <v>1.75</v>
@@ -66730,7 +66739,7 @@
         <v>89</v>
       </c>
       <c r="P341" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q341">
         <v>5</v>
@@ -66817,10 +66826,10 @@
         <v>1.92</v>
       </c>
       <c r="AS341">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT341">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU341">
         <v>1.82</v>
@@ -66921,7 +66930,7 @@
         <v>292</v>
       </c>
       <c r="P342" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q342">
         <v>1</v>
@@ -67008,10 +67017,10 @@
         <v>1.15</v>
       </c>
       <c r="AS342">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT342">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU342">
         <v>1.57</v>
@@ -67112,7 +67121,7 @@
         <v>293</v>
       </c>
       <c r="P343" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q343">
         <v>4</v>
@@ -67303,7 +67312,7 @@
         <v>171</v>
       </c>
       <c r="P344" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q344">
         <v>5</v>
@@ -67581,10 +67590,10 @@
         <v>1.57</v>
       </c>
       <c r="AS345">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT345">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU345">
         <v>1.77</v>
@@ -67775,7 +67784,7 @@
         <v>2</v>
       </c>
       <c r="AT346">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU346">
         <v>1.59</v>
@@ -67966,7 +67975,7 @@
         <v>1.38</v>
       </c>
       <c r="AT347">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU347">
         <v>1.86</v>
@@ -68067,7 +68076,7 @@
         <v>151</v>
       </c>
       <c r="P348" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q348">
         <v>8</v>
@@ -68536,7 +68545,7 @@
         <v>1.23</v>
       </c>
       <c r="AS350">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT350">
         <v>1.2</v>
@@ -68640,7 +68649,7 @@
         <v>296</v>
       </c>
       <c r="P351" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q351">
         <v>3</v>
@@ -69404,7 +69413,7 @@
         <v>154</v>
       </c>
       <c r="P355" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q355">
         <v>7</v>
@@ -69595,7 +69604,7 @@
         <v>219</v>
       </c>
       <c r="P356" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q356">
         <v>4</v>
@@ -70932,7 +70941,7 @@
         <v>198</v>
       </c>
       <c r="P363" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q363">
         <v>5</v>
@@ -71123,7 +71132,7 @@
         <v>89</v>
       </c>
       <c r="P364" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q364">
         <v>2</v>
@@ -71213,7 +71222,7 @@
         <v>1.19</v>
       </c>
       <c r="AT364">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU364">
         <v>1.67</v>
@@ -71314,7 +71323,7 @@
         <v>301</v>
       </c>
       <c r="P365" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q365">
         <v>5</v>
@@ -71401,7 +71410,7 @@
         <v>1.33</v>
       </c>
       <c r="AS365">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT365">
         <v>1.25</v>
@@ -71696,7 +71705,7 @@
         <v>89</v>
       </c>
       <c r="P367" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q367">
         <v>5</v>
@@ -71887,7 +71896,7 @@
         <v>302</v>
       </c>
       <c r="P368" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q368">
         <v>5</v>
@@ -72078,7 +72087,7 @@
         <v>303</v>
       </c>
       <c r="P369" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q369">
         <v>4</v>
@@ -72460,7 +72469,7 @@
         <v>305</v>
       </c>
       <c r="P371" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q371">
         <v>6</v>
@@ -72547,10 +72556,10 @@
         <v>0.93</v>
       </c>
       <c r="AS371">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT371">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU371">
         <v>1.59</v>
@@ -73033,7 +73042,7 @@
         <v>307</v>
       </c>
       <c r="P374" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q374">
         <v>6</v>
@@ -73606,7 +73615,7 @@
         <v>309</v>
       </c>
       <c r="P377" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q377">
         <v>4</v>
@@ -73693,7 +73702,7 @@
         <v>1.87</v>
       </c>
       <c r="AS377">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT377">
         <v>1.75</v>
@@ -74075,7 +74084,7 @@
         <v>1.19</v>
       </c>
       <c r="AS379">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT379">
         <v>1.12</v>
@@ -74269,7 +74278,7 @@
         <v>1.38</v>
       </c>
       <c r="AT380">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU380">
         <v>1.84</v>
@@ -74561,7 +74570,7 @@
         <v>89</v>
       </c>
       <c r="P382" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q382">
         <v>4</v>
@@ -74648,7 +74657,7 @@
         <v>0.93</v>
       </c>
       <c r="AS382">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT382">
         <v>1.07</v>
@@ -75224,7 +75233,7 @@
         <v>1.31</v>
       </c>
       <c r="AT385">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU385">
         <v>1.25</v>
@@ -75415,7 +75424,7 @@
         <v>1.06</v>
       </c>
       <c r="AT386">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AU386">
         <v>1.4</v>
@@ -75516,7 +75525,7 @@
         <v>313</v>
       </c>
       <c r="P387" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q387">
         <v>6</v>
@@ -75658,6 +75667,961 @@
       </c>
       <c r="BK387">
         <v>18</v>
+      </c>
+    </row>
+    <row r="388" spans="1:63">
+      <c r="A388" s="1">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>2608476</v>
+      </c>
+      <c r="C388" t="s">
+        <v>63</v>
+      </c>
+      <c r="D388" t="s">
+        <v>64</v>
+      </c>
+      <c r="E388" s="2">
+        <v>44978.69791666666</v>
+      </c>
+      <c r="F388">
+        <v>29</v>
+      </c>
+      <c r="G388" t="s">
+        <v>79</v>
+      </c>
+      <c r="H388" t="s">
+        <v>80</v>
+      </c>
+      <c r="I388">
+        <v>1</v>
+      </c>
+      <c r="J388">
+        <v>2</v>
+      </c>
+      <c r="K388">
+        <v>3</v>
+      </c>
+      <c r="L388">
+        <v>1</v>
+      </c>
+      <c r="M388">
+        <v>3</v>
+      </c>
+      <c r="N388">
+        <v>4</v>
+      </c>
+      <c r="O388" t="s">
+        <v>147</v>
+      </c>
+      <c r="P388" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q388">
+        <v>5</v>
+      </c>
+      <c r="R388">
+        <v>4</v>
+      </c>
+      <c r="S388">
+        <v>9</v>
+      </c>
+      <c r="T388">
+        <v>2.85</v>
+      </c>
+      <c r="U388">
+        <v>2</v>
+      </c>
+      <c r="V388">
+        <v>3.7</v>
+      </c>
+      <c r="W388">
+        <v>1.44</v>
+      </c>
+      <c r="X388">
+        <v>2.55</v>
+      </c>
+      <c r="Y388">
+        <v>3</v>
+      </c>
+      <c r="Z388">
+        <v>1.34</v>
+      </c>
+      <c r="AA388">
+        <v>8</v>
+      </c>
+      <c r="AB388">
+        <v>1.07</v>
+      </c>
+      <c r="AC388">
+        <v>3.76</v>
+      </c>
+      <c r="AD388">
+        <v>5.36</v>
+      </c>
+      <c r="AE388">
+        <v>1.52</v>
+      </c>
+      <c r="AF388">
+        <v>1.07</v>
+      </c>
+      <c r="AG388">
+        <v>7.5</v>
+      </c>
+      <c r="AH388">
+        <v>1.36</v>
+      </c>
+      <c r="AI388">
+        <v>3</v>
+      </c>
+      <c r="AJ388">
+        <v>2.05</v>
+      </c>
+      <c r="AK388">
+        <v>1.67</v>
+      </c>
+      <c r="AL388">
+        <v>1.83</v>
+      </c>
+      <c r="AM388">
+        <v>1.85</v>
+      </c>
+      <c r="AN388">
+        <v>1.34</v>
+      </c>
+      <c r="AO388">
+        <v>1.32</v>
+      </c>
+      <c r="AP388">
+        <v>1.61</v>
+      </c>
+      <c r="AQ388">
+        <v>1.53</v>
+      </c>
+      <c r="AR388">
+        <v>1.13</v>
+      </c>
+      <c r="AS388">
+        <v>1.44</v>
+      </c>
+      <c r="AT388">
+        <v>1.24</v>
+      </c>
+      <c r="AU388">
+        <v>1.64</v>
+      </c>
+      <c r="AV388">
+        <v>1.5</v>
+      </c>
+      <c r="AW388">
+        <v>3.14</v>
+      </c>
+      <c r="AX388">
+        <v>1.75</v>
+      </c>
+      <c r="AY388">
+        <v>8</v>
+      </c>
+      <c r="AZ388">
+        <v>2.52</v>
+      </c>
+      <c r="BA388">
+        <v>1.26</v>
+      </c>
+      <c r="BB388">
+        <v>1.55</v>
+      </c>
+      <c r="BC388">
+        <v>1.85</v>
+      </c>
+      <c r="BD388">
+        <v>2.3</v>
+      </c>
+      <c r="BE388">
+        <v>3.3</v>
+      </c>
+      <c r="BF388">
+        <v>7</v>
+      </c>
+      <c r="BG388">
+        <v>9</v>
+      </c>
+      <c r="BH388">
+        <v>5</v>
+      </c>
+      <c r="BI388">
+        <v>5</v>
+      </c>
+      <c r="BJ388">
+        <v>12</v>
+      </c>
+      <c r="BK388">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="389" spans="1:63">
+      <c r="A389" s="1">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>2608466</v>
+      </c>
+      <c r="C389" t="s">
+        <v>63</v>
+      </c>
+      <c r="D389" t="s">
+        <v>64</v>
+      </c>
+      <c r="E389" s="2">
+        <v>44978.69791666666</v>
+      </c>
+      <c r="F389">
+        <v>29</v>
+      </c>
+      <c r="G389" t="s">
+        <v>72</v>
+      </c>
+      <c r="H389" t="s">
+        <v>71</v>
+      </c>
+      <c r="I389">
+        <v>1</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+      <c r="K389">
+        <v>1</v>
+      </c>
+      <c r="L389">
+        <v>1</v>
+      </c>
+      <c r="M389">
+        <v>0</v>
+      </c>
+      <c r="N389">
+        <v>1</v>
+      </c>
+      <c r="O389" t="s">
+        <v>203</v>
+      </c>
+      <c r="P389" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q389">
+        <v>8</v>
+      </c>
+      <c r="R389">
+        <v>2</v>
+      </c>
+      <c r="S389">
+        <v>10</v>
+      </c>
+      <c r="T389">
+        <v>2.3</v>
+      </c>
+      <c r="U389">
+        <v>2.15</v>
+      </c>
+      <c r="V389">
+        <v>4.4</v>
+      </c>
+      <c r="W389">
+        <v>1.41</v>
+      </c>
+      <c r="X389">
+        <v>2.65</v>
+      </c>
+      <c r="Y389">
+        <v>2.87</v>
+      </c>
+      <c r="Z389">
+        <v>1.36</v>
+      </c>
+      <c r="AA389">
+        <v>7.5</v>
+      </c>
+      <c r="AB389">
+        <v>1.07</v>
+      </c>
+      <c r="AC389">
+        <v>2.95</v>
+      </c>
+      <c r="AD389">
+        <v>2.88</v>
+      </c>
+      <c r="AE389">
+        <v>2.37</v>
+      </c>
+      <c r="AF389">
+        <v>1.06</v>
+      </c>
+      <c r="AG389">
+        <v>8.75</v>
+      </c>
+      <c r="AH389">
+        <v>1.31</v>
+      </c>
+      <c r="AI389">
+        <v>3.1</v>
+      </c>
+      <c r="AJ389">
+        <v>1.98</v>
+      </c>
+      <c r="AK389">
+        <v>1.89</v>
+      </c>
+      <c r="AL389">
+        <v>1.85</v>
+      </c>
+      <c r="AM389">
+        <v>1.85</v>
+      </c>
+      <c r="AN389">
+        <v>1.2</v>
+      </c>
+      <c r="AO389">
+        <v>1.29</v>
+      </c>
+      <c r="AP389">
+        <v>1.91</v>
+      </c>
+      <c r="AQ389">
+        <v>2.07</v>
+      </c>
+      <c r="AR389">
+        <v>0.88</v>
+      </c>
+      <c r="AS389">
+        <v>2.13</v>
+      </c>
+      <c r="AT389">
+        <v>0.82</v>
+      </c>
+      <c r="AU389">
+        <v>1.36</v>
+      </c>
+      <c r="AV389">
+        <v>1.15</v>
+      </c>
+      <c r="AW389">
+        <v>2.51</v>
+      </c>
+      <c r="AX389">
+        <v>1.69</v>
+      </c>
+      <c r="AY389">
+        <v>8</v>
+      </c>
+      <c r="AZ389">
+        <v>2.63</v>
+      </c>
+      <c r="BA389">
+        <v>1.23</v>
+      </c>
+      <c r="BB389">
+        <v>1.5</v>
+      </c>
+      <c r="BC389">
+        <v>1.8</v>
+      </c>
+      <c r="BD389">
+        <v>2.25</v>
+      </c>
+      <c r="BE389">
+        <v>3.1</v>
+      </c>
+      <c r="BF389">
+        <v>4</v>
+      </c>
+      <c r="BG389">
+        <v>0</v>
+      </c>
+      <c r="BH389">
+        <v>10</v>
+      </c>
+      <c r="BI389">
+        <v>7</v>
+      </c>
+      <c r="BJ389">
+        <v>14</v>
+      </c>
+      <c r="BK389">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:63">
+      <c r="A390" s="1">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>2608471</v>
+      </c>
+      <c r="C390" t="s">
+        <v>63</v>
+      </c>
+      <c r="D390" t="s">
+        <v>64</v>
+      </c>
+      <c r="E390" s="2">
+        <v>44978.69791666666</v>
+      </c>
+      <c r="F390">
+        <v>29</v>
+      </c>
+      <c r="G390" t="s">
+        <v>67</v>
+      </c>
+      <c r="H390" t="s">
+        <v>83</v>
+      </c>
+      <c r="I390">
+        <v>0</v>
+      </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
+      <c r="K390">
+        <v>0</v>
+      </c>
+      <c r="L390">
+        <v>1</v>
+      </c>
+      <c r="M390">
+        <v>1</v>
+      </c>
+      <c r="N390">
+        <v>2</v>
+      </c>
+      <c r="O390" t="s">
+        <v>139</v>
+      </c>
+      <c r="P390" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q390">
+        <v>3</v>
+      </c>
+      <c r="R390">
+        <v>6</v>
+      </c>
+      <c r="S390">
+        <v>9</v>
+      </c>
+      <c r="T390">
+        <v>3.1</v>
+      </c>
+      <c r="U390">
+        <v>2.1</v>
+      </c>
+      <c r="V390">
+        <v>3.25</v>
+      </c>
+      <c r="W390">
+        <v>1.4</v>
+      </c>
+      <c r="X390">
+        <v>2.75</v>
+      </c>
+      <c r="Y390">
+        <v>2.75</v>
+      </c>
+      <c r="Z390">
+        <v>1.4</v>
+      </c>
+      <c r="AA390">
+        <v>7</v>
+      </c>
+      <c r="AB390">
+        <v>1.08</v>
+      </c>
+      <c r="AC390">
+        <v>2.86</v>
+      </c>
+      <c r="AD390">
+        <v>3.35</v>
+      </c>
+      <c r="AE390">
+        <v>2.4</v>
+      </c>
+      <c r="AF390">
+        <v>1.06</v>
+      </c>
+      <c r="AG390">
+        <v>11</v>
+      </c>
+      <c r="AH390">
+        <v>1.31</v>
+      </c>
+      <c r="AI390">
+        <v>3.5</v>
+      </c>
+      <c r="AJ390">
+        <v>2.12</v>
+      </c>
+      <c r="AK390">
+        <v>1.67</v>
+      </c>
+      <c r="AL390">
+        <v>1.71</v>
+      </c>
+      <c r="AM390">
+        <v>1.98</v>
+      </c>
+      <c r="AN390">
+        <v>1.45</v>
+      </c>
+      <c r="AO390">
+        <v>1.35</v>
+      </c>
+      <c r="AP390">
+        <v>1.5</v>
+      </c>
+      <c r="AQ390">
+        <v>2.07</v>
+      </c>
+      <c r="AR390">
+        <v>2.07</v>
+      </c>
+      <c r="AS390">
+        <v>2</v>
+      </c>
+      <c r="AT390">
+        <v>2</v>
+      </c>
+      <c r="AU390">
+        <v>1.73</v>
+      </c>
+      <c r="AV390">
+        <v>1.36</v>
+      </c>
+      <c r="AW390">
+        <v>3.09</v>
+      </c>
+      <c r="AX390">
+        <v>1.91</v>
+      </c>
+      <c r="AY390">
+        <v>8</v>
+      </c>
+      <c r="AZ390">
+        <v>2.1</v>
+      </c>
+      <c r="BA390">
+        <v>1.3</v>
+      </c>
+      <c r="BB390">
+        <v>1.48</v>
+      </c>
+      <c r="BC390">
+        <v>1.73</v>
+      </c>
+      <c r="BD390">
+        <v>2.1</v>
+      </c>
+      <c r="BE390">
+        <v>2.7</v>
+      </c>
+      <c r="BF390">
+        <v>4</v>
+      </c>
+      <c r="BG390">
+        <v>4</v>
+      </c>
+      <c r="BH390">
+        <v>9</v>
+      </c>
+      <c r="BI390">
+        <v>14</v>
+      </c>
+      <c r="BJ390">
+        <v>13</v>
+      </c>
+      <c r="BK390">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="391" spans="1:63">
+      <c r="A391" s="1">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>2608472</v>
+      </c>
+      <c r="C391" t="s">
+        <v>63</v>
+      </c>
+      <c r="D391" t="s">
+        <v>64</v>
+      </c>
+      <c r="E391" s="2">
+        <v>44978.69791666666</v>
+      </c>
+      <c r="F391">
+        <v>29</v>
+      </c>
+      <c r="G391" t="s">
+        <v>78</v>
+      </c>
+      <c r="H391" t="s">
+        <v>77</v>
+      </c>
+      <c r="I391">
+        <v>2</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>2</v>
+      </c>
+      <c r="L391">
+        <v>3</v>
+      </c>
+      <c r="M391">
+        <v>1</v>
+      </c>
+      <c r="N391">
+        <v>4</v>
+      </c>
+      <c r="O391" t="s">
+        <v>314</v>
+      </c>
+      <c r="P391" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q391">
+        <v>6</v>
+      </c>
+      <c r="R391">
+        <v>1</v>
+      </c>
+      <c r="S391">
+        <v>7</v>
+      </c>
+      <c r="T391">
+        <v>2.15</v>
+      </c>
+      <c r="U391">
+        <v>2.15</v>
+      </c>
+      <c r="V391">
+        <v>5.5</v>
+      </c>
+      <c r="W391">
+        <v>1.36</v>
+      </c>
+      <c r="X391">
+        <v>3</v>
+      </c>
+      <c r="Y391">
+        <v>2.62</v>
+      </c>
+      <c r="Z391">
+        <v>1.44</v>
+      </c>
+      <c r="AA391">
+        <v>6.5</v>
+      </c>
+      <c r="AB391">
+        <v>1.1</v>
+      </c>
+      <c r="AC391">
+        <v>1.56</v>
+      </c>
+      <c r="AD391">
+        <v>3.7</v>
+      </c>
+      <c r="AE391">
+        <v>5.3</v>
+      </c>
+      <c r="AF391">
+        <v>1.06</v>
+      </c>
+      <c r="AG391">
+        <v>8</v>
+      </c>
+      <c r="AH391">
+        <v>1.33</v>
+      </c>
+      <c r="AI391">
+        <v>3.25</v>
+      </c>
+      <c r="AJ391">
+        <v>2.04</v>
+      </c>
+      <c r="AK391">
+        <v>1.84</v>
+      </c>
+      <c r="AL391">
+        <v>2</v>
+      </c>
+      <c r="AM391">
+        <v>1.72</v>
+      </c>
+      <c r="AN391">
+        <v>1.11</v>
+      </c>
+      <c r="AO391">
+        <v>1.25</v>
+      </c>
+      <c r="AP391">
+        <v>2.38</v>
+      </c>
+      <c r="AQ391">
+        <v>1.38</v>
+      </c>
+      <c r="AR391">
+        <v>1.2</v>
+      </c>
+      <c r="AS391">
+        <v>1.47</v>
+      </c>
+      <c r="AT391">
+        <v>1.13</v>
+      </c>
+      <c r="AU391">
+        <v>1.82</v>
+      </c>
+      <c r="AV391">
+        <v>1.27</v>
+      </c>
+      <c r="AW391">
+        <v>3.09</v>
+      </c>
+      <c r="AX391">
+        <v>1.37</v>
+      </c>
+      <c r="AY391">
+        <v>9</v>
+      </c>
+      <c r="AZ391">
+        <v>3.7</v>
+      </c>
+      <c r="BA391">
+        <v>1.2</v>
+      </c>
+      <c r="BB391">
+        <v>1.48</v>
+      </c>
+      <c r="BC391">
+        <v>1.73</v>
+      </c>
+      <c r="BD391">
+        <v>2.1</v>
+      </c>
+      <c r="BE391">
+        <v>2.7</v>
+      </c>
+      <c r="BF391">
+        <v>8</v>
+      </c>
+      <c r="BG391">
+        <v>3</v>
+      </c>
+      <c r="BH391">
+        <v>9</v>
+      </c>
+      <c r="BI391">
+        <v>8</v>
+      </c>
+      <c r="BJ391">
+        <v>17</v>
+      </c>
+      <c r="BK391">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="392" spans="1:63">
+      <c r="A392" s="1">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>2608475</v>
+      </c>
+      <c r="C392" t="s">
+        <v>63</v>
+      </c>
+      <c r="D392" t="s">
+        <v>64</v>
+      </c>
+      <c r="E392" s="2">
+        <v>44978.69791666666</v>
+      </c>
+      <c r="F392">
+        <v>29</v>
+      </c>
+      <c r="G392" t="s">
+        <v>66</v>
+      </c>
+      <c r="H392" t="s">
+        <v>75</v>
+      </c>
+      <c r="I392">
+        <v>1</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+      <c r="K392">
+        <v>1</v>
+      </c>
+      <c r="L392">
+        <v>2</v>
+      </c>
+      <c r="M392">
+        <v>1</v>
+      </c>
+      <c r="N392">
+        <v>3</v>
+      </c>
+      <c r="O392" t="s">
+        <v>315</v>
+      </c>
+      <c r="P392" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q392">
+        <v>4</v>
+      </c>
+      <c r="R392">
+        <v>6</v>
+      </c>
+      <c r="S392">
+        <v>10</v>
+      </c>
+      <c r="T392">
+        <v>3.5</v>
+      </c>
+      <c r="U392">
+        <v>2.05</v>
+      </c>
+      <c r="V392">
+        <v>2.95</v>
+      </c>
+      <c r="W392">
+        <v>1.42</v>
+      </c>
+      <c r="X392">
+        <v>2.7</v>
+      </c>
+      <c r="Y392">
+        <v>2.85</v>
+      </c>
+      <c r="Z392">
+        <v>1.38</v>
+      </c>
+      <c r="AA392">
+        <v>8</v>
+      </c>
+      <c r="AB392">
+        <v>1.08</v>
+      </c>
+      <c r="AC392">
+        <v>3.32</v>
+      </c>
+      <c r="AD392">
+        <v>3.35</v>
+      </c>
+      <c r="AE392">
+        <v>2.15</v>
+      </c>
+      <c r="AF392">
+        <v>1.06</v>
+      </c>
+      <c r="AG392">
+        <v>10.75</v>
+      </c>
+      <c r="AH392">
+        <v>1.32</v>
+      </c>
+      <c r="AI392">
+        <v>3.42</v>
+      </c>
+      <c r="AJ392">
+        <v>1.96</v>
+      </c>
+      <c r="AK392">
+        <v>1.79</v>
+      </c>
+      <c r="AL392">
+        <v>1.75</v>
+      </c>
+      <c r="AM392">
+        <v>2</v>
+      </c>
+      <c r="AN392">
+        <v>1.55</v>
+      </c>
+      <c r="AO392">
+        <v>1.35</v>
+      </c>
+      <c r="AP392">
+        <v>1.4</v>
+      </c>
+      <c r="AQ392">
+        <v>1.33</v>
+      </c>
+      <c r="AR392">
+        <v>1.63</v>
+      </c>
+      <c r="AS392">
+        <v>1.44</v>
+      </c>
+      <c r="AT392">
+        <v>1.53</v>
+      </c>
+      <c r="AU392">
+        <v>1.4</v>
+      </c>
+      <c r="AV392">
+        <v>1.26</v>
+      </c>
+      <c r="AW392">
+        <v>2.66</v>
+      </c>
+      <c r="AX392">
+        <v>2.2</v>
+      </c>
+      <c r="AY392">
+        <v>8</v>
+      </c>
+      <c r="AZ392">
+        <v>1.91</v>
+      </c>
+      <c r="BA392">
+        <v>1.29</v>
+      </c>
+      <c r="BB392">
+        <v>1.48</v>
+      </c>
+      <c r="BC392">
+        <v>1.73</v>
+      </c>
+      <c r="BD392">
+        <v>2.1</v>
+      </c>
+      <c r="BE392">
+        <v>2.7</v>
+      </c>
+      <c r="BF392">
+        <v>4</v>
+      </c>
+      <c r="BG392">
+        <v>6</v>
+      </c>
+      <c r="BH392">
+        <v>4</v>
+      </c>
+      <c r="BI392">
+        <v>10</v>
+      </c>
+      <c r="BJ392">
+        <v>8</v>
+      </c>
+      <c r="BK392">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="475">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -991,6 +991,18 @@
     <t>['33', '57']</t>
   </si>
   <si>
+    <t>['52', '70']</t>
+  </si>
+  <si>
+    <t>['20', '83']</t>
+  </si>
+  <si>
+    <t>['24', '45+1', '48', '51', '76']</t>
+  </si>
+  <si>
+    <t>['15', '70', '90']</t>
+  </si>
+  <si>
     <t>['18']</t>
   </si>
   <si>
@@ -1419,6 +1431,15 @@
   <si>
     <t>['4', '52']</t>
   </si>
+  <si>
+    <t>['38', '55', '65']</t>
+  </si>
+  <si>
+    <t>['31', '55', '59', '90+3']</t>
+  </si>
+  <si>
+    <t>['41', '53', '57', '68', '76']</t>
+  </si>
 </sst>
 </file>
 
@@ -1779,7 +1800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK407"/>
+  <dimension ref="A1:BK418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2023,7 +2044,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -2110,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT2">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2214,7 +2235,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2301,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT3">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2492,10 +2513,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT4">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2683,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT5">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2874,10 +2895,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT6">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -3065,10 +3086,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT7">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3259,7 +3280,7 @@
         <v>1.06</v>
       </c>
       <c r="AT8">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3447,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT9">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3641,7 +3662,7 @@
         <v>1.39</v>
       </c>
       <c r="AT10">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3742,7 +3763,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3829,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT11">
         <v>1.12</v>
@@ -4020,10 +4041,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT12">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4211,10 +4232,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT13">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4506,7 +4527,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4697,7 +4718,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -5843,7 +5864,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -6034,7 +6055,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -6503,10 +6524,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT25">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU25">
         <v>1.47</v>
@@ -6694,10 +6715,10 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT26">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU26">
         <v>0.72</v>
@@ -6885,10 +6906,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT27">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU27">
         <v>1.72</v>
@@ -7076,10 +7097,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT28">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU28">
         <v>1.54</v>
@@ -7180,7 +7201,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7267,10 +7288,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT29">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU29">
         <v>1.31</v>
@@ -7371,7 +7392,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -7458,10 +7479,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT30">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU30">
         <v>1.9</v>
@@ -7562,7 +7583,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7649,10 +7670,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT31">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU31">
         <v>1.62</v>
@@ -7753,7 +7774,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7843,7 +7864,7 @@
         <v>1.39</v>
       </c>
       <c r="AT32">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU32">
         <v>1.6</v>
@@ -8031,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT33">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU33">
         <v>0.37</v>
@@ -8225,7 +8246,7 @@
         <v>1.06</v>
       </c>
       <c r="AT34">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU34">
         <v>1.26</v>
@@ -8326,7 +8347,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8413,10 +8434,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT35">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU35">
         <v>1.69</v>
@@ -8604,7 +8625,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT36">
         <v>1.12</v>
@@ -8708,7 +8729,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -10045,7 +10066,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -11000,7 +11021,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -11191,7 +11212,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -12337,7 +12358,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -12997,10 +13018,10 @@
         <v>0.5</v>
       </c>
       <c r="AS59">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT59">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU59">
         <v>1.93</v>
@@ -13188,10 +13209,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT60">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU60">
         <v>1.51</v>
@@ -13292,7 +13313,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -13379,10 +13400,10 @@
         <v>2</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT61">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU61">
         <v>1.4</v>
@@ -13483,7 +13504,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -13570,10 +13591,10 @@
         <v>1.5</v>
       </c>
       <c r="AS62">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT62">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU62">
         <v>1.58</v>
@@ -13761,10 +13782,10 @@
         <v>0.5</v>
       </c>
       <c r="AS63">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT63">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU63">
         <v>1.47</v>
@@ -13865,7 +13886,7 @@
         <v>89</v>
       </c>
       <c r="P64" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13952,10 +13973,10 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT64">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU64">
         <v>1.64</v>
@@ -14056,7 +14077,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -14143,10 +14164,10 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT65">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU65">
         <v>1.13</v>
@@ -14247,7 +14268,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -14334,7 +14355,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT66">
         <v>1.12</v>
@@ -14525,10 +14546,10 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT67">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU67">
         <v>1.06</v>
@@ -14629,7 +14650,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14719,7 +14740,7 @@
         <v>1.06</v>
       </c>
       <c r="AT68">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU68">
         <v>1.27</v>
@@ -14907,10 +14928,10 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT69">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU69">
         <v>1.16</v>
@@ -15011,7 +15032,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15101,7 +15122,7 @@
         <v>1.39</v>
       </c>
       <c r="AT70">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU70">
         <v>1.38</v>
@@ -15393,7 +15414,7 @@
         <v>104</v>
       </c>
       <c r="P72" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15483,7 +15504,7 @@
         <v>1.11</v>
       </c>
       <c r="AT72">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU72">
         <v>1.43</v>
@@ -15862,7 +15883,7 @@
         <v>1.33</v>
       </c>
       <c r="AS74">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT74">
         <v>1.82</v>
@@ -16056,7 +16077,7 @@
         <v>2.12</v>
       </c>
       <c r="AT75">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU75">
         <v>2.19</v>
@@ -16157,7 +16178,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16244,7 +16265,7 @@
         <v>0.67</v>
       </c>
       <c r="AS76">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT76">
         <v>1.12</v>
@@ -16435,7 +16456,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT77">
         <v>1.39</v>
@@ -16629,7 +16650,7 @@
         <v>1.12</v>
       </c>
       <c r="AT78">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU78">
         <v>1.48</v>
@@ -16817,7 +16838,7 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT79">
         <v>0.78</v>
@@ -17202,7 +17223,7 @@
         <v>1.78</v>
       </c>
       <c r="AT81">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU81">
         <v>0</v>
@@ -17584,7 +17605,7 @@
         <v>1.71</v>
       </c>
       <c r="AT83">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU83">
         <v>2.15</v>
@@ -17772,7 +17793,7 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT84">
         <v>1.22</v>
@@ -17966,7 +17987,7 @@
         <v>1.41</v>
       </c>
       <c r="AT85">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU85">
         <v>1.29</v>
@@ -18157,7 +18178,7 @@
         <v>1</v>
       </c>
       <c r="AT86">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU86">
         <v>1.98</v>
@@ -18348,7 +18369,7 @@
         <v>1.56</v>
       </c>
       <c r="AT87">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU87">
         <v>2.31</v>
@@ -18536,7 +18557,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT88">
         <v>0.88</v>
@@ -18640,7 +18661,7 @@
         <v>151</v>
       </c>
       <c r="P89" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q89">
         <v>9</v>
@@ -18727,7 +18748,7 @@
         <v>2</v>
       </c>
       <c r="AS89">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT89">
         <v>1.13</v>
@@ -18831,7 +18852,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18918,10 +18939,10 @@
         <v>0.67</v>
       </c>
       <c r="AS90">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT90">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU90">
         <v>1.39</v>
@@ -19112,7 +19133,7 @@
         <v>2.06</v>
       </c>
       <c r="AT91">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU91">
         <v>1.28</v>
@@ -19213,7 +19234,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -19303,7 +19324,7 @@
         <v>1.39</v>
       </c>
       <c r="AT92">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU92">
         <v>1.36</v>
@@ -19404,7 +19425,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q93">
         <v>10</v>
@@ -19491,7 +19512,7 @@
         <v>1.33</v>
       </c>
       <c r="AS93">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT93">
         <v>0.78</v>
@@ -19682,7 +19703,7 @@
         <v>2</v>
       </c>
       <c r="AS94">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT94">
         <v>1.44</v>
@@ -19786,7 +19807,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19876,7 +19897,7 @@
         <v>1.39</v>
       </c>
       <c r="AT95">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU95">
         <v>1.36</v>
@@ -19977,7 +19998,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -20064,7 +20085,7 @@
         <v>0.25</v>
       </c>
       <c r="AS96">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT96">
         <v>0.88</v>
@@ -20168,7 +20189,7 @@
         <v>89</v>
       </c>
       <c r="P97" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -20258,7 +20279,7 @@
         <v>1.41</v>
       </c>
       <c r="AT97">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU97">
         <v>1.32</v>
@@ -20446,7 +20467,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT98">
         <v>1.22</v>
@@ -20550,7 +20571,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20637,7 +20658,7 @@
         <v>2.33</v>
       </c>
       <c r="AS99">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT99">
         <v>1.13</v>
@@ -20831,7 +20852,7 @@
         <v>1</v>
       </c>
       <c r="AT100">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU100">
         <v>1.81</v>
@@ -21019,7 +21040,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT101">
         <v>0.78</v>
@@ -21123,7 +21144,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -21213,7 +21234,7 @@
         <v>1.56</v>
       </c>
       <c r="AT102">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU102">
         <v>2.23</v>
@@ -21314,7 +21335,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -21401,10 +21422,10 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT103">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU103">
         <v>1.7</v>
@@ -21505,7 +21526,7 @@
         <v>161</v>
       </c>
       <c r="P104" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21592,10 +21613,10 @@
         <v>0.25</v>
       </c>
       <c r="AS104">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT104">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU104">
         <v>1.89</v>
@@ -21696,7 +21717,7 @@
         <v>162</v>
       </c>
       <c r="P105" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21786,7 +21807,7 @@
         <v>1.71</v>
       </c>
       <c r="AT105">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU105">
         <v>2.31</v>
@@ -21887,7 +21908,7 @@
         <v>89</v>
       </c>
       <c r="P106" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22359,7 +22380,7 @@
         <v>1.11</v>
       </c>
       <c r="AT108">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU108">
         <v>1.37</v>
@@ -22547,7 +22568,7 @@
         <v>1.5</v>
       </c>
       <c r="AS109">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT109">
         <v>1.17</v>
@@ -22738,7 +22759,7 @@
         <v>0.8</v>
       </c>
       <c r="AS110">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT110">
         <v>0.88</v>
@@ -22932,7 +22953,7 @@
         <v>2.44</v>
       </c>
       <c r="AT111">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU111">
         <v>1.84</v>
@@ -23120,7 +23141,7 @@
         <v>1.4</v>
       </c>
       <c r="AS112">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT112">
         <v>0.78</v>
@@ -23314,7 +23335,7 @@
         <v>1.12</v>
       </c>
       <c r="AT113">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU113">
         <v>1.69</v>
@@ -23415,7 +23436,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -23502,7 +23523,7 @@
         <v>1.8</v>
       </c>
       <c r="AS114">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT114">
         <v>1.44</v>
@@ -23693,10 +23714,10 @@
         <v>0.75</v>
       </c>
       <c r="AS115">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT115">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU115">
         <v>1.48</v>
@@ -23797,7 +23818,7 @@
         <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23887,7 +23908,7 @@
         <v>1</v>
       </c>
       <c r="AT116">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU116">
         <v>1.63</v>
@@ -24266,7 +24287,7 @@
         <v>0.67</v>
       </c>
       <c r="AS118">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT118">
         <v>0.78</v>
@@ -24370,7 +24391,7 @@
         <v>89</v>
       </c>
       <c r="P119" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24648,7 +24669,7 @@
         <v>0.25</v>
       </c>
       <c r="AS120">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT120">
         <v>1.22</v>
@@ -24842,7 +24863,7 @@
         <v>1.06</v>
       </c>
       <c r="AT121">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU121">
         <v>1.46</v>
@@ -24943,7 +24964,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -25033,7 +25054,7 @@
         <v>1.44</v>
       </c>
       <c r="AT122">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU122">
         <v>1.33</v>
@@ -25325,7 +25346,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25516,7 +25537,7 @@
         <v>89</v>
       </c>
       <c r="P125" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q125">
         <v>8</v>
@@ -25603,7 +25624,7 @@
         <v>2.5</v>
       </c>
       <c r="AS125">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT125">
         <v>1.13</v>
@@ -25707,7 +25728,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25797,7 +25818,7 @@
         <v>1.71</v>
       </c>
       <c r="AT126">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU126">
         <v>2.3</v>
@@ -25985,10 +26006,10 @@
         <v>2</v>
       </c>
       <c r="AS127">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT127">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU127">
         <v>1.66</v>
@@ -26179,7 +26200,7 @@
         <v>2.12</v>
       </c>
       <c r="AT128">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU128">
         <v>2.16</v>
@@ -26367,10 +26388,10 @@
         <v>1.6</v>
       </c>
       <c r="AS129">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT129">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU129">
         <v>1.51</v>
@@ -26471,7 +26492,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26749,7 +26770,7 @@
         <v>1.17</v>
       </c>
       <c r="AS131">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT131">
         <v>0.78</v>
@@ -26853,7 +26874,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q132">
         <v>9</v>
@@ -26943,7 +26964,7 @@
         <v>2.12</v>
       </c>
       <c r="AT132">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU132">
         <v>2.08</v>
@@ -27044,7 +27065,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -27131,7 +27152,7 @@
         <v>0</v>
       </c>
       <c r="AS133">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT133">
         <v>0.59</v>
@@ -27325,7 +27346,7 @@
         <v>1.44</v>
       </c>
       <c r="AT134">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU134">
         <v>1.35</v>
@@ -27513,7 +27534,7 @@
         <v>1.2</v>
       </c>
       <c r="AS135">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT135">
         <v>1.17</v>
@@ -27707,7 +27728,7 @@
         <v>2.06</v>
       </c>
       <c r="AT136">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU136">
         <v>1.24</v>
@@ -27898,7 +27919,7 @@
         <v>2.44</v>
       </c>
       <c r="AT137">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU137">
         <v>1.83</v>
@@ -28086,7 +28107,7 @@
         <v>0.2</v>
       </c>
       <c r="AS138">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT138">
         <v>1.22</v>
@@ -28277,10 +28298,10 @@
         <v>1.33</v>
       </c>
       <c r="AS139">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT139">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU139">
         <v>1.27</v>
@@ -28381,7 +28402,7 @@
         <v>181</v>
       </c>
       <c r="P140" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q140">
         <v>9</v>
@@ -28572,7 +28593,7 @@
         <v>94</v>
       </c>
       <c r="P141" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28659,10 +28680,10 @@
         <v>1.6</v>
       </c>
       <c r="AS141">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT141">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU141">
         <v>1.34</v>
@@ -29044,7 +29065,7 @@
         <v>1.12</v>
       </c>
       <c r="AT143">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU143">
         <v>1.65</v>
@@ -29235,7 +29256,7 @@
         <v>1.78</v>
       </c>
       <c r="AT144">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU144">
         <v>1.35</v>
@@ -29336,7 +29357,7 @@
         <v>184</v>
       </c>
       <c r="P145" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q145">
         <v>5</v>
@@ -29617,7 +29638,7 @@
         <v>1.11</v>
       </c>
       <c r="AT146">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU146">
         <v>1.38</v>
@@ -29718,7 +29739,7 @@
         <v>186</v>
       </c>
       <c r="P147" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -29808,7 +29829,7 @@
         <v>1.56</v>
       </c>
       <c r="AT147">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU147">
         <v>1.96</v>
@@ -29999,7 +30020,7 @@
         <v>1.12</v>
       </c>
       <c r="AT148">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU148">
         <v>1.6</v>
@@ -30100,7 +30121,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q149">
         <v>7</v>
@@ -30569,7 +30590,7 @@
         <v>0.2</v>
       </c>
       <c r="AS151">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT151">
         <v>1.39</v>
@@ -30760,7 +30781,7 @@
         <v>0.75</v>
       </c>
       <c r="AS152">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT152">
         <v>0.78</v>
@@ -30864,7 +30885,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -30951,7 +30972,7 @@
         <v>0.67</v>
       </c>
       <c r="AS153">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT153">
         <v>0.88</v>
@@ -31142,7 +31163,7 @@
         <v>0.4</v>
       </c>
       <c r="AS154">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT154">
         <v>1.18</v>
@@ -31333,7 +31354,7 @@
         <v>1</v>
       </c>
       <c r="AS155">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT155">
         <v>1.17</v>
@@ -31527,7 +31548,7 @@
         <v>1.44</v>
       </c>
       <c r="AT156">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU156">
         <v>1.37</v>
@@ -31628,7 +31649,7 @@
         <v>193</v>
       </c>
       <c r="P157" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31715,7 +31736,7 @@
         <v>0.2</v>
       </c>
       <c r="AS157">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT157">
         <v>0.59</v>
@@ -31906,10 +31927,10 @@
         <v>1.86</v>
       </c>
       <c r="AS158">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT158">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU158">
         <v>1.93</v>
@@ -32010,7 +32031,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q159">
         <v>1</v>
@@ -32097,7 +32118,7 @@
         <v>2.17</v>
       </c>
       <c r="AS159">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT159">
         <v>1.13</v>
@@ -32201,7 +32222,7 @@
         <v>196</v>
       </c>
       <c r="P160" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q160">
         <v>14</v>
@@ -32479,10 +32500,10 @@
         <v>0.57</v>
       </c>
       <c r="AS161">
+        <v>1.28</v>
+      </c>
+      <c r="AT161">
         <v>1.18</v>
-      </c>
-      <c r="AT161">
-        <v>1.06</v>
       </c>
       <c r="AU161">
         <v>1.57</v>
@@ -32673,7 +32694,7 @@
         <v>2.44</v>
       </c>
       <c r="AT162">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU162">
         <v>1.81</v>
@@ -32774,7 +32795,7 @@
         <v>89</v>
       </c>
       <c r="P163" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32864,7 +32885,7 @@
         <v>1</v>
       </c>
       <c r="AT163">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU163">
         <v>1.61</v>
@@ -32965,7 +32986,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q164">
         <v>9</v>
@@ -33052,7 +33073,7 @@
         <v>0.86</v>
       </c>
       <c r="AS164">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT164">
         <v>1.17</v>
@@ -33156,7 +33177,7 @@
         <v>89</v>
       </c>
       <c r="P165" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33347,7 +33368,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -33538,7 +33559,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33625,10 +33646,10 @@
         <v>1.67</v>
       </c>
       <c r="AS167">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT167">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU167">
         <v>1.32</v>
@@ -33729,7 +33750,7 @@
         <v>89</v>
       </c>
       <c r="P168" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q168">
         <v>7</v>
@@ -33819,7 +33840,7 @@
         <v>1.39</v>
       </c>
       <c r="AT168">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU168">
         <v>1.43</v>
@@ -34111,7 +34132,7 @@
         <v>201</v>
       </c>
       <c r="P170" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34201,7 +34222,7 @@
         <v>1.41</v>
       </c>
       <c r="AT170">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU170">
         <v>1.41</v>
@@ -34389,10 +34410,10 @@
         <v>1.71</v>
       </c>
       <c r="AS171">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT171">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU171">
         <v>1.25</v>
@@ -34493,7 +34514,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q172">
         <v>13</v>
@@ -34583,7 +34604,7 @@
         <v>1.71</v>
       </c>
       <c r="AT172">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU172">
         <v>2.08</v>
@@ -34962,7 +34983,7 @@
         <v>1.43</v>
       </c>
       <c r="AS174">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT174">
         <v>1.44</v>
@@ -35066,7 +35087,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -35448,7 +35469,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -35535,7 +35556,7 @@
         <v>0.17</v>
       </c>
       <c r="AS177">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT177">
         <v>1.39</v>
@@ -35729,7 +35750,7 @@
         <v>1.78</v>
       </c>
       <c r="AT178">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU178">
         <v>1.1</v>
@@ -35920,7 +35941,7 @@
         <v>1.11</v>
       </c>
       <c r="AT179">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU179">
         <v>1.43</v>
@@ -36108,7 +36129,7 @@
         <v>1</v>
       </c>
       <c r="AS180">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT180">
         <v>1.22</v>
@@ -36212,7 +36233,7 @@
         <v>208</v>
       </c>
       <c r="P181" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q181">
         <v>1</v>
@@ -36302,7 +36323,7 @@
         <v>1.06</v>
       </c>
       <c r="AT181">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU181">
         <v>1.54</v>
@@ -36403,7 +36424,7 @@
         <v>209</v>
       </c>
       <c r="P182" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -36490,7 +36511,7 @@
         <v>0.71</v>
       </c>
       <c r="AS182">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT182">
         <v>1.18</v>
@@ -36594,7 +36615,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36681,7 +36702,7 @@
         <v>1</v>
       </c>
       <c r="AS183">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT183">
         <v>1.12</v>
@@ -36872,7 +36893,7 @@
         <v>0.17</v>
       </c>
       <c r="AS184">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT184">
         <v>0.59</v>
@@ -36976,7 +36997,7 @@
         <v>89</v>
       </c>
       <c r="P185" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q185">
         <v>9</v>
@@ -37066,7 +37087,7 @@
         <v>1.12</v>
       </c>
       <c r="AT185">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU185">
         <v>1.86</v>
@@ -37167,7 +37188,7 @@
         <v>211</v>
       </c>
       <c r="P186" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -37254,10 +37275,10 @@
         <v>1.63</v>
       </c>
       <c r="AS186">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT186">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU186">
         <v>1.55</v>
@@ -37445,10 +37466,10 @@
         <v>1.38</v>
       </c>
       <c r="AS187">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT187">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU187">
         <v>1.52</v>
@@ -37549,7 +37570,7 @@
         <v>213</v>
       </c>
       <c r="P188" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37830,7 +37851,7 @@
         <v>2.06</v>
       </c>
       <c r="AT189">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU189">
         <v>1.33</v>
@@ -37931,7 +37952,7 @@
         <v>215</v>
       </c>
       <c r="P190" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -38021,7 +38042,7 @@
         <v>2.12</v>
       </c>
       <c r="AT190">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU190">
         <v>2.2</v>
@@ -38400,7 +38421,7 @@
         <v>2</v>
       </c>
       <c r="AS192">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT192">
         <v>1.82</v>
@@ -38504,7 +38525,7 @@
         <v>218</v>
       </c>
       <c r="P193" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q193">
         <v>6</v>
@@ -38785,7 +38806,7 @@
         <v>2.44</v>
       </c>
       <c r="AT194">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU194">
         <v>1.77</v>
@@ -38976,7 +38997,7 @@
         <v>1.11</v>
       </c>
       <c r="AT195">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU195">
         <v>1.44</v>
@@ -39167,7 +39188,7 @@
         <v>1.44</v>
       </c>
       <c r="AT196">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU196">
         <v>1.4</v>
@@ -39268,7 +39289,7 @@
         <v>89</v>
       </c>
       <c r="P197" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q197">
         <v>8</v>
@@ -39358,7 +39379,7 @@
         <v>1.71</v>
       </c>
       <c r="AT197">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU197">
         <v>1.99</v>
@@ -39546,7 +39567,7 @@
         <v>0.88</v>
       </c>
       <c r="AS198">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT198">
         <v>1.22</v>
@@ -39928,7 +39949,7 @@
         <v>1.25</v>
       </c>
       <c r="AS200">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT200">
         <v>1.44</v>
@@ -40310,7 +40331,7 @@
         <v>0.71</v>
       </c>
       <c r="AS202">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT202">
         <v>1.22</v>
@@ -40414,7 +40435,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40692,7 +40713,7 @@
         <v>1</v>
       </c>
       <c r="AS204">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT204">
         <v>0.78</v>
@@ -40886,7 +40907,7 @@
         <v>2.44</v>
       </c>
       <c r="AT205">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU205">
         <v>1.68</v>
@@ -40987,7 +41008,7 @@
         <v>226</v>
       </c>
       <c r="P206" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -41077,7 +41098,7 @@
         <v>1.56</v>
       </c>
       <c r="AT206">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU206">
         <v>1.93</v>
@@ -41268,7 +41289,7 @@
         <v>1</v>
       </c>
       <c r="AT207">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU207">
         <v>1.52</v>
@@ -41456,10 +41477,10 @@
         <v>0.75</v>
       </c>
       <c r="AS208">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT208">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU208">
         <v>1.93</v>
@@ -41560,7 +41581,7 @@
         <v>178</v>
       </c>
       <c r="P209" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q209">
         <v>7</v>
@@ -42223,7 +42244,7 @@
         <v>1.44</v>
       </c>
       <c r="AT212">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU212">
         <v>1.39</v>
@@ -42411,10 +42432,10 @@
         <v>1.22</v>
       </c>
       <c r="AS213">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT213">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU213">
         <v>1.33</v>
@@ -42605,7 +42626,7 @@
         <v>1.56</v>
       </c>
       <c r="AT214">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU214">
         <v>1.9</v>
@@ -42706,7 +42727,7 @@
         <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -42793,7 +42814,7 @@
         <v>1.22</v>
       </c>
       <c r="AS215">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT215">
         <v>1.44</v>
@@ -42897,7 +42918,7 @@
         <v>93</v>
       </c>
       <c r="P216" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -42984,7 +43005,7 @@
         <v>1.11</v>
       </c>
       <c r="AS216">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT216">
         <v>1.22</v>
@@ -43088,7 +43109,7 @@
         <v>229</v>
       </c>
       <c r="P217" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q217">
         <v>7</v>
@@ -43470,7 +43491,7 @@
         <v>199</v>
       </c>
       <c r="P219" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43560,7 +43581,7 @@
         <v>2.06</v>
       </c>
       <c r="AT219">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU219">
         <v>1.36</v>
@@ -43661,7 +43682,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q220">
         <v>10</v>
@@ -43751,7 +43772,7 @@
         <v>2.12</v>
       </c>
       <c r="AT220">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU220">
         <v>2.22</v>
@@ -43852,7 +43873,7 @@
         <v>231</v>
       </c>
       <c r="P221" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q221">
         <v>4</v>
@@ -43942,7 +43963,7 @@
         <v>1.12</v>
       </c>
       <c r="AT221">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU221">
         <v>1.81</v>
@@ -44130,10 +44151,10 @@
         <v>1.11</v>
       </c>
       <c r="AS222">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT222">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU222">
         <v>1.48</v>
@@ -44234,7 +44255,7 @@
         <v>92</v>
       </c>
       <c r="P223" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q223">
         <v>2</v>
@@ -44321,10 +44342,10 @@
         <v>1.22</v>
       </c>
       <c r="AS223">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT223">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU223">
         <v>1.51</v>
@@ -44703,7 +44724,7 @@
         <v>0.78</v>
       </c>
       <c r="AS225">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT225">
         <v>0.88</v>
@@ -44894,7 +44915,7 @@
         <v>1</v>
       </c>
       <c r="AS226">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT226">
         <v>1.18</v>
@@ -44998,7 +45019,7 @@
         <v>232</v>
       </c>
       <c r="P227" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q227">
         <v>6</v>
@@ -45276,10 +45297,10 @@
         <v>0.89</v>
       </c>
       <c r="AS228">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT228">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU228">
         <v>1.43</v>
@@ -45467,7 +45488,7 @@
         <v>0.29</v>
       </c>
       <c r="AS229">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT229">
         <v>0.59</v>
@@ -45762,7 +45783,7 @@
         <v>89</v>
       </c>
       <c r="P231" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q231">
         <v>12</v>
@@ -45953,7 +45974,7 @@
         <v>147</v>
       </c>
       <c r="P232" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q232">
         <v>14</v>
@@ -46144,7 +46165,7 @@
         <v>235</v>
       </c>
       <c r="P233" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q233">
         <v>4</v>
@@ -46231,7 +46252,7 @@
         <v>1</v>
       </c>
       <c r="AS233">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT233">
         <v>1.18</v>
@@ -46335,7 +46356,7 @@
         <v>89</v>
       </c>
       <c r="P234" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q234">
         <v>2</v>
@@ -46526,7 +46547,7 @@
         <v>236</v>
       </c>
       <c r="P235" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q235">
         <v>12</v>
@@ -46616,7 +46637,7 @@
         <v>1.11</v>
       </c>
       <c r="AT235">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU235">
         <v>1.31</v>
@@ -47186,10 +47207,10 @@
         <v>0.78</v>
       </c>
       <c r="AS238">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT238">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU238">
         <v>1.5</v>
@@ -47568,7 +47589,7 @@
         <v>1.2</v>
       </c>
       <c r="AS240">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT240">
         <v>0.78</v>
@@ -47762,7 +47783,7 @@
         <v>1.71</v>
       </c>
       <c r="AT241">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU241">
         <v>1.93</v>
@@ -47863,7 +47884,7 @@
         <v>243</v>
       </c>
       <c r="P242" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q242">
         <v>2</v>
@@ -48054,7 +48075,7 @@
         <v>182</v>
       </c>
       <c r="P243" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q243">
         <v>3</v>
@@ -48245,7 +48266,7 @@
         <v>175</v>
       </c>
       <c r="P244" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q244">
         <v>12</v>
@@ -48332,7 +48353,7 @@
         <v>1</v>
       </c>
       <c r="AS244">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT244">
         <v>0.78</v>
@@ -48523,10 +48544,10 @@
         <v>1.3</v>
       </c>
       <c r="AS245">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT245">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU245">
         <v>1.32</v>
@@ -48627,7 +48648,7 @@
         <v>93</v>
       </c>
       <c r="P246" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q246">
         <v>4</v>
@@ -48717,7 +48738,7 @@
         <v>1.39</v>
       </c>
       <c r="AT246">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU246">
         <v>1.38</v>
@@ -48905,10 +48926,10 @@
         <v>1.7</v>
       </c>
       <c r="AS247">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT247">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU247">
         <v>1.57</v>
@@ -49290,7 +49311,7 @@
         <v>1.78</v>
       </c>
       <c r="AT249">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU249">
         <v>1.44</v>
@@ -49669,7 +49690,7 @@
         <v>0.9</v>
       </c>
       <c r="AS251">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT251">
         <v>1.22</v>
@@ -49773,7 +49794,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q252">
         <v>2</v>
@@ -49860,10 +49881,10 @@
         <v>1.8</v>
       </c>
       <c r="AS252">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT252">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU252">
         <v>1.46</v>
@@ -49964,7 +49985,7 @@
         <v>154</v>
       </c>
       <c r="P253" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q253">
         <v>7</v>
@@ -50051,10 +50072,10 @@
         <v>0.9</v>
       </c>
       <c r="AS253">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT253">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU253">
         <v>1.48</v>
@@ -50245,7 +50266,7 @@
         <v>2.06</v>
       </c>
       <c r="AT254">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU254">
         <v>1.36</v>
@@ -50346,7 +50367,7 @@
         <v>89</v>
       </c>
       <c r="P255" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q255">
         <v>7</v>
@@ -50436,7 +50457,7 @@
         <v>1.41</v>
       </c>
       <c r="AT255">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU255">
         <v>1.52</v>
@@ -50537,7 +50558,7 @@
         <v>249</v>
       </c>
       <c r="P256" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -51006,7 +51027,7 @@
         <v>1.7</v>
       </c>
       <c r="AS258">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT258">
         <v>1.82</v>
@@ -51197,7 +51218,7 @@
         <v>1.4</v>
       </c>
       <c r="AS259">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT259">
         <v>1.13</v>
@@ -51391,7 +51412,7 @@
         <v>1.06</v>
       </c>
       <c r="AT260">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU260">
         <v>1.5</v>
@@ -51492,7 +51513,7 @@
         <v>89</v>
       </c>
       <c r="P261" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q261">
         <v>2</v>
@@ -51582,7 +51603,7 @@
         <v>1.12</v>
       </c>
       <c r="AT261">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU261">
         <v>1.81</v>
@@ -51770,7 +51791,7 @@
         <v>1.2</v>
       </c>
       <c r="AS262">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT262">
         <v>1.18</v>
@@ -51874,7 +51895,7 @@
         <v>118</v>
       </c>
       <c r="P263" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q263">
         <v>5</v>
@@ -51961,7 +51982,7 @@
         <v>1.11</v>
       </c>
       <c r="AS263">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT263">
         <v>1.12</v>
@@ -52065,7 +52086,7 @@
         <v>251</v>
       </c>
       <c r="P264" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q264">
         <v>0</v>
@@ -52155,7 +52176,7 @@
         <v>1.11</v>
       </c>
       <c r="AT264">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU264">
         <v>1.4</v>
@@ -52256,7 +52277,7 @@
         <v>252</v>
       </c>
       <c r="P265" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q265">
         <v>5</v>
@@ -52346,7 +52367,7 @@
         <v>1.78</v>
       </c>
       <c r="AT265">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU265">
         <v>1.47</v>
@@ -52447,7 +52468,7 @@
         <v>89</v>
       </c>
       <c r="P266" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q266">
         <v>7</v>
@@ -52534,7 +52555,7 @@
         <v>1.27</v>
       </c>
       <c r="AS266">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT266">
         <v>1.22</v>
@@ -52725,7 +52746,7 @@
         <v>1.09</v>
       </c>
       <c r="AS267">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT267">
         <v>0.78</v>
@@ -53020,7 +53041,7 @@
         <v>254</v>
       </c>
       <c r="P269" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q269">
         <v>3</v>
@@ -53110,7 +53131,7 @@
         <v>1.44</v>
       </c>
       <c r="AT269">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU269">
         <v>1.4</v>
@@ -53402,7 +53423,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q271">
         <v>4</v>
@@ -53492,7 +53513,7 @@
         <v>1</v>
       </c>
       <c r="AT271">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU271">
         <v>1.51</v>
@@ -53784,7 +53805,7 @@
         <v>89</v>
       </c>
       <c r="P273" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q273">
         <v>6</v>
@@ -53975,7 +53996,7 @@
         <v>224</v>
       </c>
       <c r="P274" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q274">
         <v>8</v>
@@ -54062,10 +54083,10 @@
         <v>1.82</v>
       </c>
       <c r="AS274">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT274">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU274">
         <v>1.38</v>
@@ -54357,7 +54378,7 @@
         <v>89</v>
       </c>
       <c r="P276" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q276">
         <v>4</v>
@@ -54444,7 +54465,7 @@
         <v>0.82</v>
       </c>
       <c r="AS276">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT276">
         <v>1.22</v>
@@ -54548,7 +54569,7 @@
         <v>258</v>
       </c>
       <c r="P277" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q277">
         <v>7</v>
@@ -54635,7 +54656,7 @@
         <v>1.25</v>
       </c>
       <c r="AS277">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT277">
         <v>1.17</v>
@@ -54739,7 +54760,7 @@
         <v>89</v>
       </c>
       <c r="P278" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q278">
         <v>8</v>
@@ -55208,7 +55229,7 @@
         <v>1.36</v>
       </c>
       <c r="AS280">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT280">
         <v>1.13</v>
@@ -55312,7 +55333,7 @@
         <v>94</v>
       </c>
       <c r="P281" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q281">
         <v>2</v>
@@ -55503,7 +55524,7 @@
         <v>261</v>
       </c>
       <c r="P282" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q282">
         <v>3</v>
@@ -55590,10 +55611,10 @@
         <v>1.42</v>
       </c>
       <c r="AS282">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT282">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU282">
         <v>1.52</v>
@@ -55784,7 +55805,7 @@
         <v>2.12</v>
       </c>
       <c r="AT283">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU283">
         <v>2.21</v>
@@ -55972,10 +55993,10 @@
         <v>1.42</v>
       </c>
       <c r="AS284">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT284">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU284">
         <v>1.63</v>
@@ -56076,7 +56097,7 @@
         <v>263</v>
       </c>
       <c r="P285" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q285">
         <v>6</v>
@@ -56163,10 +56184,10 @@
         <v>1.55</v>
       </c>
       <c r="AS285">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT285">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU285">
         <v>1.92</v>
@@ -56357,7 +56378,7 @@
         <v>2.06</v>
       </c>
       <c r="AT286">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU286">
         <v>1.33</v>
@@ -56548,7 +56569,7 @@
         <v>2.44</v>
       </c>
       <c r="AT287">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU287">
         <v>1.8</v>
@@ -56649,7 +56670,7 @@
         <v>89</v>
       </c>
       <c r="P288" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q288">
         <v>6</v>
@@ -56927,10 +56948,10 @@
         <v>1.09</v>
       </c>
       <c r="AS289">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT289">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU289">
         <v>1.74</v>
@@ -57118,7 +57139,7 @@
         <v>0.92</v>
       </c>
       <c r="AS290">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT290">
         <v>0.78</v>
@@ -57413,7 +57434,7 @@
         <v>267</v>
       </c>
       <c r="P292" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="Q292">
         <v>1</v>
@@ -57500,7 +57521,7 @@
         <v>1.5</v>
       </c>
       <c r="AS292">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT292">
         <v>1.44</v>
@@ -57604,7 +57625,7 @@
         <v>141</v>
       </c>
       <c r="P293" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q293">
         <v>1</v>
@@ -57691,7 +57712,7 @@
         <v>1.08</v>
       </c>
       <c r="AS293">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT293">
         <v>1.39</v>
@@ -57885,7 +57906,7 @@
         <v>1.71</v>
       </c>
       <c r="AT294">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU294">
         <v>1.92</v>
@@ -57986,7 +58007,7 @@
         <v>247</v>
       </c>
       <c r="P295" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Q295">
         <v>5</v>
@@ -58076,7 +58097,7 @@
         <v>1.06</v>
       </c>
       <c r="AT295">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU295">
         <v>1.45</v>
@@ -58267,7 +58288,7 @@
         <v>1.12</v>
       </c>
       <c r="AT296">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU296">
         <v>1.7</v>
@@ -58458,7 +58479,7 @@
         <v>1.56</v>
       </c>
       <c r="AT297">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU297">
         <v>1.86</v>
@@ -59028,7 +59049,7 @@
         <v>1</v>
       </c>
       <c r="AS300">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT300">
         <v>0.88</v>
@@ -59132,7 +59153,7 @@
         <v>148</v>
       </c>
       <c r="P301" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="Q301">
         <v>1</v>
@@ -59410,7 +59431,7 @@
         <v>0.85</v>
       </c>
       <c r="AS302">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT302">
         <v>0.78</v>
@@ -59514,7 +59535,7 @@
         <v>154</v>
       </c>
       <c r="P303" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="Q303">
         <v>1</v>
@@ -59601,7 +59622,7 @@
         <v>1.67</v>
       </c>
       <c r="AS303">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT303">
         <v>1.82</v>
@@ -59795,7 +59816,7 @@
         <v>1.78</v>
       </c>
       <c r="AT304">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU304">
         <v>1.62</v>
@@ -59896,7 +59917,7 @@
         <v>89</v>
       </c>
       <c r="P305" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q305">
         <v>8</v>
@@ -60087,7 +60108,7 @@
         <v>273</v>
       </c>
       <c r="P306" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q306">
         <v>4</v>
@@ -60177,7 +60198,7 @@
         <v>1.41</v>
       </c>
       <c r="AT306">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU306">
         <v>1.61</v>
@@ -60368,7 +60389,7 @@
         <v>1.71</v>
       </c>
       <c r="AT307">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU307">
         <v>1.93</v>
@@ -60469,7 +60490,7 @@
         <v>274</v>
       </c>
       <c r="P308" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="Q308">
         <v>7</v>
@@ -60556,7 +60577,7 @@
         <v>1.33</v>
       </c>
       <c r="AS308">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT308">
         <v>1.18</v>
@@ -60660,7 +60681,7 @@
         <v>275</v>
       </c>
       <c r="P309" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Q309">
         <v>9</v>
@@ -60941,7 +60962,7 @@
         <v>1.12</v>
       </c>
       <c r="AT310">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU310">
         <v>1.65</v>
@@ -61042,7 +61063,7 @@
         <v>276</v>
       </c>
       <c r="P311" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q311">
         <v>8</v>
@@ -61132,7 +61153,7 @@
         <v>1.12</v>
       </c>
       <c r="AT311">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU311">
         <v>1.7</v>
@@ -61320,7 +61341,7 @@
         <v>1.15</v>
       </c>
       <c r="AS312">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT312">
         <v>1.17</v>
@@ -61424,7 +61445,7 @@
         <v>89</v>
       </c>
       <c r="P313" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q313">
         <v>4</v>
@@ -61514,7 +61535,7 @@
         <v>1</v>
       </c>
       <c r="AT313">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU313">
         <v>1.48</v>
@@ -61702,7 +61723,7 @@
         <v>1.08</v>
       </c>
       <c r="AS314">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT314">
         <v>0.78</v>
@@ -61806,7 +61827,7 @@
         <v>224</v>
       </c>
       <c r="P315" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="Q315">
         <v>1</v>
@@ -61893,10 +61914,10 @@
         <v>1.15</v>
       </c>
       <c r="AS315">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT315">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU315">
         <v>1.49</v>
@@ -62087,7 +62108,7 @@
         <v>2.12</v>
       </c>
       <c r="AT316">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU316">
         <v>2.12</v>
@@ -62278,7 +62299,7 @@
         <v>2.06</v>
       </c>
       <c r="AT317">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU317">
         <v>1.31</v>
@@ -62466,7 +62487,7 @@
         <v>1</v>
       </c>
       <c r="AS318">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT318">
         <v>1.22</v>
@@ -62570,7 +62591,7 @@
         <v>219</v>
       </c>
       <c r="P319" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q319">
         <v>3</v>
@@ -62657,7 +62678,7 @@
         <v>1.25</v>
       </c>
       <c r="AS319">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT319">
         <v>1.13</v>
@@ -63042,7 +63063,7 @@
         <v>2.44</v>
       </c>
       <c r="AT321">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU321">
         <v>1.76</v>
@@ -63143,7 +63164,7 @@
         <v>281</v>
       </c>
       <c r="P322" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="Q322">
         <v>5</v>
@@ -63233,7 +63254,7 @@
         <v>1.44</v>
       </c>
       <c r="AT322">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU322">
         <v>1.39</v>
@@ -63334,7 +63355,7 @@
         <v>282</v>
       </c>
       <c r="P323" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="Q323">
         <v>2</v>
@@ -63421,7 +63442,7 @@
         <v>1.33</v>
       </c>
       <c r="AS323">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT323">
         <v>1.12</v>
@@ -63907,7 +63928,7 @@
         <v>285</v>
       </c>
       <c r="P326" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q326">
         <v>4</v>
@@ -63997,7 +64018,7 @@
         <v>1.78</v>
       </c>
       <c r="AT326">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU326">
         <v>1.63</v>
@@ -64098,7 +64119,7 @@
         <v>89</v>
       </c>
       <c r="P327" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="Q327">
         <v>7</v>
@@ -64185,7 +64206,7 @@
         <v>0.92</v>
       </c>
       <c r="AS327">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT327">
         <v>1.22</v>
@@ -64379,7 +64400,7 @@
         <v>1.12</v>
       </c>
       <c r="AT328">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU328">
         <v>1.69</v>
@@ -64570,7 +64591,7 @@
         <v>1.12</v>
       </c>
       <c r="AT329">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU329">
         <v>1.66</v>
@@ -64671,7 +64692,7 @@
         <v>269</v>
       </c>
       <c r="P330" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q330">
         <v>9</v>
@@ -64758,7 +64779,7 @@
         <v>0.79</v>
       </c>
       <c r="AS330">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT330">
         <v>0.78</v>
@@ -64862,7 +64883,7 @@
         <v>177</v>
       </c>
       <c r="P331" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="Q331">
         <v>5</v>
@@ -64952,7 +64973,7 @@
         <v>1.11</v>
       </c>
       <c r="AT331">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU331">
         <v>1.37</v>
@@ -65053,7 +65074,7 @@
         <v>89</v>
       </c>
       <c r="P332" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="Q332">
         <v>3</v>
@@ -65140,7 +65161,7 @@
         <v>1.77</v>
       </c>
       <c r="AS332">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT332">
         <v>1.82</v>
@@ -65522,7 +65543,7 @@
         <v>1.36</v>
       </c>
       <c r="AS334">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT334">
         <v>1.39</v>
@@ -65713,7 +65734,7 @@
         <v>1.43</v>
       </c>
       <c r="AS335">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT335">
         <v>1.22</v>
@@ -65907,7 +65928,7 @@
         <v>1.39</v>
       </c>
       <c r="AT336">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU336">
         <v>1.46</v>
@@ -66286,7 +66307,7 @@
         <v>0.92</v>
       </c>
       <c r="AS338">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT338">
         <v>0.88</v>
@@ -66480,7 +66501,7 @@
         <v>1.71</v>
       </c>
       <c r="AT339">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU339">
         <v>1.93</v>
@@ -66668,10 +66689,10 @@
         <v>1.93</v>
       </c>
       <c r="AS340">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT340">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU340">
         <v>1.44</v>
@@ -66772,7 +66793,7 @@
         <v>89</v>
       </c>
       <c r="P341" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="Q341">
         <v>5</v>
@@ -66862,7 +66883,7 @@
         <v>1.56</v>
       </c>
       <c r="AT341">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU341">
         <v>1.82</v>
@@ -66963,7 +66984,7 @@
         <v>292</v>
       </c>
       <c r="P342" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="Q342">
         <v>1</v>
@@ -67053,7 +67074,7 @@
         <v>1.41</v>
       </c>
       <c r="AT342">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU342">
         <v>1.57</v>
@@ -67154,7 +67175,7 @@
         <v>293</v>
       </c>
       <c r="P343" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q343">
         <v>4</v>
@@ -67345,7 +67366,7 @@
         <v>171</v>
       </c>
       <c r="P344" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="Q344">
         <v>5</v>
@@ -67435,7 +67456,7 @@
         <v>1</v>
       </c>
       <c r="AT344">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU344">
         <v>1.44</v>
@@ -67623,7 +67644,7 @@
         <v>1.57</v>
       </c>
       <c r="AS345">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT345">
         <v>1.44</v>
@@ -67814,7 +67835,7 @@
         <v>1</v>
       </c>
       <c r="AS346">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT346">
         <v>0.78</v>
@@ -68005,10 +68026,10 @@
         <v>1.29</v>
       </c>
       <c r="AS347">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT347">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU347">
         <v>1.86</v>
@@ -68109,7 +68130,7 @@
         <v>151</v>
       </c>
       <c r="P348" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q348">
         <v>8</v>
@@ -68196,10 +68217,10 @@
         <v>1.27</v>
       </c>
       <c r="AS348">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT348">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU348">
         <v>1.27</v>
@@ -68578,7 +68599,7 @@
         <v>1.23</v>
       </c>
       <c r="AS350">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT350">
         <v>1.13</v>
@@ -68682,7 +68703,7 @@
         <v>296</v>
       </c>
       <c r="P351" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="Q351">
         <v>3</v>
@@ -69151,10 +69172,10 @@
         <v>0.73</v>
       </c>
       <c r="AS353">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT353">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU353">
         <v>1.5</v>
@@ -69345,7 +69366,7 @@
         <v>2.44</v>
       </c>
       <c r="AT354">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU354">
         <v>1.76</v>
@@ -69446,7 +69467,7 @@
         <v>154</v>
       </c>
       <c r="P355" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q355">
         <v>7</v>
@@ -69533,7 +69554,7 @@
         <v>1.27</v>
       </c>
       <c r="AS355">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT355">
         <v>1.39</v>
@@ -69637,7 +69658,7 @@
         <v>219</v>
       </c>
       <c r="P356" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q356">
         <v>4</v>
@@ -69918,7 +69939,7 @@
         <v>2.12</v>
       </c>
       <c r="AT357">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU357">
         <v>2.02</v>
@@ -70297,7 +70318,7 @@
         <v>1.07</v>
       </c>
       <c r="AS359">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT359">
         <v>1.17</v>
@@ -70488,7 +70509,7 @@
         <v>0.71</v>
       </c>
       <c r="AS360">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT360">
         <v>0.59</v>
@@ -70682,7 +70703,7 @@
         <v>1.44</v>
       </c>
       <c r="AT361">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU361">
         <v>1.4</v>
@@ -70974,7 +70995,7 @@
         <v>198</v>
       </c>
       <c r="P363" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q363">
         <v>5</v>
@@ -71165,7 +71186,7 @@
         <v>89</v>
       </c>
       <c r="P364" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q364">
         <v>2</v>
@@ -71356,7 +71377,7 @@
         <v>301</v>
       </c>
       <c r="P365" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q365">
         <v>5</v>
@@ -71738,7 +71759,7 @@
         <v>89</v>
       </c>
       <c r="P367" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="Q367">
         <v>5</v>
@@ -71929,7 +71950,7 @@
         <v>302</v>
       </c>
       <c r="P368" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q368">
         <v>5</v>
@@ -72120,7 +72141,7 @@
         <v>303</v>
       </c>
       <c r="P369" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="Q369">
         <v>4</v>
@@ -73075,7 +73096,7 @@
         <v>307</v>
       </c>
       <c r="P374" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="Q374">
         <v>6</v>
@@ -73544,10 +73565,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS376">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT376">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU376">
         <v>1.61</v>
@@ -73648,7 +73669,7 @@
         <v>309</v>
       </c>
       <c r="P377" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Q377">
         <v>4</v>
@@ -73735,10 +73756,10 @@
         <v>1.87</v>
       </c>
       <c r="AS377">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT377">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU377">
         <v>1.76</v>
@@ -73929,7 +73950,7 @@
         <v>1.39</v>
       </c>
       <c r="AT378">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU378">
         <v>1.43</v>
@@ -74117,10 +74138,10 @@
         <v>1.19</v>
       </c>
       <c r="AS379">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT379">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU379">
         <v>1.39</v>
@@ -74308,10 +74329,10 @@
         <v>2</v>
       </c>
       <c r="AS380">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT380">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU380">
         <v>1.84</v>
@@ -74499,10 +74520,10 @@
         <v>1.25</v>
       </c>
       <c r="AS381">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT381">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU381">
         <v>1.6</v>
@@ -74603,7 +74624,7 @@
         <v>89</v>
       </c>
       <c r="P382" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="Q382">
         <v>4</v>
@@ -74690,10 +74711,10 @@
         <v>0.93</v>
       </c>
       <c r="AS382">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT382">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU382">
         <v>1.41</v>
@@ -74881,10 +74902,10 @@
         <v>1.53</v>
       </c>
       <c r="AS383">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT383">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU383">
         <v>1.28</v>
@@ -75072,10 +75093,10 @@
         <v>1.21</v>
       </c>
       <c r="AS384">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT384">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU384">
         <v>1.5</v>
@@ -75263,10 +75284,10 @@
         <v>1.29</v>
       </c>
       <c r="AS385">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT385">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU385">
         <v>1.25</v>
@@ -75457,7 +75478,7 @@
         <v>1.06</v>
       </c>
       <c r="AT386">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU386">
         <v>1.4</v>
@@ -75558,7 +75579,7 @@
         <v>313</v>
       </c>
       <c r="P387" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q387">
         <v>6</v>
@@ -75645,7 +75666,7 @@
         <v>1.27</v>
       </c>
       <c r="AS387">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT387">
         <v>1.12</v>
@@ -75749,7 +75770,7 @@
         <v>147</v>
       </c>
       <c r="P388" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q388">
         <v>5</v>
@@ -75839,7 +75860,7 @@
         <v>1.41</v>
       </c>
       <c r="AT388">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AU388">
         <v>1.64</v>
@@ -76027,7 +76048,7 @@
         <v>0.88</v>
       </c>
       <c r="AS389">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT389">
         <v>0.78</v>
@@ -76131,7 +76152,7 @@
         <v>139</v>
       </c>
       <c r="P390" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q390">
         <v>3</v>
@@ -76218,10 +76239,10 @@
         <v>2.07</v>
       </c>
       <c r="AS390">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT390">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU390">
         <v>1.73</v>
@@ -76412,7 +76433,7 @@
         <v>1.56</v>
       </c>
       <c r="AT391">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU391">
         <v>1.82</v>
@@ -76600,7 +76621,7 @@
         <v>1.63</v>
       </c>
       <c r="AS392">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT392">
         <v>1.44</v>
@@ -76704,7 +76725,7 @@
         <v>316</v>
       </c>
       <c r="P393" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q393">
         <v>4</v>
@@ -76895,7 +76916,7 @@
         <v>221</v>
       </c>
       <c r="P394" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="Q394">
         <v>7</v>
@@ -78232,7 +78253,7 @@
         <v>321</v>
       </c>
       <c r="P401" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q401">
         <v>3</v>
@@ -78805,7 +78826,7 @@
         <v>267</v>
       </c>
       <c r="P404" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Q404">
         <v>3</v>
@@ -79086,7 +79107,7 @@
         <v>1</v>
       </c>
       <c r="AT405">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU405">
         <v>1.43</v>
@@ -79187,7 +79208,7 @@
         <v>323</v>
       </c>
       <c r="P406" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="Q406">
         <v>6</v>
@@ -79274,7 +79295,7 @@
         <v>1.24</v>
       </c>
       <c r="AS406">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT406">
         <v>1.22</v>
@@ -79520,6 +79541,2107 @@
       </c>
       <c r="BK407">
         <v>19</v>
+      </c>
+    </row>
+    <row r="408" spans="1:63">
+      <c r="A408" s="1">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>2608538</v>
+      </c>
+      <c r="C408" t="s">
+        <v>63</v>
+      </c>
+      <c r="D408" t="s">
+        <v>64</v>
+      </c>
+      <c r="E408" s="2">
+        <v>44989.39583333334</v>
+      </c>
+      <c r="F408">
+        <v>35</v>
+      </c>
+      <c r="G408" t="s">
+        <v>72</v>
+      </c>
+      <c r="H408" t="s">
+        <v>81</v>
+      </c>
+      <c r="I408">
+        <v>1</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408">
+        <v>1</v>
+      </c>
+      <c r="L408">
+        <v>1</v>
+      </c>
+      <c r="M408">
+        <v>0</v>
+      </c>
+      <c r="N408">
+        <v>1</v>
+      </c>
+      <c r="O408" t="s">
+        <v>307</v>
+      </c>
+      <c r="P408" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q408">
+        <v>3</v>
+      </c>
+      <c r="R408">
+        <v>4</v>
+      </c>
+      <c r="S408">
+        <v>7</v>
+      </c>
+      <c r="T408">
+        <v>4</v>
+      </c>
+      <c r="U408">
+        <v>2</v>
+      </c>
+      <c r="V408">
+        <v>2.65</v>
+      </c>
+      <c r="W408">
+        <v>1.4</v>
+      </c>
+      <c r="X408">
+        <v>2.7</v>
+      </c>
+      <c r="Y408">
+        <v>2.85</v>
+      </c>
+      <c r="Z408">
+        <v>1.37</v>
+      </c>
+      <c r="AA408">
+        <v>6.8</v>
+      </c>
+      <c r="AB408">
+        <v>1.07</v>
+      </c>
+      <c r="AC408">
+        <v>3.35</v>
+      </c>
+      <c r="AD408">
+        <v>3.4</v>
+      </c>
+      <c r="AE408">
+        <v>2.05</v>
+      </c>
+      <c r="AF408">
+        <v>1.03</v>
+      </c>
+      <c r="AG408">
+        <v>8.5</v>
+      </c>
+      <c r="AH408">
+        <v>1.28</v>
+      </c>
+      <c r="AI408">
+        <v>3.3</v>
+      </c>
+      <c r="AJ408">
+        <v>1.9</v>
+      </c>
+      <c r="AK408">
+        <v>1.75</v>
+      </c>
+      <c r="AL408">
+        <v>1.72</v>
+      </c>
+      <c r="AM408">
+        <v>2</v>
+      </c>
+      <c r="AN408">
+        <v>1.72</v>
+      </c>
+      <c r="AO408">
+        <v>1.33</v>
+      </c>
+      <c r="AP408">
+        <v>1.2</v>
+      </c>
+      <c r="AQ408">
+        <v>2.13</v>
+      </c>
+      <c r="AR408">
+        <v>1.75</v>
+      </c>
+      <c r="AS408">
+        <v>2.18</v>
+      </c>
+      <c r="AT408">
+        <v>1.65</v>
+      </c>
+      <c r="AU408">
+        <v>1.37</v>
+      </c>
+      <c r="AV408">
+        <v>1.44</v>
+      </c>
+      <c r="AW408">
+        <v>2.81</v>
+      </c>
+      <c r="AX408">
+        <v>2.76</v>
+      </c>
+      <c r="AY408">
+        <v>8.5</v>
+      </c>
+      <c r="AZ408">
+        <v>1.64</v>
+      </c>
+      <c r="BA408">
+        <v>1.21</v>
+      </c>
+      <c r="BB408">
+        <v>1.48</v>
+      </c>
+      <c r="BC408">
+        <v>1.73</v>
+      </c>
+      <c r="BD408">
+        <v>2.1</v>
+      </c>
+      <c r="BE408">
+        <v>2.7</v>
+      </c>
+      <c r="BF408">
+        <v>3</v>
+      </c>
+      <c r="BG408">
+        <v>5</v>
+      </c>
+      <c r="BH408">
+        <v>5</v>
+      </c>
+      <c r="BI408">
+        <v>6</v>
+      </c>
+      <c r="BJ408">
+        <v>8</v>
+      </c>
+      <c r="BK408">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="409" spans="1:63">
+      <c r="A409" s="1">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>2608540</v>
+      </c>
+      <c r="C409" t="s">
+        <v>63</v>
+      </c>
+      <c r="D409" t="s">
+        <v>64</v>
+      </c>
+      <c r="E409" s="2">
+        <v>44989.39583333334</v>
+      </c>
+      <c r="F409">
+        <v>35</v>
+      </c>
+      <c r="G409" t="s">
+        <v>70</v>
+      </c>
+      <c r="H409" t="s">
+        <v>85</v>
+      </c>
+      <c r="I409">
+        <v>0</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="K409">
+        <v>0</v>
+      </c>
+      <c r="L409">
+        <v>2</v>
+      </c>
+      <c r="M409">
+        <v>0</v>
+      </c>
+      <c r="N409">
+        <v>2</v>
+      </c>
+      <c r="O409" t="s">
+        <v>325</v>
+      </c>
+      <c r="P409" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q409">
+        <v>3</v>
+      </c>
+      <c r="R409">
+        <v>2</v>
+      </c>
+      <c r="S409">
+        <v>5</v>
+      </c>
+      <c r="T409">
+        <v>2.85</v>
+      </c>
+      <c r="U409">
+        <v>1.95</v>
+      </c>
+      <c r="V409">
+        <v>3.8</v>
+      </c>
+      <c r="W409">
+        <v>1.42</v>
+      </c>
+      <c r="X409">
+        <v>2.6</v>
+      </c>
+      <c r="Y409">
+        <v>3.2</v>
+      </c>
+      <c r="Z409">
+        <v>1.3</v>
+      </c>
+      <c r="AA409">
+        <v>7</v>
+      </c>
+      <c r="AB409">
+        <v>1.06</v>
+      </c>
+      <c r="AC409">
+        <v>2.25</v>
+      </c>
+      <c r="AD409">
+        <v>3.25</v>
+      </c>
+      <c r="AE409">
+        <v>3</v>
+      </c>
+      <c r="AF409">
+        <v>1.04</v>
+      </c>
+      <c r="AG409">
+        <v>8</v>
+      </c>
+      <c r="AH409">
+        <v>1.33</v>
+      </c>
+      <c r="AI409">
+        <v>3</v>
+      </c>
+      <c r="AJ409">
+        <v>2.1</v>
+      </c>
+      <c r="AK409">
+        <v>1.61</v>
+      </c>
+      <c r="AL409">
+        <v>1.8</v>
+      </c>
+      <c r="AM409">
+        <v>1.9</v>
+      </c>
+      <c r="AN409">
+        <v>1.32</v>
+      </c>
+      <c r="AO409">
+        <v>1.35</v>
+      </c>
+      <c r="AP409">
+        <v>1.5</v>
+      </c>
+      <c r="AQ409">
+        <v>1.18</v>
+      </c>
+      <c r="AR409">
+        <v>1.2</v>
+      </c>
+      <c r="AS409">
+        <v>1.28</v>
+      </c>
+      <c r="AT409">
+        <v>1.13</v>
+      </c>
+      <c r="AU409">
+        <v>1.62</v>
+      </c>
+      <c r="AV409">
+        <v>1.14</v>
+      </c>
+      <c r="AW409">
+        <v>2.76</v>
+      </c>
+      <c r="AX409">
+        <v>1.69</v>
+      </c>
+      <c r="AY409">
+        <v>8</v>
+      </c>
+      <c r="AZ409">
+        <v>2.54</v>
+      </c>
+      <c r="BA409">
+        <v>1.18</v>
+      </c>
+      <c r="BB409">
+        <v>1.43</v>
+      </c>
+      <c r="BC409">
+        <v>1.7</v>
+      </c>
+      <c r="BD409">
+        <v>2.1</v>
+      </c>
+      <c r="BE409">
+        <v>2.63</v>
+      </c>
+      <c r="BF409">
+        <v>5</v>
+      </c>
+      <c r="BG409">
+        <v>5</v>
+      </c>
+      <c r="BH409">
+        <v>3</v>
+      </c>
+      <c r="BI409">
+        <v>5</v>
+      </c>
+      <c r="BJ409">
+        <v>8</v>
+      </c>
+      <c r="BK409">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="410" spans="1:63">
+      <c r="A410" s="1">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>2608545</v>
+      </c>
+      <c r="C410" t="s">
+        <v>63</v>
+      </c>
+      <c r="D410" t="s">
+        <v>64</v>
+      </c>
+      <c r="E410" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F410">
+        <v>35</v>
+      </c>
+      <c r="G410" t="s">
+        <v>67</v>
+      </c>
+      <c r="H410" t="s">
+        <v>78</v>
+      </c>
+      <c r="I410">
+        <v>1</v>
+      </c>
+      <c r="J410">
+        <v>1</v>
+      </c>
+      <c r="K410">
+        <v>2</v>
+      </c>
+      <c r="L410">
+        <v>2</v>
+      </c>
+      <c r="M410">
+        <v>3</v>
+      </c>
+      <c r="N410">
+        <v>5</v>
+      </c>
+      <c r="O410" t="s">
+        <v>326</v>
+      </c>
+      <c r="P410" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q410">
+        <v>4</v>
+      </c>
+      <c r="R410">
+        <v>4</v>
+      </c>
+      <c r="S410">
+        <v>8</v>
+      </c>
+      <c r="T410">
+        <v>3.1</v>
+      </c>
+      <c r="U410">
+        <v>2.05</v>
+      </c>
+      <c r="V410">
+        <v>3.75</v>
+      </c>
+      <c r="W410">
+        <v>1.45</v>
+      </c>
+      <c r="X410">
+        <v>2.66</v>
+      </c>
+      <c r="Y410">
+        <v>3.08</v>
+      </c>
+      <c r="Z410">
+        <v>1.35</v>
+      </c>
+      <c r="AA410">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB410">
+        <v>1.06</v>
+      </c>
+      <c r="AC410">
+        <v>2.5</v>
+      </c>
+      <c r="AD410">
+        <v>3.15</v>
+      </c>
+      <c r="AE410">
+        <v>2.75</v>
+      </c>
+      <c r="AF410">
+        <v>1.03</v>
+      </c>
+      <c r="AG410">
+        <v>7.9</v>
+      </c>
+      <c r="AH410">
+        <v>1.35</v>
+      </c>
+      <c r="AI410">
+        <v>2.88</v>
+      </c>
+      <c r="AJ410">
+        <v>2.08</v>
+      </c>
+      <c r="AK410">
+        <v>1.67</v>
+      </c>
+      <c r="AL410">
+        <v>1.9</v>
+      </c>
+      <c r="AM410">
+        <v>1.9</v>
+      </c>
+      <c r="AN410">
+        <v>1.4</v>
+      </c>
+      <c r="AO410">
+        <v>1.28</v>
+      </c>
+      <c r="AP410">
+        <v>1.6</v>
+      </c>
+      <c r="AQ410">
+        <v>2</v>
+      </c>
+      <c r="AR410">
+        <v>1.5</v>
+      </c>
+      <c r="AS410">
+        <v>1.88</v>
+      </c>
+      <c r="AT410">
+        <v>1.59</v>
+      </c>
+      <c r="AU410">
+        <v>1.71</v>
+      </c>
+      <c r="AV410">
+        <v>1.46</v>
+      </c>
+      <c r="AW410">
+        <v>3.17</v>
+      </c>
+      <c r="AX410">
+        <v>2</v>
+      </c>
+      <c r="AY410">
+        <v>8</v>
+      </c>
+      <c r="AZ410">
+        <v>2</v>
+      </c>
+      <c r="BA410">
+        <v>1.17</v>
+      </c>
+      <c r="BB410">
+        <v>1.43</v>
+      </c>
+      <c r="BC410">
+        <v>1.7</v>
+      </c>
+      <c r="BD410">
+        <v>2.1</v>
+      </c>
+      <c r="BE410">
+        <v>2.63</v>
+      </c>
+      <c r="BF410">
+        <v>9</v>
+      </c>
+      <c r="BG410">
+        <v>6</v>
+      </c>
+      <c r="BH410">
+        <v>7</v>
+      </c>
+      <c r="BI410">
+        <v>1</v>
+      </c>
+      <c r="BJ410">
+        <v>16</v>
+      </c>
+      <c r="BK410">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411" spans="1:63">
+      <c r="A411" s="1">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>2608539</v>
+      </c>
+      <c r="C411" t="s">
+        <v>63</v>
+      </c>
+      <c r="D411" t="s">
+        <v>64</v>
+      </c>
+      <c r="E411" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F411">
+        <v>35</v>
+      </c>
+      <c r="G411" t="s">
+        <v>71</v>
+      </c>
+      <c r="H411" t="s">
+        <v>83</v>
+      </c>
+      <c r="I411">
+        <v>0</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+      <c r="K411">
+        <v>0</v>
+      </c>
+      <c r="L411">
+        <v>0</v>
+      </c>
+      <c r="M411">
+        <v>0</v>
+      </c>
+      <c r="N411">
+        <v>0</v>
+      </c>
+      <c r="O411" t="s">
+        <v>89</v>
+      </c>
+      <c r="P411" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q411">
+        <v>1</v>
+      </c>
+      <c r="R411">
+        <v>8</v>
+      </c>
+      <c r="S411">
+        <v>9</v>
+      </c>
+      <c r="T411">
+        <v>6</v>
+      </c>
+      <c r="U411">
+        <v>2.2</v>
+      </c>
+      <c r="V411">
+        <v>2.2</v>
+      </c>
+      <c r="W411">
+        <v>1.42</v>
+      </c>
+      <c r="X411">
+        <v>2.85</v>
+      </c>
+      <c r="Y411">
+        <v>3</v>
+      </c>
+      <c r="Z411">
+        <v>1.38</v>
+      </c>
+      <c r="AA411">
+        <v>7.5</v>
+      </c>
+      <c r="AB411">
+        <v>1.08</v>
+      </c>
+      <c r="AC411">
+        <v>5.75</v>
+      </c>
+      <c r="AD411">
+        <v>3.85</v>
+      </c>
+      <c r="AE411">
+        <v>1.6</v>
+      </c>
+      <c r="AF411">
+        <v>1.06</v>
+      </c>
+      <c r="AG411">
+        <v>10</v>
+      </c>
+      <c r="AH411">
+        <v>1.33</v>
+      </c>
+      <c r="AI411">
+        <v>3.4</v>
+      </c>
+      <c r="AJ411">
+        <v>1.97</v>
+      </c>
+      <c r="AK411">
+        <v>1.74</v>
+      </c>
+      <c r="AL411">
+        <v>2</v>
+      </c>
+      <c r="AM411">
+        <v>1.78</v>
+      </c>
+      <c r="AN411">
+        <v>2.4</v>
+      </c>
+      <c r="AO411">
+        <v>1.22</v>
+      </c>
+      <c r="AP411">
+        <v>1.13</v>
+      </c>
+      <c r="AQ411">
+        <v>1.06</v>
+      </c>
+      <c r="AR411">
+        <v>2</v>
+      </c>
+      <c r="AS411">
+        <v>1.06</v>
+      </c>
+      <c r="AT411">
+        <v>1.94</v>
+      </c>
+      <c r="AU411">
+        <v>1.35</v>
+      </c>
+      <c r="AV411">
+        <v>1.38</v>
+      </c>
+      <c r="AW411">
+        <v>2.73</v>
+      </c>
+      <c r="AX411">
+        <v>3.3</v>
+      </c>
+      <c r="AY411">
+        <v>9</v>
+      </c>
+      <c r="AZ411">
+        <v>1.45</v>
+      </c>
+      <c r="BA411">
+        <v>1.17</v>
+      </c>
+      <c r="BB411">
+        <v>1.43</v>
+      </c>
+      <c r="BC411">
+        <v>1.7</v>
+      </c>
+      <c r="BD411">
+        <v>2.1</v>
+      </c>
+      <c r="BE411">
+        <v>2.63</v>
+      </c>
+      <c r="BF411">
+        <v>0</v>
+      </c>
+      <c r="BG411">
+        <v>6</v>
+      </c>
+      <c r="BH411">
+        <v>4</v>
+      </c>
+      <c r="BI411">
+        <v>5</v>
+      </c>
+      <c r="BJ411">
+        <v>4</v>
+      </c>
+      <c r="BK411">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="412" spans="1:63">
+      <c r="A412" s="1">
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>2608541</v>
+      </c>
+      <c r="C412" t="s">
+        <v>63</v>
+      </c>
+      <c r="D412" t="s">
+        <v>64</v>
+      </c>
+      <c r="E412" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F412">
+        <v>35</v>
+      </c>
+      <c r="G412" t="s">
+        <v>65</v>
+      </c>
+      <c r="H412" t="s">
+        <v>88</v>
+      </c>
+      <c r="I412">
+        <v>0</v>
+      </c>
+      <c r="J412">
+        <v>1</v>
+      </c>
+      <c r="K412">
+        <v>1</v>
+      </c>
+      <c r="L412">
+        <v>0</v>
+      </c>
+      <c r="M412">
+        <v>4</v>
+      </c>
+      <c r="N412">
+        <v>4</v>
+      </c>
+      <c r="O412" t="s">
+        <v>89</v>
+      </c>
+      <c r="P412" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q412">
+        <v>5</v>
+      </c>
+      <c r="R412">
+        <v>5</v>
+      </c>
+      <c r="S412">
+        <v>10</v>
+      </c>
+      <c r="T412">
+        <v>3.6</v>
+      </c>
+      <c r="U412">
+        <v>2</v>
+      </c>
+      <c r="V412">
+        <v>2.9</v>
+      </c>
+      <c r="W412">
+        <v>1.5</v>
+      </c>
+      <c r="X412">
+        <v>2.4</v>
+      </c>
+      <c r="Y412">
+        <v>3</v>
+      </c>
+      <c r="Z412">
+        <v>1.33</v>
+      </c>
+      <c r="AA412">
+        <v>7.5</v>
+      </c>
+      <c r="AB412">
+        <v>1.06</v>
+      </c>
+      <c r="AC412">
+        <v>3</v>
+      </c>
+      <c r="AD412">
+        <v>3.2</v>
+      </c>
+      <c r="AE412">
+        <v>2.3</v>
+      </c>
+      <c r="AF412">
+        <v>1.05</v>
+      </c>
+      <c r="AG412">
+        <v>7.5</v>
+      </c>
+      <c r="AH412">
+        <v>1.35</v>
+      </c>
+      <c r="AI412">
+        <v>2.9</v>
+      </c>
+      <c r="AJ412">
+        <v>2.21</v>
+      </c>
+      <c r="AK412">
+        <v>1.59</v>
+      </c>
+      <c r="AL412">
+        <v>1.8</v>
+      </c>
+      <c r="AM412">
+        <v>1.9</v>
+      </c>
+      <c r="AN412">
+        <v>1.47</v>
+      </c>
+      <c r="AO412">
+        <v>1.37</v>
+      </c>
+      <c r="AP412">
+        <v>1.32</v>
+      </c>
+      <c r="AQ412">
+        <v>1.31</v>
+      </c>
+      <c r="AR412">
+        <v>1.06</v>
+      </c>
+      <c r="AS412">
+        <v>1.24</v>
+      </c>
+      <c r="AT412">
+        <v>1.18</v>
+      </c>
+      <c r="AU412">
+        <v>1.27</v>
+      </c>
+      <c r="AV412">
+        <v>1.37</v>
+      </c>
+      <c r="AW412">
+        <v>2.64</v>
+      </c>
+      <c r="AX412">
+        <v>2.1</v>
+      </c>
+      <c r="AY412">
+        <v>8</v>
+      </c>
+      <c r="AZ412">
+        <v>1.91</v>
+      </c>
+      <c r="BA412">
+        <v>1.25</v>
+      </c>
+      <c r="BB412">
+        <v>1.55</v>
+      </c>
+      <c r="BC412">
+        <v>1.85</v>
+      </c>
+      <c r="BD412">
+        <v>2.3</v>
+      </c>
+      <c r="BE412">
+        <v>3.28</v>
+      </c>
+      <c r="BF412">
+        <v>4</v>
+      </c>
+      <c r="BG412">
+        <v>7</v>
+      </c>
+      <c r="BH412">
+        <v>5</v>
+      </c>
+      <c r="BI412">
+        <v>3</v>
+      </c>
+      <c r="BJ412">
+        <v>9</v>
+      </c>
+      <c r="BK412">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="413" spans="1:63">
+      <c r="A413" s="1">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>2608549</v>
+      </c>
+      <c r="C413" t="s">
+        <v>63</v>
+      </c>
+      <c r="D413" t="s">
+        <v>64</v>
+      </c>
+      <c r="E413" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F413">
+        <v>35</v>
+      </c>
+      <c r="G413" t="s">
+        <v>69</v>
+      </c>
+      <c r="H413" t="s">
+        <v>77</v>
+      </c>
+      <c r="I413">
+        <v>0</v>
+      </c>
+      <c r="J413">
+        <v>1</v>
+      </c>
+      <c r="K413">
+        <v>1</v>
+      </c>
+      <c r="L413">
+        <v>1</v>
+      </c>
+      <c r="M413">
+        <v>1</v>
+      </c>
+      <c r="N413">
+        <v>2</v>
+      </c>
+      <c r="O413" t="s">
+        <v>178</v>
+      </c>
+      <c r="P413" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q413">
+        <v>2</v>
+      </c>
+      <c r="R413">
+        <v>1</v>
+      </c>
+      <c r="S413">
+        <v>3</v>
+      </c>
+      <c r="T413">
+        <v>2.8</v>
+      </c>
+      <c r="U413">
+        <v>1.95</v>
+      </c>
+      <c r="V413">
+        <v>3.9</v>
+      </c>
+      <c r="W413">
+        <v>1.47</v>
+      </c>
+      <c r="X413">
+        <v>2.45</v>
+      </c>
+      <c r="Y413">
+        <v>3.3</v>
+      </c>
+      <c r="Z413">
+        <v>1.28</v>
+      </c>
+      <c r="AA413">
+        <v>8</v>
+      </c>
+      <c r="AB413">
+        <v>1.05</v>
+      </c>
+      <c r="AC413">
+        <v>2.3</v>
+      </c>
+      <c r="AD413">
+        <v>3.1</v>
+      </c>
+      <c r="AE413">
+        <v>3.1</v>
+      </c>
+      <c r="AF413">
+        <v>1.06</v>
+      </c>
+      <c r="AG413">
+        <v>7</v>
+      </c>
+      <c r="AH413">
+        <v>1.37</v>
+      </c>
+      <c r="AI413">
+        <v>2.8</v>
+      </c>
+      <c r="AJ413">
+        <v>2.28</v>
+      </c>
+      <c r="AK413">
+        <v>1.51</v>
+      </c>
+      <c r="AL413">
+        <v>1.9</v>
+      </c>
+      <c r="AM413">
+        <v>1.8</v>
+      </c>
+      <c r="AN413">
+        <v>1.22</v>
+      </c>
+      <c r="AO413">
+        <v>1.37</v>
+      </c>
+      <c r="AP413">
+        <v>1.62</v>
+      </c>
+      <c r="AQ413">
+        <v>0.76</v>
+      </c>
+      <c r="AR413">
+        <v>1.13</v>
+      </c>
+      <c r="AS413">
+        <v>0.78</v>
+      </c>
+      <c r="AT413">
+        <v>1.12</v>
+      </c>
+      <c r="AU413">
+        <v>1.28</v>
+      </c>
+      <c r="AV413">
+        <v>1.26</v>
+      </c>
+      <c r="AW413">
+        <v>2.54</v>
+      </c>
+      <c r="AX413">
+        <v>1.75</v>
+      </c>
+      <c r="AY413">
+        <v>8</v>
+      </c>
+      <c r="AZ413">
+        <v>2.52</v>
+      </c>
+      <c r="BA413">
+        <v>1.4</v>
+      </c>
+      <c r="BB413">
+        <v>1.67</v>
+      </c>
+      <c r="BC413">
+        <v>2.1</v>
+      </c>
+      <c r="BD413">
+        <v>2.63</v>
+      </c>
+      <c r="BE413">
+        <v>4</v>
+      </c>
+      <c r="BF413">
+        <v>4</v>
+      </c>
+      <c r="BG413">
+        <v>3</v>
+      </c>
+      <c r="BH413">
+        <v>4</v>
+      </c>
+      <c r="BI413">
+        <v>7</v>
+      </c>
+      <c r="BJ413">
+        <v>8</v>
+      </c>
+      <c r="BK413">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="414" spans="1:63">
+      <c r="A414" s="1">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>2608543</v>
+      </c>
+      <c r="C414" t="s">
+        <v>63</v>
+      </c>
+      <c r="D414" t="s">
+        <v>64</v>
+      </c>
+      <c r="E414" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F414">
+        <v>35</v>
+      </c>
+      <c r="G414" t="s">
+        <v>68</v>
+      </c>
+      <c r="H414" t="s">
+        <v>79</v>
+      </c>
+      <c r="I414">
+        <v>1</v>
+      </c>
+      <c r="J414">
+        <v>0</v>
+      </c>
+      <c r="K414">
+        <v>1</v>
+      </c>
+      <c r="L414">
+        <v>1</v>
+      </c>
+      <c r="M414">
+        <v>0</v>
+      </c>
+      <c r="N414">
+        <v>1</v>
+      </c>
+      <c r="O414" t="s">
+        <v>151</v>
+      </c>
+      <c r="P414" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q414">
+        <v>4</v>
+      </c>
+      <c r="R414">
+        <v>3</v>
+      </c>
+      <c r="S414">
+        <v>7</v>
+      </c>
+      <c r="T414">
+        <v>2.6</v>
+      </c>
+      <c r="U414">
+        <v>2</v>
+      </c>
+      <c r="V414">
+        <v>4.1</v>
+      </c>
+      <c r="W414">
+        <v>1.47</v>
+      </c>
+      <c r="X414">
+        <v>2.5</v>
+      </c>
+      <c r="Y414">
+        <v>3</v>
+      </c>
+      <c r="Z414">
+        <v>1.33</v>
+      </c>
+      <c r="AA414">
+        <v>6.8</v>
+      </c>
+      <c r="AB414">
+        <v>1.07</v>
+      </c>
+      <c r="AC414">
+        <v>2.05</v>
+      </c>
+      <c r="AD414">
+        <v>3.3</v>
+      </c>
+      <c r="AE414">
+        <v>3.45</v>
+      </c>
+      <c r="AF414">
+        <v>1.04</v>
+      </c>
+      <c r="AG414">
+        <v>8</v>
+      </c>
+      <c r="AH414">
+        <v>1.32</v>
+      </c>
+      <c r="AI414">
+        <v>3.1</v>
+      </c>
+      <c r="AJ414">
+        <v>2.05</v>
+      </c>
+      <c r="AK414">
+        <v>1.69</v>
+      </c>
+      <c r="AL414">
+        <v>1.85</v>
+      </c>
+      <c r="AM414">
+        <v>1.85</v>
+      </c>
+      <c r="AN414">
+        <v>1.2</v>
+      </c>
+      <c r="AO414">
+        <v>1.32</v>
+      </c>
+      <c r="AP414">
+        <v>1.75</v>
+      </c>
+      <c r="AQ414">
+        <v>1.35</v>
+      </c>
+      <c r="AR414">
+        <v>1.12</v>
+      </c>
+      <c r="AS414">
+        <v>1.44</v>
+      </c>
+      <c r="AT414">
+        <v>1.06</v>
+      </c>
+      <c r="AU414">
+        <v>1.8</v>
+      </c>
+      <c r="AV414">
+        <v>1.47</v>
+      </c>
+      <c r="AW414">
+        <v>3.27</v>
+      </c>
+      <c r="AX414">
+        <v>1.64</v>
+      </c>
+      <c r="AY414">
+        <v>8.5</v>
+      </c>
+      <c r="AZ414">
+        <v>2.64</v>
+      </c>
+      <c r="BA414">
+        <v>1.18</v>
+      </c>
+      <c r="BB414">
+        <v>1.43</v>
+      </c>
+      <c r="BC414">
+        <v>1.7</v>
+      </c>
+      <c r="BD414">
+        <v>2.1</v>
+      </c>
+      <c r="BE414">
+        <v>2.63</v>
+      </c>
+      <c r="BF414">
+        <v>5</v>
+      </c>
+      <c r="BG414">
+        <v>4</v>
+      </c>
+      <c r="BH414">
+        <v>8</v>
+      </c>
+      <c r="BI414">
+        <v>4</v>
+      </c>
+      <c r="BJ414">
+        <v>13</v>
+      </c>
+      <c r="BK414">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="415" spans="1:63">
+      <c r="A415" s="1">
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>2608544</v>
+      </c>
+      <c r="C415" t="s">
+        <v>63</v>
+      </c>
+      <c r="D415" t="s">
+        <v>64</v>
+      </c>
+      <c r="E415" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F415">
+        <v>35</v>
+      </c>
+      <c r="G415" t="s">
+        <v>74</v>
+      </c>
+      <c r="H415" t="s">
+        <v>82</v>
+      </c>
+      <c r="I415">
+        <v>2</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+      <c r="K415">
+        <v>2</v>
+      </c>
+      <c r="L415">
+        <v>5</v>
+      </c>
+      <c r="M415">
+        <v>0</v>
+      </c>
+      <c r="N415">
+        <v>5</v>
+      </c>
+      <c r="O415" t="s">
+        <v>327</v>
+      </c>
+      <c r="P415" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q415">
+        <v>6</v>
+      </c>
+      <c r="R415">
+        <v>1</v>
+      </c>
+      <c r="S415">
+        <v>7</v>
+      </c>
+      <c r="T415">
+        <v>1.85</v>
+      </c>
+      <c r="U415">
+        <v>2.35</v>
+      </c>
+      <c r="V415">
+        <v>6.2</v>
+      </c>
+      <c r="W415">
+        <v>1.33</v>
+      </c>
+      <c r="X415">
+        <v>3</v>
+      </c>
+      <c r="Y415">
+        <v>2.6</v>
+      </c>
+      <c r="Z415">
+        <v>1.42</v>
+      </c>
+      <c r="AA415">
+        <v>5.8</v>
+      </c>
+      <c r="AB415">
+        <v>1.1</v>
+      </c>
+      <c r="AC415">
+        <v>1.47</v>
+      </c>
+      <c r="AD415">
+        <v>4.2</v>
+      </c>
+      <c r="AE415">
+        <v>6.5</v>
+      </c>
+      <c r="AF415">
+        <v>1.01</v>
+      </c>
+      <c r="AG415">
+        <v>11</v>
+      </c>
+      <c r="AH415">
+        <v>1.2</v>
+      </c>
+      <c r="AI415">
+        <v>3.9</v>
+      </c>
+      <c r="AJ415">
+        <v>1.78</v>
+      </c>
+      <c r="AK415">
+        <v>1.93</v>
+      </c>
+      <c r="AL415">
+        <v>1.85</v>
+      </c>
+      <c r="AM415">
+        <v>1.85</v>
+      </c>
+      <c r="AN415">
+        <v>1.04</v>
+      </c>
+      <c r="AO415">
+        <v>1.18</v>
+      </c>
+      <c r="AP415">
+        <v>2.8</v>
+      </c>
+      <c r="AQ415">
+        <v>2</v>
+      </c>
+      <c r="AR415">
+        <v>0.65</v>
+      </c>
+      <c r="AS415">
+        <v>2.06</v>
+      </c>
+      <c r="AT415">
+        <v>0.61</v>
+      </c>
+      <c r="AU415">
+        <v>1.61</v>
+      </c>
+      <c r="AV415">
+        <v>1.2</v>
+      </c>
+      <c r="AW415">
+        <v>2.81</v>
+      </c>
+      <c r="AX415">
+        <v>1.31</v>
+      </c>
+      <c r="AY415">
+        <v>9.5</v>
+      </c>
+      <c r="AZ415">
+        <v>4.12</v>
+      </c>
+      <c r="BA415">
+        <v>1.2</v>
+      </c>
+      <c r="BB415">
+        <v>1.48</v>
+      </c>
+      <c r="BC415">
+        <v>1.73</v>
+      </c>
+      <c r="BD415">
+        <v>2.1</v>
+      </c>
+      <c r="BE415">
+        <v>2.7</v>
+      </c>
+      <c r="BF415">
+        <v>7</v>
+      </c>
+      <c r="BG415">
+        <v>0</v>
+      </c>
+      <c r="BH415">
+        <v>3</v>
+      </c>
+      <c r="BI415">
+        <v>2</v>
+      </c>
+      <c r="BJ415">
+        <v>10</v>
+      </c>
+      <c r="BK415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:63">
+      <c r="A416" s="1">
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>2608548</v>
+      </c>
+      <c r="C416" t="s">
+        <v>63</v>
+      </c>
+      <c r="D416" t="s">
+        <v>64</v>
+      </c>
+      <c r="E416" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F416">
+        <v>35</v>
+      </c>
+      <c r="G416" t="s">
+        <v>76</v>
+      </c>
+      <c r="H416" t="s">
+        <v>84</v>
+      </c>
+      <c r="I416">
+        <v>0</v>
+      </c>
+      <c r="J416">
+        <v>0</v>
+      </c>
+      <c r="K416">
+        <v>0</v>
+      </c>
+      <c r="L416">
+        <v>0</v>
+      </c>
+      <c r="M416">
+        <v>0</v>
+      </c>
+      <c r="N416">
+        <v>0</v>
+      </c>
+      <c r="O416" t="s">
+        <v>89</v>
+      </c>
+      <c r="P416" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q416">
+        <v>6</v>
+      </c>
+      <c r="R416">
+        <v>3</v>
+      </c>
+      <c r="S416">
+        <v>9</v>
+      </c>
+      <c r="T416">
+        <v>2.45</v>
+      </c>
+      <c r="U416">
+        <v>1.95</v>
+      </c>
+      <c r="V416">
+        <v>4.8</v>
+      </c>
+      <c r="W416">
+        <v>1.5</v>
+      </c>
+      <c r="X416">
+        <v>2.4</v>
+      </c>
+      <c r="Y416">
+        <v>3.2</v>
+      </c>
+      <c r="Z416">
+        <v>1.3</v>
+      </c>
+      <c r="AA416">
+        <v>8</v>
+      </c>
+      <c r="AB416">
+        <v>1.05</v>
+      </c>
+      <c r="AC416">
+        <v>1.83</v>
+      </c>
+      <c r="AD416">
+        <v>3.45</v>
+      </c>
+      <c r="AE416">
+        <v>4.1</v>
+      </c>
+      <c r="AF416">
+        <v>1.05</v>
+      </c>
+      <c r="AG416">
+        <v>7.5</v>
+      </c>
+      <c r="AH416">
+        <v>1.37</v>
+      </c>
+      <c r="AI416">
+        <v>2.8</v>
+      </c>
+      <c r="AJ416">
+        <v>2.15</v>
+      </c>
+      <c r="AK416">
+        <v>1.63</v>
+      </c>
+      <c r="AL416">
+        <v>1.95</v>
+      </c>
+      <c r="AM416">
+        <v>1.75</v>
+      </c>
+      <c r="AN416">
+        <v>1.13</v>
+      </c>
+      <c r="AO416">
+        <v>1.3</v>
+      </c>
+      <c r="AP416">
+        <v>1.95</v>
+      </c>
+      <c r="AQ416">
+        <v>1.75</v>
+      </c>
+      <c r="AR416">
+        <v>1.75</v>
+      </c>
+      <c r="AS416">
+        <v>1.71</v>
+      </c>
+      <c r="AT416">
+        <v>1.71</v>
+      </c>
+      <c r="AU416">
+        <v>1.59</v>
+      </c>
+      <c r="AV416">
+        <v>1.18</v>
+      </c>
+      <c r="AW416">
+        <v>2.77</v>
+      </c>
+      <c r="AX416">
+        <v>1.51</v>
+      </c>
+      <c r="AY416">
+        <v>8.5</v>
+      </c>
+      <c r="AZ416">
+        <v>3.07</v>
+      </c>
+      <c r="BA416">
+        <v>1.23</v>
+      </c>
+      <c r="BB416">
+        <v>1.5</v>
+      </c>
+      <c r="BC416">
+        <v>1.83</v>
+      </c>
+      <c r="BD416">
+        <v>2.25</v>
+      </c>
+      <c r="BE416">
+        <v>3.08</v>
+      </c>
+      <c r="BF416">
+        <v>5</v>
+      </c>
+      <c r="BG416">
+        <v>3</v>
+      </c>
+      <c r="BH416">
+        <v>6</v>
+      </c>
+      <c r="BI416">
+        <v>5</v>
+      </c>
+      <c r="BJ416">
+        <v>11</v>
+      </c>
+      <c r="BK416">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="417" spans="1:63">
+      <c r="A417" s="1">
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>2608546</v>
+      </c>
+      <c r="C417" t="s">
+        <v>63</v>
+      </c>
+      <c r="D417" t="s">
+        <v>64</v>
+      </c>
+      <c r="E417" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F417">
+        <v>35</v>
+      </c>
+      <c r="G417" t="s">
+        <v>66</v>
+      </c>
+      <c r="H417" t="s">
+        <v>86</v>
+      </c>
+      <c r="I417">
+        <v>1</v>
+      </c>
+      <c r="J417">
+        <v>0</v>
+      </c>
+      <c r="K417">
+        <v>1</v>
+      </c>
+      <c r="L417">
+        <v>3</v>
+      </c>
+      <c r="M417">
+        <v>1</v>
+      </c>
+      <c r="N417">
+        <v>4</v>
+      </c>
+      <c r="O417" t="s">
+        <v>328</v>
+      </c>
+      <c r="P417" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q417">
+        <v>7</v>
+      </c>
+      <c r="R417">
+        <v>8</v>
+      </c>
+      <c r="S417">
+        <v>15</v>
+      </c>
+      <c r="T417">
+        <v>3.4</v>
+      </c>
+      <c r="U417">
+        <v>1.95</v>
+      </c>
+      <c r="V417">
+        <v>3.1</v>
+      </c>
+      <c r="W417">
+        <v>1.42</v>
+      </c>
+      <c r="X417">
+        <v>2.6</v>
+      </c>
+      <c r="Y417">
+        <v>3</v>
+      </c>
+      <c r="Z417">
+        <v>1.33</v>
+      </c>
+      <c r="AA417">
+        <v>6.8</v>
+      </c>
+      <c r="AB417">
+        <v>1.07</v>
+      </c>
+      <c r="AC417">
+        <v>2.75</v>
+      </c>
+      <c r="AD417">
+        <v>3.1</v>
+      </c>
+      <c r="AE417">
+        <v>2.5</v>
+      </c>
+      <c r="AF417">
+        <v>1.04</v>
+      </c>
+      <c r="AG417">
+        <v>8</v>
+      </c>
+      <c r="AH417">
+        <v>1.32</v>
+      </c>
+      <c r="AI417">
+        <v>3.1</v>
+      </c>
+      <c r="AJ417">
+        <v>2.04</v>
+      </c>
+      <c r="AK417">
+        <v>1.7</v>
+      </c>
+      <c r="AL417">
+        <v>1.8</v>
+      </c>
+      <c r="AM417">
+        <v>1.9</v>
+      </c>
+      <c r="AN417">
+        <v>1.4</v>
+      </c>
+      <c r="AO417">
+        <v>1.35</v>
+      </c>
+      <c r="AP417">
+        <v>1.4</v>
+      </c>
+      <c r="AQ417">
+        <v>1.44</v>
+      </c>
+      <c r="AR417">
+        <v>1.18</v>
+      </c>
+      <c r="AS417">
+        <v>1.53</v>
+      </c>
+      <c r="AT417">
+        <v>1.11</v>
+      </c>
+      <c r="AU417">
+        <v>1.39</v>
+      </c>
+      <c r="AV417">
+        <v>1.37</v>
+      </c>
+      <c r="AW417">
+        <v>2.76</v>
+      </c>
+      <c r="AX417">
+        <v>2.1</v>
+      </c>
+      <c r="AY417">
+        <v>8</v>
+      </c>
+      <c r="AZ417">
+        <v>1.95</v>
+      </c>
+      <c r="BA417">
+        <v>1.2</v>
+      </c>
+      <c r="BB417">
+        <v>1.48</v>
+      </c>
+      <c r="BC417">
+        <v>1.73</v>
+      </c>
+      <c r="BD417">
+        <v>2.1</v>
+      </c>
+      <c r="BE417">
+        <v>2.7</v>
+      </c>
+      <c r="BF417">
+        <v>10</v>
+      </c>
+      <c r="BG417">
+        <v>4</v>
+      </c>
+      <c r="BH417">
+        <v>1</v>
+      </c>
+      <c r="BI417">
+        <v>7</v>
+      </c>
+      <c r="BJ417">
+        <v>11</v>
+      </c>
+      <c r="BK417">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="418" spans="1:63">
+      <c r="A418" s="1">
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>2608547</v>
+      </c>
+      <c r="C418" t="s">
+        <v>63</v>
+      </c>
+      <c r="D418" t="s">
+        <v>64</v>
+      </c>
+      <c r="E418" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F418">
+        <v>35</v>
+      </c>
+      <c r="G418" t="s">
+        <v>75</v>
+      </c>
+      <c r="H418" t="s">
+        <v>80</v>
+      </c>
+      <c r="I418">
+        <v>0</v>
+      </c>
+      <c r="J418">
+        <v>1</v>
+      </c>
+      <c r="K418">
+        <v>1</v>
+      </c>
+      <c r="L418">
+        <v>1</v>
+      </c>
+      <c r="M418">
+        <v>5</v>
+      </c>
+      <c r="N418">
+        <v>6</v>
+      </c>
+      <c r="O418" t="s">
+        <v>100</v>
+      </c>
+      <c r="P418" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q418">
+        <v>2</v>
+      </c>
+      <c r="R418">
+        <v>4</v>
+      </c>
+      <c r="S418">
+        <v>6</v>
+      </c>
+      <c r="T418">
+        <v>2.7</v>
+      </c>
+      <c r="U418">
+        <v>2.05</v>
+      </c>
+      <c r="V418">
+        <v>3.7</v>
+      </c>
+      <c r="W418">
+        <v>1.4</v>
+      </c>
+      <c r="X418">
+        <v>2.7</v>
+      </c>
+      <c r="Y418">
+        <v>2.9</v>
+      </c>
+      <c r="Z418">
+        <v>1.35</v>
+      </c>
+      <c r="AA418">
+        <v>6.8</v>
+      </c>
+      <c r="AB418">
+        <v>1.07</v>
+      </c>
+      <c r="AC418">
+        <v>2.3</v>
+      </c>
+      <c r="AD418">
+        <v>3.25</v>
+      </c>
+      <c r="AE418">
+        <v>3.05</v>
+      </c>
+      <c r="AF418">
+        <v>1.03</v>
+      </c>
+      <c r="AG418">
+        <v>8.5</v>
+      </c>
+      <c r="AH418">
+        <v>1.32</v>
+      </c>
+      <c r="AI418">
+        <v>3.1</v>
+      </c>
+      <c r="AJ418">
+        <v>2.02</v>
+      </c>
+      <c r="AK418">
+        <v>1.71</v>
+      </c>
+      <c r="AL418">
+        <v>1.8</v>
+      </c>
+      <c r="AM418">
+        <v>1.9</v>
+      </c>
+      <c r="AN418">
+        <v>1.22</v>
+      </c>
+      <c r="AO418">
+        <v>1.35</v>
+      </c>
+      <c r="AP418">
+        <v>1.65</v>
+      </c>
+      <c r="AQ418">
+        <v>1.44</v>
+      </c>
+      <c r="AR418">
+        <v>1.24</v>
+      </c>
+      <c r="AS418">
+        <v>1.35</v>
+      </c>
+      <c r="AT418">
+        <v>1.33</v>
+      </c>
+      <c r="AU418">
+        <v>1.47</v>
+      </c>
+      <c r="AV418">
+        <v>1.52</v>
+      </c>
+      <c r="AW418">
+        <v>2.99</v>
+      </c>
+      <c r="AX418">
+        <v>1.83</v>
+      </c>
+      <c r="AY418">
+        <v>8</v>
+      </c>
+      <c r="AZ418">
+        <v>2.2</v>
+      </c>
+      <c r="BA418">
+        <v>1.44</v>
+      </c>
+      <c r="BB418">
+        <v>1.5</v>
+      </c>
+      <c r="BC418">
+        <v>1.8</v>
+      </c>
+      <c r="BD418">
+        <v>2.25</v>
+      </c>
+      <c r="BE418">
+        <v>3.8</v>
+      </c>
+      <c r="BF418">
+        <v>5</v>
+      </c>
+      <c r="BG418">
+        <v>9</v>
+      </c>
+      <c r="BH418">
+        <v>2</v>
+      </c>
+      <c r="BI418">
+        <v>2</v>
+      </c>
+      <c r="BJ418">
+        <v>7</v>
+      </c>
+      <c r="BK418">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="475">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1800,7 +1800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK418"/>
+  <dimension ref="A1:BK421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT2">
         <v>1.94</v>
@@ -3662,7 +3662,7 @@
         <v>1.39</v>
       </c>
       <c r="AT10">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -4235,7 +4235,7 @@
         <v>1.71</v>
       </c>
       <c r="AT13">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4617,7 +4617,7 @@
         <v>1.56</v>
       </c>
       <c r="AT15">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -5378,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT19">
         <v>0.88</v>
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT24">
         <v>1.22</v>
@@ -6909,7 +6909,7 @@
         <v>0.78</v>
       </c>
       <c r="AT27">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU27">
         <v>1.72</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT33">
         <v>1.33</v>
@@ -8437,7 +8437,7 @@
         <v>2.06</v>
       </c>
       <c r="AT35">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU35">
         <v>1.69</v>
@@ -10535,7 +10535,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT46">
         <v>1.17</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT47">
         <v>0.88</v>
@@ -11108,7 +11108,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT49">
         <v>1.18</v>
@@ -11872,7 +11872,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT53">
         <v>1.39</v>
@@ -12639,7 +12639,7 @@
         <v>1.11</v>
       </c>
       <c r="AT57">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU57">
         <v>1.57</v>
@@ -13021,7 +13021,7 @@
         <v>1.44</v>
       </c>
       <c r="AT59">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU59">
         <v>1.93</v>
@@ -14355,7 +14355,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT66">
         <v>1.12</v>
@@ -14740,7 +14740,7 @@
         <v>1.06</v>
       </c>
       <c r="AT68">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU68">
         <v>1.27</v>
@@ -17602,7 +17602,7 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT83">
         <v>1.94</v>
@@ -18751,7 +18751,7 @@
         <v>1.44</v>
       </c>
       <c r="AT89">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU89">
         <v>1.95</v>
@@ -18942,7 +18942,7 @@
         <v>2.18</v>
       </c>
       <c r="AT90">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU90">
         <v>1.39</v>
@@ -19130,7 +19130,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT91">
         <v>1.33</v>
@@ -19324,7 +19324,7 @@
         <v>1.39</v>
       </c>
       <c r="AT92">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU92">
         <v>1.36</v>
@@ -19512,7 +19512,7 @@
         <v>1.33</v>
       </c>
       <c r="AS93">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT93">
         <v>0.78</v>
@@ -20279,7 +20279,7 @@
         <v>1.41</v>
       </c>
       <c r="AT97">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU97">
         <v>1.32</v>
@@ -20658,10 +20658,10 @@
         <v>2.33</v>
       </c>
       <c r="AS99">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT99">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU99">
         <v>1.14</v>
@@ -21234,7 +21234,7 @@
         <v>1.56</v>
       </c>
       <c r="AT102">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU102">
         <v>2.23</v>
@@ -21804,7 +21804,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT105">
         <v>1.12</v>
@@ -21995,7 +21995,7 @@
         <v>1.5</v>
       </c>
       <c r="AS106">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT106">
         <v>1.44</v>
@@ -22759,7 +22759,7 @@
         <v>0.8</v>
       </c>
       <c r="AS110">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT110">
         <v>0.88</v>
@@ -22953,7 +22953,7 @@
         <v>2.44</v>
       </c>
       <c r="AT111">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU111">
         <v>1.84</v>
@@ -23908,7 +23908,7 @@
         <v>1</v>
       </c>
       <c r="AT116">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU116">
         <v>1.63</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="AS124">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT124">
         <v>0.59</v>
@@ -25627,7 +25627,7 @@
         <v>1.53</v>
       </c>
       <c r="AT125">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU125">
         <v>1.59</v>
@@ -25815,7 +25815,7 @@
         <v>1.25</v>
       </c>
       <c r="AS126">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT126">
         <v>1.06</v>
@@ -27725,7 +27725,7 @@
         <v>1.8</v>
       </c>
       <c r="AS136">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT136">
         <v>1.59</v>
@@ -28492,7 +28492,7 @@
         <v>1.39</v>
       </c>
       <c r="AT140">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU140">
         <v>1.39</v>
@@ -29638,7 +29638,7 @@
         <v>1.11</v>
       </c>
       <c r="AT146">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU146">
         <v>1.38</v>
@@ -30020,7 +30020,7 @@
         <v>1.12</v>
       </c>
       <c r="AT148">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU148">
         <v>1.6</v>
@@ -30399,7 +30399,7 @@
         <v>2</v>
       </c>
       <c r="AS150">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT150">
         <v>1.82</v>
@@ -31163,7 +31163,7 @@
         <v>0.4</v>
       </c>
       <c r="AS154">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT154">
         <v>1.18</v>
@@ -32121,7 +32121,7 @@
         <v>1.35</v>
       </c>
       <c r="AT159">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU159">
         <v>1.59</v>
@@ -33264,7 +33264,7 @@
         <v>0.67</v>
       </c>
       <c r="AS165">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT165">
         <v>1.12</v>
@@ -34410,7 +34410,7 @@
         <v>1.71</v>
       </c>
       <c r="AS171">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT171">
         <v>1.71</v>
@@ -34601,10 +34601,10 @@
         <v>0.71</v>
       </c>
       <c r="AS172">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT172">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU172">
         <v>2.08</v>
@@ -35750,7 +35750,7 @@
         <v>1.78</v>
       </c>
       <c r="AT178">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU178">
         <v>1.1</v>
@@ -37660,7 +37660,7 @@
         <v>1.12</v>
       </c>
       <c r="AT188">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU188">
         <v>1.74</v>
@@ -37848,10 +37848,10 @@
         <v>1</v>
       </c>
       <c r="AS189">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT189">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU189">
         <v>1.33</v>
@@ -39376,10 +39376,10 @@
         <v>1.38</v>
       </c>
       <c r="AS197">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT197">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU197">
         <v>1.99</v>
@@ -40331,7 +40331,7 @@
         <v>0.71</v>
       </c>
       <c r="AS202">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT202">
         <v>1.22</v>
@@ -42050,7 +42050,7 @@
         <v>1.33</v>
       </c>
       <c r="AS211">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT211">
         <v>0.78</v>
@@ -42244,7 +42244,7 @@
         <v>1.44</v>
       </c>
       <c r="AT212">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU212">
         <v>1.39</v>
@@ -42814,7 +42814,7 @@
         <v>1.22</v>
       </c>
       <c r="AS215">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT215">
         <v>1.44</v>
@@ -43578,7 +43578,7 @@
         <v>1.67</v>
       </c>
       <c r="AS219">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT219">
         <v>1.71</v>
@@ -45109,7 +45109,7 @@
         <v>1.41</v>
       </c>
       <c r="AT227">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU227">
         <v>1.5</v>
@@ -45300,7 +45300,7 @@
         <v>2.06</v>
       </c>
       <c r="AT228">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU228">
         <v>1.43</v>
@@ -46828,7 +46828,7 @@
         <v>1.78</v>
       </c>
       <c r="AT236">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU236">
         <v>1.42</v>
@@ -47780,7 +47780,7 @@
         <v>1.4</v>
       </c>
       <c r="AS241">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT241">
         <v>1.33</v>
@@ -48544,7 +48544,7 @@
         <v>1.3</v>
       </c>
       <c r="AS245">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT245">
         <v>1.06</v>
@@ -48929,7 +48929,7 @@
         <v>1.28</v>
       </c>
       <c r="AT247">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU247">
         <v>1.57</v>
@@ -50075,7 +50075,7 @@
         <v>1.53</v>
       </c>
       <c r="AT253">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU253">
         <v>1.48</v>
@@ -50263,7 +50263,7 @@
         <v>1.3</v>
       </c>
       <c r="AS254">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT254">
         <v>1.18</v>
@@ -51221,7 +51221,7 @@
         <v>1.88</v>
       </c>
       <c r="AT259">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU259">
         <v>1.76</v>
@@ -52555,7 +52555,7 @@
         <v>1.27</v>
       </c>
       <c r="AS266">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT266">
         <v>1.22</v>
@@ -53319,7 +53319,7 @@
         <v>1</v>
       </c>
       <c r="AS270">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT270">
         <v>0.78</v>
@@ -54086,7 +54086,7 @@
         <v>0.78</v>
       </c>
       <c r="AT274">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU274">
         <v>1.38</v>
@@ -55232,7 +55232,7 @@
         <v>2.06</v>
       </c>
       <c r="AT280">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU280">
         <v>1.57</v>
@@ -56375,7 +56375,7 @@
         <v>1.25</v>
       </c>
       <c r="AS286">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT286">
         <v>1.06</v>
@@ -56951,7 +56951,7 @@
         <v>1.88</v>
       </c>
       <c r="AT289">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU289">
         <v>1.74</v>
@@ -57139,7 +57139,7 @@
         <v>0.92</v>
       </c>
       <c r="AS290">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT290">
         <v>0.78</v>
@@ -57903,7 +57903,7 @@
         <v>1.91</v>
       </c>
       <c r="AS294">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT294">
         <v>1.71</v>
@@ -58097,7 +58097,7 @@
         <v>1.06</v>
       </c>
       <c r="AT295">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU295">
         <v>1.45</v>
@@ -59622,7 +59622,7 @@
         <v>1.67</v>
       </c>
       <c r="AS303">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT303">
         <v>1.82</v>
@@ -59816,7 +59816,7 @@
         <v>1.78</v>
       </c>
       <c r="AT304">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU304">
         <v>1.62</v>
@@ -60386,7 +60386,7 @@
         <v>0.85</v>
       </c>
       <c r="AS307">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT307">
         <v>0.61</v>
@@ -61153,7 +61153,7 @@
         <v>1.12</v>
       </c>
       <c r="AT311">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU311">
         <v>1.7</v>
@@ -62296,7 +62296,7 @@
         <v>1.38</v>
       </c>
       <c r="AS317">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT317">
         <v>1.11</v>
@@ -62681,7 +62681,7 @@
         <v>1.28</v>
       </c>
       <c r="AT319">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU319">
         <v>1.58</v>
@@ -66498,7 +66498,7 @@
         <v>1</v>
       </c>
       <c r="AS339">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT339">
         <v>1.18</v>
@@ -66692,7 +66692,7 @@
         <v>1.53</v>
       </c>
       <c r="AT340">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU340">
         <v>1.44</v>
@@ -67262,7 +67262,7 @@
         <v>1.33</v>
       </c>
       <c r="AS343">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT343">
         <v>1.22</v>
@@ -67456,7 +67456,7 @@
         <v>1</v>
       </c>
       <c r="AT344">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU344">
         <v>1.44</v>
@@ -68217,7 +68217,7 @@
         <v>1.27</v>
       </c>
       <c r="AS348">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT348">
         <v>1.11</v>
@@ -68602,7 +68602,7 @@
         <v>2.18</v>
       </c>
       <c r="AT350">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU350">
         <v>1.41</v>
@@ -72228,7 +72228,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS369">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT369">
         <v>0.78</v>
@@ -72804,7 +72804,7 @@
         <v>1.44</v>
       </c>
       <c r="AT372">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU372">
         <v>1.39</v>
@@ -73374,7 +73374,7 @@
         <v>1.06</v>
       </c>
       <c r="AS375">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT375">
         <v>1.17</v>
@@ -73759,7 +73759,7 @@
         <v>1.88</v>
       </c>
       <c r="AT377">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU377">
         <v>1.76</v>
@@ -75096,7 +75096,7 @@
         <v>1.35</v>
       </c>
       <c r="AT384">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU384">
         <v>1.5</v>
@@ -75284,7 +75284,7 @@
         <v>1.29</v>
       </c>
       <c r="AS385">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT385">
         <v>1.12</v>
@@ -77197,7 +77197,7 @@
         <v>1</v>
       </c>
       <c r="AT395">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU395">
         <v>1.45</v>
@@ -78340,7 +78340,7 @@
         <v>0.82</v>
       </c>
       <c r="AS401">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT401">
         <v>0.78</v>
@@ -78531,7 +78531,7 @@
         <v>1.47</v>
       </c>
       <c r="AS402">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT402">
         <v>1.39</v>
@@ -79680,7 +79680,7 @@
         <v>2.18</v>
       </c>
       <c r="AT408">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU408">
         <v>1.37</v>
@@ -79871,7 +79871,7 @@
         <v>1.28</v>
       </c>
       <c r="AT409">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU409">
         <v>1.62</v>
@@ -80441,7 +80441,7 @@
         <v>1.06</v>
       </c>
       <c r="AS412">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT412">
         <v>1.18</v>
@@ -81642,6 +81642,579 @@
       </c>
       <c r="BK418">
         <v>11</v>
+      </c>
+    </row>
+    <row r="419" spans="1:63">
+      <c r="A419" s="1">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>2608467</v>
+      </c>
+      <c r="C419" t="s">
+        <v>63</v>
+      </c>
+      <c r="D419" t="s">
+        <v>64</v>
+      </c>
+      <c r="E419" s="2">
+        <v>44992.69791666666</v>
+      </c>
+      <c r="F419">
+        <v>29</v>
+      </c>
+      <c r="G419" t="s">
+        <v>65</v>
+      </c>
+      <c r="H419" t="s">
+        <v>85</v>
+      </c>
+      <c r="I419">
+        <v>0</v>
+      </c>
+      <c r="J419">
+        <v>0</v>
+      </c>
+      <c r="K419">
+        <v>0</v>
+      </c>
+      <c r="L419">
+        <v>0</v>
+      </c>
+      <c r="M419">
+        <v>0</v>
+      </c>
+      <c r="N419">
+        <v>0</v>
+      </c>
+      <c r="O419" t="s">
+        <v>89</v>
+      </c>
+      <c r="P419" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q419">
+        <v>6</v>
+      </c>
+      <c r="R419">
+        <v>4</v>
+      </c>
+      <c r="S419">
+        <v>10</v>
+      </c>
+      <c r="T419">
+        <v>3.26</v>
+      </c>
+      <c r="U419">
+        <v>1.86</v>
+      </c>
+      <c r="V419">
+        <v>3.26</v>
+      </c>
+      <c r="W419">
+        <v>1.46</v>
+      </c>
+      <c r="X419">
+        <v>2.63</v>
+      </c>
+      <c r="Y419">
+        <v>3.14</v>
+      </c>
+      <c r="Z419">
+        <v>1.34</v>
+      </c>
+      <c r="AA419">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB419">
+        <v>1.06</v>
+      </c>
+      <c r="AC419">
+        <v>2.65</v>
+      </c>
+      <c r="AD419">
+        <v>3.23</v>
+      </c>
+      <c r="AE419">
+        <v>2.68</v>
+      </c>
+      <c r="AF419">
+        <v>1.06</v>
+      </c>
+      <c r="AG419">
+        <v>7.5</v>
+      </c>
+      <c r="AH419">
+        <v>1.36</v>
+      </c>
+      <c r="AI419">
+        <v>2.9</v>
+      </c>
+      <c r="AJ419">
+        <v>2.09</v>
+      </c>
+      <c r="AK419">
+        <v>1.66</v>
+      </c>
+      <c r="AL419">
+        <v>1.88</v>
+      </c>
+      <c r="AM419">
+        <v>1.88</v>
+      </c>
+      <c r="AN419">
+        <v>1.42</v>
+      </c>
+      <c r="AO419">
+        <v>1.3</v>
+      </c>
+      <c r="AP419">
+        <v>1.43</v>
+      </c>
+      <c r="AQ419">
+        <v>1.24</v>
+      </c>
+      <c r="AR419">
+        <v>1.13</v>
+      </c>
+      <c r="AS419">
+        <v>1.22</v>
+      </c>
+      <c r="AT419">
+        <v>1.12</v>
+      </c>
+      <c r="AU419">
+        <v>1.27</v>
+      </c>
+      <c r="AV419">
+        <v>1.16</v>
+      </c>
+      <c r="AW419">
+        <v>2.43</v>
+      </c>
+      <c r="AX419">
+        <v>1.95</v>
+      </c>
+      <c r="AY419">
+        <v>7.7</v>
+      </c>
+      <c r="AZ419">
+        <v>2.25</v>
+      </c>
+      <c r="BA419">
+        <v>1.23</v>
+      </c>
+      <c r="BB419">
+        <v>1.5</v>
+      </c>
+      <c r="BC419">
+        <v>1.8</v>
+      </c>
+      <c r="BD419">
+        <v>2.25</v>
+      </c>
+      <c r="BE419">
+        <v>3.08</v>
+      </c>
+      <c r="BF419">
+        <v>3</v>
+      </c>
+      <c r="BG419">
+        <v>7</v>
+      </c>
+      <c r="BH419">
+        <v>7</v>
+      </c>
+      <c r="BI419">
+        <v>5</v>
+      </c>
+      <c r="BJ419">
+        <v>10</v>
+      </c>
+      <c r="BK419">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="420" spans="1:63">
+      <c r="A420" s="1">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>2608474</v>
+      </c>
+      <c r="C420" t="s">
+        <v>63</v>
+      </c>
+      <c r="D420" t="s">
+        <v>64</v>
+      </c>
+      <c r="E420" s="2">
+        <v>44992.70833333334</v>
+      </c>
+      <c r="F420">
+        <v>29</v>
+      </c>
+      <c r="G420" t="s">
+        <v>82</v>
+      </c>
+      <c r="H420" t="s">
+        <v>81</v>
+      </c>
+      <c r="I420">
+        <v>0</v>
+      </c>
+      <c r="J420">
+        <v>0</v>
+      </c>
+      <c r="K420">
+        <v>0</v>
+      </c>
+      <c r="L420">
+        <v>0</v>
+      </c>
+      <c r="M420">
+        <v>1</v>
+      </c>
+      <c r="N420">
+        <v>1</v>
+      </c>
+      <c r="O420" t="s">
+        <v>89</v>
+      </c>
+      <c r="P420" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q420">
+        <v>3</v>
+      </c>
+      <c r="R420">
+        <v>4</v>
+      </c>
+      <c r="S420">
+        <v>7</v>
+      </c>
+      <c r="T420">
+        <v>4.5</v>
+      </c>
+      <c r="U420">
+        <v>2.1</v>
+      </c>
+      <c r="V420">
+        <v>2.6</v>
+      </c>
+      <c r="W420">
+        <v>1.45</v>
+      </c>
+      <c r="X420">
+        <v>2.75</v>
+      </c>
+      <c r="Y420">
+        <v>3.1</v>
+      </c>
+      <c r="Z420">
+        <v>1.36</v>
+      </c>
+      <c r="AA420">
+        <v>8</v>
+      </c>
+      <c r="AB420">
+        <v>1.07</v>
+      </c>
+      <c r="AC420">
+        <v>3.22</v>
+      </c>
+      <c r="AD420">
+        <v>3.4</v>
+      </c>
+      <c r="AE420">
+        <v>2.2</v>
+      </c>
+      <c r="AF420">
+        <v>1.07</v>
+      </c>
+      <c r="AG420">
+        <v>9.5</v>
+      </c>
+      <c r="AH420">
+        <v>1.36</v>
+      </c>
+      <c r="AI420">
+        <v>3.2</v>
+      </c>
+      <c r="AJ420">
+        <v>1.99</v>
+      </c>
+      <c r="AK420">
+        <v>1.73</v>
+      </c>
+      <c r="AL420">
+        <v>1.9</v>
+      </c>
+      <c r="AM420">
+        <v>1.88</v>
+      </c>
+      <c r="AN420">
+        <v>1.92</v>
+      </c>
+      <c r="AO420">
+        <v>1.26</v>
+      </c>
+      <c r="AP420">
+        <v>1.24</v>
+      </c>
+      <c r="AQ420">
+        <v>2.06</v>
+      </c>
+      <c r="AR420">
+        <v>1.65</v>
+      </c>
+      <c r="AS420">
+        <v>1.94</v>
+      </c>
+      <c r="AT420">
+        <v>1.72</v>
+      </c>
+      <c r="AU420">
+        <v>1.33</v>
+      </c>
+      <c r="AV420">
+        <v>1.44</v>
+      </c>
+      <c r="AW420">
+        <v>2.77</v>
+      </c>
+      <c r="AX420">
+        <v>2.92</v>
+      </c>
+      <c r="AY420">
+        <v>8.1</v>
+      </c>
+      <c r="AZ420">
+        <v>1.61</v>
+      </c>
+      <c r="BA420">
+        <v>1.23</v>
+      </c>
+      <c r="BB420">
+        <v>1.5</v>
+      </c>
+      <c r="BC420">
+        <v>1.8</v>
+      </c>
+      <c r="BD420">
+        <v>2.25</v>
+      </c>
+      <c r="BE420">
+        <v>3.08</v>
+      </c>
+      <c r="BF420">
+        <v>4</v>
+      </c>
+      <c r="BG420">
+        <v>5</v>
+      </c>
+      <c r="BH420">
+        <v>9</v>
+      </c>
+      <c r="BI420">
+        <v>5</v>
+      </c>
+      <c r="BJ420">
+        <v>13</v>
+      </c>
+      <c r="BK420">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="421" spans="1:63">
+      <c r="A421" s="1">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>2608477</v>
+      </c>
+      <c r="C421" t="s">
+        <v>63</v>
+      </c>
+      <c r="D421" t="s">
+        <v>64</v>
+      </c>
+      <c r="E421" s="2">
+        <v>44992.70833333334</v>
+      </c>
+      <c r="F421">
+        <v>29</v>
+      </c>
+      <c r="G421" t="s">
+        <v>87</v>
+      </c>
+      <c r="H421" t="s">
+        <v>69</v>
+      </c>
+      <c r="I421">
+        <v>1</v>
+      </c>
+      <c r="J421">
+        <v>0</v>
+      </c>
+      <c r="K421">
+        <v>1</v>
+      </c>
+      <c r="L421">
+        <v>1</v>
+      </c>
+      <c r="M421">
+        <v>0</v>
+      </c>
+      <c r="N421">
+        <v>1</v>
+      </c>
+      <c r="O421" t="s">
+        <v>273</v>
+      </c>
+      <c r="P421" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q421">
+        <v>1</v>
+      </c>
+      <c r="R421">
+        <v>2</v>
+      </c>
+      <c r="S421">
+        <v>3</v>
+      </c>
+      <c r="T421">
+        <v>2.12</v>
+      </c>
+      <c r="U421">
+        <v>2.23</v>
+      </c>
+      <c r="V421">
+        <v>6.2</v>
+      </c>
+      <c r="W421">
+        <v>1.4</v>
+      </c>
+      <c r="X421">
+        <v>2.85</v>
+      </c>
+      <c r="Y421">
+        <v>2.89</v>
+      </c>
+      <c r="Z421">
+        <v>1.39</v>
+      </c>
+      <c r="AA421">
+        <v>7.4</v>
+      </c>
+      <c r="AB421">
+        <v>1.08</v>
+      </c>
+      <c r="AC421">
+        <v>1.55</v>
+      </c>
+      <c r="AD421">
+        <v>4.02</v>
+      </c>
+      <c r="AE421">
+        <v>6</v>
+      </c>
+      <c r="AF421">
+        <v>1.06</v>
+      </c>
+      <c r="AG421">
+        <v>11.25</v>
+      </c>
+      <c r="AH421">
+        <v>1.33</v>
+      </c>
+      <c r="AI421">
+        <v>3.37</v>
+      </c>
+      <c r="AJ421">
+        <v>1.94</v>
+      </c>
+      <c r="AK421">
+        <v>1.77</v>
+      </c>
+      <c r="AL421">
+        <v>2.05</v>
+      </c>
+      <c r="AM421">
+        <v>1.73</v>
+      </c>
+      <c r="AN421">
+        <v>1.12</v>
+      </c>
+      <c r="AO421">
+        <v>1.24</v>
+      </c>
+      <c r="AP421">
+        <v>2.49</v>
+      </c>
+      <c r="AQ421">
+        <v>1.71</v>
+      </c>
+      <c r="AR421">
+        <v>1.13</v>
+      </c>
+      <c r="AS421">
+        <v>1.78</v>
+      </c>
+      <c r="AT421">
+        <v>1.06</v>
+      </c>
+      <c r="AU421">
+        <v>1.87</v>
+      </c>
+      <c r="AV421">
+        <v>1.24</v>
+      </c>
+      <c r="AW421">
+        <v>3.11</v>
+      </c>
+      <c r="AX421">
+        <v>1.24</v>
+      </c>
+      <c r="AY421">
+        <v>10.5</v>
+      </c>
+      <c r="AZ421">
+        <v>5.4</v>
+      </c>
+      <c r="BA421">
+        <v>1.15</v>
+      </c>
+      <c r="BB421">
+        <v>1.32</v>
+      </c>
+      <c r="BC421">
+        <v>1.6</v>
+      </c>
+      <c r="BD421">
+        <v>2.02</v>
+      </c>
+      <c r="BE421">
+        <v>2.62</v>
+      </c>
+      <c r="BF421">
+        <v>6</v>
+      </c>
+      <c r="BG421">
+        <v>5</v>
+      </c>
+      <c r="BH421">
+        <v>12</v>
+      </c>
+      <c r="BI421">
+        <v>8</v>
+      </c>
+      <c r="BJ421">
+        <v>18</v>
+      </c>
+      <c r="BK421">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="477">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1003,6 +1003,9 @@
     <t>['15', '70', '90']</t>
   </si>
   <si>
+    <t>['24', '43', '75']</t>
+  </si>
+  <si>
     <t>['18']</t>
   </si>
   <si>
@@ -1440,6 +1443,9 @@
   <si>
     <t>['41', '53', '57', '68', '76']</t>
   </si>
+  <si>
+    <t>['86', '90']</t>
+  </si>
 </sst>
 </file>
 
@@ -1800,7 +1806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK421"/>
+  <dimension ref="A1:BK422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2044,7 +2050,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -2235,7 +2241,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -3763,7 +3769,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -4527,7 +4533,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4718,7 +4724,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4808,7 +4814,7 @@
         <v>1.41</v>
       </c>
       <c r="AT16">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4996,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT17">
         <v>0.78</v>
@@ -5864,7 +5870,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -6055,7 +6061,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -7201,7 +7207,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7392,7 +7398,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -7583,7 +7589,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7774,7 +7780,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -8347,7 +8353,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8729,7 +8735,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -10066,7 +10072,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10153,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT44">
         <v>1.39</v>
@@ -10538,7 +10544,7 @@
         <v>1.94</v>
       </c>
       <c r="AT46">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU46">
         <v>1.13</v>
@@ -11021,7 +11027,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -11212,7 +11218,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11490,7 +11496,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT51">
         <v>1.44</v>
@@ -11684,7 +11690,7 @@
         <v>2.12</v>
       </c>
       <c r="AT52">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU52">
         <v>1.78</v>
@@ -12358,7 +12364,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -13313,7 +13319,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -13504,7 +13510,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -13886,7 +13892,7 @@
         <v>89</v>
       </c>
       <c r="P64" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14077,7 +14083,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -14268,7 +14274,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -14650,7 +14656,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15032,7 +15038,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15414,7 +15420,7 @@
         <v>104</v>
       </c>
       <c r="P72" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -16178,7 +16184,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16647,7 +16653,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT78">
         <v>1.06</v>
@@ -17414,7 +17420,7 @@
         <v>1.06</v>
       </c>
       <c r="AT82">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU82">
         <v>1.43</v>
@@ -18661,7 +18667,7 @@
         <v>151</v>
       </c>
       <c r="P89" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q89">
         <v>9</v>
@@ -18852,7 +18858,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -19234,7 +19240,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -19425,7 +19431,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q93">
         <v>10</v>
@@ -19807,7 +19813,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19998,7 +20004,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -20189,7 +20195,7 @@
         <v>89</v>
       </c>
       <c r="P97" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -20571,7 +20577,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21144,7 +21150,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -21335,7 +21341,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -21526,7 +21532,7 @@
         <v>161</v>
       </c>
       <c r="P104" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21717,7 +21723,7 @@
         <v>162</v>
       </c>
       <c r="P105" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21908,7 +21914,7 @@
         <v>89</v>
       </c>
       <c r="P106" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22571,7 +22577,7 @@
         <v>1.44</v>
       </c>
       <c r="AT109">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU109">
         <v>1.84</v>
@@ -23436,7 +23442,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -23818,7 +23824,7 @@
         <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -24391,7 +24397,7 @@
         <v>89</v>
       </c>
       <c r="P119" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24964,7 +24970,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -25346,7 +25352,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25537,7 +25543,7 @@
         <v>89</v>
       </c>
       <c r="P125" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q125">
         <v>8</v>
@@ -25728,7 +25734,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -26492,7 +26498,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26579,7 +26585,7 @@
         <v>0.8</v>
       </c>
       <c r="AS130">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT130">
         <v>1.22</v>
@@ -26874,7 +26880,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q132">
         <v>9</v>
@@ -27065,7 +27071,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -27537,7 +27543,7 @@
         <v>1.28</v>
       </c>
       <c r="AT135">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU135">
         <v>1.51</v>
@@ -28402,7 +28408,7 @@
         <v>181</v>
       </c>
       <c r="P140" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q140">
         <v>9</v>
@@ -28593,7 +28599,7 @@
         <v>94</v>
       </c>
       <c r="P141" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -29357,7 +29363,7 @@
         <v>184</v>
       </c>
       <c r="P145" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q145">
         <v>5</v>
@@ -29739,7 +29745,7 @@
         <v>186</v>
       </c>
       <c r="P147" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -30017,7 +30023,7 @@
         <v>1.83</v>
       </c>
       <c r="AS148">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT148">
         <v>1.72</v>
@@ -30121,7 +30127,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q149">
         <v>7</v>
@@ -30885,7 +30891,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -31357,7 +31363,7 @@
         <v>0.78</v>
       </c>
       <c r="AT155">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU155">
         <v>1.36</v>
@@ -31649,7 +31655,7 @@
         <v>193</v>
       </c>
       <c r="P157" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -32031,7 +32037,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q159">
         <v>1</v>
@@ -32222,7 +32228,7 @@
         <v>196</v>
       </c>
       <c r="P160" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q160">
         <v>14</v>
@@ -32795,7 +32801,7 @@
         <v>89</v>
       </c>
       <c r="P163" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32986,7 +32992,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q164">
         <v>9</v>
@@ -33076,7 +33082,7 @@
         <v>2.06</v>
       </c>
       <c r="AT164">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU164">
         <v>1.34</v>
@@ -33177,7 +33183,7 @@
         <v>89</v>
       </c>
       <c r="P165" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33368,7 +33374,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -33559,7 +33565,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33750,7 +33756,7 @@
         <v>89</v>
       </c>
       <c r="P168" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q168">
         <v>7</v>
@@ -34132,7 +34138,7 @@
         <v>201</v>
       </c>
       <c r="P170" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34514,7 +34520,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q172">
         <v>13</v>
@@ -34792,7 +34798,7 @@
         <v>0.6</v>
       </c>
       <c r="AS173">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT173">
         <v>0.78</v>
@@ -35087,7 +35093,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -35469,7 +35475,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -36233,7 +36239,7 @@
         <v>208</v>
       </c>
       <c r="P181" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q181">
         <v>1</v>
@@ -36424,7 +36430,7 @@
         <v>209</v>
       </c>
       <c r="P182" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -36615,7 +36621,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36997,7 +37003,7 @@
         <v>89</v>
       </c>
       <c r="P185" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q185">
         <v>9</v>
@@ -37084,7 +37090,7 @@
         <v>0.88</v>
       </c>
       <c r="AS185">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT185">
         <v>1.18</v>
@@ -37188,7 +37194,7 @@
         <v>211</v>
       </c>
       <c r="P186" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -37570,7 +37576,7 @@
         <v>213</v>
       </c>
       <c r="P188" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37952,7 +37958,7 @@
         <v>215</v>
       </c>
       <c r="P190" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -38525,7 +38531,7 @@
         <v>218</v>
       </c>
       <c r="P193" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q193">
         <v>6</v>
@@ -39289,7 +39295,7 @@
         <v>89</v>
       </c>
       <c r="P197" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q197">
         <v>8</v>
@@ -40143,7 +40149,7 @@
         <v>1.39</v>
       </c>
       <c r="AT201">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU201">
         <v>1.42</v>
@@ -40435,7 +40441,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -41008,7 +41014,7 @@
         <v>226</v>
       </c>
       <c r="P206" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -41581,7 +41587,7 @@
         <v>178</v>
       </c>
       <c r="P209" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q209">
         <v>7</v>
@@ -41862,7 +41868,7 @@
         <v>1.78</v>
       </c>
       <c r="AT210">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU210">
         <v>1.34</v>
@@ -42727,7 +42733,7 @@
         <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -42918,7 +42924,7 @@
         <v>93</v>
       </c>
       <c r="P216" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -43109,7 +43115,7 @@
         <v>229</v>
       </c>
       <c r="P217" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q217">
         <v>7</v>
@@ -43491,7 +43497,7 @@
         <v>199</v>
       </c>
       <c r="P219" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43682,7 +43688,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q220">
         <v>10</v>
@@ -43873,7 +43879,7 @@
         <v>231</v>
       </c>
       <c r="P221" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q221">
         <v>4</v>
@@ -43960,7 +43966,7 @@
         <v>1.22</v>
       </c>
       <c r="AS221">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT221">
         <v>1.12</v>
@@ -44255,7 +44261,7 @@
         <v>92</v>
       </c>
       <c r="P223" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q223">
         <v>2</v>
@@ -45019,7 +45025,7 @@
         <v>232</v>
       </c>
       <c r="P227" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q227">
         <v>6</v>
@@ -45783,7 +45789,7 @@
         <v>89</v>
       </c>
       <c r="P231" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q231">
         <v>12</v>
@@ -45974,7 +45980,7 @@
         <v>147</v>
       </c>
       <c r="P232" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q232">
         <v>14</v>
@@ -46165,7 +46171,7 @@
         <v>235</v>
       </c>
       <c r="P233" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q233">
         <v>4</v>
@@ -46356,7 +46362,7 @@
         <v>89</v>
       </c>
       <c r="P234" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q234">
         <v>2</v>
@@ -46547,7 +46553,7 @@
         <v>236</v>
       </c>
       <c r="P235" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q235">
         <v>12</v>
@@ -47016,7 +47022,7 @@
         <v>1.89</v>
       </c>
       <c r="AS237">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT237">
         <v>1.82</v>
@@ -47884,7 +47890,7 @@
         <v>243</v>
       </c>
       <c r="P242" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q242">
         <v>2</v>
@@ -48075,7 +48081,7 @@
         <v>182</v>
       </c>
       <c r="P243" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q243">
         <v>3</v>
@@ -48266,7 +48272,7 @@
         <v>175</v>
       </c>
       <c r="P244" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q244">
         <v>12</v>
@@ -48648,7 +48654,7 @@
         <v>93</v>
       </c>
       <c r="P246" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q246">
         <v>4</v>
@@ -49502,7 +49508,7 @@
         <v>2.44</v>
       </c>
       <c r="AT250">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU250">
         <v>1.81</v>
@@ -49794,7 +49800,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q252">
         <v>2</v>
@@ -49985,7 +49991,7 @@
         <v>154</v>
       </c>
       <c r="P253" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q253">
         <v>7</v>
@@ -50367,7 +50373,7 @@
         <v>89</v>
       </c>
       <c r="P255" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q255">
         <v>7</v>
@@ -50558,7 +50564,7 @@
         <v>249</v>
       </c>
       <c r="P256" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -50645,7 +50651,7 @@
         <v>1</v>
       </c>
       <c r="AS256">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT256">
         <v>0.88</v>
@@ -51513,7 +51519,7 @@
         <v>89</v>
       </c>
       <c r="P261" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q261">
         <v>2</v>
@@ -51895,7 +51901,7 @@
         <v>118</v>
       </c>
       <c r="P263" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q263">
         <v>5</v>
@@ -52086,7 +52092,7 @@
         <v>251</v>
       </c>
       <c r="P264" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q264">
         <v>0</v>
@@ -52277,7 +52283,7 @@
         <v>252</v>
       </c>
       <c r="P265" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q265">
         <v>5</v>
@@ -52468,7 +52474,7 @@
         <v>89</v>
       </c>
       <c r="P266" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q266">
         <v>7</v>
@@ -53041,7 +53047,7 @@
         <v>254</v>
       </c>
       <c r="P269" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q269">
         <v>3</v>
@@ -53423,7 +53429,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q271">
         <v>4</v>
@@ -53805,7 +53811,7 @@
         <v>89</v>
       </c>
       <c r="P273" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q273">
         <v>6</v>
@@ -53895,7 +53901,7 @@
         <v>1.56</v>
       </c>
       <c r="AT273">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU273">
         <v>1.85</v>
@@ -53996,7 +54002,7 @@
         <v>224</v>
       </c>
       <c r="P274" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q274">
         <v>8</v>
@@ -54378,7 +54384,7 @@
         <v>89</v>
       </c>
       <c r="P276" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q276">
         <v>4</v>
@@ -54569,7 +54575,7 @@
         <v>258</v>
       </c>
       <c r="P277" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q277">
         <v>7</v>
@@ -54659,7 +54665,7 @@
         <v>1.35</v>
       </c>
       <c r="AT277">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU277">
         <v>1.48</v>
@@ -54760,7 +54766,7 @@
         <v>89</v>
       </c>
       <c r="P278" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q278">
         <v>8</v>
@@ -55333,7 +55339,7 @@
         <v>94</v>
       </c>
       <c r="P281" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q281">
         <v>2</v>
@@ -55524,7 +55530,7 @@
         <v>261</v>
       </c>
       <c r="P282" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q282">
         <v>3</v>
@@ -56097,7 +56103,7 @@
         <v>263</v>
       </c>
       <c r="P285" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q285">
         <v>6</v>
@@ -56670,7 +56676,7 @@
         <v>89</v>
       </c>
       <c r="P288" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q288">
         <v>6</v>
@@ -57434,7 +57440,7 @@
         <v>267</v>
       </c>
       <c r="P292" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q292">
         <v>1</v>
@@ -57625,7 +57631,7 @@
         <v>141</v>
       </c>
       <c r="P293" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q293">
         <v>1</v>
@@ -58007,7 +58013,7 @@
         <v>247</v>
       </c>
       <c r="P295" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q295">
         <v>5</v>
@@ -58285,7 +58291,7 @@
         <v>1.73</v>
       </c>
       <c r="AS296">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT296">
         <v>1.94</v>
@@ -59153,7 +59159,7 @@
         <v>148</v>
       </c>
       <c r="P301" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q301">
         <v>1</v>
@@ -59535,7 +59541,7 @@
         <v>154</v>
       </c>
       <c r="P303" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q303">
         <v>1</v>
@@ -59917,7 +59923,7 @@
         <v>89</v>
       </c>
       <c r="P305" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q305">
         <v>8</v>
@@ -60108,7 +60114,7 @@
         <v>273</v>
       </c>
       <c r="P306" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q306">
         <v>4</v>
@@ -60490,7 +60496,7 @@
         <v>274</v>
       </c>
       <c r="P308" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q308">
         <v>7</v>
@@ -60681,7 +60687,7 @@
         <v>275</v>
       </c>
       <c r="P309" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q309">
         <v>9</v>
@@ -60959,7 +60965,7 @@
         <v>1.75</v>
       </c>
       <c r="AS310">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT310">
         <v>1.71</v>
@@ -61063,7 +61069,7 @@
         <v>276</v>
       </c>
       <c r="P311" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q311">
         <v>8</v>
@@ -61344,7 +61350,7 @@
         <v>1.53</v>
       </c>
       <c r="AT312">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU312">
         <v>1.46</v>
@@ -61445,7 +61451,7 @@
         <v>89</v>
       </c>
       <c r="P313" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q313">
         <v>4</v>
@@ -61827,7 +61833,7 @@
         <v>224</v>
       </c>
       <c r="P315" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q315">
         <v>1</v>
@@ -62591,7 +62597,7 @@
         <v>219</v>
       </c>
       <c r="P319" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q319">
         <v>3</v>
@@ -63164,7 +63170,7 @@
         <v>281</v>
       </c>
       <c r="P322" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q322">
         <v>5</v>
@@ -63355,7 +63361,7 @@
         <v>282</v>
       </c>
       <c r="P323" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q323">
         <v>2</v>
@@ -63928,7 +63934,7 @@
         <v>285</v>
       </c>
       <c r="P326" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q326">
         <v>4</v>
@@ -64119,7 +64125,7 @@
         <v>89</v>
       </c>
       <c r="P327" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q327">
         <v>7</v>
@@ -64588,7 +64594,7 @@
         <v>0.79</v>
       </c>
       <c r="AS329">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT329">
         <v>0.61</v>
@@ -64692,7 +64698,7 @@
         <v>269</v>
       </c>
       <c r="P330" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q330">
         <v>9</v>
@@ -64883,7 +64889,7 @@
         <v>177</v>
       </c>
       <c r="P331" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q331">
         <v>5</v>
@@ -65074,7 +65080,7 @@
         <v>89</v>
       </c>
       <c r="P332" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q332">
         <v>3</v>
@@ -65355,7 +65361,7 @@
         <v>1.44</v>
       </c>
       <c r="AT333">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU333">
         <v>1.41</v>
@@ -66793,7 +66799,7 @@
         <v>89</v>
       </c>
       <c r="P341" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q341">
         <v>5</v>
@@ -66984,7 +66990,7 @@
         <v>292</v>
       </c>
       <c r="P342" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q342">
         <v>1</v>
@@ -67175,7 +67181,7 @@
         <v>293</v>
       </c>
       <c r="P343" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q343">
         <v>4</v>
@@ -67366,7 +67372,7 @@
         <v>171</v>
       </c>
       <c r="P344" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q344">
         <v>5</v>
@@ -68130,7 +68136,7 @@
         <v>151</v>
       </c>
       <c r="P348" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q348">
         <v>8</v>
@@ -68703,7 +68709,7 @@
         <v>296</v>
       </c>
       <c r="P351" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q351">
         <v>3</v>
@@ -69467,7 +69473,7 @@
         <v>154</v>
       </c>
       <c r="P355" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q355">
         <v>7</v>
@@ -69658,7 +69664,7 @@
         <v>219</v>
       </c>
       <c r="P356" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q356">
         <v>4</v>
@@ -70127,7 +70133,7 @@
         <v>1.36</v>
       </c>
       <c r="AS358">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT358">
         <v>1.18</v>
@@ -70321,7 +70327,7 @@
         <v>1.71</v>
       </c>
       <c r="AT359">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU359">
         <v>1.53</v>
@@ -70995,7 +71001,7 @@
         <v>198</v>
       </c>
       <c r="P363" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q363">
         <v>5</v>
@@ -71186,7 +71192,7 @@
         <v>89</v>
       </c>
       <c r="P364" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q364">
         <v>2</v>
@@ -71377,7 +71383,7 @@
         <v>301</v>
       </c>
       <c r="P365" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q365">
         <v>5</v>
@@ -71759,7 +71765,7 @@
         <v>89</v>
       </c>
       <c r="P367" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q367">
         <v>5</v>
@@ -71950,7 +71956,7 @@
         <v>302</v>
       </c>
       <c r="P368" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q368">
         <v>5</v>
@@ -72141,7 +72147,7 @@
         <v>303</v>
       </c>
       <c r="P369" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q369">
         <v>4</v>
@@ -72419,7 +72425,7 @@
         <v>0.67</v>
       </c>
       <c r="AS370">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT370">
         <v>0.59</v>
@@ -73096,7 +73102,7 @@
         <v>307</v>
       </c>
       <c r="P374" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q374">
         <v>6</v>
@@ -73377,7 +73383,7 @@
         <v>1.78</v>
       </c>
       <c r="AT375">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU375">
         <v>1.92</v>
@@ -73669,7 +73675,7 @@
         <v>309</v>
       </c>
       <c r="P377" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q377">
         <v>4</v>
@@ -74624,7 +74630,7 @@
         <v>89</v>
       </c>
       <c r="P382" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q382">
         <v>4</v>
@@ -75579,7 +75585,7 @@
         <v>313</v>
       </c>
       <c r="P387" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q387">
         <v>6</v>
@@ -75770,7 +75776,7 @@
         <v>147</v>
       </c>
       <c r="P388" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q388">
         <v>5</v>
@@ -76152,7 +76158,7 @@
         <v>139</v>
       </c>
       <c r="P390" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q390">
         <v>3</v>
@@ -76725,7 +76731,7 @@
         <v>316</v>
       </c>
       <c r="P393" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q393">
         <v>4</v>
@@ -76916,7 +76922,7 @@
         <v>221</v>
       </c>
       <c r="P394" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q394">
         <v>7</v>
@@ -77006,7 +77012,7 @@
         <v>1.12</v>
       </c>
       <c r="AT394">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU394">
         <v>1.65</v>
@@ -78149,7 +78155,7 @@
         <v>1.13</v>
       </c>
       <c r="AS400">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT400">
         <v>1.22</v>
@@ -78253,7 +78259,7 @@
         <v>321</v>
       </c>
       <c r="P401" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q401">
         <v>3</v>
@@ -78826,7 +78832,7 @@
         <v>267</v>
       </c>
       <c r="P404" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q404">
         <v>3</v>
@@ -79208,7 +79214,7 @@
         <v>323</v>
       </c>
       <c r="P406" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q406">
         <v>6</v>
@@ -79972,7 +79978,7 @@
         <v>326</v>
       </c>
       <c r="P410" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q410">
         <v>4</v>
@@ -80354,7 +80360,7 @@
         <v>89</v>
       </c>
       <c r="P412" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q412">
         <v>5</v>
@@ -81500,7 +81506,7 @@
         <v>100</v>
       </c>
       <c r="P418" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q418">
         <v>2</v>
@@ -82215,6 +82221,197 @@
       </c>
       <c r="BK421">
         <v>13</v>
+      </c>
+    </row>
+    <row r="422" spans="1:63">
+      <c r="A422" s="1">
+        <v>421</v>
+      </c>
+      <c r="B422">
+        <v>2608559</v>
+      </c>
+      <c r="C422" t="s">
+        <v>63</v>
+      </c>
+      <c r="D422" t="s">
+        <v>64</v>
+      </c>
+      <c r="E422" s="2">
+        <v>44995.70833333334</v>
+      </c>
+      <c r="F422">
+        <v>36</v>
+      </c>
+      <c r="G422" t="s">
+        <v>80</v>
+      </c>
+      <c r="H422" t="s">
+        <v>72</v>
+      </c>
+      <c r="I422">
+        <v>2</v>
+      </c>
+      <c r="J422">
+        <v>0</v>
+      </c>
+      <c r="K422">
+        <v>2</v>
+      </c>
+      <c r="L422">
+        <v>3</v>
+      </c>
+      <c r="M422">
+        <v>2</v>
+      </c>
+      <c r="N422">
+        <v>5</v>
+      </c>
+      <c r="O422" t="s">
+        <v>329</v>
+      </c>
+      <c r="P422" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q422">
+        <v>1</v>
+      </c>
+      <c r="R422">
+        <v>5</v>
+      </c>
+      <c r="S422">
+        <v>6</v>
+      </c>
+      <c r="T422">
+        <v>2.75</v>
+      </c>
+      <c r="U422">
+        <v>2.1</v>
+      </c>
+      <c r="V422">
+        <v>4.2</v>
+      </c>
+      <c r="W422">
+        <v>1.45</v>
+      </c>
+      <c r="X422">
+        <v>2.75</v>
+      </c>
+      <c r="Y422">
+        <v>3.1</v>
+      </c>
+      <c r="Z422">
+        <v>1.36</v>
+      </c>
+      <c r="AA422">
+        <v>8</v>
+      </c>
+      <c r="AB422">
+        <v>1.07</v>
+      </c>
+      <c r="AC422">
+        <v>1.95</v>
+      </c>
+      <c r="AD422">
+        <v>3.2</v>
+      </c>
+      <c r="AE422">
+        <v>3.6</v>
+      </c>
+      <c r="AF422">
+        <v>1.07</v>
+      </c>
+      <c r="AG422">
+        <v>10</v>
+      </c>
+      <c r="AH422">
+        <v>1.38</v>
+      </c>
+      <c r="AI422">
+        <v>3.1</v>
+      </c>
+      <c r="AJ422">
+        <v>2.2</v>
+      </c>
+      <c r="AK422">
+        <v>1.62</v>
+      </c>
+      <c r="AL422">
+        <v>1.9</v>
+      </c>
+      <c r="AM422">
+        <v>1.88</v>
+      </c>
+      <c r="AN422">
+        <v>1.28</v>
+      </c>
+      <c r="AO422">
+        <v>1.26</v>
+      </c>
+      <c r="AP422">
+        <v>1.83</v>
+      </c>
+      <c r="AQ422">
+        <v>1.12</v>
+      </c>
+      <c r="AR422">
+        <v>1.17</v>
+      </c>
+      <c r="AS422">
+        <v>1.22</v>
+      </c>
+      <c r="AT422">
+        <v>1.11</v>
+      </c>
+      <c r="AU422">
+        <v>1.64</v>
+      </c>
+      <c r="AV422">
+        <v>0.99</v>
+      </c>
+      <c r="AW422">
+        <v>2.63</v>
+      </c>
+      <c r="AX422">
+        <v>1.35</v>
+      </c>
+      <c r="AY422">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ422">
+        <v>4.2</v>
+      </c>
+      <c r="BA422">
+        <v>1.18</v>
+      </c>
+      <c r="BB422">
+        <v>1.43</v>
+      </c>
+      <c r="BC422">
+        <v>1.7</v>
+      </c>
+      <c r="BD422">
+        <v>2.1</v>
+      </c>
+      <c r="BE422">
+        <v>2.63</v>
+      </c>
+      <c r="BF422">
+        <v>6</v>
+      </c>
+      <c r="BG422">
+        <v>3</v>
+      </c>
+      <c r="BH422">
+        <v>9</v>
+      </c>
+      <c r="BI422">
+        <v>7</v>
+      </c>
+      <c r="BJ422">
+        <v>15</v>
+      </c>
+      <c r="BK422">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Championship_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="478">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1006,6 +1006,9 @@
     <t>['24', '43', '75']</t>
   </si>
   <si>
+    <t>['58', '81']</t>
+  </si>
+  <si>
     <t>['18']</t>
   </si>
   <si>
@@ -1806,7 +1809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK422"/>
+  <dimension ref="A1:BK423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2050,7 +2053,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -2241,7 +2244,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -3769,7 +3772,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -4533,7 +4536,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4724,7 +4727,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -5005,7 +5008,7 @@
         <v>1.22</v>
       </c>
       <c r="AT17">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5870,7 +5873,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5957,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT22">
         <v>1.44</v>
@@ -6061,7 +6064,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -7207,7 +7210,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7398,7 +7401,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -7589,7 +7592,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7780,7 +7783,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -8353,7 +8356,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8735,7 +8738,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -9204,7 +9207,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT39">
         <v>1.82</v>
@@ -9971,7 +9974,7 @@
         <v>1.12</v>
       </c>
       <c r="AT43">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU43">
         <v>1.52</v>
@@ -10072,7 +10075,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -11027,7 +11030,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -11218,7 +11221,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -12364,7 +12367,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -12454,7 +12457,7 @@
         <v>2.44</v>
       </c>
       <c r="AT56">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU56">
         <v>1.72</v>
@@ -12833,7 +12836,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT58">
         <v>0.88</v>
@@ -13319,7 +13322,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -13510,7 +13513,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -13892,7 +13895,7 @@
         <v>89</v>
       </c>
       <c r="P64" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14083,7 +14086,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -14274,7 +14277,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -14656,7 +14659,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15038,7 +15041,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15420,7 +15423,7 @@
         <v>104</v>
       </c>
       <c r="P72" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -16184,7 +16187,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17035,7 +17038,7 @@
         <v>0</v>
       </c>
       <c r="AS80">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT80">
         <v>0.59</v>
@@ -18667,7 +18670,7 @@
         <v>151</v>
       </c>
       <c r="P89" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q89">
         <v>9</v>
@@ -18858,7 +18861,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -19240,7 +19243,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -19431,7 +19434,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q93">
         <v>10</v>
@@ -19521,7 +19524,7 @@
         <v>1.22</v>
       </c>
       <c r="AT93">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU93">
         <v>0.95</v>
@@ -19813,7 +19816,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -20004,7 +20007,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -20195,7 +20198,7 @@
         <v>89</v>
       </c>
       <c r="P97" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -20577,7 +20580,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21049,7 +21052,7 @@
         <v>1.53</v>
       </c>
       <c r="AT101">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU101">
         <v>1.63</v>
@@ -21150,7 +21153,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -21341,7 +21344,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -21532,7 +21535,7 @@
         <v>161</v>
       </c>
       <c r="P104" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21723,7 +21726,7 @@
         <v>162</v>
       </c>
       <c r="P105" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21914,7 +21917,7 @@
         <v>89</v>
       </c>
       <c r="P106" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23150,7 +23153,7 @@
         <v>1.88</v>
       </c>
       <c r="AT112">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU112">
         <v>1.65</v>
@@ -23442,7 +23445,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -23824,7 +23827,7 @@
         <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -24397,7 +24400,7 @@
         <v>89</v>
       </c>
       <c r="P119" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24970,7 +24973,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -25057,7 +25060,7 @@
         <v>1.4</v>
       </c>
       <c r="AS122">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT122">
         <v>1.11</v>
@@ -25352,7 +25355,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25543,7 +25546,7 @@
         <v>89</v>
       </c>
       <c r="P125" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q125">
         <v>8</v>
@@ -25734,7 +25737,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -26498,7 +26501,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26779,7 +26782,7 @@
         <v>1.35</v>
       </c>
       <c r="AT131">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU131">
         <v>1.55</v>
@@ -26880,7 +26883,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q132">
         <v>9</v>
@@ -27071,7 +27074,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -27349,7 +27352,7 @@
         <v>0.5</v>
       </c>
       <c r="AS134">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT134">
         <v>1.18</v>
@@ -28408,7 +28411,7 @@
         <v>181</v>
       </c>
       <c r="P140" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q140">
         <v>9</v>
@@ -28599,7 +28602,7 @@
         <v>94</v>
       </c>
       <c r="P141" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -29363,7 +29366,7 @@
         <v>184</v>
       </c>
       <c r="P145" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q145">
         <v>5</v>
@@ -29745,7 +29748,7 @@
         <v>186</v>
       </c>
       <c r="P147" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -30127,7 +30130,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q149">
         <v>7</v>
@@ -30891,7 +30894,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -31551,7 +31554,7 @@
         <v>2</v>
       </c>
       <c r="AS156">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT156">
         <v>1.71</v>
@@ -31655,7 +31658,7 @@
         <v>193</v>
       </c>
       <c r="P157" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -32037,7 +32040,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q159">
         <v>1</v>
@@ -32228,7 +32231,7 @@
         <v>196</v>
       </c>
       <c r="P160" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q160">
         <v>14</v>
@@ -32318,7 +32321,7 @@
         <v>2.12</v>
       </c>
       <c r="AT160">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU160">
         <v>2.15</v>
@@ -32801,7 +32804,7 @@
         <v>89</v>
       </c>
       <c r="P163" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32992,7 +32995,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q164">
         <v>9</v>
@@ -33183,7 +33186,7 @@
         <v>89</v>
       </c>
       <c r="P165" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33374,7 +33377,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -33461,7 +33464,7 @@
         <v>0.33</v>
       </c>
       <c r="AS166">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT166">
         <v>1.22</v>
@@ -33565,7 +33568,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33756,7 +33759,7 @@
         <v>89</v>
       </c>
       <c r="P168" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q168">
         <v>7</v>
@@ -34138,7 +34141,7 @@
         <v>201</v>
       </c>
       <c r="P170" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34520,7 +34523,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q172">
         <v>13</v>
@@ -35093,7 +35096,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -35475,7 +35478,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -36239,7 +36242,7 @@
         <v>208</v>
       </c>
       <c r="P181" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q181">
         <v>1</v>
@@ -36430,7 +36433,7 @@
         <v>209</v>
       </c>
       <c r="P182" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -36621,7 +36624,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -37003,7 +37006,7 @@
         <v>89</v>
       </c>
       <c r="P185" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q185">
         <v>9</v>
@@ -37194,7 +37197,7 @@
         <v>211</v>
       </c>
       <c r="P186" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -37576,7 +37579,7 @@
         <v>213</v>
       </c>
       <c r="P188" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37958,7 +37961,7 @@
         <v>215</v>
       </c>
       <c r="P190" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -38531,7 +38534,7 @@
         <v>218</v>
       </c>
       <c r="P193" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q193">
         <v>6</v>
@@ -39191,7 +39194,7 @@
         <v>1.57</v>
       </c>
       <c r="AS196">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT196">
         <v>1.06</v>
@@ -39295,7 +39298,7 @@
         <v>89</v>
       </c>
       <c r="P197" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q197">
         <v>8</v>
@@ -40441,7 +40444,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40531,7 +40534,7 @@
         <v>1.78</v>
       </c>
       <c r="AT203">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU203">
         <v>1.28</v>
@@ -41014,7 +41017,7 @@
         <v>226</v>
       </c>
       <c r="P206" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -41587,7 +41590,7 @@
         <v>178</v>
       </c>
       <c r="P209" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q209">
         <v>7</v>
@@ -42059,7 +42062,7 @@
         <v>1.78</v>
       </c>
       <c r="AT211">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU211">
         <v>1.96</v>
@@ -42247,7 +42250,7 @@
         <v>1.56</v>
       </c>
       <c r="AS212">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT212">
         <v>1.72</v>
@@ -42733,7 +42736,7 @@
         <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -42924,7 +42927,7 @@
         <v>93</v>
       </c>
       <c r="P216" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -43115,7 +43118,7 @@
         <v>229</v>
       </c>
       <c r="P217" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q217">
         <v>7</v>
@@ -43497,7 +43500,7 @@
         <v>199</v>
       </c>
       <c r="P219" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43688,7 +43691,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q220">
         <v>10</v>
@@ -43879,7 +43882,7 @@
         <v>231</v>
       </c>
       <c r="P221" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q221">
         <v>4</v>
@@ -44261,7 +44264,7 @@
         <v>92</v>
       </c>
       <c r="P223" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q223">
         <v>2</v>
@@ -45025,7 +45028,7 @@
         <v>232</v>
       </c>
       <c r="P227" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q227">
         <v>6</v>
@@ -45789,7 +45792,7 @@
         <v>89</v>
       </c>
       <c r="P231" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q231">
         <v>12</v>
@@ -45980,7 +45983,7 @@
         <v>147</v>
       </c>
       <c r="P232" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q232">
         <v>14</v>
@@ -46171,7 +46174,7 @@
         <v>235</v>
       </c>
       <c r="P233" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q233">
         <v>4</v>
@@ -46362,7 +46365,7 @@
         <v>89</v>
       </c>
       <c r="P234" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q234">
         <v>2</v>
@@ -46553,7 +46556,7 @@
         <v>236</v>
       </c>
       <c r="P235" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q235">
         <v>12</v>
@@ -47598,7 +47601,7 @@
         <v>0.78</v>
       </c>
       <c r="AT240">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU240">
         <v>1.33</v>
@@ -47890,7 +47893,7 @@
         <v>243</v>
       </c>
       <c r="P242" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q242">
         <v>2</v>
@@ -48081,7 +48084,7 @@
         <v>182</v>
       </c>
       <c r="P243" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q243">
         <v>3</v>
@@ -48272,7 +48275,7 @@
         <v>175</v>
       </c>
       <c r="P244" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q244">
         <v>12</v>
@@ -48654,7 +48657,7 @@
         <v>93</v>
       </c>
       <c r="P246" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q246">
         <v>4</v>
@@ -49123,7 +49126,7 @@
         <v>1.3</v>
       </c>
       <c r="AS248">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT248">
         <v>1.22</v>
@@ -49800,7 +49803,7 @@
         <v>247</v>
       </c>
       <c r="P252" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q252">
         <v>2</v>
@@ -49991,7 +49994,7 @@
         <v>154</v>
       </c>
       <c r="P253" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q253">
         <v>7</v>
@@ -50373,7 +50376,7 @@
         <v>89</v>
       </c>
       <c r="P255" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q255">
         <v>7</v>
@@ -50564,7 +50567,7 @@
         <v>249</v>
       </c>
       <c r="P256" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -51519,7 +51522,7 @@
         <v>89</v>
       </c>
       <c r="P261" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q261">
         <v>2</v>
@@ -51901,7 +51904,7 @@
         <v>118</v>
       </c>
       <c r="P263" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q263">
         <v>5</v>
@@ -52092,7 +52095,7 @@
         <v>251</v>
       </c>
       <c r="P264" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q264">
         <v>0</v>
@@ -52283,7 +52286,7 @@
         <v>252</v>
       </c>
       <c r="P265" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q265">
         <v>5</v>
@@ -52474,7 +52477,7 @@
         <v>89</v>
       </c>
       <c r="P266" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q266">
         <v>7</v>
@@ -52755,7 +52758,7 @@
         <v>1.28</v>
       </c>
       <c r="AT267">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU267">
         <v>1.55</v>
@@ -53047,7 +53050,7 @@
         <v>254</v>
       </c>
       <c r="P269" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q269">
         <v>3</v>
@@ -53134,7 +53137,7 @@
         <v>1.27</v>
       </c>
       <c r="AS269">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT269">
         <v>1.33</v>
@@ -53429,7 +53432,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q271">
         <v>4</v>
@@ -53811,7 +53814,7 @@
         <v>89</v>
       </c>
       <c r="P273" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q273">
         <v>6</v>
@@ -54002,7 +54005,7 @@
         <v>224</v>
       </c>
       <c r="P274" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q274">
         <v>8</v>
@@ -54384,7 +54387,7 @@
         <v>89</v>
       </c>
       <c r="P276" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q276">
         <v>4</v>
@@ -54575,7 +54578,7 @@
         <v>258</v>
       </c>
       <c r="P277" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q277">
         <v>7</v>
@@ -54766,7 +54769,7 @@
         <v>89</v>
       </c>
       <c r="P278" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q278">
         <v>8</v>
@@ -54853,7 +54856,7 @@
         <v>1.18</v>
       </c>
       <c r="AS278">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT278">
         <v>1.12</v>
@@ -55047,7 +55050,7 @@
         <v>1.39</v>
       </c>
       <c r="AT279">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU279">
         <v>1.42</v>
@@ -55339,7 +55342,7 @@
         <v>94</v>
       </c>
       <c r="P281" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q281">
         <v>2</v>
@@ -55530,7 +55533,7 @@
         <v>261</v>
       </c>
       <c r="P282" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q282">
         <v>3</v>
@@ -56103,7 +56106,7 @@
         <v>263</v>
       </c>
       <c r="P285" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q285">
         <v>6</v>
@@ -56676,7 +56679,7 @@
         <v>89</v>
       </c>
       <c r="P288" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q288">
         <v>6</v>
@@ -57440,7 +57443,7 @@
         <v>267</v>
       </c>
       <c r="P292" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q292">
         <v>1</v>
@@ -57631,7 +57634,7 @@
         <v>141</v>
       </c>
       <c r="P293" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q293">
         <v>1</v>
@@ -58013,7 +58016,7 @@
         <v>247</v>
       </c>
       <c r="P295" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q295">
         <v>5</v>
@@ -59159,7 +59162,7 @@
         <v>148</v>
       </c>
       <c r="P301" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q301">
         <v>1</v>
@@ -59541,7 +59544,7 @@
         <v>154</v>
       </c>
       <c r="P303" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q303">
         <v>1</v>
@@ -59923,7 +59926,7 @@
         <v>89</v>
       </c>
       <c r="P305" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q305">
         <v>8</v>
@@ -60114,7 +60117,7 @@
         <v>273</v>
       </c>
       <c r="P306" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q306">
         <v>4</v>
@@ -60496,7 +60499,7 @@
         <v>274</v>
       </c>
       <c r="P308" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q308">
         <v>7</v>
@@ -60687,7 +60690,7 @@
         <v>275</v>
       </c>
       <c r="P309" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q309">
         <v>9</v>
@@ -61069,7 +61072,7 @@
         <v>276</v>
       </c>
       <c r="P311" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q311">
         <v>8</v>
@@ -61451,7 +61454,7 @@
         <v>89</v>
       </c>
       <c r="P313" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q313">
         <v>4</v>
@@ -61732,7 +61735,7 @@
         <v>1.71</v>
       </c>
       <c r="AT314">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU314">
         <v>1.5</v>
@@ -61833,7 +61836,7 @@
         <v>224</v>
       </c>
       <c r="P315" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q315">
         <v>1</v>
@@ -62597,7 +62600,7 @@
         <v>219</v>
       </c>
       <c r="P319" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q319">
         <v>3</v>
@@ -63170,7 +63173,7 @@
         <v>281</v>
       </c>
       <c r="P322" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q322">
         <v>5</v>
@@ -63257,7 +63260,7 @@
         <v>1.25</v>
       </c>
       <c r="AS322">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT322">
         <v>1.12</v>
@@ -63361,7 +63364,7 @@
         <v>282</v>
       </c>
       <c r="P323" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q323">
         <v>2</v>
@@ -63934,7 +63937,7 @@
         <v>285</v>
       </c>
       <c r="P326" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q326">
         <v>4</v>
@@ -64125,7 +64128,7 @@
         <v>89</v>
       </c>
       <c r="P327" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q327">
         <v>7</v>
@@ -64698,7 +64701,7 @@
         <v>269</v>
       </c>
       <c r="P330" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q330">
         <v>9</v>
@@ -64889,7 +64892,7 @@
         <v>177</v>
       </c>
       <c r="P331" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q331">
         <v>5</v>
@@ -65080,7 +65083,7 @@
         <v>89</v>
       </c>
       <c r="P332" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q332">
         <v>3</v>
@@ -65358,7 +65361,7 @@
         <v>1.07</v>
       </c>
       <c r="AS333">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT333">
         <v>1.11</v>
@@ -66799,7 +66802,7 @@
         <v>89</v>
       </c>
       <c r="P341" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q341">
         <v>5</v>
@@ -66990,7 +66993,7 @@
         <v>292</v>
       </c>
       <c r="P342" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q342">
         <v>1</v>
@@ -67181,7 +67184,7 @@
         <v>293</v>
       </c>
       <c r="P343" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q343">
         <v>4</v>
@@ -67372,7 +67375,7 @@
         <v>171</v>
       </c>
       <c r="P344" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q344">
         <v>5</v>
@@ -67844,7 +67847,7 @@
         <v>2.06</v>
       </c>
       <c r="AT346">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU346">
         <v>1.59</v>
@@ -68136,7 +68139,7 @@
         <v>151</v>
       </c>
       <c r="P348" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q348">
         <v>8</v>
@@ -68709,7 +68712,7 @@
         <v>296</v>
       </c>
       <c r="P351" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q351">
         <v>3</v>
@@ -69473,7 +69476,7 @@
         <v>154</v>
       </c>
       <c r="P355" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q355">
         <v>7</v>
@@ -69664,7 +69667,7 @@
         <v>219</v>
       </c>
       <c r="P356" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q356">
         <v>4</v>
@@ -70706,7 +70709,7 @@
         <v>1.64</v>
       </c>
       <c r="AS361">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT361">
         <v>1.59</v>
@@ -71001,7 +71004,7 @@
         <v>198</v>
       </c>
       <c r="P363" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q363">
         <v>5</v>
@@ -71192,7 +71195,7 @@
         <v>89</v>
       </c>
       <c r="P364" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q364">
         <v>2</v>
@@ -71383,7 +71386,7 @@
         <v>301</v>
       </c>
       <c r="P365" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q365">
         <v>5</v>
@@ -71765,7 +71768,7 @@
         <v>89</v>
       </c>
       <c r="P367" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q367">
         <v>5</v>
@@ -71956,7 +71959,7 @@
         <v>302</v>
       </c>
       <c r="P368" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q368">
         <v>5</v>
@@ -72147,7 +72150,7 @@
         <v>303</v>
       </c>
       <c r="P369" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q369">
         <v>4</v>
@@ -72619,7 +72622,7 @@
         <v>1.41</v>
       </c>
       <c r="AT371">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU371">
         <v>1.59</v>
@@ -72807,7 +72810,7 @@
         <v>1.21</v>
       </c>
       <c r="AS372">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT372">
         <v>1.06</v>
@@ -73102,7 +73105,7 @@
         <v>307</v>
       </c>
       <c r="P374" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q374">
         <v>6</v>
@@ -73675,7 +73678,7 @@
         <v>309</v>
       </c>
       <c r="P377" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q377">
         <v>4</v>
@@ -74630,7 +74633,7 @@
         <v>89</v>
       </c>
       <c r="P382" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q382">
         <v>4</v>
@@ -75585,7 +75588,7 @@
         <v>313</v>
       </c>
       <c r="P387" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q387">
         <v>6</v>
@@ -75776,7 +75779,7 @@
         <v>147</v>
       </c>
       <c r="P388" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q388">
         <v>5</v>
@@ -76057,7 +76060,7 @@
         <v>2.18</v>
       </c>
       <c r="AT389">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU389">
         <v>1.36</v>
@@ -76158,7 +76161,7 @@
         <v>139</v>
       </c>
       <c r="P390" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q390">
         <v>3</v>
@@ -76731,7 +76734,7 @@
         <v>316</v>
       </c>
       <c r="P393" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q393">
         <v>4</v>
@@ -76922,7 +76925,7 @@
         <v>221</v>
       </c>
       <c r="P394" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q394">
         <v>7</v>
@@ -77773,7 +77776,7 @@
         <v>1.25</v>
       </c>
       <c r="AS398">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT398">
         <v>1.18</v>
@@ -78259,7 +78262,7 @@
         <v>321</v>
       </c>
       <c r="P401" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q401">
         <v>3</v>
@@ -78349,7 +78352,7 @@
         <v>1.94</v>
       </c>
       <c r="AT401">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU401">
         <v>1.33</v>
@@ -78832,7 +78835,7 @@
         <v>267</v>
       </c>
       <c r="P404" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q404">
         <v>3</v>
@@ -79214,7 +79217,7 @@
         <v>323</v>
       </c>
       <c r="P406" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q406">
         <v>6</v>
@@ -79978,7 +79981,7 @@
         <v>326</v>
       </c>
       <c r="P410" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q410">
         <v>4</v>
@@ -80360,7 +80363,7 @@
         <v>89</v>
       </c>
       <c r="P412" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q412">
         <v>5</v>
@@ -81506,7 +81509,7 @@
         <v>100</v>
       </c>
       <c r="P418" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q418">
         <v>2</v>
@@ -82270,7 +82273,7 @@
         <v>329</v>
       </c>
       <c r="P422" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q422">
         <v>1</v>
@@ -82412,6 +82415,197 @@
       </c>
       <c r="BK422">
         <v>10</v>
+      </c>
+    </row>
+    <row r="423" spans="1:63">
+      <c r="A423" s="1">
+        <v>422</v>
+      </c>
+      <c r="B423">
+        <v>2608551</v>
+      </c>
+      <c r="C423" t="s">
+        <v>63</v>
+      </c>
+      <c r="D423" t="s">
+        <v>64</v>
+      </c>
+      <c r="E423" s="2">
+        <v>44996.39583333334</v>
+      </c>
+      <c r="F423">
+        <v>36</v>
+      </c>
+      <c r="G423" t="s">
+        <v>85</v>
+      </c>
+      <c r="H423" t="s">
+        <v>71</v>
+      </c>
+      <c r="I423">
+        <v>0</v>
+      </c>
+      <c r="J423">
+        <v>0</v>
+      </c>
+      <c r="K423">
+        <v>0</v>
+      </c>
+      <c r="L423">
+        <v>2</v>
+      </c>
+      <c r="M423">
+        <v>0</v>
+      </c>
+      <c r="N423">
+        <v>2</v>
+      </c>
+      <c r="O423" t="s">
+        <v>330</v>
+      </c>
+      <c r="P423" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q423">
+        <v>6</v>
+      </c>
+      <c r="R423">
+        <v>0</v>
+      </c>
+      <c r="S423">
+        <v>6</v>
+      </c>
+      <c r="T423">
+        <v>2.65</v>
+      </c>
+      <c r="U423">
+        <v>2.1</v>
+      </c>
+      <c r="V423">
+        <v>4.5</v>
+      </c>
+      <c r="W423">
+        <v>1.45</v>
+      </c>
+      <c r="X423">
+        <v>2.75</v>
+      </c>
+      <c r="Y423">
+        <v>3.1</v>
+      </c>
+      <c r="Z423">
+        <v>1.36</v>
+      </c>
+      <c r="AA423">
+        <v>8</v>
+      </c>
+      <c r="AB423">
+        <v>1.07</v>
+      </c>
+      <c r="AC423">
+        <v>1.95</v>
+      </c>
+      <c r="AD423">
+        <v>3.45</v>
+      </c>
+      <c r="AE423">
+        <v>3.65</v>
+      </c>
+      <c r="AF423">
+        <v>1.07</v>
+      </c>
+      <c r="AG423">
+        <v>9.5</v>
+      </c>
+      <c r="AH423">
+        <v>1.38</v>
+      </c>
+      <c r="AI423">
+        <v>3.1</v>
+      </c>
+      <c r="AJ423">
+        <v>2.15</v>
+      </c>
+      <c r="AK423">
+        <v>1.67</v>
+      </c>
+      <c r="AL423">
+        <v>1.92</v>
+      </c>
+      <c r="AM423">
+        <v>1.85</v>
+      </c>
+      <c r="AN423">
+        <v>1.25</v>
+      </c>
+      <c r="AO423">
+        <v>1.26</v>
+      </c>
+      <c r="AP423">
+        <v>1.9</v>
+      </c>
+      <c r="AQ423">
+        <v>1.44</v>
+      </c>
+      <c r="AR423">
+        <v>0.78</v>
+      </c>
+      <c r="AS423">
+        <v>1.53</v>
+      </c>
+      <c r="AT423">
+        <v>0.74</v>
+      </c>
+      <c r="AU423">
+        <v>1.37</v>
+      </c>
+      <c r="AV423">
+        <v>1.15</v>
+      </c>
+      <c r="AW423">
+        <v>2.52</v>
+      </c>
+      <c r="AX423">
+        <v>1.46</v>
+      </c>
+      <c r="AY423">
+        <v>8.6</v>
+      </c>
+      <c r="AZ423">
+        <v>3.5</v>
+      </c>
+      <c r="BA423">
+        <v>1.17</v>
+      </c>
+      <c r="BB423">
+        <v>1.33</v>
+      </c>
+      <c r="BC423">
+        <v>1.64</v>
+      </c>
+      <c r="BD423">
+        <v>2.07</v>
+      </c>
+      <c r="BE423">
+        <v>2.73</v>
+      </c>
+      <c r="BF423">
+        <v>4</v>
+      </c>
+      <c r="BG423">
+        <v>3</v>
+      </c>
+      <c r="BH423">
+        <v>6</v>
+      </c>
+      <c r="BI423">
+        <v>2</v>
+      </c>
+      <c r="BJ423">
+        <v>10</v>
+      </c>
+      <c r="BK423">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
